--- a/BackTest/2020-01-21 BackTest FX.xlsx
+++ b/BackTest/2020-01-21 BackTest FX.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M162"/>
+  <dimension ref="A1:M163"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -433,22 +433,22 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>67.8</v>
+        <v>67.59999999999999</v>
       </c>
       <c r="C2" t="n">
         <v>67.5</v>
       </c>
       <c r="D2" t="n">
-        <v>67.8</v>
+        <v>67.59999999999999</v>
       </c>
       <c r="E2" t="n">
         <v>67.5</v>
       </c>
       <c r="F2" t="n">
-        <v>8000.8561</v>
+        <v>5611</v>
       </c>
       <c r="G2" t="n">
-        <v>67.17283333333339</v>
+        <v>67.17916666666673</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>67.5</v>
+        <v>67.8</v>
       </c>
       <c r="C3" t="n">
         <v>67.5</v>
       </c>
       <c r="D3" t="n">
-        <v>67.5</v>
+        <v>67.8</v>
       </c>
       <c r="E3" t="n">
         <v>67.5</v>
       </c>
       <c r="F3" t="n">
-        <v>9.7859</v>
+        <v>8000.8561</v>
       </c>
       <c r="G3" t="n">
-        <v>67.16650000000006</v>
+        <v>67.17283333333339</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -515,10 +515,10 @@
         <v>67.5</v>
       </c>
       <c r="F4" t="n">
-        <v>30</v>
+        <v>9.7859</v>
       </c>
       <c r="G4" t="n">
-        <v>67.17383333333339</v>
+        <v>67.16650000000006</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -550,10 +550,10 @@
         <v>67.5</v>
       </c>
       <c r="F5" t="n">
-        <v>682.63</v>
+        <v>30</v>
       </c>
       <c r="G5" t="n">
-        <v>67.16750000000006</v>
+        <v>67.17383333333339</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -573,22 +573,22 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>67.09</v>
+        <v>67.5</v>
       </c>
       <c r="C6" t="n">
-        <v>66.90000000000001</v>
+        <v>67.5</v>
       </c>
       <c r="D6" t="n">
-        <v>67.09</v>
+        <v>67.5</v>
       </c>
       <c r="E6" t="n">
-        <v>66.90000000000001</v>
+        <v>67.5</v>
       </c>
       <c r="F6" t="n">
-        <v>457.0939</v>
+        <v>682.63</v>
       </c>
       <c r="G6" t="n">
-        <v>67.16233333333339</v>
+        <v>67.16750000000006</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -608,22 +608,22 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>67.09999999999999</v>
+        <v>67.09</v>
       </c>
       <c r="C7" t="n">
-        <v>67</v>
+        <v>66.90000000000001</v>
       </c>
       <c r="D7" t="n">
-        <v>67.09999999999999</v>
+        <v>67.09</v>
       </c>
       <c r="E7" t="n">
-        <v>67</v>
+        <v>66.90000000000001</v>
       </c>
       <c r="F7" t="n">
-        <v>10745.0144</v>
+        <v>457.0939</v>
       </c>
       <c r="G7" t="n">
-        <v>67.15900000000006</v>
+        <v>67.16233333333339</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -643,22 +643,22 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>66.81</v>
+        <v>67.09999999999999</v>
       </c>
       <c r="C8" t="n">
-        <v>66.81</v>
+        <v>67</v>
       </c>
       <c r="D8" t="n">
-        <v>66.81</v>
+        <v>67.09999999999999</v>
       </c>
       <c r="E8" t="n">
-        <v>66.81</v>
+        <v>67</v>
       </c>
       <c r="F8" t="n">
-        <v>209.5159</v>
+        <v>10745.0144</v>
       </c>
       <c r="G8" t="n">
-        <v>67.14250000000007</v>
+        <v>67.15900000000006</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -678,22 +678,22 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>66.70999999999999</v>
+        <v>66.81</v>
       </c>
       <c r="C9" t="n">
-        <v>66.70999999999999</v>
+        <v>66.81</v>
       </c>
       <c r="D9" t="n">
-        <v>66.70999999999999</v>
+        <v>66.81</v>
       </c>
       <c r="E9" t="n">
-        <v>66.70999999999999</v>
+        <v>66.81</v>
       </c>
       <c r="F9" t="n">
-        <v>7015.4754</v>
+        <v>209.5159</v>
       </c>
       <c r="G9" t="n">
-        <v>67.12316666666673</v>
+        <v>67.14250000000007</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -713,22 +713,22 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>67.79000000000001</v>
+        <v>66.70999999999999</v>
       </c>
       <c r="C10" t="n">
-        <v>67.79000000000001</v>
+        <v>66.70999999999999</v>
       </c>
       <c r="D10" t="n">
-        <v>67.79000000000001</v>
+        <v>66.70999999999999</v>
       </c>
       <c r="E10" t="n">
-        <v>67.79000000000001</v>
+        <v>66.70999999999999</v>
       </c>
       <c r="F10" t="n">
-        <v>30.9781</v>
+        <v>7015.4754</v>
       </c>
       <c r="G10" t="n">
-        <v>67.1363333333334</v>
+        <v>67.12316666666673</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -748,22 +748,22 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>66.81999999999999</v>
+        <v>67.79000000000001</v>
       </c>
       <c r="C11" t="n">
-        <v>66.81999999999999</v>
+        <v>67.79000000000001</v>
       </c>
       <c r="D11" t="n">
-        <v>66.81999999999999</v>
+        <v>67.79000000000001</v>
       </c>
       <c r="E11" t="n">
-        <v>66.81999999999999</v>
+        <v>67.79000000000001</v>
       </c>
       <c r="F11" t="n">
-        <v>296.3588</v>
+        <v>30.9781</v>
       </c>
       <c r="G11" t="n">
-        <v>67.13500000000006</v>
+        <v>67.1363333333334</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -783,22 +783,22 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>66.83</v>
+        <v>66.81999999999999</v>
       </c>
       <c r="C12" t="n">
-        <v>66.83</v>
+        <v>66.81999999999999</v>
       </c>
       <c r="D12" t="n">
-        <v>66.83</v>
+        <v>66.81999999999999</v>
       </c>
       <c r="E12" t="n">
-        <v>66.83</v>
+        <v>66.81999999999999</v>
       </c>
       <c r="F12" t="n">
-        <v>233.4349</v>
+        <v>296.3588</v>
       </c>
       <c r="G12" t="n">
-        <v>67.1313333333334</v>
+        <v>67.13500000000006</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -818,22 +818,22 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>66.72</v>
+        <v>66.83</v>
       </c>
       <c r="C13" t="n">
-        <v>66.70999999999999</v>
+        <v>66.83</v>
       </c>
       <c r="D13" t="n">
-        <v>66.72</v>
+        <v>66.83</v>
       </c>
       <c r="E13" t="n">
-        <v>66.70999999999999</v>
+        <v>66.83</v>
       </c>
       <c r="F13" t="n">
-        <v>1820.3669</v>
+        <v>233.4349</v>
       </c>
       <c r="G13" t="n">
-        <v>67.12633333333339</v>
+        <v>67.1313333333334</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -853,22 +853,22 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>66.5</v>
+        <v>66.72</v>
       </c>
       <c r="C14" t="n">
-        <v>66.5</v>
+        <v>66.70999999999999</v>
       </c>
       <c r="D14" t="n">
-        <v>66.5</v>
+        <v>66.72</v>
       </c>
       <c r="E14" t="n">
-        <v>66.5</v>
+        <v>66.70999999999999</v>
       </c>
       <c r="F14" t="n">
-        <v>946.2756000000001</v>
+        <v>1820.3669</v>
       </c>
       <c r="G14" t="n">
-        <v>67.10316666666672</v>
+        <v>67.12633333333339</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -888,22 +888,22 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>66.61</v>
+        <v>66.5</v>
       </c>
       <c r="C15" t="n">
-        <v>67</v>
+        <v>66.5</v>
       </c>
       <c r="D15" t="n">
-        <v>67</v>
+        <v>66.5</v>
       </c>
       <c r="E15" t="n">
-        <v>66.61</v>
+        <v>66.5</v>
       </c>
       <c r="F15" t="n">
-        <v>110</v>
+        <v>946.2756000000001</v>
       </c>
       <c r="G15" t="n">
-        <v>67.12933333333339</v>
+        <v>67.10316666666672</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -926,19 +926,19 @@
         <v>66.61</v>
       </c>
       <c r="C16" t="n">
-        <v>66.5</v>
+        <v>67</v>
       </c>
       <c r="D16" t="n">
+        <v>67</v>
+      </c>
+      <c r="E16" t="n">
         <v>66.61</v>
       </c>
-      <c r="E16" t="n">
-        <v>66.5</v>
-      </c>
       <c r="F16" t="n">
-        <v>3274.2907</v>
+        <v>110</v>
       </c>
       <c r="G16" t="n">
-        <v>67.11450000000006</v>
+        <v>67.12933333333339</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -958,22 +958,22 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>66.5</v>
+        <v>66.61</v>
       </c>
       <c r="C17" t="n">
         <v>66.5</v>
       </c>
       <c r="D17" t="n">
-        <v>66.5</v>
+        <v>66.61</v>
       </c>
       <c r="E17" t="n">
         <v>66.5</v>
       </c>
       <c r="F17" t="n">
-        <v>8150.3999</v>
+        <v>3274.2907</v>
       </c>
       <c r="G17" t="n">
-        <v>67.09966666666674</v>
+        <v>67.11450000000006</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -993,22 +993,22 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>66.58</v>
+        <v>66.5</v>
       </c>
       <c r="C18" t="n">
-        <v>66.58</v>
+        <v>66.5</v>
       </c>
       <c r="D18" t="n">
-        <v>66.58</v>
+        <v>66.5</v>
       </c>
       <c r="E18" t="n">
-        <v>66.58</v>
+        <v>66.5</v>
       </c>
       <c r="F18" t="n">
-        <v>88.9221</v>
+        <v>8150.3999</v>
       </c>
       <c r="G18" t="n">
-        <v>67.10900000000007</v>
+        <v>67.09966666666674</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1028,22 +1028,22 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>66.5</v>
+        <v>66.58</v>
       </c>
       <c r="C19" t="n">
-        <v>66.31</v>
+        <v>66.58</v>
       </c>
       <c r="D19" t="n">
-        <v>66.5</v>
+        <v>66.58</v>
       </c>
       <c r="E19" t="n">
-        <v>66.31</v>
+        <v>66.58</v>
       </c>
       <c r="F19" t="n">
-        <v>4909</v>
+        <v>88.9221</v>
       </c>
       <c r="G19" t="n">
-        <v>67.1043333333334</v>
+        <v>67.10900000000007</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1063,22 +1063,22 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
+        <v>66.5</v>
+      </c>
+      <c r="C20" t="n">
         <v>66.31</v>
       </c>
-      <c r="C20" t="n">
-        <v>67</v>
-      </c>
       <c r="D20" t="n">
-        <v>67</v>
+        <v>66.5</v>
       </c>
       <c r="E20" t="n">
         <v>66.31</v>
       </c>
       <c r="F20" t="n">
-        <v>3821.199213164179</v>
+        <v>4909</v>
       </c>
       <c r="G20" t="n">
-        <v>67.11266666666673</v>
+        <v>67.1043333333334</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1101,19 +1101,19 @@
         <v>66.31</v>
       </c>
       <c r="C21" t="n">
-        <v>66.31</v>
+        <v>67</v>
       </c>
       <c r="D21" t="n">
-        <v>66.31</v>
+        <v>67</v>
       </c>
       <c r="E21" t="n">
         <v>66.31</v>
       </c>
       <c r="F21" t="n">
-        <v>5675.4762</v>
+        <v>3821.199213164179</v>
       </c>
       <c r="G21" t="n">
-        <v>67.10950000000007</v>
+        <v>67.11266666666673</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1145,10 +1145,10 @@
         <v>66.31</v>
       </c>
       <c r="F22" t="n">
-        <v>1386</v>
+        <v>5675.4762</v>
       </c>
       <c r="G22" t="n">
-        <v>67.10483333333339</v>
+        <v>67.10950000000007</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1171,19 +1171,19 @@
         <v>66.31</v>
       </c>
       <c r="C23" t="n">
-        <v>66.3</v>
+        <v>66.31</v>
       </c>
       <c r="D23" t="n">
         <v>66.31</v>
       </c>
       <c r="E23" t="n">
-        <v>66.3</v>
+        <v>66.31</v>
       </c>
       <c r="F23" t="n">
-        <v>10647.3702</v>
+        <v>1386</v>
       </c>
       <c r="G23" t="n">
-        <v>67.10000000000007</v>
+        <v>67.10483333333339</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1206,19 +1206,19 @@
         <v>66.31</v>
       </c>
       <c r="C24" t="n">
-        <v>66.31</v>
+        <v>66.3</v>
       </c>
       <c r="D24" t="n">
         <v>66.31</v>
       </c>
       <c r="E24" t="n">
-        <v>66.31</v>
+        <v>66.3</v>
       </c>
       <c r="F24" t="n">
-        <v>4864.2528</v>
+        <v>10647.3702</v>
       </c>
       <c r="G24" t="n">
-        <v>67.09533333333339</v>
+        <v>67.10000000000007</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1238,22 +1238,22 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>66.36</v>
+        <v>66.31</v>
       </c>
       <c r="C25" t="n">
-        <v>66.36</v>
+        <v>66.31</v>
       </c>
       <c r="D25" t="n">
-        <v>66.36</v>
+        <v>66.31</v>
       </c>
       <c r="E25" t="n">
-        <v>66.36</v>
+        <v>66.31</v>
       </c>
       <c r="F25" t="n">
-        <v>1000</v>
+        <v>4864.2528</v>
       </c>
       <c r="G25" t="n">
-        <v>67.09150000000005</v>
+        <v>67.09533333333339</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1276,19 +1276,19 @@
         <v>66.36</v>
       </c>
       <c r="C26" t="n">
-        <v>66.5</v>
+        <v>66.36</v>
       </c>
       <c r="D26" t="n">
-        <v>66.5</v>
+        <v>66.36</v>
       </c>
       <c r="E26" t="n">
         <v>66.36</v>
       </c>
       <c r="F26" t="n">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="G26" t="n">
-        <v>67.10316666666672</v>
+        <v>67.09150000000005</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1311,29 +1311,35 @@
         <v>66.36</v>
       </c>
       <c r="C27" t="n">
-        <v>66.36</v>
+        <v>66.5</v>
       </c>
       <c r="D27" t="n">
-        <v>66.36</v>
+        <v>66.5</v>
       </c>
       <c r="E27" t="n">
         <v>66.36</v>
       </c>
       <c r="F27" t="n">
-        <v>49.813</v>
+        <v>1100</v>
       </c>
       <c r="G27" t="n">
-        <v>67.10083333333338</v>
+        <v>67.10316666666672</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
-      <c r="J27" t="inlineStr"/>
+      <c r="J27" t="n">
+        <v>66.36</v>
+      </c>
       <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M27" t="n">
         <v>1</v>
       </c>
@@ -1343,36 +1349,36 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>66.5</v>
+        <v>66.36</v>
       </c>
       <c r="C28" t="n">
-        <v>67.5</v>
+        <v>66.36</v>
       </c>
       <c r="D28" t="n">
-        <v>67.5</v>
+        <v>66.36</v>
       </c>
       <c r="E28" t="n">
-        <v>66.5</v>
+        <v>66.36</v>
       </c>
       <c r="F28" t="n">
-        <v>22722.17038683582</v>
+        <v>49.813</v>
       </c>
       <c r="G28" t="n">
-        <v>67.13416666666673</v>
+        <v>67.10083333333338</v>
       </c>
       <c r="H28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
-      <c r="J28" t="n">
-        <v>66.36</v>
-      </c>
-      <c r="K28" t="n">
-        <v>66.36</v>
-      </c>
-      <c r="L28" t="inlineStr"/>
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="inlineStr"/>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M28" t="n">
         <v>1</v>
       </c>
@@ -1382,22 +1388,22 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
+        <v>66.5</v>
+      </c>
+      <c r="C29" t="n">
         <v>67.5</v>
       </c>
-      <c r="C29" t="n">
-        <v>67.89</v>
-      </c>
       <c r="D29" t="n">
-        <v>67.89</v>
+        <v>67.5</v>
       </c>
       <c r="E29" t="n">
-        <v>67.5</v>
+        <v>66.5</v>
       </c>
       <c r="F29" t="n">
-        <v>347.324</v>
+        <v>22722.17038683582</v>
       </c>
       <c r="G29" t="n">
-        <v>67.17400000000005</v>
+        <v>67.13416666666673</v>
       </c>
       <c r="H29" t="n">
         <v>1</v>
@@ -1406,14 +1412,12 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>67.5</v>
-      </c>
-      <c r="K29" t="n">
         <v>66.36</v>
       </c>
+      <c r="K29" t="inlineStr"/>
       <c r="L29" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M29" t="n">
@@ -1425,22 +1429,22 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>67.01000000000001</v>
+        <v>67.5</v>
       </c>
       <c r="C30" t="n">
-        <v>67</v>
+        <v>67.89</v>
       </c>
       <c r="D30" t="n">
-        <v>67.01000000000001</v>
+        <v>67.89</v>
       </c>
       <c r="E30" t="n">
-        <v>67</v>
+        <v>67.5</v>
       </c>
       <c r="F30" t="n">
-        <v>1625.3001</v>
+        <v>347.324</v>
       </c>
       <c r="G30" t="n">
-        <v>67.18233333333339</v>
+        <v>67.17400000000005</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1449,12 +1453,10 @@
         <v>0</v>
       </c>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="n">
-        <v>66.36</v>
-      </c>
+      <c r="K30" t="inlineStr"/>
       <c r="L30" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M30" t="n">
@@ -1466,10 +1468,10 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
+        <v>67.01000000000001</v>
+      </c>
+      <c r="C31" t="n">
         <v>67</v>
-      </c>
-      <c r="C31" t="n">
-        <v>67.01000000000001</v>
       </c>
       <c r="D31" t="n">
         <v>67.01000000000001</v>
@@ -1478,10 +1480,10 @@
         <v>67</v>
       </c>
       <c r="F31" t="n">
-        <v>456.0044131641791</v>
+        <v>1625.3001</v>
       </c>
       <c r="G31" t="n">
-        <v>67.19083333333339</v>
+        <v>67.18233333333339</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1491,7 +1493,11 @@
       </c>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M31" t="n">
         <v>1</v>
       </c>
@@ -1501,7 +1507,7 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>67.01000000000001</v>
+        <v>67</v>
       </c>
       <c r="C32" t="n">
         <v>67.01000000000001</v>
@@ -1510,13 +1516,13 @@
         <v>67.01000000000001</v>
       </c>
       <c r="E32" t="n">
-        <v>67.01000000000001</v>
+        <v>67</v>
       </c>
       <c r="F32" t="n">
-        <v>148</v>
+        <v>456.0044131641791</v>
       </c>
       <c r="G32" t="n">
-        <v>67.21600000000007</v>
+        <v>67.19083333333339</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1526,7 +1532,11 @@
       </c>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M32" t="n">
         <v>1</v>
       </c>
@@ -1539,19 +1549,19 @@
         <v>67.01000000000001</v>
       </c>
       <c r="C33" t="n">
-        <v>67.90000000000001</v>
+        <v>67.01000000000001</v>
       </c>
       <c r="D33" t="n">
-        <v>67.90000000000001</v>
+        <v>67.01000000000001</v>
       </c>
       <c r="E33" t="n">
         <v>67.01000000000001</v>
       </c>
       <c r="F33" t="n">
-        <v>8</v>
+        <v>148</v>
       </c>
       <c r="G33" t="n">
-        <v>67.25433333333339</v>
+        <v>67.21600000000007</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1561,7 +1571,11 @@
       </c>
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M33" t="n">
         <v>1</v>
       </c>
@@ -1571,22 +1585,22 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>66.91</v>
+        <v>67.01000000000001</v>
       </c>
       <c r="C34" t="n">
-        <v>66.91</v>
+        <v>67.90000000000001</v>
       </c>
       <c r="D34" t="n">
-        <v>66.91</v>
+        <v>67.90000000000001</v>
       </c>
       <c r="E34" t="n">
-        <v>66.91</v>
+        <v>67.01000000000001</v>
       </c>
       <c r="F34" t="n">
-        <v>576</v>
+        <v>8</v>
       </c>
       <c r="G34" t="n">
-        <v>67.25450000000006</v>
+        <v>67.25433333333339</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1596,7 +1610,11 @@
       </c>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M34" t="n">
         <v>1</v>
       </c>
@@ -1618,10 +1636,10 @@
         <v>66.91</v>
       </c>
       <c r="F35" t="n">
-        <v>267.369</v>
+        <v>576</v>
       </c>
       <c r="G35" t="n">
-        <v>67.2383333333334</v>
+        <v>67.25450000000006</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1631,7 +1649,11 @@
       </c>
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M35" t="n">
         <v>1</v>
       </c>
@@ -1644,19 +1666,19 @@
         <v>66.91</v>
       </c>
       <c r="C36" t="n">
-        <v>67.90000000000001</v>
+        <v>66.91</v>
       </c>
       <c r="D36" t="n">
-        <v>67.90000000000001</v>
+        <v>66.91</v>
       </c>
       <c r="E36" t="n">
         <v>66.91</v>
       </c>
       <c r="F36" t="n">
-        <v>721</v>
+        <v>267.369</v>
       </c>
       <c r="G36" t="n">
-        <v>67.23866666666672</v>
+        <v>67.2383333333334</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1666,7 +1688,11 @@
       </c>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M36" t="n">
         <v>1</v>
       </c>
@@ -1676,22 +1702,22 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>67.01000000000001</v>
+        <v>66.91</v>
       </c>
       <c r="C37" t="n">
-        <v>67.01000000000001</v>
+        <v>67.90000000000001</v>
       </c>
       <c r="D37" t="n">
-        <v>67.01000000000001</v>
+        <v>67.90000000000001</v>
       </c>
       <c r="E37" t="n">
-        <v>67.01000000000001</v>
+        <v>66.91</v>
       </c>
       <c r="F37" t="n">
-        <v>228.7706</v>
+        <v>721</v>
       </c>
       <c r="G37" t="n">
-        <v>67.24050000000005</v>
+        <v>67.23866666666672</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1701,7 +1727,11 @@
       </c>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M37" t="n">
         <v>1</v>
       </c>
@@ -1714,19 +1744,19 @@
         <v>67.01000000000001</v>
       </c>
       <c r="C38" t="n">
-        <v>67</v>
+        <v>67.01000000000001</v>
       </c>
       <c r="D38" t="n">
         <v>67.01000000000001</v>
       </c>
       <c r="E38" t="n">
-        <v>67</v>
+        <v>67.01000000000001</v>
       </c>
       <c r="F38" t="n">
-        <v>1266.1127</v>
+        <v>228.7706</v>
       </c>
       <c r="G38" t="n">
-        <v>67.23400000000007</v>
+        <v>67.24050000000005</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1736,7 +1766,11 @@
       </c>
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr"/>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M38" t="n">
         <v>1</v>
       </c>
@@ -1746,19 +1780,19 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
+        <v>67.01000000000001</v>
+      </c>
+      <c r="C39" t="n">
         <v>67</v>
       </c>
-      <c r="C39" t="n">
-        <v>67.90000000000001</v>
-      </c>
       <c r="D39" t="n">
-        <v>67.90000000000001</v>
+        <v>67.01000000000001</v>
       </c>
       <c r="E39" t="n">
         <v>67</v>
       </c>
       <c r="F39" t="n">
-        <v>122.7761</v>
+        <v>1266.1127</v>
       </c>
       <c r="G39" t="n">
         <v>67.23400000000007</v>
@@ -1771,7 +1805,11 @@
       </c>
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M39" t="n">
         <v>1</v>
       </c>
@@ -1781,22 +1819,22 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>66.91</v>
+        <v>67</v>
       </c>
       <c r="C40" t="n">
-        <v>66.91</v>
+        <v>67.90000000000001</v>
       </c>
       <c r="D40" t="n">
-        <v>66.91</v>
+        <v>67.90000000000001</v>
       </c>
       <c r="E40" t="n">
-        <v>66.91</v>
+        <v>67</v>
       </c>
       <c r="F40" t="n">
-        <v>373</v>
+        <v>122.7761</v>
       </c>
       <c r="G40" t="n">
-        <v>67.23100000000007</v>
+        <v>67.23400000000007</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -1806,7 +1844,11 @@
       </c>
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M40" t="n">
         <v>1</v>
       </c>
@@ -1816,22 +1858,22 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>67.90000000000001</v>
+        <v>66.91</v>
       </c>
       <c r="C41" t="n">
-        <v>67.90000000000001</v>
+        <v>66.91</v>
       </c>
       <c r="D41" t="n">
-        <v>67.90000000000001</v>
+        <v>66.91</v>
       </c>
       <c r="E41" t="n">
-        <v>67.90000000000001</v>
+        <v>66.91</v>
       </c>
       <c r="F41" t="n">
-        <v>8</v>
+        <v>373</v>
       </c>
       <c r="G41" t="n">
-        <v>67.24450000000006</v>
+        <v>67.23100000000007</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -1841,7 +1883,11 @@
       </c>
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M41" t="n">
         <v>1</v>
       </c>
@@ -1851,22 +1897,22 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>66.91</v>
+        <v>67.90000000000001</v>
       </c>
       <c r="C42" t="n">
-        <v>66.70999999999999</v>
+        <v>67.90000000000001</v>
       </c>
       <c r="D42" t="n">
-        <v>66.91</v>
+        <v>67.90000000000001</v>
       </c>
       <c r="E42" t="n">
-        <v>66.70999999999999</v>
+        <v>67.90000000000001</v>
       </c>
       <c r="F42" t="n">
-        <v>9296.9447</v>
+        <v>8</v>
       </c>
       <c r="G42" t="n">
-        <v>67.20983333333339</v>
+        <v>67.24450000000006</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -1876,7 +1922,11 @@
       </c>
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr"/>
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M42" t="n">
         <v>1</v>
       </c>
@@ -1886,32 +1936,36 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>66.70999999999999</v>
+        <v>66.91</v>
       </c>
       <c r="C43" t="n">
         <v>66.70999999999999</v>
       </c>
       <c r="D43" t="n">
-        <v>66.70999999999999</v>
+        <v>66.91</v>
       </c>
       <c r="E43" t="n">
         <v>66.70999999999999</v>
       </c>
       <c r="F43" t="n">
-        <v>321</v>
+        <v>9296.9447</v>
       </c>
       <c r="G43" t="n">
-        <v>67.1753333333334</v>
+        <v>67.20983333333339</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr"/>
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M43" t="n">
         <v>1</v>
       </c>
@@ -1921,22 +1975,22 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>66.90000000000001</v>
+        <v>66.70999999999999</v>
       </c>
       <c r="C44" t="n">
-        <v>66.90000000000001</v>
+        <v>66.70999999999999</v>
       </c>
       <c r="D44" t="n">
-        <v>66.90000000000001</v>
+        <v>66.70999999999999</v>
       </c>
       <c r="E44" t="n">
-        <v>66.90000000000001</v>
+        <v>66.70999999999999</v>
       </c>
       <c r="F44" t="n">
-        <v>0.0004</v>
+        <v>321</v>
       </c>
       <c r="G44" t="n">
-        <v>67.16316666666673</v>
+        <v>67.1753333333334</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -1946,7 +2000,11 @@
       </c>
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr"/>
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M44" t="n">
         <v>1</v>
       </c>
@@ -1956,22 +2014,22 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>67.77</v>
+        <v>66.90000000000001</v>
       </c>
       <c r="C45" t="n">
-        <v>67.77</v>
+        <v>66.90000000000001</v>
       </c>
       <c r="D45" t="n">
-        <v>67.77</v>
+        <v>66.90000000000001</v>
       </c>
       <c r="E45" t="n">
-        <v>67.77</v>
+        <v>66.90000000000001</v>
       </c>
       <c r="F45" t="n">
-        <v>32.6012</v>
+        <v>0.0004</v>
       </c>
       <c r="G45" t="n">
-        <v>67.16550000000007</v>
+        <v>67.16316666666673</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -1981,7 +2039,11 @@
       </c>
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr"/>
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M45" t="n">
         <v>1</v>
       </c>
@@ -1991,22 +2053,22 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>66.90000000000001</v>
+        <v>67.77</v>
       </c>
       <c r="C46" t="n">
-        <v>66.5</v>
+        <v>67.77</v>
       </c>
       <c r="D46" t="n">
-        <v>66.90000000000001</v>
+        <v>67.77</v>
       </c>
       <c r="E46" t="n">
-        <v>66.5</v>
+        <v>67.77</v>
       </c>
       <c r="F46" t="n">
-        <v>3217.851</v>
+        <v>32.6012</v>
       </c>
       <c r="G46" t="n">
-        <v>67.14650000000007</v>
+        <v>67.16550000000007</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2016,7 +2078,11 @@
       </c>
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr"/>
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M46" t="n">
         <v>1</v>
       </c>
@@ -2026,22 +2092,22 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>66.5</v>
+        <v>66.90000000000001</v>
       </c>
       <c r="C47" t="n">
         <v>66.5</v>
       </c>
       <c r="D47" t="n">
-        <v>66.5</v>
+        <v>66.90000000000001</v>
       </c>
       <c r="E47" t="n">
         <v>66.5</v>
       </c>
       <c r="F47" t="n">
-        <v>371.6554</v>
+        <v>3217.851</v>
       </c>
       <c r="G47" t="n">
-        <v>67.11150000000006</v>
+        <v>67.14650000000007</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2051,7 +2117,11 @@
       </c>
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M47" t="n">
         <v>1</v>
       </c>
@@ -2061,22 +2131,22 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>67.69</v>
+        <v>66.5</v>
       </c>
       <c r="C48" t="n">
-        <v>67.69</v>
+        <v>66.5</v>
       </c>
       <c r="D48" t="n">
-        <v>67.69</v>
+        <v>66.5</v>
       </c>
       <c r="E48" t="n">
-        <v>67.69</v>
+        <v>66.5</v>
       </c>
       <c r="F48" t="n">
-        <v>10</v>
+        <v>371.6554</v>
       </c>
       <c r="G48" t="n">
-        <v>67.09500000000007</v>
+        <v>67.11150000000006</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2086,7 +2156,11 @@
       </c>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M48" t="n">
         <v>1</v>
       </c>
@@ -2108,10 +2182,10 @@
         <v>67.69</v>
       </c>
       <c r="F49" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G49" t="n">
-        <v>67.09600000000007</v>
+        <v>67.09500000000007</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2121,7 +2195,11 @@
       </c>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr"/>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M49" t="n">
         <v>1</v>
       </c>
@@ -2131,22 +2209,22 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>67.3</v>
+        <v>67.69</v>
       </c>
       <c r="C50" t="n">
-        <v>66.88</v>
+        <v>67.69</v>
       </c>
       <c r="D50" t="n">
-        <v>67.3</v>
+        <v>67.69</v>
       </c>
       <c r="E50" t="n">
-        <v>66.88</v>
+        <v>67.69</v>
       </c>
       <c r="F50" t="n">
-        <v>298.9529</v>
+        <v>8</v>
       </c>
       <c r="G50" t="n">
-        <v>67.08283333333341</v>
+        <v>67.09600000000007</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2156,7 +2234,11 @@
       </c>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr"/>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M50" t="n">
         <v>1</v>
       </c>
@@ -2166,22 +2248,22 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>66.5</v>
+        <v>67.3</v>
       </c>
       <c r="C51" t="n">
-        <v>66.5</v>
+        <v>66.88</v>
       </c>
       <c r="D51" t="n">
-        <v>66.5</v>
+        <v>67.3</v>
       </c>
       <c r="E51" t="n">
-        <v>66.5</v>
+        <v>66.88</v>
       </c>
       <c r="F51" t="n">
-        <v>8</v>
+        <v>298.9529</v>
       </c>
       <c r="G51" t="n">
-        <v>67.06283333333342</v>
+        <v>67.08283333333341</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2191,7 +2273,11 @@
       </c>
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr"/>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M51" t="n">
         <v>1</v>
       </c>
@@ -2201,22 +2287,22 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>66.88</v>
+        <v>66.5</v>
       </c>
       <c r="C52" t="n">
-        <v>67.3</v>
+        <v>66.5</v>
       </c>
       <c r="D52" t="n">
-        <v>67.3</v>
+        <v>66.5</v>
       </c>
       <c r="E52" t="n">
-        <v>66.88</v>
+        <v>66.5</v>
       </c>
       <c r="F52" t="n">
-        <v>154.2345</v>
+        <v>8</v>
       </c>
       <c r="G52" t="n">
-        <v>67.05616666666675</v>
+        <v>67.06283333333342</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2226,7 +2312,11 @@
       </c>
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr"/>
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M52" t="n">
         <v>1</v>
       </c>
@@ -2236,22 +2326,22 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>67</v>
+        <v>66.88</v>
       </c>
       <c r="C53" t="n">
-        <v>67.69</v>
+        <v>67.3</v>
       </c>
       <c r="D53" t="n">
-        <v>67.69</v>
+        <v>67.3</v>
       </c>
       <c r="E53" t="n">
-        <v>67</v>
+        <v>66.88</v>
       </c>
       <c r="F53" t="n">
-        <v>196.8885</v>
+        <v>154.2345</v>
       </c>
       <c r="G53" t="n">
-        <v>67.07933333333341</v>
+        <v>67.05616666666675</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2261,7 +2351,11 @@
       </c>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr"/>
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M53" t="n">
         <v>1</v>
       </c>
@@ -2271,22 +2365,22 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>66.61</v>
+        <v>67</v>
       </c>
       <c r="C54" t="n">
-        <v>66.36</v>
+        <v>67.69</v>
       </c>
       <c r="D54" t="n">
-        <v>66.61</v>
+        <v>67.69</v>
       </c>
       <c r="E54" t="n">
-        <v>66.36</v>
+        <v>67</v>
       </c>
       <c r="F54" t="n">
-        <v>5996.6585</v>
+        <v>196.8885</v>
       </c>
       <c r="G54" t="n">
-        <v>67.07366666666675</v>
+        <v>67.07933333333341</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2296,7 +2390,11 @@
       </c>
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr"/>
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M54" t="n">
         <v>1</v>
       </c>
@@ -2306,22 +2404,22 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>66.36</v>
+        <v>66.61</v>
       </c>
       <c r="C55" t="n">
         <v>66.36</v>
       </c>
       <c r="D55" t="n">
-        <v>66.36</v>
+        <v>66.61</v>
       </c>
       <c r="E55" t="n">
         <v>66.36</v>
       </c>
       <c r="F55" t="n">
-        <v>1145.1453</v>
+        <v>5996.6585</v>
       </c>
       <c r="G55" t="n">
-        <v>67.04983333333342</v>
+        <v>67.07366666666675</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2331,7 +2429,11 @@
       </c>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr"/>
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M55" t="n">
         <v>1</v>
       </c>
@@ -2341,22 +2443,22 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>66.41</v>
+        <v>66.36</v>
       </c>
       <c r="C56" t="n">
-        <v>66.41</v>
+        <v>66.36</v>
       </c>
       <c r="D56" t="n">
-        <v>66.41</v>
+        <v>66.36</v>
       </c>
       <c r="E56" t="n">
-        <v>66.41</v>
+        <v>66.36</v>
       </c>
       <c r="F56" t="n">
-        <v>8</v>
+        <v>1145.1453</v>
       </c>
       <c r="G56" t="n">
-        <v>67.02683333333341</v>
+        <v>67.04983333333342</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2366,7 +2468,11 @@
       </c>
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr"/>
+      <c r="L56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M56" t="n">
         <v>1</v>
       </c>
@@ -2376,22 +2482,22 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>67.40000000000001</v>
+        <v>66.41</v>
       </c>
       <c r="C57" t="n">
-        <v>67.40000000000001</v>
+        <v>66.41</v>
       </c>
       <c r="D57" t="n">
-        <v>67.40000000000001</v>
+        <v>66.41</v>
       </c>
       <c r="E57" t="n">
-        <v>67.40000000000001</v>
+        <v>66.41</v>
       </c>
       <c r="F57" t="n">
-        <v>10.1499</v>
+        <v>8</v>
       </c>
       <c r="G57" t="n">
-        <v>67.01883333333342</v>
+        <v>67.02683333333341</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2401,7 +2507,11 @@
       </c>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr"/>
+      <c r="L57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M57" t="n">
         <v>1</v>
       </c>
@@ -2411,19 +2521,19 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>66.42</v>
+        <v>67.40000000000001</v>
       </c>
       <c r="C58" t="n">
-        <v>67.59999999999999</v>
+        <v>67.40000000000001</v>
       </c>
       <c r="D58" t="n">
-        <v>67.59999999999999</v>
+        <v>67.40000000000001</v>
       </c>
       <c r="E58" t="n">
-        <v>66.42</v>
+        <v>67.40000000000001</v>
       </c>
       <c r="F58" t="n">
-        <v>15.8606</v>
+        <v>10.1499</v>
       </c>
       <c r="G58" t="n">
         <v>67.01883333333342</v>
@@ -2436,7 +2546,11 @@
       </c>
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr"/>
+      <c r="L58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M58" t="n">
         <v>1</v>
       </c>
@@ -2446,22 +2560,22 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>66.43000000000001</v>
+        <v>66.42</v>
       </c>
       <c r="C59" t="n">
-        <v>66.40000000000001</v>
+        <v>67.59999999999999</v>
       </c>
       <c r="D59" t="n">
-        <v>66.43000000000001</v>
+        <v>67.59999999999999</v>
       </c>
       <c r="E59" t="n">
-        <v>66.40000000000001</v>
+        <v>66.42</v>
       </c>
       <c r="F59" t="n">
-        <v>1076.6345</v>
+        <v>15.8606</v>
       </c>
       <c r="G59" t="n">
-        <v>66.99383333333341</v>
+        <v>67.01883333333342</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2471,7 +2585,11 @@
       </c>
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr"/>
+      <c r="L59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M59" t="n">
         <v>1</v>
       </c>
@@ -2481,22 +2599,22 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>67.59</v>
+        <v>66.43000000000001</v>
       </c>
       <c r="C60" t="n">
-        <v>67.59</v>
+        <v>66.40000000000001</v>
       </c>
       <c r="D60" t="n">
-        <v>67.59</v>
+        <v>66.43000000000001</v>
       </c>
       <c r="E60" t="n">
-        <v>67.59</v>
+        <v>66.40000000000001</v>
       </c>
       <c r="F60" t="n">
-        <v>221.9263204616067</v>
+        <v>1076.6345</v>
       </c>
       <c r="G60" t="n">
-        <v>66.99366666666675</v>
+        <v>66.99383333333341</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2506,7 +2624,11 @@
       </c>
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr"/>
+      <c r="L60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M60" t="n">
         <v>1</v>
       </c>
@@ -2516,22 +2638,22 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>66.37</v>
+        <v>67.59</v>
       </c>
       <c r="C61" t="n">
-        <v>66.37</v>
+        <v>67.59</v>
       </c>
       <c r="D61" t="n">
-        <v>66.37</v>
+        <v>67.59</v>
       </c>
       <c r="E61" t="n">
-        <v>66.37</v>
+        <v>67.59</v>
       </c>
       <c r="F61" t="n">
-        <v>1572</v>
+        <v>221.9263204616067</v>
       </c>
       <c r="G61" t="n">
-        <v>66.97483333333342</v>
+        <v>66.99366666666675</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2541,7 +2663,11 @@
       </c>
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr"/>
+      <c r="L61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M61" t="n">
         <v>1</v>
       </c>
@@ -2551,22 +2677,22 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>66.38</v>
+        <v>66.37</v>
       </c>
       <c r="C62" t="n">
-        <v>66.38</v>
+        <v>66.37</v>
       </c>
       <c r="D62" t="n">
-        <v>66.38</v>
+        <v>66.37</v>
       </c>
       <c r="E62" t="n">
-        <v>66.38</v>
+        <v>66.37</v>
       </c>
       <c r="F62" t="n">
-        <v>251</v>
+        <v>1572</v>
       </c>
       <c r="G62" t="n">
-        <v>66.95616666666676</v>
+        <v>66.97483333333342</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2576,7 +2702,11 @@
       </c>
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr"/>
+      <c r="L62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M62" t="n">
         <v>1</v>
       </c>
@@ -2598,10 +2728,10 @@
         <v>66.38</v>
       </c>
       <c r="F63" t="n">
-        <v>979</v>
+        <v>251</v>
       </c>
       <c r="G63" t="n">
-        <v>66.93750000000009</v>
+        <v>66.95616666666676</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2611,7 +2741,11 @@
       </c>
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr"/>
+      <c r="L63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M63" t="n">
         <v>1</v>
       </c>
@@ -2621,22 +2755,22 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>66.39</v>
+        <v>66.38</v>
       </c>
       <c r="C64" t="n">
-        <v>66.39</v>
+        <v>66.38</v>
       </c>
       <c r="D64" t="n">
-        <v>66.39</v>
+        <v>66.38</v>
       </c>
       <c r="E64" t="n">
-        <v>66.39</v>
+        <v>66.38</v>
       </c>
       <c r="F64" t="n">
-        <v>175.0906</v>
+        <v>979</v>
       </c>
       <c r="G64" t="n">
-        <v>66.91900000000008</v>
+        <v>66.93750000000009</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2646,7 +2780,11 @@
       </c>
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr"/>
+      <c r="L64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M64" t="n">
         <v>1</v>
       </c>
@@ -2668,10 +2806,10 @@
         <v>66.39</v>
       </c>
       <c r="F65" t="n">
-        <v>1419.2274</v>
+        <v>175.0906</v>
       </c>
       <c r="G65" t="n">
-        <v>66.90050000000009</v>
+        <v>66.91900000000008</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2681,7 +2819,11 @@
       </c>
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr"/>
+      <c r="L65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M65" t="n">
         <v>1</v>
       </c>
@@ -2691,22 +2833,22 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>66.59999999999999</v>
+        <v>66.39</v>
       </c>
       <c r="C66" t="n">
-        <v>66.59999999999999</v>
+        <v>66.39</v>
       </c>
       <c r="D66" t="n">
-        <v>66.59999999999999</v>
+        <v>66.39</v>
       </c>
       <c r="E66" t="n">
-        <v>66.59999999999999</v>
+        <v>66.39</v>
       </c>
       <c r="F66" t="n">
-        <v>59.352</v>
+        <v>1419.2274</v>
       </c>
       <c r="G66" t="n">
-        <v>66.89550000000008</v>
+        <v>66.90050000000009</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -2716,7 +2858,11 @@
       </c>
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr"/>
+      <c r="L66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M66" t="n">
         <v>1</v>
       </c>
@@ -2729,19 +2875,19 @@
         <v>66.59999999999999</v>
       </c>
       <c r="C67" t="n">
-        <v>66.41</v>
+        <v>66.59999999999999</v>
       </c>
       <c r="D67" t="n">
         <v>66.59999999999999</v>
       </c>
       <c r="E67" t="n">
-        <v>66.41</v>
+        <v>66.59999999999999</v>
       </c>
       <c r="F67" t="n">
-        <v>13773.3341</v>
+        <v>59.352</v>
       </c>
       <c r="G67" t="n">
-        <v>66.88566666666675</v>
+        <v>66.89550000000008</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -2751,7 +2897,11 @@
       </c>
       <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr"/>
+      <c r="L67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M67" t="n">
         <v>1</v>
       </c>
@@ -2761,22 +2911,22 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>66.5</v>
+        <v>66.59999999999999</v>
       </c>
       <c r="C68" t="n">
-        <v>66.5</v>
+        <v>66.41</v>
       </c>
       <c r="D68" t="n">
-        <v>66.5</v>
+        <v>66.59999999999999</v>
       </c>
       <c r="E68" t="n">
-        <v>66.5</v>
+        <v>66.41</v>
       </c>
       <c r="F68" t="n">
-        <v>8</v>
+        <v>13773.3341</v>
       </c>
       <c r="G68" t="n">
-        <v>66.88050000000008</v>
+        <v>66.88566666666675</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -2786,7 +2936,11 @@
       </c>
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr"/>
+      <c r="L68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M68" t="n">
         <v>1</v>
       </c>
@@ -2799,19 +2953,19 @@
         <v>66.5</v>
       </c>
       <c r="C69" t="n">
-        <v>66.41</v>
+        <v>66.5</v>
       </c>
       <c r="D69" t="n">
         <v>66.5</v>
       </c>
       <c r="E69" t="n">
-        <v>66.41</v>
+        <v>66.5</v>
       </c>
       <c r="F69" t="n">
-        <v>132.0308</v>
+        <v>8</v>
       </c>
       <c r="G69" t="n">
-        <v>66.87550000000007</v>
+        <v>66.88050000000008</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -2821,7 +2975,11 @@
       </c>
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr"/>
+      <c r="L69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M69" t="n">
         <v>1</v>
       </c>
@@ -2837,16 +2995,16 @@
         <v>66.41</v>
       </c>
       <c r="D70" t="n">
-        <v>67</v>
+        <v>66.5</v>
       </c>
       <c r="E70" t="n">
         <v>66.41</v>
       </c>
       <c r="F70" t="n">
-        <v>461.4465728358209</v>
+        <v>132.0308</v>
       </c>
       <c r="G70" t="n">
-        <v>66.85250000000008</v>
+        <v>66.87550000000007</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -2856,7 +3014,11 @@
       </c>
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr"/>
+      <c r="L70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M70" t="n">
         <v>1</v>
       </c>
@@ -2866,22 +3028,22 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>66.42</v>
+        <v>66.5</v>
       </c>
       <c r="C71" t="n">
-        <v>66.42</v>
+        <v>66.41</v>
       </c>
       <c r="D71" t="n">
-        <v>66.42</v>
+        <v>67</v>
       </c>
       <c r="E71" t="n">
-        <v>66.42</v>
+        <v>66.41</v>
       </c>
       <c r="F71" t="n">
-        <v>18.18</v>
+        <v>461.4465728358209</v>
       </c>
       <c r="G71" t="n">
-        <v>66.8458333333334</v>
+        <v>66.85250000000008</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -2891,7 +3053,11 @@
       </c>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr"/>
+      <c r="L71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M71" t="n">
         <v>1</v>
       </c>
@@ -2901,22 +3067,22 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>66.98999999999999</v>
+        <v>66.42</v>
       </c>
       <c r="C72" t="n">
-        <v>67</v>
+        <v>66.42</v>
       </c>
       <c r="D72" t="n">
-        <v>67</v>
+        <v>66.42</v>
       </c>
       <c r="E72" t="n">
-        <v>66.98999999999999</v>
+        <v>66.42</v>
       </c>
       <c r="F72" t="n">
-        <v>20</v>
+        <v>18.18</v>
       </c>
       <c r="G72" t="n">
-        <v>66.84866666666674</v>
+        <v>66.8458333333334</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -2926,7 +3092,11 @@
       </c>
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr"/>
+      <c r="L72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M72" t="n">
         <v>1</v>
       </c>
@@ -2939,19 +3109,19 @@
         <v>66.98999999999999</v>
       </c>
       <c r="C73" t="n">
-        <v>66.98999999999999</v>
+        <v>67</v>
       </c>
       <c r="D73" t="n">
-        <v>66.98999999999999</v>
+        <v>67</v>
       </c>
       <c r="E73" t="n">
         <v>66.98999999999999</v>
       </c>
       <c r="F73" t="n">
-        <v>153.6305</v>
+        <v>20</v>
       </c>
       <c r="G73" t="n">
-        <v>66.85333333333341</v>
+        <v>66.84866666666674</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -2961,7 +3131,11 @@
       </c>
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr"/>
+      <c r="L73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M73" t="n">
         <v>1</v>
       </c>
@@ -2971,22 +3145,22 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>66.59999999999999</v>
+        <v>66.98999999999999</v>
       </c>
       <c r="C74" t="n">
-        <v>66.59999999999999</v>
+        <v>66.98999999999999</v>
       </c>
       <c r="D74" t="n">
-        <v>66.59999999999999</v>
+        <v>66.98999999999999</v>
       </c>
       <c r="E74" t="n">
-        <v>66.59999999999999</v>
+        <v>66.98999999999999</v>
       </c>
       <c r="F74" t="n">
-        <v>1750</v>
+        <v>153.6305</v>
       </c>
       <c r="G74" t="n">
-        <v>66.85500000000008</v>
+        <v>66.85333333333341</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -2996,7 +3170,11 @@
       </c>
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr"/>
+      <c r="L74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M74" t="n">
         <v>1</v>
       </c>
@@ -3006,22 +3184,22 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>66.98999999999999</v>
+        <v>66.59999999999999</v>
       </c>
       <c r="C75" t="n">
-        <v>66.98999999999999</v>
+        <v>66.59999999999999</v>
       </c>
       <c r="D75" t="n">
-        <v>66.98999999999999</v>
+        <v>66.59999999999999</v>
       </c>
       <c r="E75" t="n">
-        <v>66.98999999999999</v>
+        <v>66.59999999999999</v>
       </c>
       <c r="F75" t="n">
-        <v>298.5521</v>
+        <v>1750</v>
       </c>
       <c r="G75" t="n">
-        <v>66.8548333333334</v>
+        <v>66.85500000000008</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3031,7 +3209,11 @@
       </c>
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr"/>
+      <c r="L75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M75" t="n">
         <v>1</v>
       </c>
@@ -3044,19 +3226,19 @@
         <v>66.98999999999999</v>
       </c>
       <c r="C76" t="n">
-        <v>67</v>
+        <v>66.98999999999999</v>
       </c>
       <c r="D76" t="n">
-        <v>67</v>
+        <v>66.98999999999999</v>
       </c>
       <c r="E76" t="n">
         <v>66.98999999999999</v>
       </c>
       <c r="F76" t="n">
-        <v>504.0863</v>
+        <v>298.5521</v>
       </c>
       <c r="G76" t="n">
-        <v>66.86316666666673</v>
+        <v>66.8548333333334</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3066,7 +3248,11 @@
       </c>
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr"/>
+      <c r="L76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M76" t="n">
         <v>1</v>
       </c>
@@ -3076,22 +3262,22 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>66.59999999999999</v>
+        <v>66.98999999999999</v>
       </c>
       <c r="C77" t="n">
-        <v>66.59999999999999</v>
+        <v>67</v>
       </c>
       <c r="D77" t="n">
-        <v>66.59999999999999</v>
+        <v>67</v>
       </c>
       <c r="E77" t="n">
-        <v>66.59999999999999</v>
+        <v>66.98999999999999</v>
       </c>
       <c r="F77" t="n">
-        <v>235.4609</v>
+        <v>504.0863</v>
       </c>
       <c r="G77" t="n">
-        <v>66.86483333333339</v>
+        <v>66.86316666666673</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3101,7 +3287,11 @@
       </c>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr"/>
+      <c r="L77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M77" t="n">
         <v>1</v>
       </c>
@@ -3114,19 +3304,19 @@
         <v>66.59999999999999</v>
       </c>
       <c r="C78" t="n">
-        <v>66.5</v>
+        <v>66.59999999999999</v>
       </c>
       <c r="D78" t="n">
         <v>66.59999999999999</v>
       </c>
       <c r="E78" t="n">
-        <v>66.5</v>
+        <v>66.59999999999999</v>
       </c>
       <c r="F78" t="n">
-        <v>2082.1879</v>
+        <v>235.4609</v>
       </c>
       <c r="G78" t="n">
-        <v>66.86350000000007</v>
+        <v>66.86483333333339</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3136,7 +3326,11 @@
       </c>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr"/>
+      <c r="L78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M78" t="n">
         <v>1</v>
       </c>
@@ -3146,22 +3340,22 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>67</v>
+        <v>66.59999999999999</v>
       </c>
       <c r="C79" t="n">
-        <v>67.5</v>
+        <v>66.5</v>
       </c>
       <c r="D79" t="n">
-        <v>67.5</v>
+        <v>66.59999999999999</v>
       </c>
       <c r="E79" t="n">
-        <v>67</v>
+        <v>66.5</v>
       </c>
       <c r="F79" t="n">
-        <v>10826.22562716418</v>
+        <v>2082.1879</v>
       </c>
       <c r="G79" t="n">
-        <v>66.8833333333334</v>
+        <v>66.86350000000007</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3171,7 +3365,11 @@
       </c>
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr"/>
+      <c r="L79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M79" t="n">
         <v>1</v>
       </c>
@@ -3181,22 +3379,22 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>67.59</v>
+        <v>67</v>
       </c>
       <c r="C80" t="n">
-        <v>67.77</v>
+        <v>67.5</v>
       </c>
       <c r="D80" t="n">
-        <v>67.77</v>
+        <v>67.5</v>
       </c>
       <c r="E80" t="n">
-        <v>67.59</v>
+        <v>67</v>
       </c>
       <c r="F80" t="n">
-        <v>970.7875</v>
+        <v>10826.22562716418</v>
       </c>
       <c r="G80" t="n">
-        <v>66.89616666666673</v>
+        <v>66.8833333333334</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3206,7 +3404,11 @@
       </c>
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr"/>
+      <c r="L80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M80" t="n">
         <v>1</v>
       </c>
@@ -3216,22 +3418,22 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>67.8</v>
+        <v>67.59</v>
       </c>
       <c r="C81" t="n">
-        <v>67.90000000000001</v>
+        <v>67.77</v>
       </c>
       <c r="D81" t="n">
-        <v>67.90000000000001</v>
+        <v>67.77</v>
       </c>
       <c r="E81" t="n">
-        <v>67.8</v>
+        <v>67.59</v>
       </c>
       <c r="F81" t="n">
-        <v>34049.65948683582</v>
+        <v>970.7875</v>
       </c>
       <c r="G81" t="n">
-        <v>66.92266666666674</v>
+        <v>66.89616666666673</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3241,7 +3443,11 @@
       </c>
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr"/>
+      <c r="L81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M81" t="n">
         <v>1</v>
       </c>
@@ -3251,22 +3457,22 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>68.59999999999999</v>
+        <v>67.8</v>
       </c>
       <c r="C82" t="n">
-        <v>68.59999999999999</v>
+        <v>67.90000000000001</v>
       </c>
       <c r="D82" t="n">
-        <v>68.59999999999999</v>
+        <v>67.90000000000001</v>
       </c>
       <c r="E82" t="n">
-        <v>68.59999999999999</v>
+        <v>67.8</v>
       </c>
       <c r="F82" t="n">
-        <v>271.0883</v>
+        <v>34049.65948683582</v>
       </c>
       <c r="G82" t="n">
-        <v>66.9608333333334</v>
+        <v>66.92266666666674</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3276,7 +3482,11 @@
       </c>
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr"/>
+      <c r="L82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M82" t="n">
         <v>1</v>
       </c>
@@ -3286,22 +3496,22 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>68.66</v>
+        <v>68.59999999999999</v>
       </c>
       <c r="C83" t="n">
-        <v>68.79000000000001</v>
+        <v>68.59999999999999</v>
       </c>
       <c r="D83" t="n">
-        <v>68.79000000000001</v>
+        <v>68.59999999999999</v>
       </c>
       <c r="E83" t="n">
-        <v>68.66</v>
+        <v>68.59999999999999</v>
       </c>
       <c r="F83" t="n">
-        <v>7095.3232</v>
+        <v>271.0883</v>
       </c>
       <c r="G83" t="n">
-        <v>67.0023333333334</v>
+        <v>66.9608333333334</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3311,7 +3521,11 @@
       </c>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr"/>
+      <c r="L83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M83" t="n">
         <v>1</v>
       </c>
@@ -3321,63 +3535,65 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>69</v>
+        <v>68.66</v>
       </c>
       <c r="C84" t="n">
-        <v>69</v>
+        <v>68.79000000000001</v>
       </c>
       <c r="D84" t="n">
-        <v>69</v>
+        <v>68.79000000000001</v>
       </c>
       <c r="E84" t="n">
-        <v>69</v>
+        <v>68.66</v>
       </c>
       <c r="F84" t="n">
-        <v>7666.280684173913</v>
+        <v>7095.3232</v>
       </c>
       <c r="G84" t="n">
-        <v>67.04716666666674</v>
+        <v>67.0023333333334</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
       </c>
       <c r="I84" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr"/>
-      <c r="M84" t="n">
-        <v>1</v>
-      </c>
+      <c r="L84" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="M84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>68.45</v>
+        <v>69</v>
       </c>
       <c r="C85" t="n">
-        <v>66.90000000000001</v>
+        <v>69</v>
       </c>
       <c r="D85" t="n">
-        <v>68.45</v>
+        <v>69</v>
       </c>
       <c r="E85" t="n">
-        <v>66.90000000000001</v>
+        <v>69</v>
       </c>
       <c r="F85" t="n">
-        <v>4067.6485</v>
+        <v>7666.280684173913</v>
       </c>
       <c r="G85" t="n">
-        <v>67.05616666666673</v>
+        <v>67.04716666666674</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
       </c>
       <c r="I85" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
@@ -3391,28 +3607,28 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>67.61</v>
+        <v>68.45</v>
       </c>
       <c r="C86" t="n">
-        <v>67.61</v>
+        <v>66.90000000000001</v>
       </c>
       <c r="D86" t="n">
-        <v>67.61</v>
+        <v>68.45</v>
       </c>
       <c r="E86" t="n">
-        <v>67.61</v>
+        <v>66.90000000000001</v>
       </c>
       <c r="F86" t="n">
-        <v>13.077</v>
+        <v>4067.6485</v>
       </c>
       <c r="G86" t="n">
-        <v>67.07466666666673</v>
+        <v>67.05616666666673</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
       </c>
       <c r="I86" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
@@ -3426,22 +3642,22 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>67.64</v>
+        <v>67.61</v>
       </c>
       <c r="C87" t="n">
-        <v>67.64</v>
+        <v>67.61</v>
       </c>
       <c r="D87" t="n">
-        <v>67.64</v>
+        <v>67.61</v>
       </c>
       <c r="E87" t="n">
-        <v>67.64</v>
+        <v>67.61</v>
       </c>
       <c r="F87" t="n">
-        <v>10011</v>
+        <v>13.077</v>
       </c>
       <c r="G87" t="n">
-        <v>67.09600000000006</v>
+        <v>67.07466666666673</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3461,28 +3677,28 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>67.88</v>
+        <v>67.64</v>
       </c>
       <c r="C88" t="n">
-        <v>67.88</v>
+        <v>67.64</v>
       </c>
       <c r="D88" t="n">
-        <v>67.88</v>
+        <v>67.64</v>
       </c>
       <c r="E88" t="n">
-        <v>67.88</v>
+        <v>67.64</v>
       </c>
       <c r="F88" t="n">
-        <v>149.4768</v>
+        <v>10011</v>
       </c>
       <c r="G88" t="n">
-        <v>67.10233333333341</v>
+        <v>67.09600000000006</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
       </c>
       <c r="I88" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
@@ -3496,22 +3712,22 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>68.79000000000001</v>
+        <v>67.88</v>
       </c>
       <c r="C89" t="n">
-        <v>68.79000000000001</v>
+        <v>67.88</v>
       </c>
       <c r="D89" t="n">
-        <v>68.79000000000001</v>
+        <v>67.88</v>
       </c>
       <c r="E89" t="n">
-        <v>68.79000000000001</v>
+        <v>67.88</v>
       </c>
       <c r="F89" t="n">
-        <v>147.8852</v>
+        <v>149.4768</v>
       </c>
       <c r="G89" t="n">
-        <v>67.11733333333341</v>
+        <v>67.10233333333341</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -3543,10 +3759,10 @@
         <v>68.79000000000001</v>
       </c>
       <c r="F90" t="n">
-        <v>353</v>
+        <v>147.8852</v>
       </c>
       <c r="G90" t="n">
-        <v>67.14716666666673</v>
+        <v>67.11733333333341</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -3566,22 +3782,22 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>68.92</v>
+        <v>68.79000000000001</v>
       </c>
       <c r="C91" t="n">
         <v>68.79000000000001</v>
       </c>
       <c r="D91" t="n">
-        <v>68.92</v>
+        <v>68.79000000000001</v>
       </c>
       <c r="E91" t="n">
         <v>68.79000000000001</v>
       </c>
       <c r="F91" t="n">
-        <v>47.7193</v>
+        <v>353</v>
       </c>
       <c r="G91" t="n">
-        <v>67.17683333333341</v>
+        <v>67.14716666666673</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -3601,22 +3817,22 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>68.09</v>
+        <v>68.92</v>
       </c>
       <c r="C92" t="n">
-        <v>68.09</v>
+        <v>68.79000000000001</v>
       </c>
       <c r="D92" t="n">
-        <v>68.09</v>
+        <v>68.92</v>
       </c>
       <c r="E92" t="n">
-        <v>68.09</v>
+        <v>68.79000000000001</v>
       </c>
       <c r="F92" t="n">
-        <v>279</v>
+        <v>47.7193</v>
       </c>
       <c r="G92" t="n">
-        <v>67.19483333333341</v>
+        <v>67.17683333333341</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -3639,19 +3855,19 @@
         <v>68.09</v>
       </c>
       <c r="C93" t="n">
-        <v>67.03</v>
+        <v>68.09</v>
       </c>
       <c r="D93" t="n">
         <v>68.09</v>
       </c>
       <c r="E93" t="n">
-        <v>67.03</v>
+        <v>68.09</v>
       </c>
       <c r="F93" t="n">
-        <v>10745.0145</v>
+        <v>279</v>
       </c>
       <c r="G93" t="n">
-        <v>67.18033333333339</v>
+        <v>67.19483333333341</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -3671,22 +3887,22 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>68.73999999999999</v>
+        <v>68.09</v>
       </c>
       <c r="C94" t="n">
-        <v>68.73999999999999</v>
+        <v>67.03</v>
       </c>
       <c r="D94" t="n">
-        <v>68.73999999999999</v>
+        <v>68.09</v>
       </c>
       <c r="E94" t="n">
-        <v>68.73999999999999</v>
+        <v>67.03</v>
       </c>
       <c r="F94" t="n">
-        <v>8</v>
+        <v>10745.0145</v>
       </c>
       <c r="G94" t="n">
-        <v>67.2108333333334</v>
+        <v>67.18033333333339</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -3706,22 +3922,22 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>67.98999999999999</v>
+        <v>68.73999999999999</v>
       </c>
       <c r="C95" t="n">
-        <v>67.98999999999999</v>
+        <v>68.73999999999999</v>
       </c>
       <c r="D95" t="n">
-        <v>67.98999999999999</v>
+        <v>68.73999999999999</v>
       </c>
       <c r="E95" t="n">
-        <v>67.98999999999999</v>
+        <v>68.73999999999999</v>
       </c>
       <c r="F95" t="n">
-        <v>13253.198</v>
+        <v>8</v>
       </c>
       <c r="G95" t="n">
-        <v>67.2288333333334</v>
+        <v>67.2108333333334</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -3753,16 +3969,16 @@
         <v>67.98999999999999</v>
       </c>
       <c r="F96" t="n">
-        <v>1276</v>
+        <v>13253.198</v>
       </c>
       <c r="G96" t="n">
-        <v>67.23033333333339</v>
+        <v>67.2288333333334</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
       </c>
       <c r="I96" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
@@ -3779,19 +3995,19 @@
         <v>67.98999999999999</v>
       </c>
       <c r="C97" t="n">
-        <v>68.54000000000001</v>
+        <v>67.98999999999999</v>
       </c>
       <c r="D97" t="n">
-        <v>68.54000000000001</v>
+        <v>67.98999999999999</v>
       </c>
       <c r="E97" t="n">
         <v>67.98999999999999</v>
       </c>
       <c r="F97" t="n">
-        <v>1142.1549</v>
+        <v>1276</v>
       </c>
       <c r="G97" t="n">
-        <v>67.2558333333334</v>
+        <v>67.23033333333339</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -3811,22 +4027,22 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>67.7</v>
+        <v>67.98999999999999</v>
       </c>
       <c r="C98" t="n">
-        <v>67.70999999999999</v>
+        <v>68.54000000000001</v>
       </c>
       <c r="D98" t="n">
-        <v>67.8</v>
+        <v>68.54000000000001</v>
       </c>
       <c r="E98" t="n">
-        <v>67.7</v>
+        <v>67.98999999999999</v>
       </c>
       <c r="F98" t="n">
-        <v>1976.9936</v>
+        <v>1142.1549</v>
       </c>
       <c r="G98" t="n">
-        <v>67.26766666666673</v>
+        <v>67.2558333333334</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -3849,19 +4065,19 @@
         <v>67.7</v>
       </c>
       <c r="C99" t="n">
-        <v>67.34999999999999</v>
+        <v>67.70999999999999</v>
       </c>
       <c r="D99" t="n">
+        <v>67.8</v>
+      </c>
+      <c r="E99" t="n">
         <v>67.7</v>
       </c>
-      <c r="E99" t="n">
-        <v>67.34999999999999</v>
-      </c>
       <c r="F99" t="n">
-        <v>721.9503999999999</v>
+        <v>1976.9936</v>
       </c>
       <c r="G99" t="n">
-        <v>67.25850000000007</v>
+        <v>67.26766666666673</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -3881,22 +4097,22 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>68.37</v>
+        <v>67.7</v>
       </c>
       <c r="C100" t="n">
-        <v>68.37</v>
+        <v>67.34999999999999</v>
       </c>
       <c r="D100" t="n">
-        <v>68.37</v>
+        <v>67.7</v>
       </c>
       <c r="E100" t="n">
-        <v>68.37</v>
+        <v>67.34999999999999</v>
       </c>
       <c r="F100" t="n">
-        <v>50</v>
+        <v>721.9503999999999</v>
       </c>
       <c r="G100" t="n">
-        <v>67.28283333333341</v>
+        <v>67.25850000000007</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -3916,22 +4132,22 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>67.53</v>
+        <v>68.37</v>
       </c>
       <c r="C101" t="n">
-        <v>67.53</v>
+        <v>68.37</v>
       </c>
       <c r="D101" t="n">
-        <v>67.53</v>
+        <v>68.37</v>
       </c>
       <c r="E101" t="n">
-        <v>67.53</v>
+        <v>68.37</v>
       </c>
       <c r="F101" t="n">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="G101" t="n">
-        <v>67.27666666666674</v>
+        <v>67.28283333333341</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -3951,22 +4167,22 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>67.54000000000001</v>
+        <v>67.53</v>
       </c>
       <c r="C102" t="n">
-        <v>67.52</v>
+        <v>67.53</v>
       </c>
       <c r="D102" t="n">
-        <v>67.54000000000001</v>
+        <v>67.53</v>
       </c>
       <c r="E102" t="n">
-        <v>67.52</v>
+        <v>67.53</v>
       </c>
       <c r="F102" t="n">
-        <v>12101.4243</v>
+        <v>15</v>
       </c>
       <c r="G102" t="n">
-        <v>67.29016666666674</v>
+        <v>67.27666666666674</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -3986,22 +4202,22 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>67.51000000000001</v>
+        <v>67.54000000000001</v>
       </c>
       <c r="C103" t="n">
-        <v>67.51000000000001</v>
+        <v>67.52</v>
       </c>
       <c r="D103" t="n">
-        <v>67.51000000000001</v>
+        <v>67.54000000000001</v>
       </c>
       <c r="E103" t="n">
-        <v>67.51000000000001</v>
+        <v>67.52</v>
       </c>
       <c r="F103" t="n">
-        <v>1864.6971</v>
+        <v>12101.4243</v>
       </c>
       <c r="G103" t="n">
-        <v>67.30350000000007</v>
+        <v>67.29016666666674</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -4021,22 +4237,22 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>67.59999999999999</v>
+        <v>67.51000000000001</v>
       </c>
       <c r="C104" t="n">
-        <v>67.54000000000001</v>
+        <v>67.51000000000001</v>
       </c>
       <c r="D104" t="n">
-        <v>67.59999999999999</v>
+        <v>67.51000000000001</v>
       </c>
       <c r="E104" t="n">
-        <v>67.54000000000001</v>
+        <v>67.51000000000001</v>
       </c>
       <c r="F104" t="n">
-        <v>1577.8946</v>
+        <v>1864.6971</v>
       </c>
       <c r="G104" t="n">
-        <v>67.31416666666674</v>
+        <v>67.30350000000007</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -4056,22 +4272,22 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>67.51000000000001</v>
+        <v>67.59999999999999</v>
       </c>
       <c r="C105" t="n">
-        <v>67.51000000000001</v>
+        <v>67.54000000000001</v>
       </c>
       <c r="D105" t="n">
-        <v>67.51000000000001</v>
+        <v>67.59999999999999</v>
       </c>
       <c r="E105" t="n">
-        <v>67.51000000000001</v>
+        <v>67.54000000000001</v>
       </c>
       <c r="F105" t="n">
-        <v>1071.1933</v>
+        <v>1577.8946</v>
       </c>
       <c r="G105" t="n">
-        <v>67.3098333333334</v>
+        <v>67.31416666666674</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -4091,22 +4307,22 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>68.2</v>
+        <v>67.51000000000001</v>
       </c>
       <c r="C106" t="n">
-        <v>68.2</v>
+        <v>67.51000000000001</v>
       </c>
       <c r="D106" t="n">
-        <v>68.2</v>
+        <v>67.51000000000001</v>
       </c>
       <c r="E106" t="n">
-        <v>68.2</v>
+        <v>67.51000000000001</v>
       </c>
       <c r="F106" t="n">
-        <v>10</v>
+        <v>1071.1933</v>
       </c>
       <c r="G106" t="n">
-        <v>67.33816666666674</v>
+        <v>67.3098333333334</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -4138,10 +4354,10 @@
         <v>68.2</v>
       </c>
       <c r="F107" t="n">
-        <v>107.4327</v>
+        <v>10</v>
       </c>
       <c r="G107" t="n">
-        <v>67.36650000000007</v>
+        <v>67.33816666666674</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -4161,22 +4377,22 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>67.51000000000001</v>
+        <v>68.2</v>
       </c>
       <c r="C108" t="n">
-        <v>67.51000000000001</v>
+        <v>68.2</v>
       </c>
       <c r="D108" t="n">
-        <v>67.51000000000001</v>
+        <v>68.2</v>
       </c>
       <c r="E108" t="n">
-        <v>67.51000000000001</v>
+        <v>68.2</v>
       </c>
       <c r="F108" t="n">
-        <v>200</v>
+        <v>107.4327</v>
       </c>
       <c r="G108" t="n">
-        <v>67.36350000000007</v>
+        <v>67.36650000000007</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -4196,22 +4412,22 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>68</v>
+        <v>67.51000000000001</v>
       </c>
       <c r="C109" t="n">
-        <v>68.2</v>
+        <v>67.51000000000001</v>
       </c>
       <c r="D109" t="n">
-        <v>68.2</v>
+        <v>67.51000000000001</v>
       </c>
       <c r="E109" t="n">
-        <v>68</v>
+        <v>67.51000000000001</v>
       </c>
       <c r="F109" t="n">
-        <v>151.9994096774194</v>
+        <v>200</v>
       </c>
       <c r="G109" t="n">
-        <v>67.37200000000009</v>
+        <v>67.36350000000007</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -4231,22 +4447,22 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>67.52</v>
+        <v>68</v>
       </c>
       <c r="C110" t="n">
-        <v>67.52</v>
+        <v>68.2</v>
       </c>
       <c r="D110" t="n">
-        <v>67.52</v>
+        <v>68.2</v>
       </c>
       <c r="E110" t="n">
-        <v>67.52</v>
+        <v>68</v>
       </c>
       <c r="F110" t="n">
-        <v>1850.9361</v>
+        <v>151.9994096774194</v>
       </c>
       <c r="G110" t="n">
-        <v>67.38266666666674</v>
+        <v>67.37200000000009</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -4266,22 +4482,22 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>68</v>
+        <v>67.52</v>
       </c>
       <c r="C111" t="n">
-        <v>68.2</v>
+        <v>67.52</v>
       </c>
       <c r="D111" t="n">
-        <v>68.2</v>
+        <v>67.52</v>
       </c>
       <c r="E111" t="n">
-        <v>68</v>
+        <v>67.52</v>
       </c>
       <c r="F111" t="n">
-        <v>18372.8828</v>
+        <v>1850.9361</v>
       </c>
       <c r="G111" t="n">
-        <v>67.41100000000007</v>
+        <v>67.38266666666674</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -4301,22 +4517,22 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>68.28</v>
+        <v>68</v>
       </c>
       <c r="C112" t="n">
-        <v>68.72</v>
+        <v>68.2</v>
       </c>
       <c r="D112" t="n">
-        <v>68.72</v>
+        <v>68.2</v>
       </c>
       <c r="E112" t="n">
-        <v>68.28</v>
+        <v>68</v>
       </c>
       <c r="F112" t="n">
-        <v>570</v>
+        <v>18372.8828</v>
       </c>
       <c r="G112" t="n">
-        <v>67.43466666666674</v>
+        <v>67.41100000000007</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -4336,7 +4552,7 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>68.70999999999999</v>
+        <v>68.28</v>
       </c>
       <c r="C113" t="n">
         <v>68.72</v>
@@ -4345,13 +4561,13 @@
         <v>68.72</v>
       </c>
       <c r="E113" t="n">
-        <v>68.70999999999999</v>
+        <v>68.28</v>
       </c>
       <c r="F113" t="n">
-        <v>284.4061</v>
+        <v>570</v>
       </c>
       <c r="G113" t="n">
-        <v>67.45183333333341</v>
+        <v>67.43466666666674</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -4383,10 +4599,10 @@
         <v>68.70999999999999</v>
       </c>
       <c r="F114" t="n">
-        <v>222.6608</v>
+        <v>284.4061</v>
       </c>
       <c r="G114" t="n">
-        <v>67.49116666666674</v>
+        <v>67.45183333333341</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -4406,22 +4622,22 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>68.20999999999999</v>
+        <v>68.70999999999999</v>
       </c>
       <c r="C115" t="n">
+        <v>68.72</v>
+      </c>
+      <c r="D115" t="n">
+        <v>68.72</v>
+      </c>
+      <c r="E115" t="n">
         <v>68.70999999999999</v>
       </c>
-      <c r="D115" t="n">
-        <v>68.70999999999999</v>
-      </c>
-      <c r="E115" t="n">
-        <v>68.20999999999999</v>
-      </c>
       <c r="F115" t="n">
-        <v>497</v>
+        <v>222.6608</v>
       </c>
       <c r="G115" t="n">
-        <v>67.5303333333334</v>
+        <v>67.49116666666674</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -4441,22 +4657,22 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
+        <v>68.20999999999999</v>
+      </c>
+      <c r="C116" t="n">
         <v>68.70999999999999</v>
       </c>
-      <c r="C116" t="n">
-        <v>68.72</v>
-      </c>
       <c r="D116" t="n">
-        <v>68.72</v>
+        <v>68.70999999999999</v>
       </c>
       <c r="E116" t="n">
-        <v>68.70999999999999</v>
+        <v>68.20999999999999</v>
       </c>
       <c r="F116" t="n">
-        <v>423.0708</v>
+        <v>497</v>
       </c>
       <c r="G116" t="n">
-        <v>67.5688333333334</v>
+        <v>67.5303333333334</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -4476,22 +4692,22 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>68.22</v>
+        <v>68.70999999999999</v>
       </c>
       <c r="C117" t="n">
-        <v>68.22</v>
+        <v>68.72</v>
       </c>
       <c r="D117" t="n">
-        <v>68.22</v>
+        <v>68.72</v>
       </c>
       <c r="E117" t="n">
-        <v>68.22</v>
+        <v>68.70999999999999</v>
       </c>
       <c r="F117" t="n">
-        <v>1729</v>
+        <v>423.0708</v>
       </c>
       <c r="G117" t="n">
-        <v>67.58250000000007</v>
+        <v>67.5688333333334</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -4511,22 +4727,22 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>68.70999999999999</v>
+        <v>68.22</v>
       </c>
       <c r="C118" t="n">
-        <v>68.72</v>
+        <v>68.22</v>
       </c>
       <c r="D118" t="n">
-        <v>68.72</v>
+        <v>68.22</v>
       </c>
       <c r="E118" t="n">
-        <v>68.70999999999999</v>
+        <v>68.22</v>
       </c>
       <c r="F118" t="n">
-        <v>249.2450844877765</v>
+        <v>1729</v>
       </c>
       <c r="G118" t="n">
-        <v>67.60116666666673</v>
+        <v>67.58250000000007</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -4546,7 +4762,7 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>68.7</v>
+        <v>68.70999999999999</v>
       </c>
       <c r="C119" t="n">
         <v>68.72</v>
@@ -4555,13 +4771,13 @@
         <v>68.72</v>
       </c>
       <c r="E119" t="n">
-        <v>68.7</v>
+        <v>68.70999999999999</v>
       </c>
       <c r="F119" t="n">
-        <v>482.8494</v>
+        <v>249.2450844877765</v>
       </c>
       <c r="G119" t="n">
-        <v>67.63983333333339</v>
+        <v>67.60116666666673</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -4581,22 +4797,22 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>68.22</v>
+        <v>68.7</v>
       </c>
       <c r="C120" t="n">
-        <v>68.09999999999999</v>
+        <v>68.72</v>
       </c>
       <c r="D120" t="n">
-        <v>68.22</v>
+        <v>68.72</v>
       </c>
       <c r="E120" t="n">
-        <v>68.09999999999999</v>
+        <v>68.7</v>
       </c>
       <c r="F120" t="n">
-        <v>1186.1728</v>
+        <v>482.8494</v>
       </c>
       <c r="G120" t="n">
-        <v>67.64833333333338</v>
+        <v>67.63983333333339</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -4616,22 +4832,22 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>68.01000000000001</v>
+        <v>68.22</v>
       </c>
       <c r="C121" t="n">
-        <v>68.02</v>
+        <v>68.09999999999999</v>
       </c>
       <c r="D121" t="n">
-        <v>68.02</v>
+        <v>68.22</v>
       </c>
       <c r="E121" t="n">
-        <v>68.01000000000001</v>
+        <v>68.09999999999999</v>
       </c>
       <c r="F121" t="n">
-        <v>8370.8272</v>
+        <v>1186.1728</v>
       </c>
       <c r="G121" t="n">
-        <v>67.6758333333334</v>
+        <v>67.64833333333338</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -4651,22 +4867,22 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
+        <v>68.01000000000001</v>
+      </c>
+      <c r="C122" t="n">
         <v>68.02</v>
-      </c>
-      <c r="C122" t="n">
-        <v>67.90000000000001</v>
       </c>
       <c r="D122" t="n">
         <v>68.02</v>
       </c>
       <c r="E122" t="n">
-        <v>67.90000000000001</v>
+        <v>68.01000000000001</v>
       </c>
       <c r="F122" t="n">
-        <v>2000</v>
+        <v>8370.8272</v>
       </c>
       <c r="G122" t="n">
-        <v>67.70116666666672</v>
+        <v>67.6758333333334</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -4686,22 +4902,22 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>68.59</v>
+        <v>68.02</v>
       </c>
       <c r="C123" t="n">
-        <v>68.59</v>
+        <v>67.90000000000001</v>
       </c>
       <c r="D123" t="n">
-        <v>68.59</v>
+        <v>68.02</v>
       </c>
       <c r="E123" t="n">
-        <v>68.59</v>
+        <v>67.90000000000001</v>
       </c>
       <c r="F123" t="n">
-        <v>32.84181367546289</v>
+        <v>2000</v>
       </c>
       <c r="G123" t="n">
-        <v>67.73800000000006</v>
+        <v>67.70116666666672</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -4721,22 +4937,22 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>68.58</v>
+        <v>68.59</v>
       </c>
       <c r="C124" t="n">
-        <v>68.3</v>
+        <v>68.59</v>
       </c>
       <c r="D124" t="n">
-        <v>68.58</v>
+        <v>68.59</v>
       </c>
       <c r="E124" t="n">
-        <v>68.3</v>
+        <v>68.59</v>
       </c>
       <c r="F124" t="n">
-        <v>194</v>
+        <v>32.84181367546289</v>
       </c>
       <c r="G124" t="n">
-        <v>67.76983333333339</v>
+        <v>67.73800000000006</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -4756,22 +4972,22 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>68.59</v>
+        <v>68.58</v>
       </c>
       <c r="C125" t="n">
-        <v>68.59</v>
+        <v>68.3</v>
       </c>
       <c r="D125" t="n">
-        <v>68.59</v>
+        <v>68.58</v>
       </c>
       <c r="E125" t="n">
-        <v>68.59</v>
+        <v>68.3</v>
       </c>
       <c r="F125" t="n">
-        <v>11.3527</v>
+        <v>194</v>
       </c>
       <c r="G125" t="n">
-        <v>67.80650000000006</v>
+        <v>67.76983333333339</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -4791,22 +5007,22 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>68.3</v>
+        <v>68.59</v>
       </c>
       <c r="C126" t="n">
-        <v>68.3</v>
+        <v>68.59</v>
       </c>
       <c r="D126" t="n">
-        <v>68.3</v>
+        <v>68.59</v>
       </c>
       <c r="E126" t="n">
-        <v>68.3</v>
+        <v>68.59</v>
       </c>
       <c r="F126" t="n">
-        <v>115.148</v>
+        <v>11.3527</v>
       </c>
       <c r="G126" t="n">
-        <v>67.83483333333339</v>
+        <v>67.80650000000006</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -4826,22 +5042,22 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>68.2</v>
+        <v>68.3</v>
       </c>
       <c r="C127" t="n">
-        <v>68.09999999999999</v>
+        <v>68.3</v>
       </c>
       <c r="D127" t="n">
-        <v>68.2</v>
+        <v>68.3</v>
       </c>
       <c r="E127" t="n">
-        <v>68.09999999999999</v>
+        <v>68.3</v>
       </c>
       <c r="F127" t="n">
-        <v>369.7768</v>
+        <v>115.148</v>
       </c>
       <c r="G127" t="n">
-        <v>67.86300000000006</v>
+        <v>67.83483333333339</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -4861,22 +5077,22 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>68</v>
+        <v>68.2</v>
       </c>
       <c r="C128" t="n">
-        <v>67.91</v>
+        <v>68.09999999999999</v>
       </c>
       <c r="D128" t="n">
-        <v>68</v>
+        <v>68.2</v>
       </c>
       <c r="E128" t="n">
-        <v>67.91</v>
+        <v>68.09999999999999</v>
       </c>
       <c r="F128" t="n">
-        <v>1242.072</v>
+        <v>369.7768</v>
       </c>
       <c r="G128" t="n">
-        <v>67.88650000000005</v>
+        <v>67.86300000000006</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -4896,22 +5112,22 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>67.90000000000001</v>
+        <v>68</v>
       </c>
       <c r="C129" t="n">
-        <v>67.81</v>
+        <v>67.91</v>
       </c>
       <c r="D129" t="n">
-        <v>67.90000000000001</v>
+        <v>68</v>
       </c>
       <c r="E129" t="n">
-        <v>67.81</v>
+        <v>67.91</v>
       </c>
       <c r="F129" t="n">
-        <v>121.63</v>
+        <v>1242.072</v>
       </c>
       <c r="G129" t="n">
-        <v>67.9098333333334</v>
+        <v>67.88650000000005</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -4931,22 +5147,22 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>68</v>
+        <v>67.90000000000001</v>
       </c>
       <c r="C130" t="n">
-        <v>68</v>
+        <v>67.81</v>
       </c>
       <c r="D130" t="n">
-        <v>68</v>
+        <v>67.90000000000001</v>
       </c>
       <c r="E130" t="n">
-        <v>68</v>
+        <v>67.81</v>
       </c>
       <c r="F130" t="n">
-        <v>8</v>
+        <v>121.63</v>
       </c>
       <c r="G130" t="n">
-        <v>67.93633333333339</v>
+        <v>67.9098333333334</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -4966,22 +5182,22 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>67.81</v>
+        <v>68</v>
       </c>
       <c r="C131" t="n">
-        <v>67.59999999999999</v>
+        <v>68</v>
       </c>
       <c r="D131" t="n">
-        <v>67.81</v>
+        <v>68</v>
       </c>
       <c r="E131" t="n">
-        <v>67.59999999999999</v>
+        <v>68</v>
       </c>
       <c r="F131" t="n">
-        <v>5636.408</v>
+        <v>8</v>
       </c>
       <c r="G131" t="n">
-        <v>67.95600000000007</v>
+        <v>67.93633333333339</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -5001,22 +5217,22 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>67.90000000000001</v>
+        <v>67.81</v>
       </c>
       <c r="C132" t="n">
-        <v>67.90000000000001</v>
+        <v>67.59999999999999</v>
       </c>
       <c r="D132" t="n">
-        <v>67.90000000000001</v>
+        <v>67.81</v>
       </c>
       <c r="E132" t="n">
-        <v>67.90000000000001</v>
+        <v>67.59999999999999</v>
       </c>
       <c r="F132" t="n">
-        <v>8</v>
+        <v>5636.408</v>
       </c>
       <c r="G132" t="n">
-        <v>67.97100000000006</v>
+        <v>67.95600000000007</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -5039,19 +5255,19 @@
         <v>67.90000000000001</v>
       </c>
       <c r="C133" t="n">
-        <v>68</v>
+        <v>67.90000000000001</v>
       </c>
       <c r="D133" t="n">
-        <v>68</v>
+        <v>67.90000000000001</v>
       </c>
       <c r="E133" t="n">
         <v>67.90000000000001</v>
       </c>
       <c r="F133" t="n">
-        <v>1800</v>
+        <v>8</v>
       </c>
       <c r="G133" t="n">
-        <v>67.9878333333334</v>
+        <v>67.97100000000006</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -5071,22 +5287,22 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>67.62</v>
+        <v>67.90000000000001</v>
       </c>
       <c r="C134" t="n">
-        <v>67.62</v>
+        <v>68</v>
       </c>
       <c r="D134" t="n">
-        <v>67.62</v>
+        <v>68</v>
       </c>
       <c r="E134" t="n">
-        <v>67.62</v>
+        <v>67.90000000000001</v>
       </c>
       <c r="F134" t="n">
-        <v>8.0467</v>
+        <v>1800</v>
       </c>
       <c r="G134" t="n">
-        <v>68.00483333333339</v>
+        <v>67.9878333333334</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -5106,22 +5322,22 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>68</v>
+        <v>67.62</v>
       </c>
       <c r="C135" t="n">
-        <v>68.3</v>
+        <v>67.62</v>
       </c>
       <c r="D135" t="n">
-        <v>68.3</v>
+        <v>67.62</v>
       </c>
       <c r="E135" t="n">
-        <v>68</v>
+        <v>67.62</v>
       </c>
       <c r="F135" t="n">
-        <v>4689.3195</v>
+        <v>8.0467</v>
       </c>
       <c r="G135" t="n">
-        <v>68.02666666666673</v>
+        <v>68.00483333333339</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -5141,7 +5357,7 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>68.3</v>
+        <v>68</v>
       </c>
       <c r="C136" t="n">
         <v>68.3</v>
@@ -5150,13 +5366,13 @@
         <v>68.3</v>
       </c>
       <c r="E136" t="n">
-        <v>68.3</v>
+        <v>68</v>
       </c>
       <c r="F136" t="n">
-        <v>8943.8734</v>
+        <v>4689.3195</v>
       </c>
       <c r="G136" t="n">
-        <v>68.0483333333334</v>
+        <v>68.02666666666673</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -5176,22 +5392,22 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>68.59</v>
+        <v>68.3</v>
       </c>
       <c r="C137" t="n">
-        <v>68.72</v>
+        <v>68.3</v>
       </c>
       <c r="D137" t="n">
-        <v>68.72</v>
+        <v>68.3</v>
       </c>
       <c r="E137" t="n">
-        <v>68.59</v>
+        <v>68.3</v>
       </c>
       <c r="F137" t="n">
-        <v>7407.113786324537</v>
+        <v>8943.8734</v>
       </c>
       <c r="G137" t="n">
-        <v>68.08366666666674</v>
+        <v>68.0483333333334</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -5211,22 +5427,22 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
+        <v>68.59</v>
+      </c>
+      <c r="C138" t="n">
         <v>68.72</v>
       </c>
-      <c r="C138" t="n">
-        <v>68.77</v>
-      </c>
       <c r="D138" t="n">
-        <v>68.77</v>
+        <v>68.72</v>
       </c>
       <c r="E138" t="n">
-        <v>68.72</v>
+        <v>68.59</v>
       </c>
       <c r="F138" t="n">
-        <v>17021.52081551222</v>
+        <v>7407.113786324537</v>
       </c>
       <c r="G138" t="n">
-        <v>68.12150000000007</v>
+        <v>68.08366666666674</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -5246,22 +5462,22 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>68.79000000000001</v>
+        <v>68.72</v>
       </c>
       <c r="C139" t="n">
-        <v>69</v>
+        <v>68.77</v>
       </c>
       <c r="D139" t="n">
-        <v>69</v>
+        <v>68.77</v>
       </c>
       <c r="E139" t="n">
-        <v>68.79000000000001</v>
+        <v>68.72</v>
       </c>
       <c r="F139" t="n">
-        <v>6392.2178</v>
+        <v>17021.52081551222</v>
       </c>
       <c r="G139" t="n">
-        <v>68.14650000000007</v>
+        <v>68.12150000000007</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -5281,22 +5497,22 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>69.25</v>
+        <v>68.79000000000001</v>
       </c>
       <c r="C140" t="n">
-        <v>69.27</v>
+        <v>69</v>
       </c>
       <c r="D140" t="n">
-        <v>69.27</v>
+        <v>69</v>
       </c>
       <c r="E140" t="n">
-        <v>69.25</v>
+        <v>68.79000000000001</v>
       </c>
       <c r="F140" t="n">
-        <v>22781.0817</v>
+        <v>6392.2178</v>
       </c>
       <c r="G140" t="n">
-        <v>68.17150000000008</v>
+        <v>68.14650000000007</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -5316,22 +5532,22 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>69.29000000000001</v>
+        <v>69.25</v>
       </c>
       <c r="C141" t="n">
         <v>69.27</v>
       </c>
       <c r="D141" t="n">
-        <v>69.29000000000001</v>
+        <v>69.27</v>
       </c>
       <c r="E141" t="n">
-        <v>69.27</v>
+        <v>69.25</v>
       </c>
       <c r="F141" t="n">
-        <v>3847.362</v>
+        <v>22781.0817</v>
       </c>
       <c r="G141" t="n">
-        <v>68.19433333333342</v>
+        <v>68.17150000000008</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -5351,22 +5567,22 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>69.38</v>
+        <v>69.29000000000001</v>
       </c>
       <c r="C142" t="n">
-        <v>69.38</v>
+        <v>69.27</v>
       </c>
       <c r="D142" t="n">
-        <v>69.38</v>
+        <v>69.29000000000001</v>
       </c>
       <c r="E142" t="n">
-        <v>69.38</v>
+        <v>69.27</v>
       </c>
       <c r="F142" t="n">
-        <v>8</v>
+        <v>3847.362</v>
       </c>
       <c r="G142" t="n">
-        <v>68.20733333333341</v>
+        <v>68.19433333333342</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -5386,22 +5602,22 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>68.11</v>
+        <v>69.38</v>
       </c>
       <c r="C143" t="n">
-        <v>68</v>
+        <v>69.38</v>
       </c>
       <c r="D143" t="n">
-        <v>68.11</v>
+        <v>69.38</v>
       </c>
       <c r="E143" t="n">
-        <v>68</v>
+        <v>69.38</v>
       </c>
       <c r="F143" t="n">
-        <v>7977.9933</v>
+        <v>8</v>
       </c>
       <c r="G143" t="n">
-        <v>68.19416666666673</v>
+        <v>68.20733333333341</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -5421,22 +5637,22 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>69.19</v>
+        <v>68.11</v>
       </c>
       <c r="C144" t="n">
-        <v>69.19</v>
+        <v>68</v>
       </c>
       <c r="D144" t="n">
-        <v>69.19</v>
+        <v>68.11</v>
       </c>
       <c r="E144" t="n">
-        <v>69.19</v>
+        <v>68</v>
       </c>
       <c r="F144" t="n">
-        <v>8</v>
+        <v>7977.9933</v>
       </c>
       <c r="G144" t="n">
-        <v>68.19733333333339</v>
+        <v>68.19416666666673</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -5456,22 +5672,22 @@
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>68.98999999999999</v>
+        <v>69.19</v>
       </c>
       <c r="C145" t="n">
-        <v>68.98999999999999</v>
+        <v>69.19</v>
       </c>
       <c r="D145" t="n">
-        <v>68.98999999999999</v>
+        <v>69.19</v>
       </c>
       <c r="E145" t="n">
-        <v>68.98999999999999</v>
+        <v>69.19</v>
       </c>
       <c r="F145" t="n">
-        <v>6948.213</v>
+        <v>8</v>
       </c>
       <c r="G145" t="n">
-        <v>68.23216666666673</v>
+        <v>68.19733333333339</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -5491,22 +5707,22 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>68.05</v>
+        <v>68.98999999999999</v>
       </c>
       <c r="C146" t="n">
-        <v>68</v>
+        <v>68.98999999999999</v>
       </c>
       <c r="D146" t="n">
-        <v>68.05</v>
+        <v>68.98999999999999</v>
       </c>
       <c r="E146" t="n">
-        <v>68</v>
+        <v>68.98999999999999</v>
       </c>
       <c r="F146" t="n">
-        <v>8338.2657</v>
+        <v>6948.213</v>
       </c>
       <c r="G146" t="n">
-        <v>68.23866666666673</v>
+        <v>68.23216666666673</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -5526,22 +5742,22 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>68.98999999999999</v>
+        <v>68.05</v>
       </c>
       <c r="C147" t="n">
         <v>68</v>
       </c>
       <c r="D147" t="n">
-        <v>68.98999999999999</v>
+        <v>68.05</v>
       </c>
       <c r="E147" t="n">
         <v>68</v>
       </c>
       <c r="F147" t="n">
-        <v>1045.7942</v>
+        <v>8338.2657</v>
       </c>
       <c r="G147" t="n">
-        <v>68.24466666666673</v>
+        <v>68.23866666666673</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -5561,22 +5777,22 @@
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>68.59</v>
+        <v>68.98999999999999</v>
       </c>
       <c r="C148" t="n">
-        <v>68.59</v>
+        <v>68</v>
       </c>
       <c r="D148" t="n">
-        <v>68.59</v>
+        <v>68.98999999999999</v>
       </c>
       <c r="E148" t="n">
-        <v>68.59</v>
+        <v>68</v>
       </c>
       <c r="F148" t="n">
-        <v>8087.5792</v>
+        <v>1045.7942</v>
       </c>
       <c r="G148" t="n">
-        <v>68.25650000000005</v>
+        <v>68.24466666666673</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -5596,22 +5812,22 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>69</v>
+        <v>68.59</v>
       </c>
       <c r="C149" t="n">
-        <v>69</v>
+        <v>68.59</v>
       </c>
       <c r="D149" t="n">
-        <v>69</v>
+        <v>68.59</v>
       </c>
       <c r="E149" t="n">
-        <v>69</v>
+        <v>68.59</v>
       </c>
       <c r="F149" t="n">
-        <v>8</v>
+        <v>8087.5792</v>
       </c>
       <c r="G149" t="n">
-        <v>68.26000000000005</v>
+        <v>68.25650000000005</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -5631,22 +5847,22 @@
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>68.02</v>
+        <v>69</v>
       </c>
       <c r="C150" t="n">
-        <v>67.53</v>
+        <v>69</v>
       </c>
       <c r="D150" t="n">
-        <v>68.02</v>
+        <v>69</v>
       </c>
       <c r="E150" t="n">
-        <v>67.53</v>
+        <v>69</v>
       </c>
       <c r="F150" t="n">
-        <v>13501.4325</v>
+        <v>8</v>
       </c>
       <c r="G150" t="n">
-        <v>68.23900000000005</v>
+        <v>68.26000000000005</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -5666,22 +5882,22 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>68.79000000000001</v>
+        <v>68.02</v>
       </c>
       <c r="C151" t="n">
-        <v>69.29000000000001</v>
+        <v>67.53</v>
       </c>
       <c r="D151" t="n">
-        <v>69.29000000000001</v>
+        <v>68.02</v>
       </c>
       <c r="E151" t="n">
-        <v>68.79000000000001</v>
+        <v>67.53</v>
       </c>
       <c r="F151" t="n">
-        <v>17665.47218034348</v>
+        <v>13501.4325</v>
       </c>
       <c r="G151" t="n">
-        <v>68.24733333333339</v>
+        <v>68.23900000000005</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -5701,22 +5917,22 @@
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>69.34</v>
+        <v>68.79000000000001</v>
       </c>
       <c r="C152" t="n">
-        <v>69.37</v>
+        <v>69.29000000000001</v>
       </c>
       <c r="D152" t="n">
-        <v>69.37</v>
+        <v>69.29000000000001</v>
       </c>
       <c r="E152" t="n">
-        <v>69.34</v>
+        <v>68.79000000000001</v>
       </c>
       <c r="F152" t="n">
-        <v>175.0071963961367</v>
+        <v>17665.47218034348</v>
       </c>
       <c r="G152" t="n">
-        <v>68.2686666666667</v>
+        <v>68.24733333333339</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -5736,22 +5952,22 @@
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>69.36</v>
+        <v>69.34</v>
       </c>
       <c r="C153" t="n">
-        <v>69.36</v>
+        <v>69.37</v>
       </c>
       <c r="D153" t="n">
-        <v>69.38</v>
+        <v>69.37</v>
       </c>
       <c r="E153" t="n">
-        <v>69.36</v>
+        <v>69.34</v>
       </c>
       <c r="F153" t="n">
-        <v>49</v>
+        <v>175.0071963961367</v>
       </c>
       <c r="G153" t="n">
-        <v>68.30750000000005</v>
+        <v>68.2686666666667</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -5777,16 +5993,16 @@
         <v>69.36</v>
       </c>
       <c r="D154" t="n">
-        <v>69.36</v>
+        <v>69.38</v>
       </c>
       <c r="E154" t="n">
         <v>69.36</v>
       </c>
       <c r="F154" t="n">
-        <v>213.2144</v>
+        <v>49</v>
       </c>
       <c r="G154" t="n">
-        <v>68.31783333333337</v>
+        <v>68.30750000000005</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -5809,19 +6025,19 @@
         <v>69.36</v>
       </c>
       <c r="C155" t="n">
-        <v>68.12</v>
+        <v>69.36</v>
       </c>
       <c r="D155" t="n">
         <v>69.36</v>
       </c>
       <c r="E155" t="n">
-        <v>68.12</v>
+        <v>69.36</v>
       </c>
       <c r="F155" t="n">
-        <v>5154.4399</v>
+        <v>213.2144</v>
       </c>
       <c r="G155" t="n">
-        <v>68.32000000000004</v>
+        <v>68.31783333333337</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -5841,22 +6057,22 @@
         <v>154</v>
       </c>
       <c r="B156" t="n">
-        <v>68.41</v>
+        <v>69.36</v>
       </c>
       <c r="C156" t="n">
-        <v>68.41</v>
+        <v>68.12</v>
       </c>
       <c r="D156" t="n">
-        <v>68.41</v>
+        <v>69.36</v>
       </c>
       <c r="E156" t="n">
-        <v>68.41</v>
+        <v>68.12</v>
       </c>
       <c r="F156" t="n">
-        <v>853.4956</v>
+        <v>5154.4399</v>
       </c>
       <c r="G156" t="n">
-        <v>68.32700000000004</v>
+        <v>68.32000000000004</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -5876,22 +6092,22 @@
         <v>155</v>
       </c>
       <c r="B157" t="n">
-        <v>69.26000000000001</v>
+        <v>68.41</v>
       </c>
       <c r="C157" t="n">
-        <v>69.26000000000001</v>
+        <v>68.41</v>
       </c>
       <c r="D157" t="n">
-        <v>69.26000000000001</v>
+        <v>68.41</v>
       </c>
       <c r="E157" t="n">
-        <v>69.26000000000001</v>
+        <v>68.41</v>
       </c>
       <c r="F157" t="n">
-        <v>8</v>
+        <v>853.4956</v>
       </c>
       <c r="G157" t="n">
-        <v>68.33900000000004</v>
+        <v>68.32700000000004</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -5911,22 +6127,22 @@
         <v>156</v>
       </c>
       <c r="B158" t="n">
-        <v>68.42</v>
+        <v>69.26000000000001</v>
       </c>
       <c r="C158" t="n">
-        <v>68</v>
+        <v>69.26000000000001</v>
       </c>
       <c r="D158" t="n">
-        <v>68.42</v>
+        <v>69.26000000000001</v>
       </c>
       <c r="E158" t="n">
-        <v>68</v>
+        <v>69.26000000000001</v>
       </c>
       <c r="F158" t="n">
-        <v>17050.0608</v>
+        <v>8</v>
       </c>
       <c r="G158" t="n">
-        <v>68.34383333333338</v>
+        <v>68.33900000000004</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -5946,22 +6162,22 @@
         <v>157</v>
       </c>
       <c r="B159" t="n">
-        <v>68.5</v>
+        <v>68.42</v>
       </c>
       <c r="C159" t="n">
-        <v>69.52</v>
+        <v>68</v>
       </c>
       <c r="D159" t="n">
-        <v>69.56</v>
+        <v>68.42</v>
       </c>
       <c r="E159" t="n">
-        <v>68.5</v>
+        <v>68</v>
       </c>
       <c r="F159" t="n">
-        <v>14001.58538401921</v>
+        <v>17050.0608</v>
       </c>
       <c r="G159" t="n">
-        <v>68.38000000000005</v>
+        <v>68.34383333333338</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -5981,22 +6197,22 @@
         <v>158</v>
       </c>
       <c r="B160" t="n">
-        <v>69.51000000000001</v>
+        <v>68.5</v>
       </c>
       <c r="C160" t="n">
-        <v>69.51000000000001</v>
+        <v>69.52</v>
       </c>
       <c r="D160" t="n">
-        <v>69.51000000000001</v>
+        <v>69.56</v>
       </c>
       <c r="E160" t="n">
-        <v>69.51000000000001</v>
+        <v>68.5</v>
       </c>
       <c r="F160" t="n">
-        <v>18.42900302114804</v>
+        <v>14001.58538401921</v>
       </c>
       <c r="G160" t="n">
-        <v>68.39900000000006</v>
+        <v>68.38000000000005</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -6016,22 +6232,22 @@
         <v>159</v>
       </c>
       <c r="B161" t="n">
-        <v>68.41</v>
+        <v>69.51000000000001</v>
       </c>
       <c r="C161" t="n">
-        <v>68</v>
+        <v>69.51000000000001</v>
       </c>
       <c r="D161" t="n">
-        <v>68.41</v>
+        <v>69.51000000000001</v>
       </c>
       <c r="E161" t="n">
-        <v>68</v>
+        <v>69.51000000000001</v>
       </c>
       <c r="F161" t="n">
-        <v>5293.1176</v>
+        <v>18.42900302114804</v>
       </c>
       <c r="G161" t="n">
-        <v>68.4068333333334</v>
+        <v>68.39900000000006</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -6051,22 +6267,22 @@
         <v>160</v>
       </c>
       <c r="B162" t="n">
-        <v>69.25</v>
+        <v>68.41</v>
       </c>
       <c r="C162" t="n">
-        <v>69.25</v>
+        <v>68</v>
       </c>
       <c r="D162" t="n">
-        <v>69.25</v>
+        <v>68.41</v>
       </c>
       <c r="E162" t="n">
-        <v>69.25</v>
+        <v>68</v>
       </c>
       <c r="F162" t="n">
-        <v>8</v>
+        <v>5293.1176</v>
       </c>
       <c r="G162" t="n">
-        <v>68.43566666666672</v>
+        <v>68.4068333333334</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
@@ -6081,6 +6297,41 @@
         <v>1</v>
       </c>
     </row>
+    <row r="163">
+      <c r="A163" s="1" t="n">
+        <v>161</v>
+      </c>
+      <c r="B163" t="n">
+        <v>69.25</v>
+      </c>
+      <c r="C163" t="n">
+        <v>69.25</v>
+      </c>
+      <c r="D163" t="n">
+        <v>69.25</v>
+      </c>
+      <c r="E163" t="n">
+        <v>69.25</v>
+      </c>
+      <c r="F163" t="n">
+        <v>8</v>
+      </c>
+      <c r="G163" t="n">
+        <v>68.43566666666672</v>
+      </c>
+      <c r="H163" t="n">
+        <v>0</v>
+      </c>
+      <c r="I163" t="n">
+        <v>0</v>
+      </c>
+      <c r="J163" t="inlineStr"/>
+      <c r="K163" t="inlineStr"/>
+      <c r="L163" t="inlineStr"/>
+      <c r="M163" t="n">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/BackTest/2020-01-21 BackTest FX.xlsx
+++ b/BackTest/2020-01-21 BackTest FX.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M163"/>
+  <dimension ref="A1:N173"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -394,35 +394,40 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
+          <t>CMO</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>MA60</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>low_check</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>high_check</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
@@ -448,18 +453,21 @@
         <v>5611</v>
       </c>
       <c r="G2" t="n">
+        <v>67.66933333333341</v>
+      </c>
+      <c r="H2" t="n">
         <v>67.17916666666673</v>
       </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
-      <c r="J2" t="inlineStr"/>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -483,18 +491,21 @@
         <v>8000.8561</v>
       </c>
       <c r="G3" t="n">
+        <v>67.59600000000009</v>
+      </c>
+      <c r="H3" t="n">
         <v>67.17283333333339</v>
       </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
-      <c r="J3" t="inlineStr"/>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
+      <c r="M3" t="inlineStr"/>
+      <c r="N3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -518,18 +529,21 @@
         <v>9.7859</v>
       </c>
       <c r="G4" t="n">
+        <v>67.51733333333343</v>
+      </c>
+      <c r="H4" t="n">
         <v>67.16650000000006</v>
       </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
-      <c r="J4" t="inlineStr"/>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr"/>
-      <c r="M4" t="n">
+      <c r="M4" t="inlineStr"/>
+      <c r="N4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -553,18 +567,21 @@
         <v>30</v>
       </c>
       <c r="G5" t="n">
+        <v>67.50866666666676</v>
+      </c>
+      <c r="H5" t="n">
         <v>67.17383333333339</v>
       </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
-      <c r="J5" t="inlineStr"/>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
-      <c r="M5" t="n">
+      <c r="M5" t="inlineStr"/>
+      <c r="N5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -588,18 +605,21 @@
         <v>682.63</v>
       </c>
       <c r="G6" t="n">
+        <v>67.49733333333343</v>
+      </c>
+      <c r="H6" t="n">
         <v>67.16750000000006</v>
       </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
-      <c r="J6" t="inlineStr"/>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
+      <c r="M6" t="inlineStr"/>
+      <c r="N6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -623,18 +643,21 @@
         <v>457.0939</v>
       </c>
       <c r="G7" t="n">
+        <v>67.4440000000001</v>
+      </c>
+      <c r="H7" t="n">
         <v>67.16233333333339</v>
       </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
-      <c r="J7" t="inlineStr"/>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr"/>
-      <c r="M7" t="n">
+      <c r="M7" t="inlineStr"/>
+      <c r="N7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -658,18 +681,21 @@
         <v>10745.0144</v>
       </c>
       <c r="G8" t="n">
+        <v>67.39733333333342</v>
+      </c>
+      <c r="H8" t="n">
         <v>67.15900000000006</v>
       </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
-      <c r="J8" t="inlineStr"/>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr"/>
-      <c r="M8" t="n">
+      <c r="M8" t="inlineStr"/>
+      <c r="N8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -693,18 +719,21 @@
         <v>209.5159</v>
       </c>
       <c r="G9" t="n">
+        <v>67.43133333333343</v>
+      </c>
+      <c r="H9" t="n">
         <v>67.14250000000007</v>
       </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
-      <c r="J9" t="inlineStr"/>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr"/>
-      <c r="M9" t="n">
+      <c r="M9" t="inlineStr"/>
+      <c r="N9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -728,18 +757,21 @@
         <v>7015.4754</v>
       </c>
       <c r="G10" t="n">
+        <v>67.43200000000009</v>
+      </c>
+      <c r="H10" t="n">
         <v>67.12316666666673</v>
       </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
-      <c r="J10" t="inlineStr"/>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr"/>
-      <c r="M10" t="n">
+      <c r="M10" t="inlineStr"/>
+      <c r="N10" t="n">
         <v>1</v>
       </c>
     </row>
@@ -763,18 +795,25 @@
         <v>30.9781</v>
       </c>
       <c r="G11" t="n">
+        <v>67.43200000000009</v>
+      </c>
+      <c r="H11" t="n">
         <v>67.1363333333334</v>
       </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
       <c r="I11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
-      <c r="M11" t="n">
+        <v>1</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="n">
+        <v>66.70999999999999</v>
+      </c>
+      <c r="L11" t="n">
+        <v>66.70999999999999</v>
+      </c>
+      <c r="M11" t="inlineStr"/>
+      <c r="N11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -798,18 +837,27 @@
         <v>296.3588</v>
       </c>
       <c r="G12" t="n">
+        <v>67.36733333333342</v>
+      </c>
+      <c r="H12" t="n">
         <v>67.13500000000006</v>
       </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
-      <c r="J12" t="inlineStr"/>
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
       <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
-      <c r="M12" t="n">
+      <c r="L12" t="n">
+        <v>66.70999999999999</v>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="N12" t="n">
         <v>1</v>
       </c>
     </row>
@@ -833,18 +881,27 @@
         <v>233.4349</v>
       </c>
       <c r="G13" t="n">
+        <v>67.29733333333341</v>
+      </c>
+      <c r="H13" t="n">
         <v>67.1313333333334</v>
       </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
-      <c r="J13" t="inlineStr"/>
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
       <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
-      <c r="M13" t="n">
+      <c r="L13" t="n">
+        <v>66.70999999999999</v>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="N13" t="n">
         <v>1</v>
       </c>
     </row>
@@ -868,18 +925,21 @@
         <v>1820.3669</v>
       </c>
       <c r="G14" t="n">
+        <v>67.23800000000008</v>
+      </c>
+      <c r="H14" t="n">
         <v>67.12633333333339</v>
       </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
-      <c r="J14" t="inlineStr"/>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr"/>
-      <c r="M14" t="n">
+      <c r="M14" t="inlineStr"/>
+      <c r="N14" t="n">
         <v>1</v>
       </c>
     </row>
@@ -903,18 +963,25 @@
         <v>946.2756000000001</v>
       </c>
       <c r="G15" t="n">
+        <v>67.14466666666674</v>
+      </c>
+      <c r="H15" t="n">
         <v>67.10316666666672</v>
       </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
       <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
-      <c r="M15" t="n">
+        <v>1</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
+      <c r="K15" t="n">
+        <v>66.70999999999999</v>
+      </c>
+      <c r="L15" t="n">
+        <v>66.70999999999999</v>
+      </c>
+      <c r="M15" t="inlineStr"/>
+      <c r="N15" t="n">
         <v>1</v>
       </c>
     </row>
@@ -938,18 +1005,29 @@
         <v>110</v>
       </c>
       <c r="G16" t="n">
+        <v>67.10466666666673</v>
+      </c>
+      <c r="H16" t="n">
         <v>67.12933333333339</v>
       </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
       <c r="I16" t="n">
-        <v>0</v>
-      </c>
-      <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
-      <c r="M16" t="n">
+        <v>1</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
+      <c r="K16" t="n">
+        <v>66.5</v>
+      </c>
+      <c r="L16" t="n">
+        <v>66.70999999999999</v>
+      </c>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="N16" t="n">
         <v>1</v>
       </c>
     </row>
@@ -973,18 +1051,29 @@
         <v>3274.2907</v>
       </c>
       <c r="G17" t="n">
+        <v>67.03800000000007</v>
+      </c>
+      <c r="H17" t="n">
         <v>67.11450000000006</v>
       </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
       <c r="I17" t="n">
-        <v>0</v>
-      </c>
-      <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
-      <c r="M17" t="n">
+        <v>1</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" t="n">
+        <v>67</v>
+      </c>
+      <c r="L17" t="n">
+        <v>66.70999999999999</v>
+      </c>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N17" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1008,18 +1097,29 @@
         <v>8150.3999</v>
       </c>
       <c r="G18" t="n">
+        <v>66.9713333333334</v>
+      </c>
+      <c r="H18" t="n">
         <v>67.09966666666674</v>
       </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
       <c r="I18" t="n">
-        <v>0</v>
-      </c>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
-      <c r="M18" t="n">
+        <v>1</v>
+      </c>
+      <c r="J18" t="n">
+        <v>0</v>
+      </c>
+      <c r="K18" t="n">
+        <v>66.5</v>
+      </c>
+      <c r="L18" t="n">
+        <v>66.70999999999999</v>
+      </c>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N18" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1043,18 +1143,29 @@
         <v>88.9221</v>
       </c>
       <c r="G19" t="n">
+        <v>66.91000000000007</v>
+      </c>
+      <c r="H19" t="n">
         <v>67.10900000000007</v>
       </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
       <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
-      <c r="M19" t="n">
+        <v>1</v>
+      </c>
+      <c r="J19" t="n">
+        <v>0</v>
+      </c>
+      <c r="K19" t="n">
+        <v>66.5</v>
+      </c>
+      <c r="L19" t="n">
+        <v>66.70999999999999</v>
+      </c>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N19" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1078,18 +1189,29 @@
         <v>4909</v>
       </c>
       <c r="G20" t="n">
+        <v>66.83066666666673</v>
+      </c>
+      <c r="H20" t="n">
         <v>67.1043333333334</v>
       </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
       <c r="I20" t="n">
-        <v>0</v>
-      </c>
-      <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
-      <c r="M20" t="n">
+        <v>1</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
+      <c r="K20" t="n">
+        <v>66.58</v>
+      </c>
+      <c r="L20" t="n">
+        <v>66.70999999999999</v>
+      </c>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N20" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1113,18 +1235,29 @@
         <v>3821.199213164179</v>
       </c>
       <c r="G21" t="n">
+        <v>66.7973333333334</v>
+      </c>
+      <c r="H21" t="n">
         <v>67.11266666666673</v>
       </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
       <c r="I21" t="n">
-        <v>0</v>
-      </c>
-      <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
-      <c r="M21" t="n">
+        <v>1</v>
+      </c>
+      <c r="J21" t="n">
+        <v>0</v>
+      </c>
+      <c r="K21" t="n">
+        <v>66.31</v>
+      </c>
+      <c r="L21" t="n">
+        <v>66.70999999999999</v>
+      </c>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N21" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1148,18 +1281,29 @@
         <v>5675.4762</v>
       </c>
       <c r="G22" t="n">
+        <v>66.75800000000007</v>
+      </c>
+      <c r="H22" t="n">
         <v>67.10950000000007</v>
       </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
       <c r="I22" t="n">
-        <v>0</v>
-      </c>
-      <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
-      <c r="M22" t="n">
+        <v>1</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
+      <c r="K22" t="n">
+        <v>67</v>
+      </c>
+      <c r="L22" t="n">
+        <v>66.70999999999999</v>
+      </c>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N22" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1183,18 +1327,29 @@
         <v>1386</v>
       </c>
       <c r="G23" t="n">
+        <v>66.71200000000006</v>
+      </c>
+      <c r="H23" t="n">
         <v>67.10483333333339</v>
       </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
       <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
-      <c r="M23" t="n">
+        <v>1</v>
+      </c>
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
+      <c r="K23" t="n">
+        <v>66.31</v>
+      </c>
+      <c r="L23" t="n">
+        <v>66.70999999999999</v>
+      </c>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N23" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1218,18 +1373,29 @@
         <v>10647.3702</v>
       </c>
       <c r="G24" t="n">
+        <v>66.67800000000007</v>
+      </c>
+      <c r="H24" t="n">
         <v>67.10000000000007</v>
       </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
       <c r="I24" t="n">
-        <v>0</v>
-      </c>
-      <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
-      <c r="M24" t="n">
+        <v>1</v>
+      </c>
+      <c r="J24" t="n">
+        <v>0</v>
+      </c>
+      <c r="K24" t="n">
+        <v>66.31</v>
+      </c>
+      <c r="L24" t="n">
+        <v>66.70999999999999</v>
+      </c>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N24" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1253,18 +1419,29 @@
         <v>4864.2528</v>
       </c>
       <c r="G25" t="n">
+        <v>66.6513333333334</v>
+      </c>
+      <c r="H25" t="n">
         <v>67.09533333333339</v>
       </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
       <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
-      <c r="M25" t="n">
+        <v>1</v>
+      </c>
+      <c r="J25" t="n">
+        <v>0</v>
+      </c>
+      <c r="K25" t="n">
+        <v>66.3</v>
+      </c>
+      <c r="L25" t="n">
+        <v>66.70999999999999</v>
+      </c>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N25" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1288,18 +1465,29 @@
         <v>1000</v>
       </c>
       <c r="G26" t="n">
+        <v>66.55600000000005</v>
+      </c>
+      <c r="H26" t="n">
         <v>67.09150000000005</v>
       </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
       <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
-      <c r="M26" t="n">
+        <v>1</v>
+      </c>
+      <c r="J26" t="n">
+        <v>0</v>
+      </c>
+      <c r="K26" t="n">
+        <v>66.31</v>
+      </c>
+      <c r="L26" t="n">
+        <v>66.70999999999999</v>
+      </c>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N26" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1323,24 +1511,29 @@
         <v>1100</v>
       </c>
       <c r="G27" t="n">
+        <v>66.53466666666672</v>
+      </c>
+      <c r="H27" t="n">
         <v>67.10316666666672</v>
       </c>
-      <c r="H27" t="n">
-        <v>1</v>
-      </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J27" t="n">
+        <v>0</v>
+      </c>
+      <c r="K27" t="n">
         <v>66.36</v>
       </c>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="M27" t="n">
+      <c r="L27" t="n">
+        <v>66.70999999999999</v>
+      </c>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N27" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1364,22 +1557,27 @@
         <v>49.813</v>
       </c>
       <c r="G28" t="n">
+        <v>66.50333333333339</v>
+      </c>
+      <c r="H28" t="n">
         <v>67.10083333333338</v>
       </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
-      <c r="J28" t="inlineStr"/>
+      <c r="J28" t="n">
+        <v>0</v>
+      </c>
       <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M28" t="n">
+      <c r="L28" t="n">
+        <v>66.70999999999999</v>
+      </c>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N28" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1403,24 +1601,27 @@
         <v>22722.17038683582</v>
       </c>
       <c r="G29" t="n">
+        <v>66.55600000000004</v>
+      </c>
+      <c r="H29" t="n">
         <v>67.13416666666673</v>
       </c>
-      <c r="H29" t="n">
-        <v>1</v>
-      </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>66.36</v>
+        <v>0</v>
       </c>
       <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M29" t="n">
+      <c r="L29" t="n">
+        <v>66.70999999999999</v>
+      </c>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N29" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1444,22 +1645,27 @@
         <v>347.324</v>
       </c>
       <c r="G30" t="n">
+        <v>66.64866666666671</v>
+      </c>
+      <c r="H30" t="n">
         <v>67.17400000000005</v>
       </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
-      <c r="J30" t="inlineStr"/>
+      <c r="J30" t="n">
+        <v>0</v>
+      </c>
       <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M30" t="n">
+      <c r="L30" t="n">
+        <v>66.70999999999999</v>
+      </c>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N30" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1483,22 +1689,27 @@
         <v>1625.3001</v>
       </c>
       <c r="G31" t="n">
+        <v>66.64866666666671</v>
+      </c>
+      <c r="H31" t="n">
         <v>67.18233333333339</v>
       </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
-      <c r="J31" t="inlineStr"/>
+      <c r="J31" t="n">
+        <v>0</v>
+      </c>
       <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M31" t="n">
+      <c r="L31" t="n">
+        <v>66.70999999999999</v>
+      </c>
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N31" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1522,22 +1733,27 @@
         <v>456.0044131641791</v>
       </c>
       <c r="G32" t="n">
+        <v>66.68266666666672</v>
+      </c>
+      <c r="H32" t="n">
         <v>67.19083333333339</v>
       </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
-      <c r="J32" t="inlineStr"/>
+      <c r="J32" t="n">
+        <v>0</v>
+      </c>
       <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M32" t="n">
+      <c r="L32" t="n">
+        <v>66.70999999999999</v>
+      </c>
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N32" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1561,22 +1777,27 @@
         <v>148</v>
       </c>
       <c r="G33" t="n">
+        <v>66.71666666666671</v>
+      </c>
+      <c r="H33" t="n">
         <v>67.21600000000007</v>
       </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
-      <c r="J33" t="inlineStr"/>
+      <c r="J33" t="n">
+        <v>0</v>
+      </c>
       <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M33" t="n">
+      <c r="L33" t="n">
+        <v>66.70999999999999</v>
+      </c>
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N33" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1600,22 +1821,27 @@
         <v>8</v>
       </c>
       <c r="G34" t="n">
+        <v>66.80466666666672</v>
+      </c>
+      <c r="H34" t="n">
         <v>67.25433333333339</v>
       </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
-      <c r="J34" t="inlineStr"/>
+      <c r="J34" t="n">
+        <v>0</v>
+      </c>
       <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M34" t="n">
+      <c r="L34" t="n">
+        <v>66.70999999999999</v>
+      </c>
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N34" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1639,22 +1865,27 @@
         <v>576</v>
       </c>
       <c r="G35" t="n">
+        <v>66.84466666666671</v>
+      </c>
+      <c r="H35" t="n">
         <v>67.25450000000006</v>
       </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
-      <c r="J35" t="inlineStr"/>
+      <c r="J35" t="n">
+        <v>0</v>
+      </c>
       <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M35" t="n">
+      <c r="L35" t="n">
+        <v>66.70999999999999</v>
+      </c>
+      <c r="M35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N35" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1678,22 +1909,27 @@
         <v>267.369</v>
       </c>
       <c r="G36" t="n">
+        <v>66.83866666666673</v>
+      </c>
+      <c r="H36" t="n">
         <v>67.2383333333334</v>
       </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
-      <c r="J36" t="inlineStr"/>
+      <c r="J36" t="n">
+        <v>0</v>
+      </c>
       <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M36" t="n">
+      <c r="L36" t="n">
+        <v>66.70999999999999</v>
+      </c>
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N36" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1717,22 +1953,27 @@
         <v>721</v>
       </c>
       <c r="G37" t="n">
+        <v>66.94466666666673</v>
+      </c>
+      <c r="H37" t="n">
         <v>67.23866666666672</v>
       </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
-      <c r="J37" t="inlineStr"/>
+      <c r="J37" t="n">
+        <v>0</v>
+      </c>
       <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M37" t="n">
+      <c r="L37" t="n">
+        <v>66.70999999999999</v>
+      </c>
+      <c r="M37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N37" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1756,22 +1997,27 @@
         <v>228.7706</v>
       </c>
       <c r="G38" t="n">
+        <v>66.9913333333334</v>
+      </c>
+      <c r="H38" t="n">
         <v>67.24050000000005</v>
       </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
-      <c r="J38" t="inlineStr"/>
+      <c r="J38" t="n">
+        <v>0</v>
+      </c>
       <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M38" t="n">
+      <c r="L38" t="n">
+        <v>66.70999999999999</v>
+      </c>
+      <c r="M38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N38" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1795,22 +2041,29 @@
         <v>1266.1127</v>
       </c>
       <c r="G39" t="n">
+        <v>67.03800000000007</v>
+      </c>
+      <c r="H39" t="n">
         <v>67.23400000000007</v>
       </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
       <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M39" t="n">
+        <v>1</v>
+      </c>
+      <c r="J39" t="n">
+        <v>0</v>
+      </c>
+      <c r="K39" t="n">
+        <v>67.01000000000001</v>
+      </c>
+      <c r="L39" t="n">
+        <v>66.70999999999999</v>
+      </c>
+      <c r="M39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N39" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1834,22 +2087,29 @@
         <v>122.7761</v>
       </c>
       <c r="G40" t="n">
+        <v>67.14400000000008</v>
+      </c>
+      <c r="H40" t="n">
         <v>67.23400000000007</v>
       </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
       <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M40" t="n">
+        <v>1</v>
+      </c>
+      <c r="J40" t="n">
+        <v>0</v>
+      </c>
+      <c r="K40" t="n">
+        <v>67</v>
+      </c>
+      <c r="L40" t="n">
+        <v>66.70999999999999</v>
+      </c>
+      <c r="M40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N40" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1873,22 +2133,27 @@
         <v>373</v>
       </c>
       <c r="G41" t="n">
+        <v>67.18066666666675</v>
+      </c>
+      <c r="H41" t="n">
         <v>67.23100000000007</v>
       </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
-      <c r="J41" t="inlineStr"/>
+      <c r="J41" t="n">
+        <v>0</v>
+      </c>
       <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M41" t="n">
+      <c r="L41" t="n">
+        <v>66.70999999999999</v>
+      </c>
+      <c r="M41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N41" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1912,22 +2177,27 @@
         <v>8</v>
       </c>
       <c r="G42" t="n">
+        <v>67.27400000000009</v>
+      </c>
+      <c r="H42" t="n">
         <v>67.24450000000006</v>
       </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
-      <c r="J42" t="inlineStr"/>
+      <c r="J42" t="n">
+        <v>0</v>
+      </c>
       <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M42" t="n">
+      <c r="L42" t="n">
+        <v>66.70999999999999</v>
+      </c>
+      <c r="M42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N42" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1951,22 +2221,27 @@
         <v>9296.9447</v>
       </c>
       <c r="G43" t="n">
+        <v>67.29733333333341</v>
+      </c>
+      <c r="H43" t="n">
         <v>67.20983333333339</v>
       </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
-      <c r="J43" t="inlineStr"/>
+      <c r="J43" t="n">
+        <v>0</v>
+      </c>
       <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M43" t="n">
+      <c r="L43" t="n">
+        <v>66.70999999999999</v>
+      </c>
+      <c r="M43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N43" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1990,22 +2265,27 @@
         <v>321</v>
       </c>
       <c r="G44" t="n">
+        <v>67.24466666666675</v>
+      </c>
+      <c r="H44" t="n">
         <v>67.1753333333334</v>
       </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
-      <c r="J44" t="inlineStr"/>
+      <c r="J44" t="n">
+        <v>0</v>
+      </c>
       <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M44" t="n">
+      <c r="L44" t="n">
+        <v>66.70999999999999</v>
+      </c>
+      <c r="M44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N44" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2029,22 +2309,27 @@
         <v>0.0004</v>
       </c>
       <c r="G45" t="n">
+        <v>67.17866666666676</v>
+      </c>
+      <c r="H45" t="n">
         <v>67.16316666666673</v>
       </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
-      <c r="J45" t="inlineStr"/>
+      <c r="J45" t="n">
+        <v>0</v>
+      </c>
       <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M45" t="n">
+      <c r="L45" t="n">
+        <v>66.70999999999999</v>
+      </c>
+      <c r="M45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N45" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2068,22 +2353,27 @@
         <v>32.6012</v>
       </c>
       <c r="G46" t="n">
+        <v>67.23000000000009</v>
+      </c>
+      <c r="H46" t="n">
         <v>67.16550000000007</v>
       </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
       <c r="I46" t="n">
         <v>0</v>
       </c>
-      <c r="J46" t="inlineStr"/>
+      <c r="J46" t="n">
+        <v>0</v>
+      </c>
       <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M46" t="n">
+      <c r="L46" t="n">
+        <v>66.70999999999999</v>
+      </c>
+      <c r="M46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N46" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2107,22 +2397,27 @@
         <v>3217.851</v>
       </c>
       <c r="G47" t="n">
+        <v>67.1960000000001</v>
+      </c>
+      <c r="H47" t="n">
         <v>67.14650000000007</v>
       </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
       <c r="I47" t="n">
         <v>0</v>
       </c>
-      <c r="J47" t="inlineStr"/>
+      <c r="J47" t="n">
+        <v>0</v>
+      </c>
       <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M47" t="n">
+      <c r="L47" t="n">
+        <v>66.70999999999999</v>
+      </c>
+      <c r="M47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N47" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2146,22 +2441,27 @@
         <v>371.6554</v>
       </c>
       <c r="G48" t="n">
+        <v>67.16200000000009</v>
+      </c>
+      <c r="H48" t="n">
         <v>67.11150000000006</v>
       </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
       <c r="I48" t="n">
         <v>0</v>
       </c>
-      <c r="J48" t="inlineStr"/>
+      <c r="J48" t="n">
+        <v>0</v>
+      </c>
       <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M48" t="n">
+      <c r="L48" t="n">
+        <v>66.70999999999999</v>
+      </c>
+      <c r="M48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N48" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2185,22 +2485,29 @@
         <v>10</v>
       </c>
       <c r="G49" t="n">
+        <v>67.1480000000001</v>
+      </c>
+      <c r="H49" t="n">
         <v>67.09500000000007</v>
       </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
       <c r="I49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M49" t="n">
+        <v>1</v>
+      </c>
+      <c r="J49" t="n">
+        <v>0</v>
+      </c>
+      <c r="K49" t="n">
+        <v>66.5</v>
+      </c>
+      <c r="L49" t="n">
+        <v>66.70999999999999</v>
+      </c>
+      <c r="M49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N49" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2224,22 +2531,27 @@
         <v>8</v>
       </c>
       <c r="G50" t="n">
+        <v>67.2000000000001</v>
+      </c>
+      <c r="H50" t="n">
         <v>67.09600000000007</v>
       </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
       <c r="I50" t="n">
         <v>0</v>
       </c>
-      <c r="J50" t="inlineStr"/>
+      <c r="J50" t="n">
+        <v>0</v>
+      </c>
       <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M50" t="n">
+      <c r="L50" t="n">
+        <v>66.70999999999999</v>
+      </c>
+      <c r="M50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N50" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2263,22 +2575,27 @@
         <v>298.9529</v>
       </c>
       <c r="G51" t="n">
+        <v>67.19800000000011</v>
+      </c>
+      <c r="H51" t="n">
         <v>67.08283333333341</v>
       </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
       <c r="I51" t="n">
         <v>0</v>
       </c>
-      <c r="J51" t="inlineStr"/>
+      <c r="J51" t="n">
+        <v>0</v>
+      </c>
       <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M51" t="n">
+      <c r="L51" t="n">
+        <v>66.70999999999999</v>
+      </c>
+      <c r="M51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N51" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2302,22 +2619,27 @@
         <v>8</v>
       </c>
       <c r="G52" t="n">
+        <v>67.10466666666677</v>
+      </c>
+      <c r="H52" t="n">
         <v>67.06283333333342</v>
       </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
       <c r="I52" t="n">
         <v>0</v>
       </c>
-      <c r="J52" t="inlineStr"/>
+      <c r="J52" t="n">
+        <v>0</v>
+      </c>
       <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M52" t="n">
+      <c r="L52" t="n">
+        <v>66.70999999999999</v>
+      </c>
+      <c r="M52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N52" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2341,22 +2663,27 @@
         <v>154.2345</v>
       </c>
       <c r="G53" t="n">
+        <v>67.12400000000011</v>
+      </c>
+      <c r="H53" t="n">
         <v>67.05616666666675</v>
       </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
       <c r="I53" t="n">
         <v>0</v>
       </c>
-      <c r="J53" t="inlineStr"/>
+      <c r="J53" t="n">
+        <v>0</v>
+      </c>
       <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M53" t="n">
+      <c r="L53" t="n">
+        <v>66.70999999999999</v>
+      </c>
+      <c r="M53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N53" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2380,22 +2707,29 @@
         <v>196.8885</v>
       </c>
       <c r="G54" t="n">
+        <v>67.17000000000012</v>
+      </c>
+      <c r="H54" t="n">
         <v>67.07933333333341</v>
       </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
       <c r="I54" t="n">
-        <v>0</v>
-      </c>
-      <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M54" t="n">
+        <v>1</v>
+      </c>
+      <c r="J54" t="n">
+        <v>0</v>
+      </c>
+      <c r="K54" t="n">
+        <v>67.3</v>
+      </c>
+      <c r="L54" t="n">
+        <v>66.70999999999999</v>
+      </c>
+      <c r="M54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N54" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2419,22 +2753,27 @@
         <v>5996.6585</v>
       </c>
       <c r="G55" t="n">
+        <v>67.06733333333345</v>
+      </c>
+      <c r="H55" t="n">
         <v>67.07366666666675</v>
       </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
       <c r="I55" t="n">
         <v>0</v>
       </c>
-      <c r="J55" t="inlineStr"/>
+      <c r="J55" t="n">
+        <v>0</v>
+      </c>
       <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M55" t="n">
+      <c r="L55" t="n">
+        <v>66.70999999999999</v>
+      </c>
+      <c r="M55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N55" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2458,22 +2797,29 @@
         <v>1145.1453</v>
       </c>
       <c r="G56" t="n">
+        <v>67.03066666666679</v>
+      </c>
+      <c r="H56" t="n">
         <v>67.04983333333342</v>
       </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
       <c r="I56" t="n">
-        <v>0</v>
-      </c>
-      <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M56" t="n">
+        <v>1</v>
+      </c>
+      <c r="J56" t="n">
+        <v>0</v>
+      </c>
+      <c r="K56" t="n">
+        <v>66.36</v>
+      </c>
+      <c r="L56" t="n">
+        <v>66.70999999999999</v>
+      </c>
+      <c r="M56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N56" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2497,22 +2843,29 @@
         <v>8</v>
       </c>
       <c r="G57" t="n">
+        <v>66.93133333333346</v>
+      </c>
+      <c r="H57" t="n">
         <v>67.02683333333341</v>
       </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
       <c r="I57" t="n">
-        <v>0</v>
-      </c>
-      <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M57" t="n">
+        <v>1</v>
+      </c>
+      <c r="J57" t="n">
+        <v>0</v>
+      </c>
+      <c r="K57" t="n">
+        <v>66.36</v>
+      </c>
+      <c r="L57" t="n">
+        <v>66.70999999999999</v>
+      </c>
+      <c r="M57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N57" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2536,22 +2889,29 @@
         <v>10.1499</v>
       </c>
       <c r="G58" t="n">
+        <v>66.97733333333345</v>
+      </c>
+      <c r="H58" t="n">
         <v>67.01883333333342</v>
       </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
       <c r="I58" t="n">
-        <v>0</v>
-      </c>
-      <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M58" t="n">
+        <v>1</v>
+      </c>
+      <c r="J58" t="n">
+        <v>0</v>
+      </c>
+      <c r="K58" t="n">
+        <v>66.41</v>
+      </c>
+      <c r="L58" t="n">
+        <v>66.70999999999999</v>
+      </c>
+      <c r="M58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N58" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2575,22 +2935,27 @@
         <v>15.8606</v>
       </c>
       <c r="G59" t="n">
+        <v>67.03666666666678</v>
+      </c>
+      <c r="H59" t="n">
         <v>67.01883333333342</v>
       </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
       <c r="I59" t="n">
         <v>0</v>
       </c>
-      <c r="J59" t="inlineStr"/>
+      <c r="J59" t="n">
+        <v>0</v>
+      </c>
       <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M59" t="n">
+      <c r="L59" t="n">
+        <v>66.70999999999999</v>
+      </c>
+      <c r="M59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N59" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2614,22 +2979,27 @@
         <v>1076.6345</v>
       </c>
       <c r="G60" t="n">
+        <v>67.00333333333344</v>
+      </c>
+      <c r="H60" t="n">
         <v>66.99383333333341</v>
       </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
       <c r="I60" t="n">
         <v>0</v>
       </c>
-      <c r="J60" t="inlineStr"/>
+      <c r="J60" t="n">
+        <v>0</v>
+      </c>
       <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M60" t="n">
+      <c r="L60" t="n">
+        <v>66.70999999999999</v>
+      </c>
+      <c r="M60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N60" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2653,22 +3023,27 @@
         <v>221.9263204616067</v>
       </c>
       <c r="G61" t="n">
+        <v>66.99133333333344</v>
+      </c>
+      <c r="H61" t="n">
         <v>66.99366666666675</v>
       </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
       <c r="I61" t="n">
         <v>0</v>
       </c>
-      <c r="J61" t="inlineStr"/>
+      <c r="J61" t="n">
+        <v>0</v>
+      </c>
       <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M61" t="n">
+      <c r="L61" t="n">
+        <v>66.70999999999999</v>
+      </c>
+      <c r="M61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N61" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2692,22 +3067,27 @@
         <v>1572</v>
       </c>
       <c r="G62" t="n">
+        <v>66.98266666666677</v>
+      </c>
+      <c r="H62" t="n">
         <v>66.97483333333342</v>
       </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
       <c r="I62" t="n">
         <v>0</v>
       </c>
-      <c r="J62" t="inlineStr"/>
+      <c r="J62" t="n">
+        <v>0</v>
+      </c>
       <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M62" t="n">
+      <c r="L62" t="n">
+        <v>66.70999999999999</v>
+      </c>
+      <c r="M62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N62" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2731,22 +3111,27 @@
         <v>251</v>
       </c>
       <c r="G63" t="n">
+        <v>66.97466666666678</v>
+      </c>
+      <c r="H63" t="n">
         <v>66.95616666666676</v>
       </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
       <c r="I63" t="n">
         <v>0</v>
       </c>
-      <c r="J63" t="inlineStr"/>
+      <c r="J63" t="n">
+        <v>0</v>
+      </c>
       <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M63" t="n">
+      <c r="L63" t="n">
+        <v>66.70999999999999</v>
+      </c>
+      <c r="M63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N63" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2770,22 +3155,27 @@
         <v>979</v>
       </c>
       <c r="G64" t="n">
+        <v>66.88733333333344</v>
+      </c>
+      <c r="H64" t="n">
         <v>66.93750000000009</v>
       </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
       <c r="I64" t="n">
         <v>0</v>
       </c>
-      <c r="J64" t="inlineStr"/>
+      <c r="J64" t="n">
+        <v>0</v>
+      </c>
       <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M64" t="n">
+      <c r="L64" t="n">
+        <v>66.70999999999999</v>
+      </c>
+      <c r="M64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N64" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2809,22 +3199,27 @@
         <v>175.0906</v>
       </c>
       <c r="G65" t="n">
+        <v>66.80066666666679</v>
+      </c>
+      <c r="H65" t="n">
         <v>66.91900000000008</v>
       </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
       <c r="I65" t="n">
         <v>0</v>
       </c>
-      <c r="J65" t="inlineStr"/>
+      <c r="J65" t="n">
+        <v>0</v>
+      </c>
       <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M65" t="n">
+      <c r="L65" t="n">
+        <v>66.70999999999999</v>
+      </c>
+      <c r="M65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N65" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2848,22 +3243,29 @@
         <v>1419.2274</v>
       </c>
       <c r="G66" t="n">
+        <v>66.76800000000013</v>
+      </c>
+      <c r="H66" t="n">
         <v>66.90050000000009</v>
       </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
       <c r="I66" t="n">
-        <v>0</v>
-      </c>
-      <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M66" t="n">
+        <v>1</v>
+      </c>
+      <c r="J66" t="n">
+        <v>0</v>
+      </c>
+      <c r="K66" t="n">
+        <v>66.39</v>
+      </c>
+      <c r="L66" t="n">
+        <v>66.70999999999999</v>
+      </c>
+      <c r="M66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N66" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2887,22 +3289,29 @@
         <v>59.352</v>
       </c>
       <c r="G67" t="n">
+        <v>66.77466666666679</v>
+      </c>
+      <c r="H67" t="n">
         <v>66.89550000000008</v>
       </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
       <c r="I67" t="n">
-        <v>0</v>
-      </c>
-      <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M67" t="n">
+        <v>1</v>
+      </c>
+      <c r="J67" t="n">
+        <v>0</v>
+      </c>
+      <c r="K67" t="n">
+        <v>66.39</v>
+      </c>
+      <c r="L67" t="n">
+        <v>66.70999999999999</v>
+      </c>
+      <c r="M67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N67" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2926,22 +3335,29 @@
         <v>13773.3341</v>
       </c>
       <c r="G68" t="n">
+        <v>66.71533333333348</v>
+      </c>
+      <c r="H68" t="n">
         <v>66.88566666666675</v>
       </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
       <c r="I68" t="n">
-        <v>0</v>
-      </c>
-      <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M68" t="n">
+        <v>1</v>
+      </c>
+      <c r="J68" t="n">
+        <v>0</v>
+      </c>
+      <c r="K68" t="n">
+        <v>66.59999999999999</v>
+      </c>
+      <c r="L68" t="n">
+        <v>66.70999999999999</v>
+      </c>
+      <c r="M68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N68" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2965,22 +3381,27 @@
         <v>8</v>
       </c>
       <c r="G69" t="n">
+        <v>66.63600000000014</v>
+      </c>
+      <c r="H69" t="n">
         <v>66.88050000000008</v>
       </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
       <c r="I69" t="n">
         <v>0</v>
       </c>
-      <c r="J69" t="inlineStr"/>
+      <c r="J69" t="n">
+        <v>0</v>
+      </c>
       <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M69" t="n">
+      <c r="L69" t="n">
+        <v>66.70999999999999</v>
+      </c>
+      <c r="M69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N69" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3004,22 +3425,29 @@
         <v>132.0308</v>
       </c>
       <c r="G70" t="n">
+        <v>66.63933333333347</v>
+      </c>
+      <c r="H70" t="n">
         <v>66.87550000000007</v>
       </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
       <c r="I70" t="n">
-        <v>0</v>
-      </c>
-      <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M70" t="n">
+        <v>1</v>
+      </c>
+      <c r="J70" t="n">
+        <v>0</v>
+      </c>
+      <c r="K70" t="n">
+        <v>66.5</v>
+      </c>
+      <c r="L70" t="n">
+        <v>66.70999999999999</v>
+      </c>
+      <c r="M70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N70" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3043,22 +3471,27 @@
         <v>461.4465728358209</v>
       </c>
       <c r="G71" t="n">
+        <v>66.6426666666668</v>
+      </c>
+      <c r="H71" t="n">
         <v>66.85250000000008</v>
       </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
       <c r="I71" t="n">
         <v>0</v>
       </c>
-      <c r="J71" t="inlineStr"/>
+      <c r="J71" t="n">
+        <v>0</v>
+      </c>
       <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M71" t="n">
+      <c r="L71" t="n">
+        <v>66.70999999999999</v>
+      </c>
+      <c r="M71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N71" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3082,22 +3515,29 @@
         <v>18.18</v>
       </c>
       <c r="G72" t="n">
+        <v>66.64333333333347</v>
+      </c>
+      <c r="H72" t="n">
         <v>66.8458333333334</v>
       </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
       <c r="I72" t="n">
-        <v>0</v>
-      </c>
-      <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M72" t="n">
+        <v>1</v>
+      </c>
+      <c r="J72" t="n">
+        <v>0</v>
+      </c>
+      <c r="K72" t="n">
+        <v>66.41</v>
+      </c>
+      <c r="L72" t="n">
+        <v>66.70999999999999</v>
+      </c>
+      <c r="M72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N72" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3121,22 +3561,29 @@
         <v>20</v>
       </c>
       <c r="G73" t="n">
+        <v>66.6166666666668</v>
+      </c>
+      <c r="H73" t="n">
         <v>66.84866666666674</v>
       </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
       <c r="I73" t="n">
-        <v>0</v>
-      </c>
-      <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M73" t="n">
+        <v>1</v>
+      </c>
+      <c r="J73" t="n">
+        <v>0</v>
+      </c>
+      <c r="K73" t="n">
+        <v>66.42</v>
+      </c>
+      <c r="L73" t="n">
+        <v>66.70999999999999</v>
+      </c>
+      <c r="M73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N73" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3160,22 +3607,29 @@
         <v>153.6305</v>
       </c>
       <c r="G74" t="n">
+        <v>66.57600000000012</v>
+      </c>
+      <c r="H74" t="n">
         <v>66.85333333333341</v>
       </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
       <c r="I74" t="n">
-        <v>0</v>
-      </c>
-      <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M74" t="n">
+        <v>1</v>
+      </c>
+      <c r="J74" t="n">
+        <v>0</v>
+      </c>
+      <c r="K74" t="n">
+        <v>67</v>
+      </c>
+      <c r="L74" t="n">
+        <v>66.70999999999999</v>
+      </c>
+      <c r="M74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N74" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3199,22 +3653,27 @@
         <v>1750</v>
       </c>
       <c r="G75" t="n">
+        <v>66.58933333333346</v>
+      </c>
+      <c r="H75" t="n">
         <v>66.85500000000008</v>
       </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
       <c r="I75" t="n">
         <v>0</v>
       </c>
-      <c r="J75" t="inlineStr"/>
+      <c r="J75" t="n">
+        <v>0</v>
+      </c>
       <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M75" t="n">
+      <c r="L75" t="n">
+        <v>66.70999999999999</v>
+      </c>
+      <c r="M75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N75" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3238,22 +3697,27 @@
         <v>298.5521</v>
       </c>
       <c r="G76" t="n">
+        <v>66.54933333333345</v>
+      </c>
+      <c r="H76" t="n">
         <v>66.8548333333334</v>
       </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
       <c r="I76" t="n">
         <v>0</v>
       </c>
-      <c r="J76" t="inlineStr"/>
+      <c r="J76" t="n">
+        <v>0</v>
+      </c>
       <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M76" t="n">
+      <c r="L76" t="n">
+        <v>66.70999999999999</v>
+      </c>
+      <c r="M76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N76" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3277,22 +3741,27 @@
         <v>504.0863</v>
       </c>
       <c r="G77" t="n">
+        <v>66.59133333333344</v>
+      </c>
+      <c r="H77" t="n">
         <v>66.86316666666673</v>
       </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
       <c r="I77" t="n">
         <v>0</v>
       </c>
-      <c r="J77" t="inlineStr"/>
+      <c r="J77" t="n">
+        <v>0</v>
+      </c>
       <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M77" t="n">
+      <c r="L77" t="n">
+        <v>66.70999999999999</v>
+      </c>
+      <c r="M77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N77" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3316,22 +3785,27 @@
         <v>235.4609</v>
       </c>
       <c r="G78" t="n">
+        <v>66.60600000000011</v>
+      </c>
+      <c r="H78" t="n">
         <v>66.86483333333339</v>
       </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
       <c r="I78" t="n">
         <v>0</v>
       </c>
-      <c r="J78" t="inlineStr"/>
+      <c r="J78" t="n">
+        <v>0</v>
+      </c>
       <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M78" t="n">
+      <c r="L78" t="n">
+        <v>66.70999999999999</v>
+      </c>
+      <c r="M78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N78" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3355,22 +3829,27 @@
         <v>2082.1879</v>
       </c>
       <c r="G79" t="n">
+        <v>66.6140000000001</v>
+      </c>
+      <c r="H79" t="n">
         <v>66.86350000000007</v>
       </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
       <c r="I79" t="n">
         <v>0</v>
       </c>
-      <c r="J79" t="inlineStr"/>
+      <c r="J79" t="n">
+        <v>0</v>
+      </c>
       <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M79" t="n">
+      <c r="L79" t="n">
+        <v>66.70999999999999</v>
+      </c>
+      <c r="M79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N79" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3394,22 +3873,27 @@
         <v>10826.22562716418</v>
       </c>
       <c r="G80" t="n">
+        <v>66.68800000000009</v>
+      </c>
+      <c r="H80" t="n">
         <v>66.8833333333334</v>
       </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
       <c r="I80" t="n">
         <v>0</v>
       </c>
-      <c r="J80" t="inlineStr"/>
+      <c r="J80" t="n">
+        <v>0</v>
+      </c>
       <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M80" t="n">
+      <c r="L80" t="n">
+        <v>66.70999999999999</v>
+      </c>
+      <c r="M80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N80" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3433,22 +3917,27 @@
         <v>970.7875</v>
       </c>
       <c r="G81" t="n">
+        <v>66.7800000000001</v>
+      </c>
+      <c r="H81" t="n">
         <v>66.89616666666673</v>
       </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
       <c r="I81" t="n">
         <v>0</v>
       </c>
-      <c r="J81" t="inlineStr"/>
+      <c r="J81" t="n">
+        <v>0</v>
+      </c>
       <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M81" t="n">
+      <c r="L81" t="n">
+        <v>66.70999999999999</v>
+      </c>
+      <c r="M81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N81" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3472,22 +3961,27 @@
         <v>34049.65948683582</v>
       </c>
       <c r="G82" t="n">
+        <v>66.86666666666676</v>
+      </c>
+      <c r="H82" t="n">
         <v>66.92266666666674</v>
       </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
       <c r="I82" t="n">
         <v>0</v>
       </c>
-      <c r="J82" t="inlineStr"/>
+      <c r="J82" t="n">
+        <v>0</v>
+      </c>
       <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M82" t="n">
+      <c r="L82" t="n">
+        <v>66.70999999999999</v>
+      </c>
+      <c r="M82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N82" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3511,22 +4005,27 @@
         <v>271.0883</v>
       </c>
       <c r="G83" t="n">
+        <v>67.01266666666677</v>
+      </c>
+      <c r="H83" t="n">
         <v>66.9608333333334</v>
       </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
       <c r="I83" t="n">
         <v>0</v>
       </c>
-      <c r="J83" t="inlineStr"/>
+      <c r="J83" t="n">
+        <v>0</v>
+      </c>
       <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M83" t="n">
+      <c r="L83" t="n">
+        <v>66.70999999999999</v>
+      </c>
+      <c r="M83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N83" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3550,22 +4049,29 @@
         <v>7095.3232</v>
       </c>
       <c r="G84" t="n">
+        <v>67.16533333333344</v>
+      </c>
+      <c r="H84" t="n">
         <v>67.0023333333334</v>
       </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
       <c r="I84" t="n">
-        <v>1</v>
-      </c>
-      <c r="J84" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J84" t="n">
+        <v>0</v>
+      </c>
       <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="M84" t="inlineStr"/>
+      <c r="L84" t="n">
+        <v>66.70999999999999</v>
+      </c>
+      <c r="M84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N84" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3587,18 +4093,27 @@
         <v>7666.280684173913</v>
       </c>
       <c r="G85" t="n">
+        <v>67.33800000000011</v>
+      </c>
+      <c r="H85" t="n">
         <v>67.04716666666674</v>
       </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
       <c r="I85" t="n">
-        <v>1</v>
-      </c>
-      <c r="J85" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J85" t="n">
+        <v>0</v>
+      </c>
       <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr"/>
-      <c r="M85" t="n">
+      <c r="L85" t="n">
+        <v>66.70999999999999</v>
+      </c>
+      <c r="M85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N85" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3622,18 +4137,27 @@
         <v>4067.6485</v>
       </c>
       <c r="G86" t="n">
+        <v>67.37066666666678</v>
+      </c>
+      <c r="H86" t="n">
         <v>67.05616666666673</v>
       </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
       <c r="I86" t="n">
-        <v>1</v>
-      </c>
-      <c r="J86" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J86" t="n">
+        <v>0</v>
+      </c>
       <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr"/>
-      <c r="M86" t="n">
+      <c r="L86" t="n">
+        <v>66.70999999999999</v>
+      </c>
+      <c r="M86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N86" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3657,18 +4181,27 @@
         <v>13.077</v>
       </c>
       <c r="G87" t="n">
+        <v>67.45000000000012</v>
+      </c>
+      <c r="H87" t="n">
         <v>67.07466666666673</v>
       </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
       <c r="I87" t="n">
         <v>0</v>
       </c>
-      <c r="J87" t="inlineStr"/>
+      <c r="J87" t="n">
+        <v>0</v>
+      </c>
       <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr"/>
-      <c r="M87" t="n">
+      <c r="L87" t="n">
+        <v>66.70999999999999</v>
+      </c>
+      <c r="M87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N87" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3692,18 +4225,27 @@
         <v>10011</v>
       </c>
       <c r="G88" t="n">
+        <v>67.49266666666678</v>
+      </c>
+      <c r="H88" t="n">
         <v>67.09600000000006</v>
       </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
       <c r="I88" t="n">
-        <v>1</v>
-      </c>
-      <c r="J88" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J88" t="n">
+        <v>0</v>
+      </c>
       <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
-      <c r="M88" t="n">
+      <c r="L88" t="n">
+        <v>66.70999999999999</v>
+      </c>
+      <c r="M88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N88" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3727,18 +4269,27 @@
         <v>149.4768</v>
       </c>
       <c r="G89" t="n">
+        <v>67.55200000000012</v>
+      </c>
+      <c r="H89" t="n">
         <v>67.10233333333341</v>
       </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
       <c r="I89" t="n">
         <v>0</v>
       </c>
-      <c r="J89" t="inlineStr"/>
+      <c r="J89" t="n">
+        <v>0</v>
+      </c>
       <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr"/>
-      <c r="M89" t="n">
+      <c r="L89" t="n">
+        <v>66.70999999999999</v>
+      </c>
+      <c r="M89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N89" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3762,18 +4313,27 @@
         <v>147.8852</v>
       </c>
       <c r="G90" t="n">
+        <v>67.69800000000012</v>
+      </c>
+      <c r="H90" t="n">
         <v>67.11733333333341</v>
       </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
       <c r="I90" t="n">
         <v>0</v>
       </c>
-      <c r="J90" t="inlineStr"/>
+      <c r="J90" t="n">
+        <v>0</v>
+      </c>
       <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr"/>
-      <c r="M90" t="n">
+      <c r="L90" t="n">
+        <v>66.70999999999999</v>
+      </c>
+      <c r="M90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N90" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3797,18 +4357,27 @@
         <v>353</v>
       </c>
       <c r="G91" t="n">
+        <v>67.81800000000013</v>
+      </c>
+      <c r="H91" t="n">
         <v>67.14716666666673</v>
       </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
       <c r="I91" t="n">
         <v>0</v>
       </c>
-      <c r="J91" t="inlineStr"/>
+      <c r="J91" t="n">
+        <v>0</v>
+      </c>
       <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr"/>
-      <c r="M91" t="n">
+      <c r="L91" t="n">
+        <v>66.70999999999999</v>
+      </c>
+      <c r="M91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N91" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3832,18 +4401,27 @@
         <v>47.7193</v>
       </c>
       <c r="G92" t="n">
+        <v>67.93733333333346</v>
+      </c>
+      <c r="H92" t="n">
         <v>67.17683333333341</v>
       </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
       <c r="I92" t="n">
         <v>0</v>
       </c>
-      <c r="J92" t="inlineStr"/>
+      <c r="J92" t="n">
+        <v>0</v>
+      </c>
       <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr"/>
-      <c r="M92" t="n">
+      <c r="L92" t="n">
+        <v>66.70999999999999</v>
+      </c>
+      <c r="M92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N92" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3867,18 +4445,27 @@
         <v>279</v>
       </c>
       <c r="G93" t="n">
+        <v>68.03666666666678</v>
+      </c>
+      <c r="H93" t="n">
         <v>67.19483333333341</v>
       </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
       <c r="I93" t="n">
         <v>0</v>
       </c>
-      <c r="J93" t="inlineStr"/>
+      <c r="J93" t="n">
+        <v>0</v>
+      </c>
       <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr"/>
-      <c r="M93" t="n">
+      <c r="L93" t="n">
+        <v>66.70999999999999</v>
+      </c>
+      <c r="M93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N93" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3902,18 +4489,27 @@
         <v>10745.0145</v>
       </c>
       <c r="G94" t="n">
+        <v>68.07200000000012</v>
+      </c>
+      <c r="H94" t="n">
         <v>67.18033333333339</v>
       </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
       <c r="I94" t="n">
         <v>0</v>
       </c>
-      <c r="J94" t="inlineStr"/>
+      <c r="J94" t="n">
+        <v>0</v>
+      </c>
       <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr"/>
-      <c r="M94" t="n">
+      <c r="L94" t="n">
+        <v>66.70999999999999</v>
+      </c>
+      <c r="M94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N94" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3937,18 +4533,27 @@
         <v>8</v>
       </c>
       <c r="G95" t="n">
+        <v>68.15466666666678</v>
+      </c>
+      <c r="H95" t="n">
         <v>67.2108333333334</v>
       </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
       <c r="I95" t="n">
         <v>0</v>
       </c>
-      <c r="J95" t="inlineStr"/>
+      <c r="J95" t="n">
+        <v>0</v>
+      </c>
       <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr"/>
-      <c r="M95" t="n">
+      <c r="L95" t="n">
+        <v>66.70999999999999</v>
+      </c>
+      <c r="M95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N95" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3972,18 +4577,27 @@
         <v>13253.198</v>
       </c>
       <c r="G96" t="n">
+        <v>68.16933333333346</v>
+      </c>
+      <c r="H96" t="n">
         <v>67.2288333333334</v>
       </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
       <c r="I96" t="n">
         <v>0</v>
       </c>
-      <c r="J96" t="inlineStr"/>
+      <c r="J96" t="n">
+        <v>0</v>
+      </c>
       <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr"/>
-      <c r="M96" t="n">
+      <c r="L96" t="n">
+        <v>66.70999999999999</v>
+      </c>
+      <c r="M96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N96" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4007,18 +4621,27 @@
         <v>1276</v>
       </c>
       <c r="G97" t="n">
+        <v>68.17533333333346</v>
+      </c>
+      <c r="H97" t="n">
         <v>67.23033333333339</v>
       </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
       <c r="I97" t="n">
         <v>0</v>
       </c>
-      <c r="J97" t="inlineStr"/>
+      <c r="J97" t="n">
+        <v>0</v>
+      </c>
       <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr"/>
-      <c r="M97" t="n">
+      <c r="L97" t="n">
+        <v>66.70999999999999</v>
+      </c>
+      <c r="M97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N97" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4042,18 +4665,27 @@
         <v>1142.1549</v>
       </c>
       <c r="G98" t="n">
+        <v>68.17133333333346</v>
+      </c>
+      <c r="H98" t="n">
         <v>67.2558333333334</v>
       </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
       <c r="I98" t="n">
         <v>0</v>
       </c>
-      <c r="J98" t="inlineStr"/>
+      <c r="J98" t="n">
+        <v>0</v>
+      </c>
       <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr"/>
-      <c r="M98" t="n">
+      <c r="L98" t="n">
+        <v>66.70999999999999</v>
+      </c>
+      <c r="M98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N98" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4077,18 +4709,27 @@
         <v>1976.9936</v>
       </c>
       <c r="G99" t="n">
+        <v>68.09933333333346</v>
+      </c>
+      <c r="H99" t="n">
         <v>67.26766666666673</v>
       </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
       <c r="I99" t="n">
         <v>0</v>
       </c>
-      <c r="J99" t="inlineStr"/>
+      <c r="J99" t="n">
+        <v>0</v>
+      </c>
       <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr"/>
-      <c r="M99" t="n">
+      <c r="L99" t="n">
+        <v>66.70999999999999</v>
+      </c>
+      <c r="M99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N99" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4112,18 +4753,27 @@
         <v>721.9503999999999</v>
       </c>
       <c r="G100" t="n">
+        <v>67.98933333333345</v>
+      </c>
+      <c r="H100" t="n">
         <v>67.25850000000007</v>
       </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
       <c r="I100" t="n">
         <v>0</v>
       </c>
-      <c r="J100" t="inlineStr"/>
+      <c r="J100" t="n">
+        <v>0</v>
+      </c>
       <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr"/>
-      <c r="M100" t="n">
+      <c r="L100" t="n">
+        <v>66.70999999999999</v>
+      </c>
+      <c r="M100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N100" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4147,18 +4797,27 @@
         <v>50</v>
       </c>
       <c r="G101" t="n">
+        <v>68.08733333333346</v>
+      </c>
+      <c r="H101" t="n">
         <v>67.28283333333341</v>
       </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
       <c r="I101" t="n">
         <v>0</v>
       </c>
-      <c r="J101" t="inlineStr"/>
+      <c r="J101" t="n">
+        <v>0</v>
+      </c>
       <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr"/>
-      <c r="M101" t="n">
+      <c r="L101" t="n">
+        <v>66.70999999999999</v>
+      </c>
+      <c r="M101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N101" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4182,18 +4841,27 @@
         <v>15</v>
       </c>
       <c r="G102" t="n">
+        <v>68.08200000000014</v>
+      </c>
+      <c r="H102" t="n">
         <v>67.27666666666674</v>
       </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
       <c r="I102" t="n">
         <v>0</v>
       </c>
-      <c r="J102" t="inlineStr"/>
+      <c r="J102" t="n">
+        <v>0</v>
+      </c>
       <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr"/>
-      <c r="M102" t="n">
+      <c r="L102" t="n">
+        <v>66.70999999999999</v>
+      </c>
+      <c r="M102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N102" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4217,18 +4885,27 @@
         <v>12101.4243</v>
       </c>
       <c r="G103" t="n">
+        <v>68.07400000000014</v>
+      </c>
+      <c r="H103" t="n">
         <v>67.29016666666674</v>
       </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
       <c r="I103" t="n">
         <v>0</v>
       </c>
-      <c r="J103" t="inlineStr"/>
+      <c r="J103" t="n">
+        <v>0</v>
+      </c>
       <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr"/>
-      <c r="M103" t="n">
+      <c r="L103" t="n">
+        <v>66.70999999999999</v>
+      </c>
+      <c r="M103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N103" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4252,18 +4929,27 @@
         <v>1864.6971</v>
       </c>
       <c r="G104" t="n">
+        <v>68.04933333333348</v>
+      </c>
+      <c r="H104" t="n">
         <v>67.30350000000007</v>
       </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
       <c r="I104" t="n">
         <v>0</v>
       </c>
-      <c r="J104" t="inlineStr"/>
+      <c r="J104" t="n">
+        <v>0</v>
+      </c>
       <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr"/>
-      <c r="M104" t="n">
+      <c r="L104" t="n">
+        <v>66.70999999999999</v>
+      </c>
+      <c r="M104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N104" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4287,18 +4973,27 @@
         <v>1577.8946</v>
       </c>
       <c r="G105" t="n">
+        <v>67.96600000000015</v>
+      </c>
+      <c r="H105" t="n">
         <v>67.31416666666674</v>
       </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
       <c r="I105" t="n">
         <v>0</v>
       </c>
-      <c r="J105" t="inlineStr"/>
+      <c r="J105" t="n">
+        <v>0</v>
+      </c>
       <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr"/>
-      <c r="M105" t="n">
+      <c r="L105" t="n">
+        <v>66.70999999999999</v>
+      </c>
+      <c r="M105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N105" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4322,18 +5017,27 @@
         <v>1071.1933</v>
       </c>
       <c r="G106" t="n">
+        <v>67.88066666666683</v>
+      </c>
+      <c r="H106" t="n">
         <v>67.3098333333334</v>
       </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
       <c r="I106" t="n">
         <v>0</v>
       </c>
-      <c r="J106" t="inlineStr"/>
+      <c r="J106" t="n">
+        <v>0</v>
+      </c>
       <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr"/>
-      <c r="M106" t="n">
+      <c r="L106" t="n">
+        <v>66.70999999999999</v>
+      </c>
+      <c r="M106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N106" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4357,18 +5061,27 @@
         <v>10</v>
       </c>
       <c r="G107" t="n">
+        <v>67.84133333333349</v>
+      </c>
+      <c r="H107" t="n">
         <v>67.33816666666674</v>
       </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
       <c r="I107" t="n">
         <v>0</v>
       </c>
-      <c r="J107" t="inlineStr"/>
+      <c r="J107" t="n">
+        <v>0</v>
+      </c>
       <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr"/>
-      <c r="M107" t="n">
+      <c r="L107" t="n">
+        <v>66.70999999999999</v>
+      </c>
+      <c r="M107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N107" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4392,18 +5105,27 @@
         <v>107.4327</v>
       </c>
       <c r="G108" t="n">
+        <v>67.84866666666683</v>
+      </c>
+      <c r="H108" t="n">
         <v>67.36650000000007</v>
       </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
       <c r="I108" t="n">
         <v>0</v>
       </c>
-      <c r="J108" t="inlineStr"/>
+      <c r="J108" t="n">
+        <v>0</v>
+      </c>
       <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr"/>
-      <c r="M108" t="n">
+      <c r="L108" t="n">
+        <v>66.70999999999999</v>
+      </c>
+      <c r="M108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N108" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4427,18 +5149,27 @@
         <v>200</v>
       </c>
       <c r="G109" t="n">
+        <v>67.88066666666684</v>
+      </c>
+      <c r="H109" t="n">
         <v>67.36350000000007</v>
       </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
       <c r="I109" t="n">
         <v>0</v>
       </c>
-      <c r="J109" t="inlineStr"/>
+      <c r="J109" t="n">
+        <v>0</v>
+      </c>
       <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr"/>
-      <c r="M109" t="n">
+      <c r="L109" t="n">
+        <v>66.70999999999999</v>
+      </c>
+      <c r="M109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N109" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4462,18 +5193,27 @@
         <v>151.9994096774194</v>
       </c>
       <c r="G110" t="n">
+        <v>67.84466666666684</v>
+      </c>
+      <c r="H110" t="n">
         <v>67.37200000000009</v>
       </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
       <c r="I110" t="n">
         <v>0</v>
       </c>
-      <c r="J110" t="inlineStr"/>
+      <c r="J110" t="n">
+        <v>0</v>
+      </c>
       <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr"/>
-      <c r="M110" t="n">
+      <c r="L110" t="n">
+        <v>66.70999999999999</v>
+      </c>
+      <c r="M110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N110" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4497,18 +5237,27 @@
         <v>1850.9361</v>
       </c>
       <c r="G111" t="n">
+        <v>67.8133333333335</v>
+      </c>
+      <c r="H111" t="n">
         <v>67.38266666666674</v>
       </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
       <c r="I111" t="n">
         <v>0</v>
       </c>
-      <c r="J111" t="inlineStr"/>
+      <c r="J111" t="n">
+        <v>0</v>
+      </c>
       <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr"/>
-      <c r="M111" t="n">
+      <c r="L111" t="n">
+        <v>66.70999999999999</v>
+      </c>
+      <c r="M111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N111" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4532,18 +5281,27 @@
         <v>18372.8828</v>
       </c>
       <c r="G112" t="n">
+        <v>67.8273333333335</v>
+      </c>
+      <c r="H112" t="n">
         <v>67.41100000000007</v>
       </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
       <c r="I112" t="n">
         <v>0</v>
       </c>
-      <c r="J112" t="inlineStr"/>
+      <c r="J112" t="n">
+        <v>0</v>
+      </c>
       <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr"/>
-      <c r="M112" t="n">
+      <c r="L112" t="n">
+        <v>66.70999999999999</v>
+      </c>
+      <c r="M112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N112" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4567,18 +5325,27 @@
         <v>570</v>
       </c>
       <c r="G113" t="n">
+        <v>67.83933333333351</v>
+      </c>
+      <c r="H113" t="n">
         <v>67.43466666666674</v>
       </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
       <c r="I113" t="n">
         <v>0</v>
       </c>
-      <c r="J113" t="inlineStr"/>
+      <c r="J113" t="n">
+        <v>0</v>
+      </c>
       <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr"/>
-      <c r="M113" t="n">
+      <c r="L113" t="n">
+        <v>66.70999999999999</v>
+      </c>
+      <c r="M113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N113" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4602,18 +5369,27 @@
         <v>284.4061</v>
       </c>
       <c r="G114" t="n">
+        <v>67.90666666666684</v>
+      </c>
+      <c r="H114" t="n">
         <v>67.45183333333341</v>
       </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
       <c r="I114" t="n">
         <v>0</v>
       </c>
-      <c r="J114" t="inlineStr"/>
+      <c r="J114" t="n">
+        <v>0</v>
+      </c>
       <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr"/>
-      <c r="M114" t="n">
+      <c r="L114" t="n">
+        <v>66.70999999999999</v>
+      </c>
+      <c r="M114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N114" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4637,18 +5413,27 @@
         <v>222.6608</v>
       </c>
       <c r="G115" t="n">
+        <v>67.99800000000018</v>
+      </c>
+      <c r="H115" t="n">
         <v>67.49116666666674</v>
       </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
       <c r="I115" t="n">
         <v>0</v>
       </c>
-      <c r="J115" t="inlineStr"/>
+      <c r="J115" t="n">
+        <v>0</v>
+      </c>
       <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr"/>
-      <c r="M115" t="n">
+      <c r="L115" t="n">
+        <v>66.70999999999999</v>
+      </c>
+      <c r="M115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N115" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4672,18 +5457,27 @@
         <v>497</v>
       </c>
       <c r="G116" t="n">
+        <v>68.02066666666684</v>
+      </c>
+      <c r="H116" t="n">
         <v>67.5303333333334</v>
       </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
       <c r="I116" t="n">
         <v>0</v>
       </c>
-      <c r="J116" t="inlineStr"/>
+      <c r="J116" t="n">
+        <v>0</v>
+      </c>
       <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr"/>
-      <c r="M116" t="n">
+      <c r="L116" t="n">
+        <v>66.70999999999999</v>
+      </c>
+      <c r="M116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N116" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4707,18 +5501,27 @@
         <v>423.0708</v>
       </c>
       <c r="G117" t="n">
+        <v>68.10000000000016</v>
+      </c>
+      <c r="H117" t="n">
         <v>67.5688333333334</v>
       </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
       <c r="I117" t="n">
         <v>0</v>
       </c>
-      <c r="J117" t="inlineStr"/>
+      <c r="J117" t="n">
+        <v>0</v>
+      </c>
       <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr"/>
-      <c r="M117" t="n">
+      <c r="L117" t="n">
+        <v>66.70999999999999</v>
+      </c>
+      <c r="M117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N117" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4742,18 +5545,27 @@
         <v>1729</v>
       </c>
       <c r="G118" t="n">
+        <v>68.14666666666683</v>
+      </c>
+      <c r="H118" t="n">
         <v>67.58250000000007</v>
       </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
       <c r="I118" t="n">
         <v>0</v>
       </c>
-      <c r="J118" t="inlineStr"/>
+      <c r="J118" t="n">
+        <v>0</v>
+      </c>
       <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr"/>
-      <c r="M118" t="n">
+      <c r="L118" t="n">
+        <v>66.70999999999999</v>
+      </c>
+      <c r="M118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N118" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4777,18 +5589,27 @@
         <v>249.2450844877765</v>
       </c>
       <c r="G119" t="n">
+        <v>68.2273333333335</v>
+      </c>
+      <c r="H119" t="n">
         <v>67.60116666666673</v>
       </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
       <c r="I119" t="n">
         <v>0</v>
       </c>
-      <c r="J119" t="inlineStr"/>
+      <c r="J119" t="n">
+        <v>0</v>
+      </c>
       <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr"/>
-      <c r="M119" t="n">
+      <c r="L119" t="n">
+        <v>66.70999999999999</v>
+      </c>
+      <c r="M119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N119" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4812,18 +5633,27 @@
         <v>482.8494</v>
       </c>
       <c r="G120" t="n">
+        <v>68.30600000000018</v>
+      </c>
+      <c r="H120" t="n">
         <v>67.63983333333339</v>
       </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
       <c r="I120" t="n">
         <v>0</v>
       </c>
-      <c r="J120" t="inlineStr"/>
+      <c r="J120" t="n">
+        <v>0</v>
+      </c>
       <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr"/>
-      <c r="M120" t="n">
+      <c r="L120" t="n">
+        <v>66.70999999999999</v>
+      </c>
+      <c r="M120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N120" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4847,18 +5677,27 @@
         <v>1186.1728</v>
       </c>
       <c r="G121" t="n">
+        <v>68.3453333333335</v>
+      </c>
+      <c r="H121" t="n">
         <v>67.64833333333338</v>
       </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
       <c r="I121" t="n">
         <v>0</v>
       </c>
-      <c r="J121" t="inlineStr"/>
+      <c r="J121" t="n">
+        <v>0</v>
+      </c>
       <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr"/>
-      <c r="M121" t="n">
+      <c r="L121" t="n">
+        <v>66.70999999999999</v>
+      </c>
+      <c r="M121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N121" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4882,18 +5721,27 @@
         <v>8370.8272</v>
       </c>
       <c r="G122" t="n">
+        <v>68.3333333333335</v>
+      </c>
+      <c r="H122" t="n">
         <v>67.6758333333334</v>
       </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
       <c r="I122" t="n">
         <v>0</v>
       </c>
-      <c r="J122" t="inlineStr"/>
+      <c r="J122" t="n">
+        <v>0</v>
+      </c>
       <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr"/>
-      <c r="M122" t="n">
+      <c r="L122" t="n">
+        <v>66.70999999999999</v>
+      </c>
+      <c r="M122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N122" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4917,18 +5765,27 @@
         <v>2000</v>
       </c>
       <c r="G123" t="n">
+        <v>68.3133333333335</v>
+      </c>
+      <c r="H123" t="n">
         <v>67.70116666666672</v>
       </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
       <c r="I123" t="n">
         <v>0</v>
       </c>
-      <c r="J123" t="inlineStr"/>
+      <c r="J123" t="n">
+        <v>0</v>
+      </c>
       <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr"/>
-      <c r="M123" t="n">
+      <c r="L123" t="n">
+        <v>66.70999999999999</v>
+      </c>
+      <c r="M123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N123" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4952,18 +5809,27 @@
         <v>32.84181367546289</v>
       </c>
       <c r="G124" t="n">
+        <v>68.38533333333349</v>
+      </c>
+      <c r="H124" t="n">
         <v>67.73800000000006</v>
       </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
       <c r="I124" t="n">
         <v>0</v>
       </c>
-      <c r="J124" t="inlineStr"/>
+      <c r="J124" t="n">
+        <v>0</v>
+      </c>
       <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr"/>
-      <c r="M124" t="n">
+      <c r="L124" t="n">
+        <v>66.70999999999999</v>
+      </c>
+      <c r="M124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N124" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4987,18 +5853,27 @@
         <v>194</v>
       </c>
       <c r="G125" t="n">
+        <v>68.39200000000015</v>
+      </c>
+      <c r="H125" t="n">
         <v>67.76983333333339</v>
       </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
       <c r="I125" t="n">
         <v>0</v>
       </c>
-      <c r="J125" t="inlineStr"/>
+      <c r="J125" t="n">
+        <v>0</v>
+      </c>
       <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr"/>
-      <c r="M125" t="n">
+      <c r="L125" t="n">
+        <v>66.70999999999999</v>
+      </c>
+      <c r="M125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N125" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5022,18 +5897,27 @@
         <v>11.3527</v>
       </c>
       <c r="G126" t="n">
+        <v>68.46333333333349</v>
+      </c>
+      <c r="H126" t="n">
         <v>67.80650000000006</v>
       </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
       <c r="I126" t="n">
         <v>0</v>
       </c>
-      <c r="J126" t="inlineStr"/>
+      <c r="J126" t="n">
+        <v>0</v>
+      </c>
       <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr"/>
-      <c r="M126" t="n">
+      <c r="L126" t="n">
+        <v>66.70999999999999</v>
+      </c>
+      <c r="M126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N126" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5057,18 +5941,27 @@
         <v>115.148</v>
       </c>
       <c r="G127" t="n">
+        <v>68.47000000000016</v>
+      </c>
+      <c r="H127" t="n">
         <v>67.83483333333339</v>
       </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
       <c r="I127" t="n">
         <v>0</v>
       </c>
-      <c r="J127" t="inlineStr"/>
+      <c r="J127" t="n">
+        <v>0</v>
+      </c>
       <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr"/>
-      <c r="M127" t="n">
+      <c r="L127" t="n">
+        <v>66.70999999999999</v>
+      </c>
+      <c r="M127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N127" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5092,18 +5985,27 @@
         <v>369.7768</v>
       </c>
       <c r="G128" t="n">
+        <v>68.42866666666681</v>
+      </c>
+      <c r="H128" t="n">
         <v>67.86300000000006</v>
       </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
       <c r="I128" t="n">
         <v>0</v>
       </c>
-      <c r="J128" t="inlineStr"/>
+      <c r="J128" t="n">
+        <v>0</v>
+      </c>
       <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr"/>
-      <c r="M128" t="n">
+      <c r="L128" t="n">
+        <v>66.70999999999999</v>
+      </c>
+      <c r="M128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N128" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5127,18 +6029,27 @@
         <v>1242.072</v>
       </c>
       <c r="G129" t="n">
+        <v>68.37466666666681</v>
+      </c>
+      <c r="H129" t="n">
         <v>67.88650000000005</v>
       </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
       <c r="I129" t="n">
         <v>0</v>
       </c>
-      <c r="J129" t="inlineStr"/>
+      <c r="J129" t="n">
+        <v>0</v>
+      </c>
       <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr"/>
-      <c r="M129" t="n">
+      <c r="L129" t="n">
+        <v>66.70999999999999</v>
+      </c>
+      <c r="M129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N129" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5162,18 +6073,27 @@
         <v>121.63</v>
       </c>
       <c r="G130" t="n">
+        <v>68.31400000000014</v>
+      </c>
+      <c r="H130" t="n">
         <v>67.9098333333334</v>
       </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
       <c r="I130" t="n">
         <v>0</v>
       </c>
-      <c r="J130" t="inlineStr"/>
+      <c r="J130" t="n">
+        <v>0</v>
+      </c>
       <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr"/>
-      <c r="M130" t="n">
+      <c r="L130" t="n">
+        <v>66.70999999999999</v>
+      </c>
+      <c r="M130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N130" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5197,18 +6117,27 @@
         <v>8</v>
       </c>
       <c r="G131" t="n">
+        <v>68.26666666666681</v>
+      </c>
+      <c r="H131" t="n">
         <v>67.93633333333339</v>
       </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
       <c r="I131" t="n">
         <v>0</v>
       </c>
-      <c r="J131" t="inlineStr"/>
+      <c r="J131" t="n">
+        <v>0</v>
+      </c>
       <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr"/>
-      <c r="M131" t="n">
+      <c r="L131" t="n">
+        <v>66.70999999999999</v>
+      </c>
+      <c r="M131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N131" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5232,18 +6161,27 @@
         <v>5636.408</v>
       </c>
       <c r="G132" t="n">
+        <v>68.19200000000014</v>
+      </c>
+      <c r="H132" t="n">
         <v>67.95600000000007</v>
       </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
       <c r="I132" t="n">
         <v>0</v>
       </c>
-      <c r="J132" t="inlineStr"/>
+      <c r="J132" t="n">
+        <v>0</v>
+      </c>
       <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr"/>
-      <c r="M132" t="n">
+      <c r="L132" t="n">
+        <v>66.70999999999999</v>
+      </c>
+      <c r="M132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N132" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5267,18 +6205,27 @@
         <v>8</v>
       </c>
       <c r="G133" t="n">
+        <v>68.1706666666668</v>
+      </c>
+      <c r="H133" t="n">
         <v>67.97100000000006</v>
       </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
       <c r="I133" t="n">
         <v>0</v>
       </c>
-      <c r="J133" t="inlineStr"/>
+      <c r="J133" t="n">
+        <v>0</v>
+      </c>
       <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr"/>
-      <c r="M133" t="n">
+      <c r="L133" t="n">
+        <v>66.70999999999999</v>
+      </c>
+      <c r="M133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N133" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5302,18 +6249,27 @@
         <v>1800</v>
       </c>
       <c r="G134" t="n">
+        <v>68.1226666666668</v>
+      </c>
+      <c r="H134" t="n">
         <v>67.9878333333334</v>
       </c>
-      <c r="H134" t="n">
-        <v>0</v>
-      </c>
       <c r="I134" t="n">
         <v>0</v>
       </c>
-      <c r="J134" t="inlineStr"/>
+      <c r="J134" t="n">
+        <v>0</v>
+      </c>
       <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr"/>
-      <c r="M134" t="n">
+      <c r="L134" t="n">
+        <v>66.70999999999999</v>
+      </c>
+      <c r="M134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N134" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5337,18 +6293,27 @@
         <v>8.0467</v>
       </c>
       <c r="G135" t="n">
+        <v>68.04933333333345</v>
+      </c>
+      <c r="H135" t="n">
         <v>68.00483333333339</v>
       </c>
-      <c r="H135" t="n">
-        <v>0</v>
-      </c>
       <c r="I135" t="n">
         <v>0</v>
       </c>
-      <c r="J135" t="inlineStr"/>
+      <c r="J135" t="n">
+        <v>0</v>
+      </c>
       <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr"/>
-      <c r="M135" t="n">
+      <c r="L135" t="n">
+        <v>66.70999999999999</v>
+      </c>
+      <c r="M135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N135" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5372,18 +6337,27 @@
         <v>4689.3195</v>
       </c>
       <c r="G136" t="n">
+        <v>68.06266666666679</v>
+      </c>
+      <c r="H136" t="n">
         <v>68.02666666666673</v>
       </c>
-      <c r="H136" t="n">
-        <v>0</v>
-      </c>
       <c r="I136" t="n">
         <v>0</v>
       </c>
-      <c r="J136" t="inlineStr"/>
+      <c r="J136" t="n">
+        <v>0</v>
+      </c>
       <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr"/>
-      <c r="M136" t="n">
+      <c r="L136" t="n">
+        <v>66.70999999999999</v>
+      </c>
+      <c r="M136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N136" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5407,18 +6381,27 @@
         <v>8943.8734</v>
       </c>
       <c r="G137" t="n">
+        <v>68.08133333333346</v>
+      </c>
+      <c r="H137" t="n">
         <v>68.0483333333334</v>
       </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
       <c r="I137" t="n">
         <v>0</v>
       </c>
-      <c r="J137" t="inlineStr"/>
+      <c r="J137" t="n">
+        <v>0</v>
+      </c>
       <c r="K137" t="inlineStr"/>
-      <c r="L137" t="inlineStr"/>
-      <c r="M137" t="n">
+      <c r="L137" t="n">
+        <v>66.70999999999999</v>
+      </c>
+      <c r="M137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N137" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5442,18 +6425,27 @@
         <v>7407.113786324537</v>
       </c>
       <c r="G138" t="n">
+        <v>68.13600000000012</v>
+      </c>
+      <c r="H138" t="n">
         <v>68.08366666666674</v>
       </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
       <c r="I138" t="n">
         <v>0</v>
       </c>
-      <c r="J138" t="inlineStr"/>
+      <c r="J138" t="n">
+        <v>0</v>
+      </c>
       <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr"/>
-      <c r="M138" t="n">
+      <c r="L138" t="n">
+        <v>66.70999999999999</v>
+      </c>
+      <c r="M138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N138" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5477,18 +6469,27 @@
         <v>17021.52081551222</v>
       </c>
       <c r="G139" t="n">
+        <v>68.14800000000012</v>
+      </c>
+      <c r="H139" t="n">
         <v>68.12150000000007</v>
       </c>
-      <c r="H139" t="n">
-        <v>0</v>
-      </c>
       <c r="I139" t="n">
         <v>0</v>
       </c>
-      <c r="J139" t="inlineStr"/>
+      <c r="J139" t="n">
+        <v>0</v>
+      </c>
       <c r="K139" t="inlineStr"/>
-      <c r="L139" t="inlineStr"/>
-      <c r="M139" t="n">
+      <c r="L139" t="n">
+        <v>66.70999999999999</v>
+      </c>
+      <c r="M139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N139" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5512,18 +6513,27 @@
         <v>6392.2178</v>
       </c>
       <c r="G140" t="n">
+        <v>68.19466666666681</v>
+      </c>
+      <c r="H140" t="n">
         <v>68.14650000000007</v>
       </c>
-      <c r="H140" t="n">
-        <v>0</v>
-      </c>
       <c r="I140" t="n">
         <v>0</v>
       </c>
-      <c r="J140" t="inlineStr"/>
+      <c r="J140" t="n">
+        <v>0</v>
+      </c>
       <c r="K140" t="inlineStr"/>
-      <c r="L140" t="inlineStr"/>
-      <c r="M140" t="n">
+      <c r="L140" t="n">
+        <v>66.70999999999999</v>
+      </c>
+      <c r="M140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N140" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5547,18 +6557,27 @@
         <v>22781.0817</v>
       </c>
       <c r="G141" t="n">
+        <v>68.24000000000014</v>
+      </c>
+      <c r="H141" t="n">
         <v>68.17150000000008</v>
       </c>
-      <c r="H141" t="n">
-        <v>0</v>
-      </c>
       <c r="I141" t="n">
         <v>0</v>
       </c>
-      <c r="J141" t="inlineStr"/>
+      <c r="J141" t="n">
+        <v>0</v>
+      </c>
       <c r="K141" t="inlineStr"/>
-      <c r="L141" t="inlineStr"/>
-      <c r="M141" t="n">
+      <c r="L141" t="n">
+        <v>66.70999999999999</v>
+      </c>
+      <c r="M141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N141" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5582,18 +6601,27 @@
         <v>3847.362</v>
       </c>
       <c r="G142" t="n">
+        <v>68.30466666666682</v>
+      </c>
+      <c r="H142" t="n">
         <v>68.19433333333342</v>
       </c>
-      <c r="H142" t="n">
-        <v>0</v>
-      </c>
       <c r="I142" t="n">
         <v>0</v>
       </c>
-      <c r="J142" t="inlineStr"/>
+      <c r="J142" t="n">
+        <v>0</v>
+      </c>
       <c r="K142" t="inlineStr"/>
-      <c r="L142" t="inlineStr"/>
-      <c r="M142" t="n">
+      <c r="L142" t="n">
+        <v>66.70999999999999</v>
+      </c>
+      <c r="M142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N142" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5617,18 +6645,27 @@
         <v>8</v>
       </c>
       <c r="G143" t="n">
+        <v>68.39000000000014</v>
+      </c>
+      <c r="H143" t="n">
         <v>68.20733333333341</v>
       </c>
-      <c r="H143" t="n">
-        <v>0</v>
-      </c>
       <c r="I143" t="n">
         <v>0</v>
       </c>
-      <c r="J143" t="inlineStr"/>
+      <c r="J143" t="n">
+        <v>0</v>
+      </c>
       <c r="K143" t="inlineStr"/>
-      <c r="L143" t="inlineStr"/>
-      <c r="M143" t="n">
+      <c r="L143" t="n">
+        <v>66.70999999999999</v>
+      </c>
+      <c r="M143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N143" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5652,18 +6689,27 @@
         <v>7977.9933</v>
       </c>
       <c r="G144" t="n">
+        <v>68.39600000000014</v>
+      </c>
+      <c r="H144" t="n">
         <v>68.19416666666673</v>
       </c>
-      <c r="H144" t="n">
-        <v>0</v>
-      </c>
       <c r="I144" t="n">
         <v>0</v>
       </c>
-      <c r="J144" t="inlineStr"/>
+      <c r="J144" t="n">
+        <v>0</v>
+      </c>
       <c r="K144" t="inlineStr"/>
-      <c r="L144" t="inlineStr"/>
-      <c r="M144" t="n">
+      <c r="L144" t="n">
+        <v>66.70999999999999</v>
+      </c>
+      <c r="M144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N144" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5687,18 +6733,27 @@
         <v>8</v>
       </c>
       <c r="G145" t="n">
+        <v>68.48800000000014</v>
+      </c>
+      <c r="H145" t="n">
         <v>68.19733333333339</v>
       </c>
-      <c r="H145" t="n">
-        <v>0</v>
-      </c>
       <c r="I145" t="n">
         <v>0</v>
       </c>
-      <c r="J145" t="inlineStr"/>
+      <c r="J145" t="n">
+        <v>0</v>
+      </c>
       <c r="K145" t="inlineStr"/>
-      <c r="L145" t="inlineStr"/>
-      <c r="M145" t="n">
+      <c r="L145" t="n">
+        <v>66.70999999999999</v>
+      </c>
+      <c r="M145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N145" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5722,18 +6777,27 @@
         <v>6948.213</v>
       </c>
       <c r="G146" t="n">
+        <v>68.55400000000014</v>
+      </c>
+      <c r="H146" t="n">
         <v>68.23216666666673</v>
       </c>
-      <c r="H146" t="n">
-        <v>0</v>
-      </c>
       <c r="I146" t="n">
         <v>0</v>
       </c>
-      <c r="J146" t="inlineStr"/>
+      <c r="J146" t="n">
+        <v>0</v>
+      </c>
       <c r="K146" t="inlineStr"/>
-      <c r="L146" t="inlineStr"/>
-      <c r="M146" t="n">
+      <c r="L146" t="n">
+        <v>66.70999999999999</v>
+      </c>
+      <c r="M146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N146" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5757,18 +6821,27 @@
         <v>8338.2657</v>
       </c>
       <c r="G147" t="n">
+        <v>68.58066666666681</v>
+      </c>
+      <c r="H147" t="n">
         <v>68.23866666666673</v>
       </c>
-      <c r="H147" t="n">
-        <v>0</v>
-      </c>
       <c r="I147" t="n">
         <v>0</v>
       </c>
-      <c r="J147" t="inlineStr"/>
+      <c r="J147" t="n">
+        <v>0</v>
+      </c>
       <c r="K147" t="inlineStr"/>
-      <c r="L147" t="inlineStr"/>
-      <c r="M147" t="n">
+      <c r="L147" t="n">
+        <v>66.70999999999999</v>
+      </c>
+      <c r="M147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N147" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5792,18 +6865,27 @@
         <v>1045.7942</v>
       </c>
       <c r="G148" t="n">
+        <v>68.58733333333348</v>
+      </c>
+      <c r="H148" t="n">
         <v>68.24466666666673</v>
       </c>
-      <c r="H148" t="n">
-        <v>0</v>
-      </c>
       <c r="I148" t="n">
         <v>0</v>
       </c>
-      <c r="J148" t="inlineStr"/>
+      <c r="J148" t="n">
+        <v>0</v>
+      </c>
       <c r="K148" t="inlineStr"/>
-      <c r="L148" t="inlineStr"/>
-      <c r="M148" t="n">
+      <c r="L148" t="n">
+        <v>66.70999999999999</v>
+      </c>
+      <c r="M148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N148" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5827,18 +6909,27 @@
         <v>8087.5792</v>
       </c>
       <c r="G149" t="n">
+        <v>68.62666666666681</v>
+      </c>
+      <c r="H149" t="n">
         <v>68.25650000000005</v>
       </c>
-      <c r="H149" t="n">
-        <v>0</v>
-      </c>
       <c r="I149" t="n">
         <v>0</v>
       </c>
-      <c r="J149" t="inlineStr"/>
+      <c r="J149" t="n">
+        <v>0</v>
+      </c>
       <c r="K149" t="inlineStr"/>
-      <c r="L149" t="inlineStr"/>
-      <c r="M149" t="n">
+      <c r="L149" t="n">
+        <v>66.70999999999999</v>
+      </c>
+      <c r="M149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N149" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5862,18 +6953,27 @@
         <v>8</v>
       </c>
       <c r="G150" t="n">
+        <v>68.71866666666681</v>
+      </c>
+      <c r="H150" t="n">
         <v>68.26000000000005</v>
       </c>
-      <c r="H150" t="n">
-        <v>0</v>
-      </c>
       <c r="I150" t="n">
         <v>0</v>
       </c>
-      <c r="J150" t="inlineStr"/>
+      <c r="J150" t="n">
+        <v>0</v>
+      </c>
       <c r="K150" t="inlineStr"/>
-      <c r="L150" t="inlineStr"/>
-      <c r="M150" t="n">
+      <c r="L150" t="n">
+        <v>66.70999999999999</v>
+      </c>
+      <c r="M150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N150" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5897,18 +6997,27 @@
         <v>13501.4325</v>
       </c>
       <c r="G151" t="n">
+        <v>68.66733333333347</v>
+      </c>
+      <c r="H151" t="n">
         <v>68.23900000000005</v>
       </c>
-      <c r="H151" t="n">
-        <v>0</v>
-      </c>
       <c r="I151" t="n">
         <v>0</v>
       </c>
-      <c r="J151" t="inlineStr"/>
+      <c r="J151" t="n">
+        <v>0</v>
+      </c>
       <c r="K151" t="inlineStr"/>
-      <c r="L151" t="inlineStr"/>
-      <c r="M151" t="n">
+      <c r="L151" t="n">
+        <v>66.70999999999999</v>
+      </c>
+      <c r="M151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N151" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5932,18 +7041,27 @@
         <v>17665.47218034348</v>
       </c>
       <c r="G152" t="n">
+        <v>68.73333333333348</v>
+      </c>
+      <c r="H152" t="n">
         <v>68.24733333333339</v>
       </c>
-      <c r="H152" t="n">
-        <v>0</v>
-      </c>
       <c r="I152" t="n">
         <v>0</v>
       </c>
-      <c r="J152" t="inlineStr"/>
+      <c r="J152" t="n">
+        <v>0</v>
+      </c>
       <c r="K152" t="inlineStr"/>
-      <c r="L152" t="inlineStr"/>
-      <c r="M152" t="n">
+      <c r="L152" t="n">
+        <v>66.70999999999999</v>
+      </c>
+      <c r="M152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N152" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5967,18 +7085,27 @@
         <v>175.0071963961367</v>
       </c>
       <c r="G153" t="n">
+        <v>68.77666666666681</v>
+      </c>
+      <c r="H153" t="n">
         <v>68.2686666666667</v>
       </c>
-      <c r="H153" t="n">
-        <v>0</v>
-      </c>
       <c r="I153" t="n">
         <v>0</v>
       </c>
-      <c r="J153" t="inlineStr"/>
+      <c r="J153" t="n">
+        <v>0</v>
+      </c>
       <c r="K153" t="inlineStr"/>
-      <c r="L153" t="inlineStr"/>
-      <c r="M153" t="n">
+      <c r="L153" t="n">
+        <v>66.70999999999999</v>
+      </c>
+      <c r="M153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N153" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6002,18 +7129,27 @@
         <v>49</v>
       </c>
       <c r="G154" t="n">
+        <v>68.81600000000013</v>
+      </c>
+      <c r="H154" t="n">
         <v>68.30750000000005</v>
       </c>
-      <c r="H154" t="n">
-        <v>0</v>
-      </c>
       <c r="I154" t="n">
         <v>0</v>
       </c>
-      <c r="J154" t="inlineStr"/>
+      <c r="J154" t="n">
+        <v>0</v>
+      </c>
       <c r="K154" t="inlineStr"/>
-      <c r="L154" t="inlineStr"/>
-      <c r="M154" t="n">
+      <c r="L154" t="n">
+        <v>66.70999999999999</v>
+      </c>
+      <c r="M154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N154" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6037,18 +7173,27 @@
         <v>213.2144</v>
       </c>
       <c r="G155" t="n">
+        <v>68.84000000000013</v>
+      </c>
+      <c r="H155" t="n">
         <v>68.31783333333337</v>
       </c>
-      <c r="H155" t="n">
-        <v>0</v>
-      </c>
       <c r="I155" t="n">
         <v>0</v>
       </c>
-      <c r="J155" t="inlineStr"/>
+      <c r="J155" t="n">
+        <v>0</v>
+      </c>
       <c r="K155" t="inlineStr"/>
-      <c r="L155" t="inlineStr"/>
-      <c r="M155" t="n">
+      <c r="L155" t="n">
+        <v>66.70999999999999</v>
+      </c>
+      <c r="M155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N155" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6072,18 +7217,27 @@
         <v>5154.4399</v>
       </c>
       <c r="G156" t="n">
+        <v>68.76333333333348</v>
+      </c>
+      <c r="H156" t="n">
         <v>68.32000000000004</v>
       </c>
-      <c r="H156" t="n">
-        <v>0</v>
-      </c>
       <c r="I156" t="n">
         <v>0</v>
       </c>
-      <c r="J156" t="inlineStr"/>
+      <c r="J156" t="n">
+        <v>0</v>
+      </c>
       <c r="K156" t="inlineStr"/>
-      <c r="L156" t="inlineStr"/>
-      <c r="M156" t="n">
+      <c r="L156" t="n">
+        <v>66.70999999999999</v>
+      </c>
+      <c r="M156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N156" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6107,18 +7261,27 @@
         <v>853.4956</v>
       </c>
       <c r="G157" t="n">
+        <v>68.70600000000015</v>
+      </c>
+      <c r="H157" t="n">
         <v>68.32700000000004</v>
       </c>
-      <c r="H157" t="n">
-        <v>0</v>
-      </c>
       <c r="I157" t="n">
         <v>0</v>
       </c>
-      <c r="J157" t="inlineStr"/>
+      <c r="J157" t="n">
+        <v>0</v>
+      </c>
       <c r="K157" t="inlineStr"/>
-      <c r="L157" t="inlineStr"/>
-      <c r="M157" t="n">
+      <c r="L157" t="n">
+        <v>66.70999999999999</v>
+      </c>
+      <c r="M157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N157" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6142,18 +7305,27 @@
         <v>8</v>
       </c>
       <c r="G158" t="n">
+        <v>68.69800000000014</v>
+      </c>
+      <c r="H158" t="n">
         <v>68.33900000000004</v>
       </c>
-      <c r="H158" t="n">
-        <v>0</v>
-      </c>
       <c r="I158" t="n">
         <v>0</v>
       </c>
-      <c r="J158" t="inlineStr"/>
+      <c r="J158" t="n">
+        <v>0</v>
+      </c>
       <c r="K158" t="inlineStr"/>
-      <c r="L158" t="inlineStr"/>
-      <c r="M158" t="n">
+      <c r="L158" t="n">
+        <v>66.70999999999999</v>
+      </c>
+      <c r="M158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N158" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6177,18 +7349,27 @@
         <v>17050.0608</v>
       </c>
       <c r="G159" t="n">
+        <v>68.69800000000014</v>
+      </c>
+      <c r="H159" t="n">
         <v>68.34383333333338</v>
       </c>
-      <c r="H159" t="n">
-        <v>0</v>
-      </c>
       <c r="I159" t="n">
         <v>0</v>
       </c>
-      <c r="J159" t="inlineStr"/>
+      <c r="J159" t="n">
+        <v>0</v>
+      </c>
       <c r="K159" t="inlineStr"/>
-      <c r="L159" t="inlineStr"/>
-      <c r="M159" t="n">
+      <c r="L159" t="n">
+        <v>66.70999999999999</v>
+      </c>
+      <c r="M159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N159" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6212,18 +7393,27 @@
         <v>14001.58538401921</v>
       </c>
       <c r="G160" t="n">
+        <v>68.72000000000013</v>
+      </c>
+      <c r="H160" t="n">
         <v>68.38000000000005</v>
       </c>
-      <c r="H160" t="n">
-        <v>0</v>
-      </c>
       <c r="I160" t="n">
         <v>0</v>
       </c>
-      <c r="J160" t="inlineStr"/>
+      <c r="J160" t="n">
+        <v>0</v>
+      </c>
       <c r="K160" t="inlineStr"/>
-      <c r="L160" t="inlineStr"/>
-      <c r="M160" t="n">
+      <c r="L160" t="n">
+        <v>66.70999999999999</v>
+      </c>
+      <c r="M160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N160" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6247,18 +7437,27 @@
         <v>18.42900302114804</v>
       </c>
       <c r="G161" t="n">
+        <v>68.75466666666679</v>
+      </c>
+      <c r="H161" t="n">
         <v>68.39900000000006</v>
       </c>
-      <c r="H161" t="n">
-        <v>0</v>
-      </c>
       <c r="I161" t="n">
         <v>0</v>
       </c>
-      <c r="J161" t="inlineStr"/>
+      <c r="J161" t="n">
+        <v>0</v>
+      </c>
       <c r="K161" t="inlineStr"/>
-      <c r="L161" t="inlineStr"/>
-      <c r="M161" t="n">
+      <c r="L161" t="n">
+        <v>66.70999999999999</v>
+      </c>
+      <c r="M161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N161" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6282,19 +7481,28 @@
         <v>5293.1176</v>
       </c>
       <c r="G162" t="n">
+        <v>68.75466666666679</v>
+      </c>
+      <c r="H162" t="n">
         <v>68.4068333333334</v>
       </c>
-      <c r="H162" t="n">
-        <v>0</v>
-      </c>
       <c r="I162" t="n">
         <v>0</v>
       </c>
-      <c r="J162" t="inlineStr"/>
+      <c r="J162" t="n">
+        <v>1</v>
+      </c>
       <c r="K162" t="inlineStr"/>
-      <c r="L162" t="inlineStr"/>
-      <c r="M162" t="n">
-        <v>1</v>
+      <c r="L162" t="n">
+        <v>66.70999999999999</v>
+      </c>
+      <c r="M162" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="N162" t="n">
+        <v>1.014337430670065</v>
       </c>
     </row>
     <row r="163">
@@ -6317,18 +7525,401 @@
         <v>8</v>
       </c>
       <c r="G163" t="n">
+        <v>68.83800000000014</v>
+      </c>
+      <c r="H163" t="n">
         <v>68.43566666666672</v>
       </c>
-      <c r="H163" t="n">
-        <v>0</v>
-      </c>
       <c r="I163" t="n">
         <v>0</v>
       </c>
-      <c r="J163" t="inlineStr"/>
+      <c r="J163" t="n">
+        <v>1</v>
+      </c>
       <c r="K163" t="inlineStr"/>
       <c r="L163" t="inlineStr"/>
-      <c r="M163" t="n">
+      <c r="M163" t="inlineStr"/>
+      <c r="N163" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="1" t="n">
+        <v>162</v>
+      </c>
+      <c r="B164" t="n">
+        <v>68.2</v>
+      </c>
+      <c r="C164" t="n">
+        <v>68.2</v>
+      </c>
+      <c r="D164" t="n">
+        <v>68.2</v>
+      </c>
+      <c r="E164" t="n">
+        <v>68.2</v>
+      </c>
+      <c r="F164" t="n">
+        <v>296.069</v>
+      </c>
+      <c r="G164" t="n">
+        <v>68.81200000000014</v>
+      </c>
+      <c r="H164" t="n">
+        <v>68.44716666666672</v>
+      </c>
+      <c r="I164" t="n">
+        <v>0</v>
+      </c>
+      <c r="J164" t="n">
+        <v>1</v>
+      </c>
+      <c r="K164" t="inlineStr"/>
+      <c r="L164" t="inlineStr"/>
+      <c r="M164" t="inlineStr"/>
+      <c r="N164" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="1" t="n">
+        <v>163</v>
+      </c>
+      <c r="B165" t="n">
+        <v>68.2</v>
+      </c>
+      <c r="C165" t="n">
+        <v>68.2</v>
+      </c>
+      <c r="D165" t="n">
+        <v>68.2</v>
+      </c>
+      <c r="E165" t="n">
+        <v>68.2</v>
+      </c>
+      <c r="F165" t="n">
+        <v>3703.931</v>
+      </c>
+      <c r="G165" t="n">
+        <v>68.75866666666681</v>
+      </c>
+      <c r="H165" t="n">
+        <v>68.45816666666671</v>
+      </c>
+      <c r="I165" t="n">
+        <v>0</v>
+      </c>
+      <c r="J165" t="n">
+        <v>1</v>
+      </c>
+      <c r="K165" t="inlineStr"/>
+      <c r="L165" t="inlineStr"/>
+      <c r="M165" t="inlineStr"/>
+      <c r="N165" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="1" t="n">
+        <v>164</v>
+      </c>
+      <c r="B166" t="n">
+        <v>68.90000000000001</v>
+      </c>
+      <c r="C166" t="n">
+        <v>68.90000000000001</v>
+      </c>
+      <c r="D166" t="n">
+        <v>68.90000000000001</v>
+      </c>
+      <c r="E166" t="n">
+        <v>68.90000000000001</v>
+      </c>
+      <c r="F166" t="n">
+        <v>296.069</v>
+      </c>
+      <c r="G166" t="n">
+        <v>68.85000000000015</v>
+      </c>
+      <c r="H166" t="n">
+        <v>68.48133333333337</v>
+      </c>
+      <c r="I166" t="n">
+        <v>0</v>
+      </c>
+      <c r="J166" t="n">
+        <v>1</v>
+      </c>
+      <c r="K166" t="inlineStr"/>
+      <c r="L166" t="inlineStr"/>
+      <c r="M166" t="inlineStr"/>
+      <c r="N166" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="1" t="n">
+        <v>165</v>
+      </c>
+      <c r="B167" t="n">
+        <v>69.25</v>
+      </c>
+      <c r="C167" t="n">
+        <v>69.3</v>
+      </c>
+      <c r="D167" t="n">
+        <v>69.3</v>
+      </c>
+      <c r="E167" t="n">
+        <v>69.25</v>
+      </c>
+      <c r="F167" t="n">
+        <v>12817.4487</v>
+      </c>
+      <c r="G167" t="n">
+        <v>68.85066666666681</v>
+      </c>
+      <c r="H167" t="n">
+        <v>68.4996666666667</v>
+      </c>
+      <c r="I167" t="n">
+        <v>0</v>
+      </c>
+      <c r="J167" t="n">
+        <v>0</v>
+      </c>
+      <c r="K167" t="inlineStr"/>
+      <c r="L167" t="inlineStr"/>
+      <c r="M167" t="inlineStr"/>
+      <c r="N167" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="1" t="n">
+        <v>166</v>
+      </c>
+      <c r="B168" t="n">
+        <v>69.43000000000001</v>
+      </c>
+      <c r="C168" t="n">
+        <v>69.64</v>
+      </c>
+      <c r="D168" t="n">
+        <v>69.64</v>
+      </c>
+      <c r="E168" t="n">
+        <v>69.43000000000001</v>
+      </c>
+      <c r="F168" t="n">
+        <v>14787.68565038815</v>
+      </c>
+      <c r="G168" t="n">
+        <v>68.86866666666683</v>
+      </c>
+      <c r="H168" t="n">
+        <v>68.52366666666671</v>
+      </c>
+      <c r="I168" t="n">
+        <v>0</v>
+      </c>
+      <c r="J168" t="n">
+        <v>1</v>
+      </c>
+      <c r="K168" t="inlineStr"/>
+      <c r="L168" t="inlineStr"/>
+      <c r="M168" t="inlineStr"/>
+      <c r="N168" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="1" t="n">
+        <v>167</v>
+      </c>
+      <c r="B169" t="n">
+        <v>69.69</v>
+      </c>
+      <c r="C169" t="n">
+        <v>69.8</v>
+      </c>
+      <c r="D169" t="n">
+        <v>69.8</v>
+      </c>
+      <c r="E169" t="n">
+        <v>69.69</v>
+      </c>
+      <c r="F169" t="n">
+        <v>32904.3365</v>
+      </c>
+      <c r="G169" t="n">
+        <v>68.89800000000017</v>
+      </c>
+      <c r="H169" t="n">
+        <v>68.56183333333338</v>
+      </c>
+      <c r="I169" t="n">
+        <v>0</v>
+      </c>
+      <c r="J169" t="n">
+        <v>1</v>
+      </c>
+      <c r="K169" t="inlineStr"/>
+      <c r="L169" t="inlineStr"/>
+      <c r="M169" t="inlineStr"/>
+      <c r="N169" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="1" t="n">
+        <v>168</v>
+      </c>
+      <c r="B170" t="n">
+        <v>69.83</v>
+      </c>
+      <c r="C170" t="n">
+        <v>69.98</v>
+      </c>
+      <c r="D170" t="n">
+        <v>69.98</v>
+      </c>
+      <c r="E170" t="n">
+        <v>69.83</v>
+      </c>
+      <c r="F170" t="n">
+        <v>4708.9945</v>
+      </c>
+      <c r="G170" t="n">
+        <v>68.93933333333351</v>
+      </c>
+      <c r="H170" t="n">
+        <v>68.59150000000004</v>
+      </c>
+      <c r="I170" t="n">
+        <v>0</v>
+      </c>
+      <c r="J170" t="n">
+        <v>1</v>
+      </c>
+      <c r="K170" t="inlineStr"/>
+      <c r="L170" t="inlineStr"/>
+      <c r="M170" t="inlineStr"/>
+      <c r="N170" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="1" t="n">
+        <v>169</v>
+      </c>
+      <c r="B171" t="n">
+        <v>69.98</v>
+      </c>
+      <c r="C171" t="n">
+        <v>68</v>
+      </c>
+      <c r="D171" t="n">
+        <v>70</v>
+      </c>
+      <c r="E171" t="n">
+        <v>68</v>
+      </c>
+      <c r="F171" t="n">
+        <v>34748.1512</v>
+      </c>
+      <c r="G171" t="n">
+        <v>68.9313333333335</v>
+      </c>
+      <c r="H171" t="n">
+        <v>68.59950000000003</v>
+      </c>
+      <c r="I171" t="n">
+        <v>0</v>
+      </c>
+      <c r="J171" t="n">
+        <v>1</v>
+      </c>
+      <c r="K171" t="inlineStr"/>
+      <c r="L171" t="inlineStr"/>
+      <c r="M171" t="inlineStr"/>
+      <c r="N171" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="1" t="n">
+        <v>170</v>
+      </c>
+      <c r="B172" t="n">
+        <v>68.8</v>
+      </c>
+      <c r="C172" t="n">
+        <v>69.83</v>
+      </c>
+      <c r="D172" t="n">
+        <v>69.83</v>
+      </c>
+      <c r="E172" t="n">
+        <v>68.8</v>
+      </c>
+      <c r="F172" t="n">
+        <v>110</v>
+      </c>
+      <c r="G172" t="n">
+        <v>69.02600000000015</v>
+      </c>
+      <c r="H172" t="n">
+        <v>68.62666666666671</v>
+      </c>
+      <c r="I172" t="n">
+        <v>0</v>
+      </c>
+      <c r="J172" t="n">
+        <v>1</v>
+      </c>
+      <c r="K172" t="inlineStr"/>
+      <c r="L172" t="inlineStr"/>
+      <c r="M172" t="inlineStr"/>
+      <c r="N172" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="1" t="n">
+        <v>171</v>
+      </c>
+      <c r="B173" t="n">
+        <v>69.06</v>
+      </c>
+      <c r="C173" t="n">
+        <v>69.06</v>
+      </c>
+      <c r="D173" t="n">
+        <v>69.06</v>
+      </c>
+      <c r="E173" t="n">
+        <v>69.06</v>
+      </c>
+      <c r="F173" t="n">
+        <v>1988.9411</v>
+      </c>
+      <c r="G173" t="n">
+        <v>69.01266666666682</v>
+      </c>
+      <c r="H173" t="n">
+        <v>68.63233333333338</v>
+      </c>
+      <c r="I173" t="n">
+        <v>0</v>
+      </c>
+      <c r="J173" t="n">
+        <v>1</v>
+      </c>
+      <c r="K173" t="inlineStr"/>
+      <c r="L173" t="inlineStr"/>
+      <c r="M173" t="inlineStr"/>
+      <c r="N173" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2020-01-21 BackTest FX.xlsx
+++ b/BackTest/2020-01-21 BackTest FX.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M202"/>
+  <dimension ref="A1:N160"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -427,6 +427,11 @@
           <t>Profits</t>
         </is>
       </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Price_point</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -436,19 +441,19 @@
         <v>66.5</v>
       </c>
       <c r="C2" t="n">
-        <v>65.5</v>
+        <v>66.5</v>
       </c>
       <c r="D2" t="n">
         <v>66.5</v>
       </c>
       <c r="E2" t="n">
-        <v>65.5</v>
+        <v>66.5</v>
       </c>
       <c r="F2" t="n">
-        <v>267</v>
+        <v>946.2756000000001</v>
       </c>
       <c r="G2" t="n">
-        <v>-100206.8495068261</v>
+        <v>-97539.77150682606</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -462,28 +467,29 @@
       <c r="M2" t="n">
         <v>1</v>
       </c>
+      <c r="N2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>66.89</v>
+        <v>66.61</v>
       </c>
       <c r="C3" t="n">
-        <v>65.59999999999999</v>
+        <v>67</v>
       </c>
       <c r="D3" t="n">
-        <v>66.89</v>
+        <v>67</v>
       </c>
       <c r="E3" t="n">
-        <v>65.59999999999999</v>
+        <v>66.61</v>
       </c>
       <c r="F3" t="n">
-        <v>9362.406000000001</v>
+        <v>110</v>
       </c>
       <c r="G3" t="n">
-        <v>-90844.44350682606</v>
+        <v>-97429.77150682606</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -497,28 +503,29 @@
       <c r="M3" t="n">
         <v>1</v>
       </c>
+      <c r="N3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>66.89</v>
+        <v>66.61</v>
       </c>
       <c r="C4" t="n">
-        <v>66.90000000000001</v>
+        <v>66.5</v>
       </c>
       <c r="D4" t="n">
-        <v>66.90000000000001</v>
+        <v>66.61</v>
       </c>
       <c r="E4" t="n">
-        <v>66.89</v>
+        <v>66.5</v>
       </c>
       <c r="F4" t="n">
-        <v>1796.4527</v>
+        <v>3274.2907</v>
       </c>
       <c r="G4" t="n">
-        <v>-89047.99080682607</v>
+        <v>-100704.0622068261</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -532,28 +539,29 @@
       <c r="M4" t="n">
         <v>1</v>
       </c>
+      <c r="N4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>66.98999999999999</v>
+        <v>66.5</v>
       </c>
       <c r="C5" t="n">
-        <v>67.88</v>
+        <v>66.5</v>
       </c>
       <c r="D5" t="n">
-        <v>67.88</v>
+        <v>66.5</v>
       </c>
       <c r="E5" t="n">
-        <v>66.98999999999999</v>
+        <v>66.5</v>
       </c>
       <c r="F5" t="n">
-        <v>4923.3557</v>
+        <v>8150.3999</v>
       </c>
       <c r="G5" t="n">
-        <v>-84124.63510682607</v>
+        <v>-100704.0622068261</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -567,28 +575,29 @@
       <c r="M5" t="n">
         <v>1</v>
       </c>
+      <c r="N5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>67.88</v>
+        <v>66.58</v>
       </c>
       <c r="C6" t="n">
-        <v>67.88</v>
+        <v>66.58</v>
       </c>
       <c r="D6" t="n">
-        <v>67.88</v>
+        <v>66.58</v>
       </c>
       <c r="E6" t="n">
-        <v>67.88</v>
+        <v>66.58</v>
       </c>
       <c r="F6" t="n">
-        <v>135.4493</v>
+        <v>88.9221</v>
       </c>
       <c r="G6" t="n">
-        <v>-84124.63510682607</v>
+        <v>-100615.1401068261</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -602,28 +611,29 @@
       <c r="M6" t="n">
         <v>1</v>
       </c>
+      <c r="N6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>66.92</v>
+        <v>66.5</v>
       </c>
       <c r="C7" t="n">
-        <v>66.90000000000001</v>
+        <v>66.31</v>
       </c>
       <c r="D7" t="n">
-        <v>66.92</v>
+        <v>66.5</v>
       </c>
       <c r="E7" t="n">
-        <v>66.90000000000001</v>
+        <v>66.31</v>
       </c>
       <c r="F7" t="n">
-        <v>408.207</v>
+        <v>4909</v>
       </c>
       <c r="G7" t="n">
-        <v>-84532.84210682606</v>
+        <v>-105524.1401068261</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -637,28 +647,29 @@
       <c r="M7" t="n">
         <v>1</v>
       </c>
+      <c r="N7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>66.90000000000001</v>
+        <v>66.31</v>
       </c>
       <c r="C8" t="n">
-        <v>67.39</v>
+        <v>67</v>
       </c>
       <c r="D8" t="n">
-        <v>67.39</v>
+        <v>67</v>
       </c>
       <c r="E8" t="n">
-        <v>66.90000000000001</v>
+        <v>66.31</v>
       </c>
       <c r="F8" t="n">
-        <v>100</v>
+        <v>3821.199213164179</v>
       </c>
       <c r="G8" t="n">
-        <v>-84432.84210682606</v>
+        <v>-101702.9408936619</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -672,168 +683,201 @@
       <c r="M8" t="n">
         <v>1</v>
       </c>
+      <c r="N8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>67.39</v>
+        <v>66.31</v>
       </c>
       <c r="C9" t="n">
-        <v>67.90000000000001</v>
+        <v>66.31</v>
       </c>
       <c r="D9" t="n">
-        <v>67.90000000000001</v>
+        <v>66.31</v>
       </c>
       <c r="E9" t="n">
-        <v>67.39</v>
+        <v>66.31</v>
       </c>
       <c r="F9" t="n">
-        <v>21708.3822</v>
+        <v>5675.4762</v>
       </c>
       <c r="G9" t="n">
-        <v>-62724.45990682606</v>
+        <v>-107378.4170936619</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
+      <c r="J9" t="n">
+        <v>67</v>
+      </c>
+      <c r="K9" t="n">
+        <v>67</v>
+      </c>
       <c r="L9" t="inlineStr"/>
       <c r="M9" t="n">
         <v>1</v>
       </c>
+      <c r="N9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>67.09</v>
+        <v>66.31</v>
       </c>
       <c r="C10" t="n">
-        <v>67.09</v>
+        <v>66.31</v>
       </c>
       <c r="D10" t="n">
-        <v>67.09</v>
+        <v>66.31</v>
       </c>
       <c r="E10" t="n">
-        <v>67.09</v>
+        <v>66.31</v>
       </c>
       <c r="F10" t="n">
-        <v>564.4039</v>
+        <v>1386</v>
       </c>
       <c r="G10" t="n">
-        <v>-63288.86380682606</v>
+        <v>-107378.4170936619</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
+      <c r="J10" t="n">
+        <v>66.31</v>
+      </c>
+      <c r="K10" t="n">
+        <v>67</v>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M10" t="n">
         <v>1</v>
       </c>
+      <c r="N10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>66.90000000000001</v>
+        <v>66.31</v>
       </c>
       <c r="C11" t="n">
-        <v>67.09</v>
+        <v>66.3</v>
       </c>
       <c r="D11" t="n">
-        <v>67.09</v>
+        <v>66.31</v>
       </c>
       <c r="E11" t="n">
-        <v>66.90000000000001</v>
+        <v>66.3</v>
       </c>
       <c r="F11" t="n">
-        <v>872.5157</v>
+        <v>10647.3702</v>
       </c>
       <c r="G11" t="n">
-        <v>-63288.86380682606</v>
+        <v>-118025.7872936619</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
+      <c r="J11" t="n">
+        <v>66.31</v>
+      </c>
+      <c r="K11" t="n">
+        <v>67</v>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M11" t="n">
         <v>1</v>
       </c>
+      <c r="N11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>67.98999999999999</v>
+        <v>66.31</v>
       </c>
       <c r="C12" t="n">
-        <v>68.79000000000001</v>
+        <v>66.31</v>
       </c>
       <c r="D12" t="n">
-        <v>68.79000000000001</v>
+        <v>66.31</v>
       </c>
       <c r="E12" t="n">
-        <v>67.88</v>
+        <v>66.31</v>
       </c>
       <c r="F12" t="n">
-        <v>6090.4266</v>
+        <v>4864.2528</v>
       </c>
       <c r="G12" t="n">
-        <v>-57198.43720682606</v>
+        <v>-113161.5344936619</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
-      <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
+      <c r="J12" t="n">
+        <v>66.3</v>
+      </c>
+      <c r="K12" t="n">
+        <v>67</v>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M12" t="n">
         <v>1</v>
       </c>
+      <c r="N12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>68.78</v>
+        <v>66.36</v>
       </c>
       <c r="C13" t="n">
-        <v>68.78</v>
+        <v>66.36</v>
       </c>
       <c r="D13" t="n">
-        <v>68.78</v>
+        <v>66.36</v>
       </c>
       <c r="E13" t="n">
-        <v>68.78</v>
+        <v>66.36</v>
       </c>
       <c r="F13" t="n">
-        <v>51.776</v>
+        <v>1000</v>
       </c>
       <c r="G13" t="n">
-        <v>-57250.21320682606</v>
+        <v>-112161.5344936619</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -842,33 +886,40 @@
         <v>0</v>
       </c>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>67</v>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M13" t="n">
         <v>1</v>
       </c>
+      <c r="N13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>67.63</v>
+        <v>66.36</v>
       </c>
       <c r="C14" t="n">
-        <v>67.63</v>
+        <v>66.5</v>
       </c>
       <c r="D14" t="n">
-        <v>67.63</v>
+        <v>66.5</v>
       </c>
       <c r="E14" t="n">
-        <v>67.63</v>
+        <v>66.36</v>
       </c>
       <c r="F14" t="n">
-        <v>309</v>
+        <v>1100</v>
       </c>
       <c r="G14" t="n">
-        <v>-57559.21320682606</v>
+        <v>-111061.5344936619</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -877,33 +928,40 @@
         <v>0</v>
       </c>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>67</v>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M14" t="n">
         <v>1</v>
       </c>
+      <c r="N14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>67.64</v>
+        <v>66.36</v>
       </c>
       <c r="C15" t="n">
-        <v>67.63</v>
+        <v>66.36</v>
       </c>
       <c r="D15" t="n">
-        <v>67.64</v>
+        <v>66.36</v>
       </c>
       <c r="E15" t="n">
-        <v>67.63</v>
+        <v>66.36</v>
       </c>
       <c r="F15" t="n">
-        <v>2008</v>
+        <v>49.813</v>
       </c>
       <c r="G15" t="n">
-        <v>-57559.21320682606</v>
+        <v>-111111.3474936619</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -912,33 +970,40 @@
         <v>0</v>
       </c>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>67</v>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M15" t="n">
         <v>1</v>
       </c>
+      <c r="N15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>67.64</v>
+        <v>66.5</v>
       </c>
       <c r="C16" t="n">
-        <v>67.64</v>
+        <v>67.5</v>
       </c>
       <c r="D16" t="n">
-        <v>67.64</v>
+        <v>67.5</v>
       </c>
       <c r="E16" t="n">
-        <v>67.64</v>
+        <v>66.5</v>
       </c>
       <c r="F16" t="n">
-        <v>1000</v>
+        <v>22722.17038683582</v>
       </c>
       <c r="G16" t="n">
-        <v>-56559.21320682606</v>
+        <v>-88389.17710682607</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -947,33 +1012,40 @@
         <v>0</v>
       </c>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>67</v>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M16" t="n">
         <v>1</v>
       </c>
+      <c r="N16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>68.48999999999999</v>
+        <v>67.5</v>
       </c>
       <c r="C17" t="n">
-        <v>68.59999999999999</v>
+        <v>67.89</v>
       </c>
       <c r="D17" t="n">
-        <v>68.59999999999999</v>
+        <v>67.89</v>
       </c>
       <c r="E17" t="n">
-        <v>68.48999999999999</v>
+        <v>67.5</v>
       </c>
       <c r="F17" t="n">
-        <v>2349.2716</v>
+        <v>347.324</v>
       </c>
       <c r="G17" t="n">
-        <v>-54209.94160682606</v>
+        <v>-88041.85310682608</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -982,33 +1054,40 @@
         <v>0</v>
       </c>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>67</v>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M17" t="n">
         <v>1</v>
       </c>
+      <c r="N17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>68.68000000000001</v>
+        <v>67.01000000000001</v>
       </c>
       <c r="C18" t="n">
-        <v>68.68000000000001</v>
+        <v>67</v>
       </c>
       <c r="D18" t="n">
-        <v>68.68000000000001</v>
+        <v>67.01000000000001</v>
       </c>
       <c r="E18" t="n">
-        <v>68.68000000000001</v>
+        <v>67</v>
       </c>
       <c r="F18" t="n">
-        <v>50.746</v>
+        <v>1625.3001</v>
       </c>
       <c r="G18" t="n">
-        <v>-54159.19560682606</v>
+        <v>-89667.15320682607</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1017,33 +1096,40 @@
         <v>0</v>
       </c>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>67</v>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M18" t="n">
         <v>1</v>
       </c>
+      <c r="N18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>67.63</v>
+        <v>67</v>
       </c>
       <c r="C19" t="n">
-        <v>67.63</v>
+        <v>67.01000000000001</v>
       </c>
       <c r="D19" t="n">
-        <v>67.63</v>
+        <v>67.01000000000001</v>
       </c>
       <c r="E19" t="n">
-        <v>67.63</v>
+        <v>67</v>
       </c>
       <c r="F19" t="n">
-        <v>7.3932</v>
+        <v>456.0044131641791</v>
       </c>
       <c r="G19" t="n">
-        <v>-54166.58880682606</v>
+        <v>-89211.14879366189</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1052,33 +1138,40 @@
         <v>0</v>
       </c>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>67</v>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M19" t="n">
         <v>1</v>
       </c>
+      <c r="N19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>67.67</v>
+        <v>67.01000000000001</v>
       </c>
       <c r="C20" t="n">
-        <v>67.67</v>
+        <v>67.01000000000001</v>
       </c>
       <c r="D20" t="n">
-        <v>67.67</v>
+        <v>67.01000000000001</v>
       </c>
       <c r="E20" t="n">
-        <v>67.67</v>
+        <v>67.01000000000001</v>
       </c>
       <c r="F20" t="n">
-        <v>7.3888</v>
+        <v>148</v>
       </c>
       <c r="G20" t="n">
-        <v>-54159.20000682606</v>
+        <v>-89211.14879366189</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1087,33 +1180,40 @@
         <v>0</v>
       </c>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>67</v>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M20" t="n">
         <v>1</v>
       </c>
+      <c r="N20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>67.7</v>
+        <v>67.01000000000001</v>
       </c>
       <c r="C21" t="n">
-        <v>67.7</v>
+        <v>67.90000000000001</v>
       </c>
       <c r="D21" t="n">
-        <v>67.7</v>
+        <v>67.90000000000001</v>
       </c>
       <c r="E21" t="n">
-        <v>67.7</v>
+        <v>67.01000000000001</v>
       </c>
       <c r="F21" t="n">
-        <v>345.008</v>
+        <v>8</v>
       </c>
       <c r="G21" t="n">
-        <v>-53814.19200682606</v>
+        <v>-89203.14879366189</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1122,33 +1222,40 @@
         <v>0</v>
       </c>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>67</v>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M21" t="n">
         <v>1</v>
       </c>
+      <c r="N21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>67.7</v>
+        <v>66.91</v>
       </c>
       <c r="C22" t="n">
-        <v>67.7</v>
+        <v>66.91</v>
       </c>
       <c r="D22" t="n">
-        <v>67.7</v>
+        <v>66.91</v>
       </c>
       <c r="E22" t="n">
-        <v>67.7</v>
+        <v>66.91</v>
       </c>
       <c r="F22" t="n">
-        <v>9036.7037</v>
+        <v>576</v>
       </c>
       <c r="G22" t="n">
-        <v>-53814.19200682606</v>
+        <v>-89779.14879366189</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1157,33 +1264,40 @@
         <v>0</v>
       </c>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>67</v>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M22" t="n">
         <v>1</v>
       </c>
+      <c r="N22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>67.63</v>
+        <v>66.91</v>
       </c>
       <c r="C23" t="n">
-        <v>66.3</v>
+        <v>66.91</v>
       </c>
       <c r="D23" t="n">
-        <v>67.63</v>
+        <v>66.91</v>
       </c>
       <c r="E23" t="n">
-        <v>66.25</v>
+        <v>66.91</v>
       </c>
       <c r="F23" t="n">
-        <v>38419.4045</v>
+        <v>267.369</v>
       </c>
       <c r="G23" t="n">
-        <v>-92233.59650682606</v>
+        <v>-89779.14879366189</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1192,33 +1306,40 @@
         <v>0</v>
       </c>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
+      <c r="K23" t="n">
+        <v>67</v>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M23" t="n">
         <v>1</v>
       </c>
+      <c r="N23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>66.7</v>
+        <v>66.91</v>
       </c>
       <c r="C24" t="n">
-        <v>66.7</v>
+        <v>67.90000000000001</v>
       </c>
       <c r="D24" t="n">
-        <v>66.7</v>
+        <v>67.90000000000001</v>
       </c>
       <c r="E24" t="n">
-        <v>66.7</v>
+        <v>66.91</v>
       </c>
       <c r="F24" t="n">
-        <v>10</v>
+        <v>721</v>
       </c>
       <c r="G24" t="n">
-        <v>-92223.59650682606</v>
+        <v>-89058.14879366189</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1227,33 +1348,40 @@
         <v>0</v>
       </c>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
+      <c r="K24" t="n">
+        <v>67</v>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M24" t="n">
         <v>1</v>
       </c>
+      <c r="N24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>67.79000000000001</v>
+        <v>67.01000000000001</v>
       </c>
       <c r="C25" t="n">
-        <v>67.79000000000001</v>
+        <v>67.01000000000001</v>
       </c>
       <c r="D25" t="n">
-        <v>67.79000000000001</v>
+        <v>67.01000000000001</v>
       </c>
       <c r="E25" t="n">
-        <v>67.79000000000001</v>
+        <v>67.01000000000001</v>
       </c>
       <c r="F25" t="n">
-        <v>10.8123</v>
+        <v>228.7706</v>
       </c>
       <c r="G25" t="n">
-        <v>-92212.78420682605</v>
+        <v>-89286.9193936619</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1262,33 +1390,40 @@
         <v>0</v>
       </c>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
+      <c r="K25" t="n">
+        <v>67</v>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M25" t="n">
         <v>1</v>
       </c>
+      <c r="N25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>67.79000000000001</v>
+        <v>67.01000000000001</v>
       </c>
       <c r="C26" t="n">
-        <v>67.79000000000001</v>
+        <v>67</v>
       </c>
       <c r="D26" t="n">
-        <v>67.79000000000001</v>
+        <v>67.01000000000001</v>
       </c>
       <c r="E26" t="n">
-        <v>67.79000000000001</v>
+        <v>67</v>
       </c>
       <c r="F26" t="n">
-        <v>11981.3927</v>
+        <v>1266.1127</v>
       </c>
       <c r="G26" t="n">
-        <v>-92212.78420682605</v>
+        <v>-90553.0320936619</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1297,33 +1432,40 @@
         <v>0</v>
       </c>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
+      <c r="K26" t="n">
+        <v>67</v>
+      </c>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M26" t="n">
         <v>1</v>
       </c>
+      <c r="N26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>67.88</v>
+        <v>67</v>
       </c>
       <c r="C27" t="n">
-        <v>67.88</v>
+        <v>67.90000000000001</v>
       </c>
       <c r="D27" t="n">
-        <v>67.88</v>
+        <v>67.90000000000001</v>
       </c>
       <c r="E27" t="n">
-        <v>67.88</v>
+        <v>67</v>
       </c>
       <c r="F27" t="n">
-        <v>84.8419</v>
+        <v>122.7761</v>
       </c>
       <c r="G27" t="n">
-        <v>-92127.94230682605</v>
+        <v>-90430.25599366189</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1332,33 +1474,40 @@
         <v>0</v>
       </c>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
+      <c r="K27" t="n">
+        <v>67</v>
+      </c>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M27" t="n">
         <v>1</v>
       </c>
+      <c r="N27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>67.59999999999999</v>
+        <v>66.91</v>
       </c>
       <c r="C28" t="n">
-        <v>67.59999999999999</v>
+        <v>66.91</v>
       </c>
       <c r="D28" t="n">
-        <v>67.59999999999999</v>
+        <v>66.91</v>
       </c>
       <c r="E28" t="n">
-        <v>67.59999999999999</v>
+        <v>66.91</v>
       </c>
       <c r="F28" t="n">
-        <v>64.6349</v>
+        <v>373</v>
       </c>
       <c r="G28" t="n">
-        <v>-92192.57720682606</v>
+        <v>-90803.25599366189</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1367,11 +1516,18 @@
         <v>0</v>
       </c>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
+      <c r="K28" t="n">
+        <v>67</v>
+      </c>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M28" t="n">
         <v>1</v>
       </c>
+      <c r="N28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1390,10 +1546,10 @@
         <v>67.90000000000001</v>
       </c>
       <c r="F29" t="n">
-        <v>8.4648</v>
+        <v>8</v>
       </c>
       <c r="G29" t="n">
-        <v>-92184.11240682605</v>
+        <v>-90795.25599366189</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1402,33 +1558,40 @@
         <v>0</v>
       </c>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
+      <c r="K29" t="n">
+        <v>67</v>
+      </c>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M29" t="n">
         <v>1</v>
       </c>
+      <c r="N29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>67.59999999999999</v>
+        <v>66.91</v>
       </c>
       <c r="C30" t="n">
-        <v>67.59999999999999</v>
+        <v>66.70999999999999</v>
       </c>
       <c r="D30" t="n">
-        <v>67.59999999999999</v>
+        <v>66.91</v>
       </c>
       <c r="E30" t="n">
-        <v>67.59999999999999</v>
+        <v>66.70999999999999</v>
       </c>
       <c r="F30" t="n">
-        <v>9</v>
+        <v>9296.9447</v>
       </c>
       <c r="G30" t="n">
-        <v>-92193.11240682605</v>
+        <v>-100092.2006936619</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1437,33 +1600,40 @@
         <v>0</v>
       </c>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
+      <c r="K30" t="n">
+        <v>67</v>
+      </c>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M30" t="n">
         <v>1</v>
       </c>
+      <c r="N30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>67.59999999999999</v>
+        <v>66.70999999999999</v>
       </c>
       <c r="C31" t="n">
-        <v>67.5</v>
+        <v>66.70999999999999</v>
       </c>
       <c r="D31" t="n">
-        <v>67.59999999999999</v>
+        <v>66.70999999999999</v>
       </c>
       <c r="E31" t="n">
-        <v>67.5</v>
+        <v>66.70999999999999</v>
       </c>
       <c r="F31" t="n">
-        <v>5611</v>
+        <v>321</v>
       </c>
       <c r="G31" t="n">
-        <v>-97804.11240682605</v>
+        <v>-100092.2006936619</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1472,33 +1642,40 @@
         <v>0</v>
       </c>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
+      <c r="K31" t="n">
+        <v>67</v>
+      </c>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M31" t="n">
         <v>1</v>
       </c>
+      <c r="N31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>67.8</v>
+        <v>66.90000000000001</v>
       </c>
       <c r="C32" t="n">
-        <v>67.5</v>
+        <v>66.90000000000001</v>
       </c>
       <c r="D32" t="n">
-        <v>67.8</v>
+        <v>66.90000000000001</v>
       </c>
       <c r="E32" t="n">
-        <v>67.5</v>
+        <v>66.90000000000001</v>
       </c>
       <c r="F32" t="n">
-        <v>8000.8561</v>
+        <v>0.0004</v>
       </c>
       <c r="G32" t="n">
-        <v>-97804.11240682605</v>
+        <v>-100092.2002936619</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1507,33 +1684,40 @@
         <v>0</v>
       </c>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
+      <c r="K32" t="n">
+        <v>67</v>
+      </c>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M32" t="n">
         <v>1</v>
       </c>
+      <c r="N32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>67.5</v>
+        <v>67.77</v>
       </c>
       <c r="C33" t="n">
-        <v>67.5</v>
+        <v>67.77</v>
       </c>
       <c r="D33" t="n">
-        <v>67.5</v>
+        <v>67.77</v>
       </c>
       <c r="E33" t="n">
-        <v>67.5</v>
+        <v>67.77</v>
       </c>
       <c r="F33" t="n">
-        <v>9.7859</v>
+        <v>32.6012</v>
       </c>
       <c r="G33" t="n">
-        <v>-97804.11240682605</v>
+        <v>-100059.5990936619</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1542,33 +1726,40 @@
         <v>0</v>
       </c>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
+      <c r="K33" t="n">
+        <v>67</v>
+      </c>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M33" t="n">
         <v>1</v>
       </c>
+      <c r="N33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>67.5</v>
+        <v>66.90000000000001</v>
       </c>
       <c r="C34" t="n">
-        <v>67.5</v>
+        <v>66.5</v>
       </c>
       <c r="D34" t="n">
-        <v>67.5</v>
+        <v>66.90000000000001</v>
       </c>
       <c r="E34" t="n">
-        <v>67.5</v>
+        <v>66.5</v>
       </c>
       <c r="F34" t="n">
-        <v>30</v>
+        <v>3217.851</v>
       </c>
       <c r="G34" t="n">
-        <v>-97804.11240682605</v>
+        <v>-103277.4500936619</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1577,33 +1768,40 @@
         <v>0</v>
       </c>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
+      <c r="K34" t="n">
+        <v>67</v>
+      </c>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M34" t="n">
         <v>1</v>
       </c>
+      <c r="N34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>67.5</v>
+        <v>66.5</v>
       </c>
       <c r="C35" t="n">
-        <v>67.5</v>
+        <v>66.5</v>
       </c>
       <c r="D35" t="n">
-        <v>67.5</v>
+        <v>66.5</v>
       </c>
       <c r="E35" t="n">
-        <v>67.5</v>
+        <v>66.5</v>
       </c>
       <c r="F35" t="n">
-        <v>682.63</v>
+        <v>371.6554</v>
       </c>
       <c r="G35" t="n">
-        <v>-97804.11240682605</v>
+        <v>-103277.4500936619</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1612,33 +1810,40 @@
         <v>0</v>
       </c>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
+      <c r="K35" t="n">
+        <v>67</v>
+      </c>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M35" t="n">
         <v>1</v>
       </c>
+      <c r="N35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>67.09</v>
+        <v>67.69</v>
       </c>
       <c r="C36" t="n">
-        <v>66.90000000000001</v>
+        <v>67.69</v>
       </c>
       <c r="D36" t="n">
-        <v>67.09</v>
+        <v>67.69</v>
       </c>
       <c r="E36" t="n">
-        <v>66.90000000000001</v>
+        <v>67.69</v>
       </c>
       <c r="F36" t="n">
-        <v>457.0939</v>
+        <v>10</v>
       </c>
       <c r="G36" t="n">
-        <v>-98261.20630682606</v>
+        <v>-103267.4500936619</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1647,33 +1852,40 @@
         <v>0</v>
       </c>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
+      <c r="K36" t="n">
+        <v>67</v>
+      </c>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M36" t="n">
         <v>1</v>
       </c>
+      <c r="N36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>67.09999999999999</v>
+        <v>67.69</v>
       </c>
       <c r="C37" t="n">
-        <v>67</v>
+        <v>67.69</v>
       </c>
       <c r="D37" t="n">
-        <v>67.09999999999999</v>
+        <v>67.69</v>
       </c>
       <c r="E37" t="n">
-        <v>67</v>
+        <v>67.69</v>
       </c>
       <c r="F37" t="n">
-        <v>10745.0144</v>
+        <v>8</v>
       </c>
       <c r="G37" t="n">
-        <v>-87516.19190682606</v>
+        <v>-103267.4500936619</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1682,33 +1894,40 @@
         <v>0</v>
       </c>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
+      <c r="K37" t="n">
+        <v>67</v>
+      </c>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M37" t="n">
         <v>1</v>
       </c>
+      <c r="N37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>66.81</v>
+        <v>67.3</v>
       </c>
       <c r="C38" t="n">
-        <v>66.81</v>
+        <v>66.88</v>
       </c>
       <c r="D38" t="n">
-        <v>66.81</v>
+        <v>67.3</v>
       </c>
       <c r="E38" t="n">
-        <v>66.81</v>
+        <v>66.88</v>
       </c>
       <c r="F38" t="n">
-        <v>209.5159</v>
+        <v>298.9529</v>
       </c>
       <c r="G38" t="n">
-        <v>-87725.70780682606</v>
+        <v>-103566.4029936619</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1717,33 +1936,40 @@
         <v>0</v>
       </c>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr"/>
+      <c r="K38" t="n">
+        <v>67</v>
+      </c>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M38" t="n">
         <v>1</v>
       </c>
+      <c r="N38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>66.70999999999999</v>
+        <v>66.5</v>
       </c>
       <c r="C39" t="n">
-        <v>66.70999999999999</v>
+        <v>66.5</v>
       </c>
       <c r="D39" t="n">
-        <v>66.70999999999999</v>
+        <v>66.5</v>
       </c>
       <c r="E39" t="n">
-        <v>66.70999999999999</v>
+        <v>66.5</v>
       </c>
       <c r="F39" t="n">
-        <v>7015.4754</v>
+        <v>8</v>
       </c>
       <c r="G39" t="n">
-        <v>-94741.18320682606</v>
+        <v>-103574.4029936619</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1752,33 +1978,40 @@
         <v>0</v>
       </c>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
+      <c r="K39" t="n">
+        <v>67</v>
+      </c>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M39" t="n">
         <v>1</v>
       </c>
+      <c r="N39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>67.79000000000001</v>
+        <v>66.88</v>
       </c>
       <c r="C40" t="n">
-        <v>67.79000000000001</v>
+        <v>67.3</v>
       </c>
       <c r="D40" t="n">
-        <v>67.79000000000001</v>
+        <v>67.3</v>
       </c>
       <c r="E40" t="n">
-        <v>67.79000000000001</v>
+        <v>66.88</v>
       </c>
       <c r="F40" t="n">
-        <v>30.9781</v>
+        <v>154.2345</v>
       </c>
       <c r="G40" t="n">
-        <v>-94710.20510682606</v>
+        <v>-103420.1684936619</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -1787,68 +2020,84 @@
         <v>0</v>
       </c>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
+      <c r="K40" t="n">
+        <v>67</v>
+      </c>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M40" t="n">
         <v>1</v>
       </c>
+      <c r="N40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>66.81999999999999</v>
+        <v>67</v>
       </c>
       <c r="C41" t="n">
-        <v>66.81999999999999</v>
+        <v>67.69</v>
       </c>
       <c r="D41" t="n">
-        <v>66.81999999999999</v>
+        <v>67.69</v>
       </c>
       <c r="E41" t="n">
-        <v>66.81999999999999</v>
+        <v>67</v>
       </c>
       <c r="F41" t="n">
-        <v>296.3588</v>
+        <v>196.8885</v>
       </c>
       <c r="G41" t="n">
-        <v>-95006.56390682606</v>
+        <v>-103223.2799936619</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
-      <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
+      <c r="J41" t="n">
+        <v>67.3</v>
+      </c>
+      <c r="K41" t="n">
+        <v>67</v>
+      </c>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M41" t="n">
         <v>1</v>
       </c>
+      <c r="N41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>66.83</v>
+        <v>66.61</v>
       </c>
       <c r="C42" t="n">
-        <v>66.83</v>
+        <v>66.36</v>
       </c>
       <c r="D42" t="n">
-        <v>66.83</v>
+        <v>66.61</v>
       </c>
       <c r="E42" t="n">
-        <v>66.83</v>
+        <v>66.36</v>
       </c>
       <c r="F42" t="n">
-        <v>233.4349</v>
+        <v>5996.6585</v>
       </c>
       <c r="G42" t="n">
-        <v>-94773.12900682607</v>
+        <v>-109219.9384936619</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -1857,33 +2106,40 @@
         <v>0</v>
       </c>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr"/>
+      <c r="K42" t="n">
+        <v>67</v>
+      </c>
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M42" t="n">
         <v>1</v>
       </c>
+      <c r="N42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>66.72</v>
+        <v>66.36</v>
       </c>
       <c r="C43" t="n">
-        <v>66.70999999999999</v>
+        <v>66.36</v>
       </c>
       <c r="D43" t="n">
-        <v>66.72</v>
+        <v>66.36</v>
       </c>
       <c r="E43" t="n">
-        <v>66.70999999999999</v>
+        <v>66.36</v>
       </c>
       <c r="F43" t="n">
-        <v>1820.3669</v>
+        <v>1145.1453</v>
       </c>
       <c r="G43" t="n">
-        <v>-96593.49590682607</v>
+        <v>-109219.9384936619</v>
       </c>
       <c r="H43" t="n">
         <v>1</v>
@@ -1892,48 +2148,55 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>66.83</v>
-      </c>
-      <c r="K43" t="inlineStr"/>
+        <v>66.36</v>
+      </c>
+      <c r="K43" t="n">
+        <v>67</v>
+      </c>
       <c r="L43" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M43" t="n">
         <v>1</v>
       </c>
+      <c r="N43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>66.5</v>
+        <v>66.41</v>
       </c>
       <c r="C44" t="n">
-        <v>66.5</v>
+        <v>66.41</v>
       </c>
       <c r="D44" t="n">
-        <v>66.5</v>
+        <v>66.41</v>
       </c>
       <c r="E44" t="n">
-        <v>66.5</v>
+        <v>66.41</v>
       </c>
       <c r="F44" t="n">
-        <v>946.2756000000001</v>
+        <v>8</v>
       </c>
       <c r="G44" t="n">
-        <v>-97539.77150682606</v>
+        <v>-109211.9384936619</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
-      <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
+      <c r="J44" t="n">
+        <v>66.36</v>
+      </c>
+      <c r="K44" t="n">
+        <v>67</v>
+      </c>
       <c r="L44" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1942,37 +2205,42 @@
       <c r="M44" t="n">
         <v>1</v>
       </c>
+      <c r="N44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>66.61</v>
+        <v>67.40000000000001</v>
       </c>
       <c r="C45" t="n">
-        <v>67</v>
+        <v>67.40000000000001</v>
       </c>
       <c r="D45" t="n">
-        <v>67</v>
+        <v>67.40000000000001</v>
       </c>
       <c r="E45" t="n">
-        <v>66.61</v>
+        <v>67.40000000000001</v>
       </c>
       <c r="F45" t="n">
-        <v>110</v>
+        <v>10.1499</v>
       </c>
       <c r="G45" t="n">
-        <v>-97429.77150682606</v>
+        <v>-109201.7885936619</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
-      <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
+      <c r="J45" t="n">
+        <v>66.41</v>
+      </c>
+      <c r="K45" t="n">
+        <v>67</v>
+      </c>
       <c r="L45" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1981,37 +2249,42 @@
       <c r="M45" t="n">
         <v>1</v>
       </c>
+      <c r="N45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>66.61</v>
+        <v>66.42</v>
       </c>
       <c r="C46" t="n">
-        <v>66.5</v>
+        <v>67.59999999999999</v>
       </c>
       <c r="D46" t="n">
-        <v>66.61</v>
+        <v>67.59999999999999</v>
       </c>
       <c r="E46" t="n">
-        <v>66.5</v>
+        <v>66.42</v>
       </c>
       <c r="F46" t="n">
-        <v>3274.2907</v>
+        <v>15.8606</v>
       </c>
       <c r="G46" t="n">
-        <v>-100704.0622068261</v>
+        <v>-109185.9279936619</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
       </c>
-      <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
+      <c r="J46" t="n">
+        <v>67.40000000000001</v>
+      </c>
+      <c r="K46" t="n">
+        <v>67</v>
+      </c>
       <c r="L46" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2020,28 +2293,29 @@
       <c r="M46" t="n">
         <v>1</v>
       </c>
+      <c r="N46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>66.5</v>
+        <v>66.43000000000001</v>
       </c>
       <c r="C47" t="n">
-        <v>66.5</v>
+        <v>66.40000000000001</v>
       </c>
       <c r="D47" t="n">
-        <v>66.5</v>
+        <v>66.43000000000001</v>
       </c>
       <c r="E47" t="n">
-        <v>66.5</v>
+        <v>66.40000000000001</v>
       </c>
       <c r="F47" t="n">
-        <v>8150.3999</v>
+        <v>1076.6345</v>
       </c>
       <c r="G47" t="n">
-        <v>-100704.0622068261</v>
+        <v>-110262.5624936619</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2050,7 +2324,9 @@
         <v>0</v>
       </c>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
+      <c r="K47" t="n">
+        <v>67</v>
+      </c>
       <c r="L47" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2059,37 +2335,42 @@
       <c r="M47" t="n">
         <v>1</v>
       </c>
+      <c r="N47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>66.58</v>
+        <v>67.59</v>
       </c>
       <c r="C48" t="n">
-        <v>66.58</v>
+        <v>67.59</v>
       </c>
       <c r="D48" t="n">
-        <v>66.58</v>
+        <v>67.59</v>
       </c>
       <c r="E48" t="n">
-        <v>66.58</v>
+        <v>67.59</v>
       </c>
       <c r="F48" t="n">
-        <v>88.9221</v>
+        <v>221.9263204616067</v>
       </c>
       <c r="G48" t="n">
-        <v>-100615.1401068261</v>
+        <v>-110040.6361732003</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I48" t="n">
         <v>0</v>
       </c>
-      <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
+      <c r="J48" t="n">
+        <v>66.40000000000001</v>
+      </c>
+      <c r="K48" t="n">
+        <v>67</v>
+      </c>
       <c r="L48" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2098,37 +2379,42 @@
       <c r="M48" t="n">
         <v>1</v>
       </c>
+      <c r="N48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>66.5</v>
+        <v>66.37</v>
       </c>
       <c r="C49" t="n">
-        <v>66.31</v>
+        <v>66.37</v>
       </c>
       <c r="D49" t="n">
-        <v>66.5</v>
+        <v>66.37</v>
       </c>
       <c r="E49" t="n">
-        <v>66.31</v>
+        <v>66.37</v>
       </c>
       <c r="F49" t="n">
-        <v>4909</v>
+        <v>1572</v>
       </c>
       <c r="G49" t="n">
-        <v>-105524.1401068261</v>
+        <v>-111612.6361732003</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I49" t="n">
         <v>0</v>
       </c>
-      <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
+      <c r="J49" t="n">
+        <v>67.59</v>
+      </c>
+      <c r="K49" t="n">
+        <v>67</v>
+      </c>
       <c r="L49" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2137,37 +2423,42 @@
       <c r="M49" t="n">
         <v>1</v>
       </c>
+      <c r="N49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>66.31</v>
+        <v>66.38</v>
       </c>
       <c r="C50" t="n">
-        <v>67</v>
+        <v>66.38</v>
       </c>
       <c r="D50" t="n">
-        <v>67</v>
+        <v>66.38</v>
       </c>
       <c r="E50" t="n">
-        <v>66.31</v>
+        <v>66.38</v>
       </c>
       <c r="F50" t="n">
-        <v>3821.199213164179</v>
+        <v>251</v>
       </c>
       <c r="G50" t="n">
-        <v>-101702.9408936619</v>
+        <v>-111361.6361732003</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I50" t="n">
         <v>0</v>
       </c>
-      <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
+      <c r="J50" t="n">
+        <v>66.37</v>
+      </c>
+      <c r="K50" t="n">
+        <v>67</v>
+      </c>
       <c r="L50" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2176,37 +2467,42 @@
       <c r="M50" t="n">
         <v>1</v>
       </c>
+      <c r="N50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>66.31</v>
+        <v>66.38</v>
       </c>
       <c r="C51" t="n">
-        <v>66.31</v>
+        <v>66.38</v>
       </c>
       <c r="D51" t="n">
-        <v>66.31</v>
+        <v>66.38</v>
       </c>
       <c r="E51" t="n">
-        <v>66.31</v>
+        <v>66.38</v>
       </c>
       <c r="F51" t="n">
-        <v>5675.4762</v>
+        <v>979</v>
       </c>
       <c r="G51" t="n">
-        <v>-107378.4170936619</v>
+        <v>-111361.6361732003</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I51" t="n">
         <v>0</v>
       </c>
-      <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
+      <c r="J51" t="n">
+        <v>66.38</v>
+      </c>
+      <c r="K51" t="n">
+        <v>67</v>
+      </c>
       <c r="L51" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2215,37 +2511,42 @@
       <c r="M51" t="n">
         <v>1</v>
       </c>
+      <c r="N51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>66.31</v>
+        <v>66.39</v>
       </c>
       <c r="C52" t="n">
-        <v>66.31</v>
+        <v>66.39</v>
       </c>
       <c r="D52" t="n">
-        <v>66.31</v>
+        <v>66.39</v>
       </c>
       <c r="E52" t="n">
-        <v>66.31</v>
+        <v>66.39</v>
       </c>
       <c r="F52" t="n">
-        <v>1386</v>
+        <v>175.0906</v>
       </c>
       <c r="G52" t="n">
-        <v>-107378.4170936619</v>
+        <v>-111186.5455732003</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I52" t="n">
         <v>0</v>
       </c>
-      <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
+      <c r="J52" t="n">
+        <v>66.38</v>
+      </c>
+      <c r="K52" t="n">
+        <v>67</v>
+      </c>
       <c r="L52" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2254,28 +2555,29 @@
       <c r="M52" t="n">
         <v>1</v>
       </c>
+      <c r="N52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>66.31</v>
+        <v>66.39</v>
       </c>
       <c r="C53" t="n">
-        <v>66.3</v>
+        <v>66.39</v>
       </c>
       <c r="D53" t="n">
-        <v>66.31</v>
+        <v>66.39</v>
       </c>
       <c r="E53" t="n">
-        <v>66.3</v>
+        <v>66.39</v>
       </c>
       <c r="F53" t="n">
-        <v>10647.3702</v>
+        <v>1419.2274</v>
       </c>
       <c r="G53" t="n">
-        <v>-118025.7872936619</v>
+        <v>-111186.5455732003</v>
       </c>
       <c r="H53" t="n">
         <v>1</v>
@@ -2284,9 +2586,11 @@
         <v>0</v>
       </c>
       <c r="J53" t="n">
-        <v>66.31</v>
-      </c>
-      <c r="K53" t="inlineStr"/>
+        <v>66.39</v>
+      </c>
+      <c r="K53" t="n">
+        <v>67</v>
+      </c>
       <c r="L53" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2295,37 +2599,42 @@
       <c r="M53" t="n">
         <v>1</v>
       </c>
+      <c r="N53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>66.31</v>
+        <v>66.59999999999999</v>
       </c>
       <c r="C54" t="n">
-        <v>66.31</v>
+        <v>66.59999999999999</v>
       </c>
       <c r="D54" t="n">
-        <v>66.31</v>
+        <v>66.59999999999999</v>
       </c>
       <c r="E54" t="n">
-        <v>66.31</v>
+        <v>66.59999999999999</v>
       </c>
       <c r="F54" t="n">
-        <v>4864.2528</v>
+        <v>59.352</v>
       </c>
       <c r="G54" t="n">
-        <v>-113161.5344936619</v>
+        <v>-111127.1935732003</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I54" t="n">
         <v>0</v>
       </c>
-      <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
+      <c r="J54" t="n">
+        <v>66.39</v>
+      </c>
+      <c r="K54" t="n">
+        <v>67</v>
+      </c>
       <c r="L54" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2334,37 +2643,42 @@
       <c r="M54" t="n">
         <v>1</v>
       </c>
+      <c r="N54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>66.36</v>
+        <v>66.59999999999999</v>
       </c>
       <c r="C55" t="n">
-        <v>66.36</v>
+        <v>66.41</v>
       </c>
       <c r="D55" t="n">
-        <v>66.36</v>
+        <v>66.59999999999999</v>
       </c>
       <c r="E55" t="n">
-        <v>66.36</v>
+        <v>66.41</v>
       </c>
       <c r="F55" t="n">
-        <v>1000</v>
+        <v>13773.3341</v>
       </c>
       <c r="G55" t="n">
-        <v>-112161.5344936619</v>
+        <v>-124900.5276732003</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I55" t="n">
         <v>0</v>
       </c>
-      <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
+      <c r="J55" t="n">
+        <v>66.59999999999999</v>
+      </c>
+      <c r="K55" t="n">
+        <v>67</v>
+      </c>
       <c r="L55" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2373,13 +2687,14 @@
       <c r="M55" t="n">
         <v>1</v>
       </c>
+      <c r="N55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>66.36</v>
+        <v>66.5</v>
       </c>
       <c r="C56" t="n">
         <v>66.5</v>
@@ -2388,22 +2703,26 @@
         <v>66.5</v>
       </c>
       <c r="E56" t="n">
-        <v>66.36</v>
+        <v>66.5</v>
       </c>
       <c r="F56" t="n">
-        <v>1100</v>
+        <v>8</v>
       </c>
       <c r="G56" t="n">
-        <v>-111061.5344936619</v>
+        <v>-124892.5276732003</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I56" t="n">
         <v>0</v>
       </c>
-      <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
+      <c r="J56" t="n">
+        <v>66.41</v>
+      </c>
+      <c r="K56" t="n">
+        <v>67</v>
+      </c>
       <c r="L56" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2412,37 +2731,42 @@
       <c r="M56" t="n">
         <v>1</v>
       </c>
+      <c r="N56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>66.36</v>
+        <v>66.5</v>
       </c>
       <c r="C57" t="n">
-        <v>66.36</v>
+        <v>66.41</v>
       </c>
       <c r="D57" t="n">
-        <v>66.36</v>
+        <v>66.5</v>
       </c>
       <c r="E57" t="n">
-        <v>66.36</v>
+        <v>66.41</v>
       </c>
       <c r="F57" t="n">
-        <v>49.813</v>
+        <v>132.0308</v>
       </c>
       <c r="G57" t="n">
-        <v>-111111.3474936619</v>
+        <v>-125024.5584732003</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I57" t="n">
         <v>0</v>
       </c>
-      <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
+      <c r="J57" t="n">
+        <v>66.5</v>
+      </c>
+      <c r="K57" t="n">
+        <v>67</v>
+      </c>
       <c r="L57" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2451,6 +2775,7 @@
       <c r="M57" t="n">
         <v>1</v>
       </c>
+      <c r="N57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2460,28 +2785,32 @@
         <v>66.5</v>
       </c>
       <c r="C58" t="n">
-        <v>67.5</v>
+        <v>66.41</v>
       </c>
       <c r="D58" t="n">
-        <v>67.5</v>
+        <v>67</v>
       </c>
       <c r="E58" t="n">
-        <v>66.5</v>
+        <v>66.41</v>
       </c>
       <c r="F58" t="n">
-        <v>22722.17038683582</v>
+        <v>461.4465728358209</v>
       </c>
       <c r="G58" t="n">
-        <v>-88389.17710682607</v>
+        <v>-125024.5584732003</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I58" t="n">
         <v>0</v>
       </c>
-      <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
+      <c r="J58" t="n">
+        <v>66.41</v>
+      </c>
+      <c r="K58" t="n">
+        <v>67</v>
+      </c>
       <c r="L58" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2490,37 +2819,42 @@
       <c r="M58" t="n">
         <v>1</v>
       </c>
+      <c r="N58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>67.5</v>
+        <v>66.42</v>
       </c>
       <c r="C59" t="n">
-        <v>67.89</v>
+        <v>66.42</v>
       </c>
       <c r="D59" t="n">
-        <v>67.89</v>
+        <v>66.42</v>
       </c>
       <c r="E59" t="n">
-        <v>67.5</v>
+        <v>66.42</v>
       </c>
       <c r="F59" t="n">
-        <v>347.324</v>
+        <v>18.18</v>
       </c>
       <c r="G59" t="n">
-        <v>-88041.85310682608</v>
+        <v>-125006.3784732003</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I59" t="n">
         <v>0</v>
       </c>
-      <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
+      <c r="J59" t="n">
+        <v>66.41</v>
+      </c>
+      <c r="K59" t="n">
+        <v>67</v>
+      </c>
       <c r="L59" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2529,37 +2863,42 @@
       <c r="M59" t="n">
         <v>1</v>
       </c>
+      <c r="N59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>67.01000000000001</v>
+        <v>66.98999999999999</v>
       </c>
       <c r="C60" t="n">
         <v>67</v>
       </c>
       <c r="D60" t="n">
-        <v>67.01000000000001</v>
+        <v>67</v>
       </c>
       <c r="E60" t="n">
-        <v>67</v>
+        <v>66.98999999999999</v>
       </c>
       <c r="F60" t="n">
-        <v>1625.3001</v>
+        <v>20</v>
       </c>
       <c r="G60" t="n">
-        <v>-89667.15320682607</v>
+        <v>-124986.3784732003</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I60" t="n">
         <v>0</v>
       </c>
-      <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
+      <c r="J60" t="n">
+        <v>66.42</v>
+      </c>
+      <c r="K60" t="n">
+        <v>67</v>
+      </c>
       <c r="L60" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2568,37 +2907,42 @@
       <c r="M60" t="n">
         <v>1</v>
       </c>
+      <c r="N60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>67</v>
+        <v>66.98999999999999</v>
       </c>
       <c r="C61" t="n">
-        <v>67.01000000000001</v>
+        <v>66.98999999999999</v>
       </c>
       <c r="D61" t="n">
-        <v>67.01000000000001</v>
+        <v>66.98999999999999</v>
       </c>
       <c r="E61" t="n">
-        <v>67</v>
+        <v>66.98999999999999</v>
       </c>
       <c r="F61" t="n">
-        <v>456.0044131641791</v>
+        <v>153.6305</v>
       </c>
       <c r="G61" t="n">
-        <v>-89211.14879366189</v>
+        <v>-125140.0089732003</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I61" t="n">
         <v>0</v>
       </c>
-      <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
+      <c r="J61" t="n">
+        <v>67</v>
+      </c>
+      <c r="K61" t="n">
+        <v>67</v>
+      </c>
       <c r="L61" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2607,28 +2951,29 @@
       <c r="M61" t="n">
         <v>1</v>
       </c>
+      <c r="N61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>67.01000000000001</v>
+        <v>66.59999999999999</v>
       </c>
       <c r="C62" t="n">
-        <v>67.01000000000001</v>
+        <v>66.59999999999999</v>
       </c>
       <c r="D62" t="n">
-        <v>67.01000000000001</v>
+        <v>66.59999999999999</v>
       </c>
       <c r="E62" t="n">
-        <v>67.01000000000001</v>
+        <v>66.59999999999999</v>
       </c>
       <c r="F62" t="n">
-        <v>148</v>
+        <v>1750</v>
       </c>
       <c r="G62" t="n">
-        <v>-89211.14879366189</v>
+        <v>-126890.0089732003</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2637,7 +2982,9 @@
         <v>0</v>
       </c>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
+      <c r="K62" t="n">
+        <v>67</v>
+      </c>
       <c r="L62" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2646,28 +2993,29 @@
       <c r="M62" t="n">
         <v>1</v>
       </c>
+      <c r="N62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>67.01000000000001</v>
+        <v>66.98999999999999</v>
       </c>
       <c r="C63" t="n">
-        <v>67.90000000000001</v>
+        <v>66.98999999999999</v>
       </c>
       <c r="D63" t="n">
-        <v>67.90000000000001</v>
+        <v>66.98999999999999</v>
       </c>
       <c r="E63" t="n">
-        <v>67.01000000000001</v>
+        <v>66.98999999999999</v>
       </c>
       <c r="F63" t="n">
-        <v>8</v>
+        <v>298.5521</v>
       </c>
       <c r="G63" t="n">
-        <v>-89203.14879366189</v>
+        <v>-126591.4568732003</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2676,7 +3024,9 @@
         <v>0</v>
       </c>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
+      <c r="K63" t="n">
+        <v>67</v>
+      </c>
       <c r="L63" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2685,28 +3035,29 @@
       <c r="M63" t="n">
         <v>1</v>
       </c>
+      <c r="N63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>66.91</v>
+        <v>66.98999999999999</v>
       </c>
       <c r="C64" t="n">
-        <v>66.91</v>
+        <v>67</v>
       </c>
       <c r="D64" t="n">
-        <v>66.91</v>
+        <v>67</v>
       </c>
       <c r="E64" t="n">
-        <v>66.91</v>
+        <v>66.98999999999999</v>
       </c>
       <c r="F64" t="n">
-        <v>576</v>
+        <v>504.0863</v>
       </c>
       <c r="G64" t="n">
-        <v>-89779.14879366189</v>
+        <v>-126087.3705732003</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2715,7 +3066,9 @@
         <v>0</v>
       </c>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
+      <c r="K64" t="n">
+        <v>67</v>
+      </c>
       <c r="L64" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2724,28 +3077,29 @@
       <c r="M64" t="n">
         <v>1</v>
       </c>
+      <c r="N64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>66.91</v>
+        <v>66.59999999999999</v>
       </c>
       <c r="C65" t="n">
-        <v>66.91</v>
+        <v>66.59999999999999</v>
       </c>
       <c r="D65" t="n">
-        <v>66.91</v>
+        <v>66.59999999999999</v>
       </c>
       <c r="E65" t="n">
-        <v>66.91</v>
+        <v>66.59999999999999</v>
       </c>
       <c r="F65" t="n">
-        <v>267.369</v>
+        <v>235.4609</v>
       </c>
       <c r="G65" t="n">
-        <v>-89779.14879366189</v>
+        <v>-126322.8314732003</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2754,7 +3108,9 @@
         <v>0</v>
       </c>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
+      <c r="K65" t="n">
+        <v>67</v>
+      </c>
       <c r="L65" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2763,28 +3119,29 @@
       <c r="M65" t="n">
         <v>1</v>
       </c>
+      <c r="N65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>66.91</v>
+        <v>66.59999999999999</v>
       </c>
       <c r="C66" t="n">
-        <v>67.90000000000001</v>
+        <v>66.5</v>
       </c>
       <c r="D66" t="n">
-        <v>67.90000000000001</v>
+        <v>66.59999999999999</v>
       </c>
       <c r="E66" t="n">
-        <v>66.91</v>
+        <v>66.5</v>
       </c>
       <c r="F66" t="n">
-        <v>721</v>
+        <v>2082.1879</v>
       </c>
       <c r="G66" t="n">
-        <v>-89058.14879366189</v>
+        <v>-128405.0193732003</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -2793,7 +3150,9 @@
         <v>0</v>
       </c>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
+      <c r="K66" t="n">
+        <v>67</v>
+      </c>
       <c r="L66" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2802,28 +3161,29 @@
       <c r="M66" t="n">
         <v>1</v>
       </c>
+      <c r="N66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>67.01000000000001</v>
+        <v>67</v>
       </c>
       <c r="C67" t="n">
-        <v>67.01000000000001</v>
+        <v>67.5</v>
       </c>
       <c r="D67" t="n">
-        <v>67.01000000000001</v>
+        <v>67.5</v>
       </c>
       <c r="E67" t="n">
-        <v>67.01000000000001</v>
+        <v>67</v>
       </c>
       <c r="F67" t="n">
-        <v>228.7706</v>
+        <v>10826.22562716418</v>
       </c>
       <c r="G67" t="n">
-        <v>-89286.9193936619</v>
+        <v>-117578.7937460361</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -2832,7 +3192,9 @@
         <v>0</v>
       </c>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
+      <c r="K67" t="n">
+        <v>67</v>
+      </c>
       <c r="L67" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2841,28 +3203,29 @@
       <c r="M67" t="n">
         <v>1</v>
       </c>
+      <c r="N67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>67.01000000000001</v>
+        <v>67.59</v>
       </c>
       <c r="C68" t="n">
-        <v>67</v>
+        <v>67.77</v>
       </c>
       <c r="D68" t="n">
-        <v>67.01000000000001</v>
+        <v>67.77</v>
       </c>
       <c r="E68" t="n">
-        <v>67</v>
+        <v>67.59</v>
       </c>
       <c r="F68" t="n">
-        <v>1266.1127</v>
+        <v>970.7875</v>
       </c>
       <c r="G68" t="n">
-        <v>-90553.0320936619</v>
+        <v>-116608.0062460361</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -2871,7 +3234,9 @@
         <v>0</v>
       </c>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
+      <c r="K68" t="n">
+        <v>67</v>
+      </c>
       <c r="L68" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2880,13 +3245,14 @@
       <c r="M68" t="n">
         <v>1</v>
       </c>
+      <c r="N68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>67</v>
+        <v>67.8</v>
       </c>
       <c r="C69" t="n">
         <v>67.90000000000001</v>
@@ -2895,13 +3261,13 @@
         <v>67.90000000000001</v>
       </c>
       <c r="E69" t="n">
-        <v>67</v>
+        <v>67.8</v>
       </c>
       <c r="F69" t="n">
-        <v>122.7761</v>
+        <v>34049.65948683582</v>
       </c>
       <c r="G69" t="n">
-        <v>-90430.25599366189</v>
+        <v>-82558.3467592003</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -2910,7 +3276,9 @@
         <v>0</v>
       </c>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
+      <c r="K69" t="n">
+        <v>67</v>
+      </c>
       <c r="L69" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2919,28 +3287,29 @@
       <c r="M69" t="n">
         <v>1</v>
       </c>
+      <c r="N69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>66.91</v>
+        <v>68.59999999999999</v>
       </c>
       <c r="C70" t="n">
-        <v>66.91</v>
+        <v>68.59999999999999</v>
       </c>
       <c r="D70" t="n">
-        <v>66.91</v>
+        <v>68.59999999999999</v>
       </c>
       <c r="E70" t="n">
-        <v>66.91</v>
+        <v>68.59999999999999</v>
       </c>
       <c r="F70" t="n">
-        <v>373</v>
+        <v>271.0883</v>
       </c>
       <c r="G70" t="n">
-        <v>-90803.25599366189</v>
+        <v>-82287.2584592003</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -2949,7 +3318,9 @@
         <v>0</v>
       </c>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
+      <c r="K70" t="n">
+        <v>67</v>
+      </c>
       <c r="L70" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2958,28 +3329,29 @@
       <c r="M70" t="n">
         <v>1</v>
       </c>
+      <c r="N70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>67.90000000000001</v>
+        <v>68.66</v>
       </c>
       <c r="C71" t="n">
-        <v>67.90000000000001</v>
+        <v>68.79000000000001</v>
       </c>
       <c r="D71" t="n">
-        <v>67.90000000000001</v>
+        <v>68.79000000000001</v>
       </c>
       <c r="E71" t="n">
-        <v>67.90000000000001</v>
+        <v>68.66</v>
       </c>
       <c r="F71" t="n">
-        <v>8</v>
+        <v>7095.3232</v>
       </c>
       <c r="G71" t="n">
-        <v>-90795.25599366189</v>
+        <v>-75191.9352592003</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -2988,7 +3360,9 @@
         <v>0</v>
       </c>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
+      <c r="K71" t="n">
+        <v>67</v>
+      </c>
       <c r="L71" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2997,28 +3371,29 @@
       <c r="M71" t="n">
         <v>1</v>
       </c>
+      <c r="N71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>66.91</v>
+        <v>69</v>
       </c>
       <c r="C72" t="n">
-        <v>66.70999999999999</v>
+        <v>69</v>
       </c>
       <c r="D72" t="n">
-        <v>66.91</v>
+        <v>69</v>
       </c>
       <c r="E72" t="n">
-        <v>66.70999999999999</v>
+        <v>69</v>
       </c>
       <c r="F72" t="n">
-        <v>9296.9447</v>
+        <v>7666.280684173913</v>
       </c>
       <c r="G72" t="n">
-        <v>-100092.2006936619</v>
+        <v>-67525.65457502639</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -3027,7 +3402,9 @@
         <v>0</v>
       </c>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
+      <c r="K72" t="n">
+        <v>67</v>
+      </c>
       <c r="L72" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3036,28 +3413,29 @@
       <c r="M72" t="n">
         <v>1</v>
       </c>
+      <c r="N72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>66.70999999999999</v>
+        <v>68.45</v>
       </c>
       <c r="C73" t="n">
-        <v>66.70999999999999</v>
+        <v>66.90000000000001</v>
       </c>
       <c r="D73" t="n">
-        <v>66.70999999999999</v>
+        <v>68.45</v>
       </c>
       <c r="E73" t="n">
-        <v>66.70999999999999</v>
+        <v>66.90000000000001</v>
       </c>
       <c r="F73" t="n">
-        <v>321</v>
+        <v>4067.6485</v>
       </c>
       <c r="G73" t="n">
-        <v>-100092.2006936619</v>
+        <v>-71593.30307502639</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -3066,7 +3444,9 @@
         <v>0</v>
       </c>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
+      <c r="K73" t="n">
+        <v>67</v>
+      </c>
       <c r="L73" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3075,28 +3455,29 @@
       <c r="M73" t="n">
         <v>1</v>
       </c>
+      <c r="N73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>66.90000000000001</v>
+        <v>67.61</v>
       </c>
       <c r="C74" t="n">
-        <v>66.90000000000001</v>
+        <v>67.61</v>
       </c>
       <c r="D74" t="n">
-        <v>66.90000000000001</v>
+        <v>67.61</v>
       </c>
       <c r="E74" t="n">
-        <v>66.90000000000001</v>
+        <v>67.61</v>
       </c>
       <c r="F74" t="n">
-        <v>0.0004</v>
+        <v>13.077</v>
       </c>
       <c r="G74" t="n">
-        <v>-100092.2002936619</v>
+        <v>-71580.22607502638</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -3105,7 +3486,9 @@
         <v>0</v>
       </c>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
+      <c r="K74" t="n">
+        <v>67</v>
+      </c>
       <c r="L74" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3114,28 +3497,29 @@
       <c r="M74" t="n">
         <v>1</v>
       </c>
+      <c r="N74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>67.77</v>
+        <v>67.64</v>
       </c>
       <c r="C75" t="n">
-        <v>67.77</v>
+        <v>67.64</v>
       </c>
       <c r="D75" t="n">
-        <v>67.77</v>
+        <v>67.64</v>
       </c>
       <c r="E75" t="n">
-        <v>67.77</v>
+        <v>67.64</v>
       </c>
       <c r="F75" t="n">
-        <v>32.6012</v>
+        <v>10011</v>
       </c>
       <c r="G75" t="n">
-        <v>-100059.5990936619</v>
+        <v>-61569.22607502638</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3144,7 +3528,9 @@
         <v>0</v>
       </c>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
+      <c r="K75" t="n">
+        <v>67</v>
+      </c>
       <c r="L75" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3153,28 +3539,29 @@
       <c r="M75" t="n">
         <v>1</v>
       </c>
+      <c r="N75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>66.90000000000001</v>
+        <v>67.88</v>
       </c>
       <c r="C76" t="n">
-        <v>66.5</v>
+        <v>67.88</v>
       </c>
       <c r="D76" t="n">
-        <v>66.90000000000001</v>
+        <v>67.88</v>
       </c>
       <c r="E76" t="n">
-        <v>66.5</v>
+        <v>67.88</v>
       </c>
       <c r="F76" t="n">
-        <v>3217.851</v>
+        <v>149.4768</v>
       </c>
       <c r="G76" t="n">
-        <v>-103277.4500936619</v>
+        <v>-61419.74927502638</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3183,7 +3570,9 @@
         <v>0</v>
       </c>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
+      <c r="K76" t="n">
+        <v>67</v>
+      </c>
       <c r="L76" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3192,28 +3581,29 @@
       <c r="M76" t="n">
         <v>1</v>
       </c>
+      <c r="N76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>66.5</v>
+        <v>68.79000000000001</v>
       </c>
       <c r="C77" t="n">
-        <v>66.5</v>
+        <v>68.79000000000001</v>
       </c>
       <c r="D77" t="n">
-        <v>66.5</v>
+        <v>68.79000000000001</v>
       </c>
       <c r="E77" t="n">
-        <v>66.5</v>
+        <v>68.79000000000001</v>
       </c>
       <c r="F77" t="n">
-        <v>371.6554</v>
+        <v>147.8852</v>
       </c>
       <c r="G77" t="n">
-        <v>-103277.4500936619</v>
+        <v>-61271.86407502639</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3222,7 +3612,9 @@
         <v>0</v>
       </c>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
+      <c r="K77" t="n">
+        <v>67</v>
+      </c>
       <c r="L77" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3231,28 +3623,29 @@
       <c r="M77" t="n">
         <v>1</v>
       </c>
+      <c r="N77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>67.69</v>
+        <v>68.79000000000001</v>
       </c>
       <c r="C78" t="n">
-        <v>67.69</v>
+        <v>68.79000000000001</v>
       </c>
       <c r="D78" t="n">
-        <v>67.69</v>
+        <v>68.79000000000001</v>
       </c>
       <c r="E78" t="n">
-        <v>67.69</v>
+        <v>68.79000000000001</v>
       </c>
       <c r="F78" t="n">
-        <v>10</v>
+        <v>353</v>
       </c>
       <c r="G78" t="n">
-        <v>-103267.4500936619</v>
+        <v>-61271.86407502639</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3261,7 +3654,9 @@
         <v>0</v>
       </c>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
+      <c r="K78" t="n">
+        <v>67</v>
+      </c>
       <c r="L78" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3270,28 +3665,29 @@
       <c r="M78" t="n">
         <v>1</v>
       </c>
+      <c r="N78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>67.69</v>
+        <v>68.92</v>
       </c>
       <c r="C79" t="n">
-        <v>67.69</v>
+        <v>68.79000000000001</v>
       </c>
       <c r="D79" t="n">
-        <v>67.69</v>
+        <v>68.92</v>
       </c>
       <c r="E79" t="n">
-        <v>67.69</v>
+        <v>68.79000000000001</v>
       </c>
       <c r="F79" t="n">
-        <v>8</v>
+        <v>47.7193</v>
       </c>
       <c r="G79" t="n">
-        <v>-103267.4500936619</v>
+        <v>-61271.86407502639</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3300,7 +3696,9 @@
         <v>0</v>
       </c>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
+      <c r="K79" t="n">
+        <v>67</v>
+      </c>
       <c r="L79" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3309,28 +3707,29 @@
       <c r="M79" t="n">
         <v>1</v>
       </c>
+      <c r="N79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>67.3</v>
+        <v>68.09</v>
       </c>
       <c r="C80" t="n">
-        <v>66.88</v>
+        <v>68.09</v>
       </c>
       <c r="D80" t="n">
-        <v>67.3</v>
+        <v>68.09</v>
       </c>
       <c r="E80" t="n">
-        <v>66.88</v>
+        <v>68.09</v>
       </c>
       <c r="F80" t="n">
-        <v>298.9529</v>
+        <v>279</v>
       </c>
       <c r="G80" t="n">
-        <v>-103566.4029936619</v>
+        <v>-61550.86407502639</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3339,7 +3738,9 @@
         <v>0</v>
       </c>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
+      <c r="K80" t="n">
+        <v>67</v>
+      </c>
       <c r="L80" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3348,28 +3749,29 @@
       <c r="M80" t="n">
         <v>1</v>
       </c>
+      <c r="N80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>66.5</v>
+        <v>68.09</v>
       </c>
       <c r="C81" t="n">
-        <v>66.5</v>
+        <v>67.03</v>
       </c>
       <c r="D81" t="n">
-        <v>66.5</v>
+        <v>68.09</v>
       </c>
       <c r="E81" t="n">
-        <v>66.5</v>
+        <v>67.03</v>
       </c>
       <c r="F81" t="n">
-        <v>8</v>
+        <v>10745.0145</v>
       </c>
       <c r="G81" t="n">
-        <v>-103574.4029936619</v>
+        <v>-72295.87857502639</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3378,7 +3780,9 @@
         <v>0</v>
       </c>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
+      <c r="K81" t="n">
+        <v>67</v>
+      </c>
       <c r="L81" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3387,28 +3791,29 @@
       <c r="M81" t="n">
         <v>1</v>
       </c>
+      <c r="N81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>66.88</v>
+        <v>68.73999999999999</v>
       </c>
       <c r="C82" t="n">
-        <v>67.3</v>
+        <v>68.73999999999999</v>
       </c>
       <c r="D82" t="n">
-        <v>67.3</v>
+        <v>68.73999999999999</v>
       </c>
       <c r="E82" t="n">
-        <v>66.88</v>
+        <v>68.73999999999999</v>
       </c>
       <c r="F82" t="n">
-        <v>154.2345</v>
+        <v>8</v>
       </c>
       <c r="G82" t="n">
-        <v>-103420.1684936619</v>
+        <v>-72287.87857502639</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3417,7 +3822,9 @@
         <v>0</v>
       </c>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
+      <c r="K82" t="n">
+        <v>67</v>
+      </c>
       <c r="L82" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3426,28 +3833,29 @@
       <c r="M82" t="n">
         <v>1</v>
       </c>
+      <c r="N82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>67</v>
+        <v>67.98999999999999</v>
       </c>
       <c r="C83" t="n">
-        <v>67.69</v>
+        <v>67.98999999999999</v>
       </c>
       <c r="D83" t="n">
-        <v>67.69</v>
+        <v>67.98999999999999</v>
       </c>
       <c r="E83" t="n">
-        <v>67</v>
+        <v>67.98999999999999</v>
       </c>
       <c r="F83" t="n">
-        <v>196.8885</v>
+        <v>13253.198</v>
       </c>
       <c r="G83" t="n">
-        <v>-103223.2799936619</v>
+        <v>-85541.0765750264</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3456,7 +3864,9 @@
         <v>0</v>
       </c>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
+      <c r="K83" t="n">
+        <v>67</v>
+      </c>
       <c r="L83" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3465,28 +3875,29 @@
       <c r="M83" t="n">
         <v>1</v>
       </c>
+      <c r="N83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>66.61</v>
+        <v>67.98999999999999</v>
       </c>
       <c r="C84" t="n">
-        <v>66.36</v>
+        <v>67.98999999999999</v>
       </c>
       <c r="D84" t="n">
-        <v>66.61</v>
+        <v>67.98999999999999</v>
       </c>
       <c r="E84" t="n">
-        <v>66.36</v>
+        <v>67.98999999999999</v>
       </c>
       <c r="F84" t="n">
-        <v>5996.6585</v>
+        <v>1276</v>
       </c>
       <c r="G84" t="n">
-        <v>-109219.9384936619</v>
+        <v>-85541.0765750264</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3495,7 +3906,9 @@
         <v>0</v>
       </c>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
+      <c r="K84" t="n">
+        <v>67</v>
+      </c>
       <c r="L84" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3504,28 +3917,29 @@
       <c r="M84" t="n">
         <v>1</v>
       </c>
+      <c r="N84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>66.36</v>
+        <v>67.98999999999999</v>
       </c>
       <c r="C85" t="n">
-        <v>66.36</v>
+        <v>68.54000000000001</v>
       </c>
       <c r="D85" t="n">
-        <v>66.36</v>
+        <v>68.54000000000001</v>
       </c>
       <c r="E85" t="n">
-        <v>66.36</v>
+        <v>67.98999999999999</v>
       </c>
       <c r="F85" t="n">
-        <v>1145.1453</v>
+        <v>1142.1549</v>
       </c>
       <c r="G85" t="n">
-        <v>-109219.9384936619</v>
+        <v>-84398.9216750264</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3534,7 +3948,9 @@
         <v>0</v>
       </c>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
+      <c r="K85" t="n">
+        <v>67</v>
+      </c>
       <c r="L85" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3543,28 +3959,29 @@
       <c r="M85" t="n">
         <v>1</v>
       </c>
+      <c r="N85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>66.41</v>
+        <v>67.7</v>
       </c>
       <c r="C86" t="n">
-        <v>66.41</v>
+        <v>67.70999999999999</v>
       </c>
       <c r="D86" t="n">
-        <v>66.41</v>
+        <v>67.8</v>
       </c>
       <c r="E86" t="n">
-        <v>66.41</v>
+        <v>67.7</v>
       </c>
       <c r="F86" t="n">
-        <v>8</v>
+        <v>1976.9936</v>
       </c>
       <c r="G86" t="n">
-        <v>-109211.9384936619</v>
+        <v>-86375.9152750264</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3573,7 +3990,9 @@
         <v>0</v>
       </c>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
+      <c r="K86" t="n">
+        <v>67</v>
+      </c>
       <c r="L86" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3582,28 +4001,29 @@
       <c r="M86" t="n">
         <v>1</v>
       </c>
+      <c r="N86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>67.40000000000001</v>
+        <v>67.7</v>
       </c>
       <c r="C87" t="n">
-        <v>67.40000000000001</v>
+        <v>67.34999999999999</v>
       </c>
       <c r="D87" t="n">
-        <v>67.40000000000001</v>
+        <v>67.7</v>
       </c>
       <c r="E87" t="n">
-        <v>67.40000000000001</v>
+        <v>67.34999999999999</v>
       </c>
       <c r="F87" t="n">
-        <v>10.1499</v>
+        <v>721.9503999999999</v>
       </c>
       <c r="G87" t="n">
-        <v>-109201.7885936619</v>
+        <v>-87097.86567502641</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3612,7 +4032,9 @@
         <v>0</v>
       </c>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
+      <c r="K87" t="n">
+        <v>67</v>
+      </c>
       <c r="L87" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3621,28 +4043,29 @@
       <c r="M87" t="n">
         <v>1</v>
       </c>
+      <c r="N87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>66.42</v>
+        <v>68.37</v>
       </c>
       <c r="C88" t="n">
-        <v>67.59999999999999</v>
+        <v>68.37</v>
       </c>
       <c r="D88" t="n">
-        <v>67.59999999999999</v>
+        <v>68.37</v>
       </c>
       <c r="E88" t="n">
-        <v>66.42</v>
+        <v>68.37</v>
       </c>
       <c r="F88" t="n">
-        <v>15.8606</v>
+        <v>50</v>
       </c>
       <c r="G88" t="n">
-        <v>-109185.9279936619</v>
+        <v>-87047.86567502641</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3651,7 +4074,9 @@
         <v>0</v>
       </c>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
+      <c r="K88" t="n">
+        <v>67</v>
+      </c>
       <c r="L88" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3660,39 +4085,40 @@
       <c r="M88" t="n">
         <v>1</v>
       </c>
+      <c r="N88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>66.43000000000001</v>
+        <v>67.53</v>
       </c>
       <c r="C89" t="n">
-        <v>66.40000000000001</v>
+        <v>67.53</v>
       </c>
       <c r="D89" t="n">
-        <v>66.43000000000001</v>
+        <v>67.53</v>
       </c>
       <c r="E89" t="n">
-        <v>66.40000000000001</v>
+        <v>67.53</v>
       </c>
       <c r="F89" t="n">
-        <v>1076.6345</v>
+        <v>15</v>
       </c>
       <c r="G89" t="n">
-        <v>-110262.5624936619</v>
+        <v>-87062.86567502641</v>
       </c>
       <c r="H89" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I89" t="n">
         <v>0</v>
       </c>
-      <c r="J89" t="n">
-        <v>67.59999999999999</v>
-      </c>
-      <c r="K89" t="inlineStr"/>
+      <c r="J89" t="inlineStr"/>
+      <c r="K89" t="n">
+        <v>67</v>
+      </c>
       <c r="L89" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3701,28 +4127,29 @@
       <c r="M89" t="n">
         <v>1</v>
       </c>
+      <c r="N89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>67.59</v>
+        <v>67.54000000000001</v>
       </c>
       <c r="C90" t="n">
-        <v>67.59</v>
+        <v>67.52</v>
       </c>
       <c r="D90" t="n">
-        <v>67.59</v>
+        <v>67.54000000000001</v>
       </c>
       <c r="E90" t="n">
-        <v>67.59</v>
+        <v>67.52</v>
       </c>
       <c r="F90" t="n">
-        <v>221.9263204616067</v>
+        <v>12101.4243</v>
       </c>
       <c r="G90" t="n">
-        <v>-110040.6361732003</v>
+        <v>-99164.2899750264</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -3731,7 +4158,9 @@
         <v>0</v>
       </c>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
+      <c r="K90" t="n">
+        <v>67</v>
+      </c>
       <c r="L90" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3740,28 +4169,29 @@
       <c r="M90" t="n">
         <v>1</v>
       </c>
+      <c r="N90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>66.37</v>
+        <v>67.51000000000001</v>
       </c>
       <c r="C91" t="n">
-        <v>66.37</v>
+        <v>67.51000000000001</v>
       </c>
       <c r="D91" t="n">
-        <v>66.37</v>
+        <v>67.51000000000001</v>
       </c>
       <c r="E91" t="n">
-        <v>66.37</v>
+        <v>67.51000000000001</v>
       </c>
       <c r="F91" t="n">
-        <v>1572</v>
+        <v>1864.6971</v>
       </c>
       <c r="G91" t="n">
-        <v>-111612.6361732003</v>
+        <v>-101028.9870750264</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -3770,7 +4200,9 @@
         <v>0</v>
       </c>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
+      <c r="K91" t="n">
+        <v>67</v>
+      </c>
       <c r="L91" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3779,28 +4211,29 @@
       <c r="M91" t="n">
         <v>1</v>
       </c>
+      <c r="N91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>66.38</v>
+        <v>67.59999999999999</v>
       </c>
       <c r="C92" t="n">
-        <v>66.38</v>
+        <v>67.54000000000001</v>
       </c>
       <c r="D92" t="n">
-        <v>66.38</v>
+        <v>67.59999999999999</v>
       </c>
       <c r="E92" t="n">
-        <v>66.38</v>
+        <v>67.54000000000001</v>
       </c>
       <c r="F92" t="n">
-        <v>251</v>
+        <v>1577.8946</v>
       </c>
       <c r="G92" t="n">
-        <v>-111361.6361732003</v>
+        <v>-99451.09247502641</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -3809,7 +4242,9 @@
         <v>0</v>
       </c>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
+      <c r="K92" t="n">
+        <v>67</v>
+      </c>
       <c r="L92" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3818,28 +4253,29 @@
       <c r="M92" t="n">
         <v>1</v>
       </c>
+      <c r="N92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>66.38</v>
+        <v>67.51000000000001</v>
       </c>
       <c r="C93" t="n">
-        <v>66.38</v>
+        <v>67.51000000000001</v>
       </c>
       <c r="D93" t="n">
-        <v>66.38</v>
+        <v>67.51000000000001</v>
       </c>
       <c r="E93" t="n">
-        <v>66.38</v>
+        <v>67.51000000000001</v>
       </c>
       <c r="F93" t="n">
-        <v>979</v>
+        <v>1071.1933</v>
       </c>
       <c r="G93" t="n">
-        <v>-111361.6361732003</v>
+        <v>-100522.2857750264</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -3848,7 +4284,9 @@
         <v>0</v>
       </c>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
+      <c r="K93" t="n">
+        <v>67</v>
+      </c>
       <c r="L93" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3857,28 +4295,29 @@
       <c r="M93" t="n">
         <v>1</v>
       </c>
+      <c r="N93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>66.39</v>
+        <v>68.2</v>
       </c>
       <c r="C94" t="n">
-        <v>66.39</v>
+        <v>68.2</v>
       </c>
       <c r="D94" t="n">
-        <v>66.39</v>
+        <v>68.2</v>
       </c>
       <c r="E94" t="n">
-        <v>66.39</v>
+        <v>68.2</v>
       </c>
       <c r="F94" t="n">
-        <v>175.0906</v>
+        <v>10</v>
       </c>
       <c r="G94" t="n">
-        <v>-111186.5455732003</v>
+        <v>-100512.2857750264</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -3887,7 +4326,9 @@
         <v>0</v>
       </c>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
+      <c r="K94" t="n">
+        <v>67</v>
+      </c>
       <c r="L94" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3896,28 +4337,29 @@
       <c r="M94" t="n">
         <v>1</v>
       </c>
+      <c r="N94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>66.39</v>
+        <v>68.2</v>
       </c>
       <c r="C95" t="n">
-        <v>66.39</v>
+        <v>68.2</v>
       </c>
       <c r="D95" t="n">
-        <v>66.39</v>
+        <v>68.2</v>
       </c>
       <c r="E95" t="n">
-        <v>66.39</v>
+        <v>68.2</v>
       </c>
       <c r="F95" t="n">
-        <v>1419.2274</v>
+        <v>107.4327</v>
       </c>
       <c r="G95" t="n">
-        <v>-111186.5455732003</v>
+        <v>-100512.2857750264</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -3926,7 +4368,9 @@
         <v>0</v>
       </c>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
+      <c r="K95" t="n">
+        <v>67</v>
+      </c>
       <c r="L95" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3935,28 +4379,29 @@
       <c r="M95" t="n">
         <v>1</v>
       </c>
+      <c r="N95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>66.59999999999999</v>
+        <v>67.51000000000001</v>
       </c>
       <c r="C96" t="n">
-        <v>66.59999999999999</v>
+        <v>67.51000000000001</v>
       </c>
       <c r="D96" t="n">
-        <v>66.59999999999999</v>
+        <v>67.51000000000001</v>
       </c>
       <c r="E96" t="n">
-        <v>66.59999999999999</v>
+        <v>67.51000000000001</v>
       </c>
       <c r="F96" t="n">
-        <v>59.352</v>
+        <v>200</v>
       </c>
       <c r="G96" t="n">
-        <v>-111127.1935732003</v>
+        <v>-100712.2857750264</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -3965,7 +4410,9 @@
         <v>0</v>
       </c>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
+      <c r="K96" t="n">
+        <v>67</v>
+      </c>
       <c r="L96" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3974,28 +4421,29 @@
       <c r="M96" t="n">
         <v>1</v>
       </c>
+      <c r="N96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>66.59999999999999</v>
+        <v>68</v>
       </c>
       <c r="C97" t="n">
-        <v>66.41</v>
+        <v>68.2</v>
       </c>
       <c r="D97" t="n">
-        <v>66.59999999999999</v>
+        <v>68.2</v>
       </c>
       <c r="E97" t="n">
-        <v>66.41</v>
+        <v>68</v>
       </c>
       <c r="F97" t="n">
-        <v>13773.3341</v>
+        <v>151.9994096774194</v>
       </c>
       <c r="G97" t="n">
-        <v>-124900.5276732003</v>
+        <v>-100560.286365349</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -4004,7 +4452,9 @@
         <v>0</v>
       </c>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
+      <c r="K97" t="n">
+        <v>67</v>
+      </c>
       <c r="L97" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4013,39 +4463,40 @@
       <c r="M97" t="n">
         <v>1</v>
       </c>
+      <c r="N97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>66.5</v>
+        <v>67.52</v>
       </c>
       <c r="C98" t="n">
-        <v>66.5</v>
+        <v>67.52</v>
       </c>
       <c r="D98" t="n">
-        <v>66.5</v>
+        <v>67.52</v>
       </c>
       <c r="E98" t="n">
-        <v>66.5</v>
+        <v>67.52</v>
       </c>
       <c r="F98" t="n">
-        <v>8</v>
+        <v>1850.9361</v>
       </c>
       <c r="G98" t="n">
-        <v>-124892.5276732003</v>
+        <v>-102411.222465349</v>
       </c>
       <c r="H98" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I98" t="n">
         <v>0</v>
       </c>
-      <c r="J98" t="n">
-        <v>66.41</v>
-      </c>
-      <c r="K98" t="inlineStr"/>
+      <c r="J98" t="inlineStr"/>
+      <c r="K98" t="n">
+        <v>67</v>
+      </c>
       <c r="L98" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4054,28 +4505,29 @@
       <c r="M98" t="n">
         <v>1</v>
       </c>
+      <c r="N98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>66.5</v>
+        <v>68</v>
       </c>
       <c r="C99" t="n">
-        <v>66.41</v>
+        <v>68.2</v>
       </c>
       <c r="D99" t="n">
-        <v>66.5</v>
+        <v>68.2</v>
       </c>
       <c r="E99" t="n">
-        <v>66.41</v>
+        <v>68</v>
       </c>
       <c r="F99" t="n">
-        <v>132.0308</v>
+        <v>18372.8828</v>
       </c>
       <c r="G99" t="n">
-        <v>-125024.5584732003</v>
+        <v>-84038.33966534899</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -4084,7 +4536,9 @@
         <v>0</v>
       </c>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
+      <c r="K99" t="n">
+        <v>67</v>
+      </c>
       <c r="L99" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4093,39 +4547,40 @@
       <c r="M99" t="n">
         <v>1</v>
       </c>
+      <c r="N99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>66.5</v>
+        <v>68.28</v>
       </c>
       <c r="C100" t="n">
-        <v>66.41</v>
+        <v>68.72</v>
       </c>
       <c r="D100" t="n">
-        <v>67</v>
+        <v>68.72</v>
       </c>
       <c r="E100" t="n">
-        <v>66.41</v>
+        <v>68.28</v>
       </c>
       <c r="F100" t="n">
-        <v>461.4465728358209</v>
+        <v>570</v>
       </c>
       <c r="G100" t="n">
-        <v>-125024.5584732003</v>
+        <v>-83468.33966534899</v>
       </c>
       <c r="H100" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I100" t="n">
         <v>0</v>
       </c>
-      <c r="J100" t="n">
-        <v>66.41</v>
-      </c>
-      <c r="K100" t="inlineStr"/>
+      <c r="J100" t="inlineStr"/>
+      <c r="K100" t="n">
+        <v>67</v>
+      </c>
       <c r="L100" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4134,39 +4589,40 @@
       <c r="M100" t="n">
         <v>1</v>
       </c>
+      <c r="N100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>66.42</v>
+        <v>68.70999999999999</v>
       </c>
       <c r="C101" t="n">
-        <v>66.42</v>
+        <v>68.72</v>
       </c>
       <c r="D101" t="n">
-        <v>66.42</v>
+        <v>68.72</v>
       </c>
       <c r="E101" t="n">
-        <v>66.42</v>
+        <v>68.70999999999999</v>
       </c>
       <c r="F101" t="n">
-        <v>18.18</v>
+        <v>284.4061</v>
       </c>
       <c r="G101" t="n">
-        <v>-125006.3784732003</v>
+        <v>-83468.33966534899</v>
       </c>
       <c r="H101" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I101" t="n">
         <v>0</v>
       </c>
-      <c r="J101" t="n">
-        <v>66.41</v>
-      </c>
-      <c r="K101" t="inlineStr"/>
+      <c r="J101" t="inlineStr"/>
+      <c r="K101" t="n">
+        <v>67</v>
+      </c>
       <c r="L101" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4175,39 +4631,40 @@
       <c r="M101" t="n">
         <v>1</v>
       </c>
+      <c r="N101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>66.98999999999999</v>
+        <v>68.70999999999999</v>
       </c>
       <c r="C102" t="n">
-        <v>67</v>
+        <v>68.72</v>
       </c>
       <c r="D102" t="n">
-        <v>67</v>
+        <v>68.72</v>
       </c>
       <c r="E102" t="n">
-        <v>66.98999999999999</v>
+        <v>68.70999999999999</v>
       </c>
       <c r="F102" t="n">
-        <v>20</v>
+        <v>222.6608</v>
       </c>
       <c r="G102" t="n">
-        <v>-124986.3784732003</v>
+        <v>-83468.33966534899</v>
       </c>
       <c r="H102" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I102" t="n">
         <v>0</v>
       </c>
-      <c r="J102" t="n">
-        <v>66.42</v>
-      </c>
-      <c r="K102" t="inlineStr"/>
+      <c r="J102" t="inlineStr"/>
+      <c r="K102" t="n">
+        <v>67</v>
+      </c>
       <c r="L102" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4216,28 +4673,29 @@
       <c r="M102" t="n">
         <v>1</v>
       </c>
+      <c r="N102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>66.98999999999999</v>
+        <v>68.20999999999999</v>
       </c>
       <c r="C103" t="n">
-        <v>66.98999999999999</v>
+        <v>68.70999999999999</v>
       </c>
       <c r="D103" t="n">
-        <v>66.98999999999999</v>
+        <v>68.70999999999999</v>
       </c>
       <c r="E103" t="n">
-        <v>66.98999999999999</v>
+        <v>68.20999999999999</v>
       </c>
       <c r="F103" t="n">
-        <v>153.6305</v>
+        <v>497</v>
       </c>
       <c r="G103" t="n">
-        <v>-125140.0089732003</v>
+        <v>-83965.33966534899</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -4246,7 +4704,9 @@
         <v>0</v>
       </c>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
+      <c r="K103" t="n">
+        <v>67</v>
+      </c>
       <c r="L103" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4255,28 +4715,29 @@
       <c r="M103" t="n">
         <v>1</v>
       </c>
+      <c r="N103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>66.59999999999999</v>
+        <v>68.70999999999999</v>
       </c>
       <c r="C104" t="n">
-        <v>66.59999999999999</v>
+        <v>68.72</v>
       </c>
       <c r="D104" t="n">
-        <v>66.59999999999999</v>
+        <v>68.72</v>
       </c>
       <c r="E104" t="n">
-        <v>66.59999999999999</v>
+        <v>68.70999999999999</v>
       </c>
       <c r="F104" t="n">
-        <v>1750</v>
+        <v>423.0708</v>
       </c>
       <c r="G104" t="n">
-        <v>-126890.0089732003</v>
+        <v>-83542.26886534899</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -4285,7 +4746,9 @@
         <v>0</v>
       </c>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
+      <c r="K104" t="n">
+        <v>67</v>
+      </c>
       <c r="L104" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4294,28 +4757,29 @@
       <c r="M104" t="n">
         <v>1</v>
       </c>
+      <c r="N104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>66.98999999999999</v>
+        <v>68.22</v>
       </c>
       <c r="C105" t="n">
-        <v>66.98999999999999</v>
+        <v>68.22</v>
       </c>
       <c r="D105" t="n">
-        <v>66.98999999999999</v>
+        <v>68.22</v>
       </c>
       <c r="E105" t="n">
-        <v>66.98999999999999</v>
+        <v>68.22</v>
       </c>
       <c r="F105" t="n">
-        <v>298.5521</v>
+        <v>1729</v>
       </c>
       <c r="G105" t="n">
-        <v>-126591.4568732003</v>
+        <v>-85271.26886534899</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -4324,7 +4788,9 @@
         <v>0</v>
       </c>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
+      <c r="K105" t="n">
+        <v>67</v>
+      </c>
       <c r="L105" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4333,28 +4799,29 @@
       <c r="M105" t="n">
         <v>1</v>
       </c>
+      <c r="N105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>66.98999999999999</v>
+        <v>68.70999999999999</v>
       </c>
       <c r="C106" t="n">
-        <v>67</v>
+        <v>68.72</v>
       </c>
       <c r="D106" t="n">
-        <v>67</v>
+        <v>68.72</v>
       </c>
       <c r="E106" t="n">
-        <v>66.98999999999999</v>
+        <v>68.70999999999999</v>
       </c>
       <c r="F106" t="n">
-        <v>504.0863</v>
+        <v>249.2450844877765</v>
       </c>
       <c r="G106" t="n">
-        <v>-126087.3705732003</v>
+        <v>-85022.02378086121</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -4363,7 +4830,9 @@
         <v>0</v>
       </c>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
+      <c r="K106" t="n">
+        <v>67</v>
+      </c>
       <c r="L106" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4372,28 +4841,29 @@
       <c r="M106" t="n">
         <v>1</v>
       </c>
+      <c r="N106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>66.59999999999999</v>
+        <v>68.7</v>
       </c>
       <c r="C107" t="n">
-        <v>66.59999999999999</v>
+        <v>68.72</v>
       </c>
       <c r="D107" t="n">
-        <v>66.59999999999999</v>
+        <v>68.72</v>
       </c>
       <c r="E107" t="n">
-        <v>66.59999999999999</v>
+        <v>68.7</v>
       </c>
       <c r="F107" t="n">
-        <v>235.4609</v>
+        <v>482.8494</v>
       </c>
       <c r="G107" t="n">
-        <v>-126322.8314732003</v>
+        <v>-85022.02378086121</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -4402,7 +4872,9 @@
         <v>0</v>
       </c>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
+      <c r="K107" t="n">
+        <v>67</v>
+      </c>
       <c r="L107" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4411,39 +4883,40 @@
       <c r="M107" t="n">
         <v>1</v>
       </c>
+      <c r="N107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>66.59999999999999</v>
+        <v>68.22</v>
       </c>
       <c r="C108" t="n">
-        <v>66.5</v>
+        <v>68.09999999999999</v>
       </c>
       <c r="D108" t="n">
-        <v>66.59999999999999</v>
+        <v>68.22</v>
       </c>
       <c r="E108" t="n">
-        <v>66.5</v>
+        <v>68.09999999999999</v>
       </c>
       <c r="F108" t="n">
-        <v>2082.1879</v>
+        <v>1186.1728</v>
       </c>
       <c r="G108" t="n">
-        <v>-128405.0193732003</v>
+        <v>-86208.19658086121</v>
       </c>
       <c r="H108" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I108" t="n">
         <v>0</v>
       </c>
-      <c r="J108" t="n">
-        <v>66.59999999999999</v>
-      </c>
-      <c r="K108" t="inlineStr"/>
+      <c r="J108" t="inlineStr"/>
+      <c r="K108" t="n">
+        <v>67</v>
+      </c>
       <c r="L108" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4452,39 +4925,40 @@
       <c r="M108" t="n">
         <v>1</v>
       </c>
+      <c r="N108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>67</v>
+        <v>68.01000000000001</v>
       </c>
       <c r="C109" t="n">
-        <v>67.5</v>
+        <v>68.02</v>
       </c>
       <c r="D109" t="n">
-        <v>67.5</v>
+        <v>68.02</v>
       </c>
       <c r="E109" t="n">
-        <v>67</v>
+        <v>68.01000000000001</v>
       </c>
       <c r="F109" t="n">
-        <v>10826.22562716418</v>
+        <v>8370.8272</v>
       </c>
       <c r="G109" t="n">
-        <v>-117578.7937460361</v>
+        <v>-94579.02378086121</v>
       </c>
       <c r="H109" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I109" t="n">
         <v>0</v>
       </c>
-      <c r="J109" t="n">
-        <v>66.5</v>
-      </c>
-      <c r="K109" t="inlineStr"/>
+      <c r="J109" t="inlineStr"/>
+      <c r="K109" t="n">
+        <v>67</v>
+      </c>
       <c r="L109" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4493,28 +4967,29 @@
       <c r="M109" t="n">
         <v>1</v>
       </c>
+      <c r="N109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>67.59</v>
+        <v>68.02</v>
       </c>
       <c r="C110" t="n">
-        <v>67.77</v>
+        <v>67.90000000000001</v>
       </c>
       <c r="D110" t="n">
-        <v>67.77</v>
+        <v>68.02</v>
       </c>
       <c r="E110" t="n">
-        <v>67.59</v>
+        <v>67.90000000000001</v>
       </c>
       <c r="F110" t="n">
-        <v>970.7875</v>
+        <v>2000</v>
       </c>
       <c r="G110" t="n">
-        <v>-116608.0062460361</v>
+        <v>-96579.02378086121</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -4523,7 +4998,9 @@
         <v>0</v>
       </c>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
+      <c r="K110" t="n">
+        <v>67</v>
+      </c>
       <c r="L110" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4532,28 +5009,29 @@
       <c r="M110" t="n">
         <v>1</v>
       </c>
+      <c r="N110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>67.8</v>
+        <v>68.59</v>
       </c>
       <c r="C111" t="n">
-        <v>67.90000000000001</v>
+        <v>68.59</v>
       </c>
       <c r="D111" t="n">
-        <v>67.90000000000001</v>
+        <v>68.59</v>
       </c>
       <c r="E111" t="n">
-        <v>67.8</v>
+        <v>68.59</v>
       </c>
       <c r="F111" t="n">
-        <v>34049.65948683582</v>
+        <v>32.84181367546289</v>
       </c>
       <c r="G111" t="n">
-        <v>-82558.3467592003</v>
+        <v>-96546.18196718575</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -4562,7 +5040,9 @@
         <v>0</v>
       </c>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
+      <c r="K111" t="n">
+        <v>67</v>
+      </c>
       <c r="L111" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4571,28 +5051,29 @@
       <c r="M111" t="n">
         <v>1</v>
       </c>
+      <c r="N111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>68.59999999999999</v>
+        <v>68.58</v>
       </c>
       <c r="C112" t="n">
-        <v>68.59999999999999</v>
+        <v>68.3</v>
       </c>
       <c r="D112" t="n">
-        <v>68.59999999999999</v>
+        <v>68.58</v>
       </c>
       <c r="E112" t="n">
-        <v>68.59999999999999</v>
+        <v>68.3</v>
       </c>
       <c r="F112" t="n">
-        <v>271.0883</v>
+        <v>194</v>
       </c>
       <c r="G112" t="n">
-        <v>-82287.2584592003</v>
+        <v>-96740.18196718575</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -4601,7 +5082,9 @@
         <v>0</v>
       </c>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
+      <c r="K112" t="n">
+        <v>67</v>
+      </c>
       <c r="L112" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4610,28 +5093,29 @@
       <c r="M112" t="n">
         <v>1</v>
       </c>
+      <c r="N112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>68.66</v>
+        <v>68.59</v>
       </c>
       <c r="C113" t="n">
-        <v>68.79000000000001</v>
+        <v>68.59</v>
       </c>
       <c r="D113" t="n">
-        <v>68.79000000000001</v>
+        <v>68.59</v>
       </c>
       <c r="E113" t="n">
-        <v>68.66</v>
+        <v>68.59</v>
       </c>
       <c r="F113" t="n">
-        <v>7095.3232</v>
+        <v>11.3527</v>
       </c>
       <c r="G113" t="n">
-        <v>-75191.9352592003</v>
+        <v>-96728.82926718575</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -4640,7 +5124,9 @@
         <v>0</v>
       </c>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
+      <c r="K113" t="n">
+        <v>67</v>
+      </c>
       <c r="L113" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4649,28 +5135,29 @@
       <c r="M113" t="n">
         <v>1</v>
       </c>
+      <c r="N113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>69</v>
+        <v>68.3</v>
       </c>
       <c r="C114" t="n">
-        <v>69</v>
+        <v>68.3</v>
       </c>
       <c r="D114" t="n">
-        <v>69</v>
+        <v>68.3</v>
       </c>
       <c r="E114" t="n">
-        <v>69</v>
+        <v>68.3</v>
       </c>
       <c r="F114" t="n">
-        <v>7666.280684173913</v>
+        <v>115.148</v>
       </c>
       <c r="G114" t="n">
-        <v>-67525.65457502639</v>
+        <v>-96843.97726718575</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -4679,7 +5166,9 @@
         <v>0</v>
       </c>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
+      <c r="K114" t="n">
+        <v>67</v>
+      </c>
       <c r="L114" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4688,28 +5177,29 @@
       <c r="M114" t="n">
         <v>1</v>
       </c>
+      <c r="N114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>68.45</v>
+        <v>68.2</v>
       </c>
       <c r="C115" t="n">
-        <v>66.90000000000001</v>
+        <v>68.09999999999999</v>
       </c>
       <c r="D115" t="n">
-        <v>68.45</v>
+        <v>68.2</v>
       </c>
       <c r="E115" t="n">
-        <v>66.90000000000001</v>
+        <v>68.09999999999999</v>
       </c>
       <c r="F115" t="n">
-        <v>4067.6485</v>
+        <v>369.7768</v>
       </c>
       <c r="G115" t="n">
-        <v>-71593.30307502639</v>
+        <v>-97213.75406718576</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -4718,7 +5208,9 @@
         <v>0</v>
       </c>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
+      <c r="K115" t="n">
+        <v>67</v>
+      </c>
       <c r="L115" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4727,28 +5219,29 @@
       <c r="M115" t="n">
         <v>1</v>
       </c>
+      <c r="N115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>67.61</v>
+        <v>68</v>
       </c>
       <c r="C116" t="n">
-        <v>67.61</v>
+        <v>67.91</v>
       </c>
       <c r="D116" t="n">
-        <v>67.61</v>
+        <v>68</v>
       </c>
       <c r="E116" t="n">
-        <v>67.61</v>
+        <v>67.91</v>
       </c>
       <c r="F116" t="n">
-        <v>13.077</v>
+        <v>1242.072</v>
       </c>
       <c r="G116" t="n">
-        <v>-71580.22607502638</v>
+        <v>-98455.82606718576</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -4757,7 +5250,9 @@
         <v>0</v>
       </c>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
+      <c r="K116" t="n">
+        <v>67</v>
+      </c>
       <c r="L116" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4766,28 +5261,29 @@
       <c r="M116" t="n">
         <v>1</v>
       </c>
+      <c r="N116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>67.64</v>
+        <v>67.90000000000001</v>
       </c>
       <c r="C117" t="n">
-        <v>67.64</v>
+        <v>67.81</v>
       </c>
       <c r="D117" t="n">
-        <v>67.64</v>
+        <v>67.90000000000001</v>
       </c>
       <c r="E117" t="n">
-        <v>67.64</v>
+        <v>67.81</v>
       </c>
       <c r="F117" t="n">
-        <v>10011</v>
+        <v>121.63</v>
       </c>
       <c r="G117" t="n">
-        <v>-61569.22607502638</v>
+        <v>-98577.45606718576</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -4796,7 +5292,9 @@
         <v>0</v>
       </c>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
+      <c r="K117" t="n">
+        <v>67</v>
+      </c>
       <c r="L117" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4805,28 +5303,29 @@
       <c r="M117" t="n">
         <v>1</v>
       </c>
+      <c r="N117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>67.88</v>
+        <v>68</v>
       </c>
       <c r="C118" t="n">
-        <v>67.88</v>
+        <v>68</v>
       </c>
       <c r="D118" t="n">
-        <v>67.88</v>
+        <v>68</v>
       </c>
       <c r="E118" t="n">
-        <v>67.88</v>
+        <v>68</v>
       </c>
       <c r="F118" t="n">
-        <v>149.4768</v>
+        <v>8</v>
       </c>
       <c r="G118" t="n">
-        <v>-61419.74927502638</v>
+        <v>-98569.45606718576</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -4835,7 +5334,9 @@
         <v>0</v>
       </c>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
+      <c r="K118" t="n">
+        <v>67</v>
+      </c>
       <c r="L118" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4844,28 +5345,29 @@
       <c r="M118" t="n">
         <v>1</v>
       </c>
+      <c r="N118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>68.79000000000001</v>
+        <v>67.81</v>
       </c>
       <c r="C119" t="n">
-        <v>68.79000000000001</v>
+        <v>67.59999999999999</v>
       </c>
       <c r="D119" t="n">
-        <v>68.79000000000001</v>
+        <v>67.81</v>
       </c>
       <c r="E119" t="n">
-        <v>68.79000000000001</v>
+        <v>67.59999999999999</v>
       </c>
       <c r="F119" t="n">
-        <v>147.8852</v>
+        <v>5636.408</v>
       </c>
       <c r="G119" t="n">
-        <v>-61271.86407502639</v>
+        <v>-104205.8640671858</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -4874,7 +5376,9 @@
         <v>0</v>
       </c>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
+      <c r="K119" t="n">
+        <v>67</v>
+      </c>
       <c r="L119" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4883,28 +5387,29 @@
       <c r="M119" t="n">
         <v>1</v>
       </c>
+      <c r="N119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>68.79000000000001</v>
+        <v>67.90000000000001</v>
       </c>
       <c r="C120" t="n">
-        <v>68.79000000000001</v>
+        <v>67.90000000000001</v>
       </c>
       <c r="D120" t="n">
-        <v>68.79000000000001</v>
+        <v>67.90000000000001</v>
       </c>
       <c r="E120" t="n">
-        <v>68.79000000000001</v>
+        <v>67.90000000000001</v>
       </c>
       <c r="F120" t="n">
-        <v>353</v>
+        <v>8</v>
       </c>
       <c r="G120" t="n">
-        <v>-61271.86407502639</v>
+        <v>-104197.8640671858</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -4913,7 +5418,9 @@
         <v>0</v>
       </c>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
+      <c r="K120" t="n">
+        <v>67</v>
+      </c>
       <c r="L120" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4922,28 +5429,29 @@
       <c r="M120" t="n">
         <v>1</v>
       </c>
+      <c r="N120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>68.92</v>
+        <v>67.90000000000001</v>
       </c>
       <c r="C121" t="n">
-        <v>68.79000000000001</v>
+        <v>68</v>
       </c>
       <c r="D121" t="n">
-        <v>68.92</v>
+        <v>68</v>
       </c>
       <c r="E121" t="n">
-        <v>68.79000000000001</v>
+        <v>67.90000000000001</v>
       </c>
       <c r="F121" t="n">
-        <v>47.7193</v>
+        <v>1800</v>
       </c>
       <c r="G121" t="n">
-        <v>-61271.86407502639</v>
+        <v>-102397.8640671858</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -4952,7 +5460,9 @@
         <v>0</v>
       </c>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
+      <c r="K121" t="n">
+        <v>67</v>
+      </c>
       <c r="L121" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4961,28 +5471,29 @@
       <c r="M121" t="n">
         <v>1</v>
       </c>
+      <c r="N121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>68.09</v>
+        <v>67.62</v>
       </c>
       <c r="C122" t="n">
-        <v>68.09</v>
+        <v>67.62</v>
       </c>
       <c r="D122" t="n">
-        <v>68.09</v>
+        <v>67.62</v>
       </c>
       <c r="E122" t="n">
-        <v>68.09</v>
+        <v>67.62</v>
       </c>
       <c r="F122" t="n">
-        <v>279</v>
+        <v>8.0467</v>
       </c>
       <c r="G122" t="n">
-        <v>-61550.86407502639</v>
+        <v>-102405.9107671858</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -4991,7 +5502,9 @@
         <v>0</v>
       </c>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
+      <c r="K122" t="n">
+        <v>67</v>
+      </c>
       <c r="L122" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5000,28 +5513,29 @@
       <c r="M122" t="n">
         <v>1</v>
       </c>
+      <c r="N122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>68.09</v>
+        <v>68</v>
       </c>
       <c r="C123" t="n">
-        <v>67.03</v>
+        <v>68.3</v>
       </c>
       <c r="D123" t="n">
-        <v>68.09</v>
+        <v>68.3</v>
       </c>
       <c r="E123" t="n">
-        <v>67.03</v>
+        <v>68</v>
       </c>
       <c r="F123" t="n">
-        <v>10745.0145</v>
+        <v>4689.3195</v>
       </c>
       <c r="G123" t="n">
-        <v>-72295.87857502639</v>
+        <v>-97716.59126718577</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -5030,7 +5544,9 @@
         <v>0</v>
       </c>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
+      <c r="K123" t="n">
+        <v>67</v>
+      </c>
       <c r="L123" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5039,28 +5555,29 @@
       <c r="M123" t="n">
         <v>1</v>
       </c>
+      <c r="N123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>68.73999999999999</v>
+        <v>68.3</v>
       </c>
       <c r="C124" t="n">
-        <v>68.73999999999999</v>
+        <v>68.3</v>
       </c>
       <c r="D124" t="n">
-        <v>68.73999999999999</v>
+        <v>68.3</v>
       </c>
       <c r="E124" t="n">
-        <v>68.73999999999999</v>
+        <v>68.3</v>
       </c>
       <c r="F124" t="n">
-        <v>8</v>
+        <v>8943.8734</v>
       </c>
       <c r="G124" t="n">
-        <v>-72287.87857502639</v>
+        <v>-97716.59126718577</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -5069,7 +5586,9 @@
         <v>0</v>
       </c>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
+      <c r="K124" t="n">
+        <v>67</v>
+      </c>
       <c r="L124" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5078,28 +5597,29 @@
       <c r="M124" t="n">
         <v>1</v>
       </c>
+      <c r="N124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>67.98999999999999</v>
+        <v>68.59</v>
       </c>
       <c r="C125" t="n">
-        <v>67.98999999999999</v>
+        <v>68.72</v>
       </c>
       <c r="D125" t="n">
-        <v>67.98999999999999</v>
+        <v>68.72</v>
       </c>
       <c r="E125" t="n">
-        <v>67.98999999999999</v>
+        <v>68.59</v>
       </c>
       <c r="F125" t="n">
-        <v>13253.198</v>
+        <v>7407.113786324537</v>
       </c>
       <c r="G125" t="n">
-        <v>-85541.0765750264</v>
+        <v>-90309.47748086123</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -5108,7 +5628,9 @@
         <v>0</v>
       </c>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
+      <c r="K125" t="n">
+        <v>67</v>
+      </c>
       <c r="L125" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5117,28 +5639,29 @@
       <c r="M125" t="n">
         <v>1</v>
       </c>
+      <c r="N125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>67.98999999999999</v>
+        <v>68.72</v>
       </c>
       <c r="C126" t="n">
-        <v>67.98999999999999</v>
+        <v>68.77</v>
       </c>
       <c r="D126" t="n">
-        <v>67.98999999999999</v>
+        <v>68.77</v>
       </c>
       <c r="E126" t="n">
-        <v>67.98999999999999</v>
+        <v>68.72</v>
       </c>
       <c r="F126" t="n">
-        <v>1276</v>
+        <v>17021.52081551222</v>
       </c>
       <c r="G126" t="n">
-        <v>-85541.0765750264</v>
+        <v>-73287.956665349</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -5147,7 +5670,9 @@
         <v>0</v>
       </c>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
+      <c r="K126" t="n">
+        <v>67</v>
+      </c>
       <c r="L126" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5156,28 +5681,29 @@
       <c r="M126" t="n">
         <v>1</v>
       </c>
+      <c r="N126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>67.98999999999999</v>
+        <v>68.79000000000001</v>
       </c>
       <c r="C127" t="n">
-        <v>68.54000000000001</v>
+        <v>69</v>
       </c>
       <c r="D127" t="n">
-        <v>68.54000000000001</v>
+        <v>69</v>
       </c>
       <c r="E127" t="n">
-        <v>67.98999999999999</v>
+        <v>68.79000000000001</v>
       </c>
       <c r="F127" t="n">
-        <v>1142.1549</v>
+        <v>6392.2178</v>
       </c>
       <c r="G127" t="n">
-        <v>-84398.9216750264</v>
+        <v>-66895.73886534901</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -5186,7 +5712,9 @@
         <v>0</v>
       </c>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
+      <c r="K127" t="n">
+        <v>67</v>
+      </c>
       <c r="L127" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5195,28 +5723,29 @@
       <c r="M127" t="n">
         <v>1</v>
       </c>
+      <c r="N127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>67.7</v>
+        <v>69.25</v>
       </c>
       <c r="C128" t="n">
-        <v>67.70999999999999</v>
+        <v>69.27</v>
       </c>
       <c r="D128" t="n">
-        <v>67.8</v>
+        <v>69.27</v>
       </c>
       <c r="E128" t="n">
-        <v>67.7</v>
+        <v>69.25</v>
       </c>
       <c r="F128" t="n">
-        <v>1976.9936</v>
+        <v>22781.0817</v>
       </c>
       <c r="G128" t="n">
-        <v>-86375.9152750264</v>
+        <v>-44114.65716534901</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -5225,7 +5754,9 @@
         <v>0</v>
       </c>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
+      <c r="K128" t="n">
+        <v>67</v>
+      </c>
       <c r="L128" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5234,28 +5765,29 @@
       <c r="M128" t="n">
         <v>1</v>
       </c>
+      <c r="N128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>67.7</v>
+        <v>69.29000000000001</v>
       </c>
       <c r="C129" t="n">
-        <v>67.34999999999999</v>
+        <v>69.27</v>
       </c>
       <c r="D129" t="n">
-        <v>67.7</v>
+        <v>69.29000000000001</v>
       </c>
       <c r="E129" t="n">
-        <v>67.34999999999999</v>
+        <v>69.27</v>
       </c>
       <c r="F129" t="n">
-        <v>721.9503999999999</v>
+        <v>3847.362</v>
       </c>
       <c r="G129" t="n">
-        <v>-87097.86567502641</v>
+        <v>-44114.65716534901</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -5264,7 +5796,9 @@
         <v>0</v>
       </c>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
+      <c r="K129" t="n">
+        <v>67</v>
+      </c>
       <c r="L129" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5273,28 +5807,29 @@
       <c r="M129" t="n">
         <v>1</v>
       </c>
+      <c r="N129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>68.37</v>
+        <v>69.38</v>
       </c>
       <c r="C130" t="n">
-        <v>68.37</v>
+        <v>69.38</v>
       </c>
       <c r="D130" t="n">
-        <v>68.37</v>
+        <v>69.38</v>
       </c>
       <c r="E130" t="n">
-        <v>68.37</v>
+        <v>69.38</v>
       </c>
       <c r="F130" t="n">
-        <v>50</v>
+        <v>8</v>
       </c>
       <c r="G130" t="n">
-        <v>-87047.86567502641</v>
+        <v>-44106.65716534901</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -5303,7 +5838,9 @@
         <v>0</v>
       </c>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
+      <c r="K130" t="n">
+        <v>67</v>
+      </c>
       <c r="L130" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5312,28 +5849,29 @@
       <c r="M130" t="n">
         <v>1</v>
       </c>
+      <c r="N130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>67.53</v>
+        <v>68.11</v>
       </c>
       <c r="C131" t="n">
-        <v>67.53</v>
+        <v>68</v>
       </c>
       <c r="D131" t="n">
-        <v>67.53</v>
+        <v>68.11</v>
       </c>
       <c r="E131" t="n">
-        <v>67.53</v>
+        <v>68</v>
       </c>
       <c r="F131" t="n">
-        <v>15</v>
+        <v>7977.9933</v>
       </c>
       <c r="G131" t="n">
-        <v>-87062.86567502641</v>
+        <v>-52084.65046534901</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -5342,7 +5880,9 @@
         <v>0</v>
       </c>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
+      <c r="K131" t="n">
+        <v>67</v>
+      </c>
       <c r="L131" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5351,28 +5891,29 @@
       <c r="M131" t="n">
         <v>1</v>
       </c>
+      <c r="N131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>67.54000000000001</v>
+        <v>69.19</v>
       </c>
       <c r="C132" t="n">
-        <v>67.52</v>
+        <v>69.19</v>
       </c>
       <c r="D132" t="n">
-        <v>67.54000000000001</v>
+        <v>69.19</v>
       </c>
       <c r="E132" t="n">
-        <v>67.52</v>
+        <v>69.19</v>
       </c>
       <c r="F132" t="n">
-        <v>12101.4243</v>
+        <v>8</v>
       </c>
       <c r="G132" t="n">
-        <v>-99164.2899750264</v>
+        <v>-52076.65046534901</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -5381,7 +5922,9 @@
         <v>0</v>
       </c>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
+      <c r="K132" t="n">
+        <v>67</v>
+      </c>
       <c r="L132" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5390,28 +5933,29 @@
       <c r="M132" t="n">
         <v>1</v>
       </c>
+      <c r="N132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>67.51000000000001</v>
+        <v>68.98999999999999</v>
       </c>
       <c r="C133" t="n">
-        <v>67.51000000000001</v>
+        <v>68.98999999999999</v>
       </c>
       <c r="D133" t="n">
-        <v>67.51000000000001</v>
+        <v>68.98999999999999</v>
       </c>
       <c r="E133" t="n">
-        <v>67.51000000000001</v>
+        <v>68.98999999999999</v>
       </c>
       <c r="F133" t="n">
-        <v>1864.6971</v>
+        <v>6948.213</v>
       </c>
       <c r="G133" t="n">
-        <v>-101028.9870750264</v>
+        <v>-59024.86346534902</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -5420,7 +5964,9 @@
         <v>0</v>
       </c>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
+      <c r="K133" t="n">
+        <v>67</v>
+      </c>
       <c r="L133" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5429,28 +5975,29 @@
       <c r="M133" t="n">
         <v>1</v>
       </c>
+      <c r="N133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>67.59999999999999</v>
+        <v>68.05</v>
       </c>
       <c r="C134" t="n">
-        <v>67.54000000000001</v>
+        <v>68</v>
       </c>
       <c r="D134" t="n">
-        <v>67.59999999999999</v>
+        <v>68.05</v>
       </c>
       <c r="E134" t="n">
-        <v>67.54000000000001</v>
+        <v>68</v>
       </c>
       <c r="F134" t="n">
-        <v>1577.8946</v>
+        <v>8338.2657</v>
       </c>
       <c r="G134" t="n">
-        <v>-99451.09247502641</v>
+        <v>-67363.12916534902</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -5459,7 +6006,9 @@
         <v>0</v>
       </c>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
+      <c r="K134" t="n">
+        <v>67</v>
+      </c>
       <c r="L134" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5468,28 +6017,29 @@
       <c r="M134" t="n">
         <v>1</v>
       </c>
+      <c r="N134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>67.51000000000001</v>
+        <v>68.98999999999999</v>
       </c>
       <c r="C135" t="n">
-        <v>67.51000000000001</v>
+        <v>68</v>
       </c>
       <c r="D135" t="n">
-        <v>67.51000000000001</v>
+        <v>68.98999999999999</v>
       </c>
       <c r="E135" t="n">
-        <v>67.51000000000001</v>
+        <v>68</v>
       </c>
       <c r="F135" t="n">
-        <v>1071.1933</v>
+        <v>1045.7942</v>
       </c>
       <c r="G135" t="n">
-        <v>-100522.2857750264</v>
+        <v>-67363.12916534902</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -5498,7 +6048,9 @@
         <v>0</v>
       </c>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
+      <c r="K135" t="n">
+        <v>67</v>
+      </c>
       <c r="L135" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5507,28 +6059,29 @@
       <c r="M135" t="n">
         <v>1</v>
       </c>
+      <c r="N135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>68.2</v>
+        <v>68.59</v>
       </c>
       <c r="C136" t="n">
-        <v>68.2</v>
+        <v>68.59</v>
       </c>
       <c r="D136" t="n">
-        <v>68.2</v>
+        <v>68.59</v>
       </c>
       <c r="E136" t="n">
-        <v>68.2</v>
+        <v>68.59</v>
       </c>
       <c r="F136" t="n">
-        <v>10</v>
+        <v>8087.5792</v>
       </c>
       <c r="G136" t="n">
-        <v>-100512.2857750264</v>
+        <v>-59275.54996534902</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -5537,7 +6090,9 @@
         <v>0</v>
       </c>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
+      <c r="K136" t="n">
+        <v>67</v>
+      </c>
       <c r="L136" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5546,28 +6101,29 @@
       <c r="M136" t="n">
         <v>1</v>
       </c>
+      <c r="N136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>68.2</v>
+        <v>69</v>
       </c>
       <c r="C137" t="n">
-        <v>68.2</v>
+        <v>69</v>
       </c>
       <c r="D137" t="n">
-        <v>68.2</v>
+        <v>69</v>
       </c>
       <c r="E137" t="n">
-        <v>68.2</v>
+        <v>69</v>
       </c>
       <c r="F137" t="n">
-        <v>107.4327</v>
+        <v>8</v>
       </c>
       <c r="G137" t="n">
-        <v>-100512.2857750264</v>
+        <v>-59267.54996534902</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -5576,7 +6132,9 @@
         <v>0</v>
       </c>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
+      <c r="K137" t="n">
+        <v>67</v>
+      </c>
       <c r="L137" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5585,28 +6143,29 @@
       <c r="M137" t="n">
         <v>1</v>
       </c>
+      <c r="N137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>67.51000000000001</v>
+        <v>68.02</v>
       </c>
       <c r="C138" t="n">
-        <v>67.51000000000001</v>
+        <v>67.53</v>
       </c>
       <c r="D138" t="n">
-        <v>67.51000000000001</v>
+        <v>68.02</v>
       </c>
       <c r="E138" t="n">
-        <v>67.51000000000001</v>
+        <v>67.53</v>
       </c>
       <c r="F138" t="n">
-        <v>200</v>
+        <v>13501.4325</v>
       </c>
       <c r="G138" t="n">
-        <v>-100712.2857750264</v>
+        <v>-72768.98246534902</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -5615,7 +6174,9 @@
         <v>0</v>
       </c>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
+      <c r="K138" t="n">
+        <v>67</v>
+      </c>
       <c r="L138" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5624,379 +6185,359 @@
       <c r="M138" t="n">
         <v>1</v>
       </c>
+      <c r="N138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>68</v>
+        <v>68.79000000000001</v>
       </c>
       <c r="C139" t="n">
-        <v>68.2</v>
+        <v>69.29000000000001</v>
       </c>
       <c r="D139" t="n">
-        <v>68.2</v>
+        <v>69.29000000000001</v>
       </c>
       <c r="E139" t="n">
-        <v>68</v>
+        <v>68.79000000000001</v>
       </c>
       <c r="F139" t="n">
-        <v>151.9994096774194</v>
+        <v>17665.47218034348</v>
       </c>
       <c r="G139" t="n">
-        <v>-100560.286365349</v>
+        <v>-55103.51028500554</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
       </c>
       <c r="I139" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
+      <c r="K139" t="n">
+        <v>67</v>
+      </c>
       <c r="L139" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="M139" t="n">
-        <v>1</v>
-      </c>
+        <v>1.029179104477612</v>
+      </c>
+      <c r="N139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>67.52</v>
+        <v>69.34</v>
       </c>
       <c r="C140" t="n">
-        <v>67.52</v>
+        <v>69.37</v>
       </c>
       <c r="D140" t="n">
-        <v>67.52</v>
+        <v>69.37</v>
       </c>
       <c r="E140" t="n">
-        <v>67.52</v>
+        <v>69.34</v>
       </c>
       <c r="F140" t="n">
-        <v>1850.9361</v>
+        <v>175.0071963961367</v>
       </c>
       <c r="G140" t="n">
-        <v>-102411.222465349</v>
+        <v>-54928.5030886094</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
       </c>
       <c r="I140" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J140" t="inlineStr"/>
       <c r="K140" t="inlineStr"/>
-      <c r="L140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L140" t="inlineStr"/>
       <c r="M140" t="n">
         <v>1</v>
       </c>
+      <c r="N140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>68</v>
+        <v>69.36</v>
       </c>
       <c r="C141" t="n">
-        <v>68.2</v>
+        <v>69.36</v>
       </c>
       <c r="D141" t="n">
-        <v>68.2</v>
+        <v>69.38</v>
       </c>
       <c r="E141" t="n">
-        <v>68</v>
+        <v>69.36</v>
       </c>
       <c r="F141" t="n">
-        <v>18372.8828</v>
+        <v>49</v>
       </c>
       <c r="G141" t="n">
-        <v>-84038.33966534899</v>
+        <v>-54977.5030886094</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
       </c>
       <c r="I141" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J141" t="inlineStr"/>
       <c r="K141" t="inlineStr"/>
-      <c r="L141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L141" t="inlineStr"/>
       <c r="M141" t="n">
         <v>1</v>
       </c>
+      <c r="N141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>68.28</v>
+        <v>69.36</v>
       </c>
       <c r="C142" t="n">
-        <v>68.72</v>
+        <v>69.36</v>
       </c>
       <c r="D142" t="n">
-        <v>68.72</v>
+        <v>69.36</v>
       </c>
       <c r="E142" t="n">
-        <v>68.28</v>
+        <v>69.36</v>
       </c>
       <c r="F142" t="n">
-        <v>570</v>
+        <v>213.2144</v>
       </c>
       <c r="G142" t="n">
-        <v>-83468.33966534899</v>
+        <v>-54977.5030886094</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
       </c>
       <c r="I142" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J142" t="inlineStr"/>
       <c r="K142" t="inlineStr"/>
-      <c r="L142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L142" t="inlineStr"/>
       <c r="M142" t="n">
         <v>1</v>
       </c>
+      <c r="N142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>68.70999999999999</v>
+        <v>69.36</v>
       </c>
       <c r="C143" t="n">
-        <v>68.72</v>
+        <v>68.12</v>
       </c>
       <c r="D143" t="n">
-        <v>68.72</v>
+        <v>69.36</v>
       </c>
       <c r="E143" t="n">
-        <v>68.70999999999999</v>
+        <v>68.12</v>
       </c>
       <c r="F143" t="n">
-        <v>284.4061</v>
+        <v>5154.4399</v>
       </c>
       <c r="G143" t="n">
-        <v>-83468.33966534899</v>
+        <v>-60131.9429886094</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
       </c>
       <c r="I143" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J143" t="inlineStr"/>
       <c r="K143" t="inlineStr"/>
-      <c r="L143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L143" t="inlineStr"/>
       <c r="M143" t="n">
         <v>1</v>
       </c>
+      <c r="N143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>68.70999999999999</v>
+        <v>68.41</v>
       </c>
       <c r="C144" t="n">
-        <v>68.72</v>
+        <v>68.41</v>
       </c>
       <c r="D144" t="n">
-        <v>68.72</v>
+        <v>68.41</v>
       </c>
       <c r="E144" t="n">
-        <v>68.70999999999999</v>
+        <v>68.41</v>
       </c>
       <c r="F144" t="n">
-        <v>222.6608</v>
+        <v>853.4956</v>
       </c>
       <c r="G144" t="n">
-        <v>-83468.33966534899</v>
+        <v>-59278.4473886094</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
       </c>
       <c r="I144" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J144" t="inlineStr"/>
       <c r="K144" t="inlineStr"/>
-      <c r="L144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L144" t="inlineStr"/>
       <c r="M144" t="n">
         <v>1</v>
       </c>
+      <c r="N144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>68.20999999999999</v>
+        <v>69.26000000000001</v>
       </c>
       <c r="C145" t="n">
-        <v>68.70999999999999</v>
+        <v>69.26000000000001</v>
       </c>
       <c r="D145" t="n">
-        <v>68.70999999999999</v>
+        <v>69.26000000000001</v>
       </c>
       <c r="E145" t="n">
-        <v>68.20999999999999</v>
+        <v>69.26000000000001</v>
       </c>
       <c r="F145" t="n">
-        <v>497</v>
+        <v>8</v>
       </c>
       <c r="G145" t="n">
-        <v>-83965.33966534899</v>
+        <v>-59270.4473886094</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
       </c>
       <c r="I145" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J145" t="inlineStr"/>
       <c r="K145" t="inlineStr"/>
-      <c r="L145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L145" t="inlineStr"/>
       <c r="M145" t="n">
         <v>1</v>
       </c>
+      <c r="N145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>68.70999999999999</v>
+        <v>68.42</v>
       </c>
       <c r="C146" t="n">
-        <v>68.72</v>
+        <v>68</v>
       </c>
       <c r="D146" t="n">
-        <v>68.72</v>
+        <v>68.42</v>
       </c>
       <c r="E146" t="n">
-        <v>68.70999999999999</v>
+        <v>68</v>
       </c>
       <c r="F146" t="n">
-        <v>423.0708</v>
+        <v>17050.0608</v>
       </c>
       <c r="G146" t="n">
-        <v>-83542.26886534899</v>
+        <v>-76320.5081886094</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
       </c>
       <c r="I146" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J146" t="inlineStr"/>
       <c r="K146" t="inlineStr"/>
-      <c r="L146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L146" t="inlineStr"/>
       <c r="M146" t="n">
         <v>1</v>
       </c>
+      <c r="N146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>68.22</v>
+        <v>68.5</v>
       </c>
       <c r="C147" t="n">
-        <v>68.22</v>
+        <v>69.52</v>
       </c>
       <c r="D147" t="n">
-        <v>68.22</v>
+        <v>69.56</v>
       </c>
       <c r="E147" t="n">
-        <v>68.22</v>
+        <v>68.5</v>
       </c>
       <c r="F147" t="n">
-        <v>1729</v>
+        <v>14001.58538401921</v>
       </c>
       <c r="G147" t="n">
-        <v>-85271.26886534899</v>
+        <v>-62318.92280459018</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
       </c>
       <c r="I147" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J147" t="inlineStr"/>
       <c r="K147" t="inlineStr"/>
-      <c r="L147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L147" t="inlineStr"/>
       <c r="M147" t="n">
         <v>1</v>
       </c>
+      <c r="N147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>68.70999999999999</v>
+        <v>69.51000000000001</v>
       </c>
       <c r="C148" t="n">
-        <v>68.72</v>
+        <v>69.51000000000001</v>
       </c>
       <c r="D148" t="n">
-        <v>68.72</v>
+        <v>69.51000000000001</v>
       </c>
       <c r="E148" t="n">
-        <v>68.70999999999999</v>
+        <v>69.51000000000001</v>
       </c>
       <c r="F148" t="n">
-        <v>249.2450844877765</v>
+        <v>18.42900302114804</v>
       </c>
       <c r="G148" t="n">
-        <v>-85022.02378086121</v>
+        <v>-62337.35180761133</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -6006,75 +6547,69 @@
       </c>
       <c r="J148" t="inlineStr"/>
       <c r="K148" t="inlineStr"/>
-      <c r="L148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L148" t="inlineStr"/>
       <c r="M148" t="n">
         <v>1</v>
       </c>
+      <c r="N148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>68.7</v>
+        <v>68.41</v>
       </c>
       <c r="C149" t="n">
-        <v>68.72</v>
+        <v>68</v>
       </c>
       <c r="D149" t="n">
-        <v>68.72</v>
+        <v>68.41</v>
       </c>
       <c r="E149" t="n">
-        <v>68.7</v>
+        <v>68</v>
       </c>
       <c r="F149" t="n">
-        <v>482.8494</v>
+        <v>5293.1176</v>
       </c>
       <c r="G149" t="n">
-        <v>-85022.02378086121</v>
+        <v>-67630.46940761134</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
       </c>
       <c r="I149" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J149" t="inlineStr"/>
       <c r="K149" t="inlineStr"/>
-      <c r="L149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L149" t="inlineStr"/>
       <c r="M149" t="n">
         <v>1</v>
       </c>
+      <c r="N149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>68.22</v>
+        <v>69.25</v>
       </c>
       <c r="C150" t="n">
-        <v>68.09999999999999</v>
+        <v>69.25</v>
       </c>
       <c r="D150" t="n">
-        <v>68.22</v>
+        <v>69.25</v>
       </c>
       <c r="E150" t="n">
-        <v>68.09999999999999</v>
+        <v>69.25</v>
       </c>
       <c r="F150" t="n">
-        <v>1186.1728</v>
+        <v>8</v>
       </c>
       <c r="G150" t="n">
-        <v>-86208.19658086121</v>
+        <v>-67622.46940761134</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -6084,36 +6619,33 @@
       </c>
       <c r="J150" t="inlineStr"/>
       <c r="K150" t="inlineStr"/>
-      <c r="L150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L150" t="inlineStr"/>
       <c r="M150" t="n">
         <v>1</v>
       </c>
+      <c r="N150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>68.01000000000001</v>
+        <v>68.2</v>
       </c>
       <c r="C151" t="n">
-        <v>68.02</v>
+        <v>68.2</v>
       </c>
       <c r="D151" t="n">
-        <v>68.02</v>
+        <v>68.2</v>
       </c>
       <c r="E151" t="n">
-        <v>68.01000000000001</v>
+        <v>68.2</v>
       </c>
       <c r="F151" t="n">
-        <v>8370.8272</v>
+        <v>296.069</v>
       </c>
       <c r="G151" t="n">
-        <v>-94579.02378086121</v>
+        <v>-67918.53840761134</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -6123,75 +6655,69 @@
       </c>
       <c r="J151" t="inlineStr"/>
       <c r="K151" t="inlineStr"/>
-      <c r="L151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L151" t="inlineStr"/>
       <c r="M151" t="n">
         <v>1</v>
       </c>
+      <c r="N151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>68.02</v>
+        <v>68.2</v>
       </c>
       <c r="C152" t="n">
-        <v>67.90000000000001</v>
+        <v>68.2</v>
       </c>
       <c r="D152" t="n">
-        <v>68.02</v>
+        <v>68.2</v>
       </c>
       <c r="E152" t="n">
-        <v>67.90000000000001</v>
+        <v>68.2</v>
       </c>
       <c r="F152" t="n">
-        <v>2000</v>
+        <v>3703.931</v>
       </c>
       <c r="G152" t="n">
-        <v>-96579.02378086121</v>
+        <v>-67918.53840761134</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
       </c>
       <c r="I152" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J152" t="inlineStr"/>
       <c r="K152" t="inlineStr"/>
-      <c r="L152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L152" t="inlineStr"/>
       <c r="M152" t="n">
         <v>1</v>
       </c>
+      <c r="N152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>68.59</v>
+        <v>68.90000000000001</v>
       </c>
       <c r="C153" t="n">
-        <v>68.59</v>
+        <v>68.90000000000001</v>
       </c>
       <c r="D153" t="n">
-        <v>68.59</v>
+        <v>68.90000000000001</v>
       </c>
       <c r="E153" t="n">
-        <v>68.59</v>
+        <v>68.90000000000001</v>
       </c>
       <c r="F153" t="n">
-        <v>32.84181367546289</v>
+        <v>296.069</v>
       </c>
       <c r="G153" t="n">
-        <v>-96546.18196718575</v>
+        <v>-67622.46940761134</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -6201,1911 +6727,263 @@
       </c>
       <c r="J153" t="inlineStr"/>
       <c r="K153" t="inlineStr"/>
-      <c r="L153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L153" t="inlineStr"/>
       <c r="M153" t="n">
         <v>1</v>
       </c>
+      <c r="N153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>68.58</v>
+        <v>69.25</v>
       </c>
       <c r="C154" t="n">
-        <v>68.3</v>
+        <v>69.3</v>
       </c>
       <c r="D154" t="n">
-        <v>68.58</v>
+        <v>69.3</v>
       </c>
       <c r="E154" t="n">
-        <v>68.3</v>
+        <v>69.25</v>
       </c>
       <c r="F154" t="n">
-        <v>194</v>
+        <v>12817.4487</v>
       </c>
       <c r="G154" t="n">
-        <v>-96740.18196718575</v>
+        <v>-54805.02070761134</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
       </c>
       <c r="I154" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J154" t="inlineStr"/>
       <c r="K154" t="inlineStr"/>
-      <c r="L154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L154" t="inlineStr"/>
       <c r="M154" t="n">
         <v>1</v>
       </c>
+      <c r="N154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
         <v>153</v>
       </c>
       <c r="B155" t="n">
-        <v>68.59</v>
+        <v>69.43000000000001</v>
       </c>
       <c r="C155" t="n">
-        <v>68.59</v>
+        <v>69.64</v>
       </c>
       <c r="D155" t="n">
-        <v>68.59</v>
+        <v>69.64</v>
       </c>
       <c r="E155" t="n">
-        <v>68.59</v>
+        <v>69.43000000000001</v>
       </c>
       <c r="F155" t="n">
-        <v>11.3527</v>
+        <v>14787.68565038815</v>
       </c>
       <c r="G155" t="n">
-        <v>-96728.82926718575</v>
+        <v>-40017.33505722319</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
       </c>
       <c r="I155" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J155" t="inlineStr"/>
       <c r="K155" t="inlineStr"/>
-      <c r="L155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L155" t="inlineStr"/>
       <c r="M155" t="n">
         <v>1</v>
       </c>
+      <c r="N155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
         <v>154</v>
       </c>
       <c r="B156" t="n">
-        <v>68.3</v>
+        <v>69.69</v>
       </c>
       <c r="C156" t="n">
-        <v>68.3</v>
+        <v>69.8</v>
       </c>
       <c r="D156" t="n">
-        <v>68.3</v>
+        <v>69.8</v>
       </c>
       <c r="E156" t="n">
-        <v>68.3</v>
+        <v>69.69</v>
       </c>
       <c r="F156" t="n">
-        <v>115.148</v>
+        <v>32904.3365</v>
       </c>
       <c r="G156" t="n">
-        <v>-96843.97726718575</v>
+        <v>-7112.998557223189</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
       </c>
       <c r="I156" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J156" t="inlineStr"/>
       <c r="K156" t="inlineStr"/>
-      <c r="L156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L156" t="inlineStr"/>
       <c r="M156" t="n">
         <v>1</v>
       </c>
+      <c r="N156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
         <v>155</v>
       </c>
       <c r="B157" t="n">
-        <v>68.2</v>
+        <v>69.83</v>
       </c>
       <c r="C157" t="n">
-        <v>68.09999999999999</v>
+        <v>69.98</v>
       </c>
       <c r="D157" t="n">
-        <v>68.2</v>
+        <v>69.98</v>
       </c>
       <c r="E157" t="n">
-        <v>68.09999999999999</v>
+        <v>69.83</v>
       </c>
       <c r="F157" t="n">
-        <v>369.7768</v>
+        <v>4708.9945</v>
       </c>
       <c r="G157" t="n">
-        <v>-97213.75406718576</v>
+        <v>-2404.004057223189</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
       </c>
       <c r="I157" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J157" t="inlineStr"/>
       <c r="K157" t="inlineStr"/>
-      <c r="L157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L157" t="inlineStr"/>
       <c r="M157" t="n">
         <v>1</v>
       </c>
+      <c r="N157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
         <v>156</v>
       </c>
       <c r="B158" t="n">
+        <v>69.98</v>
+      </c>
+      <c r="C158" t="n">
         <v>68</v>
       </c>
-      <c r="C158" t="n">
-        <v>67.91</v>
-      </c>
       <c r="D158" t="n">
+        <v>70</v>
+      </c>
+      <c r="E158" t="n">
         <v>68</v>
       </c>
-      <c r="E158" t="n">
-        <v>67.91</v>
-      </c>
       <c r="F158" t="n">
-        <v>1242.072</v>
+        <v>34748.1512</v>
       </c>
       <c r="G158" t="n">
-        <v>-98455.82606718576</v>
+        <v>-37152.15525722319</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
       </c>
       <c r="I158" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J158" t="inlineStr"/>
       <c r="K158" t="inlineStr"/>
-      <c r="L158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L158" t="inlineStr"/>
       <c r="M158" t="n">
         <v>1</v>
       </c>
+      <c r="N158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
         <v>157</v>
       </c>
       <c r="B159" t="n">
-        <v>67.90000000000001</v>
+        <v>68.8</v>
       </c>
       <c r="C159" t="n">
-        <v>67.81</v>
+        <v>69.83</v>
       </c>
       <c r="D159" t="n">
-        <v>67.90000000000001</v>
+        <v>69.83</v>
       </c>
       <c r="E159" t="n">
-        <v>67.81</v>
+        <v>68.8</v>
       </c>
       <c r="F159" t="n">
-        <v>121.63</v>
+        <v>110</v>
       </c>
       <c r="G159" t="n">
-        <v>-98577.45606718576</v>
+        <v>-37042.15525722319</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
       </c>
       <c r="I159" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J159" t="inlineStr"/>
       <c r="K159" t="inlineStr"/>
-      <c r="L159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L159" t="inlineStr"/>
       <c r="M159" t="n">
         <v>1</v>
       </c>
+      <c r="N159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
         <v>158</v>
       </c>
       <c r="B160" t="n">
-        <v>68</v>
+        <v>69.06</v>
       </c>
       <c r="C160" t="n">
-        <v>68</v>
+        <v>69.06</v>
       </c>
       <c r="D160" t="n">
-        <v>68</v>
+        <v>69.06</v>
       </c>
       <c r="E160" t="n">
-        <v>68</v>
+        <v>69.06</v>
       </c>
       <c r="F160" t="n">
-        <v>8</v>
+        <v>1988.9411</v>
       </c>
       <c r="G160" t="n">
-        <v>-98569.45606718576</v>
+        <v>-39031.09635722318</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
       </c>
       <c r="I160" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J160" t="inlineStr"/>
       <c r="K160" t="inlineStr"/>
-      <c r="L160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L160" t="inlineStr"/>
       <c r="M160" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="161">
-      <c r="A161" s="1" t="n">
-        <v>159</v>
-      </c>
-      <c r="B161" t="n">
-        <v>67.81</v>
-      </c>
-      <c r="C161" t="n">
-        <v>67.59999999999999</v>
-      </c>
-      <c r="D161" t="n">
-        <v>67.81</v>
-      </c>
-      <c r="E161" t="n">
-        <v>67.59999999999999</v>
-      </c>
-      <c r="F161" t="n">
-        <v>5636.408</v>
-      </c>
-      <c r="G161" t="n">
-        <v>-104205.8640671858</v>
-      </c>
-      <c r="H161" t="n">
-        <v>0</v>
-      </c>
-      <c r="I161" t="n">
-        <v>0</v>
-      </c>
-      <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
-      <c r="L161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M161" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="162">
-      <c r="A162" s="1" t="n">
-        <v>160</v>
-      </c>
-      <c r="B162" t="n">
-        <v>67.90000000000001</v>
-      </c>
-      <c r="C162" t="n">
-        <v>67.90000000000001</v>
-      </c>
-      <c r="D162" t="n">
-        <v>67.90000000000001</v>
-      </c>
-      <c r="E162" t="n">
-        <v>67.90000000000001</v>
-      </c>
-      <c r="F162" t="n">
-        <v>8</v>
-      </c>
-      <c r="G162" t="n">
-        <v>-104197.8640671858</v>
-      </c>
-      <c r="H162" t="n">
-        <v>0</v>
-      </c>
-      <c r="I162" t="n">
-        <v>0</v>
-      </c>
-      <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
-      <c r="L162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M162" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="163">
-      <c r="A163" s="1" t="n">
-        <v>161</v>
-      </c>
-      <c r="B163" t="n">
-        <v>67.90000000000001</v>
-      </c>
-      <c r="C163" t="n">
-        <v>68</v>
-      </c>
-      <c r="D163" t="n">
-        <v>68</v>
-      </c>
-      <c r="E163" t="n">
-        <v>67.90000000000001</v>
-      </c>
-      <c r="F163" t="n">
-        <v>1800</v>
-      </c>
-      <c r="G163" t="n">
-        <v>-102397.8640671858</v>
-      </c>
-      <c r="H163" t="n">
-        <v>0</v>
-      </c>
-      <c r="I163" t="n">
-        <v>0</v>
-      </c>
-      <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
-      <c r="L163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M163" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="164">
-      <c r="A164" s="1" t="n">
-        <v>162</v>
-      </c>
-      <c r="B164" t="n">
-        <v>67.62</v>
-      </c>
-      <c r="C164" t="n">
-        <v>67.62</v>
-      </c>
-      <c r="D164" t="n">
-        <v>67.62</v>
-      </c>
-      <c r="E164" t="n">
-        <v>67.62</v>
-      </c>
-      <c r="F164" t="n">
-        <v>8.0467</v>
-      </c>
-      <c r="G164" t="n">
-        <v>-102405.9107671858</v>
-      </c>
-      <c r="H164" t="n">
-        <v>0</v>
-      </c>
-      <c r="I164" t="n">
-        <v>0</v>
-      </c>
-      <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
-      <c r="L164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M164" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="165">
-      <c r="A165" s="1" t="n">
-        <v>163</v>
-      </c>
-      <c r="B165" t="n">
-        <v>68</v>
-      </c>
-      <c r="C165" t="n">
-        <v>68.3</v>
-      </c>
-      <c r="D165" t="n">
-        <v>68.3</v>
-      </c>
-      <c r="E165" t="n">
-        <v>68</v>
-      </c>
-      <c r="F165" t="n">
-        <v>4689.3195</v>
-      </c>
-      <c r="G165" t="n">
-        <v>-97716.59126718577</v>
-      </c>
-      <c r="H165" t="n">
-        <v>0</v>
-      </c>
-      <c r="I165" t="n">
-        <v>0</v>
-      </c>
-      <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
-      <c r="L165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M165" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="166">
-      <c r="A166" s="1" t="n">
-        <v>164</v>
-      </c>
-      <c r="B166" t="n">
-        <v>68.3</v>
-      </c>
-      <c r="C166" t="n">
-        <v>68.3</v>
-      </c>
-      <c r="D166" t="n">
-        <v>68.3</v>
-      </c>
-      <c r="E166" t="n">
-        <v>68.3</v>
-      </c>
-      <c r="F166" t="n">
-        <v>8943.8734</v>
-      </c>
-      <c r="G166" t="n">
-        <v>-97716.59126718577</v>
-      </c>
-      <c r="H166" t="n">
-        <v>0</v>
-      </c>
-      <c r="I166" t="n">
-        <v>0</v>
-      </c>
-      <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
-      <c r="L166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M166" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="167">
-      <c r="A167" s="1" t="n">
-        <v>165</v>
-      </c>
-      <c r="B167" t="n">
-        <v>68.59</v>
-      </c>
-      <c r="C167" t="n">
-        <v>68.72</v>
-      </c>
-      <c r="D167" t="n">
-        <v>68.72</v>
-      </c>
-      <c r="E167" t="n">
-        <v>68.59</v>
-      </c>
-      <c r="F167" t="n">
-        <v>7407.113786324537</v>
-      </c>
-      <c r="G167" t="n">
-        <v>-90309.47748086123</v>
-      </c>
-      <c r="H167" t="n">
-        <v>0</v>
-      </c>
-      <c r="I167" t="n">
-        <v>0</v>
-      </c>
-      <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
-      <c r="L167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M167" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="168">
-      <c r="A168" s="1" t="n">
-        <v>166</v>
-      </c>
-      <c r="B168" t="n">
-        <v>68.72</v>
-      </c>
-      <c r="C168" t="n">
-        <v>68.77</v>
-      </c>
-      <c r="D168" t="n">
-        <v>68.77</v>
-      </c>
-      <c r="E168" t="n">
-        <v>68.72</v>
-      </c>
-      <c r="F168" t="n">
-        <v>17021.52081551222</v>
-      </c>
-      <c r="G168" t="n">
-        <v>-73287.956665349</v>
-      </c>
-      <c r="H168" t="n">
-        <v>0</v>
-      </c>
-      <c r="I168" t="n">
-        <v>0</v>
-      </c>
-      <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
-      <c r="L168" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M168" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="169">
-      <c r="A169" s="1" t="n">
-        <v>167</v>
-      </c>
-      <c r="B169" t="n">
-        <v>68.79000000000001</v>
-      </c>
-      <c r="C169" t="n">
-        <v>69</v>
-      </c>
-      <c r="D169" t="n">
-        <v>69</v>
-      </c>
-      <c r="E169" t="n">
-        <v>68.79000000000001</v>
-      </c>
-      <c r="F169" t="n">
-        <v>6392.2178</v>
-      </c>
-      <c r="G169" t="n">
-        <v>-66895.73886534901</v>
-      </c>
-      <c r="H169" t="n">
-        <v>0</v>
-      </c>
-      <c r="I169" t="n">
-        <v>0</v>
-      </c>
-      <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
-      <c r="L169" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M169" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="170">
-      <c r="A170" s="1" t="n">
-        <v>168</v>
-      </c>
-      <c r="B170" t="n">
-        <v>69.25</v>
-      </c>
-      <c r="C170" t="n">
-        <v>69.27</v>
-      </c>
-      <c r="D170" t="n">
-        <v>69.27</v>
-      </c>
-      <c r="E170" t="n">
-        <v>69.25</v>
-      </c>
-      <c r="F170" t="n">
-        <v>22781.0817</v>
-      </c>
-      <c r="G170" t="n">
-        <v>-44114.65716534901</v>
-      </c>
-      <c r="H170" t="n">
-        <v>0</v>
-      </c>
-      <c r="I170" t="n">
-        <v>0</v>
-      </c>
-      <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
-      <c r="L170" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M170" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="171">
-      <c r="A171" s="1" t="n">
-        <v>169</v>
-      </c>
-      <c r="B171" t="n">
-        <v>69.29000000000001</v>
-      </c>
-      <c r="C171" t="n">
-        <v>69.27</v>
-      </c>
-      <c r="D171" t="n">
-        <v>69.29000000000001</v>
-      </c>
-      <c r="E171" t="n">
-        <v>69.27</v>
-      </c>
-      <c r="F171" t="n">
-        <v>3847.362</v>
-      </c>
-      <c r="G171" t="n">
-        <v>-44114.65716534901</v>
-      </c>
-      <c r="H171" t="n">
-        <v>0</v>
-      </c>
-      <c r="I171" t="n">
-        <v>0</v>
-      </c>
-      <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
-      <c r="L171" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M171" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="172">
-      <c r="A172" s="1" t="n">
-        <v>170</v>
-      </c>
-      <c r="B172" t="n">
-        <v>69.38</v>
-      </c>
-      <c r="C172" t="n">
-        <v>69.38</v>
-      </c>
-      <c r="D172" t="n">
-        <v>69.38</v>
-      </c>
-      <c r="E172" t="n">
-        <v>69.38</v>
-      </c>
-      <c r="F172" t="n">
-        <v>8</v>
-      </c>
-      <c r="G172" t="n">
-        <v>-44106.65716534901</v>
-      </c>
-      <c r="H172" t="n">
-        <v>0</v>
-      </c>
-      <c r="I172" t="n">
-        <v>0</v>
-      </c>
-      <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
-      <c r="L172" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M172" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="173">
-      <c r="A173" s="1" t="n">
-        <v>171</v>
-      </c>
-      <c r="B173" t="n">
-        <v>68.11</v>
-      </c>
-      <c r="C173" t="n">
-        <v>68</v>
-      </c>
-      <c r="D173" t="n">
-        <v>68.11</v>
-      </c>
-      <c r="E173" t="n">
-        <v>68</v>
-      </c>
-      <c r="F173" t="n">
-        <v>7977.9933</v>
-      </c>
-      <c r="G173" t="n">
-        <v>-52084.65046534901</v>
-      </c>
-      <c r="H173" t="n">
-        <v>0</v>
-      </c>
-      <c r="I173" t="n">
-        <v>0</v>
-      </c>
-      <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
-      <c r="L173" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M173" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="174">
-      <c r="A174" s="1" t="n">
-        <v>172</v>
-      </c>
-      <c r="B174" t="n">
-        <v>69.19</v>
-      </c>
-      <c r="C174" t="n">
-        <v>69.19</v>
-      </c>
-      <c r="D174" t="n">
-        <v>69.19</v>
-      </c>
-      <c r="E174" t="n">
-        <v>69.19</v>
-      </c>
-      <c r="F174" t="n">
-        <v>8</v>
-      </c>
-      <c r="G174" t="n">
-        <v>-52076.65046534901</v>
-      </c>
-      <c r="H174" t="n">
-        <v>0</v>
-      </c>
-      <c r="I174" t="n">
-        <v>0</v>
-      </c>
-      <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
-      <c r="L174" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M174" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="175">
-      <c r="A175" s="1" t="n">
-        <v>173</v>
-      </c>
-      <c r="B175" t="n">
-        <v>68.98999999999999</v>
-      </c>
-      <c r="C175" t="n">
-        <v>68.98999999999999</v>
-      </c>
-      <c r="D175" t="n">
-        <v>68.98999999999999</v>
-      </c>
-      <c r="E175" t="n">
-        <v>68.98999999999999</v>
-      </c>
-      <c r="F175" t="n">
-        <v>6948.213</v>
-      </c>
-      <c r="G175" t="n">
-        <v>-59024.86346534902</v>
-      </c>
-      <c r="H175" t="n">
-        <v>0</v>
-      </c>
-      <c r="I175" t="n">
-        <v>0</v>
-      </c>
-      <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
-      <c r="L175" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M175" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="176">
-      <c r="A176" s="1" t="n">
-        <v>174</v>
-      </c>
-      <c r="B176" t="n">
-        <v>68.05</v>
-      </c>
-      <c r="C176" t="n">
-        <v>68</v>
-      </c>
-      <c r="D176" t="n">
-        <v>68.05</v>
-      </c>
-      <c r="E176" t="n">
-        <v>68</v>
-      </c>
-      <c r="F176" t="n">
-        <v>8338.2657</v>
-      </c>
-      <c r="G176" t="n">
-        <v>-67363.12916534902</v>
-      </c>
-      <c r="H176" t="n">
-        <v>0</v>
-      </c>
-      <c r="I176" t="n">
-        <v>0</v>
-      </c>
-      <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr"/>
-      <c r="L176" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M176" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="177">
-      <c r="A177" s="1" t="n">
-        <v>175</v>
-      </c>
-      <c r="B177" t="n">
-        <v>68.98999999999999</v>
-      </c>
-      <c r="C177" t="n">
-        <v>68</v>
-      </c>
-      <c r="D177" t="n">
-        <v>68.98999999999999</v>
-      </c>
-      <c r="E177" t="n">
-        <v>68</v>
-      </c>
-      <c r="F177" t="n">
-        <v>1045.7942</v>
-      </c>
-      <c r="G177" t="n">
-        <v>-67363.12916534902</v>
-      </c>
-      <c r="H177" t="n">
-        <v>0</v>
-      </c>
-      <c r="I177" t="n">
-        <v>0</v>
-      </c>
-      <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr"/>
-      <c r="L177" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M177" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="178">
-      <c r="A178" s="1" t="n">
-        <v>176</v>
-      </c>
-      <c r="B178" t="n">
-        <v>68.59</v>
-      </c>
-      <c r="C178" t="n">
-        <v>68.59</v>
-      </c>
-      <c r="D178" t="n">
-        <v>68.59</v>
-      </c>
-      <c r="E178" t="n">
-        <v>68.59</v>
-      </c>
-      <c r="F178" t="n">
-        <v>8087.5792</v>
-      </c>
-      <c r="G178" t="n">
-        <v>-59275.54996534902</v>
-      </c>
-      <c r="H178" t="n">
-        <v>0</v>
-      </c>
-      <c r="I178" t="n">
-        <v>0</v>
-      </c>
-      <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr"/>
-      <c r="L178" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M178" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="179">
-      <c r="A179" s="1" t="n">
-        <v>177</v>
-      </c>
-      <c r="B179" t="n">
-        <v>69</v>
-      </c>
-      <c r="C179" t="n">
-        <v>69</v>
-      </c>
-      <c r="D179" t="n">
-        <v>69</v>
-      </c>
-      <c r="E179" t="n">
-        <v>69</v>
-      </c>
-      <c r="F179" t="n">
-        <v>8</v>
-      </c>
-      <c r="G179" t="n">
-        <v>-59267.54996534902</v>
-      </c>
-      <c r="H179" t="n">
-        <v>0</v>
-      </c>
-      <c r="I179" t="n">
-        <v>0</v>
-      </c>
-      <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr"/>
-      <c r="L179" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M179" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="180">
-      <c r="A180" s="1" t="n">
-        <v>178</v>
-      </c>
-      <c r="B180" t="n">
-        <v>68.02</v>
-      </c>
-      <c r="C180" t="n">
-        <v>67.53</v>
-      </c>
-      <c r="D180" t="n">
-        <v>68.02</v>
-      </c>
-      <c r="E180" t="n">
-        <v>67.53</v>
-      </c>
-      <c r="F180" t="n">
-        <v>13501.4325</v>
-      </c>
-      <c r="G180" t="n">
-        <v>-72768.98246534902</v>
-      </c>
-      <c r="H180" t="n">
-        <v>0</v>
-      </c>
-      <c r="I180" t="n">
-        <v>0</v>
-      </c>
-      <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr"/>
-      <c r="L180" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M180" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="181">
-      <c r="A181" s="1" t="n">
-        <v>179</v>
-      </c>
-      <c r="B181" t="n">
-        <v>68.79000000000001</v>
-      </c>
-      <c r="C181" t="n">
-        <v>69.29000000000001</v>
-      </c>
-      <c r="D181" t="n">
-        <v>69.29000000000001</v>
-      </c>
-      <c r="E181" t="n">
-        <v>68.79000000000001</v>
-      </c>
-      <c r="F181" t="n">
-        <v>17665.47218034348</v>
-      </c>
-      <c r="G181" t="n">
-        <v>-55103.51028500554</v>
-      </c>
-      <c r="H181" t="n">
-        <v>0</v>
-      </c>
-      <c r="I181" t="n">
-        <v>0</v>
-      </c>
-      <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr"/>
-      <c r="L181" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M181" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="182">
-      <c r="A182" s="1" t="n">
-        <v>180</v>
-      </c>
-      <c r="B182" t="n">
-        <v>69.34</v>
-      </c>
-      <c r="C182" t="n">
-        <v>69.37</v>
-      </c>
-      <c r="D182" t="n">
-        <v>69.37</v>
-      </c>
-      <c r="E182" t="n">
-        <v>69.34</v>
-      </c>
-      <c r="F182" t="n">
-        <v>175.0071963961367</v>
-      </c>
-      <c r="G182" t="n">
-        <v>-54928.5030886094</v>
-      </c>
-      <c r="H182" t="n">
-        <v>0</v>
-      </c>
-      <c r="I182" t="n">
-        <v>0</v>
-      </c>
-      <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr"/>
-      <c r="L182" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M182" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="183">
-      <c r="A183" s="1" t="n">
-        <v>181</v>
-      </c>
-      <c r="B183" t="n">
-        <v>69.36</v>
-      </c>
-      <c r="C183" t="n">
-        <v>69.36</v>
-      </c>
-      <c r="D183" t="n">
-        <v>69.38</v>
-      </c>
-      <c r="E183" t="n">
-        <v>69.36</v>
-      </c>
-      <c r="F183" t="n">
-        <v>49</v>
-      </c>
-      <c r="G183" t="n">
-        <v>-54977.5030886094</v>
-      </c>
-      <c r="H183" t="n">
-        <v>0</v>
-      </c>
-      <c r="I183" t="n">
-        <v>0</v>
-      </c>
-      <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr"/>
-      <c r="L183" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M183" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="184">
-      <c r="A184" s="1" t="n">
-        <v>182</v>
-      </c>
-      <c r="B184" t="n">
-        <v>69.36</v>
-      </c>
-      <c r="C184" t="n">
-        <v>69.36</v>
-      </c>
-      <c r="D184" t="n">
-        <v>69.36</v>
-      </c>
-      <c r="E184" t="n">
-        <v>69.36</v>
-      </c>
-      <c r="F184" t="n">
-        <v>213.2144</v>
-      </c>
-      <c r="G184" t="n">
-        <v>-54977.5030886094</v>
-      </c>
-      <c r="H184" t="n">
-        <v>0</v>
-      </c>
-      <c r="I184" t="n">
-        <v>0</v>
-      </c>
-      <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr"/>
-      <c r="L184" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M184" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="185">
-      <c r="A185" s="1" t="n">
-        <v>183</v>
-      </c>
-      <c r="B185" t="n">
-        <v>69.36</v>
-      </c>
-      <c r="C185" t="n">
-        <v>68.12</v>
-      </c>
-      <c r="D185" t="n">
-        <v>69.36</v>
-      </c>
-      <c r="E185" t="n">
-        <v>68.12</v>
-      </c>
-      <c r="F185" t="n">
-        <v>5154.4399</v>
-      </c>
-      <c r="G185" t="n">
-        <v>-60131.9429886094</v>
-      </c>
-      <c r="H185" t="n">
-        <v>0</v>
-      </c>
-      <c r="I185" t="n">
-        <v>0</v>
-      </c>
-      <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr"/>
-      <c r="L185" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M185" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="186">
-      <c r="A186" s="1" t="n">
-        <v>184</v>
-      </c>
-      <c r="B186" t="n">
-        <v>68.41</v>
-      </c>
-      <c r="C186" t="n">
-        <v>68.41</v>
-      </c>
-      <c r="D186" t="n">
-        <v>68.41</v>
-      </c>
-      <c r="E186" t="n">
-        <v>68.41</v>
-      </c>
-      <c r="F186" t="n">
-        <v>853.4956</v>
-      </c>
-      <c r="G186" t="n">
-        <v>-59278.4473886094</v>
-      </c>
-      <c r="H186" t="n">
-        <v>0</v>
-      </c>
-      <c r="I186" t="n">
-        <v>0</v>
-      </c>
-      <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr"/>
-      <c r="L186" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M186" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="187">
-      <c r="A187" s="1" t="n">
-        <v>185</v>
-      </c>
-      <c r="B187" t="n">
-        <v>69.26000000000001</v>
-      </c>
-      <c r="C187" t="n">
-        <v>69.26000000000001</v>
-      </c>
-      <c r="D187" t="n">
-        <v>69.26000000000001</v>
-      </c>
-      <c r="E187" t="n">
-        <v>69.26000000000001</v>
-      </c>
-      <c r="F187" t="n">
-        <v>8</v>
-      </c>
-      <c r="G187" t="n">
-        <v>-59270.4473886094</v>
-      </c>
-      <c r="H187" t="n">
-        <v>0</v>
-      </c>
-      <c r="I187" t="n">
-        <v>0</v>
-      </c>
-      <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr"/>
-      <c r="L187" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M187" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="188">
-      <c r="A188" s="1" t="n">
-        <v>186</v>
-      </c>
-      <c r="B188" t="n">
-        <v>68.42</v>
-      </c>
-      <c r="C188" t="n">
-        <v>68</v>
-      </c>
-      <c r="D188" t="n">
-        <v>68.42</v>
-      </c>
-      <c r="E188" t="n">
-        <v>68</v>
-      </c>
-      <c r="F188" t="n">
-        <v>17050.0608</v>
-      </c>
-      <c r="G188" t="n">
-        <v>-76320.5081886094</v>
-      </c>
-      <c r="H188" t="n">
-        <v>0</v>
-      </c>
-      <c r="I188" t="n">
-        <v>0</v>
-      </c>
-      <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr"/>
-      <c r="L188" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M188" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="189">
-      <c r="A189" s="1" t="n">
-        <v>187</v>
-      </c>
-      <c r="B189" t="n">
-        <v>68.5</v>
-      </c>
-      <c r="C189" t="n">
-        <v>69.52</v>
-      </c>
-      <c r="D189" t="n">
-        <v>69.56</v>
-      </c>
-      <c r="E189" t="n">
-        <v>68.5</v>
-      </c>
-      <c r="F189" t="n">
-        <v>14001.58538401921</v>
-      </c>
-      <c r="G189" t="n">
-        <v>-62318.92280459018</v>
-      </c>
-      <c r="H189" t="n">
-        <v>0</v>
-      </c>
-      <c r="I189" t="n">
-        <v>0</v>
-      </c>
-      <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr"/>
-      <c r="L189" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M189" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="190">
-      <c r="A190" s="1" t="n">
-        <v>188</v>
-      </c>
-      <c r="B190" t="n">
-        <v>69.51000000000001</v>
-      </c>
-      <c r="C190" t="n">
-        <v>69.51000000000001</v>
-      </c>
-      <c r="D190" t="n">
-        <v>69.51000000000001</v>
-      </c>
-      <c r="E190" t="n">
-        <v>69.51000000000001</v>
-      </c>
-      <c r="F190" t="n">
-        <v>18.42900302114804</v>
-      </c>
-      <c r="G190" t="n">
-        <v>-62337.35180761133</v>
-      </c>
-      <c r="H190" t="n">
-        <v>0</v>
-      </c>
-      <c r="I190" t="n">
-        <v>0</v>
-      </c>
-      <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr"/>
-      <c r="L190" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M190" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="191">
-      <c r="A191" s="1" t="n">
-        <v>189</v>
-      </c>
-      <c r="B191" t="n">
-        <v>68.41</v>
-      </c>
-      <c r="C191" t="n">
-        <v>68</v>
-      </c>
-      <c r="D191" t="n">
-        <v>68.41</v>
-      </c>
-      <c r="E191" t="n">
-        <v>68</v>
-      </c>
-      <c r="F191" t="n">
-        <v>5293.1176</v>
-      </c>
-      <c r="G191" t="n">
-        <v>-67630.46940761134</v>
-      </c>
-      <c r="H191" t="n">
-        <v>0</v>
-      </c>
-      <c r="I191" t="n">
-        <v>0</v>
-      </c>
-      <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr"/>
-      <c r="L191" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M191" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="192">
-      <c r="A192" s="1" t="n">
-        <v>190</v>
-      </c>
-      <c r="B192" t="n">
-        <v>69.25</v>
-      </c>
-      <c r="C192" t="n">
-        <v>69.25</v>
-      </c>
-      <c r="D192" t="n">
-        <v>69.25</v>
-      </c>
-      <c r="E192" t="n">
-        <v>69.25</v>
-      </c>
-      <c r="F192" t="n">
-        <v>8</v>
-      </c>
-      <c r="G192" t="n">
-        <v>-67622.46940761134</v>
-      </c>
-      <c r="H192" t="n">
-        <v>0</v>
-      </c>
-      <c r="I192" t="n">
-        <v>0</v>
-      </c>
-      <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr"/>
-      <c r="L192" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M192" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="193">
-      <c r="A193" s="1" t="n">
-        <v>191</v>
-      </c>
-      <c r="B193" t="n">
-        <v>68.2</v>
-      </c>
-      <c r="C193" t="n">
-        <v>68.2</v>
-      </c>
-      <c r="D193" t="n">
-        <v>68.2</v>
-      </c>
-      <c r="E193" t="n">
-        <v>68.2</v>
-      </c>
-      <c r="F193" t="n">
-        <v>296.069</v>
-      </c>
-      <c r="G193" t="n">
-        <v>-67918.53840761134</v>
-      </c>
-      <c r="H193" t="n">
-        <v>0</v>
-      </c>
-      <c r="I193" t="n">
-        <v>0</v>
-      </c>
-      <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr"/>
-      <c r="L193" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M193" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="194">
-      <c r="A194" s="1" t="n">
-        <v>192</v>
-      </c>
-      <c r="B194" t="n">
-        <v>68.2</v>
-      </c>
-      <c r="C194" t="n">
-        <v>68.2</v>
-      </c>
-      <c r="D194" t="n">
-        <v>68.2</v>
-      </c>
-      <c r="E194" t="n">
-        <v>68.2</v>
-      </c>
-      <c r="F194" t="n">
-        <v>3703.931</v>
-      </c>
-      <c r="G194" t="n">
-        <v>-67918.53840761134</v>
-      </c>
-      <c r="H194" t="n">
-        <v>0</v>
-      </c>
-      <c r="I194" t="n">
-        <v>0</v>
-      </c>
-      <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr"/>
-      <c r="L194" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M194" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="195">
-      <c r="A195" s="1" t="n">
-        <v>193</v>
-      </c>
-      <c r="B195" t="n">
-        <v>68.90000000000001</v>
-      </c>
-      <c r="C195" t="n">
-        <v>68.90000000000001</v>
-      </c>
-      <c r="D195" t="n">
-        <v>68.90000000000001</v>
-      </c>
-      <c r="E195" t="n">
-        <v>68.90000000000001</v>
-      </c>
-      <c r="F195" t="n">
-        <v>296.069</v>
-      </c>
-      <c r="G195" t="n">
-        <v>-67622.46940761134</v>
-      </c>
-      <c r="H195" t="n">
-        <v>0</v>
-      </c>
-      <c r="I195" t="n">
-        <v>0</v>
-      </c>
-      <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr"/>
-      <c r="L195" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M195" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="196">
-      <c r="A196" s="1" t="n">
-        <v>194</v>
-      </c>
-      <c r="B196" t="n">
-        <v>69.25</v>
-      </c>
-      <c r="C196" t="n">
-        <v>69.3</v>
-      </c>
-      <c r="D196" t="n">
-        <v>69.3</v>
-      </c>
-      <c r="E196" t="n">
-        <v>69.25</v>
-      </c>
-      <c r="F196" t="n">
-        <v>12817.4487</v>
-      </c>
-      <c r="G196" t="n">
-        <v>-54805.02070761134</v>
-      </c>
-      <c r="H196" t="n">
-        <v>0</v>
-      </c>
-      <c r="I196" t="n">
-        <v>0</v>
-      </c>
-      <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr"/>
-      <c r="L196" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M196" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="197">
-      <c r="A197" s="1" t="n">
-        <v>195</v>
-      </c>
-      <c r="B197" t="n">
-        <v>69.43000000000001</v>
-      </c>
-      <c r="C197" t="n">
-        <v>69.64</v>
-      </c>
-      <c r="D197" t="n">
-        <v>69.64</v>
-      </c>
-      <c r="E197" t="n">
-        <v>69.43000000000001</v>
-      </c>
-      <c r="F197" t="n">
-        <v>14787.68565038815</v>
-      </c>
-      <c r="G197" t="n">
-        <v>-40017.33505722319</v>
-      </c>
-      <c r="H197" t="n">
-        <v>0</v>
-      </c>
-      <c r="I197" t="n">
-        <v>0</v>
-      </c>
-      <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr"/>
-      <c r="L197" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M197" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="198">
-      <c r="A198" s="1" t="n">
-        <v>196</v>
-      </c>
-      <c r="B198" t="n">
-        <v>69.69</v>
-      </c>
-      <c r="C198" t="n">
-        <v>69.8</v>
-      </c>
-      <c r="D198" t="n">
-        <v>69.8</v>
-      </c>
-      <c r="E198" t="n">
-        <v>69.69</v>
-      </c>
-      <c r="F198" t="n">
-        <v>32904.3365</v>
-      </c>
-      <c r="G198" t="n">
-        <v>-7112.998557223189</v>
-      </c>
-      <c r="H198" t="n">
-        <v>0</v>
-      </c>
-      <c r="I198" t="n">
-        <v>0</v>
-      </c>
-      <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr"/>
-      <c r="L198" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M198" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="199">
-      <c r="A199" s="1" t="n">
-        <v>197</v>
-      </c>
-      <c r="B199" t="n">
-        <v>69.83</v>
-      </c>
-      <c r="C199" t="n">
-        <v>69.98</v>
-      </c>
-      <c r="D199" t="n">
-        <v>69.98</v>
-      </c>
-      <c r="E199" t="n">
-        <v>69.83</v>
-      </c>
-      <c r="F199" t="n">
-        <v>4708.9945</v>
-      </c>
-      <c r="G199" t="n">
-        <v>-2404.004057223189</v>
-      </c>
-      <c r="H199" t="n">
-        <v>0</v>
-      </c>
-      <c r="I199" t="n">
-        <v>1</v>
-      </c>
-      <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr"/>
-      <c r="L199" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="M199" t="inlineStr"/>
-    </row>
-    <row r="200">
-      <c r="A200" s="1" t="n">
-        <v>198</v>
-      </c>
-      <c r="B200" t="n">
-        <v>69.98</v>
-      </c>
-      <c r="C200" t="n">
-        <v>68</v>
-      </c>
-      <c r="D200" t="n">
-        <v>70</v>
-      </c>
-      <c r="E200" t="n">
-        <v>68</v>
-      </c>
-      <c r="F200" t="n">
-        <v>34748.1512</v>
-      </c>
-      <c r="G200" t="n">
-        <v>-37152.15525722319</v>
-      </c>
-      <c r="H200" t="n">
-        <v>0</v>
-      </c>
-      <c r="I200" t="n">
-        <v>1</v>
-      </c>
-      <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr"/>
-      <c r="L200" t="inlineStr"/>
-      <c r="M200" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="201">
-      <c r="A201" s="1" t="n">
-        <v>199</v>
-      </c>
-      <c r="B201" t="n">
-        <v>68.8</v>
-      </c>
-      <c r="C201" t="n">
-        <v>69.83</v>
-      </c>
-      <c r="D201" t="n">
-        <v>69.83</v>
-      </c>
-      <c r="E201" t="n">
-        <v>68.8</v>
-      </c>
-      <c r="F201" t="n">
-        <v>110</v>
-      </c>
-      <c r="G201" t="n">
-        <v>-37042.15525722319</v>
-      </c>
-      <c r="H201" t="n">
-        <v>0</v>
-      </c>
-      <c r="I201" t="n">
-        <v>1</v>
-      </c>
-      <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr"/>
-      <c r="L201" t="inlineStr"/>
-      <c r="M201" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="202">
-      <c r="A202" s="1" t="n">
-        <v>200</v>
-      </c>
-      <c r="B202" t="n">
-        <v>69.06</v>
-      </c>
-      <c r="C202" t="n">
-        <v>69.06</v>
-      </c>
-      <c r="D202" t="n">
-        <v>69.06</v>
-      </c>
-      <c r="E202" t="n">
-        <v>69.06</v>
-      </c>
-      <c r="F202" t="n">
-        <v>1988.9411</v>
-      </c>
-      <c r="G202" t="n">
-        <v>-39031.09635722318</v>
-      </c>
-      <c r="H202" t="n">
-        <v>0</v>
-      </c>
-      <c r="I202" t="n">
-        <v>1</v>
-      </c>
-      <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr"/>
-      <c r="L202" t="inlineStr"/>
-      <c r="M202" t="n">
-        <v>1</v>
-      </c>
+      <c r="N160" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/BackTest/2020-01-21 BackTest FX.xlsx
+++ b/BackTest/2020-01-21 BackTest FX.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N160"/>
+  <dimension ref="A1:N231"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -438,28 +438,28 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>66.5</v>
+        <v>67.88</v>
       </c>
       <c r="C2" t="n">
-        <v>66.5</v>
+        <v>67.88</v>
       </c>
       <c r="D2" t="n">
-        <v>66.5</v>
+        <v>67.88</v>
       </c>
       <c r="E2" t="n">
-        <v>66.5</v>
+        <v>67.88</v>
       </c>
       <c r="F2" t="n">
-        <v>946.2756000000001</v>
+        <v>6870.4431</v>
       </c>
       <c r="G2" t="n">
-        <v>-97539.77150682606</v>
+        <v>-73657.85570682607</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
@@ -474,28 +474,28 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>66.61</v>
+        <v>67.06</v>
       </c>
       <c r="C3" t="n">
-        <v>67</v>
+        <v>67.06</v>
       </c>
       <c r="D3" t="n">
-        <v>67</v>
+        <v>67.06</v>
       </c>
       <c r="E3" t="n">
-        <v>66.61</v>
+        <v>67.06</v>
       </c>
       <c r="F3" t="n">
-        <v>110</v>
+        <v>160</v>
       </c>
       <c r="G3" t="n">
-        <v>-97429.77150682606</v>
+        <v>-73817.85570682607</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
@@ -510,22 +510,22 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>66.61</v>
+        <v>67.88</v>
       </c>
       <c r="C4" t="n">
-        <v>66.5</v>
+        <v>67.88</v>
       </c>
       <c r="D4" t="n">
-        <v>66.61</v>
+        <v>67.88</v>
       </c>
       <c r="E4" t="n">
-        <v>66.5</v>
+        <v>67.88</v>
       </c>
       <c r="F4" t="n">
-        <v>3274.2907</v>
+        <v>8</v>
       </c>
       <c r="G4" t="n">
-        <v>-100704.0622068261</v>
+        <v>-73809.85570682607</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -546,22 +546,22 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>66.5</v>
+        <v>67.20999999999999</v>
       </c>
       <c r="C5" t="n">
-        <v>66.5</v>
+        <v>67.20999999999999</v>
       </c>
       <c r="D5" t="n">
-        <v>66.5</v>
+        <v>67.3</v>
       </c>
       <c r="E5" t="n">
-        <v>66.5</v>
+        <v>67.20999999999999</v>
       </c>
       <c r="F5" t="n">
-        <v>8150.3999</v>
+        <v>6524</v>
       </c>
       <c r="G5" t="n">
-        <v>-100704.0622068261</v>
+        <v>-80333.85570682607</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -582,22 +582,22 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>66.58</v>
+        <v>67.2</v>
       </c>
       <c r="C6" t="n">
-        <v>66.58</v>
+        <v>67.2</v>
       </c>
       <c r="D6" t="n">
-        <v>66.58</v>
+        <v>67.2</v>
       </c>
       <c r="E6" t="n">
-        <v>66.58</v>
+        <v>67.2</v>
       </c>
       <c r="F6" t="n">
-        <v>88.9221</v>
+        <v>529</v>
       </c>
       <c r="G6" t="n">
-        <v>-100615.1401068261</v>
+        <v>-80862.85570682607</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -618,22 +618,22 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>66.5</v>
+        <v>67.8</v>
       </c>
       <c r="C7" t="n">
-        <v>66.31</v>
+        <v>67.8</v>
       </c>
       <c r="D7" t="n">
-        <v>66.5</v>
+        <v>67.8</v>
       </c>
       <c r="E7" t="n">
-        <v>66.31</v>
+        <v>67.8</v>
       </c>
       <c r="F7" t="n">
-        <v>4909</v>
+        <v>123.3575</v>
       </c>
       <c r="G7" t="n">
-        <v>-105524.1401068261</v>
+        <v>-80739.49820682607</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -654,22 +654,22 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>66.31</v>
+        <v>67.8</v>
       </c>
       <c r="C8" t="n">
-        <v>67</v>
+        <v>67.87</v>
       </c>
       <c r="D8" t="n">
-        <v>67</v>
+        <v>67.87</v>
       </c>
       <c r="E8" t="n">
-        <v>66.31</v>
+        <v>67.8</v>
       </c>
       <c r="F8" t="n">
-        <v>3821.199213164179</v>
+        <v>420</v>
       </c>
       <c r="G8" t="n">
-        <v>-101702.9408936619</v>
+        <v>-80319.49820682607</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -690,35 +690,31 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>66.31</v>
+        <v>67.06</v>
       </c>
       <c r="C9" t="n">
-        <v>66.31</v>
+        <v>67</v>
       </c>
       <c r="D9" t="n">
-        <v>66.31</v>
+        <v>67.06</v>
       </c>
       <c r="E9" t="n">
-        <v>66.31</v>
+        <v>67</v>
       </c>
       <c r="F9" t="n">
-        <v>5675.4762</v>
+        <v>296.8596</v>
       </c>
       <c r="G9" t="n">
-        <v>-107378.4170936619</v>
+        <v>-80616.35780682607</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
-      <c r="J9" t="n">
-        <v>67</v>
-      </c>
-      <c r="K9" t="n">
-        <v>67</v>
-      </c>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr"/>
       <c r="M9" t="n">
         <v>1</v>
@@ -730,40 +726,32 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>66.31</v>
+        <v>67</v>
       </c>
       <c r="C10" t="n">
-        <v>66.31</v>
+        <v>66.90000000000001</v>
       </c>
       <c r="D10" t="n">
-        <v>66.31</v>
+        <v>67</v>
       </c>
       <c r="E10" t="n">
-        <v>66.31</v>
+        <v>66.90000000000001</v>
       </c>
       <c r="F10" t="n">
-        <v>1386</v>
+        <v>1394</v>
       </c>
       <c r="G10" t="n">
-        <v>-107378.4170936619</v>
+        <v>-82010.35780682607</v>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
-      <c r="J10" t="n">
-        <v>66.31</v>
-      </c>
-      <c r="K10" t="n">
-        <v>67</v>
-      </c>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
       <c r="M10" t="n">
         <v>1</v>
       </c>
@@ -774,40 +762,32 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>66.31</v>
+        <v>67.05</v>
       </c>
       <c r="C11" t="n">
-        <v>66.3</v>
+        <v>67.05</v>
       </c>
       <c r="D11" t="n">
-        <v>66.31</v>
+        <v>67.05</v>
       </c>
       <c r="E11" t="n">
-        <v>66.3</v>
+        <v>67.05</v>
       </c>
       <c r="F11" t="n">
-        <v>10647.3702</v>
+        <v>100</v>
       </c>
       <c r="G11" t="n">
-        <v>-118025.7872936619</v>
+        <v>-81910.35780682607</v>
       </c>
       <c r="H11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
-      <c r="J11" t="n">
-        <v>66.31</v>
-      </c>
-      <c r="K11" t="n">
-        <v>67</v>
-      </c>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
       <c r="M11" t="n">
         <v>1</v>
       </c>
@@ -818,40 +798,32 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>66.31</v>
+        <v>67.01000000000001</v>
       </c>
       <c r="C12" t="n">
-        <v>66.31</v>
+        <v>67.01000000000001</v>
       </c>
       <c r="D12" t="n">
-        <v>66.31</v>
+        <v>67.01000000000001</v>
       </c>
       <c r="E12" t="n">
-        <v>66.31</v>
+        <v>67.01000000000001</v>
       </c>
       <c r="F12" t="n">
-        <v>4864.2528</v>
+        <v>331</v>
       </c>
       <c r="G12" t="n">
-        <v>-113161.5344936619</v>
+        <v>-82241.35780682607</v>
       </c>
       <c r="H12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
-      <c r="J12" t="n">
-        <v>66.3</v>
-      </c>
-      <c r="K12" t="n">
-        <v>67</v>
-      </c>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
       <c r="M12" t="n">
         <v>1</v>
       </c>
@@ -862,22 +834,22 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>66.36</v>
+        <v>67.88</v>
       </c>
       <c r="C13" t="n">
-        <v>66.36</v>
+        <v>67.89</v>
       </c>
       <c r="D13" t="n">
-        <v>66.36</v>
+        <v>67.89</v>
       </c>
       <c r="E13" t="n">
-        <v>66.36</v>
+        <v>67.88</v>
       </c>
       <c r="F13" t="n">
-        <v>1000</v>
+        <v>48.1809</v>
       </c>
       <c r="G13" t="n">
-        <v>-112161.5344936619</v>
+        <v>-82193.17690682606</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -886,14 +858,8 @@
         <v>0</v>
       </c>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="n">
-        <v>67</v>
-      </c>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
       <c r="M13" t="n">
         <v>1</v>
       </c>
@@ -904,22 +870,22 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>66.36</v>
+        <v>67.01000000000001</v>
       </c>
       <c r="C14" t="n">
-        <v>66.5</v>
+        <v>65.43000000000001</v>
       </c>
       <c r="D14" t="n">
-        <v>66.5</v>
+        <v>67.01000000000001</v>
       </c>
       <c r="E14" t="n">
-        <v>66.36</v>
+        <v>65.43000000000001</v>
       </c>
       <c r="F14" t="n">
-        <v>1100</v>
+        <v>8950</v>
       </c>
       <c r="G14" t="n">
-        <v>-111061.5344936619</v>
+        <v>-91143.17690682606</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -928,14 +894,8 @@
         <v>0</v>
       </c>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="n">
-        <v>67</v>
-      </c>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
       <c r="M14" t="n">
         <v>1</v>
       </c>
@@ -946,22 +906,22 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>66.36</v>
+        <v>67.39</v>
       </c>
       <c r="C15" t="n">
-        <v>66.36</v>
+        <v>67.39</v>
       </c>
       <c r="D15" t="n">
-        <v>66.36</v>
+        <v>67.39</v>
       </c>
       <c r="E15" t="n">
-        <v>66.36</v>
+        <v>67.39</v>
       </c>
       <c r="F15" t="n">
-        <v>49.813</v>
+        <v>8</v>
       </c>
       <c r="G15" t="n">
-        <v>-111111.3474936619</v>
+        <v>-91135.17690682606</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -970,14 +930,8 @@
         <v>0</v>
       </c>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="n">
-        <v>67</v>
-      </c>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
       <c r="M15" t="n">
         <v>1</v>
       </c>
@@ -988,22 +942,22 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>66.5</v>
+        <v>67.39</v>
       </c>
       <c r="C16" t="n">
-        <v>67.5</v>
+        <v>67.39</v>
       </c>
       <c r="D16" t="n">
-        <v>67.5</v>
+        <v>67.39</v>
       </c>
       <c r="E16" t="n">
-        <v>66.5</v>
+        <v>67.39</v>
       </c>
       <c r="F16" t="n">
-        <v>22722.17038683582</v>
+        <v>17.2186</v>
       </c>
       <c r="G16" t="n">
-        <v>-88389.17710682607</v>
+        <v>-91135.17690682606</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1012,14 +966,8 @@
         <v>0</v>
       </c>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="n">
-        <v>67</v>
-      </c>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
       <c r="M16" t="n">
         <v>1</v>
       </c>
@@ -1030,22 +978,22 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>67.5</v>
+        <v>66.02</v>
       </c>
       <c r="C17" t="n">
-        <v>67.89</v>
+        <v>66.02</v>
       </c>
       <c r="D17" t="n">
-        <v>67.89</v>
+        <v>66.02</v>
       </c>
       <c r="E17" t="n">
-        <v>67.5</v>
+        <v>66.02</v>
       </c>
       <c r="F17" t="n">
-        <v>347.324</v>
+        <v>356.7415</v>
       </c>
       <c r="G17" t="n">
-        <v>-88041.85310682608</v>
+        <v>-91491.91840682607</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1054,14 +1002,8 @@
         <v>0</v>
       </c>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="n">
-        <v>67</v>
-      </c>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K17" t="inlineStr"/>
+      <c r="L17" t="inlineStr"/>
       <c r="M17" t="n">
         <v>1</v>
       </c>
@@ -1072,22 +1014,22 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>67.01000000000001</v>
+        <v>66.59</v>
       </c>
       <c r="C18" t="n">
-        <v>67</v>
+        <v>66.59</v>
       </c>
       <c r="D18" t="n">
-        <v>67.01000000000001</v>
+        <v>66.59</v>
       </c>
       <c r="E18" t="n">
-        <v>67</v>
+        <v>66.59</v>
       </c>
       <c r="F18" t="n">
-        <v>1625.3001</v>
+        <v>15.8197</v>
       </c>
       <c r="G18" t="n">
-        <v>-89667.15320682607</v>
+        <v>-91476.09870682607</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1096,14 +1038,8 @@
         <v>0</v>
       </c>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="n">
-        <v>67</v>
-      </c>
-      <c r="L18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K18" t="inlineStr"/>
+      <c r="L18" t="inlineStr"/>
       <c r="M18" t="n">
         <v>1</v>
       </c>
@@ -1114,22 +1050,22 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>67</v>
+        <v>66.59999999999999</v>
       </c>
       <c r="C19" t="n">
-        <v>67.01000000000001</v>
+        <v>66.5</v>
       </c>
       <c r="D19" t="n">
-        <v>67.01000000000001</v>
+        <v>66.59999999999999</v>
       </c>
       <c r="E19" t="n">
-        <v>67</v>
+        <v>66.5</v>
       </c>
       <c r="F19" t="n">
-        <v>456.0044131641791</v>
+        <v>4383.5122</v>
       </c>
       <c r="G19" t="n">
-        <v>-89211.14879366189</v>
+        <v>-95859.61090682607</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1138,14 +1074,8 @@
         <v>0</v>
       </c>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="n">
-        <v>67</v>
-      </c>
-      <c r="L19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K19" t="inlineStr"/>
+      <c r="L19" t="inlineStr"/>
       <c r="M19" t="n">
         <v>1</v>
       </c>
@@ -1156,22 +1086,22 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>67.01000000000001</v>
+        <v>66.5</v>
       </c>
       <c r="C20" t="n">
-        <v>67.01000000000001</v>
+        <v>66.5</v>
       </c>
       <c r="D20" t="n">
-        <v>67.01000000000001</v>
+        <v>66.5</v>
       </c>
       <c r="E20" t="n">
-        <v>67.01000000000001</v>
+        <v>66.5</v>
       </c>
       <c r="F20" t="n">
-        <v>148</v>
+        <v>3516.2958</v>
       </c>
       <c r="G20" t="n">
-        <v>-89211.14879366189</v>
+        <v>-95859.61090682607</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1180,14 +1110,8 @@
         <v>0</v>
       </c>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="n">
-        <v>67</v>
-      </c>
-      <c r="L20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K20" t="inlineStr"/>
+      <c r="L20" t="inlineStr"/>
       <c r="M20" t="n">
         <v>1</v>
       </c>
@@ -1198,22 +1122,22 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>67.01000000000001</v>
+        <v>66.59</v>
       </c>
       <c r="C21" t="n">
-        <v>67.90000000000001</v>
+        <v>66.59</v>
       </c>
       <c r="D21" t="n">
-        <v>67.90000000000001</v>
+        <v>66.59</v>
       </c>
       <c r="E21" t="n">
-        <v>67.01000000000001</v>
+        <v>66.59</v>
       </c>
       <c r="F21" t="n">
-        <v>8</v>
+        <v>91.8057</v>
       </c>
       <c r="G21" t="n">
-        <v>-89203.14879366189</v>
+        <v>-95767.80520682607</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1222,14 +1146,8 @@
         <v>0</v>
       </c>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="n">
-        <v>67</v>
-      </c>
-      <c r="L21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K21" t="inlineStr"/>
+      <c r="L21" t="inlineStr"/>
       <c r="M21" t="n">
         <v>1</v>
       </c>
@@ -1240,22 +1158,22 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>66.91</v>
+        <v>66.59</v>
       </c>
       <c r="C22" t="n">
-        <v>66.91</v>
+        <v>66.59</v>
       </c>
       <c r="D22" t="n">
-        <v>66.91</v>
+        <v>66.59</v>
       </c>
       <c r="E22" t="n">
-        <v>66.91</v>
+        <v>66.59</v>
       </c>
       <c r="F22" t="n">
-        <v>576</v>
+        <v>15.01726986033939</v>
       </c>
       <c r="G22" t="n">
-        <v>-89779.14879366189</v>
+        <v>-95767.80520682607</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1264,14 +1182,8 @@
         <v>0</v>
       </c>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="n">
-        <v>67</v>
-      </c>
-      <c r="L22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K22" t="inlineStr"/>
+      <c r="L22" t="inlineStr"/>
       <c r="M22" t="n">
         <v>1</v>
       </c>
@@ -1282,22 +1194,22 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>66.91</v>
+        <v>66.59</v>
       </c>
       <c r="C23" t="n">
-        <v>66.91</v>
+        <v>66.59</v>
       </c>
       <c r="D23" t="n">
-        <v>66.91</v>
+        <v>66.59</v>
       </c>
       <c r="E23" t="n">
-        <v>66.91</v>
+        <v>66.59</v>
       </c>
       <c r="F23" t="n">
-        <v>267.369</v>
+        <v>8.0467</v>
       </c>
       <c r="G23" t="n">
-        <v>-89779.14879366189</v>
+        <v>-95767.80520682607</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1306,14 +1218,8 @@
         <v>0</v>
       </c>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="n">
-        <v>67</v>
-      </c>
-      <c r="L23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K23" t="inlineStr"/>
+      <c r="L23" t="inlineStr"/>
       <c r="M23" t="n">
         <v>1</v>
       </c>
@@ -1324,22 +1230,22 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>66.91</v>
+        <v>66.59</v>
       </c>
       <c r="C24" t="n">
-        <v>67.90000000000001</v>
+        <v>66.59</v>
       </c>
       <c r="D24" t="n">
-        <v>67.90000000000001</v>
+        <v>66.59</v>
       </c>
       <c r="E24" t="n">
-        <v>66.91</v>
+        <v>66.59</v>
       </c>
       <c r="F24" t="n">
-        <v>721</v>
+        <v>343.9293</v>
       </c>
       <c r="G24" t="n">
-        <v>-89058.14879366189</v>
+        <v>-95767.80520682607</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1348,14 +1254,8 @@
         <v>0</v>
       </c>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="n">
-        <v>67</v>
-      </c>
-      <c r="L24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K24" t="inlineStr"/>
+      <c r="L24" t="inlineStr"/>
       <c r="M24" t="n">
         <v>1</v>
       </c>
@@ -1366,22 +1266,22 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>67.01000000000001</v>
+        <v>65.8</v>
       </c>
       <c r="C25" t="n">
-        <v>67.01000000000001</v>
+        <v>65.8</v>
       </c>
       <c r="D25" t="n">
-        <v>67.01000000000001</v>
+        <v>65.8</v>
       </c>
       <c r="E25" t="n">
-        <v>67.01000000000001</v>
+        <v>65.8</v>
       </c>
       <c r="F25" t="n">
-        <v>228.7706</v>
+        <v>3309.5274</v>
       </c>
       <c r="G25" t="n">
-        <v>-89286.9193936619</v>
+        <v>-99077.33260682608</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1390,14 +1290,8 @@
         <v>0</v>
       </c>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="n">
-        <v>67</v>
-      </c>
-      <c r="L25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K25" t="inlineStr"/>
+      <c r="L25" t="inlineStr"/>
       <c r="M25" t="n">
         <v>1</v>
       </c>
@@ -1408,22 +1302,22 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>67.01000000000001</v>
+        <v>66.5</v>
       </c>
       <c r="C26" t="n">
-        <v>67</v>
+        <v>66.5</v>
       </c>
       <c r="D26" t="n">
-        <v>67.01000000000001</v>
+        <v>66.5</v>
       </c>
       <c r="E26" t="n">
-        <v>67</v>
+        <v>66.5</v>
       </c>
       <c r="F26" t="n">
-        <v>1266.1127</v>
+        <v>20.96</v>
       </c>
       <c r="G26" t="n">
-        <v>-90553.0320936619</v>
+        <v>-99056.37260682607</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1432,14 +1326,8 @@
         <v>0</v>
       </c>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="n">
-        <v>67</v>
-      </c>
-      <c r="L26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K26" t="inlineStr"/>
+      <c r="L26" t="inlineStr"/>
       <c r="M26" t="n">
         <v>1</v>
       </c>
@@ -1450,22 +1338,22 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>67</v>
+        <v>66.25</v>
       </c>
       <c r="C27" t="n">
-        <v>67.90000000000001</v>
+        <v>65.5</v>
       </c>
       <c r="D27" t="n">
-        <v>67.90000000000001</v>
+        <v>66.25</v>
       </c>
       <c r="E27" t="n">
-        <v>67</v>
+        <v>65.5</v>
       </c>
       <c r="F27" t="n">
-        <v>122.7761</v>
+        <v>1356.1486</v>
       </c>
       <c r="G27" t="n">
-        <v>-90430.25599366189</v>
+        <v>-100412.5212068261</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1474,14 +1362,8 @@
         <v>0</v>
       </c>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="n">
-        <v>67</v>
-      </c>
-      <c r="L27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K27" t="inlineStr"/>
+      <c r="L27" t="inlineStr"/>
       <c r="M27" t="n">
         <v>1</v>
       </c>
@@ -1492,22 +1374,22 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>66.91</v>
+        <v>65.5</v>
       </c>
       <c r="C28" t="n">
-        <v>66.91</v>
+        <v>65.5</v>
       </c>
       <c r="D28" t="n">
-        <v>66.91</v>
+        <v>65.5</v>
       </c>
       <c r="E28" t="n">
-        <v>66.91</v>
+        <v>65.5</v>
       </c>
       <c r="F28" t="n">
-        <v>373</v>
+        <v>0.2197</v>
       </c>
       <c r="G28" t="n">
-        <v>-90803.25599366189</v>
+        <v>-100412.5212068261</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1516,14 +1398,8 @@
         <v>0</v>
       </c>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="n">
-        <v>67</v>
-      </c>
-      <c r="L28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K28" t="inlineStr"/>
+      <c r="L28" t="inlineStr"/>
       <c r="M28" t="n">
         <v>1</v>
       </c>
@@ -1534,22 +1410,22 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>67.90000000000001</v>
+        <v>65.70999999999999</v>
       </c>
       <c r="C29" t="n">
-        <v>67.90000000000001</v>
+        <v>66.5</v>
       </c>
       <c r="D29" t="n">
-        <v>67.90000000000001</v>
+        <v>66.5</v>
       </c>
       <c r="E29" t="n">
-        <v>67.90000000000001</v>
+        <v>65.70999999999999</v>
       </c>
       <c r="F29" t="n">
-        <v>8</v>
+        <v>472.6717</v>
       </c>
       <c r="G29" t="n">
-        <v>-90795.25599366189</v>
+        <v>-99939.84950682607</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1558,14 +1434,8 @@
         <v>0</v>
       </c>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="n">
-        <v>67</v>
-      </c>
-      <c r="L29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K29" t="inlineStr"/>
+      <c r="L29" t="inlineStr"/>
       <c r="M29" t="n">
         <v>1</v>
       </c>
@@ -1576,22 +1446,22 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>66.91</v>
+        <v>66.5</v>
       </c>
       <c r="C30" t="n">
-        <v>66.70999999999999</v>
+        <v>66.5</v>
       </c>
       <c r="D30" t="n">
-        <v>66.91</v>
+        <v>66.5</v>
       </c>
       <c r="E30" t="n">
-        <v>66.70999999999999</v>
+        <v>66.5</v>
       </c>
       <c r="F30" t="n">
-        <v>9296.9447</v>
+        <v>87</v>
       </c>
       <c r="G30" t="n">
-        <v>-100092.2006936619</v>
+        <v>-99939.84950682607</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1600,14 +1470,8 @@
         <v>0</v>
       </c>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="n">
-        <v>67</v>
-      </c>
-      <c r="L30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K30" t="inlineStr"/>
+      <c r="L30" t="inlineStr"/>
       <c r="M30" t="n">
         <v>1</v>
       </c>
@@ -1618,22 +1482,22 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>66.70999999999999</v>
+        <v>66.5</v>
       </c>
       <c r="C31" t="n">
-        <v>66.70999999999999</v>
+        <v>65.5</v>
       </c>
       <c r="D31" t="n">
-        <v>66.70999999999999</v>
+        <v>66.5</v>
       </c>
       <c r="E31" t="n">
-        <v>66.70999999999999</v>
+        <v>65.5</v>
       </c>
       <c r="F31" t="n">
-        <v>321</v>
+        <v>267</v>
       </c>
       <c r="G31" t="n">
-        <v>-100092.2006936619</v>
+        <v>-100206.8495068261</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1642,14 +1506,8 @@
         <v>0</v>
       </c>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="n">
-        <v>67</v>
-      </c>
-      <c r="L31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K31" t="inlineStr"/>
+      <c r="L31" t="inlineStr"/>
       <c r="M31" t="n">
         <v>1</v>
       </c>
@@ -1660,22 +1518,22 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>66.90000000000001</v>
+        <v>66.89</v>
       </c>
       <c r="C32" t="n">
-        <v>66.90000000000001</v>
+        <v>65.59999999999999</v>
       </c>
       <c r="D32" t="n">
-        <v>66.90000000000001</v>
+        <v>66.89</v>
       </c>
       <c r="E32" t="n">
-        <v>66.90000000000001</v>
+        <v>65.59999999999999</v>
       </c>
       <c r="F32" t="n">
-        <v>0.0004</v>
+        <v>9362.406000000001</v>
       </c>
       <c r="G32" t="n">
-        <v>-100092.2002936619</v>
+        <v>-90844.44350682606</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1684,14 +1542,8 @@
         <v>0</v>
       </c>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="n">
-        <v>67</v>
-      </c>
-      <c r="L32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K32" t="inlineStr"/>
+      <c r="L32" t="inlineStr"/>
       <c r="M32" t="n">
         <v>1</v>
       </c>
@@ -1702,22 +1554,22 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>67.77</v>
+        <v>66.89</v>
       </c>
       <c r="C33" t="n">
-        <v>67.77</v>
+        <v>66.90000000000001</v>
       </c>
       <c r="D33" t="n">
-        <v>67.77</v>
+        <v>66.90000000000001</v>
       </c>
       <c r="E33" t="n">
-        <v>67.77</v>
+        <v>66.89</v>
       </c>
       <c r="F33" t="n">
-        <v>32.6012</v>
+        <v>1796.4527</v>
       </c>
       <c r="G33" t="n">
-        <v>-100059.5990936619</v>
+        <v>-89047.99080682607</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1726,14 +1578,8 @@
         <v>0</v>
       </c>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="n">
-        <v>67</v>
-      </c>
-      <c r="L33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K33" t="inlineStr"/>
+      <c r="L33" t="inlineStr"/>
       <c r="M33" t="n">
         <v>1</v>
       </c>
@@ -1744,22 +1590,22 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>66.90000000000001</v>
+        <v>66.98999999999999</v>
       </c>
       <c r="C34" t="n">
-        <v>66.5</v>
+        <v>67.88</v>
       </c>
       <c r="D34" t="n">
-        <v>66.90000000000001</v>
+        <v>67.88</v>
       </c>
       <c r="E34" t="n">
-        <v>66.5</v>
+        <v>66.98999999999999</v>
       </c>
       <c r="F34" t="n">
-        <v>3217.851</v>
+        <v>4923.3557</v>
       </c>
       <c r="G34" t="n">
-        <v>-103277.4500936619</v>
+        <v>-84124.63510682607</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1768,14 +1614,8 @@
         <v>0</v>
       </c>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="n">
-        <v>67</v>
-      </c>
-      <c r="L34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K34" t="inlineStr"/>
+      <c r="L34" t="inlineStr"/>
       <c r="M34" t="n">
         <v>1</v>
       </c>
@@ -1786,22 +1626,22 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>66.5</v>
+        <v>67.88</v>
       </c>
       <c r="C35" t="n">
-        <v>66.5</v>
+        <v>67.88</v>
       </c>
       <c r="D35" t="n">
-        <v>66.5</v>
+        <v>67.88</v>
       </c>
       <c r="E35" t="n">
-        <v>66.5</v>
+        <v>67.88</v>
       </c>
       <c r="F35" t="n">
-        <v>371.6554</v>
+        <v>135.4493</v>
       </c>
       <c r="G35" t="n">
-        <v>-103277.4500936619</v>
+        <v>-84124.63510682607</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1810,14 +1650,8 @@
         <v>0</v>
       </c>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="n">
-        <v>67</v>
-      </c>
-      <c r="L35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K35" t="inlineStr"/>
+      <c r="L35" t="inlineStr"/>
       <c r="M35" t="n">
         <v>1</v>
       </c>
@@ -1828,22 +1662,22 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>67.69</v>
+        <v>66.92</v>
       </c>
       <c r="C36" t="n">
-        <v>67.69</v>
+        <v>66.90000000000001</v>
       </c>
       <c r="D36" t="n">
-        <v>67.69</v>
+        <v>66.92</v>
       </c>
       <c r="E36" t="n">
-        <v>67.69</v>
+        <v>66.90000000000001</v>
       </c>
       <c r="F36" t="n">
-        <v>10</v>
+        <v>408.207</v>
       </c>
       <c r="G36" t="n">
-        <v>-103267.4500936619</v>
+        <v>-84532.84210682606</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1852,14 +1686,8 @@
         <v>0</v>
       </c>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="n">
-        <v>67</v>
-      </c>
-      <c r="L36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K36" t="inlineStr"/>
+      <c r="L36" t="inlineStr"/>
       <c r="M36" t="n">
         <v>1</v>
       </c>
@@ -1870,22 +1698,22 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>67.69</v>
+        <v>66.90000000000001</v>
       </c>
       <c r="C37" t="n">
-        <v>67.69</v>
+        <v>67.39</v>
       </c>
       <c r="D37" t="n">
-        <v>67.69</v>
+        <v>67.39</v>
       </c>
       <c r="E37" t="n">
-        <v>67.69</v>
+        <v>66.90000000000001</v>
       </c>
       <c r="F37" t="n">
-        <v>8</v>
+        <v>100</v>
       </c>
       <c r="G37" t="n">
-        <v>-103267.4500936619</v>
+        <v>-84432.84210682606</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1894,14 +1722,8 @@
         <v>0</v>
       </c>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="n">
-        <v>67</v>
-      </c>
-      <c r="L37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K37" t="inlineStr"/>
+      <c r="L37" t="inlineStr"/>
       <c r="M37" t="n">
         <v>1</v>
       </c>
@@ -1912,22 +1734,22 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>67.3</v>
+        <v>67.39</v>
       </c>
       <c r="C38" t="n">
-        <v>66.88</v>
+        <v>67.90000000000001</v>
       </c>
       <c r="D38" t="n">
-        <v>67.3</v>
+        <v>67.90000000000001</v>
       </c>
       <c r="E38" t="n">
-        <v>66.88</v>
+        <v>67.39</v>
       </c>
       <c r="F38" t="n">
-        <v>298.9529</v>
+        <v>21708.3822</v>
       </c>
       <c r="G38" t="n">
-        <v>-103566.4029936619</v>
+        <v>-62724.45990682606</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1936,14 +1758,8 @@
         <v>0</v>
       </c>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="n">
-        <v>67</v>
-      </c>
-      <c r="L38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K38" t="inlineStr"/>
+      <c r="L38" t="inlineStr"/>
       <c r="M38" t="n">
         <v>1</v>
       </c>
@@ -1954,22 +1770,22 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>66.5</v>
+        <v>67.09</v>
       </c>
       <c r="C39" t="n">
-        <v>66.5</v>
+        <v>67.09</v>
       </c>
       <c r="D39" t="n">
-        <v>66.5</v>
+        <v>67.09</v>
       </c>
       <c r="E39" t="n">
-        <v>66.5</v>
+        <v>67.09</v>
       </c>
       <c r="F39" t="n">
-        <v>8</v>
+        <v>564.4039</v>
       </c>
       <c r="G39" t="n">
-        <v>-103574.4029936619</v>
+        <v>-63288.86380682606</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1978,14 +1794,8 @@
         <v>0</v>
       </c>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="n">
-        <v>67</v>
-      </c>
-      <c r="L39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K39" t="inlineStr"/>
+      <c r="L39" t="inlineStr"/>
       <c r="M39" t="n">
         <v>1</v>
       </c>
@@ -1996,22 +1806,22 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>66.88</v>
+        <v>66.90000000000001</v>
       </c>
       <c r="C40" t="n">
-        <v>67.3</v>
+        <v>67.09</v>
       </c>
       <c r="D40" t="n">
-        <v>67.3</v>
+        <v>67.09</v>
       </c>
       <c r="E40" t="n">
-        <v>66.88</v>
+        <v>66.90000000000001</v>
       </c>
       <c r="F40" t="n">
-        <v>154.2345</v>
+        <v>872.5157</v>
       </c>
       <c r="G40" t="n">
-        <v>-103420.1684936619</v>
+        <v>-63288.86380682606</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -2020,14 +1830,8 @@
         <v>0</v>
       </c>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="n">
-        <v>67</v>
-      </c>
-      <c r="L40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K40" t="inlineStr"/>
+      <c r="L40" t="inlineStr"/>
       <c r="M40" t="n">
         <v>1</v>
       </c>
@@ -2038,40 +1842,32 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>67</v>
+        <v>67.98999999999999</v>
       </c>
       <c r="C41" t="n">
-        <v>67.69</v>
+        <v>68.79000000000001</v>
       </c>
       <c r="D41" t="n">
-        <v>67.69</v>
+        <v>68.79000000000001</v>
       </c>
       <c r="E41" t="n">
-        <v>67</v>
+        <v>67.88</v>
       </c>
       <c r="F41" t="n">
-        <v>196.8885</v>
+        <v>6090.4266</v>
       </c>
       <c r="G41" t="n">
-        <v>-103223.2799936619</v>
+        <v>-57198.43720682606</v>
       </c>
       <c r="H41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
-      <c r="J41" t="n">
-        <v>67.3</v>
-      </c>
-      <c r="K41" t="n">
-        <v>67</v>
-      </c>
-      <c r="L41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J41" t="inlineStr"/>
+      <c r="K41" t="inlineStr"/>
+      <c r="L41" t="inlineStr"/>
       <c r="M41" t="n">
         <v>1</v>
       </c>
@@ -2082,22 +1878,22 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>66.61</v>
+        <v>68.78</v>
       </c>
       <c r="C42" t="n">
-        <v>66.36</v>
+        <v>68.78</v>
       </c>
       <c r="D42" t="n">
-        <v>66.61</v>
+        <v>68.78</v>
       </c>
       <c r="E42" t="n">
-        <v>66.36</v>
+        <v>68.78</v>
       </c>
       <c r="F42" t="n">
-        <v>5996.6585</v>
+        <v>51.776</v>
       </c>
       <c r="G42" t="n">
-        <v>-109219.9384936619</v>
+        <v>-57250.21320682606</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -2106,14 +1902,8 @@
         <v>0</v>
       </c>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="n">
-        <v>67</v>
-      </c>
-      <c r="L42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K42" t="inlineStr"/>
+      <c r="L42" t="inlineStr"/>
       <c r="M42" t="n">
         <v>1</v>
       </c>
@@ -2124,40 +1914,32 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>66.36</v>
+        <v>67.63</v>
       </c>
       <c r="C43" t="n">
-        <v>66.36</v>
+        <v>67.63</v>
       </c>
       <c r="D43" t="n">
-        <v>66.36</v>
+        <v>67.63</v>
       </c>
       <c r="E43" t="n">
-        <v>66.36</v>
+        <v>67.63</v>
       </c>
       <c r="F43" t="n">
-        <v>1145.1453</v>
+        <v>309</v>
       </c>
       <c r="G43" t="n">
-        <v>-109219.9384936619</v>
+        <v>-57559.21320682606</v>
       </c>
       <c r="H43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
-      <c r="J43" t="n">
-        <v>66.36</v>
-      </c>
-      <c r="K43" t="n">
-        <v>67</v>
-      </c>
-      <c r="L43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J43" t="inlineStr"/>
+      <c r="K43" t="inlineStr"/>
+      <c r="L43" t="inlineStr"/>
       <c r="M43" t="n">
         <v>1</v>
       </c>
@@ -2168,40 +1950,32 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>66.41</v>
+        <v>67.64</v>
       </c>
       <c r="C44" t="n">
-        <v>66.41</v>
+        <v>67.63</v>
       </c>
       <c r="D44" t="n">
-        <v>66.41</v>
+        <v>67.64</v>
       </c>
       <c r="E44" t="n">
-        <v>66.41</v>
+        <v>67.63</v>
       </c>
       <c r="F44" t="n">
-        <v>8</v>
+        <v>2008</v>
       </c>
       <c r="G44" t="n">
-        <v>-109211.9384936619</v>
+        <v>-57559.21320682606</v>
       </c>
       <c r="H44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
-      <c r="J44" t="n">
-        <v>66.36</v>
-      </c>
-      <c r="K44" t="n">
-        <v>67</v>
-      </c>
-      <c r="L44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J44" t="inlineStr"/>
+      <c r="K44" t="inlineStr"/>
+      <c r="L44" t="inlineStr"/>
       <c r="M44" t="n">
         <v>1</v>
       </c>
@@ -2212,40 +1986,32 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>67.40000000000001</v>
+        <v>67.64</v>
       </c>
       <c r="C45" t="n">
-        <v>67.40000000000001</v>
+        <v>67.64</v>
       </c>
       <c r="D45" t="n">
-        <v>67.40000000000001</v>
+        <v>67.64</v>
       </c>
       <c r="E45" t="n">
-        <v>67.40000000000001</v>
+        <v>67.64</v>
       </c>
       <c r="F45" t="n">
-        <v>10.1499</v>
+        <v>1000</v>
       </c>
       <c r="G45" t="n">
-        <v>-109201.7885936619</v>
+        <v>-56559.21320682606</v>
       </c>
       <c r="H45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
-      <c r="J45" t="n">
-        <v>66.41</v>
-      </c>
-      <c r="K45" t="n">
-        <v>67</v>
-      </c>
-      <c r="L45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J45" t="inlineStr"/>
+      <c r="K45" t="inlineStr"/>
+      <c r="L45" t="inlineStr"/>
       <c r="M45" t="n">
         <v>1</v>
       </c>
@@ -2256,40 +2022,32 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>66.42</v>
+        <v>68.48999999999999</v>
       </c>
       <c r="C46" t="n">
-        <v>67.59999999999999</v>
+        <v>68.59999999999999</v>
       </c>
       <c r="D46" t="n">
-        <v>67.59999999999999</v>
+        <v>68.59999999999999</v>
       </c>
       <c r="E46" t="n">
-        <v>66.42</v>
+        <v>68.48999999999999</v>
       </c>
       <c r="F46" t="n">
-        <v>15.8606</v>
+        <v>2349.2716</v>
       </c>
       <c r="G46" t="n">
-        <v>-109185.9279936619</v>
+        <v>-54209.94160682606</v>
       </c>
       <c r="H46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
       </c>
-      <c r="J46" t="n">
-        <v>67.40000000000001</v>
-      </c>
-      <c r="K46" t="n">
-        <v>67</v>
-      </c>
-      <c r="L46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J46" t="inlineStr"/>
+      <c r="K46" t="inlineStr"/>
+      <c r="L46" t="inlineStr"/>
       <c r="M46" t="n">
         <v>1</v>
       </c>
@@ -2300,22 +2058,22 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>66.43000000000001</v>
+        <v>68.68000000000001</v>
       </c>
       <c r="C47" t="n">
-        <v>66.40000000000001</v>
+        <v>68.68000000000001</v>
       </c>
       <c r="D47" t="n">
-        <v>66.43000000000001</v>
+        <v>68.68000000000001</v>
       </c>
       <c r="E47" t="n">
-        <v>66.40000000000001</v>
+        <v>68.68000000000001</v>
       </c>
       <c r="F47" t="n">
-        <v>1076.6345</v>
+        <v>50.746</v>
       </c>
       <c r="G47" t="n">
-        <v>-110262.5624936619</v>
+        <v>-54159.19560682606</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2324,14 +2082,8 @@
         <v>0</v>
       </c>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="n">
-        <v>67</v>
-      </c>
-      <c r="L47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K47" t="inlineStr"/>
+      <c r="L47" t="inlineStr"/>
       <c r="M47" t="n">
         <v>1</v>
       </c>
@@ -2342,40 +2094,32 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>67.59</v>
+        <v>67.63</v>
       </c>
       <c r="C48" t="n">
-        <v>67.59</v>
+        <v>67.63</v>
       </c>
       <c r="D48" t="n">
-        <v>67.59</v>
+        <v>67.63</v>
       </c>
       <c r="E48" t="n">
-        <v>67.59</v>
+        <v>67.63</v>
       </c>
       <c r="F48" t="n">
-        <v>221.9263204616067</v>
+        <v>7.3932</v>
       </c>
       <c r="G48" t="n">
-        <v>-110040.6361732003</v>
+        <v>-54166.58880682606</v>
       </c>
       <c r="H48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I48" t="n">
         <v>0</v>
       </c>
-      <c r="J48" t="n">
-        <v>66.40000000000001</v>
-      </c>
-      <c r="K48" t="n">
-        <v>67</v>
-      </c>
-      <c r="L48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J48" t="inlineStr"/>
+      <c r="K48" t="inlineStr"/>
+      <c r="L48" t="inlineStr"/>
       <c r="M48" t="n">
         <v>1</v>
       </c>
@@ -2386,40 +2130,32 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>66.37</v>
+        <v>67.67</v>
       </c>
       <c r="C49" t="n">
-        <v>66.37</v>
+        <v>67.67</v>
       </c>
       <c r="D49" t="n">
-        <v>66.37</v>
+        <v>67.67</v>
       </c>
       <c r="E49" t="n">
-        <v>66.37</v>
+        <v>67.67</v>
       </c>
       <c r="F49" t="n">
-        <v>1572</v>
+        <v>7.3888</v>
       </c>
       <c r="G49" t="n">
-        <v>-111612.6361732003</v>
+        <v>-54159.20000682606</v>
       </c>
       <c r="H49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I49" t="n">
         <v>0</v>
       </c>
-      <c r="J49" t="n">
-        <v>67.59</v>
-      </c>
-      <c r="K49" t="n">
-        <v>67</v>
-      </c>
-      <c r="L49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J49" t="inlineStr"/>
+      <c r="K49" t="inlineStr"/>
+      <c r="L49" t="inlineStr"/>
       <c r="M49" t="n">
         <v>1</v>
       </c>
@@ -2430,40 +2166,32 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>66.38</v>
+        <v>67.7</v>
       </c>
       <c r="C50" t="n">
-        <v>66.38</v>
+        <v>67.7</v>
       </c>
       <c r="D50" t="n">
-        <v>66.38</v>
+        <v>67.7</v>
       </c>
       <c r="E50" t="n">
-        <v>66.38</v>
+        <v>67.7</v>
       </c>
       <c r="F50" t="n">
-        <v>251</v>
+        <v>345.008</v>
       </c>
       <c r="G50" t="n">
-        <v>-111361.6361732003</v>
+        <v>-53814.19200682606</v>
       </c>
       <c r="H50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I50" t="n">
         <v>0</v>
       </c>
-      <c r="J50" t="n">
-        <v>66.37</v>
-      </c>
-      <c r="K50" t="n">
-        <v>67</v>
-      </c>
-      <c r="L50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J50" t="inlineStr"/>
+      <c r="K50" t="inlineStr"/>
+      <c r="L50" t="inlineStr"/>
       <c r="M50" t="n">
         <v>1</v>
       </c>
@@ -2474,40 +2202,32 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>66.38</v>
+        <v>67.7</v>
       </c>
       <c r="C51" t="n">
-        <v>66.38</v>
+        <v>67.7</v>
       </c>
       <c r="D51" t="n">
-        <v>66.38</v>
+        <v>67.7</v>
       </c>
       <c r="E51" t="n">
-        <v>66.38</v>
+        <v>67.7</v>
       </c>
       <c r="F51" t="n">
-        <v>979</v>
+        <v>9036.7037</v>
       </c>
       <c r="G51" t="n">
-        <v>-111361.6361732003</v>
+        <v>-53814.19200682606</v>
       </c>
       <c r="H51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I51" t="n">
         <v>0</v>
       </c>
-      <c r="J51" t="n">
-        <v>66.38</v>
-      </c>
-      <c r="K51" t="n">
-        <v>67</v>
-      </c>
-      <c r="L51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J51" t="inlineStr"/>
+      <c r="K51" t="inlineStr"/>
+      <c r="L51" t="inlineStr"/>
       <c r="M51" t="n">
         <v>1</v>
       </c>
@@ -2518,40 +2238,32 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>66.39</v>
+        <v>67.63</v>
       </c>
       <c r="C52" t="n">
-        <v>66.39</v>
+        <v>66.3</v>
       </c>
       <c r="D52" t="n">
-        <v>66.39</v>
+        <v>67.63</v>
       </c>
       <c r="E52" t="n">
-        <v>66.39</v>
+        <v>66.25</v>
       </c>
       <c r="F52" t="n">
-        <v>175.0906</v>
+        <v>38419.4045</v>
       </c>
       <c r="G52" t="n">
-        <v>-111186.5455732003</v>
+        <v>-92233.59650682606</v>
       </c>
       <c r="H52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I52" t="n">
         <v>0</v>
       </c>
-      <c r="J52" t="n">
-        <v>66.38</v>
-      </c>
-      <c r="K52" t="n">
-        <v>67</v>
-      </c>
-      <c r="L52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J52" t="inlineStr"/>
+      <c r="K52" t="inlineStr"/>
+      <c r="L52" t="inlineStr"/>
       <c r="M52" t="n">
         <v>1</v>
       </c>
@@ -2562,40 +2274,32 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>66.39</v>
+        <v>66.7</v>
       </c>
       <c r="C53" t="n">
-        <v>66.39</v>
+        <v>66.7</v>
       </c>
       <c r="D53" t="n">
-        <v>66.39</v>
+        <v>66.7</v>
       </c>
       <c r="E53" t="n">
-        <v>66.39</v>
+        <v>66.7</v>
       </c>
       <c r="F53" t="n">
-        <v>1419.2274</v>
+        <v>10</v>
       </c>
       <c r="G53" t="n">
-        <v>-111186.5455732003</v>
+        <v>-92223.59650682606</v>
       </c>
       <c r="H53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I53" t="n">
         <v>0</v>
       </c>
-      <c r="J53" t="n">
-        <v>66.39</v>
-      </c>
-      <c r="K53" t="n">
-        <v>67</v>
-      </c>
-      <c r="L53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J53" t="inlineStr"/>
+      <c r="K53" t="inlineStr"/>
+      <c r="L53" t="inlineStr"/>
       <c r="M53" t="n">
         <v>1</v>
       </c>
@@ -2606,40 +2310,32 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>66.59999999999999</v>
+        <v>67.79000000000001</v>
       </c>
       <c r="C54" t="n">
-        <v>66.59999999999999</v>
+        <v>67.79000000000001</v>
       </c>
       <c r="D54" t="n">
-        <v>66.59999999999999</v>
+        <v>67.79000000000001</v>
       </c>
       <c r="E54" t="n">
-        <v>66.59999999999999</v>
+        <v>67.79000000000001</v>
       </c>
       <c r="F54" t="n">
-        <v>59.352</v>
+        <v>10.8123</v>
       </c>
       <c r="G54" t="n">
-        <v>-111127.1935732003</v>
+        <v>-92212.78420682605</v>
       </c>
       <c r="H54" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I54" t="n">
         <v>0</v>
       </c>
-      <c r="J54" t="n">
-        <v>66.39</v>
-      </c>
-      <c r="K54" t="n">
-        <v>67</v>
-      </c>
-      <c r="L54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J54" t="inlineStr"/>
+      <c r="K54" t="inlineStr"/>
+      <c r="L54" t="inlineStr"/>
       <c r="M54" t="n">
         <v>1</v>
       </c>
@@ -2650,40 +2346,32 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>66.59999999999999</v>
+        <v>67.79000000000001</v>
       </c>
       <c r="C55" t="n">
-        <v>66.41</v>
+        <v>67.79000000000001</v>
       </c>
       <c r="D55" t="n">
-        <v>66.59999999999999</v>
+        <v>67.79000000000001</v>
       </c>
       <c r="E55" t="n">
-        <v>66.41</v>
+        <v>67.79000000000001</v>
       </c>
       <c r="F55" t="n">
-        <v>13773.3341</v>
+        <v>11981.3927</v>
       </c>
       <c r="G55" t="n">
-        <v>-124900.5276732003</v>
+        <v>-92212.78420682605</v>
       </c>
       <c r="H55" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I55" t="n">
         <v>0</v>
       </c>
-      <c r="J55" t="n">
-        <v>66.59999999999999</v>
-      </c>
-      <c r="K55" t="n">
-        <v>67</v>
-      </c>
-      <c r="L55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J55" t="inlineStr"/>
+      <c r="K55" t="inlineStr"/>
+      <c r="L55" t="inlineStr"/>
       <c r="M55" t="n">
         <v>1</v>
       </c>
@@ -2694,40 +2382,32 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>66.5</v>
+        <v>67.88</v>
       </c>
       <c r="C56" t="n">
-        <v>66.5</v>
+        <v>67.88</v>
       </c>
       <c r="D56" t="n">
-        <v>66.5</v>
+        <v>67.88</v>
       </c>
       <c r="E56" t="n">
-        <v>66.5</v>
+        <v>67.88</v>
       </c>
       <c r="F56" t="n">
-        <v>8</v>
+        <v>84.8419</v>
       </c>
       <c r="G56" t="n">
-        <v>-124892.5276732003</v>
+        <v>-92127.94230682605</v>
       </c>
       <c r="H56" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I56" t="n">
         <v>0</v>
       </c>
-      <c r="J56" t="n">
-        <v>66.41</v>
-      </c>
-      <c r="K56" t="n">
-        <v>67</v>
-      </c>
-      <c r="L56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J56" t="inlineStr"/>
+      <c r="K56" t="inlineStr"/>
+      <c r="L56" t="inlineStr"/>
       <c r="M56" t="n">
         <v>1</v>
       </c>
@@ -2738,40 +2418,32 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>66.5</v>
+        <v>67.59999999999999</v>
       </c>
       <c r="C57" t="n">
-        <v>66.41</v>
+        <v>67.59999999999999</v>
       </c>
       <c r="D57" t="n">
-        <v>66.5</v>
+        <v>67.59999999999999</v>
       </c>
       <c r="E57" t="n">
-        <v>66.41</v>
+        <v>67.59999999999999</v>
       </c>
       <c r="F57" t="n">
-        <v>132.0308</v>
+        <v>64.6349</v>
       </c>
       <c r="G57" t="n">
-        <v>-125024.5584732003</v>
+        <v>-92192.57720682606</v>
       </c>
       <c r="H57" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I57" t="n">
         <v>0</v>
       </c>
-      <c r="J57" t="n">
-        <v>66.5</v>
-      </c>
-      <c r="K57" t="n">
-        <v>67</v>
-      </c>
-      <c r="L57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J57" t="inlineStr"/>
+      <c r="K57" t="inlineStr"/>
+      <c r="L57" t="inlineStr"/>
       <c r="M57" t="n">
         <v>1</v>
       </c>
@@ -2782,40 +2454,32 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>66.5</v>
+        <v>67.90000000000001</v>
       </c>
       <c r="C58" t="n">
-        <v>66.41</v>
+        <v>67.90000000000001</v>
       </c>
       <c r="D58" t="n">
-        <v>67</v>
+        <v>67.90000000000001</v>
       </c>
       <c r="E58" t="n">
-        <v>66.41</v>
+        <v>67.90000000000001</v>
       </c>
       <c r="F58" t="n">
-        <v>461.4465728358209</v>
+        <v>8.4648</v>
       </c>
       <c r="G58" t="n">
-        <v>-125024.5584732003</v>
+        <v>-92184.11240682605</v>
       </c>
       <c r="H58" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I58" t="n">
         <v>0</v>
       </c>
-      <c r="J58" t="n">
-        <v>66.41</v>
-      </c>
-      <c r="K58" t="n">
-        <v>67</v>
-      </c>
-      <c r="L58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J58" t="inlineStr"/>
+      <c r="K58" t="inlineStr"/>
+      <c r="L58" t="inlineStr"/>
       <c r="M58" t="n">
         <v>1</v>
       </c>
@@ -2826,40 +2490,32 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>66.42</v>
+        <v>67.59999999999999</v>
       </c>
       <c r="C59" t="n">
-        <v>66.42</v>
+        <v>67.59999999999999</v>
       </c>
       <c r="D59" t="n">
-        <v>66.42</v>
+        <v>67.59999999999999</v>
       </c>
       <c r="E59" t="n">
-        <v>66.42</v>
+        <v>67.59999999999999</v>
       </c>
       <c r="F59" t="n">
-        <v>18.18</v>
+        <v>9</v>
       </c>
       <c r="G59" t="n">
-        <v>-125006.3784732003</v>
+        <v>-92193.11240682605</v>
       </c>
       <c r="H59" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I59" t="n">
         <v>0</v>
       </c>
-      <c r="J59" t="n">
-        <v>66.41</v>
-      </c>
-      <c r="K59" t="n">
-        <v>67</v>
-      </c>
-      <c r="L59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J59" t="inlineStr"/>
+      <c r="K59" t="inlineStr"/>
+      <c r="L59" t="inlineStr"/>
       <c r="M59" t="n">
         <v>1</v>
       </c>
@@ -2870,40 +2526,32 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>66.98999999999999</v>
+        <v>67.59999999999999</v>
       </c>
       <c r="C60" t="n">
-        <v>67</v>
+        <v>67.5</v>
       </c>
       <c r="D60" t="n">
-        <v>67</v>
+        <v>67.59999999999999</v>
       </c>
       <c r="E60" t="n">
-        <v>66.98999999999999</v>
+        <v>67.5</v>
       </c>
       <c r="F60" t="n">
-        <v>20</v>
+        <v>5611</v>
       </c>
       <c r="G60" t="n">
-        <v>-124986.3784732003</v>
+        <v>-97804.11240682605</v>
       </c>
       <c r="H60" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I60" t="n">
         <v>0</v>
       </c>
-      <c r="J60" t="n">
-        <v>66.42</v>
-      </c>
-      <c r="K60" t="n">
-        <v>67</v>
-      </c>
-      <c r="L60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J60" t="inlineStr"/>
+      <c r="K60" t="inlineStr"/>
+      <c r="L60" t="inlineStr"/>
       <c r="M60" t="n">
         <v>1</v>
       </c>
@@ -2914,40 +2562,32 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>66.98999999999999</v>
+        <v>67.8</v>
       </c>
       <c r="C61" t="n">
-        <v>66.98999999999999</v>
+        <v>67.5</v>
       </c>
       <c r="D61" t="n">
-        <v>66.98999999999999</v>
+        <v>67.8</v>
       </c>
       <c r="E61" t="n">
-        <v>66.98999999999999</v>
+        <v>67.5</v>
       </c>
       <c r="F61" t="n">
-        <v>153.6305</v>
+        <v>8000.8561</v>
       </c>
       <c r="G61" t="n">
-        <v>-125140.0089732003</v>
+        <v>-97804.11240682605</v>
       </c>
       <c r="H61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I61" t="n">
         <v>0</v>
       </c>
-      <c r="J61" t="n">
-        <v>67</v>
-      </c>
-      <c r="K61" t="n">
-        <v>67</v>
-      </c>
-      <c r="L61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J61" t="inlineStr"/>
+      <c r="K61" t="inlineStr"/>
+      <c r="L61" t="inlineStr"/>
       <c r="M61" t="n">
         <v>1</v>
       </c>
@@ -2958,22 +2598,22 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>66.59999999999999</v>
+        <v>67.5</v>
       </c>
       <c r="C62" t="n">
-        <v>66.59999999999999</v>
+        <v>67.5</v>
       </c>
       <c r="D62" t="n">
-        <v>66.59999999999999</v>
+        <v>67.5</v>
       </c>
       <c r="E62" t="n">
-        <v>66.59999999999999</v>
+        <v>67.5</v>
       </c>
       <c r="F62" t="n">
-        <v>1750</v>
+        <v>9.7859</v>
       </c>
       <c r="G62" t="n">
-        <v>-126890.0089732003</v>
+        <v>-97804.11240682605</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2982,14 +2622,8 @@
         <v>0</v>
       </c>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="n">
-        <v>67</v>
-      </c>
-      <c r="L62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K62" t="inlineStr"/>
+      <c r="L62" t="inlineStr"/>
       <c r="M62" t="n">
         <v>1</v>
       </c>
@@ -3000,22 +2634,22 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>66.98999999999999</v>
+        <v>67.5</v>
       </c>
       <c r="C63" t="n">
-        <v>66.98999999999999</v>
+        <v>67.5</v>
       </c>
       <c r="D63" t="n">
-        <v>66.98999999999999</v>
+        <v>67.5</v>
       </c>
       <c r="E63" t="n">
-        <v>66.98999999999999</v>
+        <v>67.5</v>
       </c>
       <c r="F63" t="n">
-        <v>298.5521</v>
+        <v>30</v>
       </c>
       <c r="G63" t="n">
-        <v>-126591.4568732003</v>
+        <v>-97804.11240682605</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -3024,14 +2658,8 @@
         <v>0</v>
       </c>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="n">
-        <v>67</v>
-      </c>
-      <c r="L63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K63" t="inlineStr"/>
+      <c r="L63" t="inlineStr"/>
       <c r="M63" t="n">
         <v>1</v>
       </c>
@@ -3042,22 +2670,22 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>66.98999999999999</v>
+        <v>67.5</v>
       </c>
       <c r="C64" t="n">
-        <v>67</v>
+        <v>67.5</v>
       </c>
       <c r="D64" t="n">
-        <v>67</v>
+        <v>67.5</v>
       </c>
       <c r="E64" t="n">
-        <v>66.98999999999999</v>
+        <v>67.5</v>
       </c>
       <c r="F64" t="n">
-        <v>504.0863</v>
+        <v>682.63</v>
       </c>
       <c r="G64" t="n">
-        <v>-126087.3705732003</v>
+        <v>-97804.11240682605</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -3066,14 +2694,8 @@
         <v>0</v>
       </c>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="n">
-        <v>67</v>
-      </c>
-      <c r="L64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K64" t="inlineStr"/>
+      <c r="L64" t="inlineStr"/>
       <c r="M64" t="n">
         <v>1</v>
       </c>
@@ -3084,22 +2706,22 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>66.59999999999999</v>
+        <v>67.09</v>
       </c>
       <c r="C65" t="n">
-        <v>66.59999999999999</v>
+        <v>66.90000000000001</v>
       </c>
       <c r="D65" t="n">
-        <v>66.59999999999999</v>
+        <v>67.09</v>
       </c>
       <c r="E65" t="n">
-        <v>66.59999999999999</v>
+        <v>66.90000000000001</v>
       </c>
       <c r="F65" t="n">
-        <v>235.4609</v>
+        <v>457.0939</v>
       </c>
       <c r="G65" t="n">
-        <v>-126322.8314732003</v>
+        <v>-98261.20630682606</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -3108,14 +2730,8 @@
         <v>0</v>
       </c>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="n">
-        <v>67</v>
-      </c>
-      <c r="L65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K65" t="inlineStr"/>
+      <c r="L65" t="inlineStr"/>
       <c r="M65" t="n">
         <v>1</v>
       </c>
@@ -3126,22 +2742,22 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>66.59999999999999</v>
+        <v>67.09999999999999</v>
       </c>
       <c r="C66" t="n">
-        <v>66.5</v>
+        <v>67</v>
       </c>
       <c r="D66" t="n">
-        <v>66.59999999999999</v>
+        <v>67.09999999999999</v>
       </c>
       <c r="E66" t="n">
-        <v>66.5</v>
+        <v>67</v>
       </c>
       <c r="F66" t="n">
-        <v>2082.1879</v>
+        <v>10745.0144</v>
       </c>
       <c r="G66" t="n">
-        <v>-128405.0193732003</v>
+        <v>-87516.19190682606</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -3150,14 +2766,8 @@
         <v>0</v>
       </c>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="n">
-        <v>67</v>
-      </c>
-      <c r="L66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K66" t="inlineStr"/>
+      <c r="L66" t="inlineStr"/>
       <c r="M66" t="n">
         <v>1</v>
       </c>
@@ -3168,22 +2778,22 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>67</v>
+        <v>66.81</v>
       </c>
       <c r="C67" t="n">
-        <v>67.5</v>
+        <v>66.81</v>
       </c>
       <c r="D67" t="n">
-        <v>67.5</v>
+        <v>66.81</v>
       </c>
       <c r="E67" t="n">
-        <v>67</v>
+        <v>66.81</v>
       </c>
       <c r="F67" t="n">
-        <v>10826.22562716418</v>
+        <v>209.5159</v>
       </c>
       <c r="G67" t="n">
-        <v>-117578.7937460361</v>
+        <v>-87725.70780682606</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -3192,14 +2802,8 @@
         <v>0</v>
       </c>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="n">
-        <v>67</v>
-      </c>
-      <c r="L67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K67" t="inlineStr"/>
+      <c r="L67" t="inlineStr"/>
       <c r="M67" t="n">
         <v>1</v>
       </c>
@@ -3210,22 +2814,22 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>67.59</v>
+        <v>66.70999999999999</v>
       </c>
       <c r="C68" t="n">
-        <v>67.77</v>
+        <v>66.70999999999999</v>
       </c>
       <c r="D68" t="n">
-        <v>67.77</v>
+        <v>66.70999999999999</v>
       </c>
       <c r="E68" t="n">
-        <v>67.59</v>
+        <v>66.70999999999999</v>
       </c>
       <c r="F68" t="n">
-        <v>970.7875</v>
+        <v>7015.4754</v>
       </c>
       <c r="G68" t="n">
-        <v>-116608.0062460361</v>
+        <v>-94741.18320682606</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -3234,14 +2838,8 @@
         <v>0</v>
       </c>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="n">
-        <v>67</v>
-      </c>
-      <c r="L68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K68" t="inlineStr"/>
+      <c r="L68" t="inlineStr"/>
       <c r="M68" t="n">
         <v>1</v>
       </c>
@@ -3252,38 +2850,36 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>67.8</v>
+        <v>67.79000000000001</v>
       </c>
       <c r="C69" t="n">
-        <v>67.90000000000001</v>
+        <v>67.79000000000001</v>
       </c>
       <c r="D69" t="n">
-        <v>67.90000000000001</v>
+        <v>67.79000000000001</v>
       </c>
       <c r="E69" t="n">
-        <v>67.8</v>
+        <v>67.79000000000001</v>
       </c>
       <c r="F69" t="n">
-        <v>34049.65948683582</v>
+        <v>30.9781</v>
       </c>
       <c r="G69" t="n">
-        <v>-82558.3467592003</v>
+        <v>-94710.20510682606</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I69" t="n">
         <v>0</v>
       </c>
-      <c r="J69" t="inlineStr"/>
+      <c r="J69" t="n">
+        <v>66.70999999999999</v>
+      </c>
       <c r="K69" t="n">
-        <v>67</v>
-      </c>
-      <c r="L69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>66.70999999999999</v>
+      </c>
+      <c r="L69" t="inlineStr"/>
       <c r="M69" t="n">
         <v>1</v>
       </c>
@@ -3294,22 +2890,22 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>68.59999999999999</v>
+        <v>66.81999999999999</v>
       </c>
       <c r="C70" t="n">
-        <v>68.59999999999999</v>
+        <v>66.81999999999999</v>
       </c>
       <c r="D70" t="n">
-        <v>68.59999999999999</v>
+        <v>66.81999999999999</v>
       </c>
       <c r="E70" t="n">
-        <v>68.59999999999999</v>
+        <v>66.81999999999999</v>
       </c>
       <c r="F70" t="n">
-        <v>271.0883</v>
+        <v>296.3588</v>
       </c>
       <c r="G70" t="n">
-        <v>-82287.2584592003</v>
+        <v>-95006.56390682606</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -3319,11 +2915,11 @@
       </c>
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="n">
-        <v>67</v>
+        <v>66.70999999999999</v>
       </c>
       <c r="L70" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="M70" t="n">
@@ -3336,22 +2932,22 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>68.66</v>
+        <v>66.83</v>
       </c>
       <c r="C71" t="n">
-        <v>68.79000000000001</v>
+        <v>66.83</v>
       </c>
       <c r="D71" t="n">
-        <v>68.79000000000001</v>
+        <v>66.83</v>
       </c>
       <c r="E71" t="n">
-        <v>68.66</v>
+        <v>66.83</v>
       </c>
       <c r="F71" t="n">
-        <v>7095.3232</v>
+        <v>233.4349</v>
       </c>
       <c r="G71" t="n">
-        <v>-75191.9352592003</v>
+        <v>-94773.12900682607</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -3361,11 +2957,11 @@
       </c>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="n">
-        <v>67</v>
+        <v>66.70999999999999</v>
       </c>
       <c r="L71" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="M71" t="n">
@@ -3378,22 +2974,22 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>69</v>
+        <v>66.72</v>
       </c>
       <c r="C72" t="n">
-        <v>69</v>
+        <v>66.70999999999999</v>
       </c>
       <c r="D72" t="n">
-        <v>69</v>
+        <v>66.72</v>
       </c>
       <c r="E72" t="n">
-        <v>69</v>
+        <v>66.70999999999999</v>
       </c>
       <c r="F72" t="n">
-        <v>7666.280684173913</v>
+        <v>1820.3669</v>
       </c>
       <c r="G72" t="n">
-        <v>-67525.65457502639</v>
+        <v>-96593.49590682607</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -3402,14 +2998,8 @@
         <v>0</v>
       </c>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="n">
-        <v>67</v>
-      </c>
-      <c r="L72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K72" t="inlineStr"/>
+      <c r="L72" t="inlineStr"/>
       <c r="M72" t="n">
         <v>1</v>
       </c>
@@ -3420,38 +3010,36 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>68.45</v>
+        <v>66.5</v>
       </c>
       <c r="C73" t="n">
-        <v>66.90000000000001</v>
+        <v>66.5</v>
       </c>
       <c r="D73" t="n">
-        <v>68.45</v>
+        <v>66.5</v>
       </c>
       <c r="E73" t="n">
-        <v>66.90000000000001</v>
+        <v>66.5</v>
       </c>
       <c r="F73" t="n">
-        <v>4067.6485</v>
+        <v>946.2756000000001</v>
       </c>
       <c r="G73" t="n">
-        <v>-71593.30307502639</v>
+        <v>-97539.77150682606</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I73" t="n">
         <v>0</v>
       </c>
-      <c r="J73" t="inlineStr"/>
+      <c r="J73" t="n">
+        <v>66.70999999999999</v>
+      </c>
       <c r="K73" t="n">
-        <v>67</v>
-      </c>
-      <c r="L73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>66.70999999999999</v>
+      </c>
+      <c r="L73" t="inlineStr"/>
       <c r="M73" t="n">
         <v>1</v>
       </c>
@@ -3462,36 +3050,38 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>67.61</v>
+        <v>66.61</v>
       </c>
       <c r="C74" t="n">
-        <v>67.61</v>
+        <v>67</v>
       </c>
       <c r="D74" t="n">
-        <v>67.61</v>
+        <v>67</v>
       </c>
       <c r="E74" t="n">
-        <v>67.61</v>
+        <v>66.61</v>
       </c>
       <c r="F74" t="n">
-        <v>13.077</v>
+        <v>110</v>
       </c>
       <c r="G74" t="n">
-        <v>-71580.22607502638</v>
+        <v>-97429.77150682606</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I74" t="n">
         <v>0</v>
       </c>
-      <c r="J74" t="inlineStr"/>
+      <c r="J74" t="n">
+        <v>66.5</v>
+      </c>
       <c r="K74" t="n">
-        <v>67</v>
+        <v>66.70999999999999</v>
       </c>
       <c r="L74" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="M74" t="n">
@@ -3504,32 +3094,34 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>67.64</v>
+        <v>66.61</v>
       </c>
       <c r="C75" t="n">
-        <v>67.64</v>
+        <v>66.5</v>
       </c>
       <c r="D75" t="n">
-        <v>67.64</v>
+        <v>66.61</v>
       </c>
       <c r="E75" t="n">
-        <v>67.64</v>
+        <v>66.5</v>
       </c>
       <c r="F75" t="n">
-        <v>10011</v>
+        <v>3274.2907</v>
       </c>
       <c r="G75" t="n">
-        <v>-61569.22607502638</v>
+        <v>-100704.0622068261</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I75" t="n">
         <v>0</v>
       </c>
-      <c r="J75" t="inlineStr"/>
+      <c r="J75" t="n">
+        <v>67</v>
+      </c>
       <c r="K75" t="n">
-        <v>67</v>
+        <v>66.70999999999999</v>
       </c>
       <c r="L75" t="inlineStr">
         <is>
@@ -3546,32 +3138,34 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>67.88</v>
+        <v>66.5</v>
       </c>
       <c r="C76" t="n">
-        <v>67.88</v>
+        <v>66.5</v>
       </c>
       <c r="D76" t="n">
-        <v>67.88</v>
+        <v>66.5</v>
       </c>
       <c r="E76" t="n">
-        <v>67.88</v>
+        <v>66.5</v>
       </c>
       <c r="F76" t="n">
-        <v>149.4768</v>
+        <v>8150.3999</v>
       </c>
       <c r="G76" t="n">
-        <v>-61419.74927502638</v>
+        <v>-100704.0622068261</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I76" t="n">
         <v>0</v>
       </c>
-      <c r="J76" t="inlineStr"/>
+      <c r="J76" t="n">
+        <v>66.5</v>
+      </c>
       <c r="K76" t="n">
-        <v>67</v>
+        <v>66.70999999999999</v>
       </c>
       <c r="L76" t="inlineStr">
         <is>
@@ -3588,32 +3182,34 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>68.79000000000001</v>
+        <v>66.58</v>
       </c>
       <c r="C77" t="n">
-        <v>68.79000000000001</v>
+        <v>66.58</v>
       </c>
       <c r="D77" t="n">
-        <v>68.79000000000001</v>
+        <v>66.58</v>
       </c>
       <c r="E77" t="n">
-        <v>68.79000000000001</v>
+        <v>66.58</v>
       </c>
       <c r="F77" t="n">
-        <v>147.8852</v>
+        <v>88.9221</v>
       </c>
       <c r="G77" t="n">
-        <v>-61271.86407502639</v>
+        <v>-100615.1401068261</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I77" t="n">
         <v>0</v>
       </c>
-      <c r="J77" t="inlineStr"/>
+      <c r="J77" t="n">
+        <v>66.5</v>
+      </c>
       <c r="K77" t="n">
-        <v>67</v>
+        <v>66.70999999999999</v>
       </c>
       <c r="L77" t="inlineStr">
         <is>
@@ -3630,32 +3226,34 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>68.79000000000001</v>
+        <v>66.5</v>
       </c>
       <c r="C78" t="n">
-        <v>68.79000000000001</v>
+        <v>66.31</v>
       </c>
       <c r="D78" t="n">
-        <v>68.79000000000001</v>
+        <v>66.5</v>
       </c>
       <c r="E78" t="n">
-        <v>68.79000000000001</v>
+        <v>66.31</v>
       </c>
       <c r="F78" t="n">
-        <v>353</v>
+        <v>4909</v>
       </c>
       <c r="G78" t="n">
-        <v>-61271.86407502639</v>
+        <v>-105524.1401068261</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I78" t="n">
         <v>0</v>
       </c>
-      <c r="J78" t="inlineStr"/>
+      <c r="J78" t="n">
+        <v>66.58</v>
+      </c>
       <c r="K78" t="n">
-        <v>67</v>
+        <v>66.70999999999999</v>
       </c>
       <c r="L78" t="inlineStr">
         <is>
@@ -3672,32 +3270,34 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>68.92</v>
+        <v>66.31</v>
       </c>
       <c r="C79" t="n">
-        <v>68.79000000000001</v>
+        <v>67</v>
       </c>
       <c r="D79" t="n">
-        <v>68.92</v>
+        <v>67</v>
       </c>
       <c r="E79" t="n">
-        <v>68.79000000000001</v>
+        <v>66.31</v>
       </c>
       <c r="F79" t="n">
-        <v>47.7193</v>
+        <v>3821.199213164179</v>
       </c>
       <c r="G79" t="n">
-        <v>-61271.86407502639</v>
+        <v>-101702.9408936619</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I79" t="n">
         <v>0</v>
       </c>
-      <c r="J79" t="inlineStr"/>
+      <c r="J79" t="n">
+        <v>66.31</v>
+      </c>
       <c r="K79" t="n">
-        <v>67</v>
+        <v>66.70999999999999</v>
       </c>
       <c r="L79" t="inlineStr">
         <is>
@@ -3714,32 +3314,34 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>68.09</v>
+        <v>66.31</v>
       </c>
       <c r="C80" t="n">
-        <v>68.09</v>
+        <v>66.31</v>
       </c>
       <c r="D80" t="n">
-        <v>68.09</v>
+        <v>66.31</v>
       </c>
       <c r="E80" t="n">
-        <v>68.09</v>
+        <v>66.31</v>
       </c>
       <c r="F80" t="n">
-        <v>279</v>
+        <v>5675.4762</v>
       </c>
       <c r="G80" t="n">
-        <v>-61550.86407502639</v>
+        <v>-107378.4170936619</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I80" t="n">
         <v>0</v>
       </c>
-      <c r="J80" t="inlineStr"/>
+      <c r="J80" t="n">
+        <v>67</v>
+      </c>
       <c r="K80" t="n">
-        <v>67</v>
+        <v>66.70999999999999</v>
       </c>
       <c r="L80" t="inlineStr">
         <is>
@@ -3756,32 +3358,34 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>68.09</v>
+        <v>66.31</v>
       </c>
       <c r="C81" t="n">
-        <v>67.03</v>
+        <v>66.31</v>
       </c>
       <c r="D81" t="n">
-        <v>68.09</v>
+        <v>66.31</v>
       </c>
       <c r="E81" t="n">
-        <v>67.03</v>
+        <v>66.31</v>
       </c>
       <c r="F81" t="n">
-        <v>10745.0145</v>
+        <v>1386</v>
       </c>
       <c r="G81" t="n">
-        <v>-72295.87857502639</v>
+        <v>-107378.4170936619</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I81" t="n">
         <v>0</v>
       </c>
-      <c r="J81" t="inlineStr"/>
+      <c r="J81" t="n">
+        <v>66.31</v>
+      </c>
       <c r="K81" t="n">
-        <v>67</v>
+        <v>66.70999999999999</v>
       </c>
       <c r="L81" t="inlineStr">
         <is>
@@ -3798,32 +3402,34 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>68.73999999999999</v>
+        <v>66.31</v>
       </c>
       <c r="C82" t="n">
-        <v>68.73999999999999</v>
+        <v>66.3</v>
       </c>
       <c r="D82" t="n">
-        <v>68.73999999999999</v>
+        <v>66.31</v>
       </c>
       <c r="E82" t="n">
-        <v>68.73999999999999</v>
+        <v>66.3</v>
       </c>
       <c r="F82" t="n">
-        <v>8</v>
+        <v>10647.3702</v>
       </c>
       <c r="G82" t="n">
-        <v>-72287.87857502639</v>
+        <v>-118025.7872936619</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I82" t="n">
         <v>0</v>
       </c>
-      <c r="J82" t="inlineStr"/>
+      <c r="J82" t="n">
+        <v>66.31</v>
+      </c>
       <c r="K82" t="n">
-        <v>67</v>
+        <v>66.70999999999999</v>
       </c>
       <c r="L82" t="inlineStr">
         <is>
@@ -3840,32 +3446,34 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>67.98999999999999</v>
+        <v>66.31</v>
       </c>
       <c r="C83" t="n">
-        <v>67.98999999999999</v>
+        <v>66.31</v>
       </c>
       <c r="D83" t="n">
-        <v>67.98999999999999</v>
+        <v>66.31</v>
       </c>
       <c r="E83" t="n">
-        <v>67.98999999999999</v>
+        <v>66.31</v>
       </c>
       <c r="F83" t="n">
-        <v>13253.198</v>
+        <v>4864.2528</v>
       </c>
       <c r="G83" t="n">
-        <v>-85541.0765750264</v>
+        <v>-113161.5344936619</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I83" t="n">
         <v>0</v>
       </c>
-      <c r="J83" t="inlineStr"/>
+      <c r="J83" t="n">
+        <v>66.3</v>
+      </c>
       <c r="K83" t="n">
-        <v>67</v>
+        <v>66.70999999999999</v>
       </c>
       <c r="L83" t="inlineStr">
         <is>
@@ -3882,32 +3490,34 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>67.98999999999999</v>
+        <v>66.36</v>
       </c>
       <c r="C84" t="n">
-        <v>67.98999999999999</v>
+        <v>66.36</v>
       </c>
       <c r="D84" t="n">
-        <v>67.98999999999999</v>
+        <v>66.36</v>
       </c>
       <c r="E84" t="n">
-        <v>67.98999999999999</v>
+        <v>66.36</v>
       </c>
       <c r="F84" t="n">
-        <v>1276</v>
+        <v>1000</v>
       </c>
       <c r="G84" t="n">
-        <v>-85541.0765750264</v>
+        <v>-112161.5344936619</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I84" t="n">
         <v>0</v>
       </c>
-      <c r="J84" t="inlineStr"/>
+      <c r="J84" t="n">
+        <v>66.31</v>
+      </c>
       <c r="K84" t="n">
-        <v>67</v>
+        <v>66.70999999999999</v>
       </c>
       <c r="L84" t="inlineStr">
         <is>
@@ -3924,32 +3534,34 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>67.98999999999999</v>
+        <v>66.36</v>
       </c>
       <c r="C85" t="n">
-        <v>68.54000000000001</v>
+        <v>66.5</v>
       </c>
       <c r="D85" t="n">
-        <v>68.54000000000001</v>
+        <v>66.5</v>
       </c>
       <c r="E85" t="n">
-        <v>67.98999999999999</v>
+        <v>66.36</v>
       </c>
       <c r="F85" t="n">
-        <v>1142.1549</v>
+        <v>1100</v>
       </c>
       <c r="G85" t="n">
-        <v>-84398.9216750264</v>
+        <v>-111061.5344936619</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I85" t="n">
         <v>0</v>
       </c>
-      <c r="J85" t="inlineStr"/>
+      <c r="J85" t="n">
+        <v>66.36</v>
+      </c>
       <c r="K85" t="n">
-        <v>67</v>
+        <v>66.70999999999999</v>
       </c>
       <c r="L85" t="inlineStr">
         <is>
@@ -3966,32 +3578,34 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>67.7</v>
+        <v>66.36</v>
       </c>
       <c r="C86" t="n">
-        <v>67.70999999999999</v>
+        <v>66.36</v>
       </c>
       <c r="D86" t="n">
-        <v>67.8</v>
+        <v>66.36</v>
       </c>
       <c r="E86" t="n">
-        <v>67.7</v>
+        <v>66.36</v>
       </c>
       <c r="F86" t="n">
-        <v>1976.9936</v>
+        <v>49.813</v>
       </c>
       <c r="G86" t="n">
-        <v>-86375.9152750264</v>
+        <v>-111111.3474936619</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I86" t="n">
         <v>0</v>
       </c>
-      <c r="J86" t="inlineStr"/>
+      <c r="J86" t="n">
+        <v>66.5</v>
+      </c>
       <c r="K86" t="n">
-        <v>67</v>
+        <v>66.70999999999999</v>
       </c>
       <c r="L86" t="inlineStr">
         <is>
@@ -4008,32 +3622,34 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>67.7</v>
+        <v>66.5</v>
       </c>
       <c r="C87" t="n">
-        <v>67.34999999999999</v>
+        <v>67.5</v>
       </c>
       <c r="D87" t="n">
-        <v>67.7</v>
+        <v>67.5</v>
       </c>
       <c r="E87" t="n">
-        <v>67.34999999999999</v>
+        <v>66.5</v>
       </c>
       <c r="F87" t="n">
-        <v>721.9503999999999</v>
+        <v>22722.17038683582</v>
       </c>
       <c r="G87" t="n">
-        <v>-87097.86567502641</v>
+        <v>-88389.17710682607</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I87" t="n">
         <v>0</v>
       </c>
-      <c r="J87" t="inlineStr"/>
+      <c r="J87" t="n">
+        <v>66.36</v>
+      </c>
       <c r="K87" t="n">
-        <v>67</v>
+        <v>66.70999999999999</v>
       </c>
       <c r="L87" t="inlineStr">
         <is>
@@ -4050,22 +3666,22 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>68.37</v>
+        <v>67.5</v>
       </c>
       <c r="C88" t="n">
-        <v>68.37</v>
+        <v>67.89</v>
       </c>
       <c r="D88" t="n">
-        <v>68.37</v>
+        <v>67.89</v>
       </c>
       <c r="E88" t="n">
-        <v>68.37</v>
+        <v>67.5</v>
       </c>
       <c r="F88" t="n">
-        <v>50</v>
+        <v>347.324</v>
       </c>
       <c r="G88" t="n">
-        <v>-87047.86567502641</v>
+        <v>-88041.85310682608</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -4075,7 +3691,7 @@
       </c>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="n">
-        <v>67</v>
+        <v>66.70999999999999</v>
       </c>
       <c r="L88" t="inlineStr">
         <is>
@@ -4092,22 +3708,22 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>67.53</v>
+        <v>67.01000000000001</v>
       </c>
       <c r="C89" t="n">
-        <v>67.53</v>
+        <v>67</v>
       </c>
       <c r="D89" t="n">
-        <v>67.53</v>
+        <v>67.01000000000001</v>
       </c>
       <c r="E89" t="n">
-        <v>67.53</v>
+        <v>67</v>
       </c>
       <c r="F89" t="n">
-        <v>15</v>
+        <v>1625.3001</v>
       </c>
       <c r="G89" t="n">
-        <v>-87062.86567502641</v>
+        <v>-89667.15320682607</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -4117,7 +3733,7 @@
       </c>
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="n">
-        <v>67</v>
+        <v>66.70999999999999</v>
       </c>
       <c r="L89" t="inlineStr">
         <is>
@@ -4134,22 +3750,22 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>67.54000000000001</v>
+        <v>67</v>
       </c>
       <c r="C90" t="n">
-        <v>67.52</v>
+        <v>67.01000000000001</v>
       </c>
       <c r="D90" t="n">
-        <v>67.54000000000001</v>
+        <v>67.01000000000001</v>
       </c>
       <c r="E90" t="n">
-        <v>67.52</v>
+        <v>67</v>
       </c>
       <c r="F90" t="n">
-        <v>12101.4243</v>
+        <v>456.0044131641791</v>
       </c>
       <c r="G90" t="n">
-        <v>-99164.2899750264</v>
+        <v>-89211.14879366189</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -4159,7 +3775,7 @@
       </c>
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="n">
-        <v>67</v>
+        <v>66.70999999999999</v>
       </c>
       <c r="L90" t="inlineStr">
         <is>
@@ -4176,22 +3792,22 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>67.51000000000001</v>
+        <v>67.01000000000001</v>
       </c>
       <c r="C91" t="n">
-        <v>67.51000000000001</v>
+        <v>67.01000000000001</v>
       </c>
       <c r="D91" t="n">
-        <v>67.51000000000001</v>
+        <v>67.01000000000001</v>
       </c>
       <c r="E91" t="n">
-        <v>67.51000000000001</v>
+        <v>67.01000000000001</v>
       </c>
       <c r="F91" t="n">
-        <v>1864.6971</v>
+        <v>148</v>
       </c>
       <c r="G91" t="n">
-        <v>-101028.9870750264</v>
+        <v>-89211.14879366189</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -4201,7 +3817,7 @@
       </c>
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="n">
-        <v>67</v>
+        <v>66.70999999999999</v>
       </c>
       <c r="L91" t="inlineStr">
         <is>
@@ -4218,22 +3834,22 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>67.59999999999999</v>
+        <v>67.01000000000001</v>
       </c>
       <c r="C92" t="n">
-        <v>67.54000000000001</v>
+        <v>67.90000000000001</v>
       </c>
       <c r="D92" t="n">
-        <v>67.59999999999999</v>
+        <v>67.90000000000001</v>
       </c>
       <c r="E92" t="n">
-        <v>67.54000000000001</v>
+        <v>67.01000000000001</v>
       </c>
       <c r="F92" t="n">
-        <v>1577.8946</v>
+        <v>8</v>
       </c>
       <c r="G92" t="n">
-        <v>-99451.09247502641</v>
+        <v>-89203.14879366189</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -4243,7 +3859,7 @@
       </c>
       <c r="J92" t="inlineStr"/>
       <c r="K92" t="n">
-        <v>67</v>
+        <v>66.70999999999999</v>
       </c>
       <c r="L92" t="inlineStr">
         <is>
@@ -4260,22 +3876,22 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>67.51000000000001</v>
+        <v>66.91</v>
       </c>
       <c r="C93" t="n">
-        <v>67.51000000000001</v>
+        <v>66.91</v>
       </c>
       <c r="D93" t="n">
-        <v>67.51000000000001</v>
+        <v>66.91</v>
       </c>
       <c r="E93" t="n">
-        <v>67.51000000000001</v>
+        <v>66.91</v>
       </c>
       <c r="F93" t="n">
-        <v>1071.1933</v>
+        <v>576</v>
       </c>
       <c r="G93" t="n">
-        <v>-100522.2857750264</v>
+        <v>-89779.14879366189</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -4285,7 +3901,7 @@
       </c>
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="n">
-        <v>67</v>
+        <v>66.70999999999999</v>
       </c>
       <c r="L93" t="inlineStr">
         <is>
@@ -4302,22 +3918,22 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>68.2</v>
+        <v>66.91</v>
       </c>
       <c r="C94" t="n">
-        <v>68.2</v>
+        <v>66.91</v>
       </c>
       <c r="D94" t="n">
-        <v>68.2</v>
+        <v>66.91</v>
       </c>
       <c r="E94" t="n">
-        <v>68.2</v>
+        <v>66.91</v>
       </c>
       <c r="F94" t="n">
-        <v>10</v>
+        <v>267.369</v>
       </c>
       <c r="G94" t="n">
-        <v>-100512.2857750264</v>
+        <v>-89779.14879366189</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -4327,7 +3943,7 @@
       </c>
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="n">
-        <v>67</v>
+        <v>66.70999999999999</v>
       </c>
       <c r="L94" t="inlineStr">
         <is>
@@ -4344,22 +3960,22 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>68.2</v>
+        <v>66.91</v>
       </c>
       <c r="C95" t="n">
-        <v>68.2</v>
+        <v>67.90000000000001</v>
       </c>
       <c r="D95" t="n">
-        <v>68.2</v>
+        <v>67.90000000000001</v>
       </c>
       <c r="E95" t="n">
-        <v>68.2</v>
+        <v>66.91</v>
       </c>
       <c r="F95" t="n">
-        <v>107.4327</v>
+        <v>721</v>
       </c>
       <c r="G95" t="n">
-        <v>-100512.2857750264</v>
+        <v>-89058.14879366189</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -4369,7 +3985,7 @@
       </c>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="n">
-        <v>67</v>
+        <v>66.70999999999999</v>
       </c>
       <c r="L95" t="inlineStr">
         <is>
@@ -4386,22 +4002,22 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>67.51000000000001</v>
+        <v>67.01000000000001</v>
       </c>
       <c r="C96" t="n">
-        <v>67.51000000000001</v>
+        <v>67.01000000000001</v>
       </c>
       <c r="D96" t="n">
-        <v>67.51000000000001</v>
+        <v>67.01000000000001</v>
       </c>
       <c r="E96" t="n">
-        <v>67.51000000000001</v>
+        <v>67.01000000000001</v>
       </c>
       <c r="F96" t="n">
-        <v>200</v>
+        <v>228.7706</v>
       </c>
       <c r="G96" t="n">
-        <v>-100712.2857750264</v>
+        <v>-89286.9193936619</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -4411,7 +4027,7 @@
       </c>
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="n">
-        <v>67</v>
+        <v>66.70999999999999</v>
       </c>
       <c r="L96" t="inlineStr">
         <is>
@@ -4428,22 +4044,22 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>68</v>
+        <v>67.01000000000001</v>
       </c>
       <c r="C97" t="n">
-        <v>68.2</v>
+        <v>67</v>
       </c>
       <c r="D97" t="n">
-        <v>68.2</v>
+        <v>67.01000000000001</v>
       </c>
       <c r="E97" t="n">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F97" t="n">
-        <v>151.9994096774194</v>
+        <v>1266.1127</v>
       </c>
       <c r="G97" t="n">
-        <v>-100560.286365349</v>
+        <v>-90553.0320936619</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -4453,7 +4069,7 @@
       </c>
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="n">
-        <v>67</v>
+        <v>66.70999999999999</v>
       </c>
       <c r="L97" t="inlineStr">
         <is>
@@ -4470,22 +4086,22 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>67.52</v>
+        <v>67</v>
       </c>
       <c r="C98" t="n">
-        <v>67.52</v>
+        <v>67.90000000000001</v>
       </c>
       <c r="D98" t="n">
-        <v>67.52</v>
+        <v>67.90000000000001</v>
       </c>
       <c r="E98" t="n">
-        <v>67.52</v>
+        <v>67</v>
       </c>
       <c r="F98" t="n">
-        <v>1850.9361</v>
+        <v>122.7761</v>
       </c>
       <c r="G98" t="n">
-        <v>-102411.222465349</v>
+        <v>-90430.25599366189</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -4495,7 +4111,7 @@
       </c>
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="n">
-        <v>67</v>
+        <v>66.70999999999999</v>
       </c>
       <c r="L98" t="inlineStr">
         <is>
@@ -4512,22 +4128,22 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>68</v>
+        <v>66.91</v>
       </c>
       <c r="C99" t="n">
-        <v>68.2</v>
+        <v>66.91</v>
       </c>
       <c r="D99" t="n">
-        <v>68.2</v>
+        <v>66.91</v>
       </c>
       <c r="E99" t="n">
-        <v>68</v>
+        <v>66.91</v>
       </c>
       <c r="F99" t="n">
-        <v>18372.8828</v>
+        <v>373</v>
       </c>
       <c r="G99" t="n">
-        <v>-84038.33966534899</v>
+        <v>-90803.25599366189</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -4537,7 +4153,7 @@
       </c>
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="n">
-        <v>67</v>
+        <v>66.70999999999999</v>
       </c>
       <c r="L99" t="inlineStr">
         <is>
@@ -4554,22 +4170,22 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>68.28</v>
+        <v>67.90000000000001</v>
       </c>
       <c r="C100" t="n">
-        <v>68.72</v>
+        <v>67.90000000000001</v>
       </c>
       <c r="D100" t="n">
-        <v>68.72</v>
+        <v>67.90000000000001</v>
       </c>
       <c r="E100" t="n">
-        <v>68.28</v>
+        <v>67.90000000000001</v>
       </c>
       <c r="F100" t="n">
-        <v>570</v>
+        <v>8</v>
       </c>
       <c r="G100" t="n">
-        <v>-83468.33966534899</v>
+        <v>-90795.25599366189</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -4579,7 +4195,7 @@
       </c>
       <c r="J100" t="inlineStr"/>
       <c r="K100" t="n">
-        <v>67</v>
+        <v>66.70999999999999</v>
       </c>
       <c r="L100" t="inlineStr">
         <is>
@@ -4596,22 +4212,22 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>68.70999999999999</v>
+        <v>66.91</v>
       </c>
       <c r="C101" t="n">
-        <v>68.72</v>
+        <v>66.70999999999999</v>
       </c>
       <c r="D101" t="n">
-        <v>68.72</v>
+        <v>66.91</v>
       </c>
       <c r="E101" t="n">
-        <v>68.70999999999999</v>
+        <v>66.70999999999999</v>
       </c>
       <c r="F101" t="n">
-        <v>284.4061</v>
+        <v>9296.9447</v>
       </c>
       <c r="G101" t="n">
-        <v>-83468.33966534899</v>
+        <v>-100092.2006936619</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -4621,7 +4237,7 @@
       </c>
       <c r="J101" t="inlineStr"/>
       <c r="K101" t="n">
-        <v>67</v>
+        <v>66.70999999999999</v>
       </c>
       <c r="L101" t="inlineStr">
         <is>
@@ -4638,22 +4254,22 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>68.70999999999999</v>
+        <v>66.70999999999999</v>
       </c>
       <c r="C102" t="n">
-        <v>68.72</v>
+        <v>66.70999999999999</v>
       </c>
       <c r="D102" t="n">
-        <v>68.72</v>
+        <v>66.70999999999999</v>
       </c>
       <c r="E102" t="n">
-        <v>68.70999999999999</v>
+        <v>66.70999999999999</v>
       </c>
       <c r="F102" t="n">
-        <v>222.6608</v>
+        <v>321</v>
       </c>
       <c r="G102" t="n">
-        <v>-83468.33966534899</v>
+        <v>-100092.2006936619</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -4663,7 +4279,7 @@
       </c>
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="n">
-        <v>67</v>
+        <v>66.70999999999999</v>
       </c>
       <c r="L102" t="inlineStr">
         <is>
@@ -4680,22 +4296,22 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>68.20999999999999</v>
+        <v>66.90000000000001</v>
       </c>
       <c r="C103" t="n">
-        <v>68.70999999999999</v>
+        <v>66.90000000000001</v>
       </c>
       <c r="D103" t="n">
-        <v>68.70999999999999</v>
+        <v>66.90000000000001</v>
       </c>
       <c r="E103" t="n">
-        <v>68.20999999999999</v>
+        <v>66.90000000000001</v>
       </c>
       <c r="F103" t="n">
-        <v>497</v>
+        <v>0.0004</v>
       </c>
       <c r="G103" t="n">
-        <v>-83965.33966534899</v>
+        <v>-100092.2002936619</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -4705,7 +4321,7 @@
       </c>
       <c r="J103" t="inlineStr"/>
       <c r="K103" t="n">
-        <v>67</v>
+        <v>66.70999999999999</v>
       </c>
       <c r="L103" t="inlineStr">
         <is>
@@ -4722,22 +4338,22 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>68.70999999999999</v>
+        <v>67.77</v>
       </c>
       <c r="C104" t="n">
-        <v>68.72</v>
+        <v>67.77</v>
       </c>
       <c r="D104" t="n">
-        <v>68.72</v>
+        <v>67.77</v>
       </c>
       <c r="E104" t="n">
-        <v>68.70999999999999</v>
+        <v>67.77</v>
       </c>
       <c r="F104" t="n">
-        <v>423.0708</v>
+        <v>32.6012</v>
       </c>
       <c r="G104" t="n">
-        <v>-83542.26886534899</v>
+        <v>-100059.5990936619</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -4747,7 +4363,7 @@
       </c>
       <c r="J104" t="inlineStr"/>
       <c r="K104" t="n">
-        <v>67</v>
+        <v>66.70999999999999</v>
       </c>
       <c r="L104" t="inlineStr">
         <is>
@@ -4764,22 +4380,22 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>68.22</v>
+        <v>66.90000000000001</v>
       </c>
       <c r="C105" t="n">
-        <v>68.22</v>
+        <v>66.5</v>
       </c>
       <c r="D105" t="n">
-        <v>68.22</v>
+        <v>66.90000000000001</v>
       </c>
       <c r="E105" t="n">
-        <v>68.22</v>
+        <v>66.5</v>
       </c>
       <c r="F105" t="n">
-        <v>1729</v>
+        <v>3217.851</v>
       </c>
       <c r="G105" t="n">
-        <v>-85271.26886534899</v>
+        <v>-103277.4500936619</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -4789,7 +4405,7 @@
       </c>
       <c r="J105" t="inlineStr"/>
       <c r="K105" t="n">
-        <v>67</v>
+        <v>66.70999999999999</v>
       </c>
       <c r="L105" t="inlineStr">
         <is>
@@ -4806,32 +4422,34 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>68.70999999999999</v>
+        <v>66.5</v>
       </c>
       <c r="C106" t="n">
-        <v>68.72</v>
+        <v>66.5</v>
       </c>
       <c r="D106" t="n">
-        <v>68.72</v>
+        <v>66.5</v>
       </c>
       <c r="E106" t="n">
-        <v>68.70999999999999</v>
+        <v>66.5</v>
       </c>
       <c r="F106" t="n">
-        <v>249.2450844877765</v>
+        <v>371.6554</v>
       </c>
       <c r="G106" t="n">
-        <v>-85022.02378086121</v>
+        <v>-103277.4500936619</v>
       </c>
       <c r="H106" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I106" t="n">
         <v>0</v>
       </c>
-      <c r="J106" t="inlineStr"/>
+      <c r="J106" t="n">
+        <v>66.5</v>
+      </c>
       <c r="K106" t="n">
-        <v>67</v>
+        <v>66.70999999999999</v>
       </c>
       <c r="L106" t="inlineStr">
         <is>
@@ -4848,32 +4466,34 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>68.7</v>
+        <v>67.69</v>
       </c>
       <c r="C107" t="n">
-        <v>68.72</v>
+        <v>67.69</v>
       </c>
       <c r="D107" t="n">
-        <v>68.72</v>
+        <v>67.69</v>
       </c>
       <c r="E107" t="n">
-        <v>68.7</v>
+        <v>67.69</v>
       </c>
       <c r="F107" t="n">
-        <v>482.8494</v>
+        <v>10</v>
       </c>
       <c r="G107" t="n">
-        <v>-85022.02378086121</v>
+        <v>-103267.4500936619</v>
       </c>
       <c r="H107" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I107" t="n">
         <v>0</v>
       </c>
-      <c r="J107" t="inlineStr"/>
+      <c r="J107" t="n">
+        <v>66.5</v>
+      </c>
       <c r="K107" t="n">
-        <v>67</v>
+        <v>66.70999999999999</v>
       </c>
       <c r="L107" t="inlineStr">
         <is>
@@ -4890,22 +4510,22 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>68.22</v>
+        <v>67.69</v>
       </c>
       <c r="C108" t="n">
-        <v>68.09999999999999</v>
+        <v>67.69</v>
       </c>
       <c r="D108" t="n">
-        <v>68.22</v>
+        <v>67.69</v>
       </c>
       <c r="E108" t="n">
-        <v>68.09999999999999</v>
+        <v>67.69</v>
       </c>
       <c r="F108" t="n">
-        <v>1186.1728</v>
+        <v>8</v>
       </c>
       <c r="G108" t="n">
-        <v>-86208.19658086121</v>
+        <v>-103267.4500936619</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -4915,7 +4535,7 @@
       </c>
       <c r="J108" t="inlineStr"/>
       <c r="K108" t="n">
-        <v>67</v>
+        <v>66.70999999999999</v>
       </c>
       <c r="L108" t="inlineStr">
         <is>
@@ -4932,22 +4552,22 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>68.01000000000001</v>
+        <v>67.3</v>
       </c>
       <c r="C109" t="n">
-        <v>68.02</v>
+        <v>66.88</v>
       </c>
       <c r="D109" t="n">
-        <v>68.02</v>
+        <v>67.3</v>
       </c>
       <c r="E109" t="n">
-        <v>68.01000000000001</v>
+        <v>66.88</v>
       </c>
       <c r="F109" t="n">
-        <v>8370.8272</v>
+        <v>298.9529</v>
       </c>
       <c r="G109" t="n">
-        <v>-94579.02378086121</v>
+        <v>-103566.4029936619</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -4957,7 +4577,7 @@
       </c>
       <c r="J109" t="inlineStr"/>
       <c r="K109" t="n">
-        <v>67</v>
+        <v>66.70999999999999</v>
       </c>
       <c r="L109" t="inlineStr">
         <is>
@@ -4974,22 +4594,22 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>68.02</v>
+        <v>66.5</v>
       </c>
       <c r="C110" t="n">
-        <v>67.90000000000001</v>
+        <v>66.5</v>
       </c>
       <c r="D110" t="n">
-        <v>68.02</v>
+        <v>66.5</v>
       </c>
       <c r="E110" t="n">
-        <v>67.90000000000001</v>
+        <v>66.5</v>
       </c>
       <c r="F110" t="n">
-        <v>2000</v>
+        <v>8</v>
       </c>
       <c r="G110" t="n">
-        <v>-96579.02378086121</v>
+        <v>-103574.4029936619</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -4999,7 +4619,7 @@
       </c>
       <c r="J110" t="inlineStr"/>
       <c r="K110" t="n">
-        <v>67</v>
+        <v>66.70999999999999</v>
       </c>
       <c r="L110" t="inlineStr">
         <is>
@@ -5016,22 +4636,22 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>68.59</v>
+        <v>66.88</v>
       </c>
       <c r="C111" t="n">
-        <v>68.59</v>
+        <v>67.3</v>
       </c>
       <c r="D111" t="n">
-        <v>68.59</v>
+        <v>67.3</v>
       </c>
       <c r="E111" t="n">
-        <v>68.59</v>
+        <v>66.88</v>
       </c>
       <c r="F111" t="n">
-        <v>32.84181367546289</v>
+        <v>154.2345</v>
       </c>
       <c r="G111" t="n">
-        <v>-96546.18196718575</v>
+        <v>-103420.1684936619</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -5041,7 +4661,7 @@
       </c>
       <c r="J111" t="inlineStr"/>
       <c r="K111" t="n">
-        <v>67</v>
+        <v>66.70999999999999</v>
       </c>
       <c r="L111" t="inlineStr">
         <is>
@@ -5058,22 +4678,22 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>68.58</v>
+        <v>67</v>
       </c>
       <c r="C112" t="n">
-        <v>68.3</v>
+        <v>67.69</v>
       </c>
       <c r="D112" t="n">
-        <v>68.58</v>
+        <v>67.69</v>
       </c>
       <c r="E112" t="n">
-        <v>68.3</v>
+        <v>67</v>
       </c>
       <c r="F112" t="n">
-        <v>194</v>
+        <v>196.8885</v>
       </c>
       <c r="G112" t="n">
-        <v>-96740.18196718575</v>
+        <v>-103223.2799936619</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -5083,7 +4703,7 @@
       </c>
       <c r="J112" t="inlineStr"/>
       <c r="K112" t="n">
-        <v>67</v>
+        <v>66.70999999999999</v>
       </c>
       <c r="L112" t="inlineStr">
         <is>
@@ -5100,22 +4720,22 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>68.59</v>
+        <v>66.61</v>
       </c>
       <c r="C113" t="n">
-        <v>68.59</v>
+        <v>66.36</v>
       </c>
       <c r="D113" t="n">
-        <v>68.59</v>
+        <v>66.61</v>
       </c>
       <c r="E113" t="n">
-        <v>68.59</v>
+        <v>66.36</v>
       </c>
       <c r="F113" t="n">
-        <v>11.3527</v>
+        <v>5996.6585</v>
       </c>
       <c r="G113" t="n">
-        <v>-96728.82926718575</v>
+        <v>-109219.9384936619</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -5125,7 +4745,7 @@
       </c>
       <c r="J113" t="inlineStr"/>
       <c r="K113" t="n">
-        <v>67</v>
+        <v>66.70999999999999</v>
       </c>
       <c r="L113" t="inlineStr">
         <is>
@@ -5142,22 +4762,22 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>68.3</v>
+        <v>66.36</v>
       </c>
       <c r="C114" t="n">
-        <v>68.3</v>
+        <v>66.36</v>
       </c>
       <c r="D114" t="n">
-        <v>68.3</v>
+        <v>66.36</v>
       </c>
       <c r="E114" t="n">
-        <v>68.3</v>
+        <v>66.36</v>
       </c>
       <c r="F114" t="n">
-        <v>115.148</v>
+        <v>1145.1453</v>
       </c>
       <c r="G114" t="n">
-        <v>-96843.97726718575</v>
+        <v>-109219.9384936619</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -5167,7 +4787,7 @@
       </c>
       <c r="J114" t="inlineStr"/>
       <c r="K114" t="n">
-        <v>67</v>
+        <v>66.70999999999999</v>
       </c>
       <c r="L114" t="inlineStr">
         <is>
@@ -5184,22 +4804,22 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>68.2</v>
+        <v>66.41</v>
       </c>
       <c r="C115" t="n">
-        <v>68.09999999999999</v>
+        <v>66.41</v>
       </c>
       <c r="D115" t="n">
-        <v>68.2</v>
+        <v>66.41</v>
       </c>
       <c r="E115" t="n">
-        <v>68.09999999999999</v>
+        <v>66.41</v>
       </c>
       <c r="F115" t="n">
-        <v>369.7768</v>
+        <v>8</v>
       </c>
       <c r="G115" t="n">
-        <v>-97213.75406718576</v>
+        <v>-109211.9384936619</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -5209,7 +4829,7 @@
       </c>
       <c r="J115" t="inlineStr"/>
       <c r="K115" t="n">
-        <v>67</v>
+        <v>66.70999999999999</v>
       </c>
       <c r="L115" t="inlineStr">
         <is>
@@ -5226,22 +4846,22 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>68</v>
+        <v>67.40000000000001</v>
       </c>
       <c r="C116" t="n">
-        <v>67.91</v>
+        <v>67.40000000000001</v>
       </c>
       <c r="D116" t="n">
-        <v>68</v>
+        <v>67.40000000000001</v>
       </c>
       <c r="E116" t="n">
-        <v>67.91</v>
+        <v>67.40000000000001</v>
       </c>
       <c r="F116" t="n">
-        <v>1242.072</v>
+        <v>10.1499</v>
       </c>
       <c r="G116" t="n">
-        <v>-98455.82606718576</v>
+        <v>-109201.7885936619</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -5251,7 +4871,7 @@
       </c>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="n">
-        <v>67</v>
+        <v>66.70999999999999</v>
       </c>
       <c r="L116" t="inlineStr">
         <is>
@@ -5268,22 +4888,22 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>67.90000000000001</v>
+        <v>66.42</v>
       </c>
       <c r="C117" t="n">
-        <v>67.81</v>
+        <v>67.59999999999999</v>
       </c>
       <c r="D117" t="n">
-        <v>67.90000000000001</v>
+        <v>67.59999999999999</v>
       </c>
       <c r="E117" t="n">
-        <v>67.81</v>
+        <v>66.42</v>
       </c>
       <c r="F117" t="n">
-        <v>121.63</v>
+        <v>15.8606</v>
       </c>
       <c r="G117" t="n">
-        <v>-98577.45606718576</v>
+        <v>-109185.9279936619</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -5293,7 +4913,7 @@
       </c>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="n">
-        <v>67</v>
+        <v>66.70999999999999</v>
       </c>
       <c r="L117" t="inlineStr">
         <is>
@@ -5310,22 +4930,22 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>68</v>
+        <v>66.43000000000001</v>
       </c>
       <c r="C118" t="n">
-        <v>68</v>
+        <v>66.40000000000001</v>
       </c>
       <c r="D118" t="n">
-        <v>68</v>
+        <v>66.43000000000001</v>
       </c>
       <c r="E118" t="n">
-        <v>68</v>
+        <v>66.40000000000001</v>
       </c>
       <c r="F118" t="n">
-        <v>8</v>
+        <v>1076.6345</v>
       </c>
       <c r="G118" t="n">
-        <v>-98569.45606718576</v>
+        <v>-110262.5624936619</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -5335,7 +4955,7 @@
       </c>
       <c r="J118" t="inlineStr"/>
       <c r="K118" t="n">
-        <v>67</v>
+        <v>66.70999999999999</v>
       </c>
       <c r="L118" t="inlineStr">
         <is>
@@ -5352,22 +4972,22 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>67.81</v>
+        <v>67.59</v>
       </c>
       <c r="C119" t="n">
-        <v>67.59999999999999</v>
+        <v>67.59</v>
       </c>
       <c r="D119" t="n">
-        <v>67.81</v>
+        <v>67.59</v>
       </c>
       <c r="E119" t="n">
-        <v>67.59999999999999</v>
+        <v>67.59</v>
       </c>
       <c r="F119" t="n">
-        <v>5636.408</v>
+        <v>221.9263204616067</v>
       </c>
       <c r="G119" t="n">
-        <v>-104205.8640671858</v>
+        <v>-110040.6361732003</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -5377,7 +4997,7 @@
       </c>
       <c r="J119" t="inlineStr"/>
       <c r="K119" t="n">
-        <v>67</v>
+        <v>66.70999999999999</v>
       </c>
       <c r="L119" t="inlineStr">
         <is>
@@ -5394,22 +5014,22 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>67.90000000000001</v>
+        <v>66.37</v>
       </c>
       <c r="C120" t="n">
-        <v>67.90000000000001</v>
+        <v>66.37</v>
       </c>
       <c r="D120" t="n">
-        <v>67.90000000000001</v>
+        <v>66.37</v>
       </c>
       <c r="E120" t="n">
-        <v>67.90000000000001</v>
+        <v>66.37</v>
       </c>
       <c r="F120" t="n">
-        <v>8</v>
+        <v>1572</v>
       </c>
       <c r="G120" t="n">
-        <v>-104197.8640671858</v>
+        <v>-111612.6361732003</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -5419,7 +5039,7 @@
       </c>
       <c r="J120" t="inlineStr"/>
       <c r="K120" t="n">
-        <v>67</v>
+        <v>66.70999999999999</v>
       </c>
       <c r="L120" t="inlineStr">
         <is>
@@ -5436,22 +5056,22 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>67.90000000000001</v>
+        <v>66.38</v>
       </c>
       <c r="C121" t="n">
-        <v>68</v>
+        <v>66.38</v>
       </c>
       <c r="D121" t="n">
-        <v>68</v>
+        <v>66.38</v>
       </c>
       <c r="E121" t="n">
-        <v>67.90000000000001</v>
+        <v>66.38</v>
       </c>
       <c r="F121" t="n">
-        <v>1800</v>
+        <v>251</v>
       </c>
       <c r="G121" t="n">
-        <v>-102397.8640671858</v>
+        <v>-111361.6361732003</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -5461,7 +5081,7 @@
       </c>
       <c r="J121" t="inlineStr"/>
       <c r="K121" t="n">
-        <v>67</v>
+        <v>66.70999999999999</v>
       </c>
       <c r="L121" t="inlineStr">
         <is>
@@ -5478,22 +5098,22 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>67.62</v>
+        <v>66.38</v>
       </c>
       <c r="C122" t="n">
-        <v>67.62</v>
+        <v>66.38</v>
       </c>
       <c r="D122" t="n">
-        <v>67.62</v>
+        <v>66.38</v>
       </c>
       <c r="E122" t="n">
-        <v>67.62</v>
+        <v>66.38</v>
       </c>
       <c r="F122" t="n">
-        <v>8.0467</v>
+        <v>979</v>
       </c>
       <c r="G122" t="n">
-        <v>-102405.9107671858</v>
+        <v>-111361.6361732003</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -5503,7 +5123,7 @@
       </c>
       <c r="J122" t="inlineStr"/>
       <c r="K122" t="n">
-        <v>67</v>
+        <v>66.70999999999999</v>
       </c>
       <c r="L122" t="inlineStr">
         <is>
@@ -5520,22 +5140,22 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>68</v>
+        <v>66.39</v>
       </c>
       <c r="C123" t="n">
-        <v>68.3</v>
+        <v>66.39</v>
       </c>
       <c r="D123" t="n">
-        <v>68.3</v>
+        <v>66.39</v>
       </c>
       <c r="E123" t="n">
-        <v>68</v>
+        <v>66.39</v>
       </c>
       <c r="F123" t="n">
-        <v>4689.3195</v>
+        <v>175.0906</v>
       </c>
       <c r="G123" t="n">
-        <v>-97716.59126718577</v>
+        <v>-111186.5455732003</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -5545,7 +5165,7 @@
       </c>
       <c r="J123" t="inlineStr"/>
       <c r="K123" t="n">
-        <v>67</v>
+        <v>66.70999999999999</v>
       </c>
       <c r="L123" t="inlineStr">
         <is>
@@ -5562,22 +5182,22 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>68.3</v>
+        <v>66.39</v>
       </c>
       <c r="C124" t="n">
-        <v>68.3</v>
+        <v>66.39</v>
       </c>
       <c r="D124" t="n">
-        <v>68.3</v>
+        <v>66.39</v>
       </c>
       <c r="E124" t="n">
-        <v>68.3</v>
+        <v>66.39</v>
       </c>
       <c r="F124" t="n">
-        <v>8943.8734</v>
+        <v>1419.2274</v>
       </c>
       <c r="G124" t="n">
-        <v>-97716.59126718577</v>
+        <v>-111186.5455732003</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -5587,7 +5207,7 @@
       </c>
       <c r="J124" t="inlineStr"/>
       <c r="K124" t="n">
-        <v>67</v>
+        <v>66.70999999999999</v>
       </c>
       <c r="L124" t="inlineStr">
         <is>
@@ -5604,32 +5224,34 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>68.59</v>
+        <v>66.59999999999999</v>
       </c>
       <c r="C125" t="n">
-        <v>68.72</v>
+        <v>66.59999999999999</v>
       </c>
       <c r="D125" t="n">
-        <v>68.72</v>
+        <v>66.59999999999999</v>
       </c>
       <c r="E125" t="n">
-        <v>68.59</v>
+        <v>66.59999999999999</v>
       </c>
       <c r="F125" t="n">
-        <v>7407.113786324537</v>
+        <v>59.352</v>
       </c>
       <c r="G125" t="n">
-        <v>-90309.47748086123</v>
+        <v>-111127.1935732003</v>
       </c>
       <c r="H125" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I125" t="n">
         <v>0</v>
       </c>
-      <c r="J125" t="inlineStr"/>
+      <c r="J125" t="n">
+        <v>66.39</v>
+      </c>
       <c r="K125" t="n">
-        <v>67</v>
+        <v>66.70999999999999</v>
       </c>
       <c r="L125" t="inlineStr">
         <is>
@@ -5646,32 +5268,34 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>68.72</v>
+        <v>66.59999999999999</v>
       </c>
       <c r="C126" t="n">
-        <v>68.77</v>
+        <v>66.41</v>
       </c>
       <c r="D126" t="n">
-        <v>68.77</v>
+        <v>66.59999999999999</v>
       </c>
       <c r="E126" t="n">
-        <v>68.72</v>
+        <v>66.41</v>
       </c>
       <c r="F126" t="n">
-        <v>17021.52081551222</v>
+        <v>13773.3341</v>
       </c>
       <c r="G126" t="n">
-        <v>-73287.956665349</v>
+        <v>-124900.5276732003</v>
       </c>
       <c r="H126" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I126" t="n">
         <v>0</v>
       </c>
-      <c r="J126" t="inlineStr"/>
+      <c r="J126" t="n">
+        <v>66.59999999999999</v>
+      </c>
       <c r="K126" t="n">
-        <v>67</v>
+        <v>66.70999999999999</v>
       </c>
       <c r="L126" t="inlineStr">
         <is>
@@ -5688,32 +5312,34 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>68.79000000000001</v>
+        <v>66.5</v>
       </c>
       <c r="C127" t="n">
-        <v>69</v>
+        <v>66.5</v>
       </c>
       <c r="D127" t="n">
-        <v>69</v>
+        <v>66.5</v>
       </c>
       <c r="E127" t="n">
-        <v>68.79000000000001</v>
+        <v>66.5</v>
       </c>
       <c r="F127" t="n">
-        <v>6392.2178</v>
+        <v>8</v>
       </c>
       <c r="G127" t="n">
-        <v>-66895.73886534901</v>
+        <v>-124892.5276732003</v>
       </c>
       <c r="H127" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I127" t="n">
         <v>0</v>
       </c>
-      <c r="J127" t="inlineStr"/>
+      <c r="J127" t="n">
+        <v>66.41</v>
+      </c>
       <c r="K127" t="n">
-        <v>67</v>
+        <v>66.70999999999999</v>
       </c>
       <c r="L127" t="inlineStr">
         <is>
@@ -5730,32 +5356,34 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>69.25</v>
+        <v>66.5</v>
       </c>
       <c r="C128" t="n">
-        <v>69.27</v>
+        <v>66.41</v>
       </c>
       <c r="D128" t="n">
-        <v>69.27</v>
+        <v>66.5</v>
       </c>
       <c r="E128" t="n">
-        <v>69.25</v>
+        <v>66.41</v>
       </c>
       <c r="F128" t="n">
-        <v>22781.0817</v>
+        <v>132.0308</v>
       </c>
       <c r="G128" t="n">
-        <v>-44114.65716534901</v>
+        <v>-125024.5584732003</v>
       </c>
       <c r="H128" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I128" t="n">
         <v>0</v>
       </c>
-      <c r="J128" t="inlineStr"/>
+      <c r="J128" t="n">
+        <v>66.5</v>
+      </c>
       <c r="K128" t="n">
-        <v>67</v>
+        <v>66.70999999999999</v>
       </c>
       <c r="L128" t="inlineStr">
         <is>
@@ -5772,32 +5400,34 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>69.29000000000001</v>
+        <v>66.5</v>
       </c>
       <c r="C129" t="n">
-        <v>69.27</v>
+        <v>66.41</v>
       </c>
       <c r="D129" t="n">
-        <v>69.29000000000001</v>
+        <v>67</v>
       </c>
       <c r="E129" t="n">
-        <v>69.27</v>
+        <v>66.41</v>
       </c>
       <c r="F129" t="n">
-        <v>3847.362</v>
+        <v>461.4465728358209</v>
       </c>
       <c r="G129" t="n">
-        <v>-44114.65716534901</v>
+        <v>-125024.5584732003</v>
       </c>
       <c r="H129" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I129" t="n">
         <v>0</v>
       </c>
-      <c r="J129" t="inlineStr"/>
+      <c r="J129" t="n">
+        <v>66.41</v>
+      </c>
       <c r="K129" t="n">
-        <v>67</v>
+        <v>66.70999999999999</v>
       </c>
       <c r="L129" t="inlineStr">
         <is>
@@ -5814,22 +5444,22 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>69.38</v>
+        <v>66.42</v>
       </c>
       <c r="C130" t="n">
-        <v>69.38</v>
+        <v>66.42</v>
       </c>
       <c r="D130" t="n">
-        <v>69.38</v>
+        <v>66.42</v>
       </c>
       <c r="E130" t="n">
-        <v>69.38</v>
+        <v>66.42</v>
       </c>
       <c r="F130" t="n">
-        <v>8</v>
+        <v>18.18</v>
       </c>
       <c r="G130" t="n">
-        <v>-44106.65716534901</v>
+        <v>-125006.3784732003</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -5839,7 +5469,7 @@
       </c>
       <c r="J130" t="inlineStr"/>
       <c r="K130" t="n">
-        <v>67</v>
+        <v>66.70999999999999</v>
       </c>
       <c r="L130" t="inlineStr">
         <is>
@@ -5856,32 +5486,34 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>68.11</v>
+        <v>66.98999999999999</v>
       </c>
       <c r="C131" t="n">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D131" t="n">
-        <v>68.11</v>
+        <v>67</v>
       </c>
       <c r="E131" t="n">
-        <v>68</v>
+        <v>66.98999999999999</v>
       </c>
       <c r="F131" t="n">
-        <v>7977.9933</v>
+        <v>20</v>
       </c>
       <c r="G131" t="n">
-        <v>-52084.65046534901</v>
+        <v>-124986.3784732003</v>
       </c>
       <c r="H131" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I131" t="n">
         <v>0</v>
       </c>
-      <c r="J131" t="inlineStr"/>
+      <c r="J131" t="n">
+        <v>66.42</v>
+      </c>
       <c r="K131" t="n">
-        <v>67</v>
+        <v>66.70999999999999</v>
       </c>
       <c r="L131" t="inlineStr">
         <is>
@@ -5898,22 +5530,22 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>69.19</v>
+        <v>66.98999999999999</v>
       </c>
       <c r="C132" t="n">
-        <v>69.19</v>
+        <v>66.98999999999999</v>
       </c>
       <c r="D132" t="n">
-        <v>69.19</v>
+        <v>66.98999999999999</v>
       </c>
       <c r="E132" t="n">
-        <v>69.19</v>
+        <v>66.98999999999999</v>
       </c>
       <c r="F132" t="n">
-        <v>8</v>
+        <v>153.6305</v>
       </c>
       <c r="G132" t="n">
-        <v>-52076.65046534901</v>
+        <v>-125140.0089732003</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -5923,7 +5555,7 @@
       </c>
       <c r="J132" t="inlineStr"/>
       <c r="K132" t="n">
-        <v>67</v>
+        <v>66.70999999999999</v>
       </c>
       <c r="L132" t="inlineStr">
         <is>
@@ -5940,22 +5572,22 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>68.98999999999999</v>
+        <v>66.59999999999999</v>
       </c>
       <c r="C133" t="n">
-        <v>68.98999999999999</v>
+        <v>66.59999999999999</v>
       </c>
       <c r="D133" t="n">
-        <v>68.98999999999999</v>
+        <v>66.59999999999999</v>
       </c>
       <c r="E133" t="n">
-        <v>68.98999999999999</v>
+        <v>66.59999999999999</v>
       </c>
       <c r="F133" t="n">
-        <v>6948.213</v>
+        <v>1750</v>
       </c>
       <c r="G133" t="n">
-        <v>-59024.86346534902</v>
+        <v>-126890.0089732003</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -5965,7 +5597,7 @@
       </c>
       <c r="J133" t="inlineStr"/>
       <c r="K133" t="n">
-        <v>67</v>
+        <v>66.70999999999999</v>
       </c>
       <c r="L133" t="inlineStr">
         <is>
@@ -5982,32 +5614,34 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>68.05</v>
+        <v>66.98999999999999</v>
       </c>
       <c r="C134" t="n">
-        <v>68</v>
+        <v>66.98999999999999</v>
       </c>
       <c r="D134" t="n">
-        <v>68.05</v>
+        <v>66.98999999999999</v>
       </c>
       <c r="E134" t="n">
-        <v>68</v>
+        <v>66.98999999999999</v>
       </c>
       <c r="F134" t="n">
-        <v>8338.2657</v>
+        <v>298.5521</v>
       </c>
       <c r="G134" t="n">
-        <v>-67363.12916534902</v>
+        <v>-126591.4568732003</v>
       </c>
       <c r="H134" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I134" t="n">
         <v>0</v>
       </c>
-      <c r="J134" t="inlineStr"/>
+      <c r="J134" t="n">
+        <v>66.59999999999999</v>
+      </c>
       <c r="K134" t="n">
-        <v>67</v>
+        <v>66.70999999999999</v>
       </c>
       <c r="L134" t="inlineStr">
         <is>
@@ -6024,22 +5658,22 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>68.98999999999999</v>
+        <v>66.98999999999999</v>
       </c>
       <c r="C135" t="n">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D135" t="n">
-        <v>68.98999999999999</v>
+        <v>67</v>
       </c>
       <c r="E135" t="n">
-        <v>68</v>
+        <v>66.98999999999999</v>
       </c>
       <c r="F135" t="n">
-        <v>1045.7942</v>
+        <v>504.0863</v>
       </c>
       <c r="G135" t="n">
-        <v>-67363.12916534902</v>
+        <v>-126087.3705732003</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -6049,7 +5683,7 @@
       </c>
       <c r="J135" t="inlineStr"/>
       <c r="K135" t="n">
-        <v>67</v>
+        <v>66.70999999999999</v>
       </c>
       <c r="L135" t="inlineStr">
         <is>
@@ -6066,22 +5700,22 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>68.59</v>
+        <v>66.59999999999999</v>
       </c>
       <c r="C136" t="n">
-        <v>68.59</v>
+        <v>66.59999999999999</v>
       </c>
       <c r="D136" t="n">
-        <v>68.59</v>
+        <v>66.59999999999999</v>
       </c>
       <c r="E136" t="n">
-        <v>68.59</v>
+        <v>66.59999999999999</v>
       </c>
       <c r="F136" t="n">
-        <v>8087.5792</v>
+        <v>235.4609</v>
       </c>
       <c r="G136" t="n">
-        <v>-59275.54996534902</v>
+        <v>-126322.8314732003</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -6091,7 +5725,7 @@
       </c>
       <c r="J136" t="inlineStr"/>
       <c r="K136" t="n">
-        <v>67</v>
+        <v>66.70999999999999</v>
       </c>
       <c r="L136" t="inlineStr">
         <is>
@@ -6108,22 +5742,22 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>69</v>
+        <v>66.59999999999999</v>
       </c>
       <c r="C137" t="n">
-        <v>69</v>
+        <v>66.5</v>
       </c>
       <c r="D137" t="n">
-        <v>69</v>
+        <v>66.59999999999999</v>
       </c>
       <c r="E137" t="n">
-        <v>69</v>
+        <v>66.5</v>
       </c>
       <c r="F137" t="n">
-        <v>8</v>
+        <v>2082.1879</v>
       </c>
       <c r="G137" t="n">
-        <v>-59267.54996534902</v>
+        <v>-128405.0193732003</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -6133,7 +5767,7 @@
       </c>
       <c r="J137" t="inlineStr"/>
       <c r="K137" t="n">
-        <v>67</v>
+        <v>66.70999999999999</v>
       </c>
       <c r="L137" t="inlineStr">
         <is>
@@ -6150,22 +5784,22 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>68.02</v>
+        <v>67</v>
       </c>
       <c r="C138" t="n">
-        <v>67.53</v>
+        <v>67.5</v>
       </c>
       <c r="D138" t="n">
-        <v>68.02</v>
+        <v>67.5</v>
       </c>
       <c r="E138" t="n">
-        <v>67.53</v>
+        <v>67</v>
       </c>
       <c r="F138" t="n">
-        <v>13501.4325</v>
+        <v>10826.22562716418</v>
       </c>
       <c r="G138" t="n">
-        <v>-72768.98246534902</v>
+        <v>-117578.7937460361</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -6175,7 +5809,7 @@
       </c>
       <c r="J138" t="inlineStr"/>
       <c r="K138" t="n">
-        <v>67</v>
+        <v>66.70999999999999</v>
       </c>
       <c r="L138" t="inlineStr">
         <is>
@@ -6192,40 +5826,40 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>68.79000000000001</v>
+        <v>67.59</v>
       </c>
       <c r="C139" t="n">
-        <v>69.29000000000001</v>
+        <v>67.77</v>
       </c>
       <c r="D139" t="n">
-        <v>69.29000000000001</v>
+        <v>67.77</v>
       </c>
       <c r="E139" t="n">
-        <v>68.79000000000001</v>
+        <v>67.59</v>
       </c>
       <c r="F139" t="n">
-        <v>17665.47218034348</v>
+        <v>970.7875</v>
       </c>
       <c r="G139" t="n">
-        <v>-55103.51028500554</v>
+        <v>-116608.0062460361</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
       </c>
       <c r="I139" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J139" t="inlineStr"/>
       <c r="K139" t="n">
-        <v>67</v>
+        <v>66.70999999999999</v>
       </c>
       <c r="L139" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M139" t="n">
-        <v>1.029179104477612</v>
+        <v>1</v>
       </c>
       <c r="N139" t="inlineStr"/>
     </row>
@@ -6234,32 +5868,38 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>69.34</v>
+        <v>67.8</v>
       </c>
       <c r="C140" t="n">
-        <v>69.37</v>
+        <v>67.90000000000001</v>
       </c>
       <c r="D140" t="n">
-        <v>69.37</v>
+        <v>67.90000000000001</v>
       </c>
       <c r="E140" t="n">
-        <v>69.34</v>
+        <v>67.8</v>
       </c>
       <c r="F140" t="n">
-        <v>175.0071963961367</v>
+        <v>34049.65948683582</v>
       </c>
       <c r="G140" t="n">
-        <v>-54928.5030886094</v>
+        <v>-82558.3467592003</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
       </c>
       <c r="I140" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
-      <c r="L140" t="inlineStr"/>
+      <c r="K140" t="n">
+        <v>66.70999999999999</v>
+      </c>
+      <c r="L140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M140" t="n">
         <v>1</v>
       </c>
@@ -6270,32 +5910,38 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>69.36</v>
+        <v>68.59999999999999</v>
       </c>
       <c r="C141" t="n">
-        <v>69.36</v>
+        <v>68.59999999999999</v>
       </c>
       <c r="D141" t="n">
-        <v>69.38</v>
+        <v>68.59999999999999</v>
       </c>
       <c r="E141" t="n">
-        <v>69.36</v>
+        <v>68.59999999999999</v>
       </c>
       <c r="F141" t="n">
-        <v>49</v>
+        <v>271.0883</v>
       </c>
       <c r="G141" t="n">
-        <v>-54977.5030886094</v>
+        <v>-82287.2584592003</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
       </c>
       <c r="I141" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
-      <c r="L141" t="inlineStr"/>
+      <c r="K141" t="n">
+        <v>66.70999999999999</v>
+      </c>
+      <c r="L141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M141" t="n">
         <v>1</v>
       </c>
@@ -6306,32 +5952,38 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>69.36</v>
+        <v>68.66</v>
       </c>
       <c r="C142" t="n">
-        <v>69.36</v>
+        <v>68.79000000000001</v>
       </c>
       <c r="D142" t="n">
-        <v>69.36</v>
+        <v>68.79000000000001</v>
       </c>
       <c r="E142" t="n">
-        <v>69.36</v>
+        <v>68.66</v>
       </c>
       <c r="F142" t="n">
-        <v>213.2144</v>
+        <v>7095.3232</v>
       </c>
       <c r="G142" t="n">
-        <v>-54977.5030886094</v>
+        <v>-75191.9352592003</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
       </c>
       <c r="I142" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
-      <c r="L142" t="inlineStr"/>
+      <c r="K142" t="n">
+        <v>66.70999999999999</v>
+      </c>
+      <c r="L142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M142" t="n">
         <v>1</v>
       </c>
@@ -6342,32 +5994,38 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>69.36</v>
+        <v>69</v>
       </c>
       <c r="C143" t="n">
-        <v>68.12</v>
+        <v>69</v>
       </c>
       <c r="D143" t="n">
-        <v>69.36</v>
+        <v>69</v>
       </c>
       <c r="E143" t="n">
-        <v>68.12</v>
+        <v>69</v>
       </c>
       <c r="F143" t="n">
-        <v>5154.4399</v>
+        <v>7666.280684173913</v>
       </c>
       <c r="G143" t="n">
-        <v>-60131.9429886094</v>
+        <v>-67525.65457502639</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
       </c>
       <c r="I143" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
-      <c r="L143" t="inlineStr"/>
+      <c r="K143" t="n">
+        <v>66.70999999999999</v>
+      </c>
+      <c r="L143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M143" t="n">
         <v>1</v>
       </c>
@@ -6378,32 +6036,38 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>68.41</v>
+        <v>68.45</v>
       </c>
       <c r="C144" t="n">
-        <v>68.41</v>
+        <v>66.90000000000001</v>
       </c>
       <c r="D144" t="n">
-        <v>68.41</v>
+        <v>68.45</v>
       </c>
       <c r="E144" t="n">
-        <v>68.41</v>
+        <v>66.90000000000001</v>
       </c>
       <c r="F144" t="n">
-        <v>853.4956</v>
+        <v>4067.6485</v>
       </c>
       <c r="G144" t="n">
-        <v>-59278.4473886094</v>
+        <v>-71593.30307502639</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
       </c>
       <c r="I144" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
-      <c r="L144" t="inlineStr"/>
+      <c r="K144" t="n">
+        <v>66.70999999999999</v>
+      </c>
+      <c r="L144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M144" t="n">
         <v>1</v>
       </c>
@@ -6414,32 +6078,38 @@
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>69.26000000000001</v>
+        <v>67.61</v>
       </c>
       <c r="C145" t="n">
-        <v>69.26000000000001</v>
+        <v>67.61</v>
       </c>
       <c r="D145" t="n">
-        <v>69.26000000000001</v>
+        <v>67.61</v>
       </c>
       <c r="E145" t="n">
-        <v>69.26000000000001</v>
+        <v>67.61</v>
       </c>
       <c r="F145" t="n">
-        <v>8</v>
+        <v>13.077</v>
       </c>
       <c r="G145" t="n">
-        <v>-59270.4473886094</v>
+        <v>-71580.22607502638</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
       </c>
       <c r="I145" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
-      <c r="L145" t="inlineStr"/>
+      <c r="K145" t="n">
+        <v>66.70999999999999</v>
+      </c>
+      <c r="L145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M145" t="n">
         <v>1</v>
       </c>
@@ -6450,32 +6120,38 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>68.42</v>
+        <v>67.64</v>
       </c>
       <c r="C146" t="n">
-        <v>68</v>
+        <v>67.64</v>
       </c>
       <c r="D146" t="n">
-        <v>68.42</v>
+        <v>67.64</v>
       </c>
       <c r="E146" t="n">
-        <v>68</v>
+        <v>67.64</v>
       </c>
       <c r="F146" t="n">
-        <v>17050.0608</v>
+        <v>10011</v>
       </c>
       <c r="G146" t="n">
-        <v>-76320.5081886094</v>
+        <v>-61569.22607502638</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
       </c>
       <c r="I146" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
-      <c r="L146" t="inlineStr"/>
+      <c r="K146" t="n">
+        <v>66.70999999999999</v>
+      </c>
+      <c r="L146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M146" t="n">
         <v>1</v>
       </c>
@@ -6486,32 +6162,38 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>68.5</v>
+        <v>67.88</v>
       </c>
       <c r="C147" t="n">
-        <v>69.52</v>
+        <v>67.88</v>
       </c>
       <c r="D147" t="n">
-        <v>69.56</v>
+        <v>67.88</v>
       </c>
       <c r="E147" t="n">
-        <v>68.5</v>
+        <v>67.88</v>
       </c>
       <c r="F147" t="n">
-        <v>14001.58538401921</v>
+        <v>149.4768</v>
       </c>
       <c r="G147" t="n">
-        <v>-62318.92280459018</v>
+        <v>-61419.74927502638</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
       </c>
       <c r="I147" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
-      <c r="L147" t="inlineStr"/>
+      <c r="K147" t="n">
+        <v>66.70999999999999</v>
+      </c>
+      <c r="L147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M147" t="n">
         <v>1</v>
       </c>
@@ -6522,22 +6204,22 @@
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>69.51000000000001</v>
+        <v>68.79000000000001</v>
       </c>
       <c r="C148" t="n">
-        <v>69.51000000000001</v>
+        <v>68.79000000000001</v>
       </c>
       <c r="D148" t="n">
-        <v>69.51000000000001</v>
+        <v>68.79000000000001</v>
       </c>
       <c r="E148" t="n">
-        <v>69.51000000000001</v>
+        <v>68.79000000000001</v>
       </c>
       <c r="F148" t="n">
-        <v>18.42900302114804</v>
+        <v>147.8852</v>
       </c>
       <c r="G148" t="n">
-        <v>-62337.35180761133</v>
+        <v>-61271.86407502639</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -6546,8 +6228,14 @@
         <v>0</v>
       </c>
       <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
-      <c r="L148" t="inlineStr"/>
+      <c r="K148" t="n">
+        <v>66.70999999999999</v>
+      </c>
+      <c r="L148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M148" t="n">
         <v>1</v>
       </c>
@@ -6558,32 +6246,38 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>68.41</v>
+        <v>68.79000000000001</v>
       </c>
       <c r="C149" t="n">
-        <v>68</v>
+        <v>68.79000000000001</v>
       </c>
       <c r="D149" t="n">
-        <v>68.41</v>
+        <v>68.79000000000001</v>
       </c>
       <c r="E149" t="n">
-        <v>68</v>
+        <v>68.79000000000001</v>
       </c>
       <c r="F149" t="n">
-        <v>5293.1176</v>
+        <v>353</v>
       </c>
       <c r="G149" t="n">
-        <v>-67630.46940761134</v>
+        <v>-61271.86407502639</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
       </c>
       <c r="I149" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
-      <c r="L149" t="inlineStr"/>
+      <c r="K149" t="n">
+        <v>66.70999999999999</v>
+      </c>
+      <c r="L149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M149" t="n">
         <v>1</v>
       </c>
@@ -6594,22 +6288,22 @@
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>69.25</v>
+        <v>68.92</v>
       </c>
       <c r="C150" t="n">
-        <v>69.25</v>
+        <v>68.79000000000001</v>
       </c>
       <c r="D150" t="n">
-        <v>69.25</v>
+        <v>68.92</v>
       </c>
       <c r="E150" t="n">
-        <v>69.25</v>
+        <v>68.79000000000001</v>
       </c>
       <c r="F150" t="n">
-        <v>8</v>
+        <v>47.7193</v>
       </c>
       <c r="G150" t="n">
-        <v>-67622.46940761134</v>
+        <v>-61271.86407502639</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -6618,8 +6312,14 @@
         <v>0</v>
       </c>
       <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
-      <c r="L150" t="inlineStr"/>
+      <c r="K150" t="n">
+        <v>66.70999999999999</v>
+      </c>
+      <c r="L150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M150" t="n">
         <v>1</v>
       </c>
@@ -6630,22 +6330,22 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>68.2</v>
+        <v>68.09</v>
       </c>
       <c r="C151" t="n">
-        <v>68.2</v>
+        <v>68.09</v>
       </c>
       <c r="D151" t="n">
-        <v>68.2</v>
+        <v>68.09</v>
       </c>
       <c r="E151" t="n">
-        <v>68.2</v>
+        <v>68.09</v>
       </c>
       <c r="F151" t="n">
-        <v>296.069</v>
+        <v>279</v>
       </c>
       <c r="G151" t="n">
-        <v>-67918.53840761134</v>
+        <v>-61550.86407502639</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -6654,8 +6354,14 @@
         <v>0</v>
       </c>
       <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
-      <c r="L151" t="inlineStr"/>
+      <c r="K151" t="n">
+        <v>66.70999999999999</v>
+      </c>
+      <c r="L151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M151" t="n">
         <v>1</v>
       </c>
@@ -6666,32 +6372,38 @@
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>68.2</v>
+        <v>68.09</v>
       </c>
       <c r="C152" t="n">
-        <v>68.2</v>
+        <v>67.03</v>
       </c>
       <c r="D152" t="n">
-        <v>68.2</v>
+        <v>68.09</v>
       </c>
       <c r="E152" t="n">
-        <v>68.2</v>
+        <v>67.03</v>
       </c>
       <c r="F152" t="n">
-        <v>3703.931</v>
+        <v>10745.0145</v>
       </c>
       <c r="G152" t="n">
-        <v>-67918.53840761134</v>
+        <v>-72295.87857502639</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
       </c>
       <c r="I152" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
-      <c r="L152" t="inlineStr"/>
+      <c r="K152" t="n">
+        <v>66.70999999999999</v>
+      </c>
+      <c r="L152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M152" t="n">
         <v>1</v>
       </c>
@@ -6702,22 +6414,22 @@
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>68.90000000000001</v>
+        <v>68.73999999999999</v>
       </c>
       <c r="C153" t="n">
-        <v>68.90000000000001</v>
+        <v>68.73999999999999</v>
       </c>
       <c r="D153" t="n">
-        <v>68.90000000000001</v>
+        <v>68.73999999999999</v>
       </c>
       <c r="E153" t="n">
-        <v>68.90000000000001</v>
+        <v>68.73999999999999</v>
       </c>
       <c r="F153" t="n">
-        <v>296.069</v>
+        <v>8</v>
       </c>
       <c r="G153" t="n">
-        <v>-67622.46940761134</v>
+        <v>-72287.87857502639</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -6726,8 +6438,14 @@
         <v>0</v>
       </c>
       <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
-      <c r="L153" t="inlineStr"/>
+      <c r="K153" t="n">
+        <v>66.70999999999999</v>
+      </c>
+      <c r="L153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M153" t="n">
         <v>1</v>
       </c>
@@ -6738,32 +6456,38 @@
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>69.25</v>
+        <v>67.98999999999999</v>
       </c>
       <c r="C154" t="n">
-        <v>69.3</v>
+        <v>67.98999999999999</v>
       </c>
       <c r="D154" t="n">
-        <v>69.3</v>
+        <v>67.98999999999999</v>
       </c>
       <c r="E154" t="n">
-        <v>69.25</v>
+        <v>67.98999999999999</v>
       </c>
       <c r="F154" t="n">
-        <v>12817.4487</v>
+        <v>13253.198</v>
       </c>
       <c r="G154" t="n">
-        <v>-54805.02070761134</v>
+        <v>-85541.0765750264</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
       </c>
       <c r="I154" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
-      <c r="L154" t="inlineStr"/>
+      <c r="K154" t="n">
+        <v>66.70999999999999</v>
+      </c>
+      <c r="L154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M154" t="n">
         <v>1</v>
       </c>
@@ -6774,32 +6498,38 @@
         <v>153</v>
       </c>
       <c r="B155" t="n">
-        <v>69.43000000000001</v>
+        <v>67.98999999999999</v>
       </c>
       <c r="C155" t="n">
-        <v>69.64</v>
+        <v>67.98999999999999</v>
       </c>
       <c r="D155" t="n">
-        <v>69.64</v>
+        <v>67.98999999999999</v>
       </c>
       <c r="E155" t="n">
-        <v>69.43000000000001</v>
+        <v>67.98999999999999</v>
       </c>
       <c r="F155" t="n">
-        <v>14787.68565038815</v>
+        <v>1276</v>
       </c>
       <c r="G155" t="n">
-        <v>-40017.33505722319</v>
+        <v>-85541.0765750264</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
       </c>
       <c r="I155" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
-      <c r="L155" t="inlineStr"/>
+      <c r="K155" t="n">
+        <v>66.70999999999999</v>
+      </c>
+      <c r="L155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M155" t="n">
         <v>1</v>
       </c>
@@ -6810,32 +6540,38 @@
         <v>154</v>
       </c>
       <c r="B156" t="n">
-        <v>69.69</v>
+        <v>67.98999999999999</v>
       </c>
       <c r="C156" t="n">
-        <v>69.8</v>
+        <v>68.54000000000001</v>
       </c>
       <c r="D156" t="n">
-        <v>69.8</v>
+        <v>68.54000000000001</v>
       </c>
       <c r="E156" t="n">
-        <v>69.69</v>
+        <v>67.98999999999999</v>
       </c>
       <c r="F156" t="n">
-        <v>32904.3365</v>
+        <v>1142.1549</v>
       </c>
       <c r="G156" t="n">
-        <v>-7112.998557223189</v>
+        <v>-84398.9216750264</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
       </c>
       <c r="I156" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
-      <c r="L156" t="inlineStr"/>
+      <c r="K156" t="n">
+        <v>66.70999999999999</v>
+      </c>
+      <c r="L156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M156" t="n">
         <v>1</v>
       </c>
@@ -6846,32 +6582,38 @@
         <v>155</v>
       </c>
       <c r="B157" t="n">
-        <v>69.83</v>
+        <v>67.7</v>
       </c>
       <c r="C157" t="n">
-        <v>69.98</v>
+        <v>67.70999999999999</v>
       </c>
       <c r="D157" t="n">
-        <v>69.98</v>
+        <v>67.8</v>
       </c>
       <c r="E157" t="n">
-        <v>69.83</v>
+        <v>67.7</v>
       </c>
       <c r="F157" t="n">
-        <v>4708.9945</v>
+        <v>1976.9936</v>
       </c>
       <c r="G157" t="n">
-        <v>-2404.004057223189</v>
+        <v>-86375.9152750264</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
       </c>
       <c r="I157" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
-      <c r="L157" t="inlineStr"/>
+      <c r="K157" t="n">
+        <v>66.70999999999999</v>
+      </c>
+      <c r="L157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M157" t="n">
         <v>1</v>
       </c>
@@ -6882,32 +6624,38 @@
         <v>156</v>
       </c>
       <c r="B158" t="n">
-        <v>69.98</v>
+        <v>67.7</v>
       </c>
       <c r="C158" t="n">
-        <v>68</v>
+        <v>67.34999999999999</v>
       </c>
       <c r="D158" t="n">
-        <v>70</v>
+        <v>67.7</v>
       </c>
       <c r="E158" t="n">
-        <v>68</v>
+        <v>67.34999999999999</v>
       </c>
       <c r="F158" t="n">
-        <v>34748.1512</v>
+        <v>721.9503999999999</v>
       </c>
       <c r="G158" t="n">
-        <v>-37152.15525722319</v>
+        <v>-87097.86567502641</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
       </c>
       <c r="I158" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
-      <c r="L158" t="inlineStr"/>
+      <c r="K158" t="n">
+        <v>66.70999999999999</v>
+      </c>
+      <c r="L158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M158" t="n">
         <v>1</v>
       </c>
@@ -6918,32 +6666,38 @@
         <v>157</v>
       </c>
       <c r="B159" t="n">
-        <v>68.8</v>
+        <v>68.37</v>
       </c>
       <c r="C159" t="n">
-        <v>69.83</v>
+        <v>68.37</v>
       </c>
       <c r="D159" t="n">
-        <v>69.83</v>
+        <v>68.37</v>
       </c>
       <c r="E159" t="n">
-        <v>68.8</v>
+        <v>68.37</v>
       </c>
       <c r="F159" t="n">
-        <v>110</v>
+        <v>50</v>
       </c>
       <c r="G159" t="n">
-        <v>-37042.15525722319</v>
+        <v>-87047.86567502641</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
       </c>
       <c r="I159" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
-      <c r="L159" t="inlineStr"/>
+      <c r="K159" t="n">
+        <v>66.70999999999999</v>
+      </c>
+      <c r="L159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M159" t="n">
         <v>1</v>
       </c>
@@ -6954,36 +6708,2676 @@
         <v>158</v>
       </c>
       <c r="B160" t="n">
+        <v>67.53</v>
+      </c>
+      <c r="C160" t="n">
+        <v>67.53</v>
+      </c>
+      <c r="D160" t="n">
+        <v>67.53</v>
+      </c>
+      <c r="E160" t="n">
+        <v>67.53</v>
+      </c>
+      <c r="F160" t="n">
+        <v>15</v>
+      </c>
+      <c r="G160" t="n">
+        <v>-87062.86567502641</v>
+      </c>
+      <c r="H160" t="n">
+        <v>0</v>
+      </c>
+      <c r="I160" t="n">
+        <v>0</v>
+      </c>
+      <c r="J160" t="inlineStr"/>
+      <c r="K160" t="n">
+        <v>66.70999999999999</v>
+      </c>
+      <c r="L160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M160" t="n">
+        <v>1</v>
+      </c>
+      <c r="N160" t="inlineStr"/>
+    </row>
+    <row r="161">
+      <c r="A161" s="1" t="n">
+        <v>159</v>
+      </c>
+      <c r="B161" t="n">
+        <v>67.54000000000001</v>
+      </c>
+      <c r="C161" t="n">
+        <v>67.52</v>
+      </c>
+      <c r="D161" t="n">
+        <v>67.54000000000001</v>
+      </c>
+      <c r="E161" t="n">
+        <v>67.52</v>
+      </c>
+      <c r="F161" t="n">
+        <v>12101.4243</v>
+      </c>
+      <c r="G161" t="n">
+        <v>-99164.2899750264</v>
+      </c>
+      <c r="H161" t="n">
+        <v>0</v>
+      </c>
+      <c r="I161" t="n">
+        <v>0</v>
+      </c>
+      <c r="J161" t="inlineStr"/>
+      <c r="K161" t="n">
+        <v>66.70999999999999</v>
+      </c>
+      <c r="L161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M161" t="n">
+        <v>1</v>
+      </c>
+      <c r="N161" t="inlineStr"/>
+    </row>
+    <row r="162">
+      <c r="A162" s="1" t="n">
+        <v>160</v>
+      </c>
+      <c r="B162" t="n">
+        <v>67.51000000000001</v>
+      </c>
+      <c r="C162" t="n">
+        <v>67.51000000000001</v>
+      </c>
+      <c r="D162" t="n">
+        <v>67.51000000000001</v>
+      </c>
+      <c r="E162" t="n">
+        <v>67.51000000000001</v>
+      </c>
+      <c r="F162" t="n">
+        <v>1864.6971</v>
+      </c>
+      <c r="G162" t="n">
+        <v>-101028.9870750264</v>
+      </c>
+      <c r="H162" t="n">
+        <v>0</v>
+      </c>
+      <c r="I162" t="n">
+        <v>0</v>
+      </c>
+      <c r="J162" t="inlineStr"/>
+      <c r="K162" t="n">
+        <v>66.70999999999999</v>
+      </c>
+      <c r="L162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M162" t="n">
+        <v>1</v>
+      </c>
+      <c r="N162" t="inlineStr"/>
+    </row>
+    <row r="163">
+      <c r="A163" s="1" t="n">
+        <v>161</v>
+      </c>
+      <c r="B163" t="n">
+        <v>67.59999999999999</v>
+      </c>
+      <c r="C163" t="n">
+        <v>67.54000000000001</v>
+      </c>
+      <c r="D163" t="n">
+        <v>67.59999999999999</v>
+      </c>
+      <c r="E163" t="n">
+        <v>67.54000000000001</v>
+      </c>
+      <c r="F163" t="n">
+        <v>1577.8946</v>
+      </c>
+      <c r="G163" t="n">
+        <v>-99451.09247502641</v>
+      </c>
+      <c r="H163" t="n">
+        <v>0</v>
+      </c>
+      <c r="I163" t="n">
+        <v>0</v>
+      </c>
+      <c r="J163" t="inlineStr"/>
+      <c r="K163" t="n">
+        <v>66.70999999999999</v>
+      </c>
+      <c r="L163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M163" t="n">
+        <v>1</v>
+      </c>
+      <c r="N163" t="inlineStr"/>
+    </row>
+    <row r="164">
+      <c r="A164" s="1" t="n">
+        <v>162</v>
+      </c>
+      <c r="B164" t="n">
+        <v>67.51000000000001</v>
+      </c>
+      <c r="C164" t="n">
+        <v>67.51000000000001</v>
+      </c>
+      <c r="D164" t="n">
+        <v>67.51000000000001</v>
+      </c>
+      <c r="E164" t="n">
+        <v>67.51000000000001</v>
+      </c>
+      <c r="F164" t="n">
+        <v>1071.1933</v>
+      </c>
+      <c r="G164" t="n">
+        <v>-100522.2857750264</v>
+      </c>
+      <c r="H164" t="n">
+        <v>0</v>
+      </c>
+      <c r="I164" t="n">
+        <v>0</v>
+      </c>
+      <c r="J164" t="inlineStr"/>
+      <c r="K164" t="n">
+        <v>66.70999999999999</v>
+      </c>
+      <c r="L164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M164" t="n">
+        <v>1</v>
+      </c>
+      <c r="N164" t="inlineStr"/>
+    </row>
+    <row r="165">
+      <c r="A165" s="1" t="n">
+        <v>163</v>
+      </c>
+      <c r="B165" t="n">
+        <v>68.2</v>
+      </c>
+      <c r="C165" t="n">
+        <v>68.2</v>
+      </c>
+      <c r="D165" t="n">
+        <v>68.2</v>
+      </c>
+      <c r="E165" t="n">
+        <v>68.2</v>
+      </c>
+      <c r="F165" t="n">
+        <v>10</v>
+      </c>
+      <c r="G165" t="n">
+        <v>-100512.2857750264</v>
+      </c>
+      <c r="H165" t="n">
+        <v>0</v>
+      </c>
+      <c r="I165" t="n">
+        <v>0</v>
+      </c>
+      <c r="J165" t="inlineStr"/>
+      <c r="K165" t="n">
+        <v>66.70999999999999</v>
+      </c>
+      <c r="L165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M165" t="n">
+        <v>1</v>
+      </c>
+      <c r="N165" t="inlineStr"/>
+    </row>
+    <row r="166">
+      <c r="A166" s="1" t="n">
+        <v>164</v>
+      </c>
+      <c r="B166" t="n">
+        <v>68.2</v>
+      </c>
+      <c r="C166" t="n">
+        <v>68.2</v>
+      </c>
+      <c r="D166" t="n">
+        <v>68.2</v>
+      </c>
+      <c r="E166" t="n">
+        <v>68.2</v>
+      </c>
+      <c r="F166" t="n">
+        <v>107.4327</v>
+      </c>
+      <c r="G166" t="n">
+        <v>-100512.2857750264</v>
+      </c>
+      <c r="H166" t="n">
+        <v>0</v>
+      </c>
+      <c r="I166" t="n">
+        <v>0</v>
+      </c>
+      <c r="J166" t="inlineStr"/>
+      <c r="K166" t="n">
+        <v>66.70999999999999</v>
+      </c>
+      <c r="L166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M166" t="n">
+        <v>1</v>
+      </c>
+      <c r="N166" t="inlineStr"/>
+    </row>
+    <row r="167">
+      <c r="A167" s="1" t="n">
+        <v>165</v>
+      </c>
+      <c r="B167" t="n">
+        <v>67.51000000000001</v>
+      </c>
+      <c r="C167" t="n">
+        <v>67.51000000000001</v>
+      </c>
+      <c r="D167" t="n">
+        <v>67.51000000000001</v>
+      </c>
+      <c r="E167" t="n">
+        <v>67.51000000000001</v>
+      </c>
+      <c r="F167" t="n">
+        <v>200</v>
+      </c>
+      <c r="G167" t="n">
+        <v>-100712.2857750264</v>
+      </c>
+      <c r="H167" t="n">
+        <v>0</v>
+      </c>
+      <c r="I167" t="n">
+        <v>0</v>
+      </c>
+      <c r="J167" t="inlineStr"/>
+      <c r="K167" t="n">
+        <v>66.70999999999999</v>
+      </c>
+      <c r="L167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M167" t="n">
+        <v>1</v>
+      </c>
+      <c r="N167" t="inlineStr"/>
+    </row>
+    <row r="168">
+      <c r="A168" s="1" t="n">
+        <v>166</v>
+      </c>
+      <c r="B168" t="n">
+        <v>68</v>
+      </c>
+      <c r="C168" t="n">
+        <v>68.2</v>
+      </c>
+      <c r="D168" t="n">
+        <v>68.2</v>
+      </c>
+      <c r="E168" t="n">
+        <v>68</v>
+      </c>
+      <c r="F168" t="n">
+        <v>151.9994096774194</v>
+      </c>
+      <c r="G168" t="n">
+        <v>-100560.286365349</v>
+      </c>
+      <c r="H168" t="n">
+        <v>0</v>
+      </c>
+      <c r="I168" t="n">
+        <v>0</v>
+      </c>
+      <c r="J168" t="inlineStr"/>
+      <c r="K168" t="n">
+        <v>66.70999999999999</v>
+      </c>
+      <c r="L168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M168" t="n">
+        <v>1</v>
+      </c>
+      <c r="N168" t="inlineStr"/>
+    </row>
+    <row r="169">
+      <c r="A169" s="1" t="n">
+        <v>167</v>
+      </c>
+      <c r="B169" t="n">
+        <v>67.52</v>
+      </c>
+      <c r="C169" t="n">
+        <v>67.52</v>
+      </c>
+      <c r="D169" t="n">
+        <v>67.52</v>
+      </c>
+      <c r="E169" t="n">
+        <v>67.52</v>
+      </c>
+      <c r="F169" t="n">
+        <v>1850.9361</v>
+      </c>
+      <c r="G169" t="n">
+        <v>-102411.222465349</v>
+      </c>
+      <c r="H169" t="n">
+        <v>0</v>
+      </c>
+      <c r="I169" t="n">
+        <v>0</v>
+      </c>
+      <c r="J169" t="inlineStr"/>
+      <c r="K169" t="n">
+        <v>66.70999999999999</v>
+      </c>
+      <c r="L169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M169" t="n">
+        <v>1</v>
+      </c>
+      <c r="N169" t="inlineStr"/>
+    </row>
+    <row r="170">
+      <c r="A170" s="1" t="n">
+        <v>168</v>
+      </c>
+      <c r="B170" t="n">
+        <v>68</v>
+      </c>
+      <c r="C170" t="n">
+        <v>68.2</v>
+      </c>
+      <c r="D170" t="n">
+        <v>68.2</v>
+      </c>
+      <c r="E170" t="n">
+        <v>68</v>
+      </c>
+      <c r="F170" t="n">
+        <v>18372.8828</v>
+      </c>
+      <c r="G170" t="n">
+        <v>-84038.33966534899</v>
+      </c>
+      <c r="H170" t="n">
+        <v>0</v>
+      </c>
+      <c r="I170" t="n">
+        <v>0</v>
+      </c>
+      <c r="J170" t="inlineStr"/>
+      <c r="K170" t="n">
+        <v>66.70999999999999</v>
+      </c>
+      <c r="L170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M170" t="n">
+        <v>1</v>
+      </c>
+      <c r="N170" t="inlineStr"/>
+    </row>
+    <row r="171">
+      <c r="A171" s="1" t="n">
+        <v>169</v>
+      </c>
+      <c r="B171" t="n">
+        <v>68.28</v>
+      </c>
+      <c r="C171" t="n">
+        <v>68.72</v>
+      </c>
+      <c r="D171" t="n">
+        <v>68.72</v>
+      </c>
+      <c r="E171" t="n">
+        <v>68.28</v>
+      </c>
+      <c r="F171" t="n">
+        <v>570</v>
+      </c>
+      <c r="G171" t="n">
+        <v>-83468.33966534899</v>
+      </c>
+      <c r="H171" t="n">
+        <v>0</v>
+      </c>
+      <c r="I171" t="n">
+        <v>0</v>
+      </c>
+      <c r="J171" t="inlineStr"/>
+      <c r="K171" t="n">
+        <v>66.70999999999999</v>
+      </c>
+      <c r="L171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M171" t="n">
+        <v>1</v>
+      </c>
+      <c r="N171" t="inlineStr"/>
+    </row>
+    <row r="172">
+      <c r="A172" s="1" t="n">
+        <v>170</v>
+      </c>
+      <c r="B172" t="n">
+        <v>68.70999999999999</v>
+      </c>
+      <c r="C172" t="n">
+        <v>68.72</v>
+      </c>
+      <c r="D172" t="n">
+        <v>68.72</v>
+      </c>
+      <c r="E172" t="n">
+        <v>68.70999999999999</v>
+      </c>
+      <c r="F172" t="n">
+        <v>284.4061</v>
+      </c>
+      <c r="G172" t="n">
+        <v>-83468.33966534899</v>
+      </c>
+      <c r="H172" t="n">
+        <v>0</v>
+      </c>
+      <c r="I172" t="n">
+        <v>0</v>
+      </c>
+      <c r="J172" t="inlineStr"/>
+      <c r="K172" t="n">
+        <v>66.70999999999999</v>
+      </c>
+      <c r="L172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M172" t="n">
+        <v>1</v>
+      </c>
+      <c r="N172" t="inlineStr"/>
+    </row>
+    <row r="173">
+      <c r="A173" s="1" t="n">
+        <v>171</v>
+      </c>
+      <c r="B173" t="n">
+        <v>68.70999999999999</v>
+      </c>
+      <c r="C173" t="n">
+        <v>68.72</v>
+      </c>
+      <c r="D173" t="n">
+        <v>68.72</v>
+      </c>
+      <c r="E173" t="n">
+        <v>68.70999999999999</v>
+      </c>
+      <c r="F173" t="n">
+        <v>222.6608</v>
+      </c>
+      <c r="G173" t="n">
+        <v>-83468.33966534899</v>
+      </c>
+      <c r="H173" t="n">
+        <v>0</v>
+      </c>
+      <c r="I173" t="n">
+        <v>1</v>
+      </c>
+      <c r="J173" t="inlineStr"/>
+      <c r="K173" t="n">
+        <v>66.70999999999999</v>
+      </c>
+      <c r="L173" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="M173" t="n">
+        <v>1.025130415230101</v>
+      </c>
+      <c r="N173" t="inlineStr"/>
+    </row>
+    <row r="174">
+      <c r="A174" s="1" t="n">
+        <v>172</v>
+      </c>
+      <c r="B174" t="n">
+        <v>68.20999999999999</v>
+      </c>
+      <c r="C174" t="n">
+        <v>68.70999999999999</v>
+      </c>
+      <c r="D174" t="n">
+        <v>68.70999999999999</v>
+      </c>
+      <c r="E174" t="n">
+        <v>68.20999999999999</v>
+      </c>
+      <c r="F174" t="n">
+        <v>497</v>
+      </c>
+      <c r="G174" t="n">
+        <v>-83965.33966534899</v>
+      </c>
+      <c r="H174" t="n">
+        <v>0</v>
+      </c>
+      <c r="I174" t="n">
+        <v>1</v>
+      </c>
+      <c r="J174" t="inlineStr"/>
+      <c r="K174" t="inlineStr"/>
+      <c r="L174" t="inlineStr"/>
+      <c r="M174" t="n">
+        <v>1</v>
+      </c>
+      <c r="N174" t="inlineStr"/>
+    </row>
+    <row r="175">
+      <c r="A175" s="1" t="n">
+        <v>173</v>
+      </c>
+      <c r="B175" t="n">
+        <v>68.70999999999999</v>
+      </c>
+      <c r="C175" t="n">
+        <v>68.72</v>
+      </c>
+      <c r="D175" t="n">
+        <v>68.72</v>
+      </c>
+      <c r="E175" t="n">
+        <v>68.70999999999999</v>
+      </c>
+      <c r="F175" t="n">
+        <v>423.0708</v>
+      </c>
+      <c r="G175" t="n">
+        <v>-83542.26886534899</v>
+      </c>
+      <c r="H175" t="n">
+        <v>0</v>
+      </c>
+      <c r="I175" t="n">
+        <v>0</v>
+      </c>
+      <c r="J175" t="inlineStr"/>
+      <c r="K175" t="inlineStr"/>
+      <c r="L175" t="inlineStr"/>
+      <c r="M175" t="n">
+        <v>1</v>
+      </c>
+      <c r="N175" t="inlineStr"/>
+    </row>
+    <row r="176">
+      <c r="A176" s="1" t="n">
+        <v>174</v>
+      </c>
+      <c r="B176" t="n">
+        <v>68.22</v>
+      </c>
+      <c r="C176" t="n">
+        <v>68.22</v>
+      </c>
+      <c r="D176" t="n">
+        <v>68.22</v>
+      </c>
+      <c r="E176" t="n">
+        <v>68.22</v>
+      </c>
+      <c r="F176" t="n">
+        <v>1729</v>
+      </c>
+      <c r="G176" t="n">
+        <v>-85271.26886534899</v>
+      </c>
+      <c r="H176" t="n">
+        <v>0</v>
+      </c>
+      <c r="I176" t="n">
+        <v>1</v>
+      </c>
+      <c r="J176" t="inlineStr"/>
+      <c r="K176" t="inlineStr"/>
+      <c r="L176" t="inlineStr"/>
+      <c r="M176" t="n">
+        <v>1</v>
+      </c>
+      <c r="N176" t="inlineStr"/>
+    </row>
+    <row r="177">
+      <c r="A177" s="1" t="n">
+        <v>175</v>
+      </c>
+      <c r="B177" t="n">
+        <v>68.70999999999999</v>
+      </c>
+      <c r="C177" t="n">
+        <v>68.72</v>
+      </c>
+      <c r="D177" t="n">
+        <v>68.72</v>
+      </c>
+      <c r="E177" t="n">
+        <v>68.70999999999999</v>
+      </c>
+      <c r="F177" t="n">
+        <v>249.2450844877765</v>
+      </c>
+      <c r="G177" t="n">
+        <v>-85022.02378086121</v>
+      </c>
+      <c r="H177" t="n">
+        <v>0</v>
+      </c>
+      <c r="I177" t="n">
+        <v>0</v>
+      </c>
+      <c r="J177" t="inlineStr"/>
+      <c r="K177" t="inlineStr"/>
+      <c r="L177" t="inlineStr"/>
+      <c r="M177" t="n">
+        <v>1</v>
+      </c>
+      <c r="N177" t="inlineStr"/>
+    </row>
+    <row r="178">
+      <c r="A178" s="1" t="n">
+        <v>176</v>
+      </c>
+      <c r="B178" t="n">
+        <v>68.7</v>
+      </c>
+      <c r="C178" t="n">
+        <v>68.72</v>
+      </c>
+      <c r="D178" t="n">
+        <v>68.72</v>
+      </c>
+      <c r="E178" t="n">
+        <v>68.7</v>
+      </c>
+      <c r="F178" t="n">
+        <v>482.8494</v>
+      </c>
+      <c r="G178" t="n">
+        <v>-85022.02378086121</v>
+      </c>
+      <c r="H178" t="n">
+        <v>0</v>
+      </c>
+      <c r="I178" t="n">
+        <v>0</v>
+      </c>
+      <c r="J178" t="inlineStr"/>
+      <c r="K178" t="inlineStr"/>
+      <c r="L178" t="inlineStr"/>
+      <c r="M178" t="n">
+        <v>1</v>
+      </c>
+      <c r="N178" t="inlineStr"/>
+    </row>
+    <row r="179">
+      <c r="A179" s="1" t="n">
+        <v>177</v>
+      </c>
+      <c r="B179" t="n">
+        <v>68.22</v>
+      </c>
+      <c r="C179" t="n">
+        <v>68.09999999999999</v>
+      </c>
+      <c r="D179" t="n">
+        <v>68.22</v>
+      </c>
+      <c r="E179" t="n">
+        <v>68.09999999999999</v>
+      </c>
+      <c r="F179" t="n">
+        <v>1186.1728</v>
+      </c>
+      <c r="G179" t="n">
+        <v>-86208.19658086121</v>
+      </c>
+      <c r="H179" t="n">
+        <v>0</v>
+      </c>
+      <c r="I179" t="n">
+        <v>1</v>
+      </c>
+      <c r="J179" t="inlineStr"/>
+      <c r="K179" t="inlineStr"/>
+      <c r="L179" t="inlineStr"/>
+      <c r="M179" t="n">
+        <v>1</v>
+      </c>
+      <c r="N179" t="inlineStr"/>
+    </row>
+    <row r="180">
+      <c r="A180" s="1" t="n">
+        <v>178</v>
+      </c>
+      <c r="B180" t="n">
+        <v>68.01000000000001</v>
+      </c>
+      <c r="C180" t="n">
+        <v>68.02</v>
+      </c>
+      <c r="D180" t="n">
+        <v>68.02</v>
+      </c>
+      <c r="E180" t="n">
+        <v>68.01000000000001</v>
+      </c>
+      <c r="F180" t="n">
+        <v>8370.8272</v>
+      </c>
+      <c r="G180" t="n">
+        <v>-94579.02378086121</v>
+      </c>
+      <c r="H180" t="n">
+        <v>0</v>
+      </c>
+      <c r="I180" t="n">
+        <v>0</v>
+      </c>
+      <c r="J180" t="inlineStr"/>
+      <c r="K180" t="inlineStr"/>
+      <c r="L180" t="inlineStr"/>
+      <c r="M180" t="n">
+        <v>1</v>
+      </c>
+      <c r="N180" t="inlineStr"/>
+    </row>
+    <row r="181">
+      <c r="A181" s="1" t="n">
+        <v>179</v>
+      </c>
+      <c r="B181" t="n">
+        <v>68.02</v>
+      </c>
+      <c r="C181" t="n">
+        <v>67.90000000000001</v>
+      </c>
+      <c r="D181" t="n">
+        <v>68.02</v>
+      </c>
+      <c r="E181" t="n">
+        <v>67.90000000000001</v>
+      </c>
+      <c r="F181" t="n">
+        <v>2000</v>
+      </c>
+      <c r="G181" t="n">
+        <v>-96579.02378086121</v>
+      </c>
+      <c r="H181" t="n">
+        <v>0</v>
+      </c>
+      <c r="I181" t="n">
+        <v>0</v>
+      </c>
+      <c r="J181" t="inlineStr"/>
+      <c r="K181" t="inlineStr"/>
+      <c r="L181" t="inlineStr"/>
+      <c r="M181" t="n">
+        <v>1</v>
+      </c>
+      <c r="N181" t="inlineStr"/>
+    </row>
+    <row r="182">
+      <c r="A182" s="1" t="n">
+        <v>180</v>
+      </c>
+      <c r="B182" t="n">
+        <v>68.59</v>
+      </c>
+      <c r="C182" t="n">
+        <v>68.59</v>
+      </c>
+      <c r="D182" t="n">
+        <v>68.59</v>
+      </c>
+      <c r="E182" t="n">
+        <v>68.59</v>
+      </c>
+      <c r="F182" t="n">
+        <v>32.84181367546289</v>
+      </c>
+      <c r="G182" t="n">
+        <v>-96546.18196718575</v>
+      </c>
+      <c r="H182" t="n">
+        <v>0</v>
+      </c>
+      <c r="I182" t="n">
+        <v>0</v>
+      </c>
+      <c r="J182" t="inlineStr"/>
+      <c r="K182" t="inlineStr"/>
+      <c r="L182" t="inlineStr"/>
+      <c r="M182" t="n">
+        <v>1</v>
+      </c>
+      <c r="N182" t="inlineStr"/>
+    </row>
+    <row r="183">
+      <c r="A183" s="1" t="n">
+        <v>181</v>
+      </c>
+      <c r="B183" t="n">
+        <v>68.58</v>
+      </c>
+      <c r="C183" t="n">
+        <v>68.3</v>
+      </c>
+      <c r="D183" t="n">
+        <v>68.58</v>
+      </c>
+      <c r="E183" t="n">
+        <v>68.3</v>
+      </c>
+      <c r="F183" t="n">
+        <v>194</v>
+      </c>
+      <c r="G183" t="n">
+        <v>-96740.18196718575</v>
+      </c>
+      <c r="H183" t="n">
+        <v>0</v>
+      </c>
+      <c r="I183" t="n">
+        <v>0</v>
+      </c>
+      <c r="J183" t="inlineStr"/>
+      <c r="K183" t="inlineStr"/>
+      <c r="L183" t="inlineStr"/>
+      <c r="M183" t="n">
+        <v>1</v>
+      </c>
+      <c r="N183" t="inlineStr"/>
+    </row>
+    <row r="184">
+      <c r="A184" s="1" t="n">
+        <v>182</v>
+      </c>
+      <c r="B184" t="n">
+        <v>68.59</v>
+      </c>
+      <c r="C184" t="n">
+        <v>68.59</v>
+      </c>
+      <c r="D184" t="n">
+        <v>68.59</v>
+      </c>
+      <c r="E184" t="n">
+        <v>68.59</v>
+      </c>
+      <c r="F184" t="n">
+        <v>11.3527</v>
+      </c>
+      <c r="G184" t="n">
+        <v>-96728.82926718575</v>
+      </c>
+      <c r="H184" t="n">
+        <v>0</v>
+      </c>
+      <c r="I184" t="n">
+        <v>0</v>
+      </c>
+      <c r="J184" t="inlineStr"/>
+      <c r="K184" t="inlineStr"/>
+      <c r="L184" t="inlineStr"/>
+      <c r="M184" t="n">
+        <v>1</v>
+      </c>
+      <c r="N184" t="inlineStr"/>
+    </row>
+    <row r="185">
+      <c r="A185" s="1" t="n">
+        <v>183</v>
+      </c>
+      <c r="B185" t="n">
+        <v>68.3</v>
+      </c>
+      <c r="C185" t="n">
+        <v>68.3</v>
+      </c>
+      <c r="D185" t="n">
+        <v>68.3</v>
+      </c>
+      <c r="E185" t="n">
+        <v>68.3</v>
+      </c>
+      <c r="F185" t="n">
+        <v>115.148</v>
+      </c>
+      <c r="G185" t="n">
+        <v>-96843.97726718575</v>
+      </c>
+      <c r="H185" t="n">
+        <v>0</v>
+      </c>
+      <c r="I185" t="n">
+        <v>0</v>
+      </c>
+      <c r="J185" t="inlineStr"/>
+      <c r="K185" t="inlineStr"/>
+      <c r="L185" t="inlineStr"/>
+      <c r="M185" t="n">
+        <v>1</v>
+      </c>
+      <c r="N185" t="inlineStr"/>
+    </row>
+    <row r="186">
+      <c r="A186" s="1" t="n">
+        <v>184</v>
+      </c>
+      <c r="B186" t="n">
+        <v>68.2</v>
+      </c>
+      <c r="C186" t="n">
+        <v>68.09999999999999</v>
+      </c>
+      <c r="D186" t="n">
+        <v>68.2</v>
+      </c>
+      <c r="E186" t="n">
+        <v>68.09999999999999</v>
+      </c>
+      <c r="F186" t="n">
+        <v>369.7768</v>
+      </c>
+      <c r="G186" t="n">
+        <v>-97213.75406718576</v>
+      </c>
+      <c r="H186" t="n">
+        <v>0</v>
+      </c>
+      <c r="I186" t="n">
+        <v>0</v>
+      </c>
+      <c r="J186" t="inlineStr"/>
+      <c r="K186" t="inlineStr"/>
+      <c r="L186" t="inlineStr"/>
+      <c r="M186" t="n">
+        <v>1</v>
+      </c>
+      <c r="N186" t="inlineStr"/>
+    </row>
+    <row r="187">
+      <c r="A187" s="1" t="n">
+        <v>185</v>
+      </c>
+      <c r="B187" t="n">
+        <v>68</v>
+      </c>
+      <c r="C187" t="n">
+        <v>67.91</v>
+      </c>
+      <c r="D187" t="n">
+        <v>68</v>
+      </c>
+      <c r="E187" t="n">
+        <v>67.91</v>
+      </c>
+      <c r="F187" t="n">
+        <v>1242.072</v>
+      </c>
+      <c r="G187" t="n">
+        <v>-98455.82606718576</v>
+      </c>
+      <c r="H187" t="n">
+        <v>0</v>
+      </c>
+      <c r="I187" t="n">
+        <v>0</v>
+      </c>
+      <c r="J187" t="inlineStr"/>
+      <c r="K187" t="inlineStr"/>
+      <c r="L187" t="inlineStr"/>
+      <c r="M187" t="n">
+        <v>1</v>
+      </c>
+      <c r="N187" t="inlineStr"/>
+    </row>
+    <row r="188">
+      <c r="A188" s="1" t="n">
+        <v>186</v>
+      </c>
+      <c r="B188" t="n">
+        <v>67.90000000000001</v>
+      </c>
+      <c r="C188" t="n">
+        <v>67.81</v>
+      </c>
+      <c r="D188" t="n">
+        <v>67.90000000000001</v>
+      </c>
+      <c r="E188" t="n">
+        <v>67.81</v>
+      </c>
+      <c r="F188" t="n">
+        <v>121.63</v>
+      </c>
+      <c r="G188" t="n">
+        <v>-98577.45606718576</v>
+      </c>
+      <c r="H188" t="n">
+        <v>0</v>
+      </c>
+      <c r="I188" t="n">
+        <v>0</v>
+      </c>
+      <c r="J188" t="inlineStr"/>
+      <c r="K188" t="inlineStr"/>
+      <c r="L188" t="inlineStr"/>
+      <c r="M188" t="n">
+        <v>1</v>
+      </c>
+      <c r="N188" t="inlineStr"/>
+    </row>
+    <row r="189">
+      <c r="A189" s="1" t="n">
+        <v>187</v>
+      </c>
+      <c r="B189" t="n">
+        <v>68</v>
+      </c>
+      <c r="C189" t="n">
+        <v>68</v>
+      </c>
+      <c r="D189" t="n">
+        <v>68</v>
+      </c>
+      <c r="E189" t="n">
+        <v>68</v>
+      </c>
+      <c r="F189" t="n">
+        <v>8</v>
+      </c>
+      <c r="G189" t="n">
+        <v>-98569.45606718576</v>
+      </c>
+      <c r="H189" t="n">
+        <v>0</v>
+      </c>
+      <c r="I189" t="n">
+        <v>0</v>
+      </c>
+      <c r="J189" t="inlineStr"/>
+      <c r="K189" t="inlineStr"/>
+      <c r="L189" t="inlineStr"/>
+      <c r="M189" t="n">
+        <v>1</v>
+      </c>
+      <c r="N189" t="inlineStr"/>
+    </row>
+    <row r="190">
+      <c r="A190" s="1" t="n">
+        <v>188</v>
+      </c>
+      <c r="B190" t="n">
+        <v>67.81</v>
+      </c>
+      <c r="C190" t="n">
+        <v>67.59999999999999</v>
+      </c>
+      <c r="D190" t="n">
+        <v>67.81</v>
+      </c>
+      <c r="E190" t="n">
+        <v>67.59999999999999</v>
+      </c>
+      <c r="F190" t="n">
+        <v>5636.408</v>
+      </c>
+      <c r="G190" t="n">
+        <v>-104205.8640671858</v>
+      </c>
+      <c r="H190" t="n">
+        <v>0</v>
+      </c>
+      <c r="I190" t="n">
+        <v>0</v>
+      </c>
+      <c r="J190" t="inlineStr"/>
+      <c r="K190" t="inlineStr"/>
+      <c r="L190" t="inlineStr"/>
+      <c r="M190" t="n">
+        <v>1</v>
+      </c>
+      <c r="N190" t="inlineStr"/>
+    </row>
+    <row r="191">
+      <c r="A191" s="1" t="n">
+        <v>189</v>
+      </c>
+      <c r="B191" t="n">
+        <v>67.90000000000001</v>
+      </c>
+      <c r="C191" t="n">
+        <v>67.90000000000001</v>
+      </c>
+      <c r="D191" t="n">
+        <v>67.90000000000001</v>
+      </c>
+      <c r="E191" t="n">
+        <v>67.90000000000001</v>
+      </c>
+      <c r="F191" t="n">
+        <v>8</v>
+      </c>
+      <c r="G191" t="n">
+        <v>-104197.8640671858</v>
+      </c>
+      <c r="H191" t="n">
+        <v>0</v>
+      </c>
+      <c r="I191" t="n">
+        <v>0</v>
+      </c>
+      <c r="J191" t="inlineStr"/>
+      <c r="K191" t="inlineStr"/>
+      <c r="L191" t="inlineStr"/>
+      <c r="M191" t="n">
+        <v>1</v>
+      </c>
+      <c r="N191" t="inlineStr"/>
+    </row>
+    <row r="192">
+      <c r="A192" s="1" t="n">
+        <v>190</v>
+      </c>
+      <c r="B192" t="n">
+        <v>67.90000000000001</v>
+      </c>
+      <c r="C192" t="n">
+        <v>68</v>
+      </c>
+      <c r="D192" t="n">
+        <v>68</v>
+      </c>
+      <c r="E192" t="n">
+        <v>67.90000000000001</v>
+      </c>
+      <c r="F192" t="n">
+        <v>1800</v>
+      </c>
+      <c r="G192" t="n">
+        <v>-102397.8640671858</v>
+      </c>
+      <c r="H192" t="n">
+        <v>0</v>
+      </c>
+      <c r="I192" t="n">
+        <v>0</v>
+      </c>
+      <c r="J192" t="inlineStr"/>
+      <c r="K192" t="inlineStr"/>
+      <c r="L192" t="inlineStr"/>
+      <c r="M192" t="n">
+        <v>1</v>
+      </c>
+      <c r="N192" t="inlineStr"/>
+    </row>
+    <row r="193">
+      <c r="A193" s="1" t="n">
+        <v>191</v>
+      </c>
+      <c r="B193" t="n">
+        <v>67.62</v>
+      </c>
+      <c r="C193" t="n">
+        <v>67.62</v>
+      </c>
+      <c r="D193" t="n">
+        <v>67.62</v>
+      </c>
+      <c r="E193" t="n">
+        <v>67.62</v>
+      </c>
+      <c r="F193" t="n">
+        <v>8.0467</v>
+      </c>
+      <c r="G193" t="n">
+        <v>-102405.9107671858</v>
+      </c>
+      <c r="H193" t="n">
+        <v>0</v>
+      </c>
+      <c r="I193" t="n">
+        <v>0</v>
+      </c>
+      <c r="J193" t="inlineStr"/>
+      <c r="K193" t="inlineStr"/>
+      <c r="L193" t="inlineStr"/>
+      <c r="M193" t="n">
+        <v>1</v>
+      </c>
+      <c r="N193" t="inlineStr"/>
+    </row>
+    <row r="194">
+      <c r="A194" s="1" t="n">
+        <v>192</v>
+      </c>
+      <c r="B194" t="n">
+        <v>68</v>
+      </c>
+      <c r="C194" t="n">
+        <v>68.3</v>
+      </c>
+      <c r="D194" t="n">
+        <v>68.3</v>
+      </c>
+      <c r="E194" t="n">
+        <v>68</v>
+      </c>
+      <c r="F194" t="n">
+        <v>4689.3195</v>
+      </c>
+      <c r="G194" t="n">
+        <v>-97716.59126718577</v>
+      </c>
+      <c r="H194" t="n">
+        <v>0</v>
+      </c>
+      <c r="I194" t="n">
+        <v>0</v>
+      </c>
+      <c r="J194" t="inlineStr"/>
+      <c r="K194" t="inlineStr"/>
+      <c r="L194" t="inlineStr"/>
+      <c r="M194" t="n">
+        <v>1</v>
+      </c>
+      <c r="N194" t="inlineStr"/>
+    </row>
+    <row r="195">
+      <c r="A195" s="1" t="n">
+        <v>193</v>
+      </c>
+      <c r="B195" t="n">
+        <v>68.3</v>
+      </c>
+      <c r="C195" t="n">
+        <v>68.3</v>
+      </c>
+      <c r="D195" t="n">
+        <v>68.3</v>
+      </c>
+      <c r="E195" t="n">
+        <v>68.3</v>
+      </c>
+      <c r="F195" t="n">
+        <v>8943.8734</v>
+      </c>
+      <c r="G195" t="n">
+        <v>-97716.59126718577</v>
+      </c>
+      <c r="H195" t="n">
+        <v>0</v>
+      </c>
+      <c r="I195" t="n">
+        <v>0</v>
+      </c>
+      <c r="J195" t="inlineStr"/>
+      <c r="K195" t="inlineStr"/>
+      <c r="L195" t="inlineStr"/>
+      <c r="M195" t="n">
+        <v>1</v>
+      </c>
+      <c r="N195" t="inlineStr"/>
+    </row>
+    <row r="196">
+      <c r="A196" s="1" t="n">
+        <v>194</v>
+      </c>
+      <c r="B196" t="n">
+        <v>68.59</v>
+      </c>
+      <c r="C196" t="n">
+        <v>68.72</v>
+      </c>
+      <c r="D196" t="n">
+        <v>68.72</v>
+      </c>
+      <c r="E196" t="n">
+        <v>68.59</v>
+      </c>
+      <c r="F196" t="n">
+        <v>7407.113786324537</v>
+      </c>
+      <c r="G196" t="n">
+        <v>-90309.47748086123</v>
+      </c>
+      <c r="H196" t="n">
+        <v>0</v>
+      </c>
+      <c r="I196" t="n">
+        <v>0</v>
+      </c>
+      <c r="J196" t="inlineStr"/>
+      <c r="K196" t="inlineStr"/>
+      <c r="L196" t="inlineStr"/>
+      <c r="M196" t="n">
+        <v>1</v>
+      </c>
+      <c r="N196" t="inlineStr"/>
+    </row>
+    <row r="197">
+      <c r="A197" s="1" t="n">
+        <v>195</v>
+      </c>
+      <c r="B197" t="n">
+        <v>68.72</v>
+      </c>
+      <c r="C197" t="n">
+        <v>68.77</v>
+      </c>
+      <c r="D197" t="n">
+        <v>68.77</v>
+      </c>
+      <c r="E197" t="n">
+        <v>68.72</v>
+      </c>
+      <c r="F197" t="n">
+        <v>17021.52081551222</v>
+      </c>
+      <c r="G197" t="n">
+        <v>-73287.956665349</v>
+      </c>
+      <c r="H197" t="n">
+        <v>0</v>
+      </c>
+      <c r="I197" t="n">
+        <v>0</v>
+      </c>
+      <c r="J197" t="inlineStr"/>
+      <c r="K197" t="inlineStr"/>
+      <c r="L197" t="inlineStr"/>
+      <c r="M197" t="n">
+        <v>1</v>
+      </c>
+      <c r="N197" t="inlineStr"/>
+    </row>
+    <row r="198">
+      <c r="A198" s="1" t="n">
+        <v>196</v>
+      </c>
+      <c r="B198" t="n">
+        <v>68.79000000000001</v>
+      </c>
+      <c r="C198" t="n">
+        <v>69</v>
+      </c>
+      <c r="D198" t="n">
+        <v>69</v>
+      </c>
+      <c r="E198" t="n">
+        <v>68.79000000000001</v>
+      </c>
+      <c r="F198" t="n">
+        <v>6392.2178</v>
+      </c>
+      <c r="G198" t="n">
+        <v>-66895.73886534901</v>
+      </c>
+      <c r="H198" t="n">
+        <v>0</v>
+      </c>
+      <c r="I198" t="n">
+        <v>0</v>
+      </c>
+      <c r="J198" t="inlineStr"/>
+      <c r="K198" t="inlineStr"/>
+      <c r="L198" t="inlineStr"/>
+      <c r="M198" t="n">
+        <v>1</v>
+      </c>
+      <c r="N198" t="inlineStr"/>
+    </row>
+    <row r="199">
+      <c r="A199" s="1" t="n">
+        <v>197</v>
+      </c>
+      <c r="B199" t="n">
+        <v>69.25</v>
+      </c>
+      <c r="C199" t="n">
+        <v>69.27</v>
+      </c>
+      <c r="D199" t="n">
+        <v>69.27</v>
+      </c>
+      <c r="E199" t="n">
+        <v>69.25</v>
+      </c>
+      <c r="F199" t="n">
+        <v>22781.0817</v>
+      </c>
+      <c r="G199" t="n">
+        <v>-44114.65716534901</v>
+      </c>
+      <c r="H199" t="n">
+        <v>0</v>
+      </c>
+      <c r="I199" t="n">
+        <v>0</v>
+      </c>
+      <c r="J199" t="inlineStr"/>
+      <c r="K199" t="inlineStr"/>
+      <c r="L199" t="inlineStr"/>
+      <c r="M199" t="n">
+        <v>1</v>
+      </c>
+      <c r="N199" t="inlineStr"/>
+    </row>
+    <row r="200">
+      <c r="A200" s="1" t="n">
+        <v>198</v>
+      </c>
+      <c r="B200" t="n">
+        <v>69.29000000000001</v>
+      </c>
+      <c r="C200" t="n">
+        <v>69.27</v>
+      </c>
+      <c r="D200" t="n">
+        <v>69.29000000000001</v>
+      </c>
+      <c r="E200" t="n">
+        <v>69.27</v>
+      </c>
+      <c r="F200" t="n">
+        <v>3847.362</v>
+      </c>
+      <c r="G200" t="n">
+        <v>-44114.65716534901</v>
+      </c>
+      <c r="H200" t="n">
+        <v>0</v>
+      </c>
+      <c r="I200" t="n">
+        <v>0</v>
+      </c>
+      <c r="J200" t="inlineStr"/>
+      <c r="K200" t="inlineStr"/>
+      <c r="L200" t="inlineStr"/>
+      <c r="M200" t="n">
+        <v>1</v>
+      </c>
+      <c r="N200" t="inlineStr"/>
+    </row>
+    <row r="201">
+      <c r="A201" s="1" t="n">
+        <v>199</v>
+      </c>
+      <c r="B201" t="n">
+        <v>69.38</v>
+      </c>
+      <c r="C201" t="n">
+        <v>69.38</v>
+      </c>
+      <c r="D201" t="n">
+        <v>69.38</v>
+      </c>
+      <c r="E201" t="n">
+        <v>69.38</v>
+      </c>
+      <c r="F201" t="n">
+        <v>8</v>
+      </c>
+      <c r="G201" t="n">
+        <v>-44106.65716534901</v>
+      </c>
+      <c r="H201" t="n">
+        <v>0</v>
+      </c>
+      <c r="I201" t="n">
+        <v>0</v>
+      </c>
+      <c r="J201" t="inlineStr"/>
+      <c r="K201" t="inlineStr"/>
+      <c r="L201" t="inlineStr"/>
+      <c r="M201" t="n">
+        <v>1</v>
+      </c>
+      <c r="N201" t="inlineStr"/>
+    </row>
+    <row r="202">
+      <c r="A202" s="1" t="n">
+        <v>200</v>
+      </c>
+      <c r="B202" t="n">
+        <v>68.11</v>
+      </c>
+      <c r="C202" t="n">
+        <v>68</v>
+      </c>
+      <c r="D202" t="n">
+        <v>68.11</v>
+      </c>
+      <c r="E202" t="n">
+        <v>68</v>
+      </c>
+      <c r="F202" t="n">
+        <v>7977.9933</v>
+      </c>
+      <c r="G202" t="n">
+        <v>-52084.65046534901</v>
+      </c>
+      <c r="H202" t="n">
+        <v>0</v>
+      </c>
+      <c r="I202" t="n">
+        <v>1</v>
+      </c>
+      <c r="J202" t="inlineStr"/>
+      <c r="K202" t="inlineStr"/>
+      <c r="L202" t="inlineStr"/>
+      <c r="M202" t="n">
+        <v>1</v>
+      </c>
+      <c r="N202" t="inlineStr"/>
+    </row>
+    <row r="203">
+      <c r="A203" s="1" t="n">
+        <v>201</v>
+      </c>
+      <c r="B203" t="n">
+        <v>69.19</v>
+      </c>
+      <c r="C203" t="n">
+        <v>69.19</v>
+      </c>
+      <c r="D203" t="n">
+        <v>69.19</v>
+      </c>
+      <c r="E203" t="n">
+        <v>69.19</v>
+      </c>
+      <c r="F203" t="n">
+        <v>8</v>
+      </c>
+      <c r="G203" t="n">
+        <v>-52076.65046534901</v>
+      </c>
+      <c r="H203" t="n">
+        <v>0</v>
+      </c>
+      <c r="I203" t="n">
+        <v>0</v>
+      </c>
+      <c r="J203" t="inlineStr"/>
+      <c r="K203" t="inlineStr"/>
+      <c r="L203" t="inlineStr"/>
+      <c r="M203" t="n">
+        <v>1</v>
+      </c>
+      <c r="N203" t="inlineStr"/>
+    </row>
+    <row r="204">
+      <c r="A204" s="1" t="n">
+        <v>202</v>
+      </c>
+      <c r="B204" t="n">
+        <v>68.98999999999999</v>
+      </c>
+      <c r="C204" t="n">
+        <v>68.98999999999999</v>
+      </c>
+      <c r="D204" t="n">
+        <v>68.98999999999999</v>
+      </c>
+      <c r="E204" t="n">
+        <v>68.98999999999999</v>
+      </c>
+      <c r="F204" t="n">
+        <v>6948.213</v>
+      </c>
+      <c r="G204" t="n">
+        <v>-59024.86346534902</v>
+      </c>
+      <c r="H204" t="n">
+        <v>0</v>
+      </c>
+      <c r="I204" t="n">
+        <v>1</v>
+      </c>
+      <c r="J204" t="inlineStr"/>
+      <c r="K204" t="inlineStr"/>
+      <c r="L204" t="inlineStr"/>
+      <c r="M204" t="n">
+        <v>1</v>
+      </c>
+      <c r="N204" t="inlineStr"/>
+    </row>
+    <row r="205">
+      <c r="A205" s="1" t="n">
+        <v>203</v>
+      </c>
+      <c r="B205" t="n">
+        <v>68.05</v>
+      </c>
+      <c r="C205" t="n">
+        <v>68</v>
+      </c>
+      <c r="D205" t="n">
+        <v>68.05</v>
+      </c>
+      <c r="E205" t="n">
+        <v>68</v>
+      </c>
+      <c r="F205" t="n">
+        <v>8338.2657</v>
+      </c>
+      <c r="G205" t="n">
+        <v>-67363.12916534902</v>
+      </c>
+      <c r="H205" t="n">
+        <v>0</v>
+      </c>
+      <c r="I205" t="n">
+        <v>1</v>
+      </c>
+      <c r="J205" t="inlineStr"/>
+      <c r="K205" t="inlineStr"/>
+      <c r="L205" t="inlineStr"/>
+      <c r="M205" t="n">
+        <v>1</v>
+      </c>
+      <c r="N205" t="inlineStr"/>
+    </row>
+    <row r="206">
+      <c r="A206" s="1" t="n">
+        <v>204</v>
+      </c>
+      <c r="B206" t="n">
+        <v>68.98999999999999</v>
+      </c>
+      <c r="C206" t="n">
+        <v>68</v>
+      </c>
+      <c r="D206" t="n">
+        <v>68.98999999999999</v>
+      </c>
+      <c r="E206" t="n">
+        <v>68</v>
+      </c>
+      <c r="F206" t="n">
+        <v>1045.7942</v>
+      </c>
+      <c r="G206" t="n">
+        <v>-67363.12916534902</v>
+      </c>
+      <c r="H206" t="n">
+        <v>0</v>
+      </c>
+      <c r="I206" t="n">
+        <v>0</v>
+      </c>
+      <c r="J206" t="inlineStr"/>
+      <c r="K206" t="inlineStr"/>
+      <c r="L206" t="inlineStr"/>
+      <c r="M206" t="n">
+        <v>1</v>
+      </c>
+      <c r="N206" t="inlineStr"/>
+    </row>
+    <row r="207">
+      <c r="A207" s="1" t="n">
+        <v>205</v>
+      </c>
+      <c r="B207" t="n">
+        <v>68.59</v>
+      </c>
+      <c r="C207" t="n">
+        <v>68.59</v>
+      </c>
+      <c r="D207" t="n">
+        <v>68.59</v>
+      </c>
+      <c r="E207" t="n">
+        <v>68.59</v>
+      </c>
+      <c r="F207" t="n">
+        <v>8087.5792</v>
+      </c>
+      <c r="G207" t="n">
+        <v>-59275.54996534902</v>
+      </c>
+      <c r="H207" t="n">
+        <v>0</v>
+      </c>
+      <c r="I207" t="n">
+        <v>1</v>
+      </c>
+      <c r="J207" t="inlineStr"/>
+      <c r="K207" t="inlineStr"/>
+      <c r="L207" t="inlineStr"/>
+      <c r="M207" t="n">
+        <v>1</v>
+      </c>
+      <c r="N207" t="inlineStr"/>
+    </row>
+    <row r="208">
+      <c r="A208" s="1" t="n">
+        <v>206</v>
+      </c>
+      <c r="B208" t="n">
+        <v>69</v>
+      </c>
+      <c r="C208" t="n">
+        <v>69</v>
+      </c>
+      <c r="D208" t="n">
+        <v>69</v>
+      </c>
+      <c r="E208" t="n">
+        <v>69</v>
+      </c>
+      <c r="F208" t="n">
+        <v>8</v>
+      </c>
+      <c r="G208" t="n">
+        <v>-59267.54996534902</v>
+      </c>
+      <c r="H208" t="n">
+        <v>0</v>
+      </c>
+      <c r="I208" t="n">
+        <v>1</v>
+      </c>
+      <c r="J208" t="inlineStr"/>
+      <c r="K208" t="inlineStr"/>
+      <c r="L208" t="inlineStr"/>
+      <c r="M208" t="n">
+        <v>1</v>
+      </c>
+      <c r="N208" t="inlineStr"/>
+    </row>
+    <row r="209">
+      <c r="A209" s="1" t="n">
+        <v>207</v>
+      </c>
+      <c r="B209" t="n">
+        <v>68.02</v>
+      </c>
+      <c r="C209" t="n">
+        <v>67.53</v>
+      </c>
+      <c r="D209" t="n">
+        <v>68.02</v>
+      </c>
+      <c r="E209" t="n">
+        <v>67.53</v>
+      </c>
+      <c r="F209" t="n">
+        <v>13501.4325</v>
+      </c>
+      <c r="G209" t="n">
+        <v>-72768.98246534902</v>
+      </c>
+      <c r="H209" t="n">
+        <v>0</v>
+      </c>
+      <c r="I209" t="n">
+        <v>1</v>
+      </c>
+      <c r="J209" t="inlineStr"/>
+      <c r="K209" t="inlineStr"/>
+      <c r="L209" t="inlineStr"/>
+      <c r="M209" t="n">
+        <v>1</v>
+      </c>
+      <c r="N209" t="inlineStr"/>
+    </row>
+    <row r="210">
+      <c r="A210" s="1" t="n">
+        <v>208</v>
+      </c>
+      <c r="B210" t="n">
+        <v>68.79000000000001</v>
+      </c>
+      <c r="C210" t="n">
+        <v>69.29000000000001</v>
+      </c>
+      <c r="D210" t="n">
+        <v>69.29000000000001</v>
+      </c>
+      <c r="E210" t="n">
+        <v>68.79000000000001</v>
+      </c>
+      <c r="F210" t="n">
+        <v>17665.47218034348</v>
+      </c>
+      <c r="G210" t="n">
+        <v>-55103.51028500554</v>
+      </c>
+      <c r="H210" t="n">
+        <v>0</v>
+      </c>
+      <c r="I210" t="n">
+        <v>0</v>
+      </c>
+      <c r="J210" t="inlineStr"/>
+      <c r="K210" t="inlineStr"/>
+      <c r="L210" t="inlineStr"/>
+      <c r="M210" t="n">
+        <v>1</v>
+      </c>
+      <c r="N210" t="inlineStr"/>
+    </row>
+    <row r="211">
+      <c r="A211" s="1" t="n">
+        <v>209</v>
+      </c>
+      <c r="B211" t="n">
+        <v>69.34</v>
+      </c>
+      <c r="C211" t="n">
+        <v>69.37</v>
+      </c>
+      <c r="D211" t="n">
+        <v>69.37</v>
+      </c>
+      <c r="E211" t="n">
+        <v>69.34</v>
+      </c>
+      <c r="F211" t="n">
+        <v>175.0071963961367</v>
+      </c>
+      <c r="G211" t="n">
+        <v>-54928.5030886094</v>
+      </c>
+      <c r="H211" t="n">
+        <v>0</v>
+      </c>
+      <c r="I211" t="n">
+        <v>1</v>
+      </c>
+      <c r="J211" t="inlineStr"/>
+      <c r="K211" t="inlineStr"/>
+      <c r="L211" t="inlineStr"/>
+      <c r="M211" t="n">
+        <v>1</v>
+      </c>
+      <c r="N211" t="inlineStr"/>
+    </row>
+    <row r="212">
+      <c r="A212" s="1" t="n">
+        <v>210</v>
+      </c>
+      <c r="B212" t="n">
+        <v>69.36</v>
+      </c>
+      <c r="C212" t="n">
+        <v>69.36</v>
+      </c>
+      <c r="D212" t="n">
+        <v>69.38</v>
+      </c>
+      <c r="E212" t="n">
+        <v>69.36</v>
+      </c>
+      <c r="F212" t="n">
+        <v>49</v>
+      </c>
+      <c r="G212" t="n">
+        <v>-54977.5030886094</v>
+      </c>
+      <c r="H212" t="n">
+        <v>0</v>
+      </c>
+      <c r="I212" t="n">
+        <v>1</v>
+      </c>
+      <c r="J212" t="inlineStr"/>
+      <c r="K212" t="inlineStr"/>
+      <c r="L212" t="inlineStr"/>
+      <c r="M212" t="n">
+        <v>1</v>
+      </c>
+      <c r="N212" t="inlineStr"/>
+    </row>
+    <row r="213">
+      <c r="A213" s="1" t="n">
+        <v>211</v>
+      </c>
+      <c r="B213" t="n">
+        <v>69.36</v>
+      </c>
+      <c r="C213" t="n">
+        <v>69.36</v>
+      </c>
+      <c r="D213" t="n">
+        <v>69.36</v>
+      </c>
+      <c r="E213" t="n">
+        <v>69.36</v>
+      </c>
+      <c r="F213" t="n">
+        <v>213.2144</v>
+      </c>
+      <c r="G213" t="n">
+        <v>-54977.5030886094</v>
+      </c>
+      <c r="H213" t="n">
+        <v>0</v>
+      </c>
+      <c r="I213" t="n">
+        <v>1</v>
+      </c>
+      <c r="J213" t="inlineStr"/>
+      <c r="K213" t="inlineStr"/>
+      <c r="L213" t="inlineStr"/>
+      <c r="M213" t="n">
+        <v>1</v>
+      </c>
+      <c r="N213" t="inlineStr"/>
+    </row>
+    <row r="214">
+      <c r="A214" s="1" t="n">
+        <v>212</v>
+      </c>
+      <c r="B214" t="n">
+        <v>69.36</v>
+      </c>
+      <c r="C214" t="n">
+        <v>68.12</v>
+      </c>
+      <c r="D214" t="n">
+        <v>69.36</v>
+      </c>
+      <c r="E214" t="n">
+        <v>68.12</v>
+      </c>
+      <c r="F214" t="n">
+        <v>5154.4399</v>
+      </c>
+      <c r="G214" t="n">
+        <v>-60131.9429886094</v>
+      </c>
+      <c r="H214" t="n">
+        <v>0</v>
+      </c>
+      <c r="I214" t="n">
+        <v>1</v>
+      </c>
+      <c r="J214" t="inlineStr"/>
+      <c r="K214" t="inlineStr"/>
+      <c r="L214" t="inlineStr"/>
+      <c r="M214" t="n">
+        <v>1</v>
+      </c>
+      <c r="N214" t="inlineStr"/>
+    </row>
+    <row r="215">
+      <c r="A215" s="1" t="n">
+        <v>213</v>
+      </c>
+      <c r="B215" t="n">
+        <v>68.41</v>
+      </c>
+      <c r="C215" t="n">
+        <v>68.41</v>
+      </c>
+      <c r="D215" t="n">
+        <v>68.41</v>
+      </c>
+      <c r="E215" t="n">
+        <v>68.41</v>
+      </c>
+      <c r="F215" t="n">
+        <v>853.4956</v>
+      </c>
+      <c r="G215" t="n">
+        <v>-59278.4473886094</v>
+      </c>
+      <c r="H215" t="n">
+        <v>0</v>
+      </c>
+      <c r="I215" t="n">
+        <v>0</v>
+      </c>
+      <c r="J215" t="inlineStr"/>
+      <c r="K215" t="inlineStr"/>
+      <c r="L215" t="inlineStr"/>
+      <c r="M215" t="n">
+        <v>1</v>
+      </c>
+      <c r="N215" t="inlineStr"/>
+    </row>
+    <row r="216">
+      <c r="A216" s="1" t="n">
+        <v>214</v>
+      </c>
+      <c r="B216" t="n">
+        <v>69.26000000000001</v>
+      </c>
+      <c r="C216" t="n">
+        <v>69.26000000000001</v>
+      </c>
+      <c r="D216" t="n">
+        <v>69.26000000000001</v>
+      </c>
+      <c r="E216" t="n">
+        <v>69.26000000000001</v>
+      </c>
+      <c r="F216" t="n">
+        <v>8</v>
+      </c>
+      <c r="G216" t="n">
+        <v>-59270.4473886094</v>
+      </c>
+      <c r="H216" t="n">
+        <v>0</v>
+      </c>
+      <c r="I216" t="n">
+        <v>0</v>
+      </c>
+      <c r="J216" t="inlineStr"/>
+      <c r="K216" t="inlineStr"/>
+      <c r="L216" t="inlineStr"/>
+      <c r="M216" t="n">
+        <v>1</v>
+      </c>
+      <c r="N216" t="inlineStr"/>
+    </row>
+    <row r="217">
+      <c r="A217" s="1" t="n">
+        <v>215</v>
+      </c>
+      <c r="B217" t="n">
+        <v>68.42</v>
+      </c>
+      <c r="C217" t="n">
+        <v>68</v>
+      </c>
+      <c r="D217" t="n">
+        <v>68.42</v>
+      </c>
+      <c r="E217" t="n">
+        <v>68</v>
+      </c>
+      <c r="F217" t="n">
+        <v>17050.0608</v>
+      </c>
+      <c r="G217" t="n">
+        <v>-76320.5081886094</v>
+      </c>
+      <c r="H217" t="n">
+        <v>0</v>
+      </c>
+      <c r="I217" t="n">
+        <v>0</v>
+      </c>
+      <c r="J217" t="inlineStr"/>
+      <c r="K217" t="inlineStr"/>
+      <c r="L217" t="inlineStr"/>
+      <c r="M217" t="n">
+        <v>1</v>
+      </c>
+      <c r="N217" t="inlineStr"/>
+    </row>
+    <row r="218">
+      <c r="A218" s="1" t="n">
+        <v>216</v>
+      </c>
+      <c r="B218" t="n">
+        <v>68.5</v>
+      </c>
+      <c r="C218" t="n">
+        <v>69.52</v>
+      </c>
+      <c r="D218" t="n">
+        <v>69.56</v>
+      </c>
+      <c r="E218" t="n">
+        <v>68.5</v>
+      </c>
+      <c r="F218" t="n">
+        <v>14001.58538401921</v>
+      </c>
+      <c r="G218" t="n">
+        <v>-62318.92280459018</v>
+      </c>
+      <c r="H218" t="n">
+        <v>0</v>
+      </c>
+      <c r="I218" t="n">
+        <v>0</v>
+      </c>
+      <c r="J218" t="inlineStr"/>
+      <c r="K218" t="inlineStr"/>
+      <c r="L218" t="inlineStr"/>
+      <c r="M218" t="n">
+        <v>1</v>
+      </c>
+      <c r="N218" t="inlineStr"/>
+    </row>
+    <row r="219">
+      <c r="A219" s="1" t="n">
+        <v>217</v>
+      </c>
+      <c r="B219" t="n">
+        <v>69.51000000000001</v>
+      </c>
+      <c r="C219" t="n">
+        <v>69.51000000000001</v>
+      </c>
+      <c r="D219" t="n">
+        <v>69.51000000000001</v>
+      </c>
+      <c r="E219" t="n">
+        <v>69.51000000000001</v>
+      </c>
+      <c r="F219" t="n">
+        <v>18.42900302114804</v>
+      </c>
+      <c r="G219" t="n">
+        <v>-62337.35180761133</v>
+      </c>
+      <c r="H219" t="n">
+        <v>0</v>
+      </c>
+      <c r="I219" t="n">
+        <v>0</v>
+      </c>
+      <c r="J219" t="inlineStr"/>
+      <c r="K219" t="inlineStr"/>
+      <c r="L219" t="inlineStr"/>
+      <c r="M219" t="n">
+        <v>1</v>
+      </c>
+      <c r="N219" t="inlineStr"/>
+    </row>
+    <row r="220">
+      <c r="A220" s="1" t="n">
+        <v>218</v>
+      </c>
+      <c r="B220" t="n">
+        <v>68.41</v>
+      </c>
+      <c r="C220" t="n">
+        <v>68</v>
+      </c>
+      <c r="D220" t="n">
+        <v>68.41</v>
+      </c>
+      <c r="E220" t="n">
+        <v>68</v>
+      </c>
+      <c r="F220" t="n">
+        <v>5293.1176</v>
+      </c>
+      <c r="G220" t="n">
+        <v>-67630.46940761134</v>
+      </c>
+      <c r="H220" t="n">
+        <v>0</v>
+      </c>
+      <c r="I220" t="n">
+        <v>0</v>
+      </c>
+      <c r="J220" t="inlineStr"/>
+      <c r="K220" t="inlineStr"/>
+      <c r="L220" t="inlineStr"/>
+      <c r="M220" t="n">
+        <v>1</v>
+      </c>
+      <c r="N220" t="inlineStr"/>
+    </row>
+    <row r="221">
+      <c r="A221" s="1" t="n">
+        <v>219</v>
+      </c>
+      <c r="B221" t="n">
+        <v>69.25</v>
+      </c>
+      <c r="C221" t="n">
+        <v>69.25</v>
+      </c>
+      <c r="D221" t="n">
+        <v>69.25</v>
+      </c>
+      <c r="E221" t="n">
+        <v>69.25</v>
+      </c>
+      <c r="F221" t="n">
+        <v>8</v>
+      </c>
+      <c r="G221" t="n">
+        <v>-67622.46940761134</v>
+      </c>
+      <c r="H221" t="n">
+        <v>0</v>
+      </c>
+      <c r="I221" t="n">
+        <v>0</v>
+      </c>
+      <c r="J221" t="inlineStr"/>
+      <c r="K221" t="inlineStr"/>
+      <c r="L221" t="inlineStr"/>
+      <c r="M221" t="n">
+        <v>1</v>
+      </c>
+      <c r="N221" t="inlineStr"/>
+    </row>
+    <row r="222">
+      <c r="A222" s="1" t="n">
+        <v>220</v>
+      </c>
+      <c r="B222" t="n">
+        <v>68.2</v>
+      </c>
+      <c r="C222" t="n">
+        <v>68.2</v>
+      </c>
+      <c r="D222" t="n">
+        <v>68.2</v>
+      </c>
+      <c r="E222" t="n">
+        <v>68.2</v>
+      </c>
+      <c r="F222" t="n">
+        <v>296.069</v>
+      </c>
+      <c r="G222" t="n">
+        <v>-67918.53840761134</v>
+      </c>
+      <c r="H222" t="n">
+        <v>0</v>
+      </c>
+      <c r="I222" t="n">
+        <v>0</v>
+      </c>
+      <c r="J222" t="inlineStr"/>
+      <c r="K222" t="inlineStr"/>
+      <c r="L222" t="inlineStr"/>
+      <c r="M222" t="n">
+        <v>1</v>
+      </c>
+      <c r="N222" t="inlineStr"/>
+    </row>
+    <row r="223">
+      <c r="A223" s="1" t="n">
+        <v>221</v>
+      </c>
+      <c r="B223" t="n">
+        <v>68.2</v>
+      </c>
+      <c r="C223" t="n">
+        <v>68.2</v>
+      </c>
+      <c r="D223" t="n">
+        <v>68.2</v>
+      </c>
+      <c r="E223" t="n">
+        <v>68.2</v>
+      </c>
+      <c r="F223" t="n">
+        <v>3703.931</v>
+      </c>
+      <c r="G223" t="n">
+        <v>-67918.53840761134</v>
+      </c>
+      <c r="H223" t="n">
+        <v>0</v>
+      </c>
+      <c r="I223" t="n">
+        <v>0</v>
+      </c>
+      <c r="J223" t="inlineStr"/>
+      <c r="K223" t="inlineStr"/>
+      <c r="L223" t="inlineStr"/>
+      <c r="M223" t="n">
+        <v>1</v>
+      </c>
+      <c r="N223" t="inlineStr"/>
+    </row>
+    <row r="224">
+      <c r="A224" s="1" t="n">
+        <v>222</v>
+      </c>
+      <c r="B224" t="n">
+        <v>68.90000000000001</v>
+      </c>
+      <c r="C224" t="n">
+        <v>68.90000000000001</v>
+      </c>
+      <c r="D224" t="n">
+        <v>68.90000000000001</v>
+      </c>
+      <c r="E224" t="n">
+        <v>68.90000000000001</v>
+      </c>
+      <c r="F224" t="n">
+        <v>296.069</v>
+      </c>
+      <c r="G224" t="n">
+        <v>-67622.46940761134</v>
+      </c>
+      <c r="H224" t="n">
+        <v>0</v>
+      </c>
+      <c r="I224" t="n">
+        <v>0</v>
+      </c>
+      <c r="J224" t="inlineStr"/>
+      <c r="K224" t="inlineStr"/>
+      <c r="L224" t="inlineStr"/>
+      <c r="M224" t="n">
+        <v>1</v>
+      </c>
+      <c r="N224" t="inlineStr"/>
+    </row>
+    <row r="225">
+      <c r="A225" s="1" t="n">
+        <v>223</v>
+      </c>
+      <c r="B225" t="n">
+        <v>69.25</v>
+      </c>
+      <c r="C225" t="n">
+        <v>69.3</v>
+      </c>
+      <c r="D225" t="n">
+        <v>69.3</v>
+      </c>
+      <c r="E225" t="n">
+        <v>69.25</v>
+      </c>
+      <c r="F225" t="n">
+        <v>12817.4487</v>
+      </c>
+      <c r="G225" t="n">
+        <v>-54805.02070761134</v>
+      </c>
+      <c r="H225" t="n">
+        <v>0</v>
+      </c>
+      <c r="I225" t="n">
+        <v>0</v>
+      </c>
+      <c r="J225" t="inlineStr"/>
+      <c r="K225" t="inlineStr"/>
+      <c r="L225" t="inlineStr"/>
+      <c r="M225" t="n">
+        <v>1</v>
+      </c>
+      <c r="N225" t="inlineStr"/>
+    </row>
+    <row r="226">
+      <c r="A226" s="1" t="n">
+        <v>224</v>
+      </c>
+      <c r="B226" t="n">
+        <v>69.43000000000001</v>
+      </c>
+      <c r="C226" t="n">
+        <v>69.64</v>
+      </c>
+      <c r="D226" t="n">
+        <v>69.64</v>
+      </c>
+      <c r="E226" t="n">
+        <v>69.43000000000001</v>
+      </c>
+      <c r="F226" t="n">
+        <v>14787.68565038815</v>
+      </c>
+      <c r="G226" t="n">
+        <v>-40017.33505722319</v>
+      </c>
+      <c r="H226" t="n">
+        <v>0</v>
+      </c>
+      <c r="I226" t="n">
+        <v>0</v>
+      </c>
+      <c r="J226" t="inlineStr"/>
+      <c r="K226" t="inlineStr"/>
+      <c r="L226" t="inlineStr"/>
+      <c r="M226" t="n">
+        <v>1</v>
+      </c>
+      <c r="N226" t="inlineStr"/>
+    </row>
+    <row r="227">
+      <c r="A227" s="1" t="n">
+        <v>225</v>
+      </c>
+      <c r="B227" t="n">
+        <v>69.69</v>
+      </c>
+      <c r="C227" t="n">
+        <v>69.8</v>
+      </c>
+      <c r="D227" t="n">
+        <v>69.8</v>
+      </c>
+      <c r="E227" t="n">
+        <v>69.69</v>
+      </c>
+      <c r="F227" t="n">
+        <v>32904.3365</v>
+      </c>
+      <c r="G227" t="n">
+        <v>-7112.998557223189</v>
+      </c>
+      <c r="H227" t="n">
+        <v>0</v>
+      </c>
+      <c r="I227" t="n">
+        <v>0</v>
+      </c>
+      <c r="J227" t="inlineStr"/>
+      <c r="K227" t="inlineStr"/>
+      <c r="L227" t="inlineStr"/>
+      <c r="M227" t="n">
+        <v>1</v>
+      </c>
+      <c r="N227" t="inlineStr"/>
+    </row>
+    <row r="228">
+      <c r="A228" s="1" t="n">
+        <v>226</v>
+      </c>
+      <c r="B228" t="n">
+        <v>69.83</v>
+      </c>
+      <c r="C228" t="n">
+        <v>69.98</v>
+      </c>
+      <c r="D228" t="n">
+        <v>69.98</v>
+      </c>
+      <c r="E228" t="n">
+        <v>69.83</v>
+      </c>
+      <c r="F228" t="n">
+        <v>4708.9945</v>
+      </c>
+      <c r="G228" t="n">
+        <v>-2404.004057223189</v>
+      </c>
+      <c r="H228" t="n">
+        <v>0</v>
+      </c>
+      <c r="I228" t="n">
+        <v>0</v>
+      </c>
+      <c r="J228" t="inlineStr"/>
+      <c r="K228" t="inlineStr"/>
+      <c r="L228" t="inlineStr"/>
+      <c r="M228" t="n">
+        <v>1</v>
+      </c>
+      <c r="N228" t="inlineStr"/>
+    </row>
+    <row r="229">
+      <c r="A229" s="1" t="n">
+        <v>227</v>
+      </c>
+      <c r="B229" t="n">
+        <v>69.98</v>
+      </c>
+      <c r="C229" t="n">
+        <v>68</v>
+      </c>
+      <c r="D229" t="n">
+        <v>70</v>
+      </c>
+      <c r="E229" t="n">
+        <v>68</v>
+      </c>
+      <c r="F229" t="n">
+        <v>34748.1512</v>
+      </c>
+      <c r="G229" t="n">
+        <v>-37152.15525722319</v>
+      </c>
+      <c r="H229" t="n">
+        <v>0</v>
+      </c>
+      <c r="I229" t="n">
+        <v>1</v>
+      </c>
+      <c r="J229" t="inlineStr"/>
+      <c r="K229" t="inlineStr"/>
+      <c r="L229" t="inlineStr"/>
+      <c r="M229" t="n">
+        <v>1</v>
+      </c>
+      <c r="N229" t="inlineStr"/>
+    </row>
+    <row r="230">
+      <c r="A230" s="1" t="n">
+        <v>228</v>
+      </c>
+      <c r="B230" t="n">
+        <v>68.8</v>
+      </c>
+      <c r="C230" t="n">
+        <v>69.83</v>
+      </c>
+      <c r="D230" t="n">
+        <v>69.83</v>
+      </c>
+      <c r="E230" t="n">
+        <v>68.8</v>
+      </c>
+      <c r="F230" t="n">
+        <v>110</v>
+      </c>
+      <c r="G230" t="n">
+        <v>-37042.15525722319</v>
+      </c>
+      <c r="H230" t="n">
+        <v>0</v>
+      </c>
+      <c r="I230" t="n">
+        <v>0</v>
+      </c>
+      <c r="J230" t="inlineStr"/>
+      <c r="K230" t="inlineStr"/>
+      <c r="L230" t="inlineStr"/>
+      <c r="M230" t="n">
+        <v>1</v>
+      </c>
+      <c r="N230" t="inlineStr"/>
+    </row>
+    <row r="231">
+      <c r="A231" s="1" t="n">
+        <v>229</v>
+      </c>
+      <c r="B231" t="n">
         <v>69.06</v>
       </c>
-      <c r="C160" t="n">
+      <c r="C231" t="n">
         <v>69.06</v>
       </c>
-      <c r="D160" t="n">
+      <c r="D231" t="n">
         <v>69.06</v>
       </c>
-      <c r="E160" t="n">
+      <c r="E231" t="n">
         <v>69.06</v>
       </c>
-      <c r="F160" t="n">
+      <c r="F231" t="n">
         <v>1988.9411</v>
       </c>
-      <c r="G160" t="n">
+      <c r="G231" t="n">
         <v>-39031.09635722318</v>
       </c>
-      <c r="H160" t="n">
-        <v>0</v>
-      </c>
-      <c r="I160" t="n">
-        <v>1</v>
-      </c>
-      <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
-      <c r="L160" t="inlineStr"/>
-      <c r="M160" t="n">
-        <v>1</v>
-      </c>
-      <c r="N160" t="inlineStr"/>
+      <c r="H231" t="n">
+        <v>0</v>
+      </c>
+      <c r="I231" t="n">
+        <v>0</v>
+      </c>
+      <c r="J231" t="inlineStr"/>
+      <c r="K231" t="inlineStr"/>
+      <c r="L231" t="inlineStr"/>
+      <c r="M231" t="n">
+        <v>1</v>
+      </c>
+      <c r="N231" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/BackTest/2020-01-21 BackTest FX.xlsx
+++ b/BackTest/2020-01-21 BackTest FX.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N231"/>
+  <dimension ref="A1:M231"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,35 +399,30 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>low_check</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>high_check</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -458,16 +453,13 @@
       <c r="H2" t="n">
         <v>0</v>
       </c>
-      <c r="I2" t="n">
-        <v>1</v>
-      </c>
+      <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N2" t="inlineStr"/>
+      <c r="L2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -494,16 +486,13 @@
       <c r="H3" t="n">
         <v>0</v>
       </c>
-      <c r="I3" t="n">
-        <v>1</v>
-      </c>
+      <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N3" t="inlineStr"/>
+      <c r="L3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -528,18 +517,15 @@
         <v>-73809.85570682607</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N4" t="inlineStr"/>
+      <c r="L4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -564,18 +550,15 @@
         <v>-80333.85570682607</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="n">
-        <v>1</v>
-      </c>
-      <c r="N5" t="inlineStr"/>
+      <c r="L5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -602,16 +585,13 @@
       <c r="H6" t="n">
         <v>0</v>
       </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
+      <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
-        <v>1</v>
-      </c>
-      <c r="N6" t="inlineStr"/>
+      <c r="L6" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -638,16 +618,13 @@
       <c r="H7" t="n">
         <v>0</v>
       </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
+      <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="n">
-        <v>1</v>
-      </c>
-      <c r="N7" t="inlineStr"/>
+      <c r="L7" t="n">
+        <v>1</v>
+      </c>
+      <c r="M7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -674,16 +651,13 @@
       <c r="H8" t="n">
         <v>0</v>
       </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
+      <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="n">
-        <v>1</v>
-      </c>
-      <c r="N8" t="inlineStr"/>
+      <c r="L8" t="n">
+        <v>1</v>
+      </c>
+      <c r="M8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -708,18 +682,15 @@
         <v>-80616.35780682607</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="n">
-        <v>1</v>
-      </c>
-      <c r="N9" t="inlineStr"/>
+      <c r="L9" t="n">
+        <v>1</v>
+      </c>
+      <c r="M9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -746,16 +717,13 @@
       <c r="H10" t="n">
         <v>0</v>
       </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
+      <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="n">
-        <v>1</v>
-      </c>
-      <c r="N10" t="inlineStr"/>
+      <c r="L10" t="n">
+        <v>1</v>
+      </c>
+      <c r="M10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -782,16 +750,13 @@
       <c r="H11" t="n">
         <v>0</v>
       </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
+      <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
-      <c r="M11" t="n">
-        <v>1</v>
-      </c>
-      <c r="N11" t="inlineStr"/>
+      <c r="L11" t="n">
+        <v>1</v>
+      </c>
+      <c r="M11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -818,16 +783,13 @@
       <c r="H12" t="n">
         <v>0</v>
       </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
+      <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
-      <c r="M12" t="n">
-        <v>1</v>
-      </c>
-      <c r="N12" t="inlineStr"/>
+      <c r="L12" t="n">
+        <v>1</v>
+      </c>
+      <c r="M12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -854,16 +816,13 @@
       <c r="H13" t="n">
         <v>0</v>
       </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
+      <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
-      <c r="M13" t="n">
-        <v>1</v>
-      </c>
-      <c r="N13" t="inlineStr"/>
+      <c r="L13" t="n">
+        <v>1</v>
+      </c>
+      <c r="M13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -890,16 +849,13 @@
       <c r="H14" t="n">
         <v>0</v>
       </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
+      <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
-      <c r="M14" t="n">
-        <v>1</v>
-      </c>
-      <c r="N14" t="inlineStr"/>
+      <c r="L14" t="n">
+        <v>1</v>
+      </c>
+      <c r="M14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -926,16 +882,13 @@
       <c r="H15" t="n">
         <v>0</v>
       </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
+      <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
-      <c r="M15" t="n">
-        <v>1</v>
-      </c>
-      <c r="N15" t="inlineStr"/>
+      <c r="L15" t="n">
+        <v>1</v>
+      </c>
+      <c r="M15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -962,16 +915,13 @@
       <c r="H16" t="n">
         <v>0</v>
       </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
+      <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
-      <c r="M16" t="n">
-        <v>1</v>
-      </c>
-      <c r="N16" t="inlineStr"/>
+      <c r="L16" t="n">
+        <v>1</v>
+      </c>
+      <c r="M16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -998,16 +948,13 @@
       <c r="H17" t="n">
         <v>0</v>
       </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
+      <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
-      <c r="M17" t="n">
-        <v>1</v>
-      </c>
-      <c r="N17" t="inlineStr"/>
+      <c r="L17" t="n">
+        <v>1</v>
+      </c>
+      <c r="M17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1034,16 +981,13 @@
       <c r="H18" t="n">
         <v>0</v>
       </c>
-      <c r="I18" t="n">
-        <v>0</v>
-      </c>
+      <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
-      <c r="M18" t="n">
-        <v>1</v>
-      </c>
-      <c r="N18" t="inlineStr"/>
+      <c r="L18" t="n">
+        <v>1</v>
+      </c>
+      <c r="M18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1070,16 +1014,13 @@
       <c r="H19" t="n">
         <v>0</v>
       </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
+      <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
-      <c r="M19" t="n">
-        <v>1</v>
-      </c>
-      <c r="N19" t="inlineStr"/>
+      <c r="L19" t="n">
+        <v>1</v>
+      </c>
+      <c r="M19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1106,16 +1047,13 @@
       <c r="H20" t="n">
         <v>0</v>
       </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
+      <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
-      <c r="M20" t="n">
-        <v>1</v>
-      </c>
-      <c r="N20" t="inlineStr"/>
+      <c r="L20" t="n">
+        <v>1</v>
+      </c>
+      <c r="M20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1142,16 +1080,13 @@
       <c r="H21" t="n">
         <v>0</v>
       </c>
-      <c r="I21" t="n">
-        <v>0</v>
-      </c>
+      <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
-      <c r="M21" t="n">
-        <v>1</v>
-      </c>
-      <c r="N21" t="inlineStr"/>
+      <c r="L21" t="n">
+        <v>1</v>
+      </c>
+      <c r="M21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1178,16 +1113,13 @@
       <c r="H22" t="n">
         <v>0</v>
       </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
+      <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
-      <c r="M22" t="n">
-        <v>1</v>
-      </c>
-      <c r="N22" t="inlineStr"/>
+      <c r="L22" t="n">
+        <v>1</v>
+      </c>
+      <c r="M22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1214,16 +1146,13 @@
       <c r="H23" t="n">
         <v>0</v>
       </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
+      <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
-      <c r="M23" t="n">
-        <v>1</v>
-      </c>
-      <c r="N23" t="inlineStr"/>
+      <c r="L23" t="n">
+        <v>1</v>
+      </c>
+      <c r="M23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1250,16 +1179,13 @@
       <c r="H24" t="n">
         <v>0</v>
       </c>
-      <c r="I24" t="n">
-        <v>0</v>
-      </c>
+      <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
-      <c r="M24" t="n">
-        <v>1</v>
-      </c>
-      <c r="N24" t="inlineStr"/>
+      <c r="L24" t="n">
+        <v>1</v>
+      </c>
+      <c r="M24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1286,16 +1212,13 @@
       <c r="H25" t="n">
         <v>0</v>
       </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
+      <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
-      <c r="M25" t="n">
-        <v>1</v>
-      </c>
-      <c r="N25" t="inlineStr"/>
+      <c r="L25" t="n">
+        <v>1</v>
+      </c>
+      <c r="M25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1322,16 +1245,13 @@
       <c r="H26" t="n">
         <v>0</v>
       </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
+      <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
-      <c r="M26" t="n">
-        <v>1</v>
-      </c>
-      <c r="N26" t="inlineStr"/>
+      <c r="L26" t="n">
+        <v>1</v>
+      </c>
+      <c r="M26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1358,16 +1278,13 @@
       <c r="H27" t="n">
         <v>0</v>
       </c>
-      <c r="I27" t="n">
-        <v>0</v>
-      </c>
+      <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
-      <c r="M27" t="n">
-        <v>1</v>
-      </c>
-      <c r="N27" t="inlineStr"/>
+      <c r="L27" t="n">
+        <v>1</v>
+      </c>
+      <c r="M27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1394,16 +1311,13 @@
       <c r="H28" t="n">
         <v>0</v>
       </c>
-      <c r="I28" t="n">
-        <v>0</v>
-      </c>
+      <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
-      <c r="M28" t="n">
-        <v>1</v>
-      </c>
-      <c r="N28" t="inlineStr"/>
+      <c r="L28" t="n">
+        <v>1</v>
+      </c>
+      <c r="M28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1430,16 +1344,13 @@
       <c r="H29" t="n">
         <v>0</v>
       </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
+      <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
-      <c r="M29" t="n">
-        <v>1</v>
-      </c>
-      <c r="N29" t="inlineStr"/>
+      <c r="L29" t="n">
+        <v>1</v>
+      </c>
+      <c r="M29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1466,16 +1377,13 @@
       <c r="H30" t="n">
         <v>0</v>
       </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
+      <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
-      <c r="M30" t="n">
-        <v>1</v>
-      </c>
-      <c r="N30" t="inlineStr"/>
+      <c r="L30" t="n">
+        <v>1</v>
+      </c>
+      <c r="M30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1502,16 +1410,13 @@
       <c r="H31" t="n">
         <v>0</v>
       </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
+      <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
-      <c r="M31" t="n">
-        <v>1</v>
-      </c>
-      <c r="N31" t="inlineStr"/>
+      <c r="L31" t="n">
+        <v>1</v>
+      </c>
+      <c r="M31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1538,16 +1443,13 @@
       <c r="H32" t="n">
         <v>0</v>
       </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
+      <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
-      <c r="M32" t="n">
-        <v>1</v>
-      </c>
-      <c r="N32" t="inlineStr"/>
+      <c r="L32" t="n">
+        <v>1</v>
+      </c>
+      <c r="M32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1574,16 +1476,13 @@
       <c r="H33" t="n">
         <v>0</v>
       </c>
-      <c r="I33" t="n">
-        <v>0</v>
-      </c>
+      <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
-      <c r="M33" t="n">
-        <v>1</v>
-      </c>
-      <c r="N33" t="inlineStr"/>
+      <c r="L33" t="n">
+        <v>1</v>
+      </c>
+      <c r="M33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1610,16 +1509,13 @@
       <c r="H34" t="n">
         <v>0</v>
       </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
+      <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
-      <c r="M34" t="n">
-        <v>1</v>
-      </c>
-      <c r="N34" t="inlineStr"/>
+      <c r="L34" t="n">
+        <v>1</v>
+      </c>
+      <c r="M34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1646,16 +1542,13 @@
       <c r="H35" t="n">
         <v>0</v>
       </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
+      <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
-      <c r="M35" t="n">
-        <v>1</v>
-      </c>
-      <c r="N35" t="inlineStr"/>
+      <c r="L35" t="n">
+        <v>1</v>
+      </c>
+      <c r="M35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1682,16 +1575,13 @@
       <c r="H36" t="n">
         <v>0</v>
       </c>
-      <c r="I36" t="n">
-        <v>0</v>
-      </c>
+      <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
-      <c r="M36" t="n">
-        <v>1</v>
-      </c>
-      <c r="N36" t="inlineStr"/>
+      <c r="L36" t="n">
+        <v>1</v>
+      </c>
+      <c r="M36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1716,18 +1606,15 @@
         <v>-84432.84210682606</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
-      </c>
-      <c r="I37" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
-      <c r="M37" t="n">
-        <v>1</v>
-      </c>
-      <c r="N37" t="inlineStr"/>
+      <c r="L37" t="n">
+        <v>1</v>
+      </c>
+      <c r="M37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1754,16 +1641,13 @@
       <c r="H38" t="n">
         <v>0</v>
       </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
+      <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr"/>
-      <c r="M38" t="n">
-        <v>1</v>
-      </c>
-      <c r="N38" t="inlineStr"/>
+      <c r="L38" t="n">
+        <v>1</v>
+      </c>
+      <c r="M38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1790,16 +1674,13 @@
       <c r="H39" t="n">
         <v>0</v>
       </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
+      <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
-      <c r="M39" t="n">
-        <v>1</v>
-      </c>
-      <c r="N39" t="inlineStr"/>
+      <c r="L39" t="n">
+        <v>1</v>
+      </c>
+      <c r="M39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1826,16 +1707,13 @@
       <c r="H40" t="n">
         <v>0</v>
       </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
+      <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
-      <c r="M40" t="n">
-        <v>1</v>
-      </c>
-      <c r="N40" t="inlineStr"/>
+      <c r="L40" t="n">
+        <v>1</v>
+      </c>
+      <c r="M40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1862,16 +1740,13 @@
       <c r="H41" t="n">
         <v>0</v>
       </c>
-      <c r="I41" t="n">
-        <v>0</v>
-      </c>
+      <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
-      <c r="M41" t="n">
-        <v>1</v>
-      </c>
-      <c r="N41" t="inlineStr"/>
+      <c r="L41" t="n">
+        <v>1</v>
+      </c>
+      <c r="M41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1898,16 +1773,13 @@
       <c r="H42" t="n">
         <v>0</v>
       </c>
-      <c r="I42" t="n">
-        <v>0</v>
-      </c>
+      <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr"/>
-      <c r="M42" t="n">
-        <v>1</v>
-      </c>
-      <c r="N42" t="inlineStr"/>
+      <c r="L42" t="n">
+        <v>1</v>
+      </c>
+      <c r="M42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1934,16 +1806,13 @@
       <c r="H43" t="n">
         <v>0</v>
       </c>
-      <c r="I43" t="n">
-        <v>0</v>
-      </c>
+      <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr"/>
-      <c r="M43" t="n">
-        <v>1</v>
-      </c>
-      <c r="N43" t="inlineStr"/>
+      <c r="L43" t="n">
+        <v>1</v>
+      </c>
+      <c r="M43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1970,16 +1839,13 @@
       <c r="H44" t="n">
         <v>0</v>
       </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
+      <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr"/>
-      <c r="M44" t="n">
-        <v>1</v>
-      </c>
-      <c r="N44" t="inlineStr"/>
+      <c r="L44" t="n">
+        <v>1</v>
+      </c>
+      <c r="M44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2006,16 +1872,13 @@
       <c r="H45" t="n">
         <v>0</v>
       </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
+      <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr"/>
-      <c r="M45" t="n">
-        <v>1</v>
-      </c>
-      <c r="N45" t="inlineStr"/>
+      <c r="L45" t="n">
+        <v>1</v>
+      </c>
+      <c r="M45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2042,16 +1905,13 @@
       <c r="H46" t="n">
         <v>0</v>
       </c>
-      <c r="I46" t="n">
-        <v>0</v>
-      </c>
+      <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr"/>
-      <c r="M46" t="n">
-        <v>1</v>
-      </c>
-      <c r="N46" t="inlineStr"/>
+      <c r="L46" t="n">
+        <v>1</v>
+      </c>
+      <c r="M46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2078,16 +1938,13 @@
       <c r="H47" t="n">
         <v>0</v>
       </c>
-      <c r="I47" t="n">
-        <v>0</v>
-      </c>
+      <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
-      <c r="M47" t="n">
-        <v>1</v>
-      </c>
-      <c r="N47" t="inlineStr"/>
+      <c r="L47" t="n">
+        <v>1</v>
+      </c>
+      <c r="M47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2114,16 +1971,13 @@
       <c r="H48" t="n">
         <v>0</v>
       </c>
-      <c r="I48" t="n">
-        <v>0</v>
-      </c>
+      <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
-      <c r="M48" t="n">
-        <v>1</v>
-      </c>
-      <c r="N48" t="inlineStr"/>
+      <c r="L48" t="n">
+        <v>1</v>
+      </c>
+      <c r="M48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2150,16 +2004,13 @@
       <c r="H49" t="n">
         <v>0</v>
       </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
+      <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr"/>
-      <c r="M49" t="n">
-        <v>1</v>
-      </c>
-      <c r="N49" t="inlineStr"/>
+      <c r="L49" t="n">
+        <v>1</v>
+      </c>
+      <c r="M49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2186,16 +2037,13 @@
       <c r="H50" t="n">
         <v>0</v>
       </c>
-      <c r="I50" t="n">
-        <v>0</v>
-      </c>
+      <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr"/>
-      <c r="M50" t="n">
-        <v>1</v>
-      </c>
-      <c r="N50" t="inlineStr"/>
+      <c r="L50" t="n">
+        <v>1</v>
+      </c>
+      <c r="M50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2222,16 +2070,13 @@
       <c r="H51" t="n">
         <v>0</v>
       </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
+      <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr"/>
-      <c r="M51" t="n">
-        <v>1</v>
-      </c>
-      <c r="N51" t="inlineStr"/>
+      <c r="L51" t="n">
+        <v>1</v>
+      </c>
+      <c r="M51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2258,16 +2103,13 @@
       <c r="H52" t="n">
         <v>0</v>
       </c>
-      <c r="I52" t="n">
-        <v>0</v>
-      </c>
+      <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr"/>
-      <c r="M52" t="n">
-        <v>1</v>
-      </c>
-      <c r="N52" t="inlineStr"/>
+      <c r="L52" t="n">
+        <v>1</v>
+      </c>
+      <c r="M52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2294,16 +2136,13 @@
       <c r="H53" t="n">
         <v>0</v>
       </c>
-      <c r="I53" t="n">
-        <v>0</v>
-      </c>
+      <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr"/>
-      <c r="M53" t="n">
-        <v>1</v>
-      </c>
-      <c r="N53" t="inlineStr"/>
+      <c r="L53" t="n">
+        <v>1</v>
+      </c>
+      <c r="M53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2330,16 +2169,13 @@
       <c r="H54" t="n">
         <v>0</v>
       </c>
-      <c r="I54" t="n">
-        <v>0</v>
-      </c>
+      <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr"/>
-      <c r="M54" t="n">
-        <v>1</v>
-      </c>
-      <c r="N54" t="inlineStr"/>
+      <c r="L54" t="n">
+        <v>1</v>
+      </c>
+      <c r="M54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2366,16 +2202,13 @@
       <c r="H55" t="n">
         <v>0</v>
       </c>
-      <c r="I55" t="n">
-        <v>0</v>
-      </c>
+      <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr"/>
-      <c r="M55" t="n">
-        <v>1</v>
-      </c>
-      <c r="N55" t="inlineStr"/>
+      <c r="L55" t="n">
+        <v>1</v>
+      </c>
+      <c r="M55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2402,16 +2235,13 @@
       <c r="H56" t="n">
         <v>0</v>
       </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
+      <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr"/>
-      <c r="M56" t="n">
-        <v>1</v>
-      </c>
-      <c r="N56" t="inlineStr"/>
+      <c r="L56" t="n">
+        <v>1</v>
+      </c>
+      <c r="M56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2438,16 +2268,13 @@
       <c r="H57" t="n">
         <v>0</v>
       </c>
-      <c r="I57" t="n">
-        <v>0</v>
-      </c>
+      <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr"/>
-      <c r="M57" t="n">
-        <v>1</v>
-      </c>
-      <c r="N57" t="inlineStr"/>
+      <c r="L57" t="n">
+        <v>1</v>
+      </c>
+      <c r="M57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2474,16 +2301,13 @@
       <c r="H58" t="n">
         <v>0</v>
       </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
+      <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr"/>
-      <c r="M58" t="n">
-        <v>1</v>
-      </c>
-      <c r="N58" t="inlineStr"/>
+      <c r="L58" t="n">
+        <v>1</v>
+      </c>
+      <c r="M58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2510,16 +2334,13 @@
       <c r="H59" t="n">
         <v>0</v>
       </c>
-      <c r="I59" t="n">
-        <v>0</v>
-      </c>
+      <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr"/>
-      <c r="M59" t="n">
-        <v>1</v>
-      </c>
-      <c r="N59" t="inlineStr"/>
+      <c r="L59" t="n">
+        <v>1</v>
+      </c>
+      <c r="M59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2546,16 +2367,13 @@
       <c r="H60" t="n">
         <v>0</v>
       </c>
-      <c r="I60" t="n">
-        <v>0</v>
-      </c>
+      <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr"/>
-      <c r="M60" t="n">
-        <v>1</v>
-      </c>
-      <c r="N60" t="inlineStr"/>
+      <c r="L60" t="n">
+        <v>1</v>
+      </c>
+      <c r="M60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2582,16 +2400,13 @@
       <c r="H61" t="n">
         <v>0</v>
       </c>
-      <c r="I61" t="n">
-        <v>0</v>
-      </c>
+      <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr"/>
-      <c r="M61" t="n">
-        <v>1</v>
-      </c>
-      <c r="N61" t="inlineStr"/>
+      <c r="L61" t="n">
+        <v>1</v>
+      </c>
+      <c r="M61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2618,16 +2433,13 @@
       <c r="H62" t="n">
         <v>0</v>
       </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
+      <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr"/>
-      <c r="M62" t="n">
-        <v>1</v>
-      </c>
-      <c r="N62" t="inlineStr"/>
+      <c r="L62" t="n">
+        <v>1</v>
+      </c>
+      <c r="M62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2654,16 +2466,13 @@
       <c r="H63" t="n">
         <v>0</v>
       </c>
-      <c r="I63" t="n">
-        <v>0</v>
-      </c>
+      <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr"/>
-      <c r="M63" t="n">
-        <v>1</v>
-      </c>
-      <c r="N63" t="inlineStr"/>
+      <c r="L63" t="n">
+        <v>1</v>
+      </c>
+      <c r="M63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2690,16 +2499,13 @@
       <c r="H64" t="n">
         <v>0</v>
       </c>
-      <c r="I64" t="n">
-        <v>0</v>
-      </c>
+      <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr"/>
-      <c r="M64" t="n">
-        <v>1</v>
-      </c>
-      <c r="N64" t="inlineStr"/>
+      <c r="L64" t="n">
+        <v>1</v>
+      </c>
+      <c r="M64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2726,16 +2532,13 @@
       <c r="H65" t="n">
         <v>0</v>
       </c>
-      <c r="I65" t="n">
-        <v>0</v>
-      </c>
+      <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr"/>
-      <c r="M65" t="n">
-        <v>1</v>
-      </c>
-      <c r="N65" t="inlineStr"/>
+      <c r="L65" t="n">
+        <v>1</v>
+      </c>
+      <c r="M65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2762,16 +2565,13 @@
       <c r="H66" t="n">
         <v>0</v>
       </c>
-      <c r="I66" t="n">
-        <v>0</v>
-      </c>
+      <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr"/>
-      <c r="M66" t="n">
-        <v>1</v>
-      </c>
-      <c r="N66" t="inlineStr"/>
+      <c r="L66" t="n">
+        <v>1</v>
+      </c>
+      <c r="M66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2798,16 +2598,13 @@
       <c r="H67" t="n">
         <v>0</v>
       </c>
-      <c r="I67" t="n">
-        <v>0</v>
-      </c>
+      <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr"/>
-      <c r="M67" t="n">
-        <v>1</v>
-      </c>
-      <c r="N67" t="inlineStr"/>
+      <c r="L67" t="n">
+        <v>1</v>
+      </c>
+      <c r="M67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2834,16 +2631,13 @@
       <c r="H68" t="n">
         <v>0</v>
       </c>
-      <c r="I68" t="n">
-        <v>0</v>
-      </c>
+      <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr"/>
-      <c r="M68" t="n">
-        <v>1</v>
-      </c>
-      <c r="N68" t="inlineStr"/>
+      <c r="L68" t="n">
+        <v>1</v>
+      </c>
+      <c r="M68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2868,22 +2662,15 @@
         <v>-94710.20510682606</v>
       </c>
       <c r="H69" t="n">
-        <v>1</v>
-      </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
-      <c r="J69" t="n">
-        <v>66.70999999999999</v>
-      </c>
-      <c r="K69" t="n">
-        <v>66.70999999999999</v>
-      </c>
-      <c r="L69" t="inlineStr"/>
-      <c r="M69" t="n">
-        <v>1</v>
-      </c>
-      <c r="N69" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I69" t="inlineStr"/>
+      <c r="J69" t="inlineStr"/>
+      <c r="K69" t="inlineStr"/>
+      <c r="L69" t="n">
+        <v>1</v>
+      </c>
+      <c r="M69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2910,22 +2697,13 @@
       <c r="H70" t="n">
         <v>0</v>
       </c>
-      <c r="I70" t="n">
-        <v>0</v>
-      </c>
+      <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="n">
-        <v>66.70999999999999</v>
-      </c>
-      <c r="L70" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M70" t="n">
-        <v>1</v>
-      </c>
-      <c r="N70" t="inlineStr"/>
+      <c r="K70" t="inlineStr"/>
+      <c r="L70" t="n">
+        <v>1</v>
+      </c>
+      <c r="M70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2952,22 +2730,13 @@
       <c r="H71" t="n">
         <v>0</v>
       </c>
-      <c r="I71" t="n">
-        <v>0</v>
-      </c>
+      <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="n">
-        <v>66.70999999999999</v>
-      </c>
-      <c r="L71" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M71" t="n">
-        <v>1</v>
-      </c>
-      <c r="N71" t="inlineStr"/>
+      <c r="K71" t="inlineStr"/>
+      <c r="L71" t="n">
+        <v>1</v>
+      </c>
+      <c r="M71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2992,18 +2761,21 @@
         <v>-96593.49590682607</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I72" t="n">
-        <v>0</v>
+        <v>66.83</v>
       </c>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr"/>
-      <c r="M72" t="n">
-        <v>1</v>
-      </c>
-      <c r="N72" t="inlineStr"/>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="L72" t="n">
+        <v>1</v>
+      </c>
+      <c r="M72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3028,22 +2800,19 @@
         <v>-97539.77150682606</v>
       </c>
       <c r="H73" t="n">
-        <v>1</v>
-      </c>
-      <c r="I73" t="n">
-        <v>0</v>
-      </c>
-      <c r="J73" t="n">
-        <v>66.70999999999999</v>
-      </c>
-      <c r="K73" t="n">
-        <v>66.70999999999999</v>
-      </c>
-      <c r="L73" t="inlineStr"/>
-      <c r="M73" t="n">
-        <v>1</v>
-      </c>
-      <c r="N73" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I73" t="inlineStr"/>
+      <c r="J73" t="inlineStr"/>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L73" t="n">
+        <v>1</v>
+      </c>
+      <c r="M73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3068,26 +2837,19 @@
         <v>-97429.77150682606</v>
       </c>
       <c r="H74" t="n">
-        <v>1</v>
-      </c>
-      <c r="I74" t="n">
-        <v>0</v>
-      </c>
-      <c r="J74" t="n">
-        <v>66.5</v>
-      </c>
-      <c r="K74" t="n">
-        <v>66.70999999999999</v>
-      </c>
-      <c r="L74" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="I74" t="inlineStr"/>
+      <c r="J74" t="inlineStr"/>
+      <c r="K74" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
-      <c r="M74" t="n">
-        <v>1</v>
-      </c>
-      <c r="N74" t="inlineStr"/>
+      <c r="L74" t="n">
+        <v>1</v>
+      </c>
+      <c r="M74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3112,26 +2874,19 @@
         <v>-100704.0622068261</v>
       </c>
       <c r="H75" t="n">
-        <v>1</v>
-      </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
-      <c r="J75" t="n">
-        <v>67</v>
-      </c>
-      <c r="K75" t="n">
-        <v>66.70999999999999</v>
-      </c>
-      <c r="L75" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="I75" t="inlineStr"/>
+      <c r="J75" t="inlineStr"/>
+      <c r="K75" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M75" t="n">
-        <v>1</v>
-      </c>
-      <c r="N75" t="inlineStr"/>
+      <c r="L75" t="n">
+        <v>1</v>
+      </c>
+      <c r="M75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3156,26 +2911,21 @@
         <v>-100704.0622068261</v>
       </c>
       <c r="H76" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I76" t="n">
-        <v>0</v>
-      </c>
-      <c r="J76" t="n">
         <v>66.5</v>
       </c>
-      <c r="K76" t="n">
-        <v>66.70999999999999</v>
-      </c>
-      <c r="L76" t="inlineStr">
+      <c r="J76" t="inlineStr"/>
+      <c r="K76" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M76" t="n">
-        <v>1</v>
-      </c>
-      <c r="N76" t="inlineStr"/>
+      <c r="L76" t="n">
+        <v>1</v>
+      </c>
+      <c r="M76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3200,26 +2950,19 @@
         <v>-100615.1401068261</v>
       </c>
       <c r="H77" t="n">
-        <v>1</v>
-      </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
-      <c r="J77" t="n">
-        <v>66.5</v>
-      </c>
-      <c r="K77" t="n">
-        <v>66.70999999999999</v>
-      </c>
-      <c r="L77" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="I77" t="inlineStr"/>
+      <c r="J77" t="inlineStr"/>
+      <c r="K77" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M77" t="n">
-        <v>1</v>
-      </c>
-      <c r="N77" t="inlineStr"/>
+      <c r="L77" t="n">
+        <v>1</v>
+      </c>
+      <c r="M77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3244,26 +2987,19 @@
         <v>-105524.1401068261</v>
       </c>
       <c r="H78" t="n">
-        <v>1</v>
-      </c>
-      <c r="I78" t="n">
-        <v>0</v>
-      </c>
-      <c r="J78" t="n">
-        <v>66.58</v>
-      </c>
-      <c r="K78" t="n">
-        <v>66.70999999999999</v>
-      </c>
-      <c r="L78" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="I78" t="inlineStr"/>
+      <c r="J78" t="inlineStr"/>
+      <c r="K78" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M78" t="n">
-        <v>1</v>
-      </c>
-      <c r="N78" t="inlineStr"/>
+      <c r="L78" t="n">
+        <v>1</v>
+      </c>
+      <c r="M78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3288,26 +3024,19 @@
         <v>-101702.9408936619</v>
       </c>
       <c r="H79" t="n">
-        <v>1</v>
-      </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
-      <c r="J79" t="n">
-        <v>66.31</v>
-      </c>
-      <c r="K79" t="n">
-        <v>66.70999999999999</v>
-      </c>
-      <c r="L79" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="I79" t="inlineStr"/>
+      <c r="J79" t="inlineStr"/>
+      <c r="K79" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M79" t="n">
-        <v>1</v>
-      </c>
-      <c r="N79" t="inlineStr"/>
+      <c r="L79" t="n">
+        <v>1</v>
+      </c>
+      <c r="M79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3332,26 +3061,21 @@
         <v>-107378.4170936619</v>
       </c>
       <c r="H80" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I80" t="n">
-        <v>0</v>
-      </c>
-      <c r="J80" t="n">
         <v>67</v>
       </c>
-      <c r="K80" t="n">
-        <v>66.70999999999999</v>
-      </c>
-      <c r="L80" t="inlineStr">
+      <c r="J80" t="inlineStr"/>
+      <c r="K80" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M80" t="n">
-        <v>1</v>
-      </c>
-      <c r="N80" t="inlineStr"/>
+      <c r="L80" t="n">
+        <v>1</v>
+      </c>
+      <c r="M80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3376,26 +3100,19 @@
         <v>-107378.4170936619</v>
       </c>
       <c r="H81" t="n">
-        <v>1</v>
-      </c>
-      <c r="I81" t="n">
-        <v>0</v>
-      </c>
-      <c r="J81" t="n">
-        <v>66.31</v>
-      </c>
-      <c r="K81" t="n">
-        <v>66.70999999999999</v>
-      </c>
-      <c r="L81" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="I81" t="inlineStr"/>
+      <c r="J81" t="inlineStr"/>
+      <c r="K81" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M81" t="n">
-        <v>1</v>
-      </c>
-      <c r="N81" t="inlineStr"/>
+      <c r="L81" t="n">
+        <v>1</v>
+      </c>
+      <c r="M81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3420,26 +3137,19 @@
         <v>-118025.7872936619</v>
       </c>
       <c r="H82" t="n">
-        <v>1</v>
-      </c>
-      <c r="I82" t="n">
-        <v>0</v>
-      </c>
-      <c r="J82" t="n">
-        <v>66.31</v>
-      </c>
-      <c r="K82" t="n">
-        <v>66.70999999999999</v>
-      </c>
-      <c r="L82" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="I82" t="inlineStr"/>
+      <c r="J82" t="inlineStr"/>
+      <c r="K82" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M82" t="n">
-        <v>1</v>
-      </c>
-      <c r="N82" t="inlineStr"/>
+      <c r="L82" t="n">
+        <v>1</v>
+      </c>
+      <c r="M82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3464,26 +3174,19 @@
         <v>-113161.5344936619</v>
       </c>
       <c r="H83" t="n">
-        <v>1</v>
-      </c>
-      <c r="I83" t="n">
-        <v>0</v>
-      </c>
-      <c r="J83" t="n">
-        <v>66.3</v>
-      </c>
-      <c r="K83" t="n">
-        <v>66.70999999999999</v>
-      </c>
-      <c r="L83" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="I83" t="inlineStr"/>
+      <c r="J83" t="inlineStr"/>
+      <c r="K83" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M83" t="n">
-        <v>1</v>
-      </c>
-      <c r="N83" t="inlineStr"/>
+      <c r="L83" t="n">
+        <v>1</v>
+      </c>
+      <c r="M83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3508,26 +3211,19 @@
         <v>-112161.5344936619</v>
       </c>
       <c r="H84" t="n">
-        <v>1</v>
-      </c>
-      <c r="I84" t="n">
-        <v>0</v>
-      </c>
-      <c r="J84" t="n">
-        <v>66.31</v>
-      </c>
-      <c r="K84" t="n">
-        <v>66.70999999999999</v>
-      </c>
-      <c r="L84" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="I84" t="inlineStr"/>
+      <c r="J84" t="inlineStr"/>
+      <c r="K84" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M84" t="n">
-        <v>1</v>
-      </c>
-      <c r="N84" t="inlineStr"/>
+      <c r="L84" t="n">
+        <v>1</v>
+      </c>
+      <c r="M84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3552,26 +3248,19 @@
         <v>-111061.5344936619</v>
       </c>
       <c r="H85" t="n">
-        <v>1</v>
-      </c>
-      <c r="I85" t="n">
-        <v>0</v>
-      </c>
-      <c r="J85" t="n">
-        <v>66.36</v>
-      </c>
-      <c r="K85" t="n">
-        <v>66.70999999999999</v>
-      </c>
-      <c r="L85" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="I85" t="inlineStr"/>
+      <c r="J85" t="inlineStr"/>
+      <c r="K85" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M85" t="n">
-        <v>1</v>
-      </c>
-      <c r="N85" t="inlineStr"/>
+      <c r="L85" t="n">
+        <v>1</v>
+      </c>
+      <c r="M85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3596,26 +3285,19 @@
         <v>-111111.3474936619</v>
       </c>
       <c r="H86" t="n">
-        <v>1</v>
-      </c>
-      <c r="I86" t="n">
-        <v>0</v>
-      </c>
-      <c r="J86" t="n">
-        <v>66.5</v>
-      </c>
-      <c r="K86" t="n">
-        <v>66.70999999999999</v>
-      </c>
-      <c r="L86" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="I86" t="inlineStr"/>
+      <c r="J86" t="inlineStr"/>
+      <c r="K86" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M86" t="n">
-        <v>1</v>
-      </c>
-      <c r="N86" t="inlineStr"/>
+      <c r="L86" t="n">
+        <v>1</v>
+      </c>
+      <c r="M86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3640,26 +3322,19 @@
         <v>-88389.17710682607</v>
       </c>
       <c r="H87" t="n">
-        <v>1</v>
-      </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
-      <c r="J87" t="n">
-        <v>66.36</v>
-      </c>
-      <c r="K87" t="n">
-        <v>66.70999999999999</v>
-      </c>
-      <c r="L87" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="I87" t="inlineStr"/>
+      <c r="J87" t="inlineStr"/>
+      <c r="K87" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M87" t="n">
-        <v>1</v>
-      </c>
-      <c r="N87" t="inlineStr"/>
+      <c r="L87" t="n">
+        <v>1</v>
+      </c>
+      <c r="M87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3686,22 +3361,17 @@
       <c r="H88" t="n">
         <v>0</v>
       </c>
-      <c r="I88" t="n">
-        <v>0</v>
-      </c>
+      <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="n">
-        <v>66.70999999999999</v>
-      </c>
-      <c r="L88" t="inlineStr">
+      <c r="K88" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M88" t="n">
-        <v>1</v>
-      </c>
-      <c r="N88" t="inlineStr"/>
+      <c r="L88" t="n">
+        <v>1</v>
+      </c>
+      <c r="M88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3726,24 +3396,19 @@
         <v>-89667.15320682607</v>
       </c>
       <c r="H89" t="n">
-        <v>0</v>
-      </c>
-      <c r="I89" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="n">
-        <v>66.70999999999999</v>
-      </c>
-      <c r="L89" t="inlineStr">
+      <c r="K89" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M89" t="n">
-        <v>1</v>
-      </c>
-      <c r="N89" t="inlineStr"/>
+      <c r="L89" t="n">
+        <v>1</v>
+      </c>
+      <c r="M89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3768,24 +3433,19 @@
         <v>-89211.14879366189</v>
       </c>
       <c r="H90" t="n">
-        <v>0</v>
-      </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="n">
-        <v>66.70999999999999</v>
-      </c>
-      <c r="L90" t="inlineStr">
+      <c r="K90" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M90" t="n">
-        <v>1</v>
-      </c>
-      <c r="N90" t="inlineStr"/>
+      <c r="L90" t="n">
+        <v>1</v>
+      </c>
+      <c r="M90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3810,24 +3470,19 @@
         <v>-89211.14879366189</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
-      </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="n">
-        <v>66.70999999999999</v>
-      </c>
-      <c r="L91" t="inlineStr">
+      <c r="K91" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M91" t="n">
-        <v>1</v>
-      </c>
-      <c r="N91" t="inlineStr"/>
+      <c r="L91" t="n">
+        <v>1</v>
+      </c>
+      <c r="M91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3852,24 +3507,19 @@
         <v>-89203.14879366189</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
-      </c>
-      <c r="I92" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="n">
-        <v>66.70999999999999</v>
-      </c>
-      <c r="L92" t="inlineStr">
+      <c r="K92" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M92" t="n">
-        <v>1</v>
-      </c>
-      <c r="N92" t="inlineStr"/>
+      <c r="L92" t="n">
+        <v>1</v>
+      </c>
+      <c r="M92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3894,24 +3544,19 @@
         <v>-89779.14879366189</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
-      </c>
-      <c r="I93" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="n">
-        <v>66.70999999999999</v>
-      </c>
-      <c r="L93" t="inlineStr">
+      <c r="K93" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M93" t="n">
-        <v>1</v>
-      </c>
-      <c r="N93" t="inlineStr"/>
+      <c r="L93" t="n">
+        <v>1</v>
+      </c>
+      <c r="M93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3936,24 +3581,19 @@
         <v>-89779.14879366189</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
-      </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="n">
-        <v>66.70999999999999</v>
-      </c>
-      <c r="L94" t="inlineStr">
+      <c r="K94" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M94" t="n">
-        <v>1</v>
-      </c>
-      <c r="N94" t="inlineStr"/>
+      <c r="L94" t="n">
+        <v>1</v>
+      </c>
+      <c r="M94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3978,24 +3618,19 @@
         <v>-89058.14879366189</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
-      </c>
-      <c r="I95" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="n">
-        <v>66.70999999999999</v>
-      </c>
-      <c r="L95" t="inlineStr">
+      <c r="K95" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M95" t="n">
-        <v>1</v>
-      </c>
-      <c r="N95" t="inlineStr"/>
+      <c r="L95" t="n">
+        <v>1</v>
+      </c>
+      <c r="M95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -4020,24 +3655,19 @@
         <v>-89286.9193936619</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
-      </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="n">
-        <v>66.70999999999999</v>
-      </c>
-      <c r="L96" t="inlineStr">
+      <c r="K96" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M96" t="n">
-        <v>1</v>
-      </c>
-      <c r="N96" t="inlineStr"/>
+      <c r="L96" t="n">
+        <v>1</v>
+      </c>
+      <c r="M96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -4062,24 +3692,19 @@
         <v>-90553.0320936619</v>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
-      </c>
-      <c r="I97" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="n">
-        <v>66.70999999999999</v>
-      </c>
-      <c r="L97" t="inlineStr">
+      <c r="K97" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M97" t="n">
-        <v>1</v>
-      </c>
-      <c r="N97" t="inlineStr"/>
+      <c r="L97" t="n">
+        <v>1</v>
+      </c>
+      <c r="M97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -4104,24 +3729,19 @@
         <v>-90430.25599366189</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
-      </c>
-      <c r="I98" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="n">
-        <v>66.70999999999999</v>
-      </c>
-      <c r="L98" t="inlineStr">
+      <c r="K98" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M98" t="n">
-        <v>1</v>
-      </c>
-      <c r="N98" t="inlineStr"/>
+      <c r="L98" t="n">
+        <v>1</v>
+      </c>
+      <c r="M98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -4148,22 +3768,17 @@
       <c r="H99" t="n">
         <v>0</v>
       </c>
-      <c r="I99" t="n">
-        <v>0</v>
-      </c>
+      <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="n">
-        <v>66.70999999999999</v>
-      </c>
-      <c r="L99" t="inlineStr">
+      <c r="K99" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M99" t="n">
-        <v>1</v>
-      </c>
-      <c r="N99" t="inlineStr"/>
+      <c r="L99" t="n">
+        <v>1</v>
+      </c>
+      <c r="M99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -4190,22 +3805,17 @@
       <c r="H100" t="n">
         <v>0</v>
       </c>
-      <c r="I100" t="n">
-        <v>0</v>
-      </c>
+      <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="n">
-        <v>66.70999999999999</v>
-      </c>
-      <c r="L100" t="inlineStr">
+      <c r="K100" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M100" t="n">
-        <v>1</v>
-      </c>
-      <c r="N100" t="inlineStr"/>
+      <c r="L100" t="n">
+        <v>1</v>
+      </c>
+      <c r="M100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4230,24 +3840,19 @@
         <v>-100092.2006936619</v>
       </c>
       <c r="H101" t="n">
-        <v>0</v>
-      </c>
-      <c r="I101" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="n">
-        <v>66.70999999999999</v>
-      </c>
-      <c r="L101" t="inlineStr">
+      <c r="K101" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M101" t="n">
-        <v>1</v>
-      </c>
-      <c r="N101" t="inlineStr"/>
+      <c r="L101" t="n">
+        <v>1</v>
+      </c>
+      <c r="M101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4272,24 +3877,19 @@
         <v>-100092.2006936619</v>
       </c>
       <c r="H102" t="n">
-        <v>0</v>
-      </c>
-      <c r="I102" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="n">
-        <v>66.70999999999999</v>
-      </c>
-      <c r="L102" t="inlineStr">
+      <c r="K102" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M102" t="n">
-        <v>1</v>
-      </c>
-      <c r="N102" t="inlineStr"/>
+      <c r="L102" t="n">
+        <v>1</v>
+      </c>
+      <c r="M102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4316,22 +3916,17 @@
       <c r="H103" t="n">
         <v>0</v>
       </c>
-      <c r="I103" t="n">
-        <v>0</v>
-      </c>
+      <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="n">
-        <v>66.70999999999999</v>
-      </c>
-      <c r="L103" t="inlineStr">
+      <c r="K103" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M103" t="n">
-        <v>1</v>
-      </c>
-      <c r="N103" t="inlineStr"/>
+      <c r="L103" t="n">
+        <v>1</v>
+      </c>
+      <c r="M103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4356,24 +3951,19 @@
         <v>-100059.5990936619</v>
       </c>
       <c r="H104" t="n">
-        <v>0</v>
-      </c>
-      <c r="I104" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="n">
-        <v>66.70999999999999</v>
-      </c>
-      <c r="L104" t="inlineStr">
+      <c r="K104" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M104" t="n">
-        <v>1</v>
-      </c>
-      <c r="N104" t="inlineStr"/>
+      <c r="L104" t="n">
+        <v>1</v>
+      </c>
+      <c r="M104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4398,24 +3988,19 @@
         <v>-103277.4500936619</v>
       </c>
       <c r="H105" t="n">
-        <v>0</v>
-      </c>
-      <c r="I105" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="n">
-        <v>66.70999999999999</v>
-      </c>
-      <c r="L105" t="inlineStr">
+      <c r="K105" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M105" t="n">
-        <v>1</v>
-      </c>
-      <c r="N105" t="inlineStr"/>
+      <c r="L105" t="n">
+        <v>1</v>
+      </c>
+      <c r="M105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4442,24 +4027,17 @@
       <c r="H106" t="n">
         <v>1</v>
       </c>
-      <c r="I106" t="n">
-        <v>0</v>
-      </c>
-      <c r="J106" t="n">
-        <v>66.5</v>
-      </c>
-      <c r="K106" t="n">
-        <v>66.70999999999999</v>
-      </c>
-      <c r="L106" t="inlineStr">
+      <c r="I106" t="inlineStr"/>
+      <c r="J106" t="inlineStr"/>
+      <c r="K106" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M106" t="n">
-        <v>1</v>
-      </c>
-      <c r="N106" t="inlineStr"/>
+      <c r="L106" t="n">
+        <v>1</v>
+      </c>
+      <c r="M106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4484,26 +4062,19 @@
         <v>-103267.4500936619</v>
       </c>
       <c r="H107" t="n">
-        <v>1</v>
-      </c>
-      <c r="I107" t="n">
-        <v>0</v>
-      </c>
-      <c r="J107" t="n">
-        <v>66.5</v>
-      </c>
-      <c r="K107" t="n">
-        <v>66.70999999999999</v>
-      </c>
-      <c r="L107" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="I107" t="inlineStr"/>
+      <c r="J107" t="inlineStr"/>
+      <c r="K107" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M107" t="n">
-        <v>1</v>
-      </c>
-      <c r="N107" t="inlineStr"/>
+      <c r="L107" t="n">
+        <v>1</v>
+      </c>
+      <c r="M107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4528,24 +4099,19 @@
         <v>-103267.4500936619</v>
       </c>
       <c r="H108" t="n">
-        <v>0</v>
-      </c>
-      <c r="I108" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="n">
-        <v>66.70999999999999</v>
-      </c>
-      <c r="L108" t="inlineStr">
+      <c r="K108" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M108" t="n">
-        <v>1</v>
-      </c>
-      <c r="N108" t="inlineStr"/>
+      <c r="L108" t="n">
+        <v>1</v>
+      </c>
+      <c r="M108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4570,24 +4136,19 @@
         <v>-103566.4029936619</v>
       </c>
       <c r="H109" t="n">
-        <v>0</v>
-      </c>
-      <c r="I109" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="n">
-        <v>66.70999999999999</v>
-      </c>
-      <c r="L109" t="inlineStr">
+      <c r="K109" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M109" t="n">
-        <v>1</v>
-      </c>
-      <c r="N109" t="inlineStr"/>
+      <c r="L109" t="n">
+        <v>1</v>
+      </c>
+      <c r="M109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4612,24 +4173,19 @@
         <v>-103574.4029936619</v>
       </c>
       <c r="H110" t="n">
-        <v>0</v>
-      </c>
-      <c r="I110" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="n">
-        <v>66.70999999999999</v>
-      </c>
-      <c r="L110" t="inlineStr">
+      <c r="K110" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M110" t="n">
-        <v>1</v>
-      </c>
-      <c r="N110" t="inlineStr"/>
+      <c r="L110" t="n">
+        <v>1</v>
+      </c>
+      <c r="M110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4656,22 +4212,17 @@
       <c r="H111" t="n">
         <v>0</v>
       </c>
-      <c r="I111" t="n">
-        <v>0</v>
-      </c>
+      <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="n">
-        <v>66.70999999999999</v>
-      </c>
-      <c r="L111" t="inlineStr">
+      <c r="K111" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M111" t="n">
-        <v>1</v>
-      </c>
-      <c r="N111" t="inlineStr"/>
+      <c r="L111" t="n">
+        <v>1</v>
+      </c>
+      <c r="M111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4696,24 +4247,19 @@
         <v>-103223.2799936619</v>
       </c>
       <c r="H112" t="n">
-        <v>0</v>
-      </c>
-      <c r="I112" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="n">
-        <v>66.70999999999999</v>
-      </c>
-      <c r="L112" t="inlineStr">
+      <c r="K112" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M112" t="n">
-        <v>1</v>
-      </c>
-      <c r="N112" t="inlineStr"/>
+      <c r="L112" t="n">
+        <v>1</v>
+      </c>
+      <c r="M112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4740,22 +4286,17 @@
       <c r="H113" t="n">
         <v>0</v>
       </c>
-      <c r="I113" t="n">
-        <v>0</v>
-      </c>
+      <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="n">
-        <v>66.70999999999999</v>
-      </c>
-      <c r="L113" t="inlineStr">
+      <c r="K113" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M113" t="n">
-        <v>1</v>
-      </c>
-      <c r="N113" t="inlineStr"/>
+      <c r="L113" t="n">
+        <v>1</v>
+      </c>
+      <c r="M113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4782,22 +4323,17 @@
       <c r="H114" t="n">
         <v>0</v>
       </c>
-      <c r="I114" t="n">
-        <v>0</v>
-      </c>
+      <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="n">
-        <v>66.70999999999999</v>
-      </c>
-      <c r="L114" t="inlineStr">
+      <c r="K114" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M114" t="n">
-        <v>1</v>
-      </c>
-      <c r="N114" t="inlineStr"/>
+      <c r="L114" t="n">
+        <v>1</v>
+      </c>
+      <c r="M114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4824,22 +4360,17 @@
       <c r="H115" t="n">
         <v>0</v>
       </c>
-      <c r="I115" t="n">
-        <v>0</v>
-      </c>
+      <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="n">
-        <v>66.70999999999999</v>
-      </c>
-      <c r="L115" t="inlineStr">
+      <c r="K115" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M115" t="n">
-        <v>1</v>
-      </c>
-      <c r="N115" t="inlineStr"/>
+      <c r="L115" t="n">
+        <v>1</v>
+      </c>
+      <c r="M115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4866,22 +4397,17 @@
       <c r="H116" t="n">
         <v>0</v>
       </c>
-      <c r="I116" t="n">
-        <v>0</v>
-      </c>
+      <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="n">
-        <v>66.70999999999999</v>
-      </c>
-      <c r="L116" t="inlineStr">
+      <c r="K116" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M116" t="n">
-        <v>1</v>
-      </c>
-      <c r="N116" t="inlineStr"/>
+      <c r="L116" t="n">
+        <v>1</v>
+      </c>
+      <c r="M116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4908,22 +4434,17 @@
       <c r="H117" t="n">
         <v>0</v>
       </c>
-      <c r="I117" t="n">
-        <v>0</v>
-      </c>
+      <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="n">
-        <v>66.70999999999999</v>
-      </c>
-      <c r="L117" t="inlineStr">
+      <c r="K117" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M117" t="n">
-        <v>1</v>
-      </c>
-      <c r="N117" t="inlineStr"/>
+      <c r="L117" t="n">
+        <v>1</v>
+      </c>
+      <c r="M117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4950,22 +4471,17 @@
       <c r="H118" t="n">
         <v>0</v>
       </c>
-      <c r="I118" t="n">
-        <v>0</v>
-      </c>
+      <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="n">
-        <v>66.70999999999999</v>
-      </c>
-      <c r="L118" t="inlineStr">
+      <c r="K118" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M118" t="n">
-        <v>1</v>
-      </c>
-      <c r="N118" t="inlineStr"/>
+      <c r="L118" t="n">
+        <v>1</v>
+      </c>
+      <c r="M118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4990,24 +4506,21 @@
         <v>-110040.6361732003</v>
       </c>
       <c r="H119" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I119" t="n">
-        <v>0</v>
+        <v>66.40000000000001</v>
       </c>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="n">
-        <v>66.70999999999999</v>
-      </c>
-      <c r="L119" t="inlineStr">
+      <c r="K119" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M119" t="n">
-        <v>1</v>
-      </c>
-      <c r="N119" t="inlineStr"/>
+      <c r="L119" t="n">
+        <v>1</v>
+      </c>
+      <c r="M119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -5034,22 +4547,17 @@
       <c r="H120" t="n">
         <v>0</v>
       </c>
-      <c r="I120" t="n">
-        <v>0</v>
-      </c>
+      <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="n">
-        <v>66.70999999999999</v>
-      </c>
-      <c r="L120" t="inlineStr">
+      <c r="K120" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M120" t="n">
-        <v>1</v>
-      </c>
-      <c r="N120" t="inlineStr"/>
+      <c r="L120" t="n">
+        <v>1</v>
+      </c>
+      <c r="M120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -5076,22 +4584,17 @@
       <c r="H121" t="n">
         <v>0</v>
       </c>
-      <c r="I121" t="n">
-        <v>0</v>
-      </c>
+      <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="n">
-        <v>66.70999999999999</v>
-      </c>
-      <c r="L121" t="inlineStr">
+      <c r="K121" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M121" t="n">
-        <v>1</v>
-      </c>
-      <c r="N121" t="inlineStr"/>
+      <c r="L121" t="n">
+        <v>1</v>
+      </c>
+      <c r="M121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -5118,22 +4621,17 @@
       <c r="H122" t="n">
         <v>0</v>
       </c>
-      <c r="I122" t="n">
-        <v>0</v>
-      </c>
+      <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="n">
-        <v>66.70999999999999</v>
-      </c>
-      <c r="L122" t="inlineStr">
+      <c r="K122" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M122" t="n">
-        <v>1</v>
-      </c>
-      <c r="N122" t="inlineStr"/>
+      <c r="L122" t="n">
+        <v>1</v>
+      </c>
+      <c r="M122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -5160,22 +4658,17 @@
       <c r="H123" t="n">
         <v>0</v>
       </c>
-      <c r="I123" t="n">
-        <v>0</v>
-      </c>
+      <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="n">
-        <v>66.70999999999999</v>
-      </c>
-      <c r="L123" t="inlineStr">
+      <c r="K123" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M123" t="n">
-        <v>1</v>
-      </c>
-      <c r="N123" t="inlineStr"/>
+      <c r="L123" t="n">
+        <v>1</v>
+      </c>
+      <c r="M123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -5202,22 +4695,17 @@
       <c r="H124" t="n">
         <v>0</v>
       </c>
-      <c r="I124" t="n">
-        <v>0</v>
-      </c>
+      <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="n">
-        <v>66.70999999999999</v>
-      </c>
-      <c r="L124" t="inlineStr">
+      <c r="K124" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M124" t="n">
-        <v>1</v>
-      </c>
-      <c r="N124" t="inlineStr"/>
+      <c r="L124" t="n">
+        <v>1</v>
+      </c>
+      <c r="M124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -5242,26 +4730,21 @@
         <v>-111127.1935732003</v>
       </c>
       <c r="H125" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I125" t="n">
-        <v>0</v>
-      </c>
-      <c r="J125" t="n">
         <v>66.39</v>
       </c>
-      <c r="K125" t="n">
-        <v>66.70999999999999</v>
-      </c>
-      <c r="L125" t="inlineStr">
+      <c r="J125" t="inlineStr"/>
+      <c r="K125" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M125" t="n">
-        <v>1</v>
-      </c>
-      <c r="N125" t="inlineStr"/>
+      <c r="L125" t="n">
+        <v>1</v>
+      </c>
+      <c r="M125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -5286,26 +4769,21 @@
         <v>-124900.5276732003</v>
       </c>
       <c r="H126" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I126" t="n">
-        <v>0</v>
-      </c>
-      <c r="J126" t="n">
         <v>66.59999999999999</v>
       </c>
-      <c r="K126" t="n">
-        <v>66.70999999999999</v>
-      </c>
-      <c r="L126" t="inlineStr">
+      <c r="J126" t="inlineStr"/>
+      <c r="K126" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M126" t="n">
-        <v>1</v>
-      </c>
-      <c r="N126" t="inlineStr"/>
+      <c r="L126" t="n">
+        <v>1</v>
+      </c>
+      <c r="M126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -5330,26 +4808,21 @@
         <v>-124892.5276732003</v>
       </c>
       <c r="H127" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I127" t="n">
-        <v>0</v>
-      </c>
-      <c r="J127" t="n">
         <v>66.41</v>
       </c>
-      <c r="K127" t="n">
-        <v>66.70999999999999</v>
-      </c>
-      <c r="L127" t="inlineStr">
+      <c r="J127" t="inlineStr"/>
+      <c r="K127" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M127" t="n">
-        <v>1</v>
-      </c>
-      <c r="N127" t="inlineStr"/>
+      <c r="L127" t="n">
+        <v>1</v>
+      </c>
+      <c r="M127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -5374,26 +4847,21 @@
         <v>-125024.5584732003</v>
       </c>
       <c r="H128" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I128" t="n">
-        <v>0</v>
-      </c>
-      <c r="J128" t="n">
         <v>66.5</v>
       </c>
-      <c r="K128" t="n">
-        <v>66.70999999999999</v>
-      </c>
-      <c r="L128" t="inlineStr">
+      <c r="J128" t="inlineStr"/>
+      <c r="K128" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M128" t="n">
-        <v>1</v>
-      </c>
-      <c r="N128" t="inlineStr"/>
+      <c r="L128" t="n">
+        <v>1</v>
+      </c>
+      <c r="M128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -5418,26 +4886,21 @@
         <v>-125024.5584732003</v>
       </c>
       <c r="H129" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I129" t="n">
-        <v>0</v>
-      </c>
-      <c r="J129" t="n">
         <v>66.41</v>
       </c>
-      <c r="K129" t="n">
-        <v>66.70999999999999</v>
-      </c>
-      <c r="L129" t="inlineStr">
+      <c r="J129" t="inlineStr"/>
+      <c r="K129" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M129" t="n">
-        <v>1</v>
-      </c>
-      <c r="N129" t="inlineStr"/>
+      <c r="L129" t="n">
+        <v>1</v>
+      </c>
+      <c r="M129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -5462,24 +4925,21 @@
         <v>-125006.3784732003</v>
       </c>
       <c r="H130" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I130" t="n">
-        <v>0</v>
+        <v>66.41</v>
       </c>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="n">
-        <v>66.70999999999999</v>
-      </c>
-      <c r="L130" t="inlineStr">
+      <c r="K130" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M130" t="n">
-        <v>1</v>
-      </c>
-      <c r="N130" t="inlineStr"/>
+      <c r="L130" t="n">
+        <v>1</v>
+      </c>
+      <c r="M130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -5504,26 +4964,21 @@
         <v>-124986.3784732003</v>
       </c>
       <c r="H131" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I131" t="n">
-        <v>0</v>
-      </c>
-      <c r="J131" t="n">
         <v>66.42</v>
       </c>
-      <c r="K131" t="n">
-        <v>66.70999999999999</v>
-      </c>
-      <c r="L131" t="inlineStr">
+      <c r="J131" t="inlineStr"/>
+      <c r="K131" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M131" t="n">
-        <v>1</v>
-      </c>
-      <c r="N131" t="inlineStr"/>
+      <c r="L131" t="n">
+        <v>1</v>
+      </c>
+      <c r="M131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -5548,24 +5003,21 @@
         <v>-125140.0089732003</v>
       </c>
       <c r="H132" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I132" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="n">
-        <v>66.70999999999999</v>
-      </c>
-      <c r="L132" t="inlineStr">
+      <c r="K132" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M132" t="n">
-        <v>1</v>
-      </c>
-      <c r="N132" t="inlineStr"/>
+      <c r="L132" t="n">
+        <v>1</v>
+      </c>
+      <c r="M132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -5592,22 +5044,17 @@
       <c r="H133" t="n">
         <v>0</v>
       </c>
-      <c r="I133" t="n">
-        <v>0</v>
-      </c>
+      <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="n">
-        <v>66.70999999999999</v>
-      </c>
-      <c r="L133" t="inlineStr">
+      <c r="K133" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M133" t="n">
-        <v>1</v>
-      </c>
-      <c r="N133" t="inlineStr"/>
+      <c r="L133" t="n">
+        <v>1</v>
+      </c>
+      <c r="M133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -5632,26 +5079,21 @@
         <v>-126591.4568732003</v>
       </c>
       <c r="H134" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I134" t="n">
-        <v>0</v>
-      </c>
-      <c r="J134" t="n">
         <v>66.59999999999999</v>
       </c>
-      <c r="K134" t="n">
-        <v>66.70999999999999</v>
-      </c>
-      <c r="L134" t="inlineStr">
+      <c r="J134" t="inlineStr"/>
+      <c r="K134" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M134" t="n">
-        <v>1</v>
-      </c>
-      <c r="N134" t="inlineStr"/>
+      <c r="L134" t="n">
+        <v>1</v>
+      </c>
+      <c r="M134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -5676,24 +5118,21 @@
         <v>-126087.3705732003</v>
       </c>
       <c r="H135" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I135" t="n">
-        <v>0</v>
+        <v>66.98999999999999</v>
       </c>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="n">
-        <v>66.70999999999999</v>
-      </c>
-      <c r="L135" t="inlineStr">
+      <c r="K135" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M135" t="n">
-        <v>1</v>
-      </c>
-      <c r="N135" t="inlineStr"/>
+      <c r="L135" t="n">
+        <v>1</v>
+      </c>
+      <c r="M135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -5718,24 +5157,21 @@
         <v>-126322.8314732003</v>
       </c>
       <c r="H136" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I136" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="n">
-        <v>66.70999999999999</v>
-      </c>
-      <c r="L136" t="inlineStr">
+      <c r="K136" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M136" t="n">
-        <v>1</v>
-      </c>
-      <c r="N136" t="inlineStr"/>
+      <c r="L136" t="n">
+        <v>1</v>
+      </c>
+      <c r="M136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -5760,24 +5196,21 @@
         <v>-128405.0193732003</v>
       </c>
       <c r="H137" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I137" t="n">
-        <v>0</v>
+        <v>66.59999999999999</v>
       </c>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="n">
-        <v>66.70999999999999</v>
-      </c>
-      <c r="L137" t="inlineStr">
+      <c r="K137" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M137" t="n">
-        <v>1</v>
-      </c>
-      <c r="N137" t="inlineStr"/>
+      <c r="L137" t="n">
+        <v>1</v>
+      </c>
+      <c r="M137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -5802,24 +5235,21 @@
         <v>-117578.7937460361</v>
       </c>
       <c r="H138" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I138" t="n">
-        <v>0</v>
+        <v>66.5</v>
       </c>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="n">
-        <v>66.70999999999999</v>
-      </c>
-      <c r="L138" t="inlineStr">
+      <c r="K138" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M138" t="n">
-        <v>1</v>
-      </c>
-      <c r="N138" t="inlineStr"/>
+      <c r="L138" t="n">
+        <v>1</v>
+      </c>
+      <c r="M138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -5844,24 +5274,21 @@
         <v>-116608.0062460361</v>
       </c>
       <c r="H139" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I139" t="n">
-        <v>0</v>
+        <v>67.5</v>
       </c>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="n">
-        <v>66.70999999999999</v>
-      </c>
-      <c r="L139" t="inlineStr">
+      <c r="K139" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M139" t="n">
-        <v>1</v>
-      </c>
-      <c r="N139" t="inlineStr"/>
+      <c r="L139" t="n">
+        <v>1</v>
+      </c>
+      <c r="M139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5886,24 +5313,21 @@
         <v>-82558.3467592003</v>
       </c>
       <c r="H140" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I140" t="n">
-        <v>0</v>
+        <v>67.77</v>
       </c>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="n">
-        <v>66.70999999999999</v>
-      </c>
-      <c r="L140" t="inlineStr">
+      <c r="K140" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M140" t="n">
-        <v>1</v>
-      </c>
-      <c r="N140" t="inlineStr"/>
+      <c r="L140" t="n">
+        <v>1</v>
+      </c>
+      <c r="M140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5930,22 +5354,17 @@
       <c r="H141" t="n">
         <v>0</v>
       </c>
-      <c r="I141" t="n">
-        <v>0</v>
-      </c>
+      <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="n">
-        <v>66.70999999999999</v>
-      </c>
-      <c r="L141" t="inlineStr">
+      <c r="K141" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M141" t="n">
-        <v>1</v>
-      </c>
-      <c r="N141" t="inlineStr"/>
+      <c r="L141" t="n">
+        <v>1</v>
+      </c>
+      <c r="M141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -5972,22 +5391,17 @@
       <c r="H142" t="n">
         <v>0</v>
       </c>
-      <c r="I142" t="n">
-        <v>0</v>
-      </c>
+      <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="n">
-        <v>66.70999999999999</v>
-      </c>
-      <c r="L142" t="inlineStr">
+      <c r="K142" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M142" t="n">
-        <v>1</v>
-      </c>
-      <c r="N142" t="inlineStr"/>
+      <c r="L142" t="n">
+        <v>1</v>
+      </c>
+      <c r="M142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -6012,24 +5426,17 @@
         <v>-67525.65457502639</v>
       </c>
       <c r="H143" t="n">
-        <v>0</v>
-      </c>
-      <c r="I143" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="n">
-        <v>66.70999999999999</v>
-      </c>
-      <c r="L143" t="inlineStr">
+      <c r="K143" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
-      <c r="M143" t="n">
-        <v>1</v>
-      </c>
-      <c r="N143" t="inlineStr"/>
+      <c r="L143" t="inlineStr"/>
+      <c r="M143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -6056,22 +5463,13 @@
       <c r="H144" t="n">
         <v>0</v>
       </c>
-      <c r="I144" t="n">
-        <v>0</v>
-      </c>
+      <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="n">
-        <v>66.70999999999999</v>
-      </c>
-      <c r="L144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M144" t="n">
-        <v>1</v>
-      </c>
-      <c r="N144" t="inlineStr"/>
+      <c r="K144" t="inlineStr"/>
+      <c r="L144" t="n">
+        <v>1</v>
+      </c>
+      <c r="M144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -6098,22 +5496,13 @@
       <c r="H145" t="n">
         <v>0</v>
       </c>
-      <c r="I145" t="n">
-        <v>0</v>
-      </c>
+      <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="n">
-        <v>66.70999999999999</v>
-      </c>
-      <c r="L145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M145" t="n">
-        <v>1</v>
-      </c>
-      <c r="N145" t="inlineStr"/>
+      <c r="K145" t="inlineStr"/>
+      <c r="L145" t="n">
+        <v>1</v>
+      </c>
+      <c r="M145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -6140,22 +5529,13 @@
       <c r="H146" t="n">
         <v>0</v>
       </c>
-      <c r="I146" t="n">
-        <v>0</v>
-      </c>
+      <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="n">
-        <v>66.70999999999999</v>
-      </c>
-      <c r="L146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M146" t="n">
-        <v>1</v>
-      </c>
-      <c r="N146" t="inlineStr"/>
+      <c r="K146" t="inlineStr"/>
+      <c r="L146" t="n">
+        <v>1</v>
+      </c>
+      <c r="M146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -6182,22 +5562,13 @@
       <c r="H147" t="n">
         <v>0</v>
       </c>
-      <c r="I147" t="n">
-        <v>0</v>
-      </c>
+      <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
-      <c r="K147" t="n">
-        <v>66.70999999999999</v>
-      </c>
-      <c r="L147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M147" t="n">
-        <v>1</v>
-      </c>
-      <c r="N147" t="inlineStr"/>
+      <c r="K147" t="inlineStr"/>
+      <c r="L147" t="n">
+        <v>1</v>
+      </c>
+      <c r="M147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -6224,22 +5595,13 @@
       <c r="H148" t="n">
         <v>0</v>
       </c>
-      <c r="I148" t="n">
-        <v>0</v>
-      </c>
+      <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
-      <c r="K148" t="n">
-        <v>66.70999999999999</v>
-      </c>
-      <c r="L148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M148" t="n">
-        <v>1</v>
-      </c>
-      <c r="N148" t="inlineStr"/>
+      <c r="K148" t="inlineStr"/>
+      <c r="L148" t="n">
+        <v>1</v>
+      </c>
+      <c r="M148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -6266,22 +5628,13 @@
       <c r="H149" t="n">
         <v>0</v>
       </c>
-      <c r="I149" t="n">
-        <v>0</v>
-      </c>
+      <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
-      <c r="K149" t="n">
-        <v>66.70999999999999</v>
-      </c>
-      <c r="L149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M149" t="n">
-        <v>1</v>
-      </c>
-      <c r="N149" t="inlineStr"/>
+      <c r="K149" t="inlineStr"/>
+      <c r="L149" t="n">
+        <v>1</v>
+      </c>
+      <c r="M149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -6308,22 +5661,13 @@
       <c r="H150" t="n">
         <v>0</v>
       </c>
-      <c r="I150" t="n">
-        <v>0</v>
-      </c>
+      <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
-      <c r="K150" t="n">
-        <v>66.70999999999999</v>
-      </c>
-      <c r="L150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M150" t="n">
-        <v>1</v>
-      </c>
-      <c r="N150" t="inlineStr"/>
+      <c r="K150" t="inlineStr"/>
+      <c r="L150" t="n">
+        <v>1</v>
+      </c>
+      <c r="M150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -6350,22 +5694,13 @@
       <c r="H151" t="n">
         <v>0</v>
       </c>
-      <c r="I151" t="n">
-        <v>0</v>
-      </c>
+      <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
-      <c r="K151" t="n">
-        <v>66.70999999999999</v>
-      </c>
-      <c r="L151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M151" t="n">
-        <v>1</v>
-      </c>
-      <c r="N151" t="inlineStr"/>
+      <c r="K151" t="inlineStr"/>
+      <c r="L151" t="n">
+        <v>1</v>
+      </c>
+      <c r="M151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -6392,22 +5727,13 @@
       <c r="H152" t="n">
         <v>0</v>
       </c>
-      <c r="I152" t="n">
-        <v>0</v>
-      </c>
+      <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
-      <c r="K152" t="n">
-        <v>66.70999999999999</v>
-      </c>
-      <c r="L152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M152" t="n">
-        <v>1</v>
-      </c>
-      <c r="N152" t="inlineStr"/>
+      <c r="K152" t="inlineStr"/>
+      <c r="L152" t="n">
+        <v>1</v>
+      </c>
+      <c r="M152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -6434,22 +5760,13 @@
       <c r="H153" t="n">
         <v>0</v>
       </c>
-      <c r="I153" t="n">
-        <v>0</v>
-      </c>
+      <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
-      <c r="K153" t="n">
-        <v>66.70999999999999</v>
-      </c>
-      <c r="L153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M153" t="n">
-        <v>1</v>
-      </c>
-      <c r="N153" t="inlineStr"/>
+      <c r="K153" t="inlineStr"/>
+      <c r="L153" t="n">
+        <v>1</v>
+      </c>
+      <c r="M153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -6476,22 +5793,13 @@
       <c r="H154" t="n">
         <v>0</v>
       </c>
-      <c r="I154" t="n">
-        <v>0</v>
-      </c>
+      <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
-      <c r="K154" t="n">
-        <v>66.70999999999999</v>
-      </c>
-      <c r="L154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M154" t="n">
-        <v>1</v>
-      </c>
-      <c r="N154" t="inlineStr"/>
+      <c r="K154" t="inlineStr"/>
+      <c r="L154" t="n">
+        <v>1</v>
+      </c>
+      <c r="M154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -6518,22 +5826,13 @@
       <c r="H155" t="n">
         <v>0</v>
       </c>
-      <c r="I155" t="n">
-        <v>0</v>
-      </c>
+      <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
-      <c r="K155" t="n">
-        <v>66.70999999999999</v>
-      </c>
-      <c r="L155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M155" t="n">
-        <v>1</v>
-      </c>
-      <c r="N155" t="inlineStr"/>
+      <c r="K155" t="inlineStr"/>
+      <c r="L155" t="n">
+        <v>1</v>
+      </c>
+      <c r="M155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -6560,22 +5859,13 @@
       <c r="H156" t="n">
         <v>0</v>
       </c>
-      <c r="I156" t="n">
-        <v>0</v>
-      </c>
+      <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
-      <c r="K156" t="n">
-        <v>66.70999999999999</v>
-      </c>
-      <c r="L156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M156" t="n">
-        <v>1</v>
-      </c>
-      <c r="N156" t="inlineStr"/>
+      <c r="K156" t="inlineStr"/>
+      <c r="L156" t="n">
+        <v>1</v>
+      </c>
+      <c r="M156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -6602,22 +5892,13 @@
       <c r="H157" t="n">
         <v>0</v>
       </c>
-      <c r="I157" t="n">
-        <v>0</v>
-      </c>
+      <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
-      <c r="K157" t="n">
-        <v>66.70999999999999</v>
-      </c>
-      <c r="L157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M157" t="n">
-        <v>1</v>
-      </c>
-      <c r="N157" t="inlineStr"/>
+      <c r="K157" t="inlineStr"/>
+      <c r="L157" t="n">
+        <v>1</v>
+      </c>
+      <c r="M157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -6642,24 +5923,15 @@
         <v>-87097.86567502641</v>
       </c>
       <c r="H158" t="n">
-        <v>0</v>
-      </c>
-      <c r="I158" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
-      <c r="K158" t="n">
-        <v>66.70999999999999</v>
-      </c>
-      <c r="L158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M158" t="n">
-        <v>1</v>
-      </c>
-      <c r="N158" t="inlineStr"/>
+      <c r="K158" t="inlineStr"/>
+      <c r="L158" t="n">
+        <v>1</v>
+      </c>
+      <c r="M158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -6686,22 +5958,13 @@
       <c r="H159" t="n">
         <v>0</v>
       </c>
-      <c r="I159" t="n">
-        <v>0</v>
-      </c>
+      <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
-      <c r="K159" t="n">
-        <v>66.70999999999999</v>
-      </c>
-      <c r="L159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M159" t="n">
-        <v>1</v>
-      </c>
-      <c r="N159" t="inlineStr"/>
+      <c r="K159" t="inlineStr"/>
+      <c r="L159" t="n">
+        <v>1</v>
+      </c>
+      <c r="M159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -6728,22 +5991,13 @@
       <c r="H160" t="n">
         <v>0</v>
       </c>
-      <c r="I160" t="n">
-        <v>0</v>
-      </c>
+      <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
-      <c r="K160" t="n">
-        <v>66.70999999999999</v>
-      </c>
-      <c r="L160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M160" t="n">
-        <v>1</v>
-      </c>
-      <c r="N160" t="inlineStr"/>
+      <c r="K160" t="inlineStr"/>
+      <c r="L160" t="n">
+        <v>1</v>
+      </c>
+      <c r="M160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -6770,22 +6024,13 @@
       <c r="H161" t="n">
         <v>0</v>
       </c>
-      <c r="I161" t="n">
-        <v>0</v>
-      </c>
+      <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
-      <c r="K161" t="n">
-        <v>66.70999999999999</v>
-      </c>
-      <c r="L161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M161" t="n">
-        <v>1</v>
-      </c>
-      <c r="N161" t="inlineStr"/>
+      <c r="K161" t="inlineStr"/>
+      <c r="L161" t="n">
+        <v>1</v>
+      </c>
+      <c r="M161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -6812,22 +6057,13 @@
       <c r="H162" t="n">
         <v>0</v>
       </c>
-      <c r="I162" t="n">
-        <v>0</v>
-      </c>
+      <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
-      <c r="K162" t="n">
-        <v>66.70999999999999</v>
-      </c>
-      <c r="L162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M162" t="n">
-        <v>1</v>
-      </c>
-      <c r="N162" t="inlineStr"/>
+      <c r="K162" t="inlineStr"/>
+      <c r="L162" t="n">
+        <v>1</v>
+      </c>
+      <c r="M162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -6854,22 +6090,13 @@
       <c r="H163" t="n">
         <v>0</v>
       </c>
-      <c r="I163" t="n">
-        <v>0</v>
-      </c>
+      <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
-      <c r="K163" t="n">
-        <v>66.70999999999999</v>
-      </c>
-      <c r="L163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M163" t="n">
-        <v>1</v>
-      </c>
-      <c r="N163" t="inlineStr"/>
+      <c r="K163" t="inlineStr"/>
+      <c r="L163" t="n">
+        <v>1</v>
+      </c>
+      <c r="M163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -6896,22 +6123,13 @@
       <c r="H164" t="n">
         <v>0</v>
       </c>
-      <c r="I164" t="n">
-        <v>0</v>
-      </c>
+      <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
-      <c r="K164" t="n">
-        <v>66.70999999999999</v>
-      </c>
-      <c r="L164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M164" t="n">
-        <v>1</v>
-      </c>
-      <c r="N164" t="inlineStr"/>
+      <c r="K164" t="inlineStr"/>
+      <c r="L164" t="n">
+        <v>1</v>
+      </c>
+      <c r="M164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -6938,22 +6156,13 @@
       <c r="H165" t="n">
         <v>0</v>
       </c>
-      <c r="I165" t="n">
-        <v>0</v>
-      </c>
+      <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
-      <c r="K165" t="n">
-        <v>66.70999999999999</v>
-      </c>
-      <c r="L165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M165" t="n">
-        <v>1</v>
-      </c>
-      <c r="N165" t="inlineStr"/>
+      <c r="K165" t="inlineStr"/>
+      <c r="L165" t="n">
+        <v>1</v>
+      </c>
+      <c r="M165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -6980,22 +6189,13 @@
       <c r="H166" t="n">
         <v>0</v>
       </c>
-      <c r="I166" t="n">
-        <v>0</v>
-      </c>
+      <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
-      <c r="K166" t="n">
-        <v>66.70999999999999</v>
-      </c>
-      <c r="L166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M166" t="n">
-        <v>1</v>
-      </c>
-      <c r="N166" t="inlineStr"/>
+      <c r="K166" t="inlineStr"/>
+      <c r="L166" t="n">
+        <v>1</v>
+      </c>
+      <c r="M166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -7022,22 +6222,13 @@
       <c r="H167" t="n">
         <v>0</v>
       </c>
-      <c r="I167" t="n">
-        <v>0</v>
-      </c>
+      <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
-      <c r="K167" t="n">
-        <v>66.70999999999999</v>
-      </c>
-      <c r="L167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M167" t="n">
-        <v>1</v>
-      </c>
-      <c r="N167" t="inlineStr"/>
+      <c r="K167" t="inlineStr"/>
+      <c r="L167" t="n">
+        <v>1</v>
+      </c>
+      <c r="M167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -7064,22 +6255,13 @@
       <c r="H168" t="n">
         <v>0</v>
       </c>
-      <c r="I168" t="n">
-        <v>0</v>
-      </c>
+      <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
-      <c r="K168" t="n">
-        <v>66.70999999999999</v>
-      </c>
-      <c r="L168" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M168" t="n">
-        <v>1</v>
-      </c>
-      <c r="N168" t="inlineStr"/>
+      <c r="K168" t="inlineStr"/>
+      <c r="L168" t="n">
+        <v>1</v>
+      </c>
+      <c r="M168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -7106,22 +6288,13 @@
       <c r="H169" t="n">
         <v>0</v>
       </c>
-      <c r="I169" t="n">
-        <v>0</v>
-      </c>
+      <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
-      <c r="K169" t="n">
-        <v>66.70999999999999</v>
-      </c>
-      <c r="L169" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M169" t="n">
-        <v>1</v>
-      </c>
-      <c r="N169" t="inlineStr"/>
+      <c r="K169" t="inlineStr"/>
+      <c r="L169" t="n">
+        <v>1</v>
+      </c>
+      <c r="M169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -7148,22 +6321,13 @@
       <c r="H170" t="n">
         <v>0</v>
       </c>
-      <c r="I170" t="n">
-        <v>0</v>
-      </c>
+      <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
-      <c r="K170" t="n">
-        <v>66.70999999999999</v>
-      </c>
-      <c r="L170" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M170" t="n">
-        <v>1</v>
-      </c>
-      <c r="N170" t="inlineStr"/>
+      <c r="K170" t="inlineStr"/>
+      <c r="L170" t="n">
+        <v>1</v>
+      </c>
+      <c r="M170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
@@ -7190,22 +6354,13 @@
       <c r="H171" t="n">
         <v>0</v>
       </c>
-      <c r="I171" t="n">
-        <v>0</v>
-      </c>
+      <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
-      <c r="K171" t="n">
-        <v>66.70999999999999</v>
-      </c>
-      <c r="L171" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M171" t="n">
-        <v>1</v>
-      </c>
-      <c r="N171" t="inlineStr"/>
+      <c r="K171" t="inlineStr"/>
+      <c r="L171" t="n">
+        <v>1</v>
+      </c>
+      <c r="M171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
@@ -7232,22 +6387,13 @@
       <c r="H172" t="n">
         <v>0</v>
       </c>
-      <c r="I172" t="n">
-        <v>0</v>
-      </c>
+      <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
-      <c r="K172" t="n">
-        <v>66.70999999999999</v>
-      </c>
-      <c r="L172" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M172" t="n">
-        <v>1</v>
-      </c>
-      <c r="N172" t="inlineStr"/>
+      <c r="K172" t="inlineStr"/>
+      <c r="L172" t="n">
+        <v>1</v>
+      </c>
+      <c r="M172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
@@ -7274,22 +6420,13 @@
       <c r="H173" t="n">
         <v>0</v>
       </c>
-      <c r="I173" t="n">
-        <v>1</v>
-      </c>
+      <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
-      <c r="K173" t="n">
-        <v>66.70999999999999</v>
-      </c>
-      <c r="L173" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="M173" t="n">
-        <v>1.025130415230101</v>
-      </c>
-      <c r="N173" t="inlineStr"/>
+      <c r="K173" t="inlineStr"/>
+      <c r="L173" t="n">
+        <v>1</v>
+      </c>
+      <c r="M173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
@@ -7314,18 +6451,15 @@
         <v>-83965.33966534899</v>
       </c>
       <c r="H174" t="n">
-        <v>0</v>
-      </c>
-      <c r="I174" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
       <c r="K174" t="inlineStr"/>
-      <c r="L174" t="inlineStr"/>
-      <c r="M174" t="n">
-        <v>1</v>
-      </c>
-      <c r="N174" t="inlineStr"/>
+      <c r="L174" t="n">
+        <v>1</v>
+      </c>
+      <c r="M174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
@@ -7352,16 +6486,13 @@
       <c r="H175" t="n">
         <v>0</v>
       </c>
-      <c r="I175" t="n">
-        <v>0</v>
-      </c>
+      <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
       <c r="K175" t="inlineStr"/>
-      <c r="L175" t="inlineStr"/>
-      <c r="M175" t="n">
-        <v>1</v>
-      </c>
-      <c r="N175" t="inlineStr"/>
+      <c r="L175" t="n">
+        <v>1</v>
+      </c>
+      <c r="M175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
@@ -7386,18 +6517,15 @@
         <v>-85271.26886534899</v>
       </c>
       <c r="H176" t="n">
-        <v>0</v>
-      </c>
-      <c r="I176" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
       <c r="K176" t="inlineStr"/>
-      <c r="L176" t="inlineStr"/>
-      <c r="M176" t="n">
-        <v>1</v>
-      </c>
-      <c r="N176" t="inlineStr"/>
+      <c r="L176" t="n">
+        <v>1</v>
+      </c>
+      <c r="M176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
@@ -7424,16 +6552,13 @@
       <c r="H177" t="n">
         <v>0</v>
       </c>
-      <c r="I177" t="n">
-        <v>0</v>
-      </c>
+      <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
       <c r="K177" t="inlineStr"/>
-      <c r="L177" t="inlineStr"/>
-      <c r="M177" t="n">
-        <v>1</v>
-      </c>
-      <c r="N177" t="inlineStr"/>
+      <c r="L177" t="n">
+        <v>1</v>
+      </c>
+      <c r="M177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
@@ -7460,16 +6585,13 @@
       <c r="H178" t="n">
         <v>0</v>
       </c>
-      <c r="I178" t="n">
-        <v>0</v>
-      </c>
+      <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
       <c r="K178" t="inlineStr"/>
-      <c r="L178" t="inlineStr"/>
-      <c r="M178" t="n">
-        <v>1</v>
-      </c>
-      <c r="N178" t="inlineStr"/>
+      <c r="L178" t="n">
+        <v>1</v>
+      </c>
+      <c r="M178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
@@ -7496,16 +6618,13 @@
       <c r="H179" t="n">
         <v>0</v>
       </c>
-      <c r="I179" t="n">
-        <v>1</v>
-      </c>
+      <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
       <c r="K179" t="inlineStr"/>
-      <c r="L179" t="inlineStr"/>
-      <c r="M179" t="n">
-        <v>1</v>
-      </c>
-      <c r="N179" t="inlineStr"/>
+      <c r="L179" t="n">
+        <v>1</v>
+      </c>
+      <c r="M179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
@@ -7532,16 +6651,13 @@
       <c r="H180" t="n">
         <v>0</v>
       </c>
-      <c r="I180" t="n">
-        <v>0</v>
-      </c>
+      <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
       <c r="K180" t="inlineStr"/>
-      <c r="L180" t="inlineStr"/>
-      <c r="M180" t="n">
-        <v>1</v>
-      </c>
-      <c r="N180" t="inlineStr"/>
+      <c r="L180" t="n">
+        <v>1</v>
+      </c>
+      <c r="M180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
@@ -7568,16 +6684,13 @@
       <c r="H181" t="n">
         <v>0</v>
       </c>
-      <c r="I181" t="n">
-        <v>0</v>
-      </c>
+      <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
       <c r="K181" t="inlineStr"/>
-      <c r="L181" t="inlineStr"/>
-      <c r="M181" t="n">
-        <v>1</v>
-      </c>
-      <c r="N181" t="inlineStr"/>
+      <c r="L181" t="n">
+        <v>1</v>
+      </c>
+      <c r="M181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
@@ -7604,16 +6717,13 @@
       <c r="H182" t="n">
         <v>0</v>
       </c>
-      <c r="I182" t="n">
-        <v>0</v>
-      </c>
+      <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
       <c r="K182" t="inlineStr"/>
-      <c r="L182" t="inlineStr"/>
-      <c r="M182" t="n">
-        <v>1</v>
-      </c>
-      <c r="N182" t="inlineStr"/>
+      <c r="L182" t="n">
+        <v>1</v>
+      </c>
+      <c r="M182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
@@ -7640,16 +6750,13 @@
       <c r="H183" t="n">
         <v>0</v>
       </c>
-      <c r="I183" t="n">
-        <v>0</v>
-      </c>
+      <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
       <c r="K183" t="inlineStr"/>
-      <c r="L183" t="inlineStr"/>
-      <c r="M183" t="n">
-        <v>1</v>
-      </c>
-      <c r="N183" t="inlineStr"/>
+      <c r="L183" t="n">
+        <v>1</v>
+      </c>
+      <c r="M183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
@@ -7676,16 +6783,13 @@
       <c r="H184" t="n">
         <v>0</v>
       </c>
-      <c r="I184" t="n">
-        <v>0</v>
-      </c>
+      <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
       <c r="K184" t="inlineStr"/>
-      <c r="L184" t="inlineStr"/>
-      <c r="M184" t="n">
-        <v>1</v>
-      </c>
-      <c r="N184" t="inlineStr"/>
+      <c r="L184" t="n">
+        <v>1</v>
+      </c>
+      <c r="M184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
@@ -7712,16 +6816,13 @@
       <c r="H185" t="n">
         <v>0</v>
       </c>
-      <c r="I185" t="n">
-        <v>0</v>
-      </c>
+      <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
       <c r="K185" t="inlineStr"/>
-      <c r="L185" t="inlineStr"/>
-      <c r="M185" t="n">
-        <v>1</v>
-      </c>
-      <c r="N185" t="inlineStr"/>
+      <c r="L185" t="n">
+        <v>1</v>
+      </c>
+      <c r="M185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
@@ -7748,16 +6849,13 @@
       <c r="H186" t="n">
         <v>0</v>
       </c>
-      <c r="I186" t="n">
-        <v>0</v>
-      </c>
+      <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
       <c r="K186" t="inlineStr"/>
-      <c r="L186" t="inlineStr"/>
-      <c r="M186" t="n">
-        <v>1</v>
-      </c>
-      <c r="N186" t="inlineStr"/>
+      <c r="L186" t="n">
+        <v>1</v>
+      </c>
+      <c r="M186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
@@ -7784,16 +6882,13 @@
       <c r="H187" t="n">
         <v>0</v>
       </c>
-      <c r="I187" t="n">
-        <v>0</v>
-      </c>
+      <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
       <c r="K187" t="inlineStr"/>
-      <c r="L187" t="inlineStr"/>
-      <c r="M187" t="n">
-        <v>1</v>
-      </c>
-      <c r="N187" t="inlineStr"/>
+      <c r="L187" t="n">
+        <v>1</v>
+      </c>
+      <c r="M187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
@@ -7820,16 +6915,13 @@
       <c r="H188" t="n">
         <v>0</v>
       </c>
-      <c r="I188" t="n">
-        <v>0</v>
-      </c>
+      <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
       <c r="K188" t="inlineStr"/>
-      <c r="L188" t="inlineStr"/>
-      <c r="M188" t="n">
-        <v>1</v>
-      </c>
-      <c r="N188" t="inlineStr"/>
+      <c r="L188" t="n">
+        <v>1</v>
+      </c>
+      <c r="M188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
@@ -7856,16 +6948,13 @@
       <c r="H189" t="n">
         <v>0</v>
       </c>
-      <c r="I189" t="n">
-        <v>0</v>
-      </c>
+      <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
       <c r="K189" t="inlineStr"/>
-      <c r="L189" t="inlineStr"/>
-      <c r="M189" t="n">
-        <v>1</v>
-      </c>
-      <c r="N189" t="inlineStr"/>
+      <c r="L189" t="n">
+        <v>1</v>
+      </c>
+      <c r="M189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
@@ -7892,16 +6981,13 @@
       <c r="H190" t="n">
         <v>0</v>
       </c>
-      <c r="I190" t="n">
-        <v>0</v>
-      </c>
+      <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
       <c r="K190" t="inlineStr"/>
-      <c r="L190" t="inlineStr"/>
-      <c r="M190" t="n">
-        <v>1</v>
-      </c>
-      <c r="N190" t="inlineStr"/>
+      <c r="L190" t="n">
+        <v>1</v>
+      </c>
+      <c r="M190" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
@@ -7928,16 +7014,13 @@
       <c r="H191" t="n">
         <v>0</v>
       </c>
-      <c r="I191" t="n">
-        <v>0</v>
-      </c>
+      <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
       <c r="K191" t="inlineStr"/>
-      <c r="L191" t="inlineStr"/>
-      <c r="M191" t="n">
-        <v>1</v>
-      </c>
-      <c r="N191" t="inlineStr"/>
+      <c r="L191" t="n">
+        <v>1</v>
+      </c>
+      <c r="M191" t="inlineStr"/>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
@@ -7964,16 +7047,13 @@
       <c r="H192" t="n">
         <v>0</v>
       </c>
-      <c r="I192" t="n">
-        <v>0</v>
-      </c>
+      <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
       <c r="K192" t="inlineStr"/>
-      <c r="L192" t="inlineStr"/>
-      <c r="M192" t="n">
-        <v>1</v>
-      </c>
-      <c r="N192" t="inlineStr"/>
+      <c r="L192" t="n">
+        <v>1</v>
+      </c>
+      <c r="M192" t="inlineStr"/>
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
@@ -8000,16 +7080,13 @@
       <c r="H193" t="n">
         <v>0</v>
       </c>
-      <c r="I193" t="n">
-        <v>0</v>
-      </c>
+      <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
       <c r="K193" t="inlineStr"/>
-      <c r="L193" t="inlineStr"/>
-      <c r="M193" t="n">
-        <v>1</v>
-      </c>
-      <c r="N193" t="inlineStr"/>
+      <c r="L193" t="n">
+        <v>1</v>
+      </c>
+      <c r="M193" t="inlineStr"/>
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
@@ -8036,16 +7113,13 @@
       <c r="H194" t="n">
         <v>0</v>
       </c>
-      <c r="I194" t="n">
-        <v>0</v>
-      </c>
+      <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
       <c r="K194" t="inlineStr"/>
-      <c r="L194" t="inlineStr"/>
-      <c r="M194" t="n">
-        <v>1</v>
-      </c>
-      <c r="N194" t="inlineStr"/>
+      <c r="L194" t="n">
+        <v>1</v>
+      </c>
+      <c r="M194" t="inlineStr"/>
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
@@ -8072,16 +7146,13 @@
       <c r="H195" t="n">
         <v>0</v>
       </c>
-      <c r="I195" t="n">
-        <v>0</v>
-      </c>
+      <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
       <c r="K195" t="inlineStr"/>
-      <c r="L195" t="inlineStr"/>
-      <c r="M195" t="n">
-        <v>1</v>
-      </c>
-      <c r="N195" t="inlineStr"/>
+      <c r="L195" t="n">
+        <v>1</v>
+      </c>
+      <c r="M195" t="inlineStr"/>
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
@@ -8108,16 +7179,13 @@
       <c r="H196" t="n">
         <v>0</v>
       </c>
-      <c r="I196" t="n">
-        <v>0</v>
-      </c>
+      <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
       <c r="K196" t="inlineStr"/>
-      <c r="L196" t="inlineStr"/>
-      <c r="M196" t="n">
-        <v>1</v>
-      </c>
-      <c r="N196" t="inlineStr"/>
+      <c r="L196" t="n">
+        <v>1</v>
+      </c>
+      <c r="M196" t="inlineStr"/>
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
@@ -8144,16 +7212,13 @@
       <c r="H197" t="n">
         <v>0</v>
       </c>
-      <c r="I197" t="n">
-        <v>0</v>
-      </c>
+      <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
       <c r="K197" t="inlineStr"/>
-      <c r="L197" t="inlineStr"/>
-      <c r="M197" t="n">
-        <v>1</v>
-      </c>
-      <c r="N197" t="inlineStr"/>
+      <c r="L197" t="n">
+        <v>1</v>
+      </c>
+      <c r="M197" t="inlineStr"/>
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
@@ -8180,16 +7245,13 @@
       <c r="H198" t="n">
         <v>0</v>
       </c>
-      <c r="I198" t="n">
-        <v>0</v>
-      </c>
+      <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
       <c r="K198" t="inlineStr"/>
-      <c r="L198" t="inlineStr"/>
-      <c r="M198" t="n">
-        <v>1</v>
-      </c>
-      <c r="N198" t="inlineStr"/>
+      <c r="L198" t="n">
+        <v>1</v>
+      </c>
+      <c r="M198" t="inlineStr"/>
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
@@ -8214,18 +7276,15 @@
         <v>-44114.65716534901</v>
       </c>
       <c r="H199" t="n">
-        <v>0</v>
-      </c>
-      <c r="I199" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
       <c r="K199" t="inlineStr"/>
-      <c r="L199" t="inlineStr"/>
-      <c r="M199" t="n">
-        <v>1</v>
-      </c>
-      <c r="N199" t="inlineStr"/>
+      <c r="L199" t="n">
+        <v>1</v>
+      </c>
+      <c r="M199" t="inlineStr"/>
     </row>
     <row r="200">
       <c r="A200" s="1" t="n">
@@ -8252,16 +7311,13 @@
       <c r="H200" t="n">
         <v>0</v>
       </c>
-      <c r="I200" t="n">
-        <v>0</v>
-      </c>
+      <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
       <c r="K200" t="inlineStr"/>
-      <c r="L200" t="inlineStr"/>
-      <c r="M200" t="n">
-        <v>1</v>
-      </c>
-      <c r="N200" t="inlineStr"/>
+      <c r="L200" t="n">
+        <v>1</v>
+      </c>
+      <c r="M200" t="inlineStr"/>
     </row>
     <row r="201">
       <c r="A201" s="1" t="n">
@@ -8286,18 +7342,15 @@
         <v>-44106.65716534901</v>
       </c>
       <c r="H201" t="n">
-        <v>0</v>
-      </c>
-      <c r="I201" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
       <c r="K201" t="inlineStr"/>
-      <c r="L201" t="inlineStr"/>
-      <c r="M201" t="n">
-        <v>1</v>
-      </c>
-      <c r="N201" t="inlineStr"/>
+      <c r="L201" t="n">
+        <v>1</v>
+      </c>
+      <c r="M201" t="inlineStr"/>
     </row>
     <row r="202">
       <c r="A202" s="1" t="n">
@@ -8322,18 +7375,15 @@
         <v>-52084.65046534901</v>
       </c>
       <c r="H202" t="n">
-        <v>0</v>
-      </c>
-      <c r="I202" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
       <c r="K202" t="inlineStr"/>
-      <c r="L202" t="inlineStr"/>
-      <c r="M202" t="n">
-        <v>1</v>
-      </c>
-      <c r="N202" t="inlineStr"/>
+      <c r="L202" t="n">
+        <v>1</v>
+      </c>
+      <c r="M202" t="inlineStr"/>
     </row>
     <row r="203">
       <c r="A203" s="1" t="n">
@@ -8360,16 +7410,13 @@
       <c r="H203" t="n">
         <v>0</v>
       </c>
-      <c r="I203" t="n">
-        <v>0</v>
-      </c>
+      <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
       <c r="K203" t="inlineStr"/>
-      <c r="L203" t="inlineStr"/>
-      <c r="M203" t="n">
-        <v>1</v>
-      </c>
-      <c r="N203" t="inlineStr"/>
+      <c r="L203" t="n">
+        <v>1</v>
+      </c>
+      <c r="M203" t="inlineStr"/>
     </row>
     <row r="204">
       <c r="A204" s="1" t="n">
@@ -8396,16 +7443,13 @@
       <c r="H204" t="n">
         <v>0</v>
       </c>
-      <c r="I204" t="n">
-        <v>1</v>
-      </c>
+      <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
       <c r="K204" t="inlineStr"/>
-      <c r="L204" t="inlineStr"/>
-      <c r="M204" t="n">
-        <v>1</v>
-      </c>
-      <c r="N204" t="inlineStr"/>
+      <c r="L204" t="n">
+        <v>1</v>
+      </c>
+      <c r="M204" t="inlineStr"/>
     </row>
     <row r="205">
       <c r="A205" s="1" t="n">
@@ -8432,16 +7476,13 @@
       <c r="H205" t="n">
         <v>0</v>
       </c>
-      <c r="I205" t="n">
-        <v>1</v>
-      </c>
+      <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
       <c r="K205" t="inlineStr"/>
-      <c r="L205" t="inlineStr"/>
-      <c r="M205" t="n">
-        <v>1</v>
-      </c>
-      <c r="N205" t="inlineStr"/>
+      <c r="L205" t="n">
+        <v>1</v>
+      </c>
+      <c r="M205" t="inlineStr"/>
     </row>
     <row r="206">
       <c r="A206" s="1" t="n">
@@ -8468,16 +7509,13 @@
       <c r="H206" t="n">
         <v>0</v>
       </c>
-      <c r="I206" t="n">
-        <v>0</v>
-      </c>
+      <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
       <c r="K206" t="inlineStr"/>
-      <c r="L206" t="inlineStr"/>
-      <c r="M206" t="n">
-        <v>1</v>
-      </c>
-      <c r="N206" t="inlineStr"/>
+      <c r="L206" t="n">
+        <v>1</v>
+      </c>
+      <c r="M206" t="inlineStr"/>
     </row>
     <row r="207">
       <c r="A207" s="1" t="n">
@@ -8504,16 +7542,13 @@
       <c r="H207" t="n">
         <v>0</v>
       </c>
-      <c r="I207" t="n">
-        <v>1</v>
-      </c>
+      <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
       <c r="K207" t="inlineStr"/>
-      <c r="L207" t="inlineStr"/>
-      <c r="M207" t="n">
-        <v>1</v>
-      </c>
-      <c r="N207" t="inlineStr"/>
+      <c r="L207" t="n">
+        <v>1</v>
+      </c>
+      <c r="M207" t="inlineStr"/>
     </row>
     <row r="208">
       <c r="A208" s="1" t="n">
@@ -8540,16 +7575,13 @@
       <c r="H208" t="n">
         <v>0</v>
       </c>
-      <c r="I208" t="n">
-        <v>1</v>
-      </c>
+      <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
       <c r="K208" t="inlineStr"/>
-      <c r="L208" t="inlineStr"/>
-      <c r="M208" t="n">
-        <v>1</v>
-      </c>
-      <c r="N208" t="inlineStr"/>
+      <c r="L208" t="n">
+        <v>1</v>
+      </c>
+      <c r="M208" t="inlineStr"/>
     </row>
     <row r="209">
       <c r="A209" s="1" t="n">
@@ -8576,16 +7608,13 @@
       <c r="H209" t="n">
         <v>0</v>
       </c>
-      <c r="I209" t="n">
-        <v>1</v>
-      </c>
+      <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
       <c r="K209" t="inlineStr"/>
-      <c r="L209" t="inlineStr"/>
-      <c r="M209" t="n">
-        <v>1</v>
-      </c>
-      <c r="N209" t="inlineStr"/>
+      <c r="L209" t="n">
+        <v>1</v>
+      </c>
+      <c r="M209" t="inlineStr"/>
     </row>
     <row r="210">
       <c r="A210" s="1" t="n">
@@ -8612,16 +7641,13 @@
       <c r="H210" t="n">
         <v>0</v>
       </c>
-      <c r="I210" t="n">
-        <v>0</v>
-      </c>
+      <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
       <c r="K210" t="inlineStr"/>
-      <c r="L210" t="inlineStr"/>
-      <c r="M210" t="n">
-        <v>1</v>
-      </c>
-      <c r="N210" t="inlineStr"/>
+      <c r="L210" t="n">
+        <v>1</v>
+      </c>
+      <c r="M210" t="inlineStr"/>
     </row>
     <row r="211">
       <c r="A211" s="1" t="n">
@@ -8648,16 +7674,13 @@
       <c r="H211" t="n">
         <v>0</v>
       </c>
-      <c r="I211" t="n">
-        <v>1</v>
-      </c>
+      <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
       <c r="K211" t="inlineStr"/>
-      <c r="L211" t="inlineStr"/>
-      <c r="M211" t="n">
-        <v>1</v>
-      </c>
-      <c r="N211" t="inlineStr"/>
+      <c r="L211" t="n">
+        <v>1</v>
+      </c>
+      <c r="M211" t="inlineStr"/>
     </row>
     <row r="212">
       <c r="A212" s="1" t="n">
@@ -8684,16 +7707,13 @@
       <c r="H212" t="n">
         <v>0</v>
       </c>
-      <c r="I212" t="n">
-        <v>1</v>
-      </c>
+      <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
       <c r="K212" t="inlineStr"/>
-      <c r="L212" t="inlineStr"/>
-      <c r="M212" t="n">
-        <v>1</v>
-      </c>
-      <c r="N212" t="inlineStr"/>
+      <c r="L212" t="n">
+        <v>1</v>
+      </c>
+      <c r="M212" t="inlineStr"/>
     </row>
     <row r="213">
       <c r="A213" s="1" t="n">
@@ -8720,16 +7740,13 @@
       <c r="H213" t="n">
         <v>0</v>
       </c>
-      <c r="I213" t="n">
-        <v>1</v>
-      </c>
+      <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
       <c r="K213" t="inlineStr"/>
-      <c r="L213" t="inlineStr"/>
-      <c r="M213" t="n">
-        <v>1</v>
-      </c>
-      <c r="N213" t="inlineStr"/>
+      <c r="L213" t="n">
+        <v>1</v>
+      </c>
+      <c r="M213" t="inlineStr"/>
     </row>
     <row r="214">
       <c r="A214" s="1" t="n">
@@ -8756,16 +7773,13 @@
       <c r="H214" t="n">
         <v>0</v>
       </c>
-      <c r="I214" t="n">
-        <v>1</v>
-      </c>
+      <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
       <c r="K214" t="inlineStr"/>
-      <c r="L214" t="inlineStr"/>
-      <c r="M214" t="n">
-        <v>1</v>
-      </c>
-      <c r="N214" t="inlineStr"/>
+      <c r="L214" t="n">
+        <v>1</v>
+      </c>
+      <c r="M214" t="inlineStr"/>
     </row>
     <row r="215">
       <c r="A215" s="1" t="n">
@@ -8790,18 +7804,15 @@
         <v>-59278.4473886094</v>
       </c>
       <c r="H215" t="n">
-        <v>0</v>
-      </c>
-      <c r="I215" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
       <c r="K215" t="inlineStr"/>
-      <c r="L215" t="inlineStr"/>
-      <c r="M215" t="n">
-        <v>1</v>
-      </c>
-      <c r="N215" t="inlineStr"/>
+      <c r="L215" t="n">
+        <v>1</v>
+      </c>
+      <c r="M215" t="inlineStr"/>
     </row>
     <row r="216">
       <c r="A216" s="1" t="n">
@@ -8826,18 +7837,15 @@
         <v>-59270.4473886094</v>
       </c>
       <c r="H216" t="n">
-        <v>0</v>
-      </c>
-      <c r="I216" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
       <c r="K216" t="inlineStr"/>
-      <c r="L216" t="inlineStr"/>
-      <c r="M216" t="n">
-        <v>1</v>
-      </c>
-      <c r="N216" t="inlineStr"/>
+      <c r="L216" t="n">
+        <v>1</v>
+      </c>
+      <c r="M216" t="inlineStr"/>
     </row>
     <row r="217">
       <c r="A217" s="1" t="n">
@@ -8862,18 +7870,15 @@
         <v>-76320.5081886094</v>
       </c>
       <c r="H217" t="n">
-        <v>0</v>
-      </c>
-      <c r="I217" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
       <c r="K217" t="inlineStr"/>
-      <c r="L217" t="inlineStr"/>
-      <c r="M217" t="n">
-        <v>1</v>
-      </c>
-      <c r="N217" t="inlineStr"/>
+      <c r="L217" t="n">
+        <v>1</v>
+      </c>
+      <c r="M217" t="inlineStr"/>
     </row>
     <row r="218">
       <c r="A218" s="1" t="n">
@@ -8898,18 +7903,15 @@
         <v>-62318.92280459018</v>
       </c>
       <c r="H218" t="n">
-        <v>0</v>
-      </c>
-      <c r="I218" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
       <c r="K218" t="inlineStr"/>
-      <c r="L218" t="inlineStr"/>
-      <c r="M218" t="n">
-        <v>1</v>
-      </c>
-      <c r="N218" t="inlineStr"/>
+      <c r="L218" t="n">
+        <v>1</v>
+      </c>
+      <c r="M218" t="inlineStr"/>
     </row>
     <row r="219">
       <c r="A219" s="1" t="n">
@@ -8934,18 +7936,15 @@
         <v>-62337.35180761133</v>
       </c>
       <c r="H219" t="n">
-        <v>0</v>
-      </c>
-      <c r="I219" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
       <c r="K219" t="inlineStr"/>
-      <c r="L219" t="inlineStr"/>
-      <c r="M219" t="n">
-        <v>1</v>
-      </c>
-      <c r="N219" t="inlineStr"/>
+      <c r="L219" t="n">
+        <v>1</v>
+      </c>
+      <c r="M219" t="inlineStr"/>
     </row>
     <row r="220">
       <c r="A220" s="1" t="n">
@@ -8970,18 +7969,15 @@
         <v>-67630.46940761134</v>
       </c>
       <c r="H220" t="n">
-        <v>0</v>
-      </c>
-      <c r="I220" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
       <c r="K220" t="inlineStr"/>
-      <c r="L220" t="inlineStr"/>
-      <c r="M220" t="n">
-        <v>1</v>
-      </c>
-      <c r="N220" t="inlineStr"/>
+      <c r="L220" t="n">
+        <v>1</v>
+      </c>
+      <c r="M220" t="inlineStr"/>
     </row>
     <row r="221">
       <c r="A221" s="1" t="n">
@@ -9006,18 +8002,15 @@
         <v>-67622.46940761134</v>
       </c>
       <c r="H221" t="n">
-        <v>0</v>
-      </c>
-      <c r="I221" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
       <c r="K221" t="inlineStr"/>
-      <c r="L221" t="inlineStr"/>
-      <c r="M221" t="n">
-        <v>1</v>
-      </c>
-      <c r="N221" t="inlineStr"/>
+      <c r="L221" t="n">
+        <v>1</v>
+      </c>
+      <c r="M221" t="inlineStr"/>
     </row>
     <row r="222">
       <c r="A222" s="1" t="n">
@@ -9042,18 +8035,15 @@
         <v>-67918.53840761134</v>
       </c>
       <c r="H222" t="n">
-        <v>0</v>
-      </c>
-      <c r="I222" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
       <c r="K222" t="inlineStr"/>
-      <c r="L222" t="inlineStr"/>
-      <c r="M222" t="n">
-        <v>1</v>
-      </c>
-      <c r="N222" t="inlineStr"/>
+      <c r="L222" t="n">
+        <v>1</v>
+      </c>
+      <c r="M222" t="inlineStr"/>
     </row>
     <row r="223">
       <c r="A223" s="1" t="n">
@@ -9078,18 +8068,15 @@
         <v>-67918.53840761134</v>
       </c>
       <c r="H223" t="n">
-        <v>0</v>
-      </c>
-      <c r="I223" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
       <c r="K223" t="inlineStr"/>
-      <c r="L223" t="inlineStr"/>
-      <c r="M223" t="n">
-        <v>1</v>
-      </c>
-      <c r="N223" t="inlineStr"/>
+      <c r="L223" t="n">
+        <v>1</v>
+      </c>
+      <c r="M223" t="inlineStr"/>
     </row>
     <row r="224">
       <c r="A224" s="1" t="n">
@@ -9114,18 +8101,15 @@
         <v>-67622.46940761134</v>
       </c>
       <c r="H224" t="n">
-        <v>0</v>
-      </c>
-      <c r="I224" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
       <c r="K224" t="inlineStr"/>
-      <c r="L224" t="inlineStr"/>
-      <c r="M224" t="n">
-        <v>1</v>
-      </c>
-      <c r="N224" t="inlineStr"/>
+      <c r="L224" t="n">
+        <v>1</v>
+      </c>
+      <c r="M224" t="inlineStr"/>
     </row>
     <row r="225">
       <c r="A225" s="1" t="n">
@@ -9150,18 +8134,15 @@
         <v>-54805.02070761134</v>
       </c>
       <c r="H225" t="n">
-        <v>0</v>
-      </c>
-      <c r="I225" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
       <c r="K225" t="inlineStr"/>
-      <c r="L225" t="inlineStr"/>
-      <c r="M225" t="n">
-        <v>1</v>
-      </c>
-      <c r="N225" t="inlineStr"/>
+      <c r="L225" t="n">
+        <v>1</v>
+      </c>
+      <c r="M225" t="inlineStr"/>
     </row>
     <row r="226">
       <c r="A226" s="1" t="n">
@@ -9188,16 +8169,13 @@
       <c r="H226" t="n">
         <v>0</v>
       </c>
-      <c r="I226" t="n">
-        <v>0</v>
-      </c>
+      <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
       <c r="K226" t="inlineStr"/>
-      <c r="L226" t="inlineStr"/>
-      <c r="M226" t="n">
-        <v>1</v>
-      </c>
-      <c r="N226" t="inlineStr"/>
+      <c r="L226" t="n">
+        <v>1</v>
+      </c>
+      <c r="M226" t="inlineStr"/>
     </row>
     <row r="227">
       <c r="A227" s="1" t="n">
@@ -9224,16 +8202,13 @@
       <c r="H227" t="n">
         <v>0</v>
       </c>
-      <c r="I227" t="n">
-        <v>0</v>
-      </c>
+      <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
       <c r="K227" t="inlineStr"/>
-      <c r="L227" t="inlineStr"/>
-      <c r="M227" t="n">
-        <v>1</v>
-      </c>
-      <c r="N227" t="inlineStr"/>
+      <c r="L227" t="n">
+        <v>1</v>
+      </c>
+      <c r="M227" t="inlineStr"/>
     </row>
     <row r="228">
       <c r="A228" s="1" t="n">
@@ -9260,16 +8235,13 @@
       <c r="H228" t="n">
         <v>0</v>
       </c>
-      <c r="I228" t="n">
-        <v>0</v>
-      </c>
+      <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
       <c r="K228" t="inlineStr"/>
-      <c r="L228" t="inlineStr"/>
-      <c r="M228" t="n">
-        <v>1</v>
-      </c>
-      <c r="N228" t="inlineStr"/>
+      <c r="L228" t="n">
+        <v>1</v>
+      </c>
+      <c r="M228" t="inlineStr"/>
     </row>
     <row r="229">
       <c r="A229" s="1" t="n">
@@ -9294,18 +8266,15 @@
         <v>-37152.15525722319</v>
       </c>
       <c r="H229" t="n">
-        <v>0</v>
-      </c>
-      <c r="I229" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
       <c r="K229" t="inlineStr"/>
-      <c r="L229" t="inlineStr"/>
-      <c r="M229" t="n">
-        <v>1</v>
-      </c>
-      <c r="N229" t="inlineStr"/>
+      <c r="L229" t="n">
+        <v>1</v>
+      </c>
+      <c r="M229" t="inlineStr"/>
     </row>
     <row r="230">
       <c r="A230" s="1" t="n">
@@ -9330,18 +8299,15 @@
         <v>-37042.15525722319</v>
       </c>
       <c r="H230" t="n">
-        <v>0</v>
-      </c>
-      <c r="I230" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
       <c r="K230" t="inlineStr"/>
-      <c r="L230" t="inlineStr"/>
-      <c r="M230" t="n">
-        <v>1</v>
-      </c>
-      <c r="N230" t="inlineStr"/>
+      <c r="L230" t="n">
+        <v>1</v>
+      </c>
+      <c r="M230" t="inlineStr"/>
     </row>
     <row r="231">
       <c r="A231" s="1" t="n">
@@ -9366,20 +8332,17 @@
         <v>-39031.09635722318</v>
       </c>
       <c r="H231" t="n">
-        <v>0</v>
-      </c>
-      <c r="I231" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
       <c r="K231" t="inlineStr"/>
-      <c r="L231" t="inlineStr"/>
-      <c r="M231" t="n">
-        <v>1</v>
-      </c>
-      <c r="N231" t="inlineStr"/>
+      <c r="L231" t="n">
+        <v>1</v>
+      </c>
+      <c r="M231" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-21 BackTest FX.xlsx
+++ b/BackTest/2020-01-21 BackTest FX.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -517,7 +517,7 @@
         <v>-73809.85570682607</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>-80333.85570682607</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>-80616.35780682607</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -1606,7 +1606,7 @@
         <v>-84432.84210682606</v>
       </c>
       <c r="H37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
@@ -2761,17 +2761,11 @@
         <v>-96593.49590682607</v>
       </c>
       <c r="H72" t="n">
-        <v>2</v>
-      </c>
-      <c r="I72" t="n">
-        <v>66.83</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="K72" t="inlineStr"/>
       <c r="L72" t="n">
         <v>1</v>
       </c>
@@ -2804,11 +2798,7 @@
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K73" t="inlineStr"/>
       <c r="L73" t="n">
         <v>1</v>
       </c>
@@ -2841,11 +2831,7 @@
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K74" t="inlineStr"/>
       <c r="L74" t="n">
         <v>1</v>
       </c>
@@ -2878,11 +2864,7 @@
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K75" t="inlineStr"/>
       <c r="L75" t="n">
         <v>1</v>
       </c>
@@ -2911,17 +2893,11 @@
         <v>-100704.0622068261</v>
       </c>
       <c r="H76" t="n">
-        <v>2</v>
-      </c>
-      <c r="I76" t="n">
-        <v>66.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K76" t="inlineStr"/>
       <c r="L76" t="n">
         <v>1</v>
       </c>
@@ -2954,11 +2930,7 @@
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K77" t="inlineStr"/>
       <c r="L77" t="n">
         <v>1</v>
       </c>
@@ -2991,11 +2963,7 @@
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K78" t="inlineStr"/>
       <c r="L78" t="n">
         <v>1</v>
       </c>
@@ -3024,13 +2992,15 @@
         <v>-101702.9408936619</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
-      </c>
-      <c r="I79" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I79" t="n">
+        <v>66.31</v>
+      </c>
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="L79" t="n">
@@ -3061,11 +3031,9 @@
         <v>-107378.4170936619</v>
       </c>
       <c r="H80" t="n">
-        <v>2</v>
-      </c>
-      <c r="I80" t="n">
-        <v>67</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr">
         <is>
@@ -3100,9 +3068,11 @@
         <v>-107378.4170936619</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
-      </c>
-      <c r="I81" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I81" t="n">
+        <v>66.31</v>
+      </c>
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr">
         <is>
@@ -3137,9 +3107,11 @@
         <v>-118025.7872936619</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
-      </c>
-      <c r="I82" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I82" t="n">
+        <v>66.31</v>
+      </c>
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr">
         <is>
@@ -3396,7 +3368,7 @@
         <v>-89667.15320682607</v>
       </c>
       <c r="H89" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
@@ -3433,7 +3405,7 @@
         <v>-89211.14879366189</v>
       </c>
       <c r="H90" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
@@ -3470,7 +3442,7 @@
         <v>-89211.14879366189</v>
       </c>
       <c r="H91" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
@@ -3507,7 +3479,7 @@
         <v>-89203.14879366189</v>
       </c>
       <c r="H92" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
@@ -3544,7 +3516,7 @@
         <v>-89779.14879366189</v>
       </c>
       <c r="H93" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
@@ -3581,7 +3553,7 @@
         <v>-89779.14879366189</v>
       </c>
       <c r="H94" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
@@ -3618,7 +3590,7 @@
         <v>-89058.14879366189</v>
       </c>
       <c r="H95" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
@@ -3655,7 +3627,7 @@
         <v>-89286.9193936619</v>
       </c>
       <c r="H96" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
@@ -3692,7 +3664,7 @@
         <v>-90553.0320936619</v>
       </c>
       <c r="H97" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
@@ -3729,7 +3701,7 @@
         <v>-90430.25599366189</v>
       </c>
       <c r="H98" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
@@ -3840,7 +3812,7 @@
         <v>-100092.2006936619</v>
       </c>
       <c r="H101" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
@@ -3877,7 +3849,7 @@
         <v>-100092.2006936619</v>
       </c>
       <c r="H102" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
@@ -3951,7 +3923,7 @@
         <v>-100059.5990936619</v>
       </c>
       <c r="H104" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
@@ -3988,7 +3960,7 @@
         <v>-103277.4500936619</v>
       </c>
       <c r="H105" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
@@ -4025,7 +3997,7 @@
         <v>-103277.4500936619</v>
       </c>
       <c r="H106" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
@@ -4062,9 +4034,11 @@
         <v>-103267.4500936619</v>
       </c>
       <c r="H107" t="n">
-        <v>0</v>
-      </c>
-      <c r="I107" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I107" t="n">
+        <v>66.5</v>
+      </c>
       <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr">
         <is>
@@ -4099,7 +4073,7 @@
         <v>-103267.4500936619</v>
       </c>
       <c r="H108" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
@@ -4136,7 +4110,7 @@
         <v>-103566.4029936619</v>
       </c>
       <c r="H109" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
@@ -4173,7 +4147,7 @@
         <v>-103574.4029936619</v>
       </c>
       <c r="H110" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
@@ -4210,9 +4184,11 @@
         <v>-103420.1684936619</v>
       </c>
       <c r="H111" t="n">
-        <v>0</v>
-      </c>
-      <c r="I111" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I111" t="n">
+        <v>66.5</v>
+      </c>
       <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr">
         <is>
@@ -4249,7 +4225,9 @@
       <c r="H112" t="n">
         <v>1</v>
       </c>
-      <c r="I112" t="inlineStr"/>
+      <c r="I112" t="n">
+        <v>67.3</v>
+      </c>
       <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr">
         <is>
@@ -4284,9 +4262,11 @@
         <v>-109219.9384936619</v>
       </c>
       <c r="H113" t="n">
-        <v>0</v>
-      </c>
-      <c r="I113" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I113" t="n">
+        <v>67.69</v>
+      </c>
       <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr">
         <is>
@@ -4321,9 +4301,11 @@
         <v>-109219.9384936619</v>
       </c>
       <c r="H114" t="n">
-        <v>0</v>
-      </c>
-      <c r="I114" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I114" t="n">
+        <v>66.36</v>
+      </c>
       <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr">
         <is>
@@ -4358,9 +4340,11 @@
         <v>-109211.9384936619</v>
       </c>
       <c r="H115" t="n">
-        <v>0</v>
-      </c>
-      <c r="I115" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I115" t="n">
+        <v>66.36</v>
+      </c>
       <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr">
         <is>
@@ -4395,9 +4379,11 @@
         <v>-109201.7885936619</v>
       </c>
       <c r="H116" t="n">
-        <v>0</v>
-      </c>
-      <c r="I116" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I116" t="n">
+        <v>66.41</v>
+      </c>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr">
         <is>
@@ -4432,9 +4418,11 @@
         <v>-109185.9279936619</v>
       </c>
       <c r="H117" t="n">
-        <v>0</v>
-      </c>
-      <c r="I117" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I117" t="n">
+        <v>67.40000000000001</v>
+      </c>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr">
         <is>
@@ -4506,7 +4494,7 @@
         <v>-110040.6361732003</v>
       </c>
       <c r="H119" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I119" t="n">
         <v>66.40000000000001</v>
@@ -4582,9 +4570,11 @@
         <v>-111361.6361732003</v>
       </c>
       <c r="H121" t="n">
-        <v>0</v>
-      </c>
-      <c r="I121" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I121" t="n">
+        <v>66.37</v>
+      </c>
       <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr">
         <is>
@@ -4656,9 +4646,11 @@
         <v>-111186.5455732003</v>
       </c>
       <c r="H123" t="n">
-        <v>0</v>
-      </c>
-      <c r="I123" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I123" t="n">
+        <v>66.38</v>
+      </c>
       <c r="J123" t="inlineStr"/>
       <c r="K123" t="inlineStr">
         <is>
@@ -4693,9 +4685,11 @@
         <v>-111186.5455732003</v>
       </c>
       <c r="H124" t="n">
-        <v>0</v>
-      </c>
-      <c r="I124" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I124" t="n">
+        <v>66.39</v>
+      </c>
       <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr">
         <is>
@@ -4730,7 +4724,7 @@
         <v>-111127.1935732003</v>
       </c>
       <c r="H125" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I125" t="n">
         <v>66.39</v>
@@ -4769,7 +4763,7 @@
         <v>-124900.5276732003</v>
       </c>
       <c r="H126" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I126" t="n">
         <v>66.59999999999999</v>
@@ -4808,7 +4802,7 @@
         <v>-124892.5276732003</v>
       </c>
       <c r="H127" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I127" t="n">
         <v>66.41</v>
@@ -4847,7 +4841,7 @@
         <v>-125024.5584732003</v>
       </c>
       <c r="H128" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I128" t="n">
         <v>66.5</v>
@@ -4886,7 +4880,7 @@
         <v>-125024.5584732003</v>
       </c>
       <c r="H129" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I129" t="n">
         <v>66.41</v>
@@ -4925,7 +4919,7 @@
         <v>-125006.3784732003</v>
       </c>
       <c r="H130" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I130" t="n">
         <v>66.41</v>
@@ -4964,7 +4958,7 @@
         <v>-124986.3784732003</v>
       </c>
       <c r="H131" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I131" t="n">
         <v>66.42</v>
@@ -5003,11 +4997,9 @@
         <v>-125140.0089732003</v>
       </c>
       <c r="H132" t="n">
-        <v>2</v>
-      </c>
-      <c r="I132" t="n">
-        <v>67</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
       <c r="K132" t="inlineStr">
         <is>
@@ -5079,7 +5071,7 @@
         <v>-126591.4568732003</v>
       </c>
       <c r="H134" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I134" t="n">
         <v>66.59999999999999</v>
@@ -5118,7 +5110,7 @@
         <v>-126087.3705732003</v>
       </c>
       <c r="H135" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I135" t="n">
         <v>66.98999999999999</v>
@@ -5157,11 +5149,9 @@
         <v>-126322.8314732003</v>
       </c>
       <c r="H136" t="n">
-        <v>2</v>
-      </c>
-      <c r="I136" t="n">
-        <v>67</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
       <c r="K136" t="inlineStr">
         <is>
@@ -5196,7 +5186,7 @@
         <v>-128405.0193732003</v>
       </c>
       <c r="H137" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I137" t="n">
         <v>66.59999999999999</v>
@@ -5235,11 +5225,9 @@
         <v>-117578.7937460361</v>
       </c>
       <c r="H138" t="n">
-        <v>2</v>
-      </c>
-      <c r="I138" t="n">
-        <v>66.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
       <c r="K138" t="inlineStr">
         <is>
@@ -5274,11 +5262,9 @@
         <v>-116608.0062460361</v>
       </c>
       <c r="H139" t="n">
-        <v>2</v>
-      </c>
-      <c r="I139" t="n">
-        <v>67.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
       <c r="K139" t="inlineStr">
         <is>
@@ -5313,11 +5299,9 @@
         <v>-82558.3467592003</v>
       </c>
       <c r="H140" t="n">
-        <v>2</v>
-      </c>
-      <c r="I140" t="n">
-        <v>67.77</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
       <c r="K140" t="inlineStr">
         <is>
@@ -5426,16 +5410,18 @@
         <v>-67525.65457502639</v>
       </c>
       <c r="H143" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
       <c r="K143" t="inlineStr">
         <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L143" t="inlineStr"/>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L143" t="n">
+        <v>1</v>
+      </c>
       <c r="M143" t="inlineStr"/>
     </row>
     <row r="144">
@@ -5465,7 +5451,11 @@
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
+      <c r="K144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L144" t="n">
         <v>1</v>
       </c>
@@ -5498,7 +5488,11 @@
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
+      <c r="K145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L145" t="n">
         <v>1</v>
       </c>
@@ -5531,7 +5525,11 @@
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
+      <c r="K146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L146" t="n">
         <v>1</v>
       </c>
@@ -5564,7 +5562,11 @@
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
+      <c r="K147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L147" t="n">
         <v>1</v>
       </c>
@@ -5597,7 +5599,11 @@
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
+      <c r="K148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L148" t="n">
         <v>1</v>
       </c>
@@ -5630,7 +5636,11 @@
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
+      <c r="K149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L149" t="n">
         <v>1</v>
       </c>
@@ -5663,7 +5673,11 @@
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
+      <c r="K150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L150" t="n">
         <v>1</v>
       </c>
@@ -5696,7 +5710,11 @@
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
+      <c r="K151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L151" t="n">
         <v>1</v>
       </c>
@@ -5729,7 +5747,11 @@
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
+      <c r="K152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L152" t="n">
         <v>1</v>
       </c>
@@ -5762,7 +5784,11 @@
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
+      <c r="K153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L153" t="n">
         <v>1</v>
       </c>
@@ -5795,7 +5821,11 @@
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
+      <c r="K154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L154" t="n">
         <v>1</v>
       </c>
@@ -5828,7 +5858,11 @@
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
+      <c r="K155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L155" t="n">
         <v>1</v>
       </c>
@@ -5861,7 +5895,11 @@
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
+      <c r="K156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L156" t="n">
         <v>1</v>
       </c>
@@ -5894,7 +5932,11 @@
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
+      <c r="K157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L157" t="n">
         <v>1</v>
       </c>
@@ -5923,11 +5965,15 @@
         <v>-87097.86567502641</v>
       </c>
       <c r="H158" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
+      <c r="K158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L158" t="n">
         <v>1</v>
       </c>
@@ -5960,7 +6006,11 @@
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
+      <c r="K159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L159" t="n">
         <v>1</v>
       </c>
@@ -5993,7 +6043,11 @@
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
+      <c r="K160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L160" t="n">
         <v>1</v>
       </c>
@@ -6026,7 +6080,11 @@
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
+      <c r="K161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L161" t="n">
         <v>1</v>
       </c>
@@ -6059,7 +6117,11 @@
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
+      <c r="K162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L162" t="n">
         <v>1</v>
       </c>
@@ -6092,7 +6154,11 @@
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
+      <c r="K163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L163" t="n">
         <v>1</v>
       </c>
@@ -6121,11 +6187,17 @@
         <v>-100522.2857750264</v>
       </c>
       <c r="H164" t="n">
-        <v>0</v>
-      </c>
-      <c r="I164" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I164" t="n">
+        <v>67.54000000000001</v>
+      </c>
       <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
+      <c r="K164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L164" t="n">
         <v>1</v>
       </c>
@@ -6158,7 +6230,11 @@
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
+      <c r="K165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L165" t="n">
         <v>1</v>
       </c>
@@ -6191,7 +6267,11 @@
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
+      <c r="K166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L166" t="n">
         <v>1</v>
       </c>
@@ -6224,7 +6304,11 @@
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
+      <c r="K167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L167" t="n">
         <v>1</v>
       </c>
@@ -6257,7 +6341,11 @@
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
+      <c r="K168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L168" t="n">
         <v>1</v>
       </c>
@@ -6290,7 +6378,11 @@
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
+      <c r="K169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L169" t="n">
         <v>1</v>
       </c>
@@ -6323,7 +6415,11 @@
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
+      <c r="K170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L170" t="n">
         <v>1</v>
       </c>
@@ -6356,7 +6452,11 @@
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
+      <c r="K171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L171" t="n">
         <v>1</v>
       </c>
@@ -6389,7 +6489,11 @@
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
+      <c r="K172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L172" t="n">
         <v>1</v>
       </c>
@@ -6422,7 +6526,11 @@
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
+      <c r="K173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L173" t="n">
         <v>1</v>
       </c>
@@ -6451,11 +6559,15 @@
         <v>-83965.33966534899</v>
       </c>
       <c r="H174" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
+      <c r="K174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L174" t="n">
         <v>1</v>
       </c>
@@ -6488,7 +6600,11 @@
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
+      <c r="K175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L175" t="n">
         <v>1</v>
       </c>
@@ -6517,11 +6633,15 @@
         <v>-85271.26886534899</v>
       </c>
       <c r="H176" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr"/>
+      <c r="K176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L176" t="n">
         <v>1</v>
       </c>
@@ -6554,7 +6674,11 @@
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr"/>
+      <c r="K177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L177" t="n">
         <v>1</v>
       </c>
@@ -6587,7 +6711,11 @@
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr"/>
+      <c r="K178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L178" t="n">
         <v>1</v>
       </c>
@@ -6620,7 +6748,11 @@
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr"/>
+      <c r="K179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L179" t="n">
         <v>1</v>
       </c>
@@ -6653,7 +6785,11 @@
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr"/>
+      <c r="K180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L180" t="n">
         <v>1</v>
       </c>
@@ -6686,7 +6822,11 @@
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr"/>
+      <c r="K181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L181" t="n">
         <v>1</v>
       </c>
@@ -6719,7 +6859,11 @@
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr"/>
+      <c r="K182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L182" t="n">
         <v>1</v>
       </c>
@@ -6752,7 +6896,11 @@
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr"/>
+      <c r="K183" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L183" t="n">
         <v>1</v>
       </c>
@@ -6785,7 +6933,11 @@
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr"/>
+      <c r="K184" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L184" t="n">
         <v>1</v>
       </c>
@@ -6818,7 +6970,11 @@
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr"/>
+      <c r="K185" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L185" t="n">
         <v>1</v>
       </c>
@@ -6851,7 +7007,11 @@
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr"/>
+      <c r="K186" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L186" t="n">
         <v>1</v>
       </c>
@@ -6884,7 +7044,11 @@
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr"/>
+      <c r="K187" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L187" t="n">
         <v>1</v>
       </c>
@@ -6917,7 +7081,11 @@
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr"/>
+      <c r="K188" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L188" t="n">
         <v>1</v>
       </c>
@@ -6950,7 +7118,11 @@
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr"/>
+      <c r="K189" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L189" t="n">
         <v>1</v>
       </c>
@@ -6983,7 +7155,11 @@
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr"/>
+      <c r="K190" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L190" t="n">
         <v>1</v>
       </c>
@@ -7016,7 +7192,11 @@
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr"/>
+      <c r="K191" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L191" t="n">
         <v>1</v>
       </c>
@@ -7049,7 +7229,11 @@
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr"/>
+      <c r="K192" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L192" t="n">
         <v>1</v>
       </c>
@@ -7082,7 +7266,11 @@
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr"/>
+      <c r="K193" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L193" t="n">
         <v>1</v>
       </c>
@@ -7115,7 +7303,11 @@
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr"/>
+      <c r="K194" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L194" t="n">
         <v>1</v>
       </c>
@@ -7148,7 +7340,11 @@
       </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr"/>
+      <c r="K195" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L195" t="n">
         <v>1</v>
       </c>
@@ -7181,7 +7377,11 @@
       </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr"/>
+      <c r="K196" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L196" t="n">
         <v>1</v>
       </c>
@@ -7214,7 +7414,11 @@
       </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr"/>
+      <c r="K197" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L197" t="n">
         <v>1</v>
       </c>
@@ -7247,7 +7451,11 @@
       </c>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr"/>
+      <c r="K198" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L198" t="n">
         <v>1</v>
       </c>
@@ -7276,11 +7484,15 @@
         <v>-44114.65716534901</v>
       </c>
       <c r="H199" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr"/>
+      <c r="K199" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L199" t="n">
         <v>1</v>
       </c>
@@ -7313,7 +7525,11 @@
       </c>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr"/>
+      <c r="K200" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L200" t="n">
         <v>1</v>
       </c>
@@ -7342,11 +7558,15 @@
         <v>-44106.65716534901</v>
       </c>
       <c r="H201" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr"/>
+      <c r="K201" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L201" t="n">
         <v>1</v>
       </c>
@@ -7375,11 +7595,15 @@
         <v>-52084.65046534901</v>
       </c>
       <c r="H202" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr"/>
+      <c r="K202" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L202" t="n">
         <v>1</v>
       </c>
@@ -7412,7 +7636,11 @@
       </c>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr"/>
+      <c r="K203" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L203" t="n">
         <v>1</v>
       </c>
@@ -7445,7 +7673,11 @@
       </c>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr"/>
+      <c r="K204" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L204" t="n">
         <v>1</v>
       </c>
@@ -7478,7 +7710,11 @@
       </c>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr"/>
+      <c r="K205" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L205" t="n">
         <v>1</v>
       </c>
@@ -7511,7 +7747,11 @@
       </c>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr"/>
+      <c r="K206" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L206" t="n">
         <v>1</v>
       </c>
@@ -7544,7 +7784,11 @@
       </c>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr"/>
+      <c r="K207" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L207" t="n">
         <v>1</v>
       </c>
@@ -7577,7 +7821,11 @@
       </c>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr"/>
+      <c r="K208" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L208" t="n">
         <v>1</v>
       </c>
@@ -7610,7 +7858,11 @@
       </c>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr"/>
+      <c r="K209" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L209" t="n">
         <v>1</v>
       </c>
@@ -7643,7 +7895,11 @@
       </c>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr"/>
+      <c r="K210" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L210" t="n">
         <v>1</v>
       </c>
@@ -7676,7 +7932,11 @@
       </c>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr"/>
+      <c r="K211" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L211" t="n">
         <v>1</v>
       </c>
@@ -7709,7 +7969,11 @@
       </c>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr"/>
+      <c r="K212" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L212" t="n">
         <v>1</v>
       </c>
@@ -7742,7 +8006,11 @@
       </c>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr"/>
+      <c r="K213" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L213" t="n">
         <v>1</v>
       </c>
@@ -7775,7 +8043,11 @@
       </c>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr"/>
+      <c r="K214" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L214" t="n">
         <v>1</v>
       </c>
@@ -7804,11 +8076,15 @@
         <v>-59278.4473886094</v>
       </c>
       <c r="H215" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr"/>
+      <c r="K215" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L215" t="n">
         <v>1</v>
       </c>
@@ -7837,11 +8113,15 @@
         <v>-59270.4473886094</v>
       </c>
       <c r="H216" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
-      <c r="K216" t="inlineStr"/>
+      <c r="K216" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L216" t="n">
         <v>1</v>
       </c>
@@ -7870,11 +8150,15 @@
         <v>-76320.5081886094</v>
       </c>
       <c r="H217" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr"/>
+      <c r="K217" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L217" t="n">
         <v>1</v>
       </c>
@@ -7903,11 +8187,15 @@
         <v>-62318.92280459018</v>
       </c>
       <c r="H218" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
-      <c r="K218" t="inlineStr"/>
+      <c r="K218" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L218" t="n">
         <v>1</v>
       </c>
@@ -7936,11 +8224,15 @@
         <v>-62337.35180761133</v>
       </c>
       <c r="H219" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
-      <c r="K219" t="inlineStr"/>
+      <c r="K219" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L219" t="n">
         <v>1</v>
       </c>
@@ -7969,14 +8261,16 @@
         <v>-67630.46940761134</v>
       </c>
       <c r="H220" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
-      <c r="K220" t="inlineStr"/>
-      <c r="L220" t="n">
-        <v>1</v>
-      </c>
+      <c r="K220" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L220" t="inlineStr"/>
       <c r="M220" t="inlineStr"/>
     </row>
     <row r="221">
@@ -8002,7 +8296,7 @@
         <v>-67622.46940761134</v>
       </c>
       <c r="H221" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
@@ -8035,7 +8329,7 @@
         <v>-67918.53840761134</v>
       </c>
       <c r="H222" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
@@ -8068,7 +8362,7 @@
         <v>-67918.53840761134</v>
       </c>
       <c r="H223" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
@@ -8101,7 +8395,7 @@
         <v>-67622.46940761134</v>
       </c>
       <c r="H224" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
@@ -8134,7 +8428,7 @@
         <v>-54805.02070761134</v>
       </c>
       <c r="H225" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
@@ -8167,7 +8461,7 @@
         <v>-40017.33505722319</v>
       </c>
       <c r="H226" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
@@ -8233,7 +8527,7 @@
         <v>-2404.004057223189</v>
       </c>
       <c r="H228" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
@@ -8266,7 +8560,7 @@
         <v>-37152.15525722319</v>
       </c>
       <c r="H229" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
@@ -8299,7 +8593,7 @@
         <v>-37042.15525722319</v>
       </c>
       <c r="H230" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
@@ -8332,7 +8626,7 @@
         <v>-39031.09635722318</v>
       </c>
       <c r="H231" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
@@ -8343,6 +8637,6 @@
       <c r="M231" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-21 BackTest FX.xlsx
+++ b/BackTest/2020-01-21 BackTest FX.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -649,7 +649,7 @@
         <v>-80319.49820682607</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>-80616.35780682607</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -2992,17 +2992,11 @@
         <v>-101702.9408936619</v>
       </c>
       <c r="H79" t="n">
-        <v>1</v>
-      </c>
-      <c r="I79" t="n">
-        <v>66.31</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="K79" t="inlineStr"/>
       <c r="L79" t="n">
         <v>1</v>
       </c>
@@ -3035,11 +3029,7 @@
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K80" t="inlineStr"/>
       <c r="L80" t="n">
         <v>1</v>
       </c>
@@ -3068,17 +3058,11 @@
         <v>-107378.4170936619</v>
       </c>
       <c r="H81" t="n">
-        <v>1</v>
-      </c>
-      <c r="I81" t="n">
-        <v>66.31</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K81" t="inlineStr"/>
       <c r="L81" t="n">
         <v>1</v>
       </c>
@@ -3107,17 +3091,11 @@
         <v>-118025.7872936619</v>
       </c>
       <c r="H82" t="n">
-        <v>1</v>
-      </c>
-      <c r="I82" t="n">
-        <v>66.31</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K82" t="inlineStr"/>
       <c r="L82" t="n">
         <v>1</v>
       </c>
@@ -3150,11 +3128,7 @@
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K83" t="inlineStr"/>
       <c r="L83" t="n">
         <v>1</v>
       </c>
@@ -3187,11 +3161,7 @@
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K84" t="inlineStr"/>
       <c r="L84" t="n">
         <v>1</v>
       </c>
@@ -3224,11 +3194,7 @@
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K85" t="inlineStr"/>
       <c r="L85" t="n">
         <v>1</v>
       </c>
@@ -3261,11 +3227,7 @@
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K86" t="inlineStr"/>
       <c r="L86" t="n">
         <v>1</v>
       </c>
@@ -3298,11 +3260,7 @@
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K87" t="inlineStr"/>
       <c r="L87" t="n">
         <v>1</v>
       </c>
@@ -3335,11 +3293,7 @@
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K88" t="inlineStr"/>
       <c r="L88" t="n">
         <v>1</v>
       </c>
@@ -3372,11 +3326,7 @@
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K89" t="inlineStr"/>
       <c r="L89" t="n">
         <v>1</v>
       </c>
@@ -3409,11 +3359,7 @@
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K90" t="inlineStr"/>
       <c r="L90" t="n">
         <v>1</v>
       </c>
@@ -3446,11 +3392,7 @@
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K91" t="inlineStr"/>
       <c r="L91" t="n">
         <v>1</v>
       </c>
@@ -3483,11 +3425,7 @@
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K92" t="inlineStr"/>
       <c r="L92" t="n">
         <v>1</v>
       </c>
@@ -3520,11 +3458,7 @@
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K93" t="inlineStr"/>
       <c r="L93" t="n">
         <v>1</v>
       </c>
@@ -3557,11 +3491,7 @@
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K94" t="inlineStr"/>
       <c r="L94" t="n">
         <v>1</v>
       </c>
@@ -3594,11 +3524,7 @@
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K95" t="inlineStr"/>
       <c r="L95" t="n">
         <v>1</v>
       </c>
@@ -3631,11 +3557,7 @@
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K96" t="inlineStr"/>
       <c r="L96" t="n">
         <v>1</v>
       </c>
@@ -3668,11 +3590,7 @@
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K97" t="inlineStr"/>
       <c r="L97" t="n">
         <v>1</v>
       </c>
@@ -3705,11 +3623,7 @@
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K98" t="inlineStr"/>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -3742,11 +3656,7 @@
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K99" t="inlineStr"/>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -3779,11 +3689,7 @@
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K100" t="inlineStr"/>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -3816,11 +3722,7 @@
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K101" t="inlineStr"/>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -3853,11 +3755,7 @@
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K102" t="inlineStr"/>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -3890,11 +3788,7 @@
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K103" t="inlineStr"/>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -3927,11 +3821,7 @@
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K104" t="inlineStr"/>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -3964,11 +3854,7 @@
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K105" t="inlineStr"/>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -4001,11 +3887,7 @@
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K106" t="inlineStr"/>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -4039,12 +3921,10 @@
       <c r="I107" t="n">
         <v>66.5</v>
       </c>
-      <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J107" t="n">
+        <v>66.5</v>
+      </c>
+      <c r="K107" t="inlineStr"/>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -4076,10 +3956,12 @@
         <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
-      <c r="J108" t="inlineStr"/>
+      <c r="J108" t="n">
+        <v>66.5</v>
+      </c>
       <c r="K108" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L108" t="n">
@@ -4113,10 +3995,12 @@
         <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
-      <c r="J109" t="inlineStr"/>
+      <c r="J109" t="n">
+        <v>66.5</v>
+      </c>
       <c r="K109" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L109" t="n">
@@ -4151,11 +4035,7 @@
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K110" t="inlineStr"/>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4184,17 +4064,11 @@
         <v>-103420.1684936619</v>
       </c>
       <c r="H111" t="n">
-        <v>1</v>
-      </c>
-      <c r="I111" t="n">
-        <v>66.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K111" t="inlineStr"/>
       <c r="L111" t="n">
         <v>1</v>
       </c>
@@ -4223,17 +4097,11 @@
         <v>-103223.2799936619</v>
       </c>
       <c r="H112" t="n">
-        <v>1</v>
-      </c>
-      <c r="I112" t="n">
-        <v>67.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K112" t="inlineStr"/>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4262,17 +4130,11 @@
         <v>-109219.9384936619</v>
       </c>
       <c r="H113" t="n">
-        <v>1</v>
-      </c>
-      <c r="I113" t="n">
-        <v>67.69</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K113" t="inlineStr"/>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4301,17 +4163,11 @@
         <v>-109219.9384936619</v>
       </c>
       <c r="H114" t="n">
-        <v>1</v>
-      </c>
-      <c r="I114" t="n">
-        <v>66.36</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K114" t="inlineStr"/>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -4340,17 +4196,11 @@
         <v>-109211.9384936619</v>
       </c>
       <c r="H115" t="n">
-        <v>1</v>
-      </c>
-      <c r="I115" t="n">
-        <v>66.36</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K115" t="inlineStr"/>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -4379,17 +4229,11 @@
         <v>-109201.7885936619</v>
       </c>
       <c r="H116" t="n">
-        <v>1</v>
-      </c>
-      <c r="I116" t="n">
-        <v>66.41</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K116" t="inlineStr"/>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -4418,17 +4262,11 @@
         <v>-109185.9279936619</v>
       </c>
       <c r="H117" t="n">
-        <v>1</v>
-      </c>
-      <c r="I117" t="n">
-        <v>67.40000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K117" t="inlineStr"/>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -4461,11 +4299,7 @@
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K118" t="inlineStr"/>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -4494,17 +4328,11 @@
         <v>-110040.6361732003</v>
       </c>
       <c r="H119" t="n">
-        <v>1</v>
-      </c>
-      <c r="I119" t="n">
-        <v>66.40000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K119" t="inlineStr"/>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -4537,11 +4365,7 @@
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K120" t="inlineStr"/>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -4570,17 +4394,11 @@
         <v>-111361.6361732003</v>
       </c>
       <c r="H121" t="n">
-        <v>1</v>
-      </c>
-      <c r="I121" t="n">
-        <v>66.37</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K121" t="inlineStr"/>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -4613,11 +4431,7 @@
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K122" t="inlineStr"/>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -4646,17 +4460,11 @@
         <v>-111186.5455732003</v>
       </c>
       <c r="H123" t="n">
-        <v>1</v>
-      </c>
-      <c r="I123" t="n">
-        <v>66.38</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K123" t="inlineStr"/>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -4685,17 +4493,11 @@
         <v>-111186.5455732003</v>
       </c>
       <c r="H124" t="n">
-        <v>1</v>
-      </c>
-      <c r="I124" t="n">
-        <v>66.39</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K124" t="inlineStr"/>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -4724,17 +4526,11 @@
         <v>-111127.1935732003</v>
       </c>
       <c r="H125" t="n">
-        <v>1</v>
-      </c>
-      <c r="I125" t="n">
-        <v>66.39</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K125" t="inlineStr"/>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -4763,17 +4559,11 @@
         <v>-124900.5276732003</v>
       </c>
       <c r="H126" t="n">
-        <v>1</v>
-      </c>
-      <c r="I126" t="n">
-        <v>66.59999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K126" t="inlineStr"/>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -4802,17 +4592,11 @@
         <v>-124892.5276732003</v>
       </c>
       <c r="H127" t="n">
-        <v>1</v>
-      </c>
-      <c r="I127" t="n">
-        <v>66.41</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K127" t="inlineStr"/>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -4841,17 +4625,11 @@
         <v>-125024.5584732003</v>
       </c>
       <c r="H128" t="n">
-        <v>1</v>
-      </c>
-      <c r="I128" t="n">
-        <v>66.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K128" t="inlineStr"/>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -4880,17 +4658,11 @@
         <v>-125024.5584732003</v>
       </c>
       <c r="H129" t="n">
-        <v>1</v>
-      </c>
-      <c r="I129" t="n">
-        <v>66.41</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K129" t="inlineStr"/>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -4919,17 +4691,11 @@
         <v>-125006.3784732003</v>
       </c>
       <c r="H130" t="n">
-        <v>1</v>
-      </c>
-      <c r="I130" t="n">
-        <v>66.41</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K130" t="inlineStr"/>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -4958,17 +4724,11 @@
         <v>-124986.3784732003</v>
       </c>
       <c r="H131" t="n">
-        <v>1</v>
-      </c>
-      <c r="I131" t="n">
-        <v>66.42</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K131" t="inlineStr"/>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -5001,11 +4761,7 @@
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K132" t="inlineStr"/>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -5038,11 +4794,7 @@
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K133" t="inlineStr"/>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -5071,17 +4823,11 @@
         <v>-126591.4568732003</v>
       </c>
       <c r="H134" t="n">
-        <v>1</v>
-      </c>
-      <c r="I134" t="n">
-        <v>66.59999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K134" t="inlineStr"/>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -5110,17 +4856,11 @@
         <v>-126087.3705732003</v>
       </c>
       <c r="H135" t="n">
-        <v>1</v>
-      </c>
-      <c r="I135" t="n">
-        <v>66.98999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K135" t="inlineStr"/>
       <c r="L135" t="n">
         <v>1</v>
       </c>
@@ -5153,11 +4893,7 @@
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K136" t="inlineStr"/>
       <c r="L136" t="n">
         <v>1</v>
       </c>
@@ -5186,17 +4922,11 @@
         <v>-128405.0193732003</v>
       </c>
       <c r="H137" t="n">
-        <v>1</v>
-      </c>
-      <c r="I137" t="n">
-        <v>66.59999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K137" t="inlineStr"/>
       <c r="L137" t="n">
         <v>1</v>
       </c>
@@ -5229,11 +4959,7 @@
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K138" t="inlineStr"/>
       <c r="L138" t="n">
         <v>1</v>
       </c>
@@ -5266,11 +4992,7 @@
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K139" t="inlineStr"/>
       <c r="L139" t="n">
         <v>1</v>
       </c>
@@ -5303,11 +5025,7 @@
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K140" t="inlineStr"/>
       <c r="L140" t="n">
         <v>1</v>
       </c>
@@ -5340,11 +5058,7 @@
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K141" t="inlineStr"/>
       <c r="L141" t="n">
         <v>1</v>
       </c>
@@ -5377,11 +5091,7 @@
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K142" t="inlineStr"/>
       <c r="L142" t="n">
         <v>1</v>
       </c>
@@ -5414,11 +5124,7 @@
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K143" t="inlineStr"/>
       <c r="L143" t="n">
         <v>1</v>
       </c>
@@ -5451,11 +5157,7 @@
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K144" t="inlineStr"/>
       <c r="L144" t="n">
         <v>1</v>
       </c>
@@ -5488,11 +5190,7 @@
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K145" t="inlineStr"/>
       <c r="L145" t="n">
         <v>1</v>
       </c>
@@ -5525,11 +5223,7 @@
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K146" t="inlineStr"/>
       <c r="L146" t="n">
         <v>1</v>
       </c>
@@ -5562,11 +5256,7 @@
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K147" t="inlineStr"/>
       <c r="L147" t="n">
         <v>1</v>
       </c>
@@ -5599,11 +5289,7 @@
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K148" t="inlineStr"/>
       <c r="L148" t="n">
         <v>1</v>
       </c>
@@ -5636,11 +5322,7 @@
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K149" t="inlineStr"/>
       <c r="L149" t="n">
         <v>1</v>
       </c>
@@ -5673,11 +5355,7 @@
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K150" t="inlineStr"/>
       <c r="L150" t="n">
         <v>1</v>
       </c>
@@ -5710,11 +5388,7 @@
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K151" t="inlineStr"/>
       <c r="L151" t="n">
         <v>1</v>
       </c>
@@ -5747,11 +5421,7 @@
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K152" t="inlineStr"/>
       <c r="L152" t="n">
         <v>1</v>
       </c>
@@ -5784,11 +5454,7 @@
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K153" t="inlineStr"/>
       <c r="L153" t="n">
         <v>1</v>
       </c>
@@ -5821,11 +5487,7 @@
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K154" t="inlineStr"/>
       <c r="L154" t="n">
         <v>1</v>
       </c>
@@ -5858,11 +5520,7 @@
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K155" t="inlineStr"/>
       <c r="L155" t="n">
         <v>1</v>
       </c>
@@ -5895,11 +5553,7 @@
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K156" t="inlineStr"/>
       <c r="L156" t="n">
         <v>1</v>
       </c>
@@ -5932,11 +5586,7 @@
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K157" t="inlineStr"/>
       <c r="L157" t="n">
         <v>1</v>
       </c>
@@ -5969,11 +5619,7 @@
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K158" t="inlineStr"/>
       <c r="L158" t="n">
         <v>1</v>
       </c>
@@ -6006,11 +5652,7 @@
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K159" t="inlineStr"/>
       <c r="L159" t="n">
         <v>1</v>
       </c>
@@ -6043,11 +5685,7 @@
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K160" t="inlineStr"/>
       <c r="L160" t="n">
         <v>1</v>
       </c>
@@ -6080,11 +5718,7 @@
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K161" t="inlineStr"/>
       <c r="L161" t="n">
         <v>1</v>
       </c>
@@ -6117,11 +5751,7 @@
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K162" t="inlineStr"/>
       <c r="L162" t="n">
         <v>1</v>
       </c>
@@ -6154,11 +5784,7 @@
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K163" t="inlineStr"/>
       <c r="L163" t="n">
         <v>1</v>
       </c>
@@ -6187,17 +5813,11 @@
         <v>-100522.2857750264</v>
       </c>
       <c r="H164" t="n">
-        <v>1</v>
-      </c>
-      <c r="I164" t="n">
-        <v>67.54000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K164" t="inlineStr"/>
       <c r="L164" t="n">
         <v>1</v>
       </c>
@@ -6230,11 +5850,7 @@
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K165" t="inlineStr"/>
       <c r="L165" t="n">
         <v>1</v>
       </c>
@@ -6267,11 +5883,7 @@
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K166" t="inlineStr"/>
       <c r="L166" t="n">
         <v>1</v>
       </c>
@@ -6304,11 +5916,7 @@
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K167" t="inlineStr"/>
       <c r="L167" t="n">
         <v>1</v>
       </c>
@@ -6341,11 +5949,7 @@
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K168" t="inlineStr"/>
       <c r="L168" t="n">
         <v>1</v>
       </c>
@@ -6378,11 +5982,7 @@
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K169" t="inlineStr"/>
       <c r="L169" t="n">
         <v>1</v>
       </c>
@@ -6415,11 +6015,7 @@
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K170" t="inlineStr"/>
       <c r="L170" t="n">
         <v>1</v>
       </c>
@@ -6452,11 +6048,7 @@
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K171" t="inlineStr"/>
       <c r="L171" t="n">
         <v>1</v>
       </c>
@@ -6489,11 +6081,7 @@
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K172" t="inlineStr"/>
       <c r="L172" t="n">
         <v>1</v>
       </c>
@@ -6526,11 +6114,7 @@
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K173" t="inlineStr"/>
       <c r="L173" t="n">
         <v>1</v>
       </c>
@@ -6563,11 +6147,7 @@
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K174" t="inlineStr"/>
       <c r="L174" t="n">
         <v>1</v>
       </c>
@@ -6600,11 +6180,7 @@
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K175" t="inlineStr"/>
       <c r="L175" t="n">
         <v>1</v>
       </c>
@@ -6637,11 +6213,7 @@
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K176" t="inlineStr"/>
       <c r="L176" t="n">
         <v>1</v>
       </c>
@@ -6674,11 +6246,7 @@
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K177" t="inlineStr"/>
       <c r="L177" t="n">
         <v>1</v>
       </c>
@@ -6711,11 +6279,7 @@
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K178" t="inlineStr"/>
       <c r="L178" t="n">
         <v>1</v>
       </c>
@@ -6748,11 +6312,7 @@
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K179" t="inlineStr"/>
       <c r="L179" t="n">
         <v>1</v>
       </c>
@@ -6785,11 +6345,7 @@
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K180" t="inlineStr"/>
       <c r="L180" t="n">
         <v>1</v>
       </c>
@@ -6822,11 +6378,7 @@
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K181" t="inlineStr"/>
       <c r="L181" t="n">
         <v>1</v>
       </c>
@@ -6859,11 +6411,7 @@
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K182" t="inlineStr"/>
       <c r="L182" t="n">
         <v>1</v>
       </c>
@@ -6896,11 +6444,7 @@
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K183" t="inlineStr"/>
       <c r="L183" t="n">
         <v>1</v>
       </c>
@@ -6933,11 +6477,7 @@
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K184" t="inlineStr"/>
       <c r="L184" t="n">
         <v>1</v>
       </c>
@@ -6970,11 +6510,7 @@
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K185" t="inlineStr"/>
       <c r="L185" t="n">
         <v>1</v>
       </c>
@@ -7007,11 +6543,7 @@
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K186" t="inlineStr"/>
       <c r="L186" t="n">
         <v>1</v>
       </c>
@@ -7044,11 +6576,7 @@
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K187" t="inlineStr"/>
       <c r="L187" t="n">
         <v>1</v>
       </c>
@@ -7081,11 +6609,7 @@
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K188" t="inlineStr"/>
       <c r="L188" t="n">
         <v>1</v>
       </c>
@@ -7118,11 +6642,7 @@
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K189" t="inlineStr"/>
       <c r="L189" t="n">
         <v>1</v>
       </c>
@@ -7155,11 +6675,7 @@
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K190" t="inlineStr"/>
       <c r="L190" t="n">
         <v>1</v>
       </c>
@@ -7192,11 +6708,7 @@
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K191" t="inlineStr"/>
       <c r="L191" t="n">
         <v>1</v>
       </c>
@@ -7229,11 +6741,7 @@
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K192" t="inlineStr"/>
       <c r="L192" t="n">
         <v>1</v>
       </c>
@@ -7266,11 +6774,7 @@
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K193" t="inlineStr"/>
       <c r="L193" t="n">
         <v>1</v>
       </c>
@@ -7303,11 +6807,7 @@
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K194" t="inlineStr"/>
       <c r="L194" t="n">
         <v>1</v>
       </c>
@@ -7340,11 +6840,7 @@
       </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K195" t="inlineStr"/>
       <c r="L195" t="n">
         <v>1</v>
       </c>
@@ -7377,11 +6873,7 @@
       </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K196" t="inlineStr"/>
       <c r="L196" t="n">
         <v>1</v>
       </c>
@@ -7414,11 +6906,7 @@
       </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K197" t="inlineStr"/>
       <c r="L197" t="n">
         <v>1</v>
       </c>
@@ -7451,11 +6939,7 @@
       </c>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K198" t="inlineStr"/>
       <c r="L198" t="n">
         <v>1</v>
       </c>
@@ -7488,11 +6972,7 @@
       </c>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K199" t="inlineStr"/>
       <c r="L199" t="n">
         <v>1</v>
       </c>
@@ -7525,11 +7005,7 @@
       </c>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K200" t="inlineStr"/>
       <c r="L200" t="n">
         <v>1</v>
       </c>
@@ -7562,11 +7038,7 @@
       </c>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K201" t="inlineStr"/>
       <c r="L201" t="n">
         <v>1</v>
       </c>
@@ -7599,11 +7071,7 @@
       </c>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K202" t="inlineStr"/>
       <c r="L202" t="n">
         <v>1</v>
       </c>
@@ -7636,11 +7104,7 @@
       </c>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K203" t="inlineStr"/>
       <c r="L203" t="n">
         <v>1</v>
       </c>
@@ -7673,11 +7137,7 @@
       </c>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K204" t="inlineStr"/>
       <c r="L204" t="n">
         <v>1</v>
       </c>
@@ -7710,11 +7170,7 @@
       </c>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K205" t="inlineStr"/>
       <c r="L205" t="n">
         <v>1</v>
       </c>
@@ -7747,11 +7203,7 @@
       </c>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K206" t="inlineStr"/>
       <c r="L206" t="n">
         <v>1</v>
       </c>
@@ -7784,11 +7236,7 @@
       </c>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K207" t="inlineStr"/>
       <c r="L207" t="n">
         <v>1</v>
       </c>
@@ -7821,11 +7269,7 @@
       </c>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K208" t="inlineStr"/>
       <c r="L208" t="n">
         <v>1</v>
       </c>
@@ -7858,11 +7302,7 @@
       </c>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K209" t="inlineStr"/>
       <c r="L209" t="n">
         <v>1</v>
       </c>
@@ -7895,11 +7335,7 @@
       </c>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K210" t="inlineStr"/>
       <c r="L210" t="n">
         <v>1</v>
       </c>
@@ -7932,11 +7368,7 @@
       </c>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K211" t="inlineStr"/>
       <c r="L211" t="n">
         <v>1</v>
       </c>
@@ -7969,11 +7401,7 @@
       </c>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K212" t="inlineStr"/>
       <c r="L212" t="n">
         <v>1</v>
       </c>
@@ -8006,11 +7434,7 @@
       </c>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K213" t="inlineStr"/>
       <c r="L213" t="n">
         <v>1</v>
       </c>
@@ -8043,11 +7467,7 @@
       </c>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K214" t="inlineStr"/>
       <c r="L214" t="n">
         <v>1</v>
       </c>
@@ -8080,11 +7500,7 @@
       </c>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K215" t="inlineStr"/>
       <c r="L215" t="n">
         <v>1</v>
       </c>
@@ -8117,11 +7533,7 @@
       </c>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
-      <c r="K216" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K216" t="inlineStr"/>
       <c r="L216" t="n">
         <v>1</v>
       </c>
@@ -8154,11 +7566,7 @@
       </c>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K217" t="inlineStr"/>
       <c r="L217" t="n">
         <v>1</v>
       </c>
@@ -8191,11 +7599,7 @@
       </c>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
-      <c r="K218" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K218" t="inlineStr"/>
       <c r="L218" t="n">
         <v>1</v>
       </c>
@@ -8228,11 +7632,7 @@
       </c>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
-      <c r="K219" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K219" t="inlineStr"/>
       <c r="L219" t="n">
         <v>1</v>
       </c>
@@ -8261,16 +7661,14 @@
         <v>-67630.46940761134</v>
       </c>
       <c r="H220" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
-      <c r="K220" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L220" t="inlineStr"/>
+      <c r="K220" t="inlineStr"/>
+      <c r="L220" t="n">
+        <v>1</v>
+      </c>
       <c r="M220" t="inlineStr"/>
     </row>
     <row r="221">
@@ -8329,7 +7727,7 @@
         <v>-67918.53840761134</v>
       </c>
       <c r="H222" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
@@ -8461,7 +7859,7 @@
         <v>-40017.33505722319</v>
       </c>
       <c r="H226" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
@@ -8527,7 +7925,7 @@
         <v>-2404.004057223189</v>
       </c>
       <c r="H228" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
@@ -8560,7 +7958,7 @@
         <v>-37152.15525722319</v>
       </c>
       <c r="H229" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
@@ -8593,7 +7991,7 @@
         <v>-37042.15525722319</v>
       </c>
       <c r="H230" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
@@ -8626,7 +8024,7 @@
         <v>-39031.09635722318</v>
       </c>
       <c r="H231" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
@@ -8637,6 +8035,6 @@
       <c r="M231" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-21 BackTest FX.xlsx
+++ b/BackTest/2020-01-21 BackTest FX.xlsx
@@ -649,7 +649,7 @@
         <v>-80319.49820682607</v>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>-80616.35780682607</v>
       </c>
       <c r="H9" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -2992,11 +2992,17 @@
         <v>-101702.9408936619</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
-      </c>
-      <c r="I79" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I79" t="n">
+        <v>66.31</v>
+      </c>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L79" t="n">
         <v>1</v>
       </c>
@@ -3029,7 +3035,11 @@
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L80" t="n">
         <v>1</v>
       </c>
@@ -3058,11 +3068,17 @@
         <v>-107378.4170936619</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
-      </c>
-      <c r="I81" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I81" t="n">
+        <v>66.31</v>
+      </c>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L81" t="n">
         <v>1</v>
       </c>
@@ -3095,7 +3111,11 @@
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L82" t="n">
         <v>1</v>
       </c>
@@ -3124,11 +3144,17 @@
         <v>-113161.5344936619</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
-      </c>
-      <c r="I83" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I83" t="n">
+        <v>66.3</v>
+      </c>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L83" t="n">
         <v>1</v>
       </c>
@@ -3161,7 +3187,11 @@
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L84" t="n">
         <v>1</v>
       </c>
@@ -3194,7 +3224,11 @@
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L85" t="n">
         <v>1</v>
       </c>
@@ -3227,7 +3261,11 @@
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L86" t="n">
         <v>1</v>
       </c>
@@ -3260,7 +3298,11 @@
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L87" t="n">
         <v>1</v>
       </c>
@@ -3293,7 +3335,11 @@
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L88" t="n">
         <v>1</v>
       </c>
@@ -3326,7 +3372,11 @@
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L89" t="n">
         <v>1</v>
       </c>
@@ -3359,7 +3409,11 @@
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L90" t="n">
         <v>1</v>
       </c>
@@ -3392,7 +3446,11 @@
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L91" t="n">
         <v>1</v>
       </c>
@@ -3425,7 +3483,11 @@
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L92" t="n">
         <v>1</v>
       </c>
@@ -3458,7 +3520,11 @@
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L93" t="n">
         <v>1</v>
       </c>
@@ -3491,7 +3557,11 @@
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L94" t="n">
         <v>1</v>
       </c>
@@ -3524,7 +3594,11 @@
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L95" t="n">
         <v>1</v>
       </c>
@@ -3557,7 +3631,11 @@
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L96" t="n">
         <v>1</v>
       </c>
@@ -3590,7 +3668,11 @@
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L97" t="n">
         <v>1</v>
       </c>
@@ -3623,7 +3705,11 @@
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -3656,7 +3742,11 @@
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -3689,7 +3779,11 @@
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -3722,7 +3816,11 @@
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -3755,7 +3853,11 @@
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -3788,7 +3890,11 @@
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -3821,7 +3927,11 @@
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -3854,7 +3964,11 @@
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -3887,7 +4001,11 @@
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -3921,10 +4039,12 @@
       <c r="I107" t="n">
         <v>66.5</v>
       </c>
-      <c r="J107" t="n">
-        <v>66.5</v>
-      </c>
-      <c r="K107" t="inlineStr"/>
+      <c r="J107" t="inlineStr"/>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -3956,12 +4076,10 @@
         <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
-      <c r="J108" t="n">
-        <v>66.5</v>
-      </c>
+      <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L108" t="n">
@@ -3995,12 +4113,10 @@
         <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
-      <c r="J109" t="n">
-        <v>66.5</v>
-      </c>
+      <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L109" t="n">
@@ -4035,7 +4151,11 @@
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4068,7 +4188,11 @@
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L111" t="n">
         <v>1</v>
       </c>
@@ -4101,7 +4225,11 @@
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4134,7 +4262,11 @@
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4167,7 +4299,11 @@
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -4196,11 +4332,17 @@
         <v>-109211.9384936619</v>
       </c>
       <c r="H115" t="n">
-        <v>0</v>
-      </c>
-      <c r="I115" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I115" t="n">
+        <v>66.36</v>
+      </c>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -4229,11 +4371,17 @@
         <v>-109201.7885936619</v>
       </c>
       <c r="H116" t="n">
-        <v>0</v>
-      </c>
-      <c r="I116" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I116" t="n">
+        <v>66.41</v>
+      </c>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -4266,7 +4414,11 @@
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -4299,7 +4451,11 @@
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -4328,11 +4484,17 @@
         <v>-110040.6361732003</v>
       </c>
       <c r="H119" t="n">
-        <v>0</v>
-      </c>
-      <c r="I119" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I119" t="n">
+        <v>66.40000000000001</v>
+      </c>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -4365,7 +4527,11 @@
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -4398,7 +4564,11 @@
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -4431,7 +4601,11 @@
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -4464,7 +4638,11 @@
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -4493,11 +4671,17 @@
         <v>-111186.5455732003</v>
       </c>
       <c r="H124" t="n">
-        <v>0</v>
-      </c>
-      <c r="I124" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I124" t="n">
+        <v>66.39</v>
+      </c>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
+      <c r="K124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -4526,11 +4710,17 @@
         <v>-111127.1935732003</v>
       </c>
       <c r="H125" t="n">
-        <v>0</v>
-      </c>
-      <c r="I125" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I125" t="n">
+        <v>66.39</v>
+      </c>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
+      <c r="K125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -4559,11 +4749,17 @@
         <v>-124900.5276732003</v>
       </c>
       <c r="H126" t="n">
-        <v>0</v>
-      </c>
-      <c r="I126" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I126" t="n">
+        <v>66.59999999999999</v>
+      </c>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
+      <c r="K126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -4592,11 +4788,17 @@
         <v>-124892.5276732003</v>
       </c>
       <c r="H127" t="n">
-        <v>0</v>
-      </c>
-      <c r="I127" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I127" t="n">
+        <v>66.41</v>
+      </c>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
+      <c r="K127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -4625,11 +4827,17 @@
         <v>-125024.5584732003</v>
       </c>
       <c r="H128" t="n">
-        <v>0</v>
-      </c>
-      <c r="I128" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I128" t="n">
+        <v>66.5</v>
+      </c>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
+      <c r="K128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -4658,11 +4866,17 @@
         <v>-125024.5584732003</v>
       </c>
       <c r="H129" t="n">
-        <v>0</v>
-      </c>
-      <c r="I129" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I129" t="n">
+        <v>66.41</v>
+      </c>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
+      <c r="K129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -4691,11 +4905,17 @@
         <v>-125006.3784732003</v>
       </c>
       <c r="H130" t="n">
-        <v>0</v>
-      </c>
-      <c r="I130" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I130" t="n">
+        <v>66.41</v>
+      </c>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
+      <c r="K130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -4724,11 +4944,17 @@
         <v>-124986.3784732003</v>
       </c>
       <c r="H131" t="n">
-        <v>0</v>
-      </c>
-      <c r="I131" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I131" t="n">
+        <v>66.42</v>
+      </c>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
+      <c r="K131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -4757,11 +4983,17 @@
         <v>-125140.0089732003</v>
       </c>
       <c r="H132" t="n">
-        <v>0</v>
-      </c>
-      <c r="I132" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I132" t="n">
+        <v>67</v>
+      </c>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
+      <c r="K132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -4790,11 +5022,17 @@
         <v>-126890.0089732003</v>
       </c>
       <c r="H133" t="n">
-        <v>0</v>
-      </c>
-      <c r="I133" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I133" t="n">
+        <v>66.98999999999999</v>
+      </c>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
+      <c r="K133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -4823,11 +5061,17 @@
         <v>-126591.4568732003</v>
       </c>
       <c r="H134" t="n">
-        <v>0</v>
-      </c>
-      <c r="I134" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I134" t="n">
+        <v>66.59999999999999</v>
+      </c>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
+      <c r="K134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -4856,11 +5100,17 @@
         <v>-126087.3705732003</v>
       </c>
       <c r="H135" t="n">
-        <v>0</v>
-      </c>
-      <c r="I135" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I135" t="n">
+        <v>66.98999999999999</v>
+      </c>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
+      <c r="K135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L135" t="n">
         <v>1</v>
       </c>
@@ -4889,11 +5139,17 @@
         <v>-126322.8314732003</v>
       </c>
       <c r="H136" t="n">
-        <v>0</v>
-      </c>
-      <c r="I136" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I136" t="n">
+        <v>67</v>
+      </c>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
+      <c r="K136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L136" t="n">
         <v>1</v>
       </c>
@@ -4922,11 +5178,17 @@
         <v>-128405.0193732003</v>
       </c>
       <c r="H137" t="n">
-        <v>0</v>
-      </c>
-      <c r="I137" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I137" t="n">
+        <v>66.59999999999999</v>
+      </c>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
+      <c r="K137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L137" t="n">
         <v>1</v>
       </c>
@@ -4955,11 +5217,17 @@
         <v>-117578.7937460361</v>
       </c>
       <c r="H138" t="n">
-        <v>0</v>
-      </c>
-      <c r="I138" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I138" t="n">
+        <v>66.5</v>
+      </c>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
+      <c r="K138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L138" t="n">
         <v>1</v>
       </c>
@@ -4992,7 +5260,11 @@
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
+      <c r="K139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L139" t="n">
         <v>1</v>
       </c>
@@ -5025,7 +5297,11 @@
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
+      <c r="K140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L140" t="n">
         <v>1</v>
       </c>
@@ -5058,7 +5334,11 @@
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
+      <c r="K141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L141" t="n">
         <v>1</v>
       </c>
@@ -5091,7 +5371,11 @@
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
+      <c r="K142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L142" t="n">
         <v>1</v>
       </c>
@@ -5124,7 +5408,11 @@
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
+      <c r="K143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L143" t="n">
         <v>1</v>
       </c>
@@ -5157,7 +5445,11 @@
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
+      <c r="K144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L144" t="n">
         <v>1</v>
       </c>
@@ -5190,7 +5482,11 @@
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
+      <c r="K145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L145" t="n">
         <v>1</v>
       </c>
@@ -5223,7 +5519,11 @@
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
+      <c r="K146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L146" t="n">
         <v>1</v>
       </c>
@@ -5256,7 +5556,11 @@
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
+      <c r="K147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L147" t="n">
         <v>1</v>
       </c>
@@ -5289,7 +5593,11 @@
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
+      <c r="K148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L148" t="n">
         <v>1</v>
       </c>
@@ -5322,7 +5630,11 @@
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
+      <c r="K149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L149" t="n">
         <v>1</v>
       </c>
@@ -5355,7 +5667,11 @@
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
+      <c r="K150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L150" t="n">
         <v>1</v>
       </c>
@@ -5388,7 +5704,11 @@
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
+      <c r="K151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L151" t="n">
         <v>1</v>
       </c>
@@ -5421,7 +5741,11 @@
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
+      <c r="K152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L152" t="n">
         <v>1</v>
       </c>
@@ -5454,7 +5778,11 @@
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
+      <c r="K153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L153" t="n">
         <v>1</v>
       </c>
@@ -5487,7 +5815,11 @@
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
+      <c r="K154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L154" t="n">
         <v>1</v>
       </c>
@@ -5520,7 +5852,11 @@
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
+      <c r="K155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L155" t="n">
         <v>1</v>
       </c>
@@ -5553,7 +5889,11 @@
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
+      <c r="K156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L156" t="n">
         <v>1</v>
       </c>
@@ -5586,7 +5926,11 @@
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
+      <c r="K157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L157" t="n">
         <v>1</v>
       </c>
@@ -5619,7 +5963,11 @@
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
+      <c r="K158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L158" t="n">
         <v>1</v>
       </c>
@@ -5652,7 +6000,11 @@
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
+      <c r="K159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L159" t="n">
         <v>1</v>
       </c>
@@ -5685,7 +6037,11 @@
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
+      <c r="K160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L160" t="n">
         <v>1</v>
       </c>
@@ -5718,7 +6074,11 @@
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
+      <c r="K161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L161" t="n">
         <v>1</v>
       </c>
@@ -5751,7 +6111,11 @@
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
+      <c r="K162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L162" t="n">
         <v>1</v>
       </c>
@@ -5784,7 +6148,11 @@
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
+      <c r="K163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L163" t="n">
         <v>1</v>
       </c>
@@ -5817,7 +6185,11 @@
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
+      <c r="K164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L164" t="n">
         <v>1</v>
       </c>
@@ -5850,7 +6222,11 @@
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
+      <c r="K165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L165" t="n">
         <v>1</v>
       </c>
@@ -5883,7 +6259,11 @@
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
+      <c r="K166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L166" t="n">
         <v>1</v>
       </c>
@@ -5916,7 +6296,11 @@
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
+      <c r="K167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L167" t="n">
         <v>1</v>
       </c>
@@ -5949,7 +6333,11 @@
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
+      <c r="K168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L168" t="n">
         <v>1</v>
       </c>
@@ -5982,7 +6370,11 @@
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
+      <c r="K169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L169" t="n">
         <v>1</v>
       </c>
@@ -6015,7 +6407,11 @@
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
+      <c r="K170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L170" t="n">
         <v>1</v>
       </c>
@@ -6048,7 +6444,11 @@
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
+      <c r="K171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L171" t="n">
         <v>1</v>
       </c>
@@ -6081,7 +6481,11 @@
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
+      <c r="K172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L172" t="n">
         <v>1</v>
       </c>
@@ -6114,7 +6518,11 @@
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
+      <c r="K173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L173" t="n">
         <v>1</v>
       </c>
@@ -6147,7 +6555,11 @@
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
+      <c r="K174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L174" t="n">
         <v>1</v>
       </c>
@@ -6180,7 +6592,11 @@
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
+      <c r="K175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L175" t="n">
         <v>1</v>
       </c>
@@ -6213,7 +6629,11 @@
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr"/>
+      <c r="K176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L176" t="n">
         <v>1</v>
       </c>
@@ -6246,7 +6666,11 @@
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr"/>
+      <c r="K177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L177" t="n">
         <v>1</v>
       </c>
@@ -6279,7 +6703,11 @@
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr"/>
+      <c r="K178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L178" t="n">
         <v>1</v>
       </c>
@@ -6312,7 +6740,11 @@
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr"/>
+      <c r="K179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L179" t="n">
         <v>1</v>
       </c>
@@ -6345,7 +6777,11 @@
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr"/>
+      <c r="K180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L180" t="n">
         <v>1</v>
       </c>
@@ -6378,7 +6814,11 @@
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr"/>
+      <c r="K181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L181" t="n">
         <v>1</v>
       </c>
@@ -6411,7 +6851,11 @@
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr"/>
+      <c r="K182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L182" t="n">
         <v>1</v>
       </c>
@@ -6444,7 +6888,11 @@
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr"/>
+      <c r="K183" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L183" t="n">
         <v>1</v>
       </c>
@@ -6477,7 +6925,11 @@
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr"/>
+      <c r="K184" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L184" t="n">
         <v>1</v>
       </c>
@@ -6510,7 +6962,11 @@
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr"/>
+      <c r="K185" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L185" t="n">
         <v>1</v>
       </c>
@@ -6543,7 +6999,11 @@
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr"/>
+      <c r="K186" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L186" t="n">
         <v>1</v>
       </c>
@@ -6576,7 +7036,11 @@
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr"/>
+      <c r="K187" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L187" t="n">
         <v>1</v>
       </c>
@@ -6609,7 +7073,11 @@
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr"/>
+      <c r="K188" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L188" t="n">
         <v>1</v>
       </c>
@@ -6642,7 +7110,11 @@
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr"/>
+      <c r="K189" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L189" t="n">
         <v>1</v>
       </c>
@@ -6675,7 +7147,11 @@
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr"/>
+      <c r="K190" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L190" t="n">
         <v>1</v>
       </c>
@@ -6708,7 +7184,11 @@
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr"/>
+      <c r="K191" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L191" t="n">
         <v>1</v>
       </c>
@@ -6741,7 +7221,11 @@
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr"/>
+      <c r="K192" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L192" t="n">
         <v>1</v>
       </c>
@@ -6774,7 +7258,11 @@
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr"/>
+      <c r="K193" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L193" t="n">
         <v>1</v>
       </c>
@@ -6807,7 +7295,11 @@
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr"/>
+      <c r="K194" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L194" t="n">
         <v>1</v>
       </c>
@@ -6840,7 +7332,11 @@
       </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr"/>
+      <c r="K195" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L195" t="n">
         <v>1</v>
       </c>
@@ -6873,7 +7369,11 @@
       </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr"/>
+      <c r="K196" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L196" t="n">
         <v>1</v>
       </c>
@@ -6906,7 +7406,11 @@
       </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr"/>
+      <c r="K197" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L197" t="n">
         <v>1</v>
       </c>
@@ -6939,7 +7443,11 @@
       </c>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr"/>
+      <c r="K198" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L198" t="n">
         <v>1</v>
       </c>
@@ -6972,7 +7480,11 @@
       </c>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr"/>
+      <c r="K199" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L199" t="n">
         <v>1</v>
       </c>
@@ -7005,7 +7517,11 @@
       </c>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr"/>
+      <c r="K200" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L200" t="n">
         <v>1</v>
       </c>
@@ -7034,14 +7550,16 @@
         <v>-44106.65716534901</v>
       </c>
       <c r="H201" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr"/>
-      <c r="L201" t="n">
-        <v>1</v>
-      </c>
+      <c r="K201" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L201" t="inlineStr"/>
       <c r="M201" t="inlineStr"/>
     </row>
     <row r="202">
@@ -7100,7 +7618,7 @@
         <v>-52076.65046534901</v>
       </c>
       <c r="H203" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
@@ -7166,7 +7684,7 @@
         <v>-67363.12916534902</v>
       </c>
       <c r="H205" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
@@ -7397,7 +7915,7 @@
         <v>-54977.5030886094</v>
       </c>
       <c r="H212" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
@@ -7430,7 +7948,7 @@
         <v>-54977.5030886094</v>
       </c>
       <c r="H213" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
@@ -7463,7 +7981,7 @@
         <v>-60131.9429886094</v>
       </c>
       <c r="H214" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
@@ -7496,7 +8014,7 @@
         <v>-59278.4473886094</v>
       </c>
       <c r="H215" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
@@ -7661,7 +8179,7 @@
         <v>-67630.46940761134</v>
       </c>
       <c r="H220" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
@@ -7892,7 +8410,7 @@
         <v>-7112.998557223189</v>
       </c>
       <c r="H227" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
@@ -7925,7 +8443,7 @@
         <v>-2404.004057223189</v>
       </c>
       <c r="H228" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
@@ -7958,7 +8476,7 @@
         <v>-37152.15525722319</v>
       </c>
       <c r="H229" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
@@ -7991,7 +8509,7 @@
         <v>-37042.15525722319</v>
       </c>
       <c r="H230" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
@@ -8024,7 +8542,7 @@
         <v>-39031.09635722318</v>
       </c>
       <c r="H231" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>

--- a/BackTest/2020-01-21 BackTest FX.xlsx
+++ b/BackTest/2020-01-21 BackTest FX.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M231"/>
+  <dimension ref="A1:L231"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -389,40 +389,35 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>volume</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>trade_state</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>BuyPrice</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>bprelay</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>Condition</t>
+          <t>Profits</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>Profits</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -448,18 +443,15 @@
         <v>6870.4431</v>
       </c>
       <c r="G2" t="n">
-        <v>-73657.85570682607</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="n">
-        <v>1</v>
-      </c>
-      <c r="M2" t="inlineStr"/>
+      <c r="K2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -481,18 +473,15 @@
         <v>160</v>
       </c>
       <c r="G3" t="n">
-        <v>-73817.85570682607</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="n">
-        <v>1</v>
-      </c>
-      <c r="M3" t="inlineStr"/>
+      <c r="K3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -514,18 +503,15 @@
         <v>8</v>
       </c>
       <c r="G4" t="n">
-        <v>-73809.85570682607</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M4" t="inlineStr"/>
+      <c r="K4" t="n">
+        <v>1</v>
+      </c>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -547,18 +533,15 @@
         <v>6524</v>
       </c>
       <c r="G5" t="n">
-        <v>-80333.85570682607</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="n">
-        <v>1</v>
-      </c>
-      <c r="M5" t="inlineStr"/>
+      <c r="K5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -580,18 +563,15 @@
         <v>529</v>
       </c>
       <c r="G6" t="n">
-        <v>-80862.85570682607</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="n">
-        <v>1</v>
-      </c>
-      <c r="M6" t="inlineStr"/>
+      <c r="K6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -613,18 +593,15 @@
         <v>123.3575</v>
       </c>
       <c r="G7" t="n">
-        <v>-80739.49820682607</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="n">
-        <v>1</v>
-      </c>
-      <c r="M7" t="inlineStr"/>
+      <c r="K7" t="n">
+        <v>1</v>
+      </c>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -646,18 +623,15 @@
         <v>420</v>
       </c>
       <c r="G8" t="n">
-        <v>-80319.49820682607</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="n">
-        <v>1</v>
-      </c>
-      <c r="M8" t="inlineStr"/>
+      <c r="K8" t="n">
+        <v>1</v>
+      </c>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -679,18 +653,15 @@
         <v>296.8596</v>
       </c>
       <c r="G9" t="n">
-        <v>-80616.35780682607</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H9" t="inlineStr"/>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="n">
-        <v>1</v>
-      </c>
-      <c r="M9" t="inlineStr"/>
+      <c r="K9" t="n">
+        <v>1</v>
+      </c>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -712,18 +683,15 @@
         <v>1394</v>
       </c>
       <c r="G10" t="n">
-        <v>-82010.35780682607</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H10" t="inlineStr"/>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="n">
-        <v>1</v>
-      </c>
-      <c r="M10" t="inlineStr"/>
+      <c r="K10" t="n">
+        <v>1</v>
+      </c>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -745,18 +713,15 @@
         <v>100</v>
       </c>
       <c r="G11" t="n">
-        <v>-81910.35780682607</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H11" t="inlineStr"/>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="n">
-        <v>1</v>
-      </c>
-      <c r="M11" t="inlineStr"/>
+      <c r="K11" t="n">
+        <v>1</v>
+      </c>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -778,18 +743,15 @@
         <v>331</v>
       </c>
       <c r="G12" t="n">
-        <v>-82241.35780682607</v>
-      </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H12" t="inlineStr"/>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="n">
-        <v>1</v>
-      </c>
-      <c r="M12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>1</v>
+      </c>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -811,18 +773,15 @@
         <v>48.1809</v>
       </c>
       <c r="G13" t="n">
-        <v>-82193.17690682606</v>
-      </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H13" t="inlineStr"/>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="n">
-        <v>1</v>
-      </c>
-      <c r="M13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>1</v>
+      </c>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -844,18 +803,15 @@
         <v>8950</v>
       </c>
       <c r="G14" t="n">
-        <v>-91143.17690682606</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H14" t="inlineStr"/>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="n">
-        <v>1</v>
-      </c>
-      <c r="M14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>1</v>
+      </c>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -877,18 +833,15 @@
         <v>8</v>
       </c>
       <c r="G15" t="n">
-        <v>-91135.17690682606</v>
-      </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H15" t="inlineStr"/>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="n">
-        <v>1</v>
-      </c>
-      <c r="M15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>1</v>
+      </c>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -910,18 +863,15 @@
         <v>17.2186</v>
       </c>
       <c r="G16" t="n">
-        <v>-91135.17690682606</v>
-      </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H16" t="inlineStr"/>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="n">
-        <v>1</v>
-      </c>
-      <c r="M16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>1</v>
+      </c>
+      <c r="L16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -943,18 +893,15 @@
         <v>356.7415</v>
       </c>
       <c r="G17" t="n">
-        <v>-91491.91840682607</v>
-      </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H17" t="inlineStr"/>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="n">
-        <v>1</v>
-      </c>
-      <c r="M17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>1</v>
+      </c>
+      <c r="L17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -976,18 +923,15 @@
         <v>15.8197</v>
       </c>
       <c r="G18" t="n">
-        <v>-91476.09870682607</v>
-      </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H18" t="inlineStr"/>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="n">
-        <v>1</v>
-      </c>
-      <c r="M18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>1</v>
+      </c>
+      <c r="L18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1009,18 +953,15 @@
         <v>4383.5122</v>
       </c>
       <c r="G19" t="n">
-        <v>-95859.61090682607</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H19" t="inlineStr"/>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="n">
-        <v>1</v>
-      </c>
-      <c r="M19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>1</v>
+      </c>
+      <c r="L19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1042,18 +983,15 @@
         <v>3516.2958</v>
       </c>
       <c r="G20" t="n">
-        <v>-95859.61090682607</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H20" t="inlineStr"/>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="n">
-        <v>1</v>
-      </c>
-      <c r="M20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>1</v>
+      </c>
+      <c r="L20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1075,18 +1013,15 @@
         <v>91.8057</v>
       </c>
       <c r="G21" t="n">
-        <v>-95767.80520682607</v>
-      </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H21" t="inlineStr"/>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="n">
-        <v>1</v>
-      </c>
-      <c r="M21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>1</v>
+      </c>
+      <c r="L21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1108,18 +1043,15 @@
         <v>15.01726986033939</v>
       </c>
       <c r="G22" t="n">
-        <v>-95767.80520682607</v>
-      </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H22" t="inlineStr"/>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="n">
-        <v>1</v>
-      </c>
-      <c r="M22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>1</v>
+      </c>
+      <c r="L22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1141,18 +1073,15 @@
         <v>8.0467</v>
       </c>
       <c r="G23" t="n">
-        <v>-95767.80520682607</v>
-      </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H23" t="inlineStr"/>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="n">
-        <v>1</v>
-      </c>
-      <c r="M23" t="inlineStr"/>
+      <c r="K23" t="n">
+        <v>1</v>
+      </c>
+      <c r="L23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1174,18 +1103,15 @@
         <v>343.9293</v>
       </c>
       <c r="G24" t="n">
-        <v>-95767.80520682607</v>
-      </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H24" t="inlineStr"/>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="n">
-        <v>1</v>
-      </c>
-      <c r="M24" t="inlineStr"/>
+      <c r="K24" t="n">
+        <v>1</v>
+      </c>
+      <c r="L24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1207,18 +1133,15 @@
         <v>3309.5274</v>
       </c>
       <c r="G25" t="n">
-        <v>-99077.33260682608</v>
-      </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H25" t="inlineStr"/>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="n">
-        <v>1</v>
-      </c>
-      <c r="M25" t="inlineStr"/>
+      <c r="K25" t="n">
+        <v>1</v>
+      </c>
+      <c r="L25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1240,18 +1163,15 @@
         <v>20.96</v>
       </c>
       <c r="G26" t="n">
-        <v>-99056.37260682607</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H26" t="inlineStr"/>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="n">
-        <v>1</v>
-      </c>
-      <c r="M26" t="inlineStr"/>
+      <c r="K26" t="n">
+        <v>1</v>
+      </c>
+      <c r="L26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1273,18 +1193,15 @@
         <v>1356.1486</v>
       </c>
       <c r="G27" t="n">
-        <v>-100412.5212068261</v>
-      </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H27" t="inlineStr"/>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="n">
-        <v>1</v>
-      </c>
-      <c r="M27" t="inlineStr"/>
+      <c r="K27" t="n">
+        <v>1</v>
+      </c>
+      <c r="L27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1306,18 +1223,15 @@
         <v>0.2197</v>
       </c>
       <c r="G28" t="n">
-        <v>-100412.5212068261</v>
-      </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H28" t="inlineStr"/>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="n">
-        <v>1</v>
-      </c>
-      <c r="M28" t="inlineStr"/>
+      <c r="K28" t="n">
+        <v>1</v>
+      </c>
+      <c r="L28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1339,18 +1253,15 @@
         <v>472.6717</v>
       </c>
       <c r="G29" t="n">
-        <v>-99939.84950682607</v>
-      </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H29" t="inlineStr"/>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="n">
-        <v>1</v>
-      </c>
-      <c r="M29" t="inlineStr"/>
+      <c r="K29" t="n">
+        <v>1</v>
+      </c>
+      <c r="L29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1372,18 +1283,19 @@
         <v>87</v>
       </c>
       <c r="G30" t="n">
-        <v>-99939.84950682607</v>
+        <v>1</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
-      </c>
-      <c r="I30" t="inlineStr"/>
+        <v>66.5</v>
+      </c>
+      <c r="I30" t="n">
+        <v>66.5</v>
+      </c>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="n">
-        <v>1</v>
-      </c>
-      <c r="M30" t="inlineStr"/>
+      <c r="K30" t="n">
+        <v>1</v>
+      </c>
+      <c r="L30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1405,18 +1317,21 @@
         <v>267</v>
       </c>
       <c r="G31" t="n">
-        <v>-100206.8495068261</v>
-      </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
-      <c r="I31" t="inlineStr"/>
-      <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="n">
-        <v>1</v>
-      </c>
-      <c r="M31" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H31" t="inlineStr"/>
+      <c r="I31" t="n">
+        <v>66.5</v>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="K31" t="n">
+        <v>1</v>
+      </c>
+      <c r="L31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1438,18 +1353,21 @@
         <v>9362.406000000001</v>
       </c>
       <c r="G32" t="n">
-        <v>-90844.44350682606</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
-      <c r="I32" t="inlineStr"/>
-      <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="n">
-        <v>1</v>
-      </c>
-      <c r="M32" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H32" t="inlineStr"/>
+      <c r="I32" t="n">
+        <v>66.5</v>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K32" t="n">
+        <v>1</v>
+      </c>
+      <c r="L32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1471,18 +1389,21 @@
         <v>1796.4527</v>
       </c>
       <c r="G33" t="n">
-        <v>-89047.99080682607</v>
-      </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
-      <c r="I33" t="inlineStr"/>
-      <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="n">
-        <v>1</v>
-      </c>
-      <c r="M33" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H33" t="inlineStr"/>
+      <c r="I33" t="n">
+        <v>66.5</v>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K33" t="n">
+        <v>1</v>
+      </c>
+      <c r="L33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1504,18 +1425,21 @@
         <v>4923.3557</v>
       </c>
       <c r="G34" t="n">
-        <v>-84124.63510682607</v>
-      </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
-      <c r="I34" t="inlineStr"/>
-      <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="n">
-        <v>1</v>
-      </c>
-      <c r="M34" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H34" t="inlineStr"/>
+      <c r="I34" t="n">
+        <v>66.5</v>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K34" t="n">
+        <v>1</v>
+      </c>
+      <c r="L34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1537,18 +1461,21 @@
         <v>135.4493</v>
       </c>
       <c r="G35" t="n">
-        <v>-84124.63510682607</v>
-      </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
-      <c r="I35" t="inlineStr"/>
-      <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="n">
-        <v>1</v>
-      </c>
-      <c r="M35" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H35" t="inlineStr"/>
+      <c r="I35" t="n">
+        <v>66.5</v>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K35" t="n">
+        <v>1</v>
+      </c>
+      <c r="L35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1570,18 +1497,21 @@
         <v>408.207</v>
       </c>
       <c r="G36" t="n">
-        <v>-84532.84210682606</v>
-      </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
-      <c r="I36" t="inlineStr"/>
-      <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="n">
-        <v>1</v>
-      </c>
-      <c r="M36" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H36" t="inlineStr"/>
+      <c r="I36" t="n">
+        <v>66.5</v>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K36" t="n">
+        <v>1</v>
+      </c>
+      <c r="L36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1603,18 +1533,21 @@
         <v>100</v>
       </c>
       <c r="G37" t="n">
-        <v>-84432.84210682606</v>
-      </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
-      <c r="I37" t="inlineStr"/>
-      <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="n">
-        <v>1</v>
-      </c>
-      <c r="M37" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H37" t="inlineStr"/>
+      <c r="I37" t="n">
+        <v>66.5</v>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K37" t="n">
+        <v>1</v>
+      </c>
+      <c r="L37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1636,18 +1569,21 @@
         <v>21708.3822</v>
       </c>
       <c r="G38" t="n">
-        <v>-62724.45990682606</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
-      <c r="I38" t="inlineStr"/>
-      <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="n">
-        <v>1</v>
-      </c>
-      <c r="M38" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H38" t="inlineStr"/>
+      <c r="I38" t="n">
+        <v>66.5</v>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K38" t="n">
+        <v>1</v>
+      </c>
+      <c r="L38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1669,18 +1605,21 @@
         <v>564.4039</v>
       </c>
       <c r="G39" t="n">
-        <v>-63288.86380682606</v>
-      </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
-      <c r="I39" t="inlineStr"/>
-      <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="n">
-        <v>1</v>
-      </c>
-      <c r="M39" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H39" t="inlineStr"/>
+      <c r="I39" t="n">
+        <v>66.5</v>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K39" t="n">
+        <v>1</v>
+      </c>
+      <c r="L39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1702,18 +1641,21 @@
         <v>872.5157</v>
       </c>
       <c r="G40" t="n">
-        <v>-63288.86380682606</v>
-      </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
-      <c r="I40" t="inlineStr"/>
-      <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="n">
-        <v>1</v>
-      </c>
-      <c r="M40" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H40" t="inlineStr"/>
+      <c r="I40" t="n">
+        <v>66.5</v>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K40" t="n">
+        <v>1</v>
+      </c>
+      <c r="L40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1735,18 +1677,21 @@
         <v>6090.4266</v>
       </c>
       <c r="G41" t="n">
-        <v>-57198.43720682606</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
-      <c r="I41" t="inlineStr"/>
-      <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="n">
-        <v>1</v>
-      </c>
-      <c r="M41" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H41" t="inlineStr"/>
+      <c r="I41" t="n">
+        <v>66.5</v>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K41" t="n">
+        <v>1</v>
+      </c>
+      <c r="L41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1768,18 +1713,21 @@
         <v>51.776</v>
       </c>
       <c r="G42" t="n">
-        <v>-57250.21320682606</v>
-      </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
-      <c r="I42" t="inlineStr"/>
-      <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="n">
-        <v>1</v>
-      </c>
-      <c r="M42" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H42" t="inlineStr"/>
+      <c r="I42" t="n">
+        <v>66.5</v>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K42" t="n">
+        <v>1</v>
+      </c>
+      <c r="L42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1801,18 +1749,21 @@
         <v>309</v>
       </c>
       <c r="G43" t="n">
-        <v>-57559.21320682606</v>
-      </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
-      <c r="I43" t="inlineStr"/>
-      <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="n">
-        <v>1</v>
-      </c>
-      <c r="M43" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H43" t="inlineStr"/>
+      <c r="I43" t="n">
+        <v>66.5</v>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K43" t="n">
+        <v>1</v>
+      </c>
+      <c r="L43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1834,18 +1785,21 @@
         <v>2008</v>
       </c>
       <c r="G44" t="n">
-        <v>-57559.21320682606</v>
-      </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
-      <c r="I44" t="inlineStr"/>
-      <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="n">
-        <v>1</v>
-      </c>
-      <c r="M44" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H44" t="inlineStr"/>
+      <c r="I44" t="n">
+        <v>66.5</v>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K44" t="n">
+        <v>1</v>
+      </c>
+      <c r="L44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1867,18 +1821,21 @@
         <v>1000</v>
       </c>
       <c r="G45" t="n">
-        <v>-56559.21320682606</v>
-      </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
-      <c r="I45" t="inlineStr"/>
-      <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="n">
-        <v>1</v>
-      </c>
-      <c r="M45" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H45" t="inlineStr"/>
+      <c r="I45" t="n">
+        <v>66.5</v>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K45" t="n">
+        <v>1</v>
+      </c>
+      <c r="L45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1900,18 +1857,21 @@
         <v>2349.2716</v>
       </c>
       <c r="G46" t="n">
-        <v>-54209.94160682606</v>
-      </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
-      <c r="I46" t="inlineStr"/>
-      <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="n">
-        <v>1</v>
-      </c>
-      <c r="M46" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H46" t="inlineStr"/>
+      <c r="I46" t="n">
+        <v>66.5</v>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K46" t="n">
+        <v>1</v>
+      </c>
+      <c r="L46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -1933,18 +1893,21 @@
         <v>50.746</v>
       </c>
       <c r="G47" t="n">
-        <v>-54159.19560682606</v>
-      </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
-      <c r="I47" t="inlineStr"/>
-      <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="n">
-        <v>1</v>
-      </c>
-      <c r="M47" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H47" t="inlineStr"/>
+      <c r="I47" t="n">
+        <v>66.5</v>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K47" t="n">
+        <v>1</v>
+      </c>
+      <c r="L47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -1966,18 +1929,21 @@
         <v>7.3932</v>
       </c>
       <c r="G48" t="n">
-        <v>-54166.58880682606</v>
-      </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
-      <c r="I48" t="inlineStr"/>
-      <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="n">
-        <v>1</v>
-      </c>
-      <c r="M48" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H48" t="inlineStr"/>
+      <c r="I48" t="n">
+        <v>66.5</v>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K48" t="n">
+        <v>1</v>
+      </c>
+      <c r="L48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -1999,18 +1965,21 @@
         <v>7.3888</v>
       </c>
       <c r="G49" t="n">
-        <v>-54159.20000682606</v>
-      </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
-      <c r="I49" t="inlineStr"/>
-      <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="n">
-        <v>1</v>
-      </c>
-      <c r="M49" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H49" t="inlineStr"/>
+      <c r="I49" t="n">
+        <v>66.5</v>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K49" t="n">
+        <v>1</v>
+      </c>
+      <c r="L49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2032,18 +2001,21 @@
         <v>345.008</v>
       </c>
       <c r="G50" t="n">
-        <v>-53814.19200682606</v>
-      </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
-      <c r="I50" t="inlineStr"/>
-      <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="n">
-        <v>1</v>
-      </c>
-      <c r="M50" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H50" t="inlineStr"/>
+      <c r="I50" t="n">
+        <v>66.5</v>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K50" t="n">
+        <v>1</v>
+      </c>
+      <c r="L50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2065,18 +2037,21 @@
         <v>9036.7037</v>
       </c>
       <c r="G51" t="n">
-        <v>-53814.19200682606</v>
-      </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
-      <c r="I51" t="inlineStr"/>
-      <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="n">
-        <v>1</v>
-      </c>
-      <c r="M51" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H51" t="inlineStr"/>
+      <c r="I51" t="n">
+        <v>66.5</v>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K51" t="n">
+        <v>1</v>
+      </c>
+      <c r="L51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2098,18 +2073,21 @@
         <v>38419.4045</v>
       </c>
       <c r="G52" t="n">
-        <v>-92233.59650682606</v>
-      </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
-      <c r="I52" t="inlineStr"/>
-      <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="n">
-        <v>1</v>
-      </c>
-      <c r="M52" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H52" t="inlineStr"/>
+      <c r="I52" t="n">
+        <v>66.5</v>
+      </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K52" t="n">
+        <v>1</v>
+      </c>
+      <c r="L52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2131,18 +2109,21 @@
         <v>10</v>
       </c>
       <c r="G53" t="n">
-        <v>-92223.59650682606</v>
-      </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
-      <c r="I53" t="inlineStr"/>
-      <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="n">
-        <v>1</v>
-      </c>
-      <c r="M53" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H53" t="inlineStr"/>
+      <c r="I53" t="n">
+        <v>66.5</v>
+      </c>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K53" t="n">
+        <v>1</v>
+      </c>
+      <c r="L53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2164,18 +2145,21 @@
         <v>10.8123</v>
       </c>
       <c r="G54" t="n">
-        <v>-92212.78420682605</v>
-      </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
-      <c r="I54" t="inlineStr"/>
-      <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="n">
-        <v>1</v>
-      </c>
-      <c r="M54" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H54" t="inlineStr"/>
+      <c r="I54" t="n">
+        <v>66.5</v>
+      </c>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K54" t="n">
+        <v>1</v>
+      </c>
+      <c r="L54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2197,18 +2181,21 @@
         <v>11981.3927</v>
       </c>
       <c r="G55" t="n">
-        <v>-92212.78420682605</v>
-      </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
-      <c r="I55" t="inlineStr"/>
-      <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="n">
-        <v>1</v>
-      </c>
-      <c r="M55" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H55" t="inlineStr"/>
+      <c r="I55" t="n">
+        <v>66.5</v>
+      </c>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K55" t="n">
+        <v>1</v>
+      </c>
+      <c r="L55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2230,18 +2217,21 @@
         <v>84.8419</v>
       </c>
       <c r="G56" t="n">
-        <v>-92127.94230682605</v>
-      </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
-      <c r="I56" t="inlineStr"/>
-      <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="n">
-        <v>1</v>
-      </c>
-      <c r="M56" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H56" t="inlineStr"/>
+      <c r="I56" t="n">
+        <v>66.5</v>
+      </c>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K56" t="n">
+        <v>1</v>
+      </c>
+      <c r="L56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2263,18 +2253,21 @@
         <v>64.6349</v>
       </c>
       <c r="G57" t="n">
-        <v>-92192.57720682606</v>
-      </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
-      <c r="I57" t="inlineStr"/>
-      <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="n">
-        <v>1</v>
-      </c>
-      <c r="M57" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H57" t="inlineStr"/>
+      <c r="I57" t="n">
+        <v>66.5</v>
+      </c>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K57" t="n">
+        <v>1</v>
+      </c>
+      <c r="L57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2296,18 +2289,21 @@
         <v>8.4648</v>
       </c>
       <c r="G58" t="n">
-        <v>-92184.11240682605</v>
-      </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
-      <c r="I58" t="inlineStr"/>
-      <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="n">
-        <v>1</v>
-      </c>
-      <c r="M58" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H58" t="inlineStr"/>
+      <c r="I58" t="n">
+        <v>66.5</v>
+      </c>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K58" t="n">
+        <v>1</v>
+      </c>
+      <c r="L58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2329,18 +2325,21 @@
         <v>9</v>
       </c>
       <c r="G59" t="n">
-        <v>-92193.11240682605</v>
-      </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
-      <c r="I59" t="inlineStr"/>
-      <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="n">
-        <v>1</v>
-      </c>
-      <c r="M59" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H59" t="inlineStr"/>
+      <c r="I59" t="n">
+        <v>66.5</v>
+      </c>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K59" t="n">
+        <v>1</v>
+      </c>
+      <c r="L59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2362,18 +2361,21 @@
         <v>5611</v>
       </c>
       <c r="G60" t="n">
-        <v>-97804.11240682605</v>
-      </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
-      <c r="I60" t="inlineStr"/>
-      <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="n">
-        <v>1</v>
-      </c>
-      <c r="M60" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H60" t="inlineStr"/>
+      <c r="I60" t="n">
+        <v>66.5</v>
+      </c>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K60" t="n">
+        <v>1</v>
+      </c>
+      <c r="L60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2395,18 +2397,21 @@
         <v>8000.8561</v>
       </c>
       <c r="G61" t="n">
-        <v>-97804.11240682605</v>
-      </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
-      <c r="I61" t="inlineStr"/>
-      <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="n">
-        <v>1</v>
-      </c>
-      <c r="M61" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H61" t="inlineStr"/>
+      <c r="I61" t="n">
+        <v>66.5</v>
+      </c>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K61" t="n">
+        <v>1</v>
+      </c>
+      <c r="L61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2428,18 +2433,21 @@
         <v>9.7859</v>
       </c>
       <c r="G62" t="n">
-        <v>-97804.11240682605</v>
-      </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
-      <c r="I62" t="inlineStr"/>
-      <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="n">
-        <v>1</v>
-      </c>
-      <c r="M62" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H62" t="inlineStr"/>
+      <c r="I62" t="n">
+        <v>66.5</v>
+      </c>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K62" t="n">
+        <v>1</v>
+      </c>
+      <c r="L62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2461,18 +2469,21 @@
         <v>30</v>
       </c>
       <c r="G63" t="n">
-        <v>-97804.11240682605</v>
-      </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
-      <c r="I63" t="inlineStr"/>
-      <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="n">
-        <v>1</v>
-      </c>
-      <c r="M63" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H63" t="inlineStr"/>
+      <c r="I63" t="n">
+        <v>66.5</v>
+      </c>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K63" t="n">
+        <v>1</v>
+      </c>
+      <c r="L63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2494,18 +2505,21 @@
         <v>682.63</v>
       </c>
       <c r="G64" t="n">
-        <v>-97804.11240682605</v>
-      </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
-      <c r="I64" t="inlineStr"/>
-      <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="n">
-        <v>1</v>
-      </c>
-      <c r="M64" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H64" t="inlineStr"/>
+      <c r="I64" t="n">
+        <v>66.5</v>
+      </c>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K64" t="n">
+        <v>1</v>
+      </c>
+      <c r="L64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2527,18 +2541,21 @@
         <v>457.0939</v>
       </c>
       <c r="G65" t="n">
-        <v>-98261.20630682606</v>
-      </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
-      <c r="I65" t="inlineStr"/>
-      <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="n">
-        <v>1</v>
-      </c>
-      <c r="M65" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H65" t="inlineStr"/>
+      <c r="I65" t="n">
+        <v>66.5</v>
+      </c>
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K65" t="n">
+        <v>1</v>
+      </c>
+      <c r="L65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2560,18 +2577,21 @@
         <v>10745.0144</v>
       </c>
       <c r="G66" t="n">
-        <v>-87516.19190682606</v>
-      </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
-      <c r="I66" t="inlineStr"/>
-      <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="n">
-        <v>1</v>
-      </c>
-      <c r="M66" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H66" t="inlineStr"/>
+      <c r="I66" t="n">
+        <v>66.5</v>
+      </c>
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K66" t="n">
+        <v>1</v>
+      </c>
+      <c r="L66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2593,18 +2613,21 @@
         <v>209.5159</v>
       </c>
       <c r="G67" t="n">
-        <v>-87725.70780682606</v>
-      </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
-      <c r="I67" t="inlineStr"/>
-      <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="n">
-        <v>1</v>
-      </c>
-      <c r="M67" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H67" t="inlineStr"/>
+      <c r="I67" t="n">
+        <v>66.5</v>
+      </c>
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K67" t="n">
+        <v>1</v>
+      </c>
+      <c r="L67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2626,18 +2649,21 @@
         <v>7015.4754</v>
       </c>
       <c r="G68" t="n">
-        <v>-94741.18320682606</v>
-      </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
-      <c r="I68" t="inlineStr"/>
-      <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="n">
-        <v>1</v>
-      </c>
-      <c r="M68" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H68" t="inlineStr"/>
+      <c r="I68" t="n">
+        <v>66.5</v>
+      </c>
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K68" t="n">
+        <v>1</v>
+      </c>
+      <c r="L68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2659,18 +2685,21 @@
         <v>30.9781</v>
       </c>
       <c r="G69" t="n">
-        <v>-94710.20510682606</v>
-      </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
-      <c r="I69" t="inlineStr"/>
-      <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="n">
-        <v>1</v>
-      </c>
-      <c r="M69" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H69" t="inlineStr"/>
+      <c r="I69" t="n">
+        <v>66.5</v>
+      </c>
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K69" t="n">
+        <v>1</v>
+      </c>
+      <c r="L69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2692,18 +2721,21 @@
         <v>296.3588</v>
       </c>
       <c r="G70" t="n">
-        <v>-95006.56390682606</v>
-      </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
-      <c r="I70" t="inlineStr"/>
-      <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="n">
-        <v>1</v>
-      </c>
-      <c r="M70" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H70" t="inlineStr"/>
+      <c r="I70" t="n">
+        <v>66.5</v>
+      </c>
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K70" t="n">
+        <v>1</v>
+      </c>
+      <c r="L70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2725,18 +2757,21 @@
         <v>233.4349</v>
       </c>
       <c r="G71" t="n">
-        <v>-94773.12900682607</v>
-      </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
-      <c r="I71" t="inlineStr"/>
-      <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="n">
-        <v>1</v>
-      </c>
-      <c r="M71" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H71" t="inlineStr"/>
+      <c r="I71" t="n">
+        <v>66.5</v>
+      </c>
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K71" t="n">
+        <v>1</v>
+      </c>
+      <c r="L71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2758,18 +2793,21 @@
         <v>1820.3669</v>
       </c>
       <c r="G72" t="n">
-        <v>-96593.49590682607</v>
-      </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
-      <c r="I72" t="inlineStr"/>
-      <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="n">
-        <v>1</v>
-      </c>
-      <c r="M72" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H72" t="inlineStr"/>
+      <c r="I72" t="n">
+        <v>66.5</v>
+      </c>
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K72" t="n">
+        <v>1</v>
+      </c>
+      <c r="L72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2791,18 +2829,21 @@
         <v>946.2756000000001</v>
       </c>
       <c r="G73" t="n">
-        <v>-97539.77150682606</v>
-      </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
-      <c r="I73" t="inlineStr"/>
-      <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="n">
-        <v>1</v>
-      </c>
-      <c r="M73" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H73" t="inlineStr"/>
+      <c r="I73" t="n">
+        <v>66.5</v>
+      </c>
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K73" t="n">
+        <v>1</v>
+      </c>
+      <c r="L73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2824,18 +2865,21 @@
         <v>110</v>
       </c>
       <c r="G74" t="n">
-        <v>-97429.77150682606</v>
-      </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
-      <c r="I74" t="inlineStr"/>
-      <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="n">
-        <v>1</v>
-      </c>
-      <c r="M74" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H74" t="inlineStr"/>
+      <c r="I74" t="n">
+        <v>66.5</v>
+      </c>
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K74" t="n">
+        <v>1</v>
+      </c>
+      <c r="L74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2857,18 +2901,21 @@
         <v>3274.2907</v>
       </c>
       <c r="G75" t="n">
-        <v>-100704.0622068261</v>
-      </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
-      <c r="I75" t="inlineStr"/>
-      <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="n">
-        <v>1</v>
-      </c>
-      <c r="M75" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H75" t="inlineStr"/>
+      <c r="I75" t="n">
+        <v>66.5</v>
+      </c>
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K75" t="n">
+        <v>1</v>
+      </c>
+      <c r="L75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2890,18 +2937,21 @@
         <v>8150.3999</v>
       </c>
       <c r="G76" t="n">
-        <v>-100704.0622068261</v>
-      </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
-      <c r="I76" t="inlineStr"/>
-      <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="n">
-        <v>1</v>
-      </c>
-      <c r="M76" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H76" t="inlineStr"/>
+      <c r="I76" t="n">
+        <v>66.5</v>
+      </c>
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K76" t="n">
+        <v>1</v>
+      </c>
+      <c r="L76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -2923,18 +2973,21 @@
         <v>88.9221</v>
       </c>
       <c r="G77" t="n">
-        <v>-100615.1401068261</v>
-      </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
-      <c r="I77" t="inlineStr"/>
-      <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
-      <c r="L77" t="n">
-        <v>1</v>
-      </c>
-      <c r="M77" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H77" t="inlineStr"/>
+      <c r="I77" t="n">
+        <v>66.5</v>
+      </c>
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K77" t="n">
+        <v>1</v>
+      </c>
+      <c r="L77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2956,18 +3009,21 @@
         <v>4909</v>
       </c>
       <c r="G78" t="n">
-        <v>-105524.1401068261</v>
-      </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
-      <c r="I78" t="inlineStr"/>
-      <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
-      <c r="L78" t="n">
-        <v>1</v>
-      </c>
-      <c r="M78" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H78" t="inlineStr"/>
+      <c r="I78" t="n">
+        <v>66.5</v>
+      </c>
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K78" t="n">
+        <v>1</v>
+      </c>
+      <c r="L78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -2989,24 +3045,21 @@
         <v>3821.199213164179</v>
       </c>
       <c r="G79" t="n">
-        <v>-101702.9408936619</v>
-      </c>
-      <c r="H79" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H79" t="inlineStr"/>
       <c r="I79" t="n">
-        <v>66.31</v>
-      </c>
-      <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="L79" t="n">
-        <v>1</v>
-      </c>
-      <c r="M79" t="inlineStr"/>
+        <v>66.5</v>
+      </c>
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K79" t="n">
+        <v>1</v>
+      </c>
+      <c r="L79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3028,22 +3081,21 @@
         <v>5675.4762</v>
       </c>
       <c r="G80" t="n">
-        <v>-107378.4170936619</v>
-      </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
-      <c r="I80" t="inlineStr"/>
-      <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L80" t="n">
-        <v>1</v>
-      </c>
-      <c r="M80" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H80" t="inlineStr"/>
+      <c r="I80" t="n">
+        <v>66.5</v>
+      </c>
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K80" t="n">
+        <v>1</v>
+      </c>
+      <c r="L80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3065,24 +3117,21 @@
         <v>1386</v>
       </c>
       <c r="G81" t="n">
-        <v>-107378.4170936619</v>
-      </c>
-      <c r="H81" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H81" t="inlineStr"/>
       <c r="I81" t="n">
-        <v>66.31</v>
-      </c>
-      <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L81" t="n">
-        <v>1</v>
-      </c>
-      <c r="M81" t="inlineStr"/>
+        <v>66.5</v>
+      </c>
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K81" t="n">
+        <v>1</v>
+      </c>
+      <c r="L81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3104,22 +3153,21 @@
         <v>10647.3702</v>
       </c>
       <c r="G82" t="n">
-        <v>-118025.7872936619</v>
-      </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
-      <c r="I82" t="inlineStr"/>
-      <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L82" t="n">
-        <v>1</v>
-      </c>
-      <c r="M82" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H82" t="inlineStr"/>
+      <c r="I82" t="n">
+        <v>66.5</v>
+      </c>
+      <c r="J82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K82" t="n">
+        <v>1</v>
+      </c>
+      <c r="L82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3141,24 +3189,21 @@
         <v>4864.2528</v>
       </c>
       <c r="G83" t="n">
-        <v>-113161.5344936619</v>
-      </c>
-      <c r="H83" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H83" t="inlineStr"/>
       <c r="I83" t="n">
-        <v>66.3</v>
-      </c>
-      <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L83" t="n">
-        <v>1</v>
-      </c>
-      <c r="M83" t="inlineStr"/>
+        <v>66.5</v>
+      </c>
+      <c r="J83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K83" t="n">
+        <v>1</v>
+      </c>
+      <c r="L83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3180,22 +3225,21 @@
         <v>1000</v>
       </c>
       <c r="G84" t="n">
-        <v>-112161.5344936619</v>
-      </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
-      <c r="I84" t="inlineStr"/>
-      <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L84" t="n">
-        <v>1</v>
-      </c>
-      <c r="M84" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H84" t="inlineStr"/>
+      <c r="I84" t="n">
+        <v>66.5</v>
+      </c>
+      <c r="J84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K84" t="n">
+        <v>1</v>
+      </c>
+      <c r="L84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3217,22 +3261,21 @@
         <v>1100</v>
       </c>
       <c r="G85" t="n">
-        <v>-111061.5344936619</v>
-      </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
-      <c r="I85" t="inlineStr"/>
-      <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L85" t="n">
-        <v>1</v>
-      </c>
-      <c r="M85" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H85" t="inlineStr"/>
+      <c r="I85" t="n">
+        <v>66.5</v>
+      </c>
+      <c r="J85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K85" t="n">
+        <v>1</v>
+      </c>
+      <c r="L85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3254,22 +3297,21 @@
         <v>49.813</v>
       </c>
       <c r="G86" t="n">
-        <v>-111111.3474936619</v>
-      </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
-      <c r="I86" t="inlineStr"/>
-      <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L86" t="n">
-        <v>1</v>
-      </c>
-      <c r="M86" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H86" t="inlineStr"/>
+      <c r="I86" t="n">
+        <v>66.5</v>
+      </c>
+      <c r="J86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K86" t="n">
+        <v>1</v>
+      </c>
+      <c r="L86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3291,22 +3333,21 @@
         <v>22722.17038683582</v>
       </c>
       <c r="G87" t="n">
-        <v>-88389.17710682607</v>
-      </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
-      <c r="I87" t="inlineStr"/>
-      <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L87" t="n">
-        <v>1</v>
-      </c>
-      <c r="M87" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H87" t="inlineStr"/>
+      <c r="I87" t="n">
+        <v>66.5</v>
+      </c>
+      <c r="J87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K87" t="n">
+        <v>1</v>
+      </c>
+      <c r="L87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3328,22 +3369,21 @@
         <v>347.324</v>
       </c>
       <c r="G88" t="n">
-        <v>-88041.85310682608</v>
-      </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
-      <c r="I88" t="inlineStr"/>
-      <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L88" t="n">
-        <v>1</v>
-      </c>
-      <c r="M88" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H88" t="inlineStr"/>
+      <c r="I88" t="n">
+        <v>66.5</v>
+      </c>
+      <c r="J88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K88" t="n">
+        <v>1</v>
+      </c>
+      <c r="L88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3365,22 +3405,21 @@
         <v>1625.3001</v>
       </c>
       <c r="G89" t="n">
-        <v>-89667.15320682607</v>
-      </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
-      <c r="I89" t="inlineStr"/>
-      <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L89" t="n">
-        <v>1</v>
-      </c>
-      <c r="M89" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H89" t="inlineStr"/>
+      <c r="I89" t="n">
+        <v>66.5</v>
+      </c>
+      <c r="J89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K89" t="n">
+        <v>1</v>
+      </c>
+      <c r="L89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3402,22 +3441,21 @@
         <v>456.0044131641791</v>
       </c>
       <c r="G90" t="n">
-        <v>-89211.14879366189</v>
-      </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
-      <c r="I90" t="inlineStr"/>
-      <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L90" t="n">
-        <v>1</v>
-      </c>
-      <c r="M90" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H90" t="inlineStr"/>
+      <c r="I90" t="n">
+        <v>66.5</v>
+      </c>
+      <c r="J90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K90" t="n">
+        <v>1</v>
+      </c>
+      <c r="L90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3439,22 +3477,21 @@
         <v>148</v>
       </c>
       <c r="G91" t="n">
-        <v>-89211.14879366189</v>
-      </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
-      <c r="I91" t="inlineStr"/>
-      <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L91" t="n">
-        <v>1</v>
-      </c>
-      <c r="M91" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H91" t="inlineStr"/>
+      <c r="I91" t="n">
+        <v>66.5</v>
+      </c>
+      <c r="J91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K91" t="n">
+        <v>1</v>
+      </c>
+      <c r="L91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3476,22 +3513,21 @@
         <v>8</v>
       </c>
       <c r="G92" t="n">
-        <v>-89203.14879366189</v>
-      </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
-      <c r="I92" t="inlineStr"/>
-      <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L92" t="n">
-        <v>1</v>
-      </c>
-      <c r="M92" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H92" t="inlineStr"/>
+      <c r="I92" t="n">
+        <v>66.5</v>
+      </c>
+      <c r="J92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K92" t="n">
+        <v>1</v>
+      </c>
+      <c r="L92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3513,22 +3549,21 @@
         <v>576</v>
       </c>
       <c r="G93" t="n">
-        <v>-89779.14879366189</v>
-      </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
-      <c r="I93" t="inlineStr"/>
-      <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L93" t="n">
-        <v>1</v>
-      </c>
-      <c r="M93" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H93" t="inlineStr"/>
+      <c r="I93" t="n">
+        <v>66.5</v>
+      </c>
+      <c r="J93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K93" t="n">
+        <v>1</v>
+      </c>
+      <c r="L93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3550,22 +3585,21 @@
         <v>267.369</v>
       </c>
       <c r="G94" t="n">
-        <v>-89779.14879366189</v>
-      </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
-      <c r="I94" t="inlineStr"/>
-      <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L94" t="n">
-        <v>1</v>
-      </c>
-      <c r="M94" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H94" t="inlineStr"/>
+      <c r="I94" t="n">
+        <v>66.5</v>
+      </c>
+      <c r="J94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K94" t="n">
+        <v>1</v>
+      </c>
+      <c r="L94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3587,22 +3621,21 @@
         <v>721</v>
       </c>
       <c r="G95" t="n">
-        <v>-89058.14879366189</v>
-      </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
-      <c r="I95" t="inlineStr"/>
-      <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L95" t="n">
-        <v>1</v>
-      </c>
-      <c r="M95" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H95" t="inlineStr"/>
+      <c r="I95" t="n">
+        <v>66.5</v>
+      </c>
+      <c r="J95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K95" t="n">
+        <v>1</v>
+      </c>
+      <c r="L95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3624,22 +3657,21 @@
         <v>228.7706</v>
       </c>
       <c r="G96" t="n">
-        <v>-89286.9193936619</v>
-      </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
-      <c r="I96" t="inlineStr"/>
-      <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L96" t="n">
-        <v>1</v>
-      </c>
-      <c r="M96" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H96" t="inlineStr"/>
+      <c r="I96" t="n">
+        <v>66.5</v>
+      </c>
+      <c r="J96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K96" t="n">
+        <v>1</v>
+      </c>
+      <c r="L96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3661,22 +3693,21 @@
         <v>1266.1127</v>
       </c>
       <c r="G97" t="n">
-        <v>-90553.0320936619</v>
-      </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
-      <c r="I97" t="inlineStr"/>
-      <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L97" t="n">
-        <v>1</v>
-      </c>
-      <c r="M97" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H97" t="inlineStr"/>
+      <c r="I97" t="n">
+        <v>66.5</v>
+      </c>
+      <c r="J97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K97" t="n">
+        <v>1</v>
+      </c>
+      <c r="L97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3698,22 +3729,21 @@
         <v>122.7761</v>
       </c>
       <c r="G98" t="n">
-        <v>-90430.25599366189</v>
-      </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
-      <c r="I98" t="inlineStr"/>
-      <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L98" t="n">
-        <v>1</v>
-      </c>
-      <c r="M98" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H98" t="inlineStr"/>
+      <c r="I98" t="n">
+        <v>66.5</v>
+      </c>
+      <c r="J98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K98" t="n">
+        <v>1</v>
+      </c>
+      <c r="L98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3735,22 +3765,21 @@
         <v>373</v>
       </c>
       <c r="G99" t="n">
-        <v>-90803.25599366189</v>
-      </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
-      <c r="I99" t="inlineStr"/>
-      <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L99" t="n">
-        <v>1</v>
-      </c>
-      <c r="M99" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H99" t="inlineStr"/>
+      <c r="I99" t="n">
+        <v>66.5</v>
+      </c>
+      <c r="J99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K99" t="n">
+        <v>1</v>
+      </c>
+      <c r="L99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3772,22 +3801,21 @@
         <v>8</v>
       </c>
       <c r="G100" t="n">
-        <v>-90795.25599366189</v>
-      </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
-      <c r="I100" t="inlineStr"/>
-      <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L100" t="n">
-        <v>1</v>
-      </c>
-      <c r="M100" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H100" t="inlineStr"/>
+      <c r="I100" t="n">
+        <v>66.5</v>
+      </c>
+      <c r="J100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K100" t="n">
+        <v>1</v>
+      </c>
+      <c r="L100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -3809,22 +3837,21 @@
         <v>9296.9447</v>
       </c>
       <c r="G101" t="n">
-        <v>-100092.2006936619</v>
-      </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
-      <c r="I101" t="inlineStr"/>
-      <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L101" t="n">
-        <v>1</v>
-      </c>
-      <c r="M101" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H101" t="inlineStr"/>
+      <c r="I101" t="n">
+        <v>66.5</v>
+      </c>
+      <c r="J101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K101" t="n">
+        <v>1</v>
+      </c>
+      <c r="L101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -3846,22 +3873,21 @@
         <v>321</v>
       </c>
       <c r="G102" t="n">
-        <v>-100092.2006936619</v>
-      </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
-      <c r="I102" t="inlineStr"/>
-      <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L102" t="n">
-        <v>1</v>
-      </c>
-      <c r="M102" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H102" t="inlineStr"/>
+      <c r="I102" t="n">
+        <v>66.5</v>
+      </c>
+      <c r="J102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K102" t="n">
+        <v>1</v>
+      </c>
+      <c r="L102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -3883,22 +3909,21 @@
         <v>0.0004</v>
       </c>
       <c r="G103" t="n">
-        <v>-100092.2002936619</v>
-      </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
-      <c r="I103" t="inlineStr"/>
-      <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L103" t="n">
-        <v>1</v>
-      </c>
-      <c r="M103" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H103" t="inlineStr"/>
+      <c r="I103" t="n">
+        <v>66.5</v>
+      </c>
+      <c r="J103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K103" t="n">
+        <v>1</v>
+      </c>
+      <c r="L103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -3920,22 +3945,21 @@
         <v>32.6012</v>
       </c>
       <c r="G104" t="n">
-        <v>-100059.5990936619</v>
-      </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
-      <c r="I104" t="inlineStr"/>
-      <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L104" t="n">
-        <v>1</v>
-      </c>
-      <c r="M104" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H104" t="inlineStr"/>
+      <c r="I104" t="n">
+        <v>66.5</v>
+      </c>
+      <c r="J104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K104" t="n">
+        <v>1</v>
+      </c>
+      <c r="L104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -3957,22 +3981,21 @@
         <v>3217.851</v>
       </c>
       <c r="G105" t="n">
-        <v>-103277.4500936619</v>
-      </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
-      <c r="I105" t="inlineStr"/>
-      <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L105" t="n">
-        <v>1</v>
-      </c>
-      <c r="M105" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H105" t="inlineStr"/>
+      <c r="I105" t="n">
+        <v>66.5</v>
+      </c>
+      <c r="J105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K105" t="n">
+        <v>1</v>
+      </c>
+      <c r="L105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -3994,22 +4017,21 @@
         <v>371.6554</v>
       </c>
       <c r="G106" t="n">
-        <v>-103277.4500936619</v>
-      </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
-      <c r="I106" t="inlineStr"/>
-      <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L106" t="n">
-        <v>1</v>
-      </c>
-      <c r="M106" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H106" t="inlineStr"/>
+      <c r="I106" t="n">
+        <v>66.5</v>
+      </c>
+      <c r="J106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K106" t="n">
+        <v>1</v>
+      </c>
+      <c r="L106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4031,24 +4053,21 @@
         <v>10</v>
       </c>
       <c r="G107" t="n">
-        <v>-103267.4500936619</v>
-      </c>
-      <c r="H107" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H107" t="inlineStr"/>
       <c r="I107" t="n">
         <v>66.5</v>
       </c>
-      <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L107" t="n">
-        <v>1</v>
-      </c>
-      <c r="M107" t="inlineStr"/>
+      <c r="J107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K107" t="n">
+        <v>1</v>
+      </c>
+      <c r="L107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4070,22 +4089,21 @@
         <v>8</v>
       </c>
       <c r="G108" t="n">
-        <v>-103267.4500936619</v>
-      </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
-      <c r="I108" t="inlineStr"/>
-      <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L108" t="n">
-        <v>1</v>
-      </c>
-      <c r="M108" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H108" t="inlineStr"/>
+      <c r="I108" t="n">
+        <v>66.5</v>
+      </c>
+      <c r="J108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K108" t="n">
+        <v>1</v>
+      </c>
+      <c r="L108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4107,22 +4125,21 @@
         <v>298.9529</v>
       </c>
       <c r="G109" t="n">
-        <v>-103566.4029936619</v>
-      </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
-      <c r="I109" t="inlineStr"/>
-      <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L109" t="n">
-        <v>1</v>
-      </c>
-      <c r="M109" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H109" t="inlineStr"/>
+      <c r="I109" t="n">
+        <v>66.5</v>
+      </c>
+      <c r="J109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K109" t="n">
+        <v>1</v>
+      </c>
+      <c r="L109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4144,22 +4161,21 @@
         <v>8</v>
       </c>
       <c r="G110" t="n">
-        <v>-103574.4029936619</v>
-      </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
-      <c r="I110" t="inlineStr"/>
-      <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L110" t="n">
-        <v>1</v>
-      </c>
-      <c r="M110" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H110" t="inlineStr"/>
+      <c r="I110" t="n">
+        <v>66.5</v>
+      </c>
+      <c r="J110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K110" t="n">
+        <v>1</v>
+      </c>
+      <c r="L110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4181,22 +4197,21 @@
         <v>154.2345</v>
       </c>
       <c r="G111" t="n">
-        <v>-103420.1684936619</v>
-      </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
-      <c r="I111" t="inlineStr"/>
-      <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L111" t="n">
-        <v>1</v>
-      </c>
-      <c r="M111" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H111" t="inlineStr"/>
+      <c r="I111" t="n">
+        <v>66.5</v>
+      </c>
+      <c r="J111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K111" t="n">
+        <v>1</v>
+      </c>
+      <c r="L111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4218,22 +4233,21 @@
         <v>196.8885</v>
       </c>
       <c r="G112" t="n">
-        <v>-103223.2799936619</v>
-      </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
-      <c r="I112" t="inlineStr"/>
-      <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L112" t="n">
-        <v>1</v>
-      </c>
-      <c r="M112" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H112" t="inlineStr"/>
+      <c r="I112" t="n">
+        <v>66.5</v>
+      </c>
+      <c r="J112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K112" t="n">
+        <v>1</v>
+      </c>
+      <c r="L112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4255,22 +4269,21 @@
         <v>5996.6585</v>
       </c>
       <c r="G113" t="n">
-        <v>-109219.9384936619</v>
-      </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
-      <c r="I113" t="inlineStr"/>
-      <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L113" t="n">
-        <v>1</v>
-      </c>
-      <c r="M113" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H113" t="inlineStr"/>
+      <c r="I113" t="n">
+        <v>66.5</v>
+      </c>
+      <c r="J113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K113" t="n">
+        <v>1</v>
+      </c>
+      <c r="L113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4292,22 +4305,21 @@
         <v>1145.1453</v>
       </c>
       <c r="G114" t="n">
-        <v>-109219.9384936619</v>
-      </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
-      <c r="I114" t="inlineStr"/>
-      <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L114" t="n">
-        <v>1</v>
-      </c>
-      <c r="M114" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H114" t="inlineStr"/>
+      <c r="I114" t="n">
+        <v>66.5</v>
+      </c>
+      <c r="J114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K114" t="n">
+        <v>1</v>
+      </c>
+      <c r="L114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4329,24 +4341,21 @@
         <v>8</v>
       </c>
       <c r="G115" t="n">
-        <v>-109211.9384936619</v>
-      </c>
-      <c r="H115" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H115" t="inlineStr"/>
       <c r="I115" t="n">
-        <v>66.36</v>
-      </c>
-      <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L115" t="n">
-        <v>1</v>
-      </c>
-      <c r="M115" t="inlineStr"/>
+        <v>66.5</v>
+      </c>
+      <c r="J115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K115" t="n">
+        <v>1</v>
+      </c>
+      <c r="L115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4368,24 +4377,21 @@
         <v>10.1499</v>
       </c>
       <c r="G116" t="n">
-        <v>-109201.7885936619</v>
-      </c>
-      <c r="H116" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H116" t="inlineStr"/>
       <c r="I116" t="n">
-        <v>66.41</v>
-      </c>
-      <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L116" t="n">
-        <v>1</v>
-      </c>
-      <c r="M116" t="inlineStr"/>
+        <v>66.5</v>
+      </c>
+      <c r="J116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K116" t="n">
+        <v>1</v>
+      </c>
+      <c r="L116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4407,22 +4413,21 @@
         <v>15.8606</v>
       </c>
       <c r="G117" t="n">
-        <v>-109185.9279936619</v>
-      </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
-      <c r="I117" t="inlineStr"/>
-      <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L117" t="n">
-        <v>1</v>
-      </c>
-      <c r="M117" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H117" t="inlineStr"/>
+      <c r="I117" t="n">
+        <v>66.5</v>
+      </c>
+      <c r="J117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K117" t="n">
+        <v>1</v>
+      </c>
+      <c r="L117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4444,22 +4449,21 @@
         <v>1076.6345</v>
       </c>
       <c r="G118" t="n">
-        <v>-110262.5624936619</v>
-      </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
-      <c r="I118" t="inlineStr"/>
-      <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L118" t="n">
-        <v>1</v>
-      </c>
-      <c r="M118" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H118" t="inlineStr"/>
+      <c r="I118" t="n">
+        <v>66.5</v>
+      </c>
+      <c r="J118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K118" t="n">
+        <v>1</v>
+      </c>
+      <c r="L118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4481,24 +4485,21 @@
         <v>221.9263204616067</v>
       </c>
       <c r="G119" t="n">
-        <v>-110040.6361732003</v>
-      </c>
-      <c r="H119" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H119" t="inlineStr"/>
       <c r="I119" t="n">
-        <v>66.40000000000001</v>
-      </c>
-      <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L119" t="n">
-        <v>1</v>
-      </c>
-      <c r="M119" t="inlineStr"/>
+        <v>66.5</v>
+      </c>
+      <c r="J119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K119" t="n">
+        <v>1</v>
+      </c>
+      <c r="L119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4520,22 +4521,21 @@
         <v>1572</v>
       </c>
       <c r="G120" t="n">
-        <v>-111612.6361732003</v>
-      </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
-      <c r="I120" t="inlineStr"/>
-      <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L120" t="n">
-        <v>1</v>
-      </c>
-      <c r="M120" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H120" t="inlineStr"/>
+      <c r="I120" t="n">
+        <v>66.5</v>
+      </c>
+      <c r="J120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K120" t="n">
+        <v>1</v>
+      </c>
+      <c r="L120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -4557,22 +4557,21 @@
         <v>251</v>
       </c>
       <c r="G121" t="n">
-        <v>-111361.6361732003</v>
-      </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
-      <c r="I121" t="inlineStr"/>
-      <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L121" t="n">
-        <v>1</v>
-      </c>
-      <c r="M121" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H121" t="inlineStr"/>
+      <c r="I121" t="n">
+        <v>66.5</v>
+      </c>
+      <c r="J121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K121" t="n">
+        <v>1</v>
+      </c>
+      <c r="L121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -4594,22 +4593,21 @@
         <v>979</v>
       </c>
       <c r="G122" t="n">
-        <v>-111361.6361732003</v>
-      </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
-      <c r="I122" t="inlineStr"/>
-      <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L122" t="n">
-        <v>1</v>
-      </c>
-      <c r="M122" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H122" t="inlineStr"/>
+      <c r="I122" t="n">
+        <v>66.5</v>
+      </c>
+      <c r="J122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K122" t="n">
+        <v>1</v>
+      </c>
+      <c r="L122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -4631,22 +4629,21 @@
         <v>175.0906</v>
       </c>
       <c r="G123" t="n">
-        <v>-111186.5455732003</v>
-      </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
-      <c r="I123" t="inlineStr"/>
-      <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L123" t="n">
-        <v>1</v>
-      </c>
-      <c r="M123" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H123" t="inlineStr"/>
+      <c r="I123" t="n">
+        <v>66.5</v>
+      </c>
+      <c r="J123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K123" t="n">
+        <v>1</v>
+      </c>
+      <c r="L123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -4668,24 +4665,21 @@
         <v>1419.2274</v>
       </c>
       <c r="G124" t="n">
-        <v>-111186.5455732003</v>
-      </c>
-      <c r="H124" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H124" t="inlineStr"/>
       <c r="I124" t="n">
-        <v>66.39</v>
-      </c>
-      <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L124" t="n">
-        <v>1</v>
-      </c>
-      <c r="M124" t="inlineStr"/>
+        <v>66.5</v>
+      </c>
+      <c r="J124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K124" t="n">
+        <v>1</v>
+      </c>
+      <c r="L124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -4707,24 +4701,21 @@
         <v>59.352</v>
       </c>
       <c r="G125" t="n">
-        <v>-111127.1935732003</v>
-      </c>
-      <c r="H125" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H125" t="inlineStr"/>
       <c r="I125" t="n">
-        <v>66.39</v>
-      </c>
-      <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L125" t="n">
-        <v>1</v>
-      </c>
-      <c r="M125" t="inlineStr"/>
+        <v>66.5</v>
+      </c>
+      <c r="J125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K125" t="n">
+        <v>1</v>
+      </c>
+      <c r="L125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -4746,24 +4737,21 @@
         <v>13773.3341</v>
       </c>
       <c r="G126" t="n">
-        <v>-124900.5276732003</v>
-      </c>
-      <c r="H126" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H126" t="inlineStr"/>
       <c r="I126" t="n">
-        <v>66.59999999999999</v>
-      </c>
-      <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L126" t="n">
-        <v>1</v>
-      </c>
-      <c r="M126" t="inlineStr"/>
+        <v>66.5</v>
+      </c>
+      <c r="J126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K126" t="n">
+        <v>1</v>
+      </c>
+      <c r="L126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -4785,24 +4773,21 @@
         <v>8</v>
       </c>
       <c r="G127" t="n">
-        <v>-124892.5276732003</v>
-      </c>
-      <c r="H127" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H127" t="inlineStr"/>
       <c r="I127" t="n">
-        <v>66.41</v>
-      </c>
-      <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L127" t="n">
-        <v>1</v>
-      </c>
-      <c r="M127" t="inlineStr"/>
+        <v>66.5</v>
+      </c>
+      <c r="J127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K127" t="n">
+        <v>1</v>
+      </c>
+      <c r="L127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -4824,24 +4809,21 @@
         <v>132.0308</v>
       </c>
       <c r="G128" t="n">
-        <v>-125024.5584732003</v>
-      </c>
-      <c r="H128" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H128" t="inlineStr"/>
       <c r="I128" t="n">
         <v>66.5</v>
       </c>
-      <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L128" t="n">
-        <v>1</v>
-      </c>
-      <c r="M128" t="inlineStr"/>
+      <c r="J128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K128" t="n">
+        <v>1</v>
+      </c>
+      <c r="L128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -4863,24 +4845,21 @@
         <v>461.4465728358209</v>
       </c>
       <c r="G129" t="n">
-        <v>-125024.5584732003</v>
-      </c>
-      <c r="H129" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H129" t="inlineStr"/>
       <c r="I129" t="n">
-        <v>66.41</v>
-      </c>
-      <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L129" t="n">
-        <v>1</v>
-      </c>
-      <c r="M129" t="inlineStr"/>
+        <v>66.5</v>
+      </c>
+      <c r="J129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K129" t="n">
+        <v>1</v>
+      </c>
+      <c r="L129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -4902,24 +4881,21 @@
         <v>18.18</v>
       </c>
       <c r="G130" t="n">
-        <v>-125006.3784732003</v>
-      </c>
-      <c r="H130" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H130" t="inlineStr"/>
       <c r="I130" t="n">
-        <v>66.41</v>
-      </c>
-      <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L130" t="n">
-        <v>1</v>
-      </c>
-      <c r="M130" t="inlineStr"/>
+        <v>66.5</v>
+      </c>
+      <c r="J130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K130" t="n">
+        <v>1</v>
+      </c>
+      <c r="L130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -4941,24 +4917,21 @@
         <v>20</v>
       </c>
       <c r="G131" t="n">
-        <v>-124986.3784732003</v>
-      </c>
-      <c r="H131" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H131" t="inlineStr"/>
       <c r="I131" t="n">
-        <v>66.42</v>
-      </c>
-      <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L131" t="n">
-        <v>1</v>
-      </c>
-      <c r="M131" t="inlineStr"/>
+        <v>66.5</v>
+      </c>
+      <c r="J131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K131" t="n">
+        <v>1</v>
+      </c>
+      <c r="L131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -4980,24 +4953,21 @@
         <v>153.6305</v>
       </c>
       <c r="G132" t="n">
-        <v>-125140.0089732003</v>
-      </c>
-      <c r="H132" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H132" t="inlineStr"/>
       <c r="I132" t="n">
-        <v>67</v>
-      </c>
-      <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L132" t="n">
-        <v>1</v>
-      </c>
-      <c r="M132" t="inlineStr"/>
+        <v>66.5</v>
+      </c>
+      <c r="J132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K132" t="n">
+        <v>1</v>
+      </c>
+      <c r="L132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -5019,24 +4989,21 @@
         <v>1750</v>
       </c>
       <c r="G133" t="n">
-        <v>-126890.0089732003</v>
-      </c>
-      <c r="H133" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H133" t="inlineStr"/>
       <c r="I133" t="n">
-        <v>66.98999999999999</v>
-      </c>
-      <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L133" t="n">
-        <v>1</v>
-      </c>
-      <c r="M133" t="inlineStr"/>
+        <v>66.5</v>
+      </c>
+      <c r="J133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K133" t="n">
+        <v>1</v>
+      </c>
+      <c r="L133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -5058,24 +5025,21 @@
         <v>298.5521</v>
       </c>
       <c r="G134" t="n">
-        <v>-126591.4568732003</v>
-      </c>
-      <c r="H134" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H134" t="inlineStr"/>
       <c r="I134" t="n">
-        <v>66.59999999999999</v>
-      </c>
-      <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L134" t="n">
-        <v>1</v>
-      </c>
-      <c r="M134" t="inlineStr"/>
+        <v>66.5</v>
+      </c>
+      <c r="J134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K134" t="n">
+        <v>1</v>
+      </c>
+      <c r="L134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -5097,24 +5061,21 @@
         <v>504.0863</v>
       </c>
       <c r="G135" t="n">
-        <v>-126087.3705732003</v>
-      </c>
-      <c r="H135" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H135" t="inlineStr"/>
       <c r="I135" t="n">
-        <v>66.98999999999999</v>
-      </c>
-      <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L135" t="n">
-        <v>1</v>
-      </c>
-      <c r="M135" t="inlineStr"/>
+        <v>66.5</v>
+      </c>
+      <c r="J135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K135" t="n">
+        <v>1</v>
+      </c>
+      <c r="L135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -5136,24 +5097,21 @@
         <v>235.4609</v>
       </c>
       <c r="G136" t="n">
-        <v>-126322.8314732003</v>
-      </c>
-      <c r="H136" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H136" t="inlineStr"/>
       <c r="I136" t="n">
-        <v>67</v>
-      </c>
-      <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L136" t="n">
-        <v>1</v>
-      </c>
-      <c r="M136" t="inlineStr"/>
+        <v>66.5</v>
+      </c>
+      <c r="J136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K136" t="n">
+        <v>1</v>
+      </c>
+      <c r="L136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -5175,24 +5133,21 @@
         <v>2082.1879</v>
       </c>
       <c r="G137" t="n">
-        <v>-128405.0193732003</v>
-      </c>
-      <c r="H137" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H137" t="inlineStr"/>
       <c r="I137" t="n">
-        <v>66.59999999999999</v>
-      </c>
-      <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L137" t="n">
-        <v>1</v>
-      </c>
-      <c r="M137" t="inlineStr"/>
+        <v>66.5</v>
+      </c>
+      <c r="J137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K137" t="n">
+        <v>1</v>
+      </c>
+      <c r="L137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -5214,24 +5169,21 @@
         <v>10826.22562716418</v>
       </c>
       <c r="G138" t="n">
-        <v>-117578.7937460361</v>
-      </c>
-      <c r="H138" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H138" t="inlineStr"/>
       <c r="I138" t="n">
         <v>66.5</v>
       </c>
-      <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L138" t="n">
-        <v>1</v>
-      </c>
-      <c r="M138" t="inlineStr"/>
+      <c r="J138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K138" t="n">
+        <v>1</v>
+      </c>
+      <c r="L138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -5253,22 +5205,21 @@
         <v>970.7875</v>
       </c>
       <c r="G139" t="n">
-        <v>-116608.0062460361</v>
-      </c>
-      <c r="H139" t="n">
-        <v>0</v>
-      </c>
-      <c r="I139" t="inlineStr"/>
-      <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L139" t="n">
-        <v>1</v>
-      </c>
-      <c r="M139" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H139" t="inlineStr"/>
+      <c r="I139" t="n">
+        <v>66.5</v>
+      </c>
+      <c r="J139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K139" t="n">
+        <v>1</v>
+      </c>
+      <c r="L139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5290,22 +5241,21 @@
         <v>34049.65948683582</v>
       </c>
       <c r="G140" t="n">
-        <v>-82558.3467592003</v>
-      </c>
-      <c r="H140" t="n">
-        <v>0</v>
-      </c>
-      <c r="I140" t="inlineStr"/>
-      <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L140" t="n">
-        <v>1</v>
-      </c>
-      <c r="M140" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H140" t="inlineStr"/>
+      <c r="I140" t="n">
+        <v>66.5</v>
+      </c>
+      <c r="J140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K140" t="n">
+        <v>1</v>
+      </c>
+      <c r="L140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5327,22 +5277,21 @@
         <v>271.0883</v>
       </c>
       <c r="G141" t="n">
-        <v>-82287.2584592003</v>
-      </c>
-      <c r="H141" t="n">
-        <v>0</v>
-      </c>
-      <c r="I141" t="inlineStr"/>
-      <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L141" t="n">
-        <v>1</v>
-      </c>
-      <c r="M141" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H141" t="inlineStr"/>
+      <c r="I141" t="n">
+        <v>66.5</v>
+      </c>
+      <c r="J141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K141" t="n">
+        <v>1</v>
+      </c>
+      <c r="L141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -5364,22 +5313,21 @@
         <v>7095.3232</v>
       </c>
       <c r="G142" t="n">
-        <v>-75191.9352592003</v>
-      </c>
-      <c r="H142" t="n">
-        <v>0</v>
-      </c>
-      <c r="I142" t="inlineStr"/>
-      <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L142" t="n">
-        <v>1</v>
-      </c>
-      <c r="M142" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H142" t="inlineStr"/>
+      <c r="I142" t="n">
+        <v>66.5</v>
+      </c>
+      <c r="J142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K142" t="n">
+        <v>1</v>
+      </c>
+      <c r="L142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -5401,22 +5349,21 @@
         <v>7666.280684173913</v>
       </c>
       <c r="G143" t="n">
-        <v>-67525.65457502639</v>
-      </c>
-      <c r="H143" t="n">
-        <v>0</v>
-      </c>
-      <c r="I143" t="inlineStr"/>
-      <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L143" t="n">
-        <v>1</v>
-      </c>
-      <c r="M143" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H143" t="inlineStr"/>
+      <c r="I143" t="n">
+        <v>66.5</v>
+      </c>
+      <c r="J143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K143" t="n">
+        <v>1</v>
+      </c>
+      <c r="L143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -5438,22 +5385,21 @@
         <v>4067.6485</v>
       </c>
       <c r="G144" t="n">
-        <v>-71593.30307502639</v>
-      </c>
-      <c r="H144" t="n">
-        <v>0</v>
-      </c>
-      <c r="I144" t="inlineStr"/>
-      <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L144" t="n">
-        <v>1</v>
-      </c>
-      <c r="M144" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H144" t="inlineStr"/>
+      <c r="I144" t="n">
+        <v>66.5</v>
+      </c>
+      <c r="J144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K144" t="n">
+        <v>1</v>
+      </c>
+      <c r="L144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -5475,22 +5421,21 @@
         <v>13.077</v>
       </c>
       <c r="G145" t="n">
-        <v>-71580.22607502638</v>
-      </c>
-      <c r="H145" t="n">
-        <v>0</v>
-      </c>
-      <c r="I145" t="inlineStr"/>
-      <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L145" t="n">
-        <v>1</v>
-      </c>
-      <c r="M145" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H145" t="inlineStr"/>
+      <c r="I145" t="n">
+        <v>66.5</v>
+      </c>
+      <c r="J145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K145" t="n">
+        <v>1</v>
+      </c>
+      <c r="L145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -5512,22 +5457,21 @@
         <v>10011</v>
       </c>
       <c r="G146" t="n">
-        <v>-61569.22607502638</v>
-      </c>
-      <c r="H146" t="n">
-        <v>0</v>
-      </c>
-      <c r="I146" t="inlineStr"/>
-      <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L146" t="n">
-        <v>1</v>
-      </c>
-      <c r="M146" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H146" t="inlineStr"/>
+      <c r="I146" t="n">
+        <v>66.5</v>
+      </c>
+      <c r="J146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K146" t="n">
+        <v>1</v>
+      </c>
+      <c r="L146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -5549,22 +5493,21 @@
         <v>149.4768</v>
       </c>
       <c r="G147" t="n">
-        <v>-61419.74927502638</v>
-      </c>
-      <c r="H147" t="n">
-        <v>0</v>
-      </c>
-      <c r="I147" t="inlineStr"/>
-      <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L147" t="n">
-        <v>1</v>
-      </c>
-      <c r="M147" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H147" t="inlineStr"/>
+      <c r="I147" t="n">
+        <v>66.5</v>
+      </c>
+      <c r="J147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K147" t="n">
+        <v>1</v>
+      </c>
+      <c r="L147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -5586,22 +5529,21 @@
         <v>147.8852</v>
       </c>
       <c r="G148" t="n">
-        <v>-61271.86407502639</v>
-      </c>
-      <c r="H148" t="n">
-        <v>0</v>
-      </c>
-      <c r="I148" t="inlineStr"/>
-      <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L148" t="n">
-        <v>1</v>
-      </c>
-      <c r="M148" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H148" t="inlineStr"/>
+      <c r="I148" t="n">
+        <v>66.5</v>
+      </c>
+      <c r="J148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K148" t="n">
+        <v>1</v>
+      </c>
+      <c r="L148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -5623,22 +5565,21 @@
         <v>353</v>
       </c>
       <c r="G149" t="n">
-        <v>-61271.86407502639</v>
-      </c>
-      <c r="H149" t="n">
-        <v>0</v>
-      </c>
-      <c r="I149" t="inlineStr"/>
-      <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L149" t="n">
-        <v>1</v>
-      </c>
-      <c r="M149" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H149" t="inlineStr"/>
+      <c r="I149" t="n">
+        <v>66.5</v>
+      </c>
+      <c r="J149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K149" t="n">
+        <v>1</v>
+      </c>
+      <c r="L149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -5660,22 +5601,21 @@
         <v>47.7193</v>
       </c>
       <c r="G150" t="n">
-        <v>-61271.86407502639</v>
-      </c>
-      <c r="H150" t="n">
-        <v>0</v>
-      </c>
-      <c r="I150" t="inlineStr"/>
-      <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L150" t="n">
-        <v>1</v>
-      </c>
-      <c r="M150" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H150" t="inlineStr"/>
+      <c r="I150" t="n">
+        <v>66.5</v>
+      </c>
+      <c r="J150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K150" t="n">
+        <v>1</v>
+      </c>
+      <c r="L150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -5697,22 +5637,21 @@
         <v>279</v>
       </c>
       <c r="G151" t="n">
-        <v>-61550.86407502639</v>
-      </c>
-      <c r="H151" t="n">
-        <v>0</v>
-      </c>
-      <c r="I151" t="inlineStr"/>
-      <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L151" t="n">
-        <v>1</v>
-      </c>
-      <c r="M151" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H151" t="inlineStr"/>
+      <c r="I151" t="n">
+        <v>66.5</v>
+      </c>
+      <c r="J151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K151" t="n">
+        <v>1</v>
+      </c>
+      <c r="L151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -5734,22 +5673,21 @@
         <v>10745.0145</v>
       </c>
       <c r="G152" t="n">
-        <v>-72295.87857502639</v>
-      </c>
-      <c r="H152" t="n">
-        <v>0</v>
-      </c>
-      <c r="I152" t="inlineStr"/>
-      <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L152" t="n">
-        <v>1</v>
-      </c>
-      <c r="M152" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H152" t="inlineStr"/>
+      <c r="I152" t="n">
+        <v>66.5</v>
+      </c>
+      <c r="J152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K152" t="n">
+        <v>1</v>
+      </c>
+      <c r="L152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -5771,22 +5709,21 @@
         <v>8</v>
       </c>
       <c r="G153" t="n">
-        <v>-72287.87857502639</v>
-      </c>
-      <c r="H153" t="n">
-        <v>0</v>
-      </c>
-      <c r="I153" t="inlineStr"/>
-      <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L153" t="n">
-        <v>1</v>
-      </c>
-      <c r="M153" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H153" t="inlineStr"/>
+      <c r="I153" t="n">
+        <v>66.5</v>
+      </c>
+      <c r="J153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K153" t="n">
+        <v>1</v>
+      </c>
+      <c r="L153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -5808,22 +5745,21 @@
         <v>13253.198</v>
       </c>
       <c r="G154" t="n">
-        <v>-85541.0765750264</v>
-      </c>
-      <c r="H154" t="n">
-        <v>0</v>
-      </c>
-      <c r="I154" t="inlineStr"/>
-      <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L154" t="n">
-        <v>1</v>
-      </c>
-      <c r="M154" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H154" t="inlineStr"/>
+      <c r="I154" t="n">
+        <v>66.5</v>
+      </c>
+      <c r="J154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K154" t="n">
+        <v>1</v>
+      </c>
+      <c r="L154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -5845,22 +5781,21 @@
         <v>1276</v>
       </c>
       <c r="G155" t="n">
-        <v>-85541.0765750264</v>
-      </c>
-      <c r="H155" t="n">
-        <v>0</v>
-      </c>
-      <c r="I155" t="inlineStr"/>
-      <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L155" t="n">
-        <v>1</v>
-      </c>
-      <c r="M155" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H155" t="inlineStr"/>
+      <c r="I155" t="n">
+        <v>66.5</v>
+      </c>
+      <c r="J155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K155" t="n">
+        <v>1</v>
+      </c>
+      <c r="L155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -5882,22 +5817,21 @@
         <v>1142.1549</v>
       </c>
       <c r="G156" t="n">
-        <v>-84398.9216750264</v>
-      </c>
-      <c r="H156" t="n">
-        <v>0</v>
-      </c>
-      <c r="I156" t="inlineStr"/>
-      <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L156" t="n">
-        <v>1</v>
-      </c>
-      <c r="M156" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H156" t="inlineStr"/>
+      <c r="I156" t="n">
+        <v>66.5</v>
+      </c>
+      <c r="J156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K156" t="n">
+        <v>1</v>
+      </c>
+      <c r="L156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -5919,22 +5853,21 @@
         <v>1976.9936</v>
       </c>
       <c r="G157" t="n">
-        <v>-86375.9152750264</v>
-      </c>
-      <c r="H157" t="n">
-        <v>0</v>
-      </c>
-      <c r="I157" t="inlineStr"/>
-      <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L157" t="n">
-        <v>1</v>
-      </c>
-      <c r="M157" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H157" t="inlineStr"/>
+      <c r="I157" t="n">
+        <v>66.5</v>
+      </c>
+      <c r="J157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K157" t="n">
+        <v>1</v>
+      </c>
+      <c r="L157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -5956,22 +5889,21 @@
         <v>721.9503999999999</v>
       </c>
       <c r="G158" t="n">
-        <v>-87097.86567502641</v>
-      </c>
-      <c r="H158" t="n">
-        <v>0</v>
-      </c>
-      <c r="I158" t="inlineStr"/>
-      <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L158" t="n">
-        <v>1</v>
-      </c>
-      <c r="M158" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H158" t="inlineStr"/>
+      <c r="I158" t="n">
+        <v>66.5</v>
+      </c>
+      <c r="J158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K158" t="n">
+        <v>1</v>
+      </c>
+      <c r="L158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -5993,22 +5925,21 @@
         <v>50</v>
       </c>
       <c r="G159" t="n">
-        <v>-87047.86567502641</v>
-      </c>
-      <c r="H159" t="n">
-        <v>0</v>
-      </c>
-      <c r="I159" t="inlineStr"/>
-      <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L159" t="n">
-        <v>1</v>
-      </c>
-      <c r="M159" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H159" t="inlineStr"/>
+      <c r="I159" t="n">
+        <v>66.5</v>
+      </c>
+      <c r="J159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K159" t="n">
+        <v>1</v>
+      </c>
+      <c r="L159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -6030,22 +5961,21 @@
         <v>15</v>
       </c>
       <c r="G160" t="n">
-        <v>-87062.86567502641</v>
-      </c>
-      <c r="H160" t="n">
-        <v>0</v>
-      </c>
-      <c r="I160" t="inlineStr"/>
-      <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L160" t="n">
-        <v>1</v>
-      </c>
-      <c r="M160" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H160" t="inlineStr"/>
+      <c r="I160" t="n">
+        <v>66.5</v>
+      </c>
+      <c r="J160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K160" t="n">
+        <v>1</v>
+      </c>
+      <c r="L160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -6067,22 +5997,21 @@
         <v>12101.4243</v>
       </c>
       <c r="G161" t="n">
-        <v>-99164.2899750264</v>
-      </c>
-      <c r="H161" t="n">
-        <v>0</v>
-      </c>
-      <c r="I161" t="inlineStr"/>
-      <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L161" t="n">
-        <v>1</v>
-      </c>
-      <c r="M161" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H161" t="inlineStr"/>
+      <c r="I161" t="n">
+        <v>66.5</v>
+      </c>
+      <c r="J161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K161" t="n">
+        <v>1</v>
+      </c>
+      <c r="L161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -6104,22 +6033,21 @@
         <v>1864.6971</v>
       </c>
       <c r="G162" t="n">
-        <v>-101028.9870750264</v>
-      </c>
-      <c r="H162" t="n">
-        <v>0</v>
-      </c>
-      <c r="I162" t="inlineStr"/>
-      <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L162" t="n">
-        <v>1</v>
-      </c>
-      <c r="M162" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H162" t="inlineStr"/>
+      <c r="I162" t="n">
+        <v>66.5</v>
+      </c>
+      <c r="J162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K162" t="n">
+        <v>1</v>
+      </c>
+      <c r="L162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -6141,22 +6069,21 @@
         <v>1577.8946</v>
       </c>
       <c r="G163" t="n">
-        <v>-99451.09247502641</v>
-      </c>
-      <c r="H163" t="n">
-        <v>0</v>
-      </c>
-      <c r="I163" t="inlineStr"/>
-      <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L163" t="n">
-        <v>1</v>
-      </c>
-      <c r="M163" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H163" t="inlineStr"/>
+      <c r="I163" t="n">
+        <v>66.5</v>
+      </c>
+      <c r="J163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K163" t="n">
+        <v>1</v>
+      </c>
+      <c r="L163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -6178,22 +6105,21 @@
         <v>1071.1933</v>
       </c>
       <c r="G164" t="n">
-        <v>-100522.2857750264</v>
-      </c>
-      <c r="H164" t="n">
-        <v>0</v>
-      </c>
-      <c r="I164" t="inlineStr"/>
-      <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L164" t="n">
-        <v>1</v>
-      </c>
-      <c r="M164" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H164" t="inlineStr"/>
+      <c r="I164" t="n">
+        <v>66.5</v>
+      </c>
+      <c r="J164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K164" t="n">
+        <v>1</v>
+      </c>
+      <c r="L164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -6215,22 +6141,21 @@
         <v>10</v>
       </c>
       <c r="G165" t="n">
-        <v>-100512.2857750264</v>
-      </c>
-      <c r="H165" t="n">
-        <v>0</v>
-      </c>
-      <c r="I165" t="inlineStr"/>
-      <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L165" t="n">
-        <v>1</v>
-      </c>
-      <c r="M165" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H165" t="inlineStr"/>
+      <c r="I165" t="n">
+        <v>66.5</v>
+      </c>
+      <c r="J165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K165" t="n">
+        <v>1</v>
+      </c>
+      <c r="L165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -6252,22 +6177,21 @@
         <v>107.4327</v>
       </c>
       <c r="G166" t="n">
-        <v>-100512.2857750264</v>
-      </c>
-      <c r="H166" t="n">
-        <v>0</v>
-      </c>
-      <c r="I166" t="inlineStr"/>
-      <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L166" t="n">
-        <v>1</v>
-      </c>
-      <c r="M166" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H166" t="inlineStr"/>
+      <c r="I166" t="n">
+        <v>66.5</v>
+      </c>
+      <c r="J166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K166" t="n">
+        <v>1</v>
+      </c>
+      <c r="L166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -6289,22 +6213,21 @@
         <v>200</v>
       </c>
       <c r="G167" t="n">
-        <v>-100712.2857750264</v>
-      </c>
-      <c r="H167" t="n">
-        <v>0</v>
-      </c>
-      <c r="I167" t="inlineStr"/>
-      <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L167" t="n">
-        <v>1</v>
-      </c>
-      <c r="M167" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H167" t="inlineStr"/>
+      <c r="I167" t="n">
+        <v>66.5</v>
+      </c>
+      <c r="J167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K167" t="n">
+        <v>1</v>
+      </c>
+      <c r="L167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -6326,22 +6249,21 @@
         <v>151.9994096774194</v>
       </c>
       <c r="G168" t="n">
-        <v>-100560.286365349</v>
-      </c>
-      <c r="H168" t="n">
-        <v>0</v>
-      </c>
-      <c r="I168" t="inlineStr"/>
-      <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L168" t="n">
-        <v>1</v>
-      </c>
-      <c r="M168" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H168" t="inlineStr"/>
+      <c r="I168" t="n">
+        <v>66.5</v>
+      </c>
+      <c r="J168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K168" t="n">
+        <v>1</v>
+      </c>
+      <c r="L168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -6363,22 +6285,21 @@
         <v>1850.9361</v>
       </c>
       <c r="G169" t="n">
-        <v>-102411.222465349</v>
-      </c>
-      <c r="H169" t="n">
-        <v>0</v>
-      </c>
-      <c r="I169" t="inlineStr"/>
-      <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L169" t="n">
-        <v>1</v>
-      </c>
-      <c r="M169" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H169" t="inlineStr"/>
+      <c r="I169" t="n">
+        <v>66.5</v>
+      </c>
+      <c r="J169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K169" t="n">
+        <v>1</v>
+      </c>
+      <c r="L169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -6400,22 +6321,21 @@
         <v>18372.8828</v>
       </c>
       <c r="G170" t="n">
-        <v>-84038.33966534899</v>
-      </c>
-      <c r="H170" t="n">
-        <v>0</v>
-      </c>
-      <c r="I170" t="inlineStr"/>
-      <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L170" t="n">
-        <v>1</v>
-      </c>
-      <c r="M170" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H170" t="inlineStr"/>
+      <c r="I170" t="n">
+        <v>66.5</v>
+      </c>
+      <c r="J170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K170" t="n">
+        <v>1</v>
+      </c>
+      <c r="L170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
@@ -6437,22 +6357,21 @@
         <v>570</v>
       </c>
       <c r="G171" t="n">
-        <v>-83468.33966534899</v>
-      </c>
-      <c r="H171" t="n">
-        <v>0</v>
-      </c>
-      <c r="I171" t="inlineStr"/>
-      <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L171" t="n">
-        <v>1</v>
-      </c>
-      <c r="M171" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H171" t="inlineStr"/>
+      <c r="I171" t="n">
+        <v>66.5</v>
+      </c>
+      <c r="J171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K171" t="n">
+        <v>1</v>
+      </c>
+      <c r="L171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
@@ -6474,22 +6393,21 @@
         <v>284.4061</v>
       </c>
       <c r="G172" t="n">
-        <v>-83468.33966534899</v>
-      </c>
-      <c r="H172" t="n">
-        <v>0</v>
-      </c>
-      <c r="I172" t="inlineStr"/>
-      <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L172" t="n">
-        <v>1</v>
-      </c>
-      <c r="M172" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H172" t="inlineStr"/>
+      <c r="I172" t="n">
+        <v>66.5</v>
+      </c>
+      <c r="J172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K172" t="n">
+        <v>1</v>
+      </c>
+      <c r="L172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
@@ -6511,22 +6429,21 @@
         <v>222.6608</v>
       </c>
       <c r="G173" t="n">
-        <v>-83468.33966534899</v>
-      </c>
-      <c r="H173" t="n">
-        <v>0</v>
-      </c>
-      <c r="I173" t="inlineStr"/>
-      <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L173" t="n">
-        <v>1</v>
-      </c>
-      <c r="M173" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H173" t="inlineStr"/>
+      <c r="I173" t="n">
+        <v>66.5</v>
+      </c>
+      <c r="J173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K173" t="n">
+        <v>1</v>
+      </c>
+      <c r="L173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
@@ -6548,22 +6465,21 @@
         <v>497</v>
       </c>
       <c r="G174" t="n">
-        <v>-83965.33966534899</v>
-      </c>
-      <c r="H174" t="n">
-        <v>0</v>
-      </c>
-      <c r="I174" t="inlineStr"/>
-      <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L174" t="n">
-        <v>1</v>
-      </c>
-      <c r="M174" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H174" t="inlineStr"/>
+      <c r="I174" t="n">
+        <v>66.5</v>
+      </c>
+      <c r="J174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K174" t="n">
+        <v>1</v>
+      </c>
+      <c r="L174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
@@ -6585,22 +6501,21 @@
         <v>423.0708</v>
       </c>
       <c r="G175" t="n">
-        <v>-83542.26886534899</v>
-      </c>
-      <c r="H175" t="n">
-        <v>0</v>
-      </c>
-      <c r="I175" t="inlineStr"/>
-      <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L175" t="n">
-        <v>1</v>
-      </c>
-      <c r="M175" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H175" t="inlineStr"/>
+      <c r="I175" t="n">
+        <v>66.5</v>
+      </c>
+      <c r="J175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K175" t="n">
+        <v>1</v>
+      </c>
+      <c r="L175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
@@ -6622,22 +6537,21 @@
         <v>1729</v>
       </c>
       <c r="G176" t="n">
-        <v>-85271.26886534899</v>
-      </c>
-      <c r="H176" t="n">
-        <v>0</v>
-      </c>
-      <c r="I176" t="inlineStr"/>
-      <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L176" t="n">
-        <v>1</v>
-      </c>
-      <c r="M176" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H176" t="inlineStr"/>
+      <c r="I176" t="n">
+        <v>66.5</v>
+      </c>
+      <c r="J176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K176" t="n">
+        <v>1</v>
+      </c>
+      <c r="L176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
@@ -6659,22 +6573,21 @@
         <v>249.2450844877765</v>
       </c>
       <c r="G177" t="n">
-        <v>-85022.02378086121</v>
-      </c>
-      <c r="H177" t="n">
-        <v>0</v>
-      </c>
-      <c r="I177" t="inlineStr"/>
-      <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L177" t="n">
-        <v>1</v>
-      </c>
-      <c r="M177" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H177" t="inlineStr"/>
+      <c r="I177" t="n">
+        <v>66.5</v>
+      </c>
+      <c r="J177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K177" t="n">
+        <v>1</v>
+      </c>
+      <c r="L177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
@@ -6696,22 +6609,21 @@
         <v>482.8494</v>
       </c>
       <c r="G178" t="n">
-        <v>-85022.02378086121</v>
-      </c>
-      <c r="H178" t="n">
-        <v>0</v>
-      </c>
-      <c r="I178" t="inlineStr"/>
-      <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L178" t="n">
-        <v>1</v>
-      </c>
-      <c r="M178" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H178" t="inlineStr"/>
+      <c r="I178" t="n">
+        <v>66.5</v>
+      </c>
+      <c r="J178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K178" t="n">
+        <v>1</v>
+      </c>
+      <c r="L178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
@@ -6733,22 +6645,21 @@
         <v>1186.1728</v>
       </c>
       <c r="G179" t="n">
-        <v>-86208.19658086121</v>
-      </c>
-      <c r="H179" t="n">
-        <v>0</v>
-      </c>
-      <c r="I179" t="inlineStr"/>
-      <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L179" t="n">
-        <v>1</v>
-      </c>
-      <c r="M179" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H179" t="inlineStr"/>
+      <c r="I179" t="n">
+        <v>66.5</v>
+      </c>
+      <c r="J179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K179" t="n">
+        <v>1</v>
+      </c>
+      <c r="L179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
@@ -6770,22 +6681,21 @@
         <v>8370.8272</v>
       </c>
       <c r="G180" t="n">
-        <v>-94579.02378086121</v>
-      </c>
-      <c r="H180" t="n">
-        <v>0</v>
-      </c>
-      <c r="I180" t="inlineStr"/>
-      <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L180" t="n">
-        <v>1</v>
-      </c>
-      <c r="M180" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H180" t="inlineStr"/>
+      <c r="I180" t="n">
+        <v>66.5</v>
+      </c>
+      <c r="J180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K180" t="n">
+        <v>1</v>
+      </c>
+      <c r="L180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
@@ -6807,22 +6717,21 @@
         <v>2000</v>
       </c>
       <c r="G181" t="n">
-        <v>-96579.02378086121</v>
-      </c>
-      <c r="H181" t="n">
-        <v>0</v>
-      </c>
-      <c r="I181" t="inlineStr"/>
-      <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L181" t="n">
-        <v>1</v>
-      </c>
-      <c r="M181" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H181" t="inlineStr"/>
+      <c r="I181" t="n">
+        <v>66.5</v>
+      </c>
+      <c r="J181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K181" t="n">
+        <v>1</v>
+      </c>
+      <c r="L181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
@@ -6844,22 +6753,21 @@
         <v>32.84181367546289</v>
       </c>
       <c r="G182" t="n">
-        <v>-96546.18196718575</v>
-      </c>
-      <c r="H182" t="n">
-        <v>0</v>
-      </c>
-      <c r="I182" t="inlineStr"/>
-      <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L182" t="n">
-        <v>1</v>
-      </c>
-      <c r="M182" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H182" t="inlineStr"/>
+      <c r="I182" t="n">
+        <v>66.5</v>
+      </c>
+      <c r="J182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K182" t="n">
+        <v>1</v>
+      </c>
+      <c r="L182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
@@ -6881,22 +6789,21 @@
         <v>194</v>
       </c>
       <c r="G183" t="n">
-        <v>-96740.18196718575</v>
-      </c>
-      <c r="H183" t="n">
-        <v>0</v>
-      </c>
-      <c r="I183" t="inlineStr"/>
-      <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L183" t="n">
-        <v>1</v>
-      </c>
-      <c r="M183" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H183" t="inlineStr"/>
+      <c r="I183" t="n">
+        <v>66.5</v>
+      </c>
+      <c r="J183" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K183" t="n">
+        <v>1</v>
+      </c>
+      <c r="L183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
@@ -6918,22 +6825,21 @@
         <v>11.3527</v>
       </c>
       <c r="G184" t="n">
-        <v>-96728.82926718575</v>
-      </c>
-      <c r="H184" t="n">
-        <v>0</v>
-      </c>
-      <c r="I184" t="inlineStr"/>
-      <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L184" t="n">
-        <v>1</v>
-      </c>
-      <c r="M184" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H184" t="inlineStr"/>
+      <c r="I184" t="n">
+        <v>66.5</v>
+      </c>
+      <c r="J184" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K184" t="n">
+        <v>1</v>
+      </c>
+      <c r="L184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
@@ -6955,22 +6861,21 @@
         <v>115.148</v>
       </c>
       <c r="G185" t="n">
-        <v>-96843.97726718575</v>
-      </c>
-      <c r="H185" t="n">
-        <v>0</v>
-      </c>
-      <c r="I185" t="inlineStr"/>
-      <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L185" t="n">
-        <v>1</v>
-      </c>
-      <c r="M185" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H185" t="inlineStr"/>
+      <c r="I185" t="n">
+        <v>66.5</v>
+      </c>
+      <c r="J185" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K185" t="n">
+        <v>1</v>
+      </c>
+      <c r="L185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
@@ -6992,22 +6897,21 @@
         <v>369.7768</v>
       </c>
       <c r="G186" t="n">
-        <v>-97213.75406718576</v>
-      </c>
-      <c r="H186" t="n">
-        <v>0</v>
-      </c>
-      <c r="I186" t="inlineStr"/>
-      <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L186" t="n">
-        <v>1</v>
-      </c>
-      <c r="M186" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H186" t="inlineStr"/>
+      <c r="I186" t="n">
+        <v>66.5</v>
+      </c>
+      <c r="J186" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K186" t="n">
+        <v>1</v>
+      </c>
+      <c r="L186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
@@ -7029,22 +6933,21 @@
         <v>1242.072</v>
       </c>
       <c r="G187" t="n">
-        <v>-98455.82606718576</v>
-      </c>
-      <c r="H187" t="n">
-        <v>0</v>
-      </c>
-      <c r="I187" t="inlineStr"/>
-      <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L187" t="n">
-        <v>1</v>
-      </c>
-      <c r="M187" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H187" t="inlineStr"/>
+      <c r="I187" t="n">
+        <v>66.5</v>
+      </c>
+      <c r="J187" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K187" t="n">
+        <v>1</v>
+      </c>
+      <c r="L187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
@@ -7066,22 +6969,21 @@
         <v>121.63</v>
       </c>
       <c r="G188" t="n">
-        <v>-98577.45606718576</v>
-      </c>
-      <c r="H188" t="n">
-        <v>0</v>
-      </c>
-      <c r="I188" t="inlineStr"/>
-      <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L188" t="n">
-        <v>1</v>
-      </c>
-      <c r="M188" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H188" t="inlineStr"/>
+      <c r="I188" t="n">
+        <v>66.5</v>
+      </c>
+      <c r="J188" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K188" t="n">
+        <v>1</v>
+      </c>
+      <c r="L188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
@@ -7103,22 +7005,21 @@
         <v>8</v>
       </c>
       <c r="G189" t="n">
-        <v>-98569.45606718576</v>
-      </c>
-      <c r="H189" t="n">
-        <v>0</v>
-      </c>
-      <c r="I189" t="inlineStr"/>
-      <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L189" t="n">
-        <v>1</v>
-      </c>
-      <c r="M189" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H189" t="inlineStr"/>
+      <c r="I189" t="n">
+        <v>66.5</v>
+      </c>
+      <c r="J189" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K189" t="n">
+        <v>1</v>
+      </c>
+      <c r="L189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
@@ -7140,22 +7041,21 @@
         <v>5636.408</v>
       </c>
       <c r="G190" t="n">
-        <v>-104205.8640671858</v>
-      </c>
-      <c r="H190" t="n">
-        <v>0</v>
-      </c>
-      <c r="I190" t="inlineStr"/>
-      <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L190" t="n">
-        <v>1</v>
-      </c>
-      <c r="M190" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H190" t="inlineStr"/>
+      <c r="I190" t="n">
+        <v>66.5</v>
+      </c>
+      <c r="J190" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K190" t="n">
+        <v>1</v>
+      </c>
+      <c r="L190" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
@@ -7177,22 +7077,21 @@
         <v>8</v>
       </c>
       <c r="G191" t="n">
-        <v>-104197.8640671858</v>
-      </c>
-      <c r="H191" t="n">
-        <v>0</v>
-      </c>
-      <c r="I191" t="inlineStr"/>
-      <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L191" t="n">
-        <v>1</v>
-      </c>
-      <c r="M191" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H191" t="inlineStr"/>
+      <c r="I191" t="n">
+        <v>66.5</v>
+      </c>
+      <c r="J191" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K191" t="n">
+        <v>1</v>
+      </c>
+      <c r="L191" t="inlineStr"/>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
@@ -7214,22 +7113,21 @@
         <v>1800</v>
       </c>
       <c r="G192" t="n">
-        <v>-102397.8640671858</v>
-      </c>
-      <c r="H192" t="n">
-        <v>0</v>
-      </c>
-      <c r="I192" t="inlineStr"/>
-      <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L192" t="n">
-        <v>1</v>
-      </c>
-      <c r="M192" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H192" t="inlineStr"/>
+      <c r="I192" t="n">
+        <v>66.5</v>
+      </c>
+      <c r="J192" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K192" t="n">
+        <v>1</v>
+      </c>
+      <c r="L192" t="inlineStr"/>
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
@@ -7251,22 +7149,21 @@
         <v>8.0467</v>
       </c>
       <c r="G193" t="n">
-        <v>-102405.9107671858</v>
-      </c>
-      <c r="H193" t="n">
-        <v>0</v>
-      </c>
-      <c r="I193" t="inlineStr"/>
-      <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L193" t="n">
-        <v>1</v>
-      </c>
-      <c r="M193" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H193" t="inlineStr"/>
+      <c r="I193" t="n">
+        <v>66.5</v>
+      </c>
+      <c r="J193" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K193" t="n">
+        <v>1</v>
+      </c>
+      <c r="L193" t="inlineStr"/>
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
@@ -7288,22 +7185,21 @@
         <v>4689.3195</v>
       </c>
       <c r="G194" t="n">
-        <v>-97716.59126718577</v>
-      </c>
-      <c r="H194" t="n">
-        <v>0</v>
-      </c>
-      <c r="I194" t="inlineStr"/>
-      <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L194" t="n">
-        <v>1</v>
-      </c>
-      <c r="M194" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H194" t="inlineStr"/>
+      <c r="I194" t="n">
+        <v>66.5</v>
+      </c>
+      <c r="J194" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K194" t="n">
+        <v>1</v>
+      </c>
+      <c r="L194" t="inlineStr"/>
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
@@ -7325,22 +7221,21 @@
         <v>8943.8734</v>
       </c>
       <c r="G195" t="n">
-        <v>-97716.59126718577</v>
-      </c>
-      <c r="H195" t="n">
-        <v>0</v>
-      </c>
-      <c r="I195" t="inlineStr"/>
-      <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L195" t="n">
-        <v>1</v>
-      </c>
-      <c r="M195" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H195" t="inlineStr"/>
+      <c r="I195" t="n">
+        <v>66.5</v>
+      </c>
+      <c r="J195" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K195" t="n">
+        <v>1</v>
+      </c>
+      <c r="L195" t="inlineStr"/>
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
@@ -7362,22 +7257,21 @@
         <v>7407.113786324537</v>
       </c>
       <c r="G196" t="n">
-        <v>-90309.47748086123</v>
-      </c>
-      <c r="H196" t="n">
-        <v>0</v>
-      </c>
-      <c r="I196" t="inlineStr"/>
-      <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L196" t="n">
-        <v>1</v>
-      </c>
-      <c r="M196" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H196" t="inlineStr"/>
+      <c r="I196" t="n">
+        <v>66.5</v>
+      </c>
+      <c r="J196" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K196" t="n">
+        <v>1</v>
+      </c>
+      <c r="L196" t="inlineStr"/>
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
@@ -7399,22 +7293,21 @@
         <v>17021.52081551222</v>
       </c>
       <c r="G197" t="n">
-        <v>-73287.956665349</v>
-      </c>
-      <c r="H197" t="n">
-        <v>0</v>
-      </c>
-      <c r="I197" t="inlineStr"/>
-      <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L197" t="n">
-        <v>1</v>
-      </c>
-      <c r="M197" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H197" t="inlineStr"/>
+      <c r="I197" t="n">
+        <v>66.5</v>
+      </c>
+      <c r="J197" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K197" t="n">
+        <v>1</v>
+      </c>
+      <c r="L197" t="inlineStr"/>
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
@@ -7436,22 +7329,21 @@
         <v>6392.2178</v>
       </c>
       <c r="G198" t="n">
-        <v>-66895.73886534901</v>
-      </c>
-      <c r="H198" t="n">
-        <v>0</v>
-      </c>
-      <c r="I198" t="inlineStr"/>
-      <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L198" t="n">
-        <v>1</v>
-      </c>
-      <c r="M198" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H198" t="inlineStr"/>
+      <c r="I198" t="n">
+        <v>66.5</v>
+      </c>
+      <c r="J198" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K198" t="n">
+        <v>1</v>
+      </c>
+      <c r="L198" t="inlineStr"/>
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
@@ -7473,22 +7365,21 @@
         <v>22781.0817</v>
       </c>
       <c r="G199" t="n">
-        <v>-44114.65716534901</v>
-      </c>
-      <c r="H199" t="n">
-        <v>0</v>
-      </c>
-      <c r="I199" t="inlineStr"/>
-      <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L199" t="n">
-        <v>1</v>
-      </c>
-      <c r="M199" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H199" t="inlineStr"/>
+      <c r="I199" t="n">
+        <v>66.5</v>
+      </c>
+      <c r="J199" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K199" t="n">
+        <v>1</v>
+      </c>
+      <c r="L199" t="inlineStr"/>
     </row>
     <row r="200">
       <c r="A200" s="1" t="n">
@@ -7510,22 +7401,21 @@
         <v>3847.362</v>
       </c>
       <c r="G200" t="n">
-        <v>-44114.65716534901</v>
-      </c>
-      <c r="H200" t="n">
-        <v>0</v>
-      </c>
-      <c r="I200" t="inlineStr"/>
-      <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L200" t="n">
-        <v>1</v>
-      </c>
-      <c r="M200" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H200" t="inlineStr"/>
+      <c r="I200" t="n">
+        <v>66.5</v>
+      </c>
+      <c r="J200" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K200" t="n">
+        <v>1</v>
+      </c>
+      <c r="L200" t="inlineStr"/>
     </row>
     <row r="201">
       <c r="A201" s="1" t="n">
@@ -7547,20 +7437,21 @@
         <v>8</v>
       </c>
       <c r="G201" t="n">
-        <v>-44106.65716534901</v>
-      </c>
-      <c r="H201" t="n">
         <v>2</v>
       </c>
-      <c r="I201" t="inlineStr"/>
-      <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr">
+      <c r="H201" t="inlineStr"/>
+      <c r="I201" t="n">
+        <v>66.5</v>
+      </c>
+      <c r="J201" t="inlineStr">
         <is>
           <t>매도 체결</t>
         </is>
       </c>
+      <c r="K201" t="n">
+        <v>1.038308270676692</v>
+      </c>
       <c r="L201" t="inlineStr"/>
-      <c r="M201" t="inlineStr"/>
     </row>
     <row r="202">
       <c r="A202" s="1" t="n">
@@ -7582,18 +7473,15 @@
         <v>7977.9933</v>
       </c>
       <c r="G202" t="n">
-        <v>-52084.65046534901</v>
-      </c>
-      <c r="H202" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H202" t="inlineStr"/>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr"/>
-      <c r="L202" t="n">
-        <v>1</v>
-      </c>
-      <c r="M202" t="inlineStr"/>
+      <c r="K202" t="n">
+        <v>1</v>
+      </c>
+      <c r="L202" t="inlineStr"/>
     </row>
     <row r="203">
       <c r="A203" s="1" t="n">
@@ -7615,18 +7503,15 @@
         <v>8</v>
       </c>
       <c r="G203" t="n">
-        <v>-52076.65046534901</v>
-      </c>
-      <c r="H203" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H203" t="inlineStr"/>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr"/>
-      <c r="L203" t="n">
-        <v>1</v>
-      </c>
-      <c r="M203" t="inlineStr"/>
+      <c r="K203" t="n">
+        <v>1</v>
+      </c>
+      <c r="L203" t="inlineStr"/>
     </row>
     <row r="204">
       <c r="A204" s="1" t="n">
@@ -7648,18 +7533,15 @@
         <v>6948.213</v>
       </c>
       <c r="G204" t="n">
-        <v>-59024.86346534902</v>
-      </c>
-      <c r="H204" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H204" t="inlineStr"/>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr"/>
-      <c r="L204" t="n">
-        <v>1</v>
-      </c>
-      <c r="M204" t="inlineStr"/>
+      <c r="K204" t="n">
+        <v>1</v>
+      </c>
+      <c r="L204" t="inlineStr"/>
     </row>
     <row r="205">
       <c r="A205" s="1" t="n">
@@ -7681,18 +7563,15 @@
         <v>8338.2657</v>
       </c>
       <c r="G205" t="n">
-        <v>-67363.12916534902</v>
-      </c>
-      <c r="H205" t="n">
         <v>2</v>
       </c>
+      <c r="H205" t="inlineStr"/>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr"/>
-      <c r="L205" t="n">
-        <v>1</v>
-      </c>
-      <c r="M205" t="inlineStr"/>
+      <c r="K205" t="n">
+        <v>1</v>
+      </c>
+      <c r="L205" t="inlineStr"/>
     </row>
     <row r="206">
       <c r="A206" s="1" t="n">
@@ -7714,18 +7593,15 @@
         <v>1045.7942</v>
       </c>
       <c r="G206" t="n">
-        <v>-67363.12916534902</v>
-      </c>
-      <c r="H206" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H206" t="inlineStr"/>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr"/>
-      <c r="L206" t="n">
-        <v>1</v>
-      </c>
-      <c r="M206" t="inlineStr"/>
+      <c r="K206" t="n">
+        <v>1</v>
+      </c>
+      <c r="L206" t="inlineStr"/>
     </row>
     <row r="207">
       <c r="A207" s="1" t="n">
@@ -7747,18 +7623,15 @@
         <v>8087.5792</v>
       </c>
       <c r="G207" t="n">
-        <v>-59275.54996534902</v>
-      </c>
-      <c r="H207" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H207" t="inlineStr"/>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr"/>
-      <c r="L207" t="n">
-        <v>1</v>
-      </c>
-      <c r="M207" t="inlineStr"/>
+      <c r="K207" t="n">
+        <v>1</v>
+      </c>
+      <c r="L207" t="inlineStr"/>
     </row>
     <row r="208">
       <c r="A208" s="1" t="n">
@@ -7780,18 +7653,15 @@
         <v>8</v>
       </c>
       <c r="G208" t="n">
-        <v>-59267.54996534902</v>
-      </c>
-      <c r="H208" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H208" t="inlineStr"/>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr"/>
-      <c r="L208" t="n">
-        <v>1</v>
-      </c>
-      <c r="M208" t="inlineStr"/>
+      <c r="K208" t="n">
+        <v>1</v>
+      </c>
+      <c r="L208" t="inlineStr"/>
     </row>
     <row r="209">
       <c r="A209" s="1" t="n">
@@ -7813,18 +7683,15 @@
         <v>13501.4325</v>
       </c>
       <c r="G209" t="n">
-        <v>-72768.98246534902</v>
-      </c>
-      <c r="H209" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H209" t="inlineStr"/>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr"/>
-      <c r="L209" t="n">
-        <v>1</v>
-      </c>
-      <c r="M209" t="inlineStr"/>
+      <c r="K209" t="n">
+        <v>1</v>
+      </c>
+      <c r="L209" t="inlineStr"/>
     </row>
     <row r="210">
       <c r="A210" s="1" t="n">
@@ -7846,18 +7713,15 @@
         <v>17665.47218034348</v>
       </c>
       <c r="G210" t="n">
-        <v>-55103.51028500554</v>
-      </c>
-      <c r="H210" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H210" t="inlineStr"/>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr"/>
-      <c r="L210" t="n">
-        <v>1</v>
-      </c>
-      <c r="M210" t="inlineStr"/>
+      <c r="K210" t="n">
+        <v>1</v>
+      </c>
+      <c r="L210" t="inlineStr"/>
     </row>
     <row r="211">
       <c r="A211" s="1" t="n">
@@ -7879,18 +7743,15 @@
         <v>175.0071963961367</v>
       </c>
       <c r="G211" t="n">
-        <v>-54928.5030886094</v>
-      </c>
-      <c r="H211" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H211" t="inlineStr"/>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr"/>
-      <c r="L211" t="n">
-        <v>1</v>
-      </c>
-      <c r="M211" t="inlineStr"/>
+      <c r="K211" t="n">
+        <v>1</v>
+      </c>
+      <c r="L211" t="inlineStr"/>
     </row>
     <row r="212">
       <c r="A212" s="1" t="n">
@@ -7912,18 +7773,15 @@
         <v>49</v>
       </c>
       <c r="G212" t="n">
-        <v>-54977.5030886094</v>
-      </c>
-      <c r="H212" t="n">
         <v>2</v>
       </c>
+      <c r="H212" t="inlineStr"/>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr"/>
-      <c r="L212" t="n">
-        <v>1</v>
-      </c>
-      <c r="M212" t="inlineStr"/>
+      <c r="K212" t="n">
+        <v>1</v>
+      </c>
+      <c r="L212" t="inlineStr"/>
     </row>
     <row r="213">
       <c r="A213" s="1" t="n">
@@ -7945,18 +7803,15 @@
         <v>213.2144</v>
       </c>
       <c r="G213" t="n">
-        <v>-54977.5030886094</v>
-      </c>
-      <c r="H213" t="n">
         <v>2</v>
       </c>
+      <c r="H213" t="inlineStr"/>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr"/>
-      <c r="L213" t="n">
-        <v>1</v>
-      </c>
-      <c r="M213" t="inlineStr"/>
+      <c r="K213" t="n">
+        <v>1</v>
+      </c>
+      <c r="L213" t="inlineStr"/>
     </row>
     <row r="214">
       <c r="A214" s="1" t="n">
@@ -7978,18 +7833,15 @@
         <v>5154.4399</v>
       </c>
       <c r="G214" t="n">
-        <v>-60131.9429886094</v>
-      </c>
-      <c r="H214" t="n">
         <v>2</v>
       </c>
+      <c r="H214" t="inlineStr"/>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr"/>
-      <c r="L214" t="n">
-        <v>1</v>
-      </c>
-      <c r="M214" t="inlineStr"/>
+      <c r="K214" t="n">
+        <v>1</v>
+      </c>
+      <c r="L214" t="inlineStr"/>
     </row>
     <row r="215">
       <c r="A215" s="1" t="n">
@@ -8011,18 +7863,15 @@
         <v>853.4956</v>
       </c>
       <c r="G215" t="n">
-        <v>-59278.4473886094</v>
-      </c>
-      <c r="H215" t="n">
         <v>2</v>
       </c>
+      <c r="H215" t="inlineStr"/>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr"/>
-      <c r="L215" t="n">
-        <v>1</v>
-      </c>
-      <c r="M215" t="inlineStr"/>
+      <c r="K215" t="n">
+        <v>1</v>
+      </c>
+      <c r="L215" t="inlineStr"/>
     </row>
     <row r="216">
       <c r="A216" s="1" t="n">
@@ -8044,18 +7893,15 @@
         <v>8</v>
       </c>
       <c r="G216" t="n">
-        <v>-59270.4473886094</v>
-      </c>
-      <c r="H216" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H216" t="inlineStr"/>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
-      <c r="K216" t="inlineStr"/>
-      <c r="L216" t="n">
-        <v>1</v>
-      </c>
-      <c r="M216" t="inlineStr"/>
+      <c r="K216" t="n">
+        <v>1</v>
+      </c>
+      <c r="L216" t="inlineStr"/>
     </row>
     <row r="217">
       <c r="A217" s="1" t="n">
@@ -8077,18 +7923,15 @@
         <v>17050.0608</v>
       </c>
       <c r="G217" t="n">
-        <v>-76320.5081886094</v>
-      </c>
-      <c r="H217" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H217" t="inlineStr"/>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr"/>
-      <c r="L217" t="n">
-        <v>1</v>
-      </c>
-      <c r="M217" t="inlineStr"/>
+      <c r="K217" t="n">
+        <v>1</v>
+      </c>
+      <c r="L217" t="inlineStr"/>
     </row>
     <row r="218">
       <c r="A218" s="1" t="n">
@@ -8110,18 +7953,15 @@
         <v>14001.58538401921</v>
       </c>
       <c r="G218" t="n">
-        <v>-62318.92280459018</v>
-      </c>
-      <c r="H218" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H218" t="inlineStr"/>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
-      <c r="K218" t="inlineStr"/>
-      <c r="L218" t="n">
-        <v>1</v>
-      </c>
-      <c r="M218" t="inlineStr"/>
+      <c r="K218" t="n">
+        <v>1</v>
+      </c>
+      <c r="L218" t="inlineStr"/>
     </row>
     <row r="219">
       <c r="A219" s="1" t="n">
@@ -8143,18 +7983,15 @@
         <v>18.42900302114804</v>
       </c>
       <c r="G219" t="n">
-        <v>-62337.35180761133</v>
-      </c>
-      <c r="H219" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H219" t="inlineStr"/>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
-      <c r="K219" t="inlineStr"/>
-      <c r="L219" t="n">
-        <v>1</v>
-      </c>
-      <c r="M219" t="inlineStr"/>
+      <c r="K219" t="n">
+        <v>1</v>
+      </c>
+      <c r="L219" t="inlineStr"/>
     </row>
     <row r="220">
       <c r="A220" s="1" t="n">
@@ -8176,18 +8013,15 @@
         <v>5293.1176</v>
       </c>
       <c r="G220" t="n">
-        <v>-67630.46940761134</v>
-      </c>
-      <c r="H220" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H220" t="inlineStr"/>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
-      <c r="K220" t="inlineStr"/>
-      <c r="L220" t="n">
-        <v>1</v>
-      </c>
-      <c r="M220" t="inlineStr"/>
+      <c r="K220" t="n">
+        <v>1</v>
+      </c>
+      <c r="L220" t="inlineStr"/>
     </row>
     <row r="221">
       <c r="A221" s="1" t="n">
@@ -8209,18 +8043,15 @@
         <v>8</v>
       </c>
       <c r="G221" t="n">
-        <v>-67622.46940761134</v>
-      </c>
-      <c r="H221" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H221" t="inlineStr"/>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
-      <c r="K221" t="inlineStr"/>
-      <c r="L221" t="n">
-        <v>1</v>
-      </c>
-      <c r="M221" t="inlineStr"/>
+      <c r="K221" t="n">
+        <v>1</v>
+      </c>
+      <c r="L221" t="inlineStr"/>
     </row>
     <row r="222">
       <c r="A222" s="1" t="n">
@@ -8242,18 +8073,15 @@
         <v>296.069</v>
       </c>
       <c r="G222" t="n">
-        <v>-67918.53840761134</v>
-      </c>
-      <c r="H222" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H222" t="inlineStr"/>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr"/>
-      <c r="L222" t="n">
-        <v>1</v>
-      </c>
-      <c r="M222" t="inlineStr"/>
+      <c r="K222" t="n">
+        <v>1</v>
+      </c>
+      <c r="L222" t="inlineStr"/>
     </row>
     <row r="223">
       <c r="A223" s="1" t="n">
@@ -8275,18 +8103,15 @@
         <v>3703.931</v>
       </c>
       <c r="G223" t="n">
-        <v>-67918.53840761134</v>
-      </c>
-      <c r="H223" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H223" t="inlineStr"/>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
-      <c r="K223" t="inlineStr"/>
-      <c r="L223" t="n">
-        <v>1</v>
-      </c>
-      <c r="M223" t="inlineStr"/>
+      <c r="K223" t="n">
+        <v>1</v>
+      </c>
+      <c r="L223" t="inlineStr"/>
     </row>
     <row r="224">
       <c r="A224" s="1" t="n">
@@ -8308,18 +8133,15 @@
         <v>296.069</v>
       </c>
       <c r="G224" t="n">
-        <v>-67622.46940761134</v>
-      </c>
-      <c r="H224" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H224" t="inlineStr"/>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
-      <c r="K224" t="inlineStr"/>
-      <c r="L224" t="n">
-        <v>1</v>
-      </c>
-      <c r="M224" t="inlineStr"/>
+      <c r="K224" t="n">
+        <v>1</v>
+      </c>
+      <c r="L224" t="inlineStr"/>
     </row>
     <row r="225">
       <c r="A225" s="1" t="n">
@@ -8341,18 +8163,15 @@
         <v>12817.4487</v>
       </c>
       <c r="G225" t="n">
-        <v>-54805.02070761134</v>
-      </c>
-      <c r="H225" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H225" t="inlineStr"/>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
-      <c r="K225" t="inlineStr"/>
-      <c r="L225" t="n">
-        <v>1</v>
-      </c>
-      <c r="M225" t="inlineStr"/>
+      <c r="K225" t="n">
+        <v>1</v>
+      </c>
+      <c r="L225" t="inlineStr"/>
     </row>
     <row r="226">
       <c r="A226" s="1" t="n">
@@ -8374,18 +8193,15 @@
         <v>14787.68565038815</v>
       </c>
       <c r="G226" t="n">
-        <v>-40017.33505722319</v>
-      </c>
-      <c r="H226" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H226" t="inlineStr"/>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
-      <c r="K226" t="inlineStr"/>
-      <c r="L226" t="n">
-        <v>1</v>
-      </c>
-      <c r="M226" t="inlineStr"/>
+      <c r="K226" t="n">
+        <v>1</v>
+      </c>
+      <c r="L226" t="inlineStr"/>
     </row>
     <row r="227">
       <c r="A227" s="1" t="n">
@@ -8407,18 +8223,15 @@
         <v>32904.3365</v>
       </c>
       <c r="G227" t="n">
-        <v>-7112.998557223189</v>
-      </c>
-      <c r="H227" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H227" t="inlineStr"/>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
-      <c r="K227" t="inlineStr"/>
-      <c r="L227" t="n">
-        <v>1</v>
-      </c>
-      <c r="M227" t="inlineStr"/>
+      <c r="K227" t="n">
+        <v>1</v>
+      </c>
+      <c r="L227" t="inlineStr"/>
     </row>
     <row r="228">
       <c r="A228" s="1" t="n">
@@ -8440,18 +8253,15 @@
         <v>4708.9945</v>
       </c>
       <c r="G228" t="n">
-        <v>-2404.004057223189</v>
-      </c>
-      <c r="H228" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H228" t="inlineStr"/>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
-      <c r="K228" t="inlineStr"/>
-      <c r="L228" t="n">
-        <v>1</v>
-      </c>
-      <c r="M228" t="inlineStr"/>
+      <c r="K228" t="n">
+        <v>1</v>
+      </c>
+      <c r="L228" t="inlineStr"/>
     </row>
     <row r="229">
       <c r="A229" s="1" t="n">
@@ -8473,18 +8283,15 @@
         <v>34748.1512</v>
       </c>
       <c r="G229" t="n">
-        <v>-37152.15525722319</v>
-      </c>
-      <c r="H229" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H229" t="inlineStr"/>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
-      <c r="K229" t="inlineStr"/>
-      <c r="L229" t="n">
-        <v>1</v>
-      </c>
-      <c r="M229" t="inlineStr"/>
+      <c r="K229" t="n">
+        <v>1</v>
+      </c>
+      <c r="L229" t="inlineStr"/>
     </row>
     <row r="230">
       <c r="A230" s="1" t="n">
@@ -8506,18 +8313,15 @@
         <v>110</v>
       </c>
       <c r="G230" t="n">
-        <v>-37042.15525722319</v>
-      </c>
-      <c r="H230" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H230" t="inlineStr"/>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
-      <c r="K230" t="inlineStr"/>
-      <c r="L230" t="n">
-        <v>1</v>
-      </c>
-      <c r="M230" t="inlineStr"/>
+      <c r="K230" t="n">
+        <v>1</v>
+      </c>
+      <c r="L230" t="inlineStr"/>
     </row>
     <row r="231">
       <c r="A231" s="1" t="n">
@@ -8539,18 +8343,15 @@
         <v>1988.9411</v>
       </c>
       <c r="G231" t="n">
-        <v>-39031.09635722318</v>
-      </c>
-      <c r="H231" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H231" t="inlineStr"/>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
-      <c r="K231" t="inlineStr"/>
-      <c r="L231" t="n">
-        <v>1</v>
-      </c>
-      <c r="M231" t="inlineStr"/>
+      <c r="K231" t="n">
+        <v>1</v>
+      </c>
+      <c r="L231" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
